--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076098B4-6229-4A15-B4D8-91677F89C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E248BB4B-B14E-48DE-8249-F6C870B91667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -398,7 +398,6 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,11 +1442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE3921D-0263-476D-B0E9-5252564F378B}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U39" sqref="U39"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3858,7 +3857,7 @@
         <v>0.58851905541148319</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>26347</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>0.58548888888888884</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4310,7 +4309,6 @@
       <c r="T39" s="1">
         <v>70</v>
       </c>
-      <c r="U39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4323,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2297E02C-9E35-4D4E-AA66-24970E3CCF5E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B117482-D901-406C-B05D-7DA0DCDFAE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E68464F-4076-4826-A263-87FB76DB1F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Painel" sheetId="5" r:id="rId4"/>
     <sheet name="Painel_Cte" sheetId="7" r:id="rId5"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId6"/>
-    <sheet name="IPC" sheetId="6" r:id="rId7"/>
+    <sheet name="Transparência" sheetId="8" r:id="rId7"/>
+    <sheet name="IPC" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índices!$A$1:$T$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Planilha1!$A$16:$A$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Planilha1!$A$44:$A$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -379,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="140">
   <si>
     <t>Publicidade e patrocínio</t>
   </si>
@@ -740,17 +741,78 @@
   <si>
     <t>Juventude</t>
   </si>
+  <si>
+    <t>Índice de Transparência</t>
+  </si>
+  <si>
+    <t>Nível 1 - Reportes Obrigatórios</t>
+  </si>
+  <si>
+    <t>Nível 2 - Reportes Discricionários</t>
+  </si>
+  <si>
+    <t>Nível 3 - Indicadores de Qualidade</t>
+  </si>
+  <si>
+    <t>Contingências</t>
+  </si>
+  <si>
+    <t>Força Financeira Estrita</t>
+  </si>
+  <si>
+    <t>Força Financeira Ampla</t>
+  </si>
+  <si>
+    <t>Despesas Totais</t>
+  </si>
+  <si>
+    <t>Folha do Futebol</t>
+  </si>
+  <si>
+    <t>Caixa destinado à compra de jogadores</t>
+  </si>
+  <si>
+    <t>Ingressos de Caixa Não Operacionais</t>
+  </si>
+  <si>
+    <t>Gastos c/ Atletas em Formação (DFC)</t>
+  </si>
+  <si>
+    <t>Despesas não-futebol</t>
+  </si>
+  <si>
+    <t>Amortização (jogadores)</t>
+  </si>
+  <si>
+    <t>Folha do futebol / Receita Operacional Líquida</t>
+  </si>
+  <si>
+    <t>Gastos c/ Futebol /Despesas Totais</t>
+  </si>
+  <si>
+    <t>Folha do Futebol / Receita Operacional Líquida</t>
+  </si>
+  <si>
+    <t>Folha do Futebol / Força Financeira Estrita</t>
+  </si>
+  <si>
+    <t>Força Financeira/Receita Operacional Líquida</t>
+  </si>
+  <si>
+    <t>Folha futebol + Compra jogadores / Rec Oper Líquida</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,6 +855,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -827,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -856,7 +926,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,10 +1374,10 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,14 +1624,14 @@
         <v>19</v>
       </c>
       <c r="K11" s="1">
-        <v>1245</v>
+        <v>1316</v>
       </c>
       <c r="Q11" s="1">
         <v>732</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
-        <v>988.5</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -2126,13 +2201,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE3921D-0263-476D-B0E9-5252564F378B}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AK54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3027,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1245</v>
+        <v>1316</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -4457,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
@@ -6049,8 +6124,8 @@
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50" s="6">
-        <v>167</v>
+      <c r="K50">
+        <v>255</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -6068,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -6121,7 +6196,8 @@
         <v>0</v>
       </c>
       <c r="K51" s="18">
-        <v>0.34432989690721649</v>
+        <f>K50/K21</f>
+        <v>0.52577319587628868</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -6139,7 +6215,8 @@
         <v>0</v>
       </c>
       <c r="Q51" s="18">
-        <v>0.68817204301075274</v>
+        <f>Q50/Q21</f>
+        <v>0.81182795698924726</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -6192,7 +6269,8 @@
         <v>0</v>
       </c>
       <c r="K52" s="18">
-        <v>0.13413654618473897</v>
+        <f>K50/K11</f>
+        <v>0.19376899696048633</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -6210,7 +6288,8 @@
         <v>0</v>
       </c>
       <c r="Q52" s="18">
-        <v>0.17486338797814208</v>
+        <f>Q50/Q11</f>
+        <v>0.20628415300546449</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -6229,10 +6308,55 @@
       </c>
       <c r="W52">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25">
+        <f t="shared" ref="K53:Q53" si="4">K28/K11</f>
+        <v>0.3518237082066869</v>
+      </c>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25">
+        <f t="shared" si="4"/>
+        <v>0.55327868852459017</v>
+      </c>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K54" s="25">
+        <f>(K28+K24)/K11</f>
+        <v>0.55927051671732519</v>
+      </c>
+      <c r="Q54" s="25">
+        <f>(Q28+Q24)/Q11</f>
+        <v>0.75819672131147542</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T39" xr:uid="{FBE3921D-0263-476D-B0E9-5252564F378B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6242,13 +6366,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2221C307-C5F6-4652-B347-1BC949C8AB8A}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:DG31"/>
+  <dimension ref="A1:DG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BV6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BY31" sqref="BY31"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8611,7 +8735,7 @@
       </c>
       <c r="AU11" s="1">
         <f>Resultado!K11</f>
-        <v>1245</v>
+        <v>1316</v>
       </c>
       <c r="AV11">
         <v>1112</v>
@@ -8963,24 +9087,19 @@
         <v>190</v>
       </c>
       <c r="BY12">
-        <f>Índices!Q28</f>
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="BZ12">
-        <f>267+64</f>
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="CA12">
-        <f>294+55</f>
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="CB12">
-        <f>162+41</f>
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CC12">
-        <f>195+51</f>
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="CE12">
         <f>80+31</f>
@@ -9589,7 +9708,7 @@
         <v>0.8</v>
       </c>
       <c r="H15">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="I15">
         <v>112</v>
@@ -11900,214 +12019,256 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D31">
-        <v>84</v>
+        <v>87.9</v>
       </c>
       <c r="E31">
-        <v>58</v>
+        <v>66.5</v>
       </c>
       <c r="F31">
-        <v>59</v>
+        <v>63.7</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1106</v>
+        <v>1162</v>
       </c>
       <c r="I31">
-        <v>866</v>
+        <v>887</v>
       </c>
       <c r="J31">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="K31">
-        <v>558</v>
+        <v>570</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="N31">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="O31">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="P31">
-        <v>286</v>
+        <v>301</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="S31">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="T31">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="U31">
-        <v>142</v>
+        <v>177</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="AC31">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="AD31">
-        <v>430</v>
+        <v>492</v>
       </c>
       <c r="AE31">
-        <v>320</v>
+        <v>325</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="AH31">
+        <v>237</v>
+      </c>
+      <c r="AI31">
+        <v>263</v>
+      </c>
+      <c r="AJ31">
+        <v>213</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>671.3</v>
+      </c>
+      <c r="AM31">
+        <v>872</v>
+      </c>
+      <c r="AN31">
+        <v>649</v>
+      </c>
+      <c r="AO31">
+        <v>463</v>
+      </c>
+      <c r="AU31">
+        <v>255</v>
+      </c>
+      <c r="AV31">
+        <v>349</v>
+      </c>
+      <c r="AW31">
+        <v>408</v>
+      </c>
+      <c r="AX31">
+        <v>438</v>
+      </c>
+      <c r="AY31">
+        <v>427</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>583</v>
+      </c>
+      <c r="BB31">
+        <v>552</v>
+      </c>
+      <c r="BC31">
+        <v>597</v>
+      </c>
+      <c r="BD31">
+        <v>534</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="BG31">
+        <v>12.3</v>
+      </c>
+      <c r="BH31">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BI31">
+        <v>15.4</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>456</v>
+      </c>
+      <c r="BL31">
+        <v>347</v>
+      </c>
+      <c r="BM31">
+        <v>332</v>
+      </c>
+      <c r="BN31">
+        <v>349</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>65.2</v>
+      </c>
+      <c r="BQ31">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="BR31">
+        <v>58.4</v>
+      </c>
+      <c r="BS31">
+        <v>41.400000000000006</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
+        <v>326</v>
+      </c>
+      <c r="BV31">
+        <v>346</v>
+      </c>
+      <c r="BW31">
+        <v>332</v>
+      </c>
+      <c r="BX31">
         <v>196</v>
       </c>
-      <c r="AI31">
-        <v>229</v>
-      </c>
-      <c r="AJ31">
-        <v>178</v>
-      </c>
-      <c r="AL31">
-        <v>661</v>
-      </c>
-      <c r="AM31">
-        <v>688</v>
-      </c>
-      <c r="AN31">
-        <v>491</v>
-      </c>
-      <c r="AO31">
-        <v>417</v>
-      </c>
-      <c r="AU31">
-        <v>167</v>
-      </c>
-      <c r="AV31">
-        <v>249</v>
-      </c>
-      <c r="AW31">
-        <v>290</v>
-      </c>
-      <c r="AX31">
-        <v>322</v>
-      </c>
-      <c r="AY31">
-        <v>340</v>
-      </c>
-      <c r="BA31">
-        <v>453</v>
-      </c>
-      <c r="BB31">
-        <v>370</v>
-      </c>
-      <c r="BC31">
-        <v>335</v>
-      </c>
-      <c r="BD31">
-        <v>286</v>
-      </c>
-      <c r="BF31">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="BG31">
-        <v>10.3</v>
-      </c>
-      <c r="BH31">
-        <v>16</v>
-      </c>
-      <c r="BI31">
-        <v>14</v>
-      </c>
-      <c r="BK31">
-        <v>420</v>
-      </c>
-      <c r="BL31">
-        <v>303</v>
-      </c>
-      <c r="BM31">
-        <v>322</v>
-      </c>
-      <c r="BN31">
-        <v>319</v>
-      </c>
-      <c r="BP31">
-        <v>31.2</v>
-      </c>
-      <c r="BQ31">
-        <v>40.4</v>
-      </c>
-      <c r="BR31">
-        <v>28.4</v>
-      </c>
-      <c r="BS31">
-        <v>26.400000000000002</v>
-      </c>
-      <c r="BU31">
-        <v>300</v>
-      </c>
-      <c r="BV31">
-        <v>315</v>
-      </c>
-      <c r="BW31">
-        <v>284</v>
-      </c>
-      <c r="BX31">
-        <v>169</v>
-      </c>
       <c r="BY31">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="BZ31">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="CA31">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="CB31">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="CC31">
-        <v>231</v>
+        <v>242</v>
+      </c>
+      <c r="CD31">
+        <v>0</v>
       </c>
       <c r="CE31">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="CF31">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="CG31">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="CH31">
-        <v>234</v>
+        <v>338</v>
+      </c>
+      <c r="CI31">
+        <v>0</v>
       </c>
       <c r="CJ31">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="CK31">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="CL31">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="CM31">
-        <v>299</v>
+        <v>355</v>
+      </c>
+      <c r="CN31">
+        <v>0</v>
       </c>
       <c r="CO31">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="CP31">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="CQ31">
-        <v>716</v>
+        <v>824</v>
       </c>
       <c r="CR31">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="CT31">
         <v>16.3</v>
@@ -12144,6 +12305,1396 @@
       </c>
       <c r="DG31">
         <v>21.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>32.333333333333336</v>
+      </c>
+      <c r="D32">
+        <v>3.9954545454545456</v>
+      </c>
+      <c r="E32">
+        <v>22.166666666666668</v>
+      </c>
+      <c r="F32">
+        <v>-7.0777777777777784</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>29.794871794871796</v>
+      </c>
+      <c r="I32">
+        <v>8.137614678899082</v>
+      </c>
+      <c r="J32">
+        <v>-5.0580645161290319</v>
+      </c>
+      <c r="K32">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>4.647887323943662</v>
+      </c>
+      <c r="N32">
+        <v>4.953846153846154</v>
+      </c>
+      <c r="O32">
+        <v>2.3880597014925371</v>
+      </c>
+      <c r="P32">
+        <v>2.7117117117117115</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>229</v>
+      </c>
+      <c r="S32">
+        <v>4.7297297297297298</v>
+      </c>
+      <c r="T32">
+        <v>-15.153846153846153</v>
+      </c>
+      <c r="U32">
+        <v>4.5384615384615383</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>3.8231707317073171</v>
+      </c>
+      <c r="AC32">
+        <v>3.1292134831460676</v>
+      </c>
+      <c r="AD32">
+        <v>12.3</v>
+      </c>
+      <c r="AE32">
+        <v>-18.055555555555557</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>3.078125</v>
+      </c>
+      <c r="AH32">
+        <v>10.772727272727273</v>
+      </c>
+      <c r="AI32">
+        <v>10.958333333333334</v>
+      </c>
+      <c r="AJ32">
+        <v>-19.363636363636363</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>4.5979452054794514</v>
+      </c>
+      <c r="AM32">
+        <v>-10.765432098765432</v>
+      </c>
+      <c r="AN32">
+        <v>-3.6055555555555556</v>
+      </c>
+      <c r="AO32">
+        <v>3.1496598639455784</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="18">
+        <v>0.52577319587628868</v>
+      </c>
+      <c r="AV32">
+        <v>1.0204678362573099</v>
+      </c>
+      <c r="AW32">
+        <v>1.2553846153846153</v>
+      </c>
+      <c r="AX32">
+        <v>2.5764705882352943</v>
+      </c>
+      <c r="AY32">
+        <v>1.721774193548387</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>9.109375</v>
+      </c>
+      <c r="BB32">
+        <v>-6.8148148148148149</v>
+      </c>
+      <c r="BC32">
+        <v>-3.3166666666666669</v>
+      </c>
+      <c r="BD32">
+        <v>7.628571428571429</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0.17719298245614037</v>
+      </c>
+      <c r="BG32">
+        <v>-0.15185185185185185</v>
+      </c>
+      <c r="BH32">
+        <v>-9.6666666666666665E-2</v>
+      </c>
+      <c r="BI32">
+        <v>1.7111111111111112</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>13.818181818181818</v>
+      </c>
+      <c r="BL32">
+        <v>2.0057803468208091</v>
+      </c>
+      <c r="BM32">
+        <v>2.5538461538461537</v>
+      </c>
+      <c r="BN32">
+        <v>2.2088607594936707</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>1.3225152129817446</v>
+      </c>
+      <c r="BQ32">
+        <v>3.62</v>
+      </c>
+      <c r="BR32">
+        <v>2.0137931034482759</v>
+      </c>
+      <c r="BS32">
+        <v>1.0894736842105264</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>2.8596491228070176</v>
+      </c>
+      <c r="BV32">
+        <v>3.4949494949494948</v>
+      </c>
+      <c r="BW32">
+        <v>166</v>
+      </c>
+      <c r="BX32">
+        <v>2.202247191011236</v>
+      </c>
+      <c r="BY32">
+        <v>0.81182795698924726</v>
+      </c>
+      <c r="BZ32">
+        <v>0.87431693989071035</v>
+      </c>
+      <c r="CA32">
+        <v>0.55521472392638038</v>
+      </c>
+      <c r="CB32">
+        <v>1.8013245033112584</v>
+      </c>
+      <c r="CC32">
+        <v>1.2804232804232805</v>
+      </c>
+      <c r="CD32">
+        <v>0</v>
+      </c>
+      <c r="CE32">
+        <v>3.5775862068965516</v>
+      </c>
+      <c r="CF32">
+        <v>2.036144578313253</v>
+      </c>
+      <c r="CG32">
+        <v>-15.954545454545455</v>
+      </c>
+      <c r="CH32">
+        <v>2.0119047619047619</v>
+      </c>
+      <c r="CI32">
+        <v>0</v>
+      </c>
+      <c r="CJ32">
+        <v>2.2675438596491229</v>
+      </c>
+      <c r="CK32">
+        <v>19.16</v>
+      </c>
+      <c r="CL32">
+        <v>0.83371824480369516</v>
+      </c>
+      <c r="CM32">
+        <v>1.0990712074303406</v>
+      </c>
+      <c r="CN32">
+        <v>0</v>
+      </c>
+      <c r="CO32">
+        <v>26.125</v>
+      </c>
+      <c r="CP32">
+        <v>8.1071428571428577</v>
+      </c>
+      <c r="CQ32">
+        <v>11.605633802816902</v>
+      </c>
+      <c r="CR32">
+        <v>4.6806722689075633</v>
+      </c>
+      <c r="CS32">
+        <v>0</v>
+      </c>
+      <c r="CT32">
+        <v>1.1642857142857139</v>
+      </c>
+      <c r="CU32">
+        <v>0.56748466257668706</v>
+      </c>
+      <c r="CV32">
+        <v>4.31924882629108</v>
+      </c>
+      <c r="CW32">
+        <v>3.6285714285714286</v>
+      </c>
+      <c r="CX32">
+        <v>0</v>
+      </c>
+      <c r="CY32">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="CZ32">
+        <v>-4.5555555555555571</v>
+      </c>
+      <c r="DA32">
+        <v>6.8333333333333268</v>
+      </c>
+      <c r="DB32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="DC32">
+        <v>0</v>
+      </c>
+      <c r="DD32">
+        <v>1.2714285714285711</v>
+      </c>
+      <c r="DE32">
+        <v>1.2117647058823531</v>
+      </c>
+      <c r="DF32">
+        <v>4.34</v>
+      </c>
+      <c r="DG32">
+        <v>5.4249999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D33">
+        <v>0.88787878787878793</v>
+      </c>
+      <c r="E33">
+        <v>1.4456521739130435</v>
+      </c>
+      <c r="F33">
+        <v>2.0548387096774197</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3.0181818181818181</v>
+      </c>
+      <c r="I33">
+        <v>1.7847082494969819</v>
+      </c>
+      <c r="J33">
+        <v>5.9847328244274811</v>
+      </c>
+      <c r="K33">
+        <v>2.0141342756183747</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0.94555873925501432</v>
+      </c>
+      <c r="N33">
+        <v>1.2578125</v>
+      </c>
+      <c r="O33">
+        <v>0.97264437689969607</v>
+      </c>
+      <c r="P33">
+        <v>0.79419525065963059</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>2.29</v>
+      </c>
+      <c r="S33">
+        <v>0.90206185567010311</v>
+      </c>
+      <c r="T33">
+        <v>1.6416666666666666</v>
+      </c>
+      <c r="U33">
+        <v>1.0172413793103448</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0.96165644171779141</v>
+      </c>
+      <c r="AC33">
+        <v>1.2433035714285714</v>
+      </c>
+      <c r="AD33">
+        <v>1.1576470588235295</v>
+      </c>
+      <c r="AE33">
+        <v>0.8783783783783784</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1.2628205128205128</v>
+      </c>
+      <c r="AH33">
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="AI33">
+        <v>2.63</v>
+      </c>
+      <c r="AJ33">
+        <v>5.6052631578947372</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>4.5979452054794514</v>
+      </c>
+      <c r="AM33">
+        <v>7.2666666666666666</v>
+      </c>
+      <c r="AN33">
+        <v>5.5</v>
+      </c>
+      <c r="AO33">
+        <v>1.6476868327402134</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="18">
+        <v>0.19376899696048633</v>
+      </c>
+      <c r="AV33">
+        <v>0.31384892086330934</v>
+      </c>
+      <c r="AW33">
+        <v>0.3980487804878049</v>
+      </c>
+      <c r="AX33">
+        <v>0.68012422360248448</v>
+      </c>
+      <c r="AY33">
+        <v>0.46717724288840262</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>1.7720364741641337</v>
+      </c>
+      <c r="BB33">
+        <v>1.7579617834394905</v>
+      </c>
+      <c r="BC33">
+        <v>3.262295081967213</v>
+      </c>
+      <c r="BD33">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>4.1563786008230456E-2</v>
+      </c>
+      <c r="BG33">
+        <v>7.8343949044585998E-2</v>
+      </c>
+      <c r="BH33">
+        <v>0.22597402597402597</v>
+      </c>
+      <c r="BI33">
+        <v>0.14128440366972478</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="BL33">
+        <v>0.74304068522483935</v>
+      </c>
+      <c r="BM33">
+        <v>0.86233766233766229</v>
+      </c>
+      <c r="BN33">
+        <v>0.85539215686274506</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0.6721649484536083</v>
+      </c>
+      <c r="BQ33">
+        <v>1.5404255319148938</v>
+      </c>
+      <c r="BR33">
+        <v>0.67906976744186043</v>
+      </c>
+      <c r="BS33">
+        <v>0.45494505494505499</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>0.90055248618784534</v>
+      </c>
+      <c r="BV33">
+        <v>1.0058139534883721</v>
+      </c>
+      <c r="BW33">
+        <v>1.2769230769230768</v>
+      </c>
+      <c r="BX33">
+        <v>0.50256410256410255</v>
+      </c>
+      <c r="BY33">
+        <v>0.20628415300546449</v>
+      </c>
+      <c r="BZ33">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="CA33">
+        <v>0.20973348783314022</v>
+      </c>
+      <c r="CB33">
+        <v>0.55623721881390598</v>
+      </c>
+      <c r="CC33">
+        <v>0.40468227424749165</v>
+      </c>
+      <c r="CD33">
+        <v>0</v>
+      </c>
+      <c r="CE33">
+        <v>1.4928057553956835</v>
+      </c>
+      <c r="CF33">
+        <v>0.9159891598915989</v>
+      </c>
+      <c r="CG33">
+        <v>1.6401869158878504</v>
+      </c>
+      <c r="CH33">
+        <v>0.90616621983914214</v>
+      </c>
+      <c r="CI33">
+        <v>0</v>
+      </c>
+      <c r="CJ33">
+        <v>0.87925170068027214</v>
+      </c>
+      <c r="CK33">
+        <v>1.1062355658198615</v>
+      </c>
+      <c r="CL33">
+        <v>1.1176470588235294</v>
+      </c>
+      <c r="CM33">
+        <v>1.0889570552147239</v>
+      </c>
+      <c r="CN33">
+        <v>0</v>
+      </c>
+      <c r="CO33">
+        <v>5.4051724137931032</v>
+      </c>
+      <c r="CP33">
+        <v>4.1024096385542173</v>
+      </c>
+      <c r="CQ33">
+        <v>5.0552147239263805</v>
+      </c>
+      <c r="CR33">
+        <v>2.3208333333333333</v>
+      </c>
+      <c r="CS33">
+        <v>0</v>
+      </c>
+      <c r="CT33">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="CU33">
+        <v>0.16371681415929204</v>
+      </c>
+      <c r="CV33">
+        <v>0.36078431372549019</v>
+      </c>
+      <c r="CW33">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="CX33">
+        <v>0</v>
+      </c>
+      <c r="CY33">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CZ33">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="DA33">
+        <v>0.58571428571428563</v>
+      </c>
+      <c r="DB33">
+        <v>0.35384615384615381</v>
+      </c>
+      <c r="DC33">
+        <v>0</v>
+      </c>
+      <c r="DD33">
+        <v>0.23421052631578942</v>
+      </c>
+      <c r="DE33">
+        <v>0.30294117647058827</v>
+      </c>
+      <c r="DF33">
+        <v>0.67812499999999998</v>
+      </c>
+      <c r="DG33">
+        <v>1.2055555555555555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D34">
+        <v>0.46464646464646464</v>
+      </c>
+      <c r="E34">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="F34">
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="I34">
+        <v>0.52917505030181089</v>
+      </c>
+      <c r="J34">
+        <v>1.5267175572519085</v>
+      </c>
+      <c r="K34">
+        <v>0.5512367491166078</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0.51002865329512892</v>
+      </c>
+      <c r="N34">
+        <v>0.56640625</v>
+      </c>
+      <c r="O34">
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="P34">
+        <v>0.36411609498680741</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0.72</v>
+      </c>
+      <c r="S34">
+        <v>0.54639175257731953</v>
+      </c>
+      <c r="T34">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="U34">
+        <v>0.53448275862068961</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0.42024539877300615</v>
+      </c>
+      <c r="AC34">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AD34">
+        <v>0.44235294117647062</v>
+      </c>
+      <c r="AE34">
+        <v>0.60540540540540544</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0.46794871794871795</v>
+      </c>
+      <c r="AH34">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="AI34">
+        <v>0.49</v>
+      </c>
+      <c r="AJ34">
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0.3904109589041096</v>
+      </c>
+      <c r="AM34">
+        <v>0.5</v>
+      </c>
+      <c r="AN34">
+        <v>0.83050847457627119</v>
+      </c>
+      <c r="AO34">
+        <v>0.75088967971530252</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="18">
+        <v>0.3518237082066869</v>
+      </c>
+      <c r="AV34">
+        <v>0.39478417266187049</v>
+      </c>
+      <c r="AW34">
+        <v>0.34536585365853656</v>
+      </c>
+      <c r="AX34">
+        <v>0.51552795031055898</v>
+      </c>
+      <c r="AY34">
+        <v>0.35667396061269147</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0.39513677811550152</v>
+      </c>
+      <c r="BB34">
+        <v>0.37579617834394907</v>
+      </c>
+      <c r="BC34">
+        <v>0.40437158469945356</v>
+      </c>
+      <c r="BD34">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0.34979423868312759</v>
+      </c>
+      <c r="BG34">
+        <v>0.48407643312101911</v>
+      </c>
+      <c r="BH34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BI34">
+        <v>0.6330275229357798</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="BL34">
+        <v>0.28907922912205569</v>
+      </c>
+      <c r="BM34">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="BN34">
+        <v>0.26715686274509803</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0.34020618556701032</v>
+      </c>
+      <c r="BQ34">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="BR34">
+        <v>0.54651162790697672</v>
+      </c>
+      <c r="BS34">
+        <v>0.45054945054945056</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
+        <v>0.54696132596685088</v>
+      </c>
+      <c r="BV34">
+        <v>0.52616279069767447</v>
+      </c>
+      <c r="BW34">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="BX34">
+        <v>0.48717948717948717</v>
+      </c>
+      <c r="BY34">
+        <v>0.55327868852459017</v>
+      </c>
+      <c r="BZ34">
+        <v>0.51846590909090906</v>
+      </c>
+      <c r="CA34">
+        <v>0.41135573580533025</v>
+      </c>
+      <c r="CB34">
+        <v>0.42126789366053169</v>
+      </c>
+      <c r="CC34">
+        <v>0.44648829431438125</v>
+      </c>
+      <c r="CD34">
+        <v>0</v>
+      </c>
+      <c r="CE34">
+        <v>0.39928057553956836</v>
+      </c>
+      <c r="CF34">
+        <v>0.31978319783197834</v>
+      </c>
+      <c r="CG34">
+        <v>0.57476635514018692</v>
+      </c>
+      <c r="CH34">
+        <v>0.40482573726541554</v>
+      </c>
+      <c r="CI34">
+        <v>0</v>
+      </c>
+      <c r="CJ34">
+        <v>0.33673469387755101</v>
+      </c>
+      <c r="CK34">
+        <v>0.50577367205542723</v>
+      </c>
+      <c r="CL34">
+        <v>0.51702786377708976</v>
+      </c>
+      <c r="CM34">
+        <v>0.50613496932515334</v>
+      </c>
+      <c r="CN34">
+        <v>0</v>
+      </c>
+      <c r="CO34">
+        <v>0.57758620689655171</v>
+      </c>
+      <c r="CP34">
+        <v>0.39156626506024095</v>
+      </c>
+      <c r="CQ34">
+        <v>0.47239263803680981</v>
+      </c>
+      <c r="CR34">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="CS34">
+        <v>0</v>
+      </c>
+      <c r="CT34">
+        <v>0.39</v>
+      </c>
+      <c r="CU34">
+        <v>0.26548672566371684</v>
+      </c>
+      <c r="CV34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="CW34">
+        <v>0.65</v>
+      </c>
+      <c r="CX34">
+        <v>0</v>
+      </c>
+      <c r="CY34">
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="CZ34">
+        <v>0.8</v>
+      </c>
+      <c r="DA34">
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="DB34">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="DC34">
+        <v>0</v>
+      </c>
+      <c r="DD34">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="DE34">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="DF34">
+        <v>0.71875</v>
+      </c>
+      <c r="DG34">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="18" t="e">
+        <f t="shared" ref="B35:AT35" si="67">(B12+B15)/B11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.46464646464646464</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.52826086956521745</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.83225806451612905</v>
+      </c>
+      <c r="G35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="67"/>
+        <v>1.0337662337662337</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.75452716297786715</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="67"/>
+        <v>3.4503816793893129</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.73498233215547704</v>
+      </c>
+      <c r="L35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.7822349570200573</v>
+      </c>
+      <c r="N35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.77734375</v>
+      </c>
+      <c r="O35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.39209726443769</v>
+      </c>
+      <c r="P35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.44327176781002636</v>
+      </c>
+      <c r="Q35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.72</v>
+      </c>
+      <c r="S35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.54639175257731953</v>
+      </c>
+      <c r="T35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="U35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="V35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.48466257668711654</v>
+      </c>
+      <c r="AC35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.46651785714285715</v>
+      </c>
+      <c r="AD35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.59058823529411764</v>
+      </c>
+      <c r="AE35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.63513513513513509</v>
+      </c>
+      <c r="AF35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="AH35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.64</v>
+      </c>
+      <c r="AI35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.505</v>
+      </c>
+      <c r="AJ35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.99736842105263157</v>
+      </c>
+      <c r="AK35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.3904109589041096</v>
+      </c>
+      <c r="AM35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AN35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AO35" s="18">
+        <f t="shared" si="67"/>
+        <v>0.95017793594306055</v>
+      </c>
+      <c r="AP35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT35" s="18" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU35" s="18">
+        <f>(AU12+AU15)/AU11</f>
+        <v>0.55927051671732519</v>
+      </c>
+      <c r="AV35" s="18">
+        <f t="shared" ref="AV35:CR35" si="68">(AV12+AV15)/AV11</f>
+        <v>0.60251798561151082</v>
+      </c>
+      <c r="AW35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.46243902439024392</v>
+      </c>
+      <c r="AX35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.79192546583850931</v>
+      </c>
+      <c r="AY35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.63019693654266962</v>
+      </c>
+      <c r="AZ35" s="18" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.47720364741641336</v>
+      </c>
+      <c r="BB35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.41719745222929938</v>
+      </c>
+      <c r="BC35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.45027322404371589</v>
+      </c>
+      <c r="BD35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="BE35" s="18" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.53909465020576131</v>
+      </c>
+      <c r="BG35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.59872611464968151</v>
+      </c>
+      <c r="BH35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.66233766233766234</v>
+      </c>
+      <c r="BI35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.68440366972477062</v>
+      </c>
+      <c r="BJ35" s="18" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="BL35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.42398286937901497</v>
+      </c>
+      <c r="BM35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.41038961038961042</v>
+      </c>
+      <c r="BN35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.38725490196078433</v>
+      </c>
+      <c r="BO35" s="18" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.35876288659793809</v>
+      </c>
+      <c r="BQ35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="BR35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.62093023255813951</v>
+      </c>
+      <c r="BS35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.51098901098901095</v>
+      </c>
+      <c r="BT35" s="18" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.79005524861878451</v>
+      </c>
+      <c r="BV35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.6191860465116279</v>
+      </c>
+      <c r="BW35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="BX35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.62051282051282053</v>
+      </c>
+      <c r="BY35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.75819672131147542</v>
+      </c>
+      <c r="BZ35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.66761363636363635</v>
+      </c>
+      <c r="CA35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.50521436848203938</v>
+      </c>
+      <c r="CB35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.67075664621676889</v>
+      </c>
+      <c r="CC35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.62876254180602009</v>
+      </c>
+      <c r="CD35" s="18" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.62230215827338131</v>
+      </c>
+      <c r="CF35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.36856368563685638</v>
+      </c>
+      <c r="CG35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.76635514018691586</v>
+      </c>
+      <c r="CH35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.54691689008042899</v>
+      </c>
+      <c r="CI35" s="18" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.46598639455782315</v>
+      </c>
+      <c r="CK35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.69976905311778292</v>
+      </c>
+      <c r="CL35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="CM35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.94785276073619629</v>
+      </c>
+      <c r="CN35" s="18" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.80172413793103448</v>
+      </c>
+      <c r="CP35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.40602409638554221</v>
+      </c>
+      <c r="CQ35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.48159509202453987</v>
+      </c>
+      <c r="CR35" s="18">
+        <f t="shared" si="68"/>
+        <v>0.38500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -12158,74 +13709,74 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD40859E-CB57-4371-B42F-A571327A6D0B}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:DG34"/>
+  <dimension ref="A1:DG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BU9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BU20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ33" sqref="BZ33"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.44140625" customWidth="1"/>
-    <col min="33" max="36" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="66" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="71" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="86" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="9" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="96" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="66" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="71" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="86" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="93" max="96" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="98" max="99" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="100" max="101" width="5" bestFit="1" customWidth="1"/>
@@ -15355,7 +16906,7 @@
       <c r="AT11" s="14"/>
       <c r="AU11" s="14">
         <f>Resultado!K11</f>
-        <v>1245</v>
+        <v>1316</v>
       </c>
       <c r="AV11" s="14">
         <f>Painel!AV11*IPC!G$3</f>
@@ -15818,23 +17369,23 @@
       </c>
       <c r="BY12" s="14">
         <f>Índices!Q28</f>
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="BZ12" s="14">
         <f>Painel!BZ12*IPC!G$3</f>
-        <v>341.42650000000003</v>
+        <v>376.4975</v>
       </c>
       <c r="CA12" s="14">
         <f>Painel!CA12*IPC!H$3</f>
-        <v>379.25315225000003</v>
+        <v>385.77326375000007</v>
       </c>
       <c r="CB12" s="14">
         <f>Painel!CB12*IPC!I$3</f>
-        <v>242.08326385005003</v>
+        <v>245.66084903010002</v>
       </c>
       <c r="CC12" s="14">
         <f>Painel!CC12*IPC!J$3</f>
-        <v>309.9076007047953</v>
+        <v>336.36312759422907</v>
       </c>
       <c r="CD12" s="14"/>
       <c r="CE12" s="14">
@@ -16671,7 +18222,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14">
         <f>Painel!H15*IPC!G$3</f>
-        <v>115.52800000000001</v>
+        <v>152.66200000000001</v>
       </c>
       <c r="I15" s="14">
         <f>Painel!I15*IPC!H$3</f>
@@ -19143,7 +20694,7 @@
       <c r="AT24" s="14"/>
       <c r="AU24" s="14">
         <f>AU11/AU18</f>
-        <v>25.883575883575883</v>
+        <v>27.359667359667359</v>
       </c>
       <c r="AV24" s="14">
         <f t="shared" ref="AV24:CR24" si="63">AV11/AV18</f>
@@ -20877,36 +22428,36 @@
       </c>
       <c r="C31" s="14">
         <f>Painel!C31*IPC!G$3</f>
-        <v>95.929500000000004</v>
+        <v>100.05550000000001</v>
       </c>
       <c r="D31" s="14">
         <f>Painel!D31*IPC!H$3</f>
-        <v>91.281561000000011</v>
+        <v>95.51963347500002</v>
       </c>
       <c r="E31" s="14">
         <f>Painel!E31*IPC!I$3</f>
-        <v>69.166646814300009</v>
+        <v>79.30313815777501</v>
       </c>
       <c r="F31" s="14">
         <f>Painel!F31*IPC!J$3</f>
-        <v>74.327432689361473</v>
+        <v>80.2484315646157</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14">
         <f>Painel!H31*IPC!G$3</f>
-        <v>1140.8390000000002</v>
+        <v>1198.6030000000001</v>
       </c>
       <c r="I31" s="14">
         <f>Painel!I31*IPC!H$3</f>
-        <v>941.06942650000019</v>
+        <v>963.88981675000014</v>
       </c>
       <c r="J31" s="14">
         <f>Painel!J31*IPC!I$3</f>
-        <v>899.16640858590017</v>
+        <v>934.94226038640011</v>
       </c>
       <c r="K31" s="14">
         <f>Painel!K31*IPC!J$3</f>
-        <v>702.96114306209665</v>
+        <v>718.07858699891597</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14">
@@ -21001,157 +22552,157 @@
       <c r="AZ31" s="14"/>
       <c r="BA31" s="14">
         <f>Painel!BA31*IPC!G$3</f>
-        <v>467.26950000000005</v>
+        <v>601.36450000000002</v>
       </c>
       <c r="BB31" s="14">
         <f>Painel!BB31*IPC!H$3</f>
-        <v>402.07354250000003</v>
+        <v>599.85025800000005</v>
       </c>
       <c r="BC31" s="14">
         <f>Painel!BC31*IPC!I$3</f>
-        <v>399.49701177225006</v>
+        <v>711.93945082995015</v>
       </c>
       <c r="BD31" s="14">
         <f>Painel!BD31*IPC!J$3</f>
-        <v>360.29908049419294</v>
+        <v>672.72625518845814</v>
       </c>
       <c r="BE31" s="14"/>
       <c r="BF31" s="14">
         <f>Painel!BF31*IPC!G$3</f>
-        <v>9.5929500000000019</v>
+        <v>10.418150000000002</v>
       </c>
       <c r="BG31" s="14">
         <f>Painel!BG31*IPC!H$3</f>
-        <v>11.192858075000002</v>
+        <v>13.366228575000003</v>
       </c>
       <c r="BH31" s="14">
         <f>Painel!BH31*IPC!I$3</f>
-        <v>19.080454293600003</v>
+        <v>20.749994044290002</v>
       </c>
       <c r="BI31" s="14">
         <f>Painel!BI31*IPC!J$3</f>
-        <v>17.637017926289165</v>
+        <v>19.400719718918079</v>
       </c>
       <c r="BJ31" s="14"/>
       <c r="BK31" s="14">
         <f>Painel!BK31*IPC!G$3</f>
-        <v>433.23</v>
+        <v>470.36400000000003</v>
       </c>
       <c r="BL31" s="14">
         <f>Painel!BL31*IPC!H$3</f>
-        <v>329.26563075000007</v>
+        <v>377.07978175000005</v>
       </c>
       <c r="BM31" s="14">
         <f>Painel!BM31*IPC!I$3</f>
-        <v>383.99414265870007</v>
+        <v>395.91942659220007</v>
       </c>
       <c r="BN31" s="14">
         <f>Painel!BN31*IPC!J$3</f>
-        <v>401.87205132044596</v>
+        <v>439.66566116249413</v>
       </c>
       <c r="BO31" s="14"/>
       <c r="BP31" s="14">
         <f>Painel!BP31*IPC!G$3</f>
-        <v>32.1828</v>
+        <v>67.253800000000012</v>
       </c>
       <c r="BQ31" s="14">
         <f>Painel!BQ31*IPC!H$3</f>
-        <v>43.902084100000003</v>
+        <v>78.676012100000023</v>
       </c>
       <c r="BR31" s="14">
         <f>Painel!BR31*IPC!I$3</f>
-        <v>33.867806371140006</v>
+        <v>69.643658171640013</v>
       </c>
       <c r="BS31" s="14">
         <f>Painel!BS31*IPC!J$3</f>
-        <v>33.258376661002423</v>
+        <v>52.155181582026536</v>
       </c>
       <c r="BT31" s="14"/>
       <c r="BU31" s="14">
         <f>Painel!BU31*IPC!G$3</f>
-        <v>309.45000000000005</v>
+        <v>336.26900000000001</v>
       </c>
       <c r="BV31" s="14">
         <f>Painel!BV31*IPC!H$3</f>
-        <v>342.30585375000004</v>
+        <v>375.99309650000004</v>
       </c>
       <c r="BW31" s="14">
         <f>Painel!BW31*IPC!I$3</f>
-        <v>338.67806371140006</v>
+        <v>395.91942659220007</v>
       </c>
       <c r="BX31" s="14">
         <f>Painel!BX31*IPC!J$3</f>
-        <v>212.90400211020491</v>
+        <v>246.91825096804828</v>
       </c>
       <c r="BY31">
         <v>128</v>
       </c>
       <c r="BZ31" s="14">
         <f>Painel!BZ31*IPC!G$3</f>
-        <v>142.34700000000001</v>
+        <v>165.04000000000002</v>
       </c>
       <c r="CA31" s="14">
         <f>Painel!CA31*IPC!H$3</f>
-        <v>183.64980725000004</v>
+        <v>196.69003025000004</v>
       </c>
       <c r="CB31" s="14">
         <f>Painel!CB31*IPC!I$3</f>
-        <v>273.08900207715004</v>
+        <v>324.36772299120003</v>
       </c>
       <c r="CC31" s="14">
         <f>Painel!CC31*IPC!J$3</f>
-        <v>291.01079578377119</v>
+        <v>304.86845272585555</v>
       </c>
       <c r="CD31" s="14"/>
       <c r="CE31" s="14">
         <f>Painel!CE31*IPC!G$3</f>
-        <v>329.04850000000005</v>
+        <v>428.07250000000005</v>
       </c>
       <c r="CF31" s="14">
         <f>Painel!CF31*IPC!H$3</f>
-        <v>282.53816500000005</v>
+        <v>367.29961450000008</v>
       </c>
       <c r="CG31" s="14">
         <f>Painel!CG31*IPC!I$3</f>
-        <v>283.82175761730002</v>
+        <v>418.57746606585005</v>
       </c>
       <c r="CH31" s="14">
         <f>Painel!CH31*IPC!J$3</f>
-        <v>294.79015676797604</v>
+        <v>425.80800422040983</v>
       </c>
       <c r="CI31" s="14"/>
       <c r="CJ31" s="14">
         <f>Painel!CJ31*IPC!G$3</f>
-        <v>518.84450000000004</v>
+        <v>533.28550000000007</v>
       </c>
       <c r="CK31" s="14">
         <f>Painel!CK31*IPC!H$3</f>
-        <v>496.61515925000009</v>
+        <v>520.52223475000005</v>
       </c>
       <c r="CL31" s="14">
         <f>Painel!CL31*IPC!I$3</f>
-        <v>375.64644390525007</v>
+        <v>430.50274999935004</v>
       </c>
       <c r="CM31" s="14">
         <f>Painel!CM31*IPC!J$3</f>
-        <v>376.67631142574714</v>
+        <v>447.22438313090379</v>
       </c>
       <c r="CN31" s="14"/>
       <c r="CO31" s="14">
         <f>Painel!CO31*IPC!G$3</f>
-        <v>631.27800000000002</v>
+        <v>646.7505000000001</v>
       </c>
       <c r="CP31" s="14">
         <f>Painel!CP31*IPC!H$3</f>
-        <v>720.47232075000011</v>
+        <v>740.03265525000006</v>
       </c>
       <c r="CQ31" s="14">
         <f>Painel!CQ31*IPC!I$3</f>
-        <v>853.8503296386001</v>
+        <v>982.6433961204001</v>
       </c>
       <c r="CR31" s="14">
         <f>Painel!CR31*IPC!J$3</f>
-        <v>602.1781834833015</v>
+        <v>701.70135606736176</v>
       </c>
     </row>
     <row r="32" spans="1:111" x14ac:dyDescent="0.3">
@@ -21503,7 +23054,7 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="20">
         <f>AU31/AU11</f>
-        <v>0.13413654618473897</v>
+        <v>0.12689969604863222</v>
       </c>
       <c r="AV33" s="20">
         <v>0.22392086330935251</v>
@@ -21638,11 +23189,584 @@
       </c>
     </row>
     <row r="34" spans="1:96" x14ac:dyDescent="0.3">
-      <c r="BY34" s="18"/>
-      <c r="BZ34" s="18"/>
-      <c r="CA34" s="18"/>
-      <c r="CB34" s="18"/>
-      <c r="CC34" s="18"/>
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.46464646464646464</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0.52173913043478271</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.64935064935064923</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0.52917505030181078</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1.5267175572519085</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0.5512367491166078</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0.51002865329512892</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0.56640625</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0.27659574468085102</v>
+      </c>
+      <c r="P34" s="18">
+        <v>0.36411609498680741</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>0</v>
+      </c>
+      <c r="R34" s="18">
+        <v>0.72</v>
+      </c>
+      <c r="S34" s="18">
+        <v>0.54639175257731964</v>
+      </c>
+      <c r="T34" s="18">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="U34" s="18">
+        <v>0.53448275862068961</v>
+      </c>
+      <c r="V34" s="18">
+        <v>0</v>
+      </c>
+      <c r="W34" s="18">
+        <v>0</v>
+      </c>
+      <c r="X34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="18">
+        <v>0.42024539877300615</v>
+      </c>
+      <c r="AC34" s="18">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AD34" s="18">
+        <v>0.44235294117647062</v>
+      </c>
+      <c r="AE34" s="18">
+        <v>0.60540540540540544</v>
+      </c>
+      <c r="AF34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="18">
+        <v>0.46794871794871795</v>
+      </c>
+      <c r="AH34" s="18">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="AI34" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="AJ34" s="18">
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="AK34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="18">
+        <v>0.3904109589041096</v>
+      </c>
+      <c r="AM34" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AN34" s="18">
+        <v>0.83050847457627119</v>
+      </c>
+      <c r="AO34" s="18">
+        <v>0.7508896797153024</v>
+      </c>
+      <c r="AP34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="18">
+        <v>0.3518237082066869</v>
+      </c>
+      <c r="AV34" s="18">
+        <v>0.39478417266187049</v>
+      </c>
+      <c r="AW34" s="18">
+        <v>0.34536585365853656</v>
+      </c>
+      <c r="AX34" s="18">
+        <v>0.51552795031055898</v>
+      </c>
+      <c r="AY34" s="18">
+        <v>0.35667396061269147</v>
+      </c>
+      <c r="AZ34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="18">
+        <v>0.39513677811550146</v>
+      </c>
+      <c r="BB34" s="18">
+        <v>0.37579617834394907</v>
+      </c>
+      <c r="BC34" s="18">
+        <v>0.4043715846994535</v>
+      </c>
+      <c r="BD34" s="18">
+        <v>0.24400000000000002</v>
+      </c>
+      <c r="BE34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="18">
+        <v>0.34979423868312759</v>
+      </c>
+      <c r="BG34" s="18">
+        <v>0.48407643312101911</v>
+      </c>
+      <c r="BH34" s="18">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BI34" s="18">
+        <v>0.6330275229357798</v>
+      </c>
+      <c r="BJ34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="18">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="BL34" s="18">
+        <v>0.28907922912205569</v>
+      </c>
+      <c r="BM34" s="18">
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="BN34" s="18">
+        <v>0.26715686274509803</v>
+      </c>
+      <c r="BO34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="18">
+        <v>0.34020618556701032</v>
+      </c>
+      <c r="BQ34" s="18">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="BR34" s="18">
+        <v>0.54651162790697683</v>
+      </c>
+      <c r="BS34" s="18">
+        <v>0.45054945054945056</v>
+      </c>
+      <c r="BT34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BU34" s="18">
+        <v>0.54696132596685088</v>
+      </c>
+      <c r="BV34" s="18">
+        <v>0.52616279069767447</v>
+      </c>
+      <c r="BW34" s="18">
+        <v>0.70769230769230762</v>
+      </c>
+      <c r="BX34" s="18">
+        <v>0.48717948717948717</v>
+      </c>
+      <c r="BY34" s="18">
+        <v>0.55327868852459017</v>
+      </c>
+      <c r="BZ34" s="18">
+        <v>0.51846590909090906</v>
+      </c>
+      <c r="CA34" s="18">
+        <v>0.4113557358053303</v>
+      </c>
+      <c r="CB34" s="18">
+        <v>0.42126789366053169</v>
+      </c>
+      <c r="CC34" s="18">
+        <v>0.44648829431438131</v>
+      </c>
+      <c r="CD34" s="18">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="18">
+        <v>0.39928057553956836</v>
+      </c>
+      <c r="CF34" s="18">
+        <v>0.31978319783197834</v>
+      </c>
+      <c r="CG34" s="18">
+        <v>0.57476635514018692</v>
+      </c>
+      <c r="CH34" s="18">
+        <v>0.40482573726541554</v>
+      </c>
+      <c r="CI34" s="18">
+        <v>0</v>
+      </c>
+      <c r="CJ34" s="18">
+        <v>0.33673469387755101</v>
+      </c>
+      <c r="CK34" s="18">
+        <v>0.50577367205542723</v>
+      </c>
+      <c r="CL34" s="18">
+        <v>0.51702786377708976</v>
+      </c>
+      <c r="CM34" s="18">
+        <v>0.50613496932515334</v>
+      </c>
+      <c r="CN34" s="18">
+        <v>0</v>
+      </c>
+      <c r="CO34" s="18">
+        <v>0.57758620689655171</v>
+      </c>
+      <c r="CP34" s="18">
+        <v>0.391566265060241</v>
+      </c>
+      <c r="CQ34" s="18">
+        <v>0.47239263803680986</v>
+      </c>
+      <c r="CR34" s="18">
+        <v>0.37083333333333335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="18">
+        <v>0</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.46464646464646464</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.52826086956521745</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.83225806451612905</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1.0337662337662337</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0.75452716297786715</v>
+      </c>
+      <c r="J35" s="18">
+        <v>3.4503816793893134</v>
+      </c>
+      <c r="K35" s="18">
+        <v>0.73498233215547704</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0.7822349570200573</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0.77734375</v>
+      </c>
+      <c r="O35" s="18">
+        <v>0.39209726443768994</v>
+      </c>
+      <c r="P35" s="18">
+        <v>0.44327176781002636</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>0</v>
+      </c>
+      <c r="R35" s="18">
+        <v>0.72</v>
+      </c>
+      <c r="S35" s="18">
+        <v>0.54639175257731964</v>
+      </c>
+      <c r="T35" s="18">
+        <v>0.84166666666666656</v>
+      </c>
+      <c r="U35" s="18">
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="V35" s="18">
+        <v>0</v>
+      </c>
+      <c r="W35" s="18">
+        <v>0</v>
+      </c>
+      <c r="X35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="18">
+        <v>0.48466257668711654</v>
+      </c>
+      <c r="AC35" s="18">
+        <v>0.4665178571428571</v>
+      </c>
+      <c r="AD35" s="18">
+        <v>0.59058823529411764</v>
+      </c>
+      <c r="AE35" s="18">
+        <v>0.6351351351351352</v>
+      </c>
+      <c r="AF35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="18">
+        <v>0.51282051282051289</v>
+      </c>
+      <c r="AH35" s="18">
+        <v>0.64</v>
+      </c>
+      <c r="AI35" s="18">
+        <v>0.505</v>
+      </c>
+      <c r="AJ35" s="18">
+        <v>0.99736842105263157</v>
+      </c>
+      <c r="AK35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="18">
+        <v>0.3904109589041096</v>
+      </c>
+      <c r="AM35" s="18">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AN35" s="18">
+        <v>0.98305084745762705</v>
+      </c>
+      <c r="AO35" s="18">
+        <v>0.95017793594306033</v>
+      </c>
+      <c r="AP35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="18">
+        <v>0.55927051671732519</v>
+      </c>
+      <c r="AV35" s="18">
+        <v>0.60251798561151082</v>
+      </c>
+      <c r="AW35" s="18">
+        <v>0.46243902439024392</v>
+      </c>
+      <c r="AX35" s="18">
+        <v>0.79192546583850942</v>
+      </c>
+      <c r="AY35" s="18">
+        <v>0.63019693654266962</v>
+      </c>
+      <c r="AZ35" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="18">
+        <v>0.47720364741641336</v>
+      </c>
+      <c r="BB35" s="18">
+        <v>0.41719745222929944</v>
+      </c>
+      <c r="BC35" s="18">
+        <v>0.45027322404371578</v>
+      </c>
+      <c r="BD35" s="18">
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="BE35" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="18">
+        <v>0.53909465020576142</v>
+      </c>
+      <c r="BG35" s="18">
+        <v>0.59872611464968151</v>
+      </c>
+      <c r="BH35" s="18">
+        <v>0.66233766233766223</v>
+      </c>
+      <c r="BI35" s="18">
+        <v>0.68440366972477062</v>
+      </c>
+      <c r="BJ35" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="18">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="BL35" s="18">
+        <v>0.42398286937901497</v>
+      </c>
+      <c r="BM35" s="18">
+        <v>0.41038961038961042</v>
+      </c>
+      <c r="BN35" s="18">
+        <v>0.38725490196078427</v>
+      </c>
+      <c r="BO35" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP35" s="18">
+        <v>0.3587628865979382</v>
+      </c>
+      <c r="BQ35" s="18">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="BR35" s="18">
+        <v>0.62093023255813962</v>
+      </c>
+      <c r="BS35" s="18">
+        <v>0.51098901098901106</v>
+      </c>
+      <c r="BT35" s="18">
+        <v>0</v>
+      </c>
+      <c r="BU35" s="18">
+        <v>0.79005524861878451</v>
+      </c>
+      <c r="BV35" s="18">
+        <v>0.6191860465116279</v>
+      </c>
+      <c r="BW35" s="18">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="BX35" s="18">
+        <v>0.62051282051282053</v>
+      </c>
+      <c r="BY35" s="18">
+        <v>0.75819672131147542</v>
+      </c>
+      <c r="BZ35" s="18">
+        <v>0.66761363636363635</v>
+      </c>
+      <c r="CA35" s="18">
+        <v>0.50521436848203949</v>
+      </c>
+      <c r="CB35" s="18">
+        <v>0.670756646216769</v>
+      </c>
+      <c r="CC35" s="18">
+        <v>0.62876254180602009</v>
+      </c>
+      <c r="CD35" s="18">
+        <v>0</v>
+      </c>
+      <c r="CE35" s="18">
+        <v>0.62230215827338131</v>
+      </c>
+      <c r="CF35" s="18">
+        <v>0.36856368563685638</v>
+      </c>
+      <c r="CG35" s="18">
+        <v>0.76635514018691586</v>
+      </c>
+      <c r="CH35" s="18">
+        <v>0.54691689008042899</v>
+      </c>
+      <c r="CI35" s="18">
+        <v>0</v>
+      </c>
+      <c r="CJ35" s="18">
+        <v>0.46598639455782315</v>
+      </c>
+      <c r="CK35" s="18">
+        <v>0.69976905311778281</v>
+      </c>
+      <c r="CL35" s="18">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="CM35" s="18">
+        <v>0.9478527607361964</v>
+      </c>
+      <c r="CN35" s="18">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="18">
+        <v>0.80172413793103448</v>
+      </c>
+      <c r="CP35" s="18">
+        <v>0.40602409638554221</v>
+      </c>
+      <c r="CQ35" s="18">
+        <v>0.48159509202453993</v>
+      </c>
+      <c r="CR35" s="18">
+        <v>0.38500000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -21653,18 +23777,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2297E02C-9E35-4D4E-AA66-24970E3CCF5E}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:DG37"/>
+  <dimension ref="A1:DG65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BV9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU7" sqref="AU7"/>
+      <selection pane="bottomRight" activeCell="BY21" sqref="BY21:CC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -21684,7 +23808,9 @@
     <col min="38" max="41" width="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="43" max="46" width="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="53" max="56" width="5" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="8.5546875" bestFit="1" customWidth="1"/>
@@ -21695,7 +23821,7 @@
     <col min="68" max="71" width="5" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="73" max="76" width="5" bestFit="1" customWidth="1"/>
-    <col min="78" max="81" width="5" bestFit="1" customWidth="1"/>
+    <col min="78" max="81" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="83" max="86" width="5" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="9" bestFit="1" customWidth="1"/>
@@ -22895,1851 +25021,4304 @@
       </c>
     </row>
     <row r="7" spans="1:111" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>8.5</v>
+      </c>
+      <c r="F7">
+        <v>4.7</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+      <c r="R7">
+        <v>29</v>
+      </c>
+      <c r="S7">
+        <v>46</v>
+      </c>
+      <c r="T7">
+        <v>40</v>
+      </c>
+      <c r="U7">
+        <v>35</v>
+      </c>
+      <c r="AB7">
+        <v>25</v>
+      </c>
+      <c r="AC7">
+        <v>38</v>
+      </c>
+      <c r="AD7">
+        <v>62</v>
+      </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <v>30</v>
+      </c>
+      <c r="AH7">
+        <v>41</v>
+      </c>
+      <c r="AI7">
+        <v>34</v>
+      </c>
+      <c r="AJ7">
+        <v>35</v>
+      </c>
+      <c r="AL7">
+        <v>10.3</v>
+      </c>
+      <c r="AM7">
+        <v>184</v>
+      </c>
+      <c r="AN7">
+        <v>158</v>
+      </c>
+      <c r="AO7">
+        <v>46</v>
+      </c>
+      <c r="AU7">
+        <v>88</v>
+      </c>
+      <c r="AV7">
+        <v>100</v>
+      </c>
+      <c r="AW7">
+        <v>118</v>
+      </c>
+      <c r="AX7">
+        <v>116</v>
+      </c>
+      <c r="AY7">
+        <v>87</v>
+      </c>
+      <c r="BA7">
+        <v>130</v>
+      </c>
+      <c r="BB7">
+        <v>182</v>
+      </c>
+      <c r="BC7">
+        <v>262</v>
+      </c>
+      <c r="BD7">
+        <v>248</v>
+      </c>
+      <c r="BF7">
+        <v>0.8</v>
+      </c>
+      <c r="BG7">
+        <v>2</v>
+      </c>
+      <c r="BH7">
+        <v>1.4</v>
+      </c>
+      <c r="BI7">
+        <v>1.4</v>
+      </c>
+      <c r="BK7">
+        <v>36</v>
+      </c>
+      <c r="BL7">
+        <v>44</v>
+      </c>
+      <c r="BM7">
+        <v>10</v>
+      </c>
+      <c r="BN7">
+        <v>30</v>
+      </c>
+      <c r="BP7">
+        <v>34</v>
+      </c>
+      <c r="BQ7">
+        <v>32</v>
+      </c>
+      <c r="BR7">
+        <v>30</v>
+      </c>
+      <c r="BS7">
+        <v>15</v>
+      </c>
+      <c r="BU7">
+        <v>26</v>
+      </c>
+      <c r="BV7">
+        <v>31</v>
+      </c>
+      <c r="BW7">
+        <v>48</v>
+      </c>
+      <c r="BX7">
+        <v>27</v>
+      </c>
+      <c r="BY7">
+        <v>23</v>
+      </c>
+      <c r="BZ7">
+        <v>22</v>
+      </c>
+      <c r="CA7">
+        <v>12</v>
+      </c>
+      <c r="CB7">
+        <v>43</v>
+      </c>
+      <c r="CC7">
+        <v>11</v>
+      </c>
+      <c r="CE7">
+        <v>96</v>
+      </c>
+      <c r="CF7">
+        <v>78</v>
+      </c>
+      <c r="CG7">
+        <v>113</v>
+      </c>
+      <c r="CH7">
         <v>104</v>
       </c>
-      <c r="B7">
-        <f>SUM(B3:B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:H7" si="0">SUM(C3:C6)</f>
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1106</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7" si="1">SUM(I3:I6)</f>
-        <v>866</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7" si="2">SUM(J3:J6)</f>
-        <v>754</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7" si="3">SUM(K3:K6)</f>
-        <v>558</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7" si="4">SUM(M3:M6)</f>
-        <v>324</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7" si="5">SUM(N3:N6)</f>
-        <v>304</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ref="O7" si="6">SUM(O3:O6)</f>
-        <v>304</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ref="P7" si="7">SUM(P3:P6)</f>
-        <v>286</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ref="R7" si="8">SUM(R3:R6)</f>
-        <v>200</v>
-      </c>
-      <c r="S7">
-        <f t="shared" ref="S7" si="9">SUM(S3:S6)</f>
-        <v>129</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ref="T7" si="10">SUM(T3:T6)</f>
-        <v>157</v>
-      </c>
-      <c r="U7">
-        <f t="shared" ref="U7" si="11">SUM(U3:U6)</f>
-        <v>142</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" ref="AB7" si="12">SUM(AB3:AB6)</f>
-        <v>602</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" ref="AC7" si="13">SUM(AC3:AC6)</f>
-        <v>519</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" ref="AD7" si="14">SUM(AD3:AD6)</f>
-        <v>430</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" ref="AE7" si="15">SUM(AE3:AE6)</f>
-        <v>320</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" ref="AG7" si="16">SUM(AG3:AG6)</f>
-        <v>167</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" ref="AH7" si="17">SUM(AH3:AH6)</f>
-        <v>196</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" ref="AI7" si="18">SUM(AI3:AI6)</f>
-        <v>229</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" ref="AJ7" si="19">SUM(AJ3:AJ6)</f>
-        <v>178</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" ref="AL7" si="20">SUM(AL3:AL6)</f>
-        <v>661</v>
-      </c>
-      <c r="AM7">
-        <f t="shared" ref="AM7" si="21">SUM(AM3:AM6)</f>
-        <v>688</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" ref="AN7" si="22">SUM(AN3:AN6)</f>
-        <v>491</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" ref="AO7" si="23">SUM(AO3:AO6)</f>
-        <v>417</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" ref="AU7" si="24">SUM(AU3:AU6)</f>
-        <v>167</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" ref="AV7" si="25">SUM(AV3:AV6)</f>
-        <v>249</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" ref="AW7" si="26">SUM(AW3:AW6)</f>
-        <v>290</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" ref="AX7:AY7" si="27">SUM(AX3:AX6)</f>
-        <v>322</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="27"/>
-        <v>340</v>
-      </c>
-      <c r="BA7">
-        <f t="shared" ref="BA7" si="28">SUM(BA3:BA6)</f>
-        <v>453</v>
-      </c>
-      <c r="BB7">
-        <f t="shared" ref="BB7" si="29">SUM(BB3:BB6)</f>
-        <v>370</v>
-      </c>
-      <c r="BC7">
-        <f t="shared" ref="BC7" si="30">SUM(BC3:BC6)</f>
-        <v>335</v>
-      </c>
-      <c r="BD7">
-        <f t="shared" ref="BD7" si="31">SUM(BD3:BD6)</f>
-        <v>286</v>
-      </c>
-      <c r="BF7">
-        <f t="shared" ref="BF7" si="32">SUM(BF3:BF6)</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="BG7">
-        <f t="shared" ref="BG7" si="33">SUM(BG3:BG6)</f>
-        <v>10.3</v>
-      </c>
-      <c r="BH7">
-        <f t="shared" ref="BH7" si="34">SUM(BH3:BH6)</f>
-        <v>16</v>
-      </c>
-      <c r="BI7">
-        <f t="shared" ref="BI7" si="35">SUM(BI3:BI6)</f>
+      <c r="CJ7">
         <v>14</v>
       </c>
-      <c r="BK7">
-        <f t="shared" ref="BK7" si="36">SUM(BK3:BK6)</f>
-        <v>420</v>
-      </c>
-      <c r="BL7">
-        <f t="shared" ref="BL7" si="37">SUM(BL3:BL6)</f>
-        <v>303</v>
-      </c>
-      <c r="BM7">
-        <f t="shared" ref="BM7" si="38">SUM(BM3:BM6)</f>
-        <v>322</v>
-      </c>
-      <c r="BN7">
-        <f t="shared" ref="BN7" si="39">SUM(BN3:BN6)</f>
-        <v>319</v>
-      </c>
-      <c r="BP7">
-        <f t="shared" ref="BP7" si="40">SUM(BP3:BP6)</f>
-        <v>31.2</v>
-      </c>
-      <c r="BQ7">
-        <f t="shared" ref="BQ7" si="41">SUM(BQ3:BQ6)</f>
-        <v>40.4</v>
-      </c>
-      <c r="BR7">
-        <f t="shared" ref="BR7" si="42">SUM(BR3:BR6)</f>
-        <v>28.4</v>
-      </c>
-      <c r="BS7">
-        <f t="shared" ref="BS7" si="43">SUM(BS3:BS6)</f>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="BU7">
-        <f t="shared" ref="BU7" si="44">SUM(BU3:BU6)</f>
-        <v>300</v>
-      </c>
-      <c r="BV7">
-        <f t="shared" ref="BV7" si="45">SUM(BV3:BV6)</f>
-        <v>315</v>
-      </c>
-      <c r="BW7">
-        <f t="shared" ref="BW7" si="46">SUM(BW3:BW6)</f>
-        <v>284</v>
-      </c>
-      <c r="BX7">
-        <f t="shared" ref="BX7" si="47">SUM(BX3:BX6)</f>
-        <v>169</v>
-      </c>
-      <c r="BY7">
-        <f t="shared" ref="BY7:BZ7" si="48">SUM(BY3:BY6)</f>
-        <v>128</v>
-      </c>
-      <c r="BZ7">
-        <f t="shared" si="48"/>
-        <v>138</v>
-      </c>
-      <c r="CA7">
-        <f t="shared" ref="CA7" si="49">SUM(CA3:CA6)</f>
-        <v>169</v>
-      </c>
-      <c r="CB7">
-        <f t="shared" ref="CB7" si="50">SUM(CB3:CB6)</f>
-        <v>229</v>
-      </c>
-      <c r="CC7">
-        <f t="shared" ref="CC7" si="51">SUM(CC3:CC6)</f>
-        <v>231</v>
-      </c>
-      <c r="CE7">
-        <f t="shared" ref="CE7" si="52">SUM(CE3:CE6)</f>
-        <v>319</v>
-      </c>
-      <c r="CF7">
-        <f t="shared" ref="CF7" si="53">SUM(CF3:CF6)</f>
-        <v>260</v>
-      </c>
-      <c r="CG7">
-        <f t="shared" ref="CG7" si="54">SUM(CG3:CG6)</f>
-        <v>238</v>
-      </c>
-      <c r="CH7">
-        <f t="shared" ref="CH7" si="55">SUM(CH3:CH6)</f>
-        <v>234</v>
-      </c>
-      <c r="CJ7">
-        <f t="shared" ref="CJ7" si="56">SUM(CJ3:CJ6)</f>
-        <v>503</v>
-      </c>
       <c r="CK7">
-        <f t="shared" ref="CK7" si="57">SUM(CK3:CK6)</f>
-        <v>457</v>
+        <v>22</v>
       </c>
       <c r="CL7">
-        <f t="shared" ref="CL7" si="58">SUM(CL3:CL6)</f>
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="CM7">
-        <f t="shared" ref="CM7" si="59">SUM(CM3:CM6)</f>
-        <v>299</v>
+        <v>56</v>
       </c>
       <c r="CO7">
-        <f t="shared" ref="CO7" si="60">SUM(CO3:CO6)</f>
-        <v>612</v>
+        <v>15</v>
       </c>
       <c r="CP7">
-        <f t="shared" ref="CP7" si="61">SUM(CP3:CP6)</f>
-        <v>663</v>
+        <v>18</v>
       </c>
       <c r="CQ7">
-        <f t="shared" ref="CQ7" si="62">SUM(CQ3:CQ6)</f>
-        <v>716</v>
+        <v>108</v>
       </c>
       <c r="CR7">
-        <f t="shared" ref="CR7" si="63">SUM(CR3:CR6)</f>
-        <v>478</v>
-      </c>
-      <c r="CT7">
-        <f>SUM(CT3:CT6)</f>
-        <v>16.3</v>
-      </c>
-      <c r="CU7">
-        <f t="shared" ref="CU7:CW7" si="64">SUM(CU3:CU6)</f>
-        <v>18.5</v>
-      </c>
-      <c r="CV7">
-        <f t="shared" si="64"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="CW7">
-        <f t="shared" si="64"/>
-        <v>12.7</v>
-      </c>
-      <c r="CY7">
-        <f>SUM(CY3:CY6)</f>
-        <v>3</v>
-      </c>
-      <c r="CZ7">
-        <f t="shared" ref="CZ7:DD7" si="65">SUM(CZ3:CZ6)</f>
-        <v>12.3</v>
-      </c>
-      <c r="DA7">
-        <f t="shared" si="65"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="DB7">
-        <f t="shared" si="65"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="DD7">
-        <f t="shared" si="65"/>
-        <v>17.799999999999997</v>
-      </c>
-      <c r="DE7">
-        <f t="shared" ref="DE7" si="66">SUM(DE3:DE6)</f>
-        <v>20.6</v>
-      </c>
-      <c r="DF7">
-        <f t="shared" ref="DF7" si="67">SUM(DF3:DF6)</f>
-        <v>21.7</v>
-      </c>
-      <c r="DG7">
-        <f t="shared" ref="DG7" si="68">SUM(DG3:DG6)</f>
-        <v>21.7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:111" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="0">SUM(C3:C7)</f>
+        <v>97</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>87.9</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>63.7</v>
+      </c>
+      <c r="G8">
+        <f>SUM(G3:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8" si="1">SUM(H3:H7)</f>
+        <v>1162</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="2">SUM(I3:I7)</f>
+        <v>887</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="3">SUM(J3:J7)</f>
+        <v>784</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="4">SUM(K3:K7)</f>
+        <v>570</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L3:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8" si="5">SUM(M3:M7)</f>
+        <v>330</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8" si="6">SUM(N3:N7)</f>
+        <v>322</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8" si="7">SUM(O3:O7)</f>
+        <v>320</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8" si="8">SUM(P3:P7)</f>
+        <v>301</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(Q3:Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8" si="9">SUM(R3:R7)</f>
+        <v>229</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8" si="10">SUM(S3:S7)</f>
+        <v>175</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8" si="11">SUM(T3:T7)</f>
+        <v>197</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8" si="12">SUM(U3:U7)</f>
+        <v>177</v>
+      </c>
+      <c r="AA8">
+        <f>SUM(AA3:AA7)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8" si="13">SUM(AB3:AB7)</f>
+        <v>627</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" ref="AC8" si="14">SUM(AC3:AC7)</f>
+        <v>557</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" ref="AD8" si="15">SUM(AD3:AD7)</f>
+        <v>492</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" ref="AE8" si="16">SUM(AE3:AE7)</f>
+        <v>325</v>
+      </c>
+      <c r="AF8">
+        <f>SUM(AF3:AF7)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" ref="AG8" si="17">SUM(AG3:AG7)</f>
+        <v>197</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ref="AH8" si="18">SUM(AH3:AH7)</f>
+        <v>237</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" ref="AI8" si="19">SUM(AI3:AI7)</f>
+        <v>263</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" ref="AJ8" si="20">SUM(AJ3:AJ7)</f>
+        <v>213</v>
+      </c>
+      <c r="AK8">
+        <f>SUM(AK3:AK7)</f>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" ref="AL8" si="21">SUM(AL3:AL7)</f>
+        <v>671.3</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" ref="AM8" si="22">SUM(AM3:AM7)</f>
+        <v>872</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" ref="AN8" si="23">SUM(AN3:AN7)</f>
+        <v>649</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" ref="AO8" si="24">SUM(AO3:AO7)</f>
+        <v>463</v>
+      </c>
+      <c r="AU8">
+        <f>SUM(AU3:AU7)</f>
+        <v>255</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" ref="AV8" si="25">SUM(AV3:AV7)</f>
+        <v>349</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" ref="AW8" si="26">SUM(AW3:AW7)</f>
+        <v>408</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" ref="AX8" si="27">SUM(AX3:AX7)</f>
+        <v>438</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" ref="AY8" si="28">SUM(AY3:AY7)</f>
+        <v>427</v>
+      </c>
+      <c r="AZ8">
+        <f>SUM(AZ3:AZ7)</f>
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" ref="BA8" si="29">SUM(BA3:BA7)</f>
+        <v>583</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" ref="BB8" si="30">SUM(BB3:BB7)</f>
+        <v>552</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" ref="BC8" si="31">SUM(BC3:BC7)</f>
+        <v>597</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" ref="BD8" si="32">SUM(BD3:BD7)</f>
+        <v>534</v>
+      </c>
+      <c r="BE8">
+        <f>SUM(BE3:BE7)</f>
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" ref="BF8" si="33">SUM(BF3:BF7)</f>
+        <v>10.100000000000001</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" ref="BG8" si="34">SUM(BG3:BG7)</f>
+        <v>12.3</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" ref="BH8" si="35">SUM(BH3:BH7)</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" ref="BI8" si="36">SUM(BI3:BI7)</f>
+        <v>15.4</v>
+      </c>
+      <c r="BJ8">
+        <f>SUM(BJ3:BJ7)</f>
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" ref="BK8" si="37">SUM(BK3:BK7)</f>
+        <v>456</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" ref="BL8" si="38">SUM(BL3:BL7)</f>
+        <v>347</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" ref="BM8" si="39">SUM(BM3:BM7)</f>
+        <v>332</v>
+      </c>
+      <c r="BN8">
+        <f t="shared" ref="BN8" si="40">SUM(BN3:BN7)</f>
+        <v>349</v>
+      </c>
+      <c r="BO8">
+        <f>SUM(BO3:BO7)</f>
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" ref="BP8" si="41">SUM(BP3:BP7)</f>
+        <v>65.2</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" ref="BQ8" si="42">SUM(BQ3:BQ7)</f>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="BR8">
+        <f t="shared" ref="BR8" si="43">SUM(BR3:BR7)</f>
+        <v>58.4</v>
+      </c>
+      <c r="BS8">
+        <f t="shared" ref="BS8" si="44">SUM(BS3:BS7)</f>
+        <v>41.400000000000006</v>
+      </c>
+      <c r="BT8">
+        <f>SUM(BT3:BT7)</f>
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <f t="shared" ref="BU8" si="45">SUM(BU3:BU7)</f>
+        <v>326</v>
+      </c>
+      <c r="BV8">
+        <f t="shared" ref="BV8" si="46">SUM(BV3:BV7)</f>
+        <v>346</v>
+      </c>
+      <c r="BW8">
+        <f t="shared" ref="BW8" si="47">SUM(BW3:BW7)</f>
+        <v>332</v>
+      </c>
+      <c r="BX8">
+        <f t="shared" ref="BX8" si="48">SUM(BX3:BX7)</f>
+        <v>196</v>
+      </c>
+      <c r="BY8">
+        <f>SUM(BY3:BY7)</f>
+        <v>151</v>
+      </c>
+      <c r="BZ8">
+        <f t="shared" ref="BZ8" si="49">SUM(BZ3:BZ7)</f>
+        <v>160</v>
+      </c>
+      <c r="CA8">
+        <f t="shared" ref="CA8" si="50">SUM(CA3:CA7)</f>
+        <v>181</v>
+      </c>
+      <c r="CB8">
+        <f t="shared" ref="CB8" si="51">SUM(CB3:CB7)</f>
+        <v>272</v>
+      </c>
+      <c r="CC8">
+        <f t="shared" ref="CC8" si="52">SUM(CC3:CC7)</f>
+        <v>242</v>
+      </c>
+      <c r="CD8">
+        <f>SUM(CD3:CD7)</f>
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <f t="shared" ref="CE8" si="53">SUM(CE3:CE7)</f>
+        <v>415</v>
+      </c>
+      <c r="CF8">
+        <f t="shared" ref="CF8" si="54">SUM(CF3:CF7)</f>
+        <v>338</v>
+      </c>
+      <c r="CG8">
+        <f t="shared" ref="CG8" si="55">SUM(CG3:CG7)</f>
+        <v>351</v>
+      </c>
+      <c r="CH8">
+        <f t="shared" ref="CH8" si="56">SUM(CH3:CH7)</f>
+        <v>338</v>
+      </c>
+      <c r="CI8">
+        <f>SUM(CI3:CI7)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <f t="shared" ref="CJ8" si="57">SUM(CJ3:CJ7)</f>
+        <v>517</v>
+      </c>
+      <c r="CK8">
+        <f t="shared" ref="CK8" si="58">SUM(CK3:CK7)</f>
+        <v>479</v>
+      </c>
+      <c r="CL8">
+        <f t="shared" ref="CL8" si="59">SUM(CL3:CL7)</f>
+        <v>361</v>
+      </c>
+      <c r="CM8">
+        <f t="shared" ref="CM8" si="60">SUM(CM3:CM7)</f>
+        <v>355</v>
+      </c>
+      <c r="CN8">
+        <f>SUM(CN3:CN7)</f>
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <f t="shared" ref="CO8" si="61">SUM(CO3:CO7)</f>
+        <v>627</v>
+      </c>
+      <c r="CP8">
+        <f t="shared" ref="CP8" si="62">SUM(CP3:CP7)</f>
+        <v>681</v>
+      </c>
+      <c r="CQ8">
+        <f t="shared" ref="CQ8" si="63">SUM(CQ3:CQ7)</f>
+        <v>824</v>
+      </c>
+      <c r="CR8">
+        <f t="shared" ref="CR8" si="64">SUM(CR3:CR7)</f>
+        <v>557</v>
+      </c>
+      <c r="CS8">
+        <f>SUM(CS3:CS7)</f>
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <f t="shared" ref="CT8" si="65">SUM(CT3:CT7)</f>
+        <v>16.3</v>
+      </c>
+      <c r="CU8">
+        <f t="shared" ref="CU8" si="66">SUM(CU3:CU7)</f>
+        <v>18.5</v>
+      </c>
+      <c r="CV8">
+        <f t="shared" ref="CV8" si="67">SUM(CV3:CV7)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="CW8">
+        <f t="shared" ref="CW8" si="68">SUM(CW3:CW7)</f>
+        <v>12.7</v>
+      </c>
+      <c r="CX8">
+        <f>SUM(CX3:CX7)</f>
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <f t="shared" ref="CY8" si="69">SUM(CY3:CY7)</f>
+        <v>3</v>
+      </c>
+      <c r="CZ8">
+        <f t="shared" ref="CZ8" si="70">SUM(CZ3:CZ7)</f>
+        <v>12.3</v>
+      </c>
+      <c r="DA8">
+        <f t="shared" ref="DA8" si="71">SUM(DA3:DA7)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="DB8">
+        <f t="shared" ref="DB8" si="72">SUM(DB3:DB7)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="DC8">
+        <f>SUM(DC3:DC7)</f>
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <f t="shared" ref="DD8" si="73">SUM(DD3:DD7)</f>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="DE8">
+        <f t="shared" ref="DE8" si="74">SUM(DE3:DE7)</f>
+        <v>20.6</v>
+      </c>
+      <c r="DF8">
+        <f t="shared" ref="DF8" si="75">SUM(DF3:DF7)</f>
+        <v>21.7</v>
+      </c>
+      <c r="DG8">
+        <f t="shared" ref="DG8" si="76">SUM(DG3:DG7)</f>
+        <v>21.7</v>
+      </c>
     </row>
     <row r="9" spans="1:111" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <f>C10-C11+C12</f>
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:F9" si="69">D10-D11+D12</f>
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="69"/>
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="69"/>
-        <v>-9</v>
-      </c>
-      <c r="H9">
-        <f>H10-H11+H12</f>
-        <v>39</v>
-      </c>
-      <c r="I9">
-        <v>109</v>
-      </c>
-      <c r="J9">
-        <v>-155</v>
-      </c>
-      <c r="K9">
-        <f>K10-K11+K12</f>
-        <v>125</v>
-      </c>
-      <c r="M9">
-        <f>M10-M11+M12</f>
-        <v>71</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ref="N9:P9" si="70">N10-N11+N12</f>
-        <v>65</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="70"/>
-        <v>134</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="70"/>
-        <v>111</v>
-      </c>
-      <c r="R9">
-        <f>R10-R11+R12</f>
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <f t="shared" ref="S9" si="71">S10-S11+S12</f>
-        <v>37</v>
-      </c>
-      <c r="T9">
-        <f t="shared" ref="T9" si="72">T10-T11+T12</f>
-        <v>-13</v>
-      </c>
-      <c r="U9">
-        <f t="shared" ref="U9" si="73">U10-U11+U12</f>
-        <v>39</v>
-      </c>
-      <c r="AB9">
-        <f>AB10-AB11+AB12</f>
-        <v>164</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" ref="AC9" si="74">AC10-AC11+AC12</f>
-        <v>178</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" ref="AD9" si="75">AD10-AD11+AD12</f>
-        <v>40</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" ref="AE9" si="76">AE10-AE11+AE12</f>
-        <v>-18</v>
-      </c>
-      <c r="AG9">
-        <f>AG10-AG11+AG12</f>
-        <v>64</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" ref="AH9" si="77">AH10-AH11+AH12</f>
-        <v>22</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" ref="AI9" si="78">AI10-AI11+AI12</f>
-        <v>24</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" ref="AJ9" si="79">AJ10-AJ11+AJ12</f>
-        <v>-11</v>
-      </c>
-      <c r="AL9">
-        <f>AL10-AL11+AL12</f>
-        <v>146</v>
-      </c>
-      <c r="AM9">
-        <v>-81</v>
-      </c>
-      <c r="AN9">
-        <v>-180</v>
-      </c>
-      <c r="AO9">
-        <f>AO10-AO11+AO12</f>
-        <v>147</v>
-      </c>
-      <c r="AU9">
-        <v>485</v>
-      </c>
-      <c r="AV9">
-        <v>342</v>
-      </c>
-      <c r="AW9">
-        <v>325</v>
-      </c>
-      <c r="AX9">
-        <v>170</v>
-      </c>
-      <c r="AY9">
-        <v>248</v>
-      </c>
-      <c r="BA9">
-        <f>BA10-BA11+BA12</f>
-        <v>64</v>
-      </c>
-      <c r="BB9">
-        <v>-81</v>
-      </c>
-      <c r="BC9">
-        <v>-180</v>
-      </c>
-      <c r="BD9">
-        <f>BD10-BD11+BD12</f>
-        <v>70</v>
-      </c>
-      <c r="BF9">
-        <f>BF10-BF11+BF12</f>
-        <v>57</v>
-      </c>
-      <c r="BG9">
-        <v>-81</v>
-      </c>
-      <c r="BH9">
-        <v>-180</v>
-      </c>
-      <c r="BI9">
-        <f>BI10-BI11+BI12</f>
-        <v>9</v>
-      </c>
-      <c r="BK9">
-        <f>BK10-BK11+BK12</f>
-        <v>33</v>
-      </c>
-      <c r="BL9">
-        <f>BL10-BL11+BL12</f>
-        <v>173</v>
-      </c>
-      <c r="BM9">
-        <f>BM10-BM11+BM12</f>
-        <v>130</v>
-      </c>
-      <c r="BN9">
-        <f>BN10-BN11+BN12</f>
-        <v>158</v>
-      </c>
-      <c r="BP9">
-        <f>BP10-BP11+BP12</f>
-        <v>49.3</v>
-      </c>
-      <c r="BQ9">
-        <f t="shared" ref="BQ9:BS9" si="80">BQ10-BQ11+BQ12</f>
-        <v>20</v>
-      </c>
-      <c r="BR9">
-        <f t="shared" si="80"/>
-        <v>29</v>
-      </c>
-      <c r="BS9">
-        <f t="shared" si="80"/>
-        <v>38</v>
-      </c>
-      <c r="BU9">
-        <v>114</v>
-      </c>
-      <c r="BV9">
-        <v>99</v>
-      </c>
-      <c r="BW9">
-        <v>2</v>
-      </c>
-      <c r="BX9">
-        <v>89</v>
-      </c>
-      <c r="BY9">
-        <v>186</v>
-      </c>
-      <c r="BZ9">
-        <v>183</v>
-      </c>
-      <c r="CA9">
-        <v>326</v>
-      </c>
-      <c r="CB9">
-        <v>151</v>
-      </c>
-      <c r="CC9">
-        <v>189</v>
-      </c>
-      <c r="CE9">
-        <f>CE10-CE11+CE12</f>
-        <v>116</v>
-      </c>
-      <c r="CF9">
-        <f t="shared" ref="CF9" si="81">CF10-CF11+CF12</f>
-        <v>166</v>
-      </c>
-      <c r="CG9">
-        <f t="shared" ref="CG9" si="82">CG10-CG11+CG12</f>
-        <v>-22</v>
-      </c>
-      <c r="CH9">
-        <f t="shared" ref="CH9" si="83">CH10-CH11+CH12</f>
-        <v>168</v>
-      </c>
-      <c r="CJ9">
-        <v>228</v>
-      </c>
-      <c r="CK9">
-        <v>25</v>
-      </c>
-      <c r="CL9">
-        <f>CK10+CL11+CL12</f>
-        <v>433</v>
-      </c>
-      <c r="CM9">
-        <f>CL10+CM11+CM12</f>
-        <v>323</v>
-      </c>
-      <c r="CO9">
-        <f>CO10-CO11+CO12</f>
-        <v>24</v>
-      </c>
-      <c r="CP9">
-        <f t="shared" ref="CP9" si="84">CP10-CP11+CP12</f>
-        <v>84</v>
-      </c>
-      <c r="CQ9">
-        <f t="shared" ref="CQ9" si="85">CQ10-CQ11+CQ12</f>
-        <v>71</v>
-      </c>
-      <c r="CR9">
-        <f t="shared" ref="CR9" si="86">CR10-CR11+CR12</f>
-        <v>119</v>
-      </c>
-      <c r="CT9">
-        <f>CT10-CT11+CT12</f>
-        <v>14.000000000000005</v>
-      </c>
-      <c r="CU9">
-        <f>CU10-CU11+CU12</f>
-        <v>32.6</v>
-      </c>
-      <c r="CV9">
-        <f>CV10-CV11+CV12</f>
-        <v>4.26</v>
-      </c>
-      <c r="CW9">
-        <f>CW10-CW11+CW12</f>
-        <v>3.5</v>
-      </c>
-      <c r="CY9">
-        <f>CY10-CY11+CY12</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="CZ9">
-        <f t="shared" ref="CZ9:DD9" si="87">CZ10-CZ11+CZ12</f>
-        <v>-2.6999999999999993</v>
-      </c>
-      <c r="DA9">
-        <f t="shared" si="87"/>
-        <v>1.2000000000000011</v>
-      </c>
-      <c r="DB9">
-        <f t="shared" si="87"/>
-        <v>1</v>
-      </c>
-      <c r="DD9">
-        <f t="shared" si="87"/>
-        <v>14</v>
-      </c>
-      <c r="DE9">
-        <f t="shared" ref="DE9" si="88">DE10-DE11+DE12</f>
-        <v>17</v>
-      </c>
-      <c r="DF9">
-        <f t="shared" ref="DF9" si="89">DF10-DF11+DF12</f>
-        <v>5</v>
-      </c>
-      <c r="DG9">
-        <f t="shared" ref="DG9" si="90">DG10-DG11+DG12</f>
-        <v>4</v>
-      </c>
+      <c r="A9" s="17"/>
     </row>
     <row r="10" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C10">
+        <f>C11-C12+C13</f>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:F10" si="77">D11-D12+D13</f>
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="77"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="77"/>
+        <v>-9</v>
+      </c>
+      <c r="H10">
+        <f>H11-H12+H13</f>
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>109</v>
+      </c>
+      <c r="J10">
+        <v>-155</v>
+      </c>
+      <c r="K10">
+        <f>K11-K12+K13</f>
         <v>125</v>
       </c>
-      <c r="D10">
-        <v>102</v>
-      </c>
-      <c r="E10">
-        <v>47</v>
-      </c>
-      <c r="F10">
-        <v>32</v>
-      </c>
-      <c r="H10">
-        <v>398</v>
-      </c>
-      <c r="I10">
-        <v>505</v>
-      </c>
-      <c r="J10">
-        <v>129</v>
-      </c>
-      <c r="K10">
-        <v>354</v>
-      </c>
       <c r="M10">
-        <v>349</v>
+        <f>M11-M12+M13</f>
+        <v>71</v>
       </c>
       <c r="N10">
-        <v>256</v>
+        <f t="shared" ref="N10:P10" si="78">N11-N12+N13</f>
+        <v>65</v>
       </c>
       <c r="O10">
-        <v>329</v>
+        <f t="shared" si="78"/>
+        <v>134</v>
       </c>
       <c r="P10">
-        <v>379</v>
+        <f t="shared" si="78"/>
+        <v>111</v>
       </c>
       <c r="R10">
-        <v>100</v>
+        <f>R11-R12+R13</f>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>194</v>
+        <f t="shared" ref="S10" si="79">S11-S12+S13</f>
+        <v>37</v>
       </c>
       <c r="T10">
-        <v>120</v>
+        <f t="shared" ref="T10" si="80">T11-T12+T13</f>
+        <v>-13</v>
       </c>
       <c r="U10">
-        <v>174</v>
+        <f t="shared" ref="U10" si="81">U11-U12+U13</f>
+        <v>39</v>
       </c>
       <c r="AB10">
-        <v>652</v>
+        <f>AB11-AB12+AB13</f>
+        <v>164</v>
       </c>
       <c r="AC10">
-        <v>448</v>
+        <f t="shared" ref="AC10" si="82">AC11-AC12+AC13</f>
+        <v>178</v>
       </c>
       <c r="AD10">
-        <v>425</v>
+        <f t="shared" ref="AD10" si="83">AD11-AD12+AD13</f>
+        <v>40</v>
       </c>
       <c r="AE10">
-        <v>370</v>
+        <f t="shared" ref="AE10" si="84">AE11-AE12+AE13</f>
+        <v>-18</v>
       </c>
       <c r="AG10">
-        <v>156</v>
+        <f>AG11-AG12+AG13</f>
+        <v>64</v>
       </c>
       <c r="AH10">
-        <v>80</v>
+        <f t="shared" ref="AH10" si="85">AH11-AH12+AH13</f>
+        <v>22</v>
       </c>
       <c r="AI10">
-        <v>100</v>
+        <f t="shared" ref="AI10" si="86">AI11-AI12+AI13</f>
+        <v>24</v>
       </c>
       <c r="AJ10">
+        <f t="shared" ref="AJ10" si="87">AJ11-AJ12+AJ13</f>
+        <v>-11</v>
+      </c>
+      <c r="AL10">
+        <f>AL11-AL12+AL13</f>
+        <v>146</v>
+      </c>
+      <c r="AM10">
+        <v>-81</v>
+      </c>
+      <c r="AN10">
+        <v>-180</v>
+      </c>
+      <c r="AO10">
+        <f>AO11-AO12+AO13</f>
+        <v>147</v>
+      </c>
+      <c r="AU10">
+        <v>485</v>
+      </c>
+      <c r="AV10">
+        <v>342</v>
+      </c>
+      <c r="AW10">
+        <v>325</v>
+      </c>
+      <c r="AX10">
+        <v>170</v>
+      </c>
+      <c r="AY10">
+        <v>248</v>
+      </c>
+      <c r="BA10">
+        <f>BA11-BA12+BA13</f>
+        <v>64</v>
+      </c>
+      <c r="BB10">
+        <v>-81</v>
+      </c>
+      <c r="BC10">
+        <v>-180</v>
+      </c>
+      <c r="BD10">
+        <f>BD11-BD12+BD13</f>
+        <v>70</v>
+      </c>
+      <c r="BF10">
+        <f>BF11-BF12+BF13</f>
+        <v>57</v>
+      </c>
+      <c r="BG10">
+        <v>-81</v>
+      </c>
+      <c r="BH10">
+        <v>-180</v>
+      </c>
+      <c r="BI10">
+        <f>BI11-BI12+BI13</f>
+        <v>9</v>
+      </c>
+      <c r="BK10">
+        <f>BK11-BK12+BK13</f>
+        <v>33</v>
+      </c>
+      <c r="BL10">
+        <f>BL11-BL12+BL13</f>
+        <v>173</v>
+      </c>
+      <c r="BM10">
+        <f>BM11-BM12+BM13</f>
+        <v>130</v>
+      </c>
+      <c r="BN10">
+        <f>BN11-BN12+BN13</f>
+        <v>158</v>
+      </c>
+      <c r="BP10">
+        <f>BP11-BP12+BP13</f>
+        <v>49.3</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" ref="BQ10:BS10" si="88">BQ11-BQ12+BQ13</f>
+        <v>20</v>
+      </c>
+      <c r="BR10">
+        <f t="shared" si="88"/>
+        <v>29</v>
+      </c>
+      <c r="BS10">
+        <f t="shared" si="88"/>
         <v>38</v>
       </c>
-      <c r="AL10">
-        <v>146</v>
-      </c>
-      <c r="AM10">
-        <v>120</v>
-      </c>
-      <c r="AN10">
-        <v>118</v>
-      </c>
-      <c r="AO10">
-        <v>281</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>1245</v>
-      </c>
-      <c r="AV10">
-        <v>1112</v>
-      </c>
-      <c r="AW10">
-        <v>1025</v>
-      </c>
-      <c r="AX10">
-        <v>644</v>
-      </c>
-      <c r="AY10">
-        <v>914</v>
-      </c>
-      <c r="BA10">
-        <v>329</v>
-      </c>
-      <c r="BB10">
-        <v>314</v>
-      </c>
-      <c r="BC10">
+      <c r="BU10">
+        <v>114</v>
+      </c>
+      <c r="BV10">
+        <v>99</v>
+      </c>
+      <c r="BW10">
+        <v>2</v>
+      </c>
+      <c r="BX10">
+        <v>89</v>
+      </c>
+      <c r="BY10">
+        <v>186</v>
+      </c>
+      <c r="BZ10">
         <v>183</v>
       </c>
-      <c r="BD10">
-        <v>250</v>
-      </c>
-      <c r="BF10">
-        <v>243</v>
-      </c>
-      <c r="BG10">
-        <v>157</v>
-      </c>
-      <c r="BH10">
-        <v>77</v>
-      </c>
-      <c r="BI10">
-        <v>109</v>
-      </c>
-      <c r="BK10">
-        <v>288</v>
-      </c>
-      <c r="BL10">
-        <v>467</v>
-      </c>
-      <c r="BM10">
-        <v>385</v>
-      </c>
-      <c r="BN10">
-        <v>408</v>
-      </c>
-      <c r="BP10">
-        <v>97</v>
-      </c>
-      <c r="BQ10">
-        <v>47</v>
-      </c>
-      <c r="BR10">
-        <v>86</v>
-      </c>
-      <c r="BS10">
-        <v>91</v>
-      </c>
-      <c r="BU10">
-        <v>362</v>
-      </c>
-      <c r="BV10">
-        <v>344</v>
-      </c>
-      <c r="BW10">
-        <v>260</v>
-      </c>
-      <c r="BX10">
-        <v>390</v>
-      </c>
-      <c r="BY10" s="1">
-        <v>732</v>
-      </c>
-      <c r="BZ10">
-        <v>704</v>
-      </c>
       <c r="CA10">
-        <v>863</v>
+        <v>326</v>
       </c>
       <c r="CB10">
-        <v>489</v>
+        <v>151</v>
       </c>
       <c r="CC10">
-        <v>598</v>
+        <v>189</v>
       </c>
       <c r="CE10">
-        <v>278</v>
+        <f>CE11-CE12+CE13</f>
+        <v>116</v>
       </c>
       <c r="CF10">
-        <v>370</v>
+        <f t="shared" ref="CF10" si="89">CF11-CF12+CF13</f>
+        <v>166</v>
       </c>
       <c r="CG10">
-        <v>214</v>
+        <f t="shared" ref="CG10" si="90">CG11-CG12+CG13</f>
+        <v>-22</v>
       </c>
       <c r="CH10">
-        <v>373</v>
+        <f t="shared" ref="CH10" si="91">CH11-CH12+CH13</f>
+        <v>168</v>
       </c>
       <c r="CJ10">
-        <v>588</v>
+        <v>228</v>
       </c>
       <c r="CK10">
+        <v>25</v>
+      </c>
+      <c r="CL10">
+        <f>CK11+CL12+CL13</f>
         <v>433</v>
       </c>
-      <c r="CL10">
+      <c r="CM10">
+        <f>CL11+CM12+CM13</f>
         <v>323</v>
       </c>
-      <c r="CM10">
-        <v>326</v>
-      </c>
       <c r="CO10">
-        <v>116</v>
+        <f>CO11-CO12+CO13</f>
+        <v>24</v>
       </c>
       <c r="CP10">
-        <v>166</v>
+        <f t="shared" ref="CP10" si="92">CP11-CP12+CP13</f>
+        <v>84</v>
       </c>
       <c r="CQ10">
-        <v>163</v>
+        <f t="shared" ref="CQ10" si="93">CQ11-CQ12+CQ13</f>
+        <v>71</v>
       </c>
       <c r="CR10">
-        <v>240</v>
+        <f t="shared" ref="CR10" si="94">CR11-CR12+CR13</f>
+        <v>119</v>
       </c>
       <c r="CT10">
-        <v>100</v>
+        <f>CT11-CT12+CT13</f>
+        <v>14.000000000000005</v>
       </c>
       <c r="CU10">
-        <v>113</v>
+        <f>CU11-CU12+CU13</f>
+        <v>32.6</v>
       </c>
       <c r="CV10">
-        <v>51</v>
+        <f>CV11-CV12+CV13</f>
+        <v>4.26</v>
       </c>
       <c r="CW10">
-        <v>20</v>
+        <f>CW11-CW12+CW13</f>
+        <v>3.5</v>
       </c>
       <c r="CY10">
-        <v>27.3</v>
+        <f>CY11-CY12+CY13</f>
+        <v>3.3000000000000007</v>
       </c>
       <c r="CZ10">
-        <v>15.3</v>
+        <f t="shared" ref="CZ10:DD10" si="95">CZ11-CZ12+CZ13</f>
+        <v>-2.6999999999999993</v>
       </c>
       <c r="DA10">
-        <v>13.8</v>
+        <f t="shared" si="95"/>
+        <v>1.2000000000000011</v>
       </c>
       <c r="DB10">
-        <v>26</v>
+        <f t="shared" si="95"/>
+        <v>1</v>
       </c>
       <c r="DD10">
-        <v>76</v>
+        <f t="shared" si="95"/>
+        <v>14</v>
       </c>
       <c r="DE10">
-        <v>68</v>
+        <f t="shared" ref="DE10" si="96">DE11-DE12+DE13</f>
+        <v>17</v>
       </c>
       <c r="DF10">
-        <v>32</v>
+        <f t="shared" ref="DF10" si="97">DF11-DF12+DF13</f>
+        <v>5</v>
       </c>
       <c r="DG10">
-        <v>18</v>
+        <f t="shared" ref="DG10" si="98">DG11-DG12+DG13</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <f>250+198+25</f>
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="I11">
-        <f>263+227+25</f>
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="J11">
-        <v>288</v>
+        <v>129</v>
       </c>
       <c r="K11">
-        <f>149+115</f>
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="M11">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="N11">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="O11">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="P11">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="R11">
         <v>100</v>
       </c>
       <c r="S11">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="T11">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="U11">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="AB11">
-        <v>565</v>
+        <v>652</v>
       </c>
       <c r="AC11">
-        <v>332</v>
+        <v>448</v>
       </c>
       <c r="AD11">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="AE11">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="AG11">
-        <f>AG10-61</f>
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="AH11">
-        <f>AH10-21</f>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="AI11">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ11">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="AL11">
+        <v>146</v>
       </c>
       <c r="AM11">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="AN11">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="AO11">
-        <v>134</v>
+        <v>281</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>1245</v>
+      </c>
+      <c r="AV11">
+        <v>1112</v>
+      </c>
+      <c r="AW11">
+        <v>1025</v>
+      </c>
+      <c r="AX11">
+        <v>644</v>
+      </c>
+      <c r="AY11">
+        <v>914</v>
       </c>
       <c r="BA11">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="BB11">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="BC11">
         <v>183</v>
       </c>
       <c r="BD11">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BF11">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="BG11">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="BH11">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="BI11">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="BK11">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="BL11">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="BM11">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="BN11">
-        <v>311</v>
+        <v>408</v>
       </c>
       <c r="BP11">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="BQ11">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="BR11">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="BS11">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="BU11">
+        <v>362</v>
+      </c>
+      <c r="BV11">
+        <v>344</v>
+      </c>
+      <c r="BW11">
+        <v>260</v>
+      </c>
+      <c r="BX11">
+        <v>390</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>732</v>
+      </c>
+      <c r="BZ11">
+        <v>704</v>
+      </c>
+      <c r="CA11">
+        <v>863</v>
+      </c>
+      <c r="CB11">
+        <v>489</v>
+      </c>
+      <c r="CC11">
+        <v>598</v>
       </c>
       <c r="CE11">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="CF11">
-        <v>218</v>
+        <v>370</v>
       </c>
       <c r="CG11">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="CH11">
-        <v>235</v>
+        <v>373</v>
+      </c>
+      <c r="CJ11">
+        <v>588</v>
+      </c>
+      <c r="CK11">
+        <v>433</v>
+      </c>
+      <c r="CL11">
+        <v>323</v>
+      </c>
+      <c r="CM11">
+        <v>326</v>
       </c>
       <c r="CO11">
-        <f>54+48</f>
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="CP11">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="CQ11">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="CR11">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="CT11">
-        <f>80+7.6</f>
-        <v>87.6</v>
+        <v>100</v>
       </c>
       <c r="CU11">
-        <f>69+13</f>
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="CV11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CW11">
+        <v>20</v>
+      </c>
+      <c r="CY11">
+        <v>27.3</v>
+      </c>
+      <c r="CZ11">
+        <v>15.3</v>
+      </c>
+      <c r="DA11">
+        <v>13.8</v>
+      </c>
+      <c r="DB11">
+        <v>26</v>
+      </c>
+      <c r="DD11">
+        <v>76</v>
+      </c>
+      <c r="DE11">
+        <v>68</v>
+      </c>
+      <c r="DF11">
+        <v>32</v>
+      </c>
+      <c r="DG11">
         <v>18</v>
-      </c>
-      <c r="CY11">
-        <v>24</v>
-      </c>
-      <c r="CZ11">
-        <v>18</v>
-      </c>
-      <c r="DA11">
-        <v>12.6</v>
-      </c>
-      <c r="DB11">
-        <v>25</v>
-      </c>
-      <c r="DD11">
-        <v>62</v>
-      </c>
-      <c r="DE11">
-        <v>51</v>
-      </c>
-      <c r="DF11">
-        <v>27</v>
-      </c>
-      <c r="DG11">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <f>250+198+25</f>
+        <v>473</v>
+      </c>
+      <c r="I12">
+        <f>263+227+25</f>
+        <v>515</v>
+      </c>
+      <c r="J12">
+        <v>288</v>
+      </c>
+      <c r="K12">
+        <f>149+115</f>
+        <v>264</v>
+      </c>
+      <c r="M12">
+        <v>320</v>
+      </c>
+      <c r="N12">
+        <v>214</v>
+      </c>
+      <c r="O12">
+        <v>215</v>
+      </c>
+      <c r="P12">
+        <v>282</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>159</v>
+      </c>
+      <c r="T12">
+        <v>135</v>
+      </c>
+      <c r="U12">
+        <v>136</v>
+      </c>
+      <c r="AB12">
+        <v>565</v>
+      </c>
+      <c r="AC12">
+        <v>332</v>
+      </c>
+      <c r="AD12">
+        <v>462</v>
+      </c>
+      <c r="AE12">
+        <v>454</v>
+      </c>
+      <c r="AG12">
+        <f>AG11-61</f>
+        <v>95</v>
+      </c>
+      <c r="AH12">
+        <f>AH11-21</f>
+        <v>59</v>
+      </c>
+      <c r="AI12">
+        <v>78</v>
+      </c>
+      <c r="AJ12">
+        <v>51</v>
+      </c>
+      <c r="AM12">
+        <v>169</v>
+      </c>
+      <c r="AN12">
+        <v>275</v>
+      </c>
+      <c r="AO12">
+        <v>134</v>
+      </c>
+      <c r="BA12">
+        <v>292</v>
+      </c>
+      <c r="BB12">
+        <v>291</v>
+      </c>
+      <c r="BC12">
+        <v>183</v>
+      </c>
+      <c r="BD12">
+        <v>201</v>
+      </c>
+      <c r="BF12">
+        <v>208</v>
+      </c>
+      <c r="BG12">
+        <v>140</v>
+      </c>
+      <c r="BH12">
+        <v>85</v>
+      </c>
+      <c r="BI12">
+        <v>103</v>
+      </c>
+      <c r="BK12">
+        <v>340</v>
+      </c>
+      <c r="BL12">
+        <v>366</v>
+      </c>
+      <c r="BM12">
+        <v>310</v>
+      </c>
+      <c r="BN12">
+        <v>311</v>
+      </c>
+      <c r="BP12">
+        <v>58</v>
+      </c>
+      <c r="BQ12">
+        <v>34</v>
+      </c>
+      <c r="BR12">
+        <v>58</v>
+      </c>
+      <c r="BS12">
+        <v>59</v>
+      </c>
+      <c r="CE12">
+        <v>171</v>
+      </c>
+      <c r="CF12">
+        <v>218</v>
+      </c>
+      <c r="CG12">
+        <v>263</v>
+      </c>
+      <c r="CH12">
+        <v>235</v>
+      </c>
+      <c r="CO12">
+        <f>54+48</f>
+        <v>102</v>
+      </c>
+      <c r="CP12">
+        <v>92</v>
+      </c>
+      <c r="CQ12">
+        <v>95</v>
+      </c>
+      <c r="CR12">
+        <v>129</v>
+      </c>
+      <c r="CT12">
+        <f>80+7.6</f>
+        <v>87.6</v>
+      </c>
+      <c r="CU12">
+        <f>69+13</f>
+        <v>82</v>
+      </c>
+      <c r="CV12">
+        <v>48</v>
+      </c>
+      <c r="CW12">
+        <v>18</v>
+      </c>
+      <c r="CY12">
+        <v>24</v>
+      </c>
+      <c r="CZ12">
+        <v>18</v>
+      </c>
+      <c r="DA12">
+        <v>12.6</v>
+      </c>
+      <c r="DB12">
+        <v>25</v>
+      </c>
+      <c r="DD12">
+        <v>62</v>
+      </c>
+      <c r="DE12">
+        <v>51</v>
+      </c>
+      <c r="DF12">
+        <v>27</v>
+      </c>
+      <c r="DG12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>110</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>114</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>129</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>59</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>35</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>42</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>23</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>20</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>14</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="S13">
         <v>2</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="U12">
+      <c r="U13">
         <v>1</v>
       </c>
-      <c r="AB12">
+      <c r="AB13">
         <v>77</v>
       </c>
-      <c r="AC12">
+      <c r="AC13">
         <v>62</v>
       </c>
-      <c r="AD12">
+      <c r="AD13">
         <v>77</v>
       </c>
-      <c r="AE12">
+      <c r="AE13">
         <v>66</v>
       </c>
-      <c r="AG12">
+      <c r="AG13">
         <v>3</v>
       </c>
-      <c r="AH12">
+      <c r="AH13">
         <v>1</v>
       </c>
-      <c r="AI12">
+      <c r="AI13">
         <v>2</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ13">
         <v>2</v>
       </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
         <v>27</v>
       </c>
-      <c r="BB12">
+      <c r="BB13">
         <v>18</v>
       </c>
-      <c r="BC12">
+      <c r="BC13">
         <v>16</v>
       </c>
-      <c r="BD12">
+      <c r="BD13">
         <v>21</v>
       </c>
-      <c r="BF12">
+      <c r="BF13">
         <v>22</v>
       </c>
-      <c r="BG12">
+      <c r="BG13">
         <v>6</v>
       </c>
-      <c r="BH12">
+      <c r="BH13">
         <v>5</v>
       </c>
-      <c r="BI12">
+      <c r="BI13">
         <v>3</v>
       </c>
-      <c r="BK12">
+      <c r="BK13">
         <v>85</v>
       </c>
-      <c r="BL12">
+      <c r="BL13">
         <v>72</v>
       </c>
-      <c r="BM12">
+      <c r="BM13">
         <v>55</v>
       </c>
-      <c r="BN12">
+      <c r="BN13">
         <v>61</v>
       </c>
-      <c r="BP12">
+      <c r="BP13">
         <f>3.3+7</f>
         <v>10.3</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ13">
         <f>4+3</f>
         <v>7</v>
       </c>
-      <c r="BR12">
+      <c r="BR13">
         <v>1</v>
       </c>
-      <c r="BS12">
+      <c r="BS13">
         <v>6</v>
       </c>
-      <c r="CE12">
+      <c r="CE13">
         <v>9</v>
       </c>
-      <c r="CF12">
+      <c r="CF13">
         <v>14</v>
       </c>
-      <c r="CG12">
+      <c r="CG13">
         <v>27</v>
       </c>
-      <c r="CH12">
+      <c r="CH13">
         <v>30</v>
       </c>
-      <c r="CO12">
+      <c r="CO13">
         <f>8+2</f>
         <v>10</v>
       </c>
-      <c r="CP12">
+      <c r="CP13">
         <v>10</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ13">
         <v>3</v>
       </c>
-      <c r="CR12">
+      <c r="CR13">
         <v>8</v>
       </c>
-      <c r="CT12">
+      <c r="CT13">
         <v>1.6</v>
       </c>
-      <c r="CU12">
+      <c r="CU13">
         <v>1.6</v>
       </c>
-      <c r="CV12">
+      <c r="CV13">
         <f>1+0.26</f>
         <v>1.26</v>
       </c>
-      <c r="CW12">
+      <c r="CW13">
         <f>1.1+0.4</f>
         <v>1.5</v>
       </c>
     </row>
+    <row r="14" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AU14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BT14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="15" spans="1:111" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15">
+      <c r="B15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="6">
         <v>2022</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="6">
         <v>2021</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="6">
         <v>2020</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="6">
         <v>2019</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="H15" s="6">
         <v>2022</v>
       </c>
-      <c r="H15">
+      <c r="I15" s="6">
         <v>2021</v>
       </c>
-      <c r="I15">
+      <c r="J15" s="6">
         <v>2020</v>
       </c>
-      <c r="J15">
+      <c r="K15" s="6">
         <v>2019</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="M15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="O15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="P15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="R15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="T15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="U15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="V15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="W15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="X15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="AJ15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="AK15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="AL15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="AM15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="AN15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="AO15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="AP15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="AQ15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="AR15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="AS15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="AT15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="AU15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="AV15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="AW15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="AX15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="AY15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="AZ15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="BA15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="BB15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="BC15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="BD15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="BE15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="BF15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="BG15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="BH15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="BI15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="BJ15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="BK15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="BL15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="BM15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="BN15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="BO15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="BP15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="BQ15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="BR15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="BS15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="BT15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="BU15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="BV15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="BW15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="BX15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="BY15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="BZ15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="CA15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="CB15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="CC15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="CD15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="CE15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="CF15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="CG15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="CH15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="CI15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="CJ15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="CK15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="CL15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="CM15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="CN15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="CO15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="CP15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="CQ15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="CR15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="CS15">
+        <v>2023</v>
+      </c>
+      <c r="CT15">
+        <v>2022</v>
+      </c>
+      <c r="CU15">
+        <v>2021</v>
+      </c>
+      <c r="CV15">
+        <v>2020</v>
+      </c>
+      <c r="CW15">
+        <v>2019</v>
+      </c>
+      <c r="CX15">
+        <v>2023</v>
       </c>
     </row>
     <row r="16" spans="1:111" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU16" s="26">
+        <f>AU18-AU19+AU20+AU21+AU22</f>
+        <v>1185</v>
+      </c>
+      <c r="AV16" s="26">
+        <f>AV18-AV19+AV20+AV21+AV22</f>
+        <v>980</v>
+      </c>
+      <c r="AW16" s="26">
+        <f>AW18-AW19+AW20+AW21+AW22</f>
+        <v>801</v>
+      </c>
+      <c r="AX16" s="26">
+        <f>AX18-AX19+AX20+AX21+AX22</f>
+        <v>605</v>
+      </c>
+      <c r="AY16" s="26">
+        <f>AY18-AY19+AY20+AY21+AY22</f>
+        <v>792</v>
+      </c>
+      <c r="BY16">
+        <f>BY18-BY19+BY20+BY21+BY22</f>
+        <v>601</v>
+      </c>
+      <c r="BZ16">
+        <f>BZ18-BZ19+BZ20+BZ21+BZ22</f>
+        <v>552</v>
+      </c>
+      <c r="CA16">
+        <f>CA18-CA19+CA20+CA21+CA22</f>
+        <v>793</v>
+      </c>
+      <c r="CB16">
+        <f>CB18-CB19+CB20+CB21+CB22</f>
+        <v>437</v>
+      </c>
+      <c r="CC16">
+        <f>CC18-CC19+CC20+CC21+CC22</f>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU17">
+        <f>+AU25</f>
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" ref="AV17:AY17" si="99">+AV25</f>
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <f>+BY25</f>
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <f>+BZ25</f>
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <f t="shared" ref="CA17:CB17" si="100">+CA25</f>
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <f t="shared" ref="CC17" si="101">+CC25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <f>Painel!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>Painel!C11</f>
+        <v>144</v>
+      </c>
+      <c r="D18">
+        <f>Painel!D11</f>
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <f>Painel!E11</f>
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <f>Painel!F11</f>
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <f>Painel!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>Painel!H11</f>
+        <v>385</v>
+      </c>
+      <c r="I18">
+        <f>Painel!I11</f>
+        <v>497</v>
+      </c>
+      <c r="J18">
+        <f>Painel!J11</f>
+        <v>131</v>
+      </c>
+      <c r="K18">
+        <f>Painel!K11</f>
+        <v>283</v>
+      </c>
+      <c r="L18">
+        <f>Painel!L11</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>Painel!M11</f>
+        <v>349</v>
+      </c>
+      <c r="N18">
+        <f>Painel!N11</f>
+        <v>256</v>
+      </c>
+      <c r="O18">
+        <f>Painel!O11</f>
+        <v>329</v>
+      </c>
+      <c r="P18">
+        <f>Painel!P11</f>
+        <v>379</v>
+      </c>
+      <c r="Q18">
+        <f>Painel!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>Painel!R11</f>
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <f>Painel!S11</f>
+        <v>194</v>
+      </c>
+      <c r="T18">
+        <f>Painel!T11</f>
+        <v>120</v>
+      </c>
+      <c r="U18">
+        <f>Painel!U11</f>
+        <v>174</v>
+      </c>
+      <c r="V18">
+        <f>Painel!V11</f>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f>Painel!W11</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>Painel!X11</f>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f>Painel!Y11</f>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f>Painel!Z11</f>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f>Painel!AA11</f>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f>Painel!AB11</f>
+        <v>652</v>
+      </c>
+      <c r="AC18">
+        <f>Painel!AC11</f>
+        <v>448</v>
+      </c>
+      <c r="AD18">
+        <f>Painel!AD11</f>
+        <v>425</v>
+      </c>
+      <c r="AE18">
+        <f>Painel!AE11</f>
+        <v>370</v>
+      </c>
+      <c r="AF18">
+        <f>Painel!AF11</f>
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <f>Painel!AG11</f>
+        <v>156</v>
+      </c>
+      <c r="AH18">
+        <f>Painel!AH11</f>
+        <v>80</v>
+      </c>
+      <c r="AI18">
+        <f>Painel!AI11</f>
+        <v>100</v>
+      </c>
+      <c r="AJ18">
+        <f>Painel!AJ11</f>
+        <v>38</v>
+      </c>
+      <c r="AK18">
+        <f>Painel!AK11</f>
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <f>Painel!AL11</f>
+        <v>146</v>
+      </c>
+      <c r="AM18">
+        <f>Painel!AM11</f>
+        <v>120</v>
+      </c>
+      <c r="AN18">
+        <f>Painel!AN11</f>
+        <v>118</v>
+      </c>
+      <c r="AO18">
+        <f>Painel!AO11</f>
+        <v>281</v>
+      </c>
+      <c r="AP18">
+        <f>Painel!AP11</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <f>Painel!AQ11</f>
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <f>Painel!AR11</f>
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <f>Painel!AS11</f>
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <f>Painel!AT11</f>
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>1316</v>
+      </c>
+      <c r="AV18">
+        <v>1112</v>
+      </c>
+      <c r="AW18">
+        <f>Painel!AW11</f>
+        <v>1025</v>
+      </c>
+      <c r="AX18">
+        <f>Painel!AX11</f>
+        <v>644</v>
+      </c>
+      <c r="AY18">
+        <f>Painel!AY11</f>
+        <v>914</v>
+      </c>
+      <c r="AZ18">
+        <f>Painel!AZ11</f>
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <f>Painel!BA11</f>
+        <v>329</v>
+      </c>
+      <c r="BB18">
+        <f>Painel!BB11</f>
+        <v>314</v>
+      </c>
+      <c r="BC18">
+        <f>Painel!BC11</f>
+        <v>183</v>
+      </c>
+      <c r="BD18">
+        <f>Painel!BD11</f>
+        <v>250</v>
+      </c>
+      <c r="BE18">
+        <f>Painel!BE11</f>
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <f>Painel!BF11</f>
+        <v>243</v>
+      </c>
+      <c r="BG18">
+        <f>Painel!BG11</f>
+        <v>157</v>
+      </c>
+      <c r="BH18">
+        <f>Painel!BH11</f>
+        <v>77</v>
+      </c>
+      <c r="BI18">
+        <f>Painel!BI11</f>
+        <v>109</v>
+      </c>
+      <c r="BJ18">
+        <f>Painel!BJ11</f>
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <f>Painel!BK11</f>
+        <v>288</v>
+      </c>
+      <c r="BL18">
+        <f>Painel!BL11</f>
+        <v>467</v>
+      </c>
+      <c r="BM18">
+        <f>Painel!BM11</f>
+        <v>385</v>
+      </c>
+      <c r="BN18">
+        <f>Painel!BN11</f>
+        <v>408</v>
+      </c>
+      <c r="BO18">
+        <f>Painel!BO11</f>
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <f>Painel!BP11</f>
+        <v>97</v>
+      </c>
+      <c r="BQ18">
+        <f>Painel!BQ11</f>
+        <v>47</v>
+      </c>
+      <c r="BR18">
+        <f>Painel!BR11</f>
+        <v>86</v>
+      </c>
+      <c r="BS18">
+        <f>Painel!BS11</f>
+        <v>91</v>
+      </c>
+      <c r="BT18">
+        <f>Painel!BT11</f>
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <f>Painel!BU11</f>
+        <v>362</v>
+      </c>
+      <c r="BV18">
+        <f>Painel!BV11</f>
+        <v>344</v>
+      </c>
+      <c r="BW18">
+        <f>Painel!BW11</f>
+        <v>260</v>
+      </c>
+      <c r="BX18">
+        <f>Painel!BX11</f>
+        <v>390</v>
+      </c>
+      <c r="BY18">
+        <f>Painel!BY11</f>
+        <v>732</v>
+      </c>
+      <c r="BZ18">
+        <f>Painel!BZ11</f>
+        <v>704</v>
+      </c>
+      <c r="CA18">
+        <f>Painel!CA11</f>
+        <v>863</v>
+      </c>
+      <c r="CB18">
+        <f>Painel!CB11</f>
+        <v>489</v>
+      </c>
+      <c r="CC18">
+        <f>Painel!CC11</f>
+        <v>598</v>
+      </c>
+      <c r="CD18">
+        <f>Painel!CD11</f>
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <f>Painel!CE11</f>
+        <v>278</v>
+      </c>
+      <c r="CF18">
+        <f>Painel!CF11</f>
+        <v>369</v>
+      </c>
+      <c r="CG18">
+        <f>Painel!CG11</f>
+        <v>214</v>
+      </c>
+      <c r="CH18">
+        <f>Painel!CH11</f>
+        <v>373</v>
+      </c>
+      <c r="CI18">
+        <f>Painel!CI11</f>
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <f>Painel!CJ11</f>
+        <v>588</v>
+      </c>
+      <c r="CK18">
+        <f>Painel!CK11</f>
+        <v>433</v>
+      </c>
+      <c r="CL18">
+        <f>Painel!CL11</f>
+        <v>323</v>
+      </c>
+      <c r="CM18">
+        <f>Painel!CM11</f>
+        <v>326</v>
+      </c>
+      <c r="CN18">
+        <f>Painel!CN11</f>
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <f>Painel!CO11</f>
+        <v>116</v>
+      </c>
+      <c r="CP18">
+        <f>Painel!CP11</f>
+        <v>166</v>
+      </c>
+      <c r="CQ18">
+        <f>Painel!CQ11</f>
+        <v>163</v>
+      </c>
+      <c r="CR18">
+        <f>Painel!CR11</f>
+        <v>240</v>
+      </c>
+      <c r="CS18">
+        <f>Painel!CS11</f>
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <f>Painel!CT11</f>
+        <v>100</v>
+      </c>
+      <c r="CU18">
+        <f>Painel!CU11</f>
+        <v>113</v>
+      </c>
+      <c r="CV18">
+        <f>Painel!CV11</f>
+        <v>51</v>
+      </c>
+      <c r="CW18">
+        <f>Painel!CW11</f>
+        <v>20</v>
+      </c>
+      <c r="CX18">
+        <f>Painel!CX11</f>
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <f>Painel!CY11</f>
+        <v>27</v>
+      </c>
+      <c r="CZ18">
+        <f>Painel!CZ11</f>
+        <v>15</v>
+      </c>
+      <c r="DA18">
+        <f>Painel!DA11</f>
+        <v>14</v>
+      </c>
+      <c r="DB18">
+        <f>Painel!DB11</f>
+        <v>26</v>
+      </c>
+      <c r="DC18">
+        <f>Painel!DC11</f>
+        <v>0</v>
+      </c>
+      <c r="DD18">
+        <f>Painel!DD11</f>
+        <v>76</v>
+      </c>
+      <c r="DE18">
+        <f>Painel!DE11</f>
+        <v>68</v>
+      </c>
+      <c r="DF18">
+        <f>Painel!DF11</f>
+        <v>32</v>
+      </c>
+      <c r="DG18">
+        <f>Painel!DG11</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU19">
+        <f>936+75+32</f>
+        <v>1043</v>
+      </c>
+      <c r="AV19">
+        <f>828+79+31</f>
+        <v>938</v>
+      </c>
+      <c r="AW19">
+        <f>762+46</f>
+        <v>808</v>
+      </c>
+      <c r="AX19">
+        <f>615+74</f>
+        <v>689</v>
+      </c>
+      <c r="AY19">
+        <f>677+120</f>
+        <v>797</v>
+      </c>
+      <c r="BY19">
+        <f>777-80</f>
+        <v>697</v>
+      </c>
+      <c r="BZ19">
+        <f>731-74</f>
+        <v>657</v>
+      </c>
+      <c r="CA19">
+        <f>740-122</f>
+        <v>618</v>
+      </c>
+      <c r="CB19">
+        <f>622-101</f>
+        <v>521</v>
+      </c>
+      <c r="CC19">
+        <f>624-72</f>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20">
+        <f>Painel!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>Painel!C12</f>
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <f>Painel!D12</f>
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <f>Painel!E12</f>
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <f>Painel!F12</f>
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <f>Painel!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>Painel!H12</f>
+        <v>250</v>
+      </c>
+      <c r="I20">
+        <f>Painel!I12</f>
+        <v>263</v>
+      </c>
+      <c r="J20">
+        <f>Painel!J12</f>
+        <v>200</v>
+      </c>
+      <c r="K20">
+        <f>Painel!K12</f>
+        <v>156</v>
+      </c>
+      <c r="L20">
+        <f>Painel!L12</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>Painel!M12</f>
+        <v>178</v>
+      </c>
+      <c r="N20">
+        <f>Painel!N12</f>
+        <v>145</v>
+      </c>
+      <c r="O20">
+        <f>Painel!O12</f>
+        <v>91</v>
+      </c>
+      <c r="P20">
+        <f>Painel!P12</f>
+        <v>138</v>
+      </c>
+      <c r="Q20">
+        <f>Painel!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f>Painel!R12</f>
+        <v>72</v>
+      </c>
+      <c r="S20">
+        <f>Painel!S12</f>
+        <v>106</v>
+      </c>
+      <c r="T20">
+        <f>Painel!T12</f>
+        <v>91</v>
+      </c>
+      <c r="U20">
+        <f>Painel!U12</f>
+        <v>93</v>
+      </c>
+      <c r="V20">
+        <f>Painel!V12</f>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f>Painel!W12</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>Painel!X12</f>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f>Painel!Y12</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>Painel!Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f>Painel!AA12</f>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f>Painel!AB12</f>
+        <v>274</v>
+      </c>
+      <c r="AC20">
+        <f>Painel!AC12</f>
+        <v>208</v>
+      </c>
+      <c r="AD20">
+        <f>Painel!AD12</f>
+        <v>188</v>
+      </c>
+      <c r="AE20">
+        <f>Painel!AE12</f>
+        <v>224</v>
+      </c>
+      <c r="AF20">
+        <f>Painel!AF12</f>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f>Painel!AG12</f>
+        <v>73</v>
+      </c>
+      <c r="AH20">
+        <f>Painel!AH12</f>
+        <v>49</v>
+      </c>
+      <c r="AI20">
+        <f>Painel!AI12</f>
+        <v>49</v>
+      </c>
+      <c r="AJ20">
+        <f>Painel!AJ12</f>
+        <v>37</v>
+      </c>
+      <c r="AK20">
+        <f>Painel!AK12</f>
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <f>Painel!AL12</f>
+        <v>57</v>
+      </c>
+      <c r="AM20">
+        <f>Painel!AM12</f>
+        <v>60</v>
+      </c>
+      <c r="AN20">
+        <f>Painel!AN12</f>
+        <v>98</v>
+      </c>
+      <c r="AO20">
+        <f>Painel!AO12</f>
+        <v>211</v>
+      </c>
+      <c r="AP20">
+        <f>Painel!AP12</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <f>Painel!AQ12</f>
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <f>Painel!AR12</f>
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <f>Painel!AS12</f>
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <f>Painel!AT12</f>
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <f>Painel!AU12</f>
+        <v>463</v>
+      </c>
+      <c r="AV20">
+        <f>Painel!AV12</f>
+        <v>439</v>
+      </c>
+      <c r="AW20">
+        <f>Painel!AW12</f>
+        <v>354</v>
+      </c>
+      <c r="AX20">
+        <f>Painel!AX12</f>
+        <v>332</v>
+      </c>
+      <c r="AY20">
+        <f>Painel!AY12</f>
+        <v>326</v>
+      </c>
+      <c r="AZ20">
+        <f>Painel!AZ12</f>
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <f>Painel!BA12</f>
+        <v>130</v>
+      </c>
+      <c r="BB20">
+        <f>Painel!BB12</f>
+        <v>118</v>
+      </c>
+      <c r="BC20">
+        <f>Painel!BC12</f>
+        <v>74</v>
+      </c>
+      <c r="BD20">
+        <f>Painel!BD12</f>
+        <v>61</v>
+      </c>
+      <c r="BE20">
+        <f>Painel!BE12</f>
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <f>Painel!BF12</f>
+        <v>85</v>
+      </c>
+      <c r="BG20">
+        <f>Painel!BG12</f>
+        <v>76</v>
+      </c>
+      <c r="BH20">
+        <f>Painel!BH12</f>
+        <v>44</v>
+      </c>
+      <c r="BI20">
+        <f>Painel!BI12</f>
+        <v>69</v>
+      </c>
+      <c r="BJ20">
+        <f>Painel!BJ12</f>
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <f>Painel!BK12</f>
+        <v>116</v>
+      </c>
+      <c r="BL20">
+        <f>Painel!BL12</f>
+        <v>135</v>
+      </c>
+      <c r="BM20">
+        <f>Painel!BM12</f>
+        <v>110</v>
+      </c>
+      <c r="BN20">
+        <f>Painel!BN12</f>
+        <v>109</v>
+      </c>
+      <c r="BO20">
+        <f>Painel!BO12</f>
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <f>Painel!BP12</f>
+        <v>33</v>
+      </c>
+      <c r="BQ20">
+        <f>Painel!BQ12</f>
+        <v>24</v>
+      </c>
+      <c r="BR20">
+        <f>Painel!BR12</f>
+        <v>47</v>
+      </c>
+      <c r="BS20">
+        <f>Painel!BS12</f>
+        <v>41</v>
+      </c>
+      <c r="BT20">
+        <f>Painel!BT12</f>
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <f>Painel!BU12</f>
+        <v>198</v>
+      </c>
+      <c r="BV20">
+        <f>Painel!BV12</f>
+        <v>181</v>
+      </c>
+      <c r="BW20">
+        <f>Painel!BW12</f>
+        <v>184</v>
+      </c>
+      <c r="BX20">
+        <f>Painel!BX12</f>
+        <v>190</v>
+      </c>
+      <c r="BY20">
+        <f>(343-24)</f>
+        <v>319</v>
+      </c>
+      <c r="BZ20">
+        <f>(323-22)</f>
+        <v>301</v>
+      </c>
+      <c r="CA20">
+        <f>340-40+55</f>
+        <v>355</v>
+      </c>
+      <c r="CB20">
+        <f>194-29+41</f>
+        <v>206</v>
+      </c>
+      <c r="CC20">
+        <f>255-39+51</f>
+        <v>267</v>
+      </c>
+      <c r="CD20">
+        <f>Painel!CD12</f>
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <f>Painel!CE12</f>
+        <v>111</v>
+      </c>
+      <c r="CF20">
+        <f>Painel!CF12</f>
+        <v>118</v>
+      </c>
+      <c r="CG20">
+        <f>Painel!CG12</f>
+        <v>123</v>
+      </c>
+      <c r="CH20">
+        <f>Painel!CH12</f>
+        <v>151</v>
+      </c>
+      <c r="CI20">
+        <f>Painel!CI12</f>
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <f>Painel!CJ12</f>
+        <v>198</v>
+      </c>
+      <c r="CK20">
+        <f>Painel!CK12</f>
+        <v>219</v>
+      </c>
+      <c r="CL20">
+        <f>Painel!CL12</f>
+        <v>167</v>
+      </c>
+      <c r="CM20">
+        <f>Painel!CM12</f>
+        <v>165</v>
+      </c>
+      <c r="CN20">
+        <f>Painel!CN12</f>
+        <v>0</v>
+      </c>
+      <c r="CO20">
+        <f>Painel!CO12</f>
+        <v>67</v>
+      </c>
+      <c r="CP20">
+        <f>Painel!CP12</f>
+        <v>65</v>
+      </c>
+      <c r="CQ20">
+        <f>Painel!CQ12</f>
+        <v>77</v>
+      </c>
+      <c r="CR20">
+        <f>Painel!CR12</f>
+        <v>89</v>
+      </c>
+      <c r="CS20">
+        <f>Painel!CS12</f>
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <f>Painel!CT12</f>
+        <v>39</v>
+      </c>
+      <c r="CU20">
+        <f>Painel!CU12</f>
+        <v>30</v>
+      </c>
+      <c r="CV20">
+        <f>Painel!CV12</f>
+        <v>17</v>
+      </c>
+      <c r="CW20">
+        <f>Painel!CW12</f>
+        <v>13</v>
+      </c>
+      <c r="CX20">
+        <f>Painel!CX12</f>
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <f>Painel!CY12</f>
+        <v>16</v>
+      </c>
+      <c r="CZ20">
+        <f>Painel!CZ12</f>
+        <v>12</v>
+      </c>
+      <c r="DA20">
+        <f>Painel!DA12</f>
+        <v>7.6</v>
+      </c>
+      <c r="DB20">
+        <f>Painel!DB12</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="DC20">
+        <f>Painel!DC12</f>
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <f>Painel!DD12</f>
+        <v>40</v>
+      </c>
+      <c r="DE20">
+        <f>Painel!DE12</f>
+        <v>28</v>
+      </c>
+      <c r="DF20">
+        <f>Painel!DF12</f>
+        <v>23</v>
+      </c>
+      <c r="DG20">
+        <f>Painel!DG12</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU21">
+        <v>273</v>
+      </c>
+      <c r="AV21">
+        <v>245</v>
+      </c>
+      <c r="AW21">
+        <v>93</v>
+      </c>
+      <c r="AX21">
+        <v>195</v>
+      </c>
+      <c r="AY21">
+        <v>243</v>
+      </c>
+      <c r="BY21">
+        <v>150</v>
+      </c>
+      <c r="BZ21">
+        <v>105</v>
+      </c>
+      <c r="CA21">
+        <v>81</v>
+      </c>
+      <c r="CB21">
+        <v>122</v>
+      </c>
+      <c r="CC21">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU22">
+        <v>176</v>
+      </c>
+      <c r="AV22">
+        <v>122</v>
+      </c>
+      <c r="AW22">
+        <v>137</v>
+      </c>
+      <c r="AX22">
+        <v>123</v>
+      </c>
+      <c r="AY22">
+        <v>106</v>
+      </c>
+      <c r="BY22">
+        <f>97</f>
+        <v>97</v>
+      </c>
+      <c r="BZ22">
+        <f>99</f>
+        <v>99</v>
+      </c>
+      <c r="CA22">
+        <f>112</f>
+        <v>112</v>
+      </c>
+      <c r="CB22">
+        <f>141</f>
+        <v>141</v>
+      </c>
+      <c r="CC22">
+        <f>131</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU23">
+        <f>AU19-AU20-AU22</f>
+        <v>404</v>
+      </c>
+      <c r="AV23">
+        <f>AV19-AV20-AV22</f>
+        <v>377</v>
+      </c>
+      <c r="AW23">
+        <f>AW19-AW20-AW22</f>
+        <v>317</v>
+      </c>
+      <c r="AX23">
+        <f>AX19-AX20-AX22</f>
+        <v>234</v>
+      </c>
+      <c r="AY23">
+        <f>AY19-AY20-AY22</f>
+        <v>365</v>
+      </c>
+      <c r="BY23">
+        <f>BY19-BY20-BY22</f>
+        <v>281</v>
+      </c>
+      <c r="BZ23">
+        <f>BZ19-BZ20-BZ22</f>
+        <v>257</v>
+      </c>
+      <c r="CA23">
+        <f>CA19-CA20-CA22</f>
+        <v>151</v>
+      </c>
+      <c r="CB23">
+        <f>CB19-CB20-CB22</f>
+        <v>174</v>
+      </c>
+      <c r="CC23">
+        <f>CC19-CC20-CC22</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU27" s="27">
+        <f>(AU20+AU21)/AU16</f>
+        <v>0.62109704641350216</v>
+      </c>
+      <c r="AV27" s="27">
+        <f>(AV20+AV21)/AV16</f>
+        <v>0.69795918367346943</v>
+      </c>
+      <c r="AW27" s="27">
+        <f>(AW20+AW21)/AW16</f>
+        <v>0.55805243445692887</v>
+      </c>
+      <c r="AX27" s="27">
+        <f>(AX20+AX21)/AX16</f>
+        <v>0.87107438016528926</v>
+      </c>
+      <c r="AY27" s="27">
+        <f>(AY20+AY21)/AY16</f>
+        <v>0.71843434343434343</v>
+      </c>
+      <c r="BY27" s="25">
+        <f>(BY20+BY21)/BY16</f>
+        <v>0.78036605657237934</v>
+      </c>
+      <c r="BZ27" s="25">
+        <f>(BZ20+BZ21)/BZ16</f>
+        <v>0.73550724637681164</v>
+      </c>
+      <c r="CA27" s="25">
+        <f>(CA20+CA21)/CA16</f>
+        <v>0.54981084489281207</v>
+      </c>
+      <c r="CB27" s="25">
+        <f>(CB20+CB21)/CB16</f>
+        <v>0.75057208237986273</v>
+      </c>
+      <c r="CC27" s="25">
+        <f>(CC20+CC21)/CC16</f>
+        <v>0.67992766726943943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU28" s="27">
+        <f>(AU20+AU21)/AU18</f>
+        <v>0.55927051671732519</v>
+      </c>
+      <c r="AV28" s="27">
+        <f>(AV20+AV21)/AV18</f>
+        <v>0.6151079136690647</v>
+      </c>
+      <c r="AW28" s="27">
+        <f>(AW20+AW21)/AW18</f>
+        <v>0.43609756097560975</v>
+      </c>
+      <c r="AX28" s="27">
+        <f>(AX20+AX21)/AX18</f>
+        <v>0.81832298136645965</v>
+      </c>
+      <c r="AY28" s="27">
+        <f>(AY20+AY21)/AY18</f>
+        <v>0.62253829321663023</v>
+      </c>
+      <c r="BY28" s="25">
+        <f>(BY20+BY21)/BY18</f>
+        <v>0.64071038251366119</v>
+      </c>
+      <c r="BZ28" s="25">
+        <f>(BZ20+BZ21)/BZ18</f>
+        <v>0.57670454545454541</v>
+      </c>
+      <c r="CA28" s="25">
+        <f>(CA20+CA21)/CA18</f>
+        <v>0.50521436848203938</v>
+      </c>
+      <c r="CB28" s="25">
+        <f>(CB20+CB21)/CB18</f>
+        <v>0.67075664621676889</v>
+      </c>
+      <c r="CC28" s="25">
+        <f>(CC20+CC21)/CC18</f>
+        <v>0.62876254180602009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU29" s="27">
+        <f>AU16/AU18</f>
+        <v>0.90045592705167177</v>
+      </c>
+      <c r="AV29" s="27">
+        <f>AV16/AV18</f>
+        <v>0.88129496402877694</v>
+      </c>
+      <c r="AW29" s="27">
+        <f>AW16/AW18</f>
+        <v>0.78146341463414637</v>
+      </c>
+      <c r="AX29" s="27">
+        <f>AX16/AX18</f>
+        <v>0.93944099378881984</v>
+      </c>
+      <c r="AY29" s="27">
+        <f>AY16/AY18</f>
+        <v>0.8665207877461707</v>
+      </c>
+      <c r="BY29" s="25">
+        <f>BY16/BY18</f>
+        <v>0.82103825136612019</v>
+      </c>
+      <c r="BZ29" s="25">
+        <f>BZ16/BZ18</f>
+        <v>0.78409090909090906</v>
+      </c>
+      <c r="CA29" s="25">
+        <f>CA16/CA18</f>
+        <v>0.9188876013904983</v>
+      </c>
+      <c r="CB29" s="25">
+        <f>CB16/CB18</f>
+        <v>0.8936605316973415</v>
+      </c>
+      <c r="CC29" s="25">
+        <f>CC16/CC18</f>
+        <v>0.92474916387959871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY30">
+        <v>32</v>
+      </c>
+      <c r="BZ30">
+        <v>37</v>
+      </c>
+      <c r="CA30">
+        <v>30</v>
+      </c>
+      <c r="CB30">
+        <v>19</v>
+      </c>
+      <c r="CC30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU31" s="27">
+        <f>(AU20+AU22)/AU19</f>
+        <v>0.6126558005752637</v>
+      </c>
+      <c r="AV31" s="27">
+        <f>(AV20+AV22)/AV19</f>
+        <v>0.59808102345415781</v>
+      </c>
+      <c r="AW31" s="27">
+        <f>(AW20+AW22)/AW19</f>
+        <v>0.60767326732673266</v>
+      </c>
+      <c r="AX31" s="27">
+        <f>(AX20+AX22)/AX19</f>
+        <v>0.660377358490566</v>
+      </c>
+      <c r="AY31" s="27">
+        <f>(AY20+AY22)/AY19</f>
+        <v>0.5420326223337516</v>
+      </c>
+      <c r="BY31" s="27">
+        <f>(BY20+BY22)/BY19</f>
+        <v>0.59684361549497844</v>
+      </c>
+      <c r="BZ31" s="27">
+        <f>(BZ20+BZ22)/BZ19</f>
+        <v>0.60882800608828003</v>
+      </c>
+      <c r="CA31" s="27">
+        <f>(CA20+CA22)/CA19</f>
+        <v>0.75566343042071193</v>
+      </c>
+      <c r="CB31" s="27">
+        <f>(CB20+CB22)/CB19</f>
+        <v>0.66602687140115158</v>
+      </c>
+      <c r="CC31" s="27">
+        <f>(CC20+CC22)/CC19</f>
+        <v>0.72101449275362317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="BY33">
+        <f>1128-1261</f>
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43">
+        <v>2022</v>
+      </c>
+      <c r="C43">
+        <v>2021</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43">
+        <v>2019</v>
+      </c>
+      <c r="G43">
+        <v>2022</v>
+      </c>
+      <c r="H43">
+        <v>2021</v>
+      </c>
+      <c r="I43">
+        <v>2020</v>
+      </c>
+      <c r="J43">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
+      <c r="B44">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="C44">
         <v>8</v>
       </c>
-      <c r="G16" s="19">
-        <f>(LN(21)-LN(B16))/LN(21)</f>
+      <c r="G44" s="19">
+        <f>(LN(21)-LN(B44))/LN(21)</f>
         <v>0.24369580448359887</v>
       </c>
-      <c r="H16" s="19">
-        <f t="shared" ref="H16:H17" si="91">(LN(21)-LN(C16))/LN(21)</f>
+      <c r="H44" s="19">
+        <f t="shared" ref="H44:H45" si="102">(LN(21)-LN(C44))/LN(21)</f>
         <v>0.31698925390914107</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B45">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C45">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D45">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="E45">
         <v>13</v>
       </c>
-      <c r="G17" s="19">
-        <f t="shared" ref="G17" si="92">(LN(21)-LN(B17))/LN(21)</f>
+      <c r="G45" s="19">
+        <f t="shared" ref="G45" si="103">(LN(21)-LN(B45))/LN(21)</f>
         <v>0.36084880671453018</v>
       </c>
-      <c r="H17" s="19">
-        <f t="shared" si="91"/>
+      <c r="H45" s="19">
+        <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="I17" s="19">
-        <f t="shared" ref="I17" si="93">(LN(21)-LN(D17))/LN(21)</f>
+      <c r="I45" s="19">
+        <f t="shared" ref="I45" si="104">(LN(21)-LN(D45))/LN(21)</f>
         <v>0.63915119328546977</v>
       </c>
-      <c r="J17" s="19">
-        <f t="shared" ref="J17" si="94">(LN(21)-LN(E17))/LN(21)</f>
+      <c r="J45" s="19">
+        <f t="shared" ref="J45" si="105">(LN(21)-LN(E45))/LN(21)</f>
         <v>0.15751996908273488</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>80</v>
       </c>
-      <c r="B18">
+      <c r="B46">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="C46">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="D46">
         <v>9</v>
       </c>
-      <c r="E18">
+      <c r="E46">
         <v>5</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G46" s="19">
         <v>0.41148094458851686</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H46" s="19">
         <v>0.13317855801757725</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I46" s="19">
         <v>0.27830238657093959</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J46" s="19">
         <v>0.47136605318055197</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19">
+      <c r="C47">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="D47">
         <v>14</v>
       </c>
-      <c r="E19">
+      <c r="E47">
         <v>11</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19">
         <v>5.0632137873986717E-2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I47" s="19">
         <v>0.13317855801757725</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J47" s="19">
         <v>0.21239034303474383</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="B48">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E20">
+      <c r="E48">
         <v>15</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G48" s="19">
         <v>0.21239034303474383</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19">
+      <c r="H48" s="19"/>
+      <c r="I48" s="19">
         <v>1.6025555786645992E-2</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J48" s="19">
         <v>0.11051724646602176</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B49">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C49">
         <v>5</v>
       </c>
-      <c r="D21">
+      <c r="D49">
         <v>12</v>
       </c>
-      <c r="E21">
+      <c r="E49">
         <v>8</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G49" s="19">
         <v>0.54465950260609397</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H49" s="19">
         <v>0.47136605318055197</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I49" s="19">
         <v>0.18381069589156382</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J49" s="19">
         <v>0.31698925390914107</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22">
+      <c r="B50">
         <v>15</v>
       </c>
-      <c r="D22">
+      <c r="D50">
         <v>19</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G50" s="19">
         <v>0.11051724646602176</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19">
+      <c r="H50" s="19"/>
+      <c r="I50" s="19">
         <v>3.2873286567669809E-2</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J50" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23">
+      <c r="E51">
         <v>17</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19">
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19">
         <v>6.9406318392981087E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24">
+      <c r="B52">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="C52">
         <v>15</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G52" s="19">
         <v>8.9319005212188038E-2</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H52" s="19">
         <v>0.11051724646602176</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25">
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C53">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D53">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G53" s="19">
         <v>0.47136605318055197</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H53" s="19">
         <v>0.77232975130304693</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I53" s="19">
         <v>1</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J53" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B54">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C54">
         <v>7</v>
       </c>
-      <c r="D26">
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="E26">
+      <c r="E54">
         <v>14</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G54" s="19">
         <v>0.63915119328546977</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H54" s="19">
         <v>0.36084880671453018</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I54" s="19">
         <v>0.47136605318055197</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J54" s="19">
         <v>0.13317855801757725</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
+      <c r="B55">
         <v>8</v>
       </c>
-      <c r="C27">
+      <c r="C55">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="D55">
         <v>16</v>
       </c>
-      <c r="E27">
+      <c r="E55">
         <v>9</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G55" s="19">
         <v>0.31698925390914107</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H55" s="19">
         <v>0.54465950260609397</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I55" s="19">
         <v>8.9319005212188038E-2</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J55" s="19">
         <v>0.27830238657093959</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C56">
         <v>17</v>
       </c>
-      <c r="D28">
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="E28">
+      <c r="E56">
         <v>4</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19">
+      <c r="G56" s="19"/>
+      <c r="H56" s="19">
         <v>6.9406318392981087E-2</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I56" s="19">
         <v>0.41148094458851686</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J56" s="19">
         <v>0.54465950260609397</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B29">
+      <c r="B57">
         <v>13</v>
       </c>
-      <c r="D29">
+      <c r="D57">
         <v>18</v>
       </c>
-      <c r="E29">
+      <c r="E57">
         <v>10</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G57" s="19">
         <v>0.15751996908273488</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19">
+      <c r="H57" s="19"/>
+      <c r="I57" s="19">
         <v>5.0632137873986717E-2</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J57" s="19">
         <v>0.24369580448359887</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B58">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C58">
         <v>12</v>
       </c>
-      <c r="D30">
+      <c r="D58">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="E58">
         <v>7</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G58" s="19">
         <v>0.77232975130304693</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H58" s="19">
         <v>0.18381069589156382</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I58" s="19">
         <v>0.77232975130304693</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J58" s="19">
         <v>0.36084880671453018</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31">
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C59">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D59">
         <v>7</v>
       </c>
-      <c r="E31">
+      <c r="E59">
         <v>3</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G59" s="19">
         <v>1</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H59" s="19">
         <v>0.63915119328546977</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I59" s="19">
         <v>0.36084880671453018</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J59" s="19">
         <v>0.63915119328546977</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B60">
         <v>12</v>
       </c>
-      <c r="C32">
+      <c r="C60">
         <v>10</v>
       </c>
-      <c r="D32">
+      <c r="D60">
         <v>8</v>
       </c>
-      <c r="E32">
+      <c r="E60">
         <v>2</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G60" s="19">
         <v>0.18381069589156382</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H60" s="19">
         <v>0.24369580448359887</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I60" s="19">
         <v>0.31698925390914107</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J60" s="19">
         <v>0.77232975130304693</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B33">
+      <c r="B61">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C61">
         <v>13</v>
       </c>
-      <c r="D33">
+      <c r="D61">
         <v>4</v>
       </c>
-      <c r="E33">
+      <c r="E61">
         <v>6</v>
       </c>
-      <c r="G33">
-        <f>(LN(21)-LN(B33))/LN(21)</f>
+      <c r="G61">
+        <f>(LN(21)-LN(B61))/LN(21)</f>
         <v>0.27830238657093959</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H61" s="19">
         <v>0.15751996908273488</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I61" s="19">
         <v>0.54465950260609397</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J61" s="19">
         <v>0.41148094458851686</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D34">
+      <c r="D62">
         <v>17</v>
       </c>
-      <c r="E34">
+      <c r="E62">
         <v>12</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19">
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19">
         <v>6.9406318392981087E-2</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J62" s="19">
         <v>0.18381069589156382</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B35">
+      <c r="B63">
         <v>18</v>
       </c>
-      <c r="C35">
+      <c r="C63">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="D63">
         <v>13</v>
       </c>
-      <c r="G35">
-        <f>(LN(21)-LN(B35))/LN(21)</f>
+      <c r="G63">
+        <f>(LN(21)-LN(B63))/LN(21)</f>
         <v>5.0632137873986717E-2</v>
       </c>
-      <c r="H35">
-        <f t="shared" ref="H35:I35" si="95">(LN(21)-LN(C35))/LN(21)</f>
+      <c r="H63">
+        <f t="shared" ref="H63:I63" si="106">(LN(21)-LN(C63))/LN(21)</f>
         <v>0.27830238657093959</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="95"/>
+      <c r="I63">
+        <f t="shared" si="106"/>
         <v>0.15751996908273488</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>119</v>
       </c>
-      <c r="B37">
+      <c r="B65">
         <v>20</v>
       </c>
-      <c r="C37">
+      <c r="C65">
         <v>16</v>
       </c>
-      <c r="G37">
-        <f>(LN(21)-LN(B37))/LN(21)</f>
+      <c r="G65">
+        <f>(LN(21)-LN(B65))/LN(21)</f>
         <v>1.6025555786645992E-2</v>
       </c>
-      <c r="H37">
-        <f>(LN(21)-LN(C37))/LN(21)</f>
+      <c r="H65">
+        <f>(LN(21)-LN(C65))/LN(21)</f>
         <v>8.9319005212188038E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="AU7:AY7" formulaRange="1"/>
+    <ignoredError sqref="B8:DG8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7EE98C-7A1B-4B90-950C-597C9091ECBE}">
+  <dimension ref="A1:W12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3.5</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>6.5</v>
+      </c>
+      <c r="L3">
+        <v>5.5</v>
+      </c>
+      <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="N3">
+        <v>6.5</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>6.5</v>
+      </c>
+      <c r="T3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>12.5</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>11.5</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>18.5</v>
+      </c>
+      <c r="L5">
+        <v>14.5</v>
+      </c>
+      <c r="M5">
+        <v>11.5</v>
+      </c>
+      <c r="N5">
+        <v>16.5</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>18</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>19.5</v>
+      </c>
+      <c r="T5">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AAF6E6-482D-4022-AD75-A97466B0DEE8}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:J6"/>

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E68464F-4076-4826-A263-87FB76DB1F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBAB371-6F71-4130-ACDD-0A24141EA0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Painel_Cte" sheetId="7" r:id="rId5"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId6"/>
     <sheet name="Transparência" sheetId="8" r:id="rId7"/>
-    <sheet name="IPC" sheetId="6" r:id="rId8"/>
+    <sheet name="Transparência (2)" sheetId="9" r:id="rId8"/>
+    <sheet name="IPC" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índices!$A$1:$T$39</definedName>
@@ -380,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="140">
   <si>
     <t>Publicidade e patrocínio</t>
   </si>
@@ -583,9 +584,6 @@
     <t>Aquisições de atletas</t>
   </si>
   <si>
-    <t>Receita c/ Direitos de transmissão</t>
-  </si>
-  <si>
     <t>Receita c/ Publicidade e patrocínio</t>
   </si>
   <si>
@@ -634,13 +632,7 @@
     <t>Receita com Premiação / Folha do Futebol</t>
   </si>
   <si>
-    <t>Receita Operacional Líquida / Pontuação</t>
-  </si>
-  <si>
     <t>Receita Operacional Líquida  / Sócios Torcedores</t>
-  </si>
-  <si>
-    <t>Folha do futebol / Pontuação</t>
   </si>
   <si>
     <t>Despesas totais</t>
@@ -674,9 +666,6 @@
   </si>
   <si>
     <t>Índ_Acum</t>
-  </si>
-  <si>
-    <t>Direitos de Transmissão</t>
   </si>
   <si>
     <t>Transmissão + Premiação</t>
@@ -728,9 +717,6 @@
   </si>
   <si>
     <t>Dívida / Rec Oper Líquida</t>
-  </si>
-  <si>
-    <t>Rec Oper Líquida / Pontuação</t>
   </si>
   <si>
     <t>Atlético GO</t>
@@ -800,6 +786,21 @@
   </si>
   <si>
     <t>Folha futebol + Compra jogadores / Rec Oper Líquida</t>
+  </si>
+  <si>
+    <t>Receita com Venda de Direitos Econômicos / Pontuação Série A</t>
+  </si>
+  <si>
+    <t>Folha do futebol / Pontuação Série A</t>
+  </si>
+  <si>
+    <t>Rec Oper Líquida / Pontuação Série A</t>
+  </si>
+  <si>
+    <t>Receita Operacional Líquida / Pontuação Série A</t>
+  </si>
+  <si>
+    <t>Receita c/ Direitos de Transmissão</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1375,10 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,7 +1431,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1481,7 +1482,7 @@
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1786,7 +1787,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1">
         <f>SUM(K12+K13)</f>
@@ -1803,7 +1804,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K23" s="1">
         <f>K2+K6</f>
@@ -1882,7 +1883,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1933,13 +1934,13 @@
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="V1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="W1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -2203,11 +2204,11 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:AK54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2259,7 +2260,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -2310,18 +2311,18 @@
         <v>46</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="V1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="W1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2351,7 +2352,8 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>326</v>
+        <f>Resultado!K2+Resultado!K6</f>
+        <v>463</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -2369,7 +2371,8 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>183</v>
+        <f>Resultado!Q2+Resultado!Q6</f>
+        <v>263</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -2406,7 +2409,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2576,7 +2579,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2677,7 +2680,8 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>90</v>
+        <f>Resultado!K6</f>
+        <v>137</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -2732,7 +2736,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2817,7 +2821,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2902,7 +2906,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3072,7 +3076,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3327,7 +3331,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3752,7 +3756,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4262,7 +4266,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4632,7 +4636,7 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4845,7 +4849,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <v>7.3</v>
@@ -4916,7 +4920,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1">
         <v>386</v>
@@ -5290,7 +5294,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="1">
         <v>15</v>
@@ -5361,7 +5365,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5432,7 +5436,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5503,7 +5507,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5574,7 +5578,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5645,7 +5649,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5716,7 +5720,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5787,7 +5791,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5858,7 +5862,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <f t="shared" ref="B47:W47" si="3">SUM(B26+B25)</f>
@@ -5920,9 +5924,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q47">
-        <f t="shared" si="3"/>
-        <v>76</v>
+      <c r="Q47" s="11">
+        <v>29</v>
       </c>
       <c r="R47">
         <f t="shared" si="3"/>
@@ -5951,7 +5954,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5981,8 +5984,8 @@
         <v>0</v>
       </c>
       <c r="K48" s="1">
-        <f>K2+K6</f>
-        <v>416</v>
+        <f>K2</f>
+        <v>463</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -6000,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <f>Q2+Q6</f>
+        <f>Q2</f>
         <v>263</v>
       </c>
       <c r="R48">
@@ -6024,7 +6027,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6054,7 +6057,8 @@
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <v>288</v>
+        <f>K2-K6</f>
+        <v>326</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -6071,7 +6075,8 @@
       <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="6">
+        <f>Q2-Q6</f>
         <v>183</v>
       </c>
       <c r="R49">
@@ -6166,7 +6171,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6239,7 +6244,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6312,48 +6317,148 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
       <c r="K53" s="25">
         <f t="shared" ref="K53:Q53" si="4">K28/K11</f>
         <v>0.3518237082066869</v>
       </c>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
       <c r="Q53" s="25">
         <f t="shared" si="4"/>
         <v>0.55327868852459017</v>
       </c>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54" s="25">
         <f>(K28+K24)/K11</f>
         <v>0.55927051671732519</v>
       </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
       <c r="Q54" s="25">
         <f>(Q28+Q24)/Q11</f>
         <v>0.75819672131147542</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6369,10 +6474,10 @@
   <dimension ref="A1:DG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AQ25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="AU30" sqref="AU30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6445,7 +6550,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>31</v>
@@ -6535,13 +6640,13 @@
         <v>24</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="CX1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="DC1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:111" x14ac:dyDescent="0.3">
@@ -6879,7 +6984,7 @@
     </row>
     <row r="3" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>102</v>
@@ -6966,7 +7071,8 @@
         <v>102</v>
       </c>
       <c r="AU3" s="1">
-        <v>425</v>
+        <f>Índices!K2</f>
+        <v>463</v>
       </c>
       <c r="AV3">
         <v>518</v>
@@ -7401,7 +7507,7 @@
     </row>
     <row r="5" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>3.5</v>
@@ -8059,7 +8165,7 @@
     </row>
     <row r="9" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <f>SUM(C3:C6,C8)</f>
@@ -8647,7 +8753,7 @@
     </row>
     <row r="11" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>144</v>
@@ -9185,7 +9291,7 @@
     </row>
     <row r="13" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>-21</v>
@@ -9939,7 +10045,7 @@
     </row>
     <row r="16" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -10376,7 +10482,7 @@
     </row>
     <row r="18" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10582,7 +10688,7 @@
     </row>
     <row r="19" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -10842,7 +10948,7 @@
     </row>
     <row r="20" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -11124,7 +11230,7 @@
     </row>
     <row r="21" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>7.3</v>
@@ -11390,7 +11496,7 @@
     </row>
     <row r="24" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11449,7 +11555,7 @@
     </row>
     <row r="25" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11508,7 +11614,7 @@
     </row>
     <row r="26" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11567,7 +11673,7 @@
     </row>
     <row r="27" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11626,7 +11732,7 @@
     </row>
     <row r="28" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11685,7 +11791,7 @@
     </row>
     <row r="29" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11744,7 +11850,7 @@
     </row>
     <row r="30" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C30">
         <f>C3-C7</f>
@@ -11812,7 +11918,7 @@
       </c>
       <c r="AU30" s="1">
         <f>AU3-AU7</f>
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="AV30" s="1">
         <f t="shared" ref="AV30:AY30" si="55">AV3-AV7</f>
@@ -12309,7 +12415,7 @@
     </row>
     <row r="32" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12644,7 +12750,7 @@
     </row>
     <row r="33" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12979,7 +13085,7 @@
     </row>
     <row r="34" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -13314,7 +13420,7 @@
     </row>
     <row r="35" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B35" s="18" t="e">
         <f t="shared" ref="B35:AT35" si="67">(B12+B15)/B11</f>
@@ -13712,10 +13818,10 @@
   <dimension ref="A1:DG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BU20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AO11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="AU30" sqref="AU30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13799,7 +13905,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>31</v>
@@ -13889,13 +13995,13 @@
         <v>24</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="CX1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="DC1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:111" x14ac:dyDescent="0.3">
@@ -14235,7 +14341,7 @@
     </row>
     <row r="3" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14">
@@ -14946,7 +15052,7 @@
     </row>
     <row r="5" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14">
@@ -16057,7 +16163,7 @@
     </row>
     <row r="9" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14">
@@ -16773,7 +16879,7 @@
     </row>
     <row r="11" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14">
@@ -17489,7 +17595,7 @@
     </row>
     <row r="13" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14">
@@ -18556,7 +18662,7 @@
     </row>
     <row r="16" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14">
@@ -19239,7 +19345,7 @@
     </row>
     <row r="18" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
@@ -19566,7 +19672,7 @@
     </row>
     <row r="19" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -19826,7 +19932,7 @@
     </row>
     <row r="20" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -20108,7 +20214,7 @@
     </row>
     <row r="21" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="14">
         <v>7.3</v>
@@ -20522,7 +20628,7 @@
     </row>
     <row r="24" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="14">
         <f t="shared" ref="B24:AP24" si="62">B11/B18</f>
@@ -20895,7 +21001,7 @@
     </row>
     <row r="25" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14">
@@ -21117,7 +21223,7 @@
     </row>
     <row r="26" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B26" s="14">
         <v>0</v>
@@ -21377,7 +21483,7 @@
     </row>
     <row r="27" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5">
@@ -21617,7 +21723,7 @@
     </row>
     <row r="28" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B28" s="14">
         <v>0</v>
@@ -21877,7 +21983,7 @@
     </row>
     <row r="29" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B29" s="14">
         <v>0</v>
@@ -22137,142 +22243,143 @@
     </row>
     <row r="30" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="W30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Y30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Z30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AA30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AB30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AE30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AF30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AG30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AH30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AI30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AJ30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AK30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AL30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AM30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AN30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AO30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AP30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AQ30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AR30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AS30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AT30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AU30" s="14">
-        <v>288</v>
+        <f>Painel!AU30</f>
+        <v>326</v>
       </c>
       <c r="AV30" s="14">
         <v>260.125</v>
@@ -22287,22 +22394,22 @@
         <v>199.53727592138546</v>
       </c>
       <c r="AZ30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BA30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BB30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BC30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BD30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BE30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BF30" s="14">
         <v>84.583000000000013</v>
@@ -22317,22 +22424,22 @@
         <v>42.832757820987965</v>
       </c>
       <c r="BJ30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BK30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BL30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BM30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BN30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BO30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BP30" s="14">
         <v>69.110500000000016</v>
@@ -22347,7 +22454,7 @@
         <v>84.405728647241006</v>
       </c>
       <c r="BT30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BU30" s="14">
         <v>145.44150000000002</v>
@@ -22377,22 +22484,22 @@
         <v>248.17803796278321</v>
       </c>
       <c r="CD30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="CE30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="CF30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="CG30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="CH30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="CI30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="CJ30" s="14">
         <v>181.54400000000001</v>
@@ -22407,7 +22514,7 @@
         <v>138.57656942084344</v>
       </c>
       <c r="CN30" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="CO30" s="14">
         <v>30.945000000000004</v>
@@ -22534,20 +22641,25 @@
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
       <c r="AT31" s="14"/>
-      <c r="AU31">
-        <v>167</v>
+      <c r="AU31" s="14">
+        <f>Painel!AU31</f>
+        <v>255</v>
       </c>
       <c r="AV31" s="14">
-        <v>256.84350000000001</v>
+        <f>Painel!AV31*IPC!G$3</f>
+        <v>359.99350000000004</v>
       </c>
       <c r="AW31" s="14">
-        <v>315.13872250000003</v>
+        <f>Painel!AW31*IPC!H$3</f>
+        <v>443.36758200000008</v>
       </c>
       <c r="AX31" s="14">
-        <v>383.99414265870007</v>
+        <f>Painel!AX31*IPC!I$3</f>
+        <v>522.32743628730009</v>
       </c>
       <c r="AY31" s="14">
-        <v>428.32757820987968</v>
+        <f>Painel!AY31*IPC!J$3</f>
+        <v>537.92904675181944</v>
       </c>
       <c r="AZ31" s="14"/>
       <c r="BA31" s="14">
@@ -22707,7 +22819,7 @@
     </row>
     <row r="32" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14">
@@ -22812,7 +22924,7 @@
       <c r="AT32" s="14"/>
       <c r="AU32" s="20">
         <f>AU31/AU14</f>
-        <v>0.34432989690721649</v>
+        <v>0.52577319587628868</v>
       </c>
       <c r="AV32" s="14">
         <v>0.75100438596491226</v>
@@ -22947,250 +23059,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:96" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1">
+    <row r="33" spans="1:96" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="18">
         <v>0.84848484848484851</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="18">
         <v>1.2608695652173914</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="18">
         <v>1.9032258064516128</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1">
+      <c r="H33" s="18">
         <v>2.8727272727272726</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="18">
         <v>1.7424547283702212</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="18">
         <v>5.7557251908396951</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="18">
         <v>1.9717314487632509</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1">
+      <c r="M33" s="18">
         <v>0.92836676217765035</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="18">
         <v>1.1875</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="18">
         <v>0.92401215805471115</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="18">
         <v>0.7546174142480212</v>
       </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1">
+      <c r="R33" s="18">
         <v>2</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="18">
         <v>0.66494845360824739</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33" s="18">
         <v>1.3083333333333333</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="18">
         <v>0.8160919540229884</v>
       </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1">
+      <c r="AB33" s="18">
         <v>0.92331288343558293</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AC33" s="18">
         <v>1.158482142857143</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AD33" s="18">
         <v>1.0117647058823529</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AE33" s="18">
         <v>0.8648648648648648</v>
       </c>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1">
+      <c r="AG33" s="18">
         <v>1.0705128205128205</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AH33" s="18">
         <v>2.4499999999999997</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AI33" s="18">
         <v>2.29</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AJ33" s="18">
         <v>4.6842105263157894</v>
       </c>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1">
+      <c r="AL33" s="18">
         <v>4.5273972602739718</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AM33" s="18">
         <v>5.7333333333333325</v>
       </c>
-      <c r="AN33" s="1">
+      <c r="AN33" s="18">
         <v>4.1610169491525424</v>
       </c>
-      <c r="AO33" s="1">
+      <c r="AO33" s="18">
         <v>1.4839857651245552</v>
       </c>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="20">
+      <c r="AU33" s="18">
         <f>AU31/AU11</f>
-        <v>0.12689969604863222</v>
-      </c>
-      <c r="AV33" s="20">
+        <v>0.19376899696048633</v>
+      </c>
+      <c r="AV33" s="18">
         <v>0.22392086330935251</v>
       </c>
-      <c r="AW33" s="20">
+      <c r="AW33" s="18">
         <v>0.28292682926829266</v>
       </c>
-      <c r="AX33" s="20">
+      <c r="AX33" s="18">
         <v>0.5</v>
       </c>
-      <c r="AY33" s="20">
+      <c r="AY33" s="18">
         <v>0.37199124726477023</v>
       </c>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="1">
+      <c r="BA33" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="18">
         <v>1.1783439490445859</v>
       </c>
-      <c r="BC33" s="1">
+      <c r="BC33" s="18">
         <v>5.9569442339701927E-2</v>
       </c>
-      <c r="BD33" s="1">
+      <c r="BD33" s="18">
         <v>2.5401119501739906E-2</v>
       </c>
-      <c r="BE33" s="1"/>
-      <c r="BF33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG33" s="1">
+      <c r="BF33" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="18">
         <v>6.5605095541401287E-2</v>
       </c>
-      <c r="BH33" s="1">
+      <c r="BH33" s="18">
         <v>0.20779220779220778</v>
       </c>
-      <c r="BI33" s="1">
+      <c r="BI33" s="18">
         <v>0.12844036697247707</v>
       </c>
-      <c r="BJ33" s="1"/>
-      <c r="BK33" s="1">
+      <c r="BK33" s="18">
         <v>1.0520833333333335</v>
       </c>
-      <c r="BL33" s="1">
+      <c r="BL33" s="18">
         <v>0.68950749464668093</v>
       </c>
-      <c r="BM33" s="1">
+      <c r="BM33" s="18">
         <v>0.82857142857142863</v>
       </c>
-      <c r="BN33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO33" s="1"/>
-      <c r="BP33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ33" s="1">
+      <c r="BN33" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="18">
         <v>0.60425531914893615</v>
       </c>
-      <c r="BR33" s="1">
+      <c r="BR33" s="18">
         <v>0.30697674418604654</v>
       </c>
-      <c r="BS33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT33" s="1"/>
-      <c r="BU33" s="1">
+      <c r="BS33" s="18">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="18">
         <v>0.87016574585635353</v>
       </c>
-      <c r="BV33" s="1">
+      <c r="BV33" s="18">
         <v>0.82558139534883723</v>
       </c>
-      <c r="BW33" s="1">
+      <c r="BW33" s="18">
         <v>0.65</v>
       </c>
-      <c r="BX33" s="1">
+      <c r="BX33" s="18">
         <v>0.3282051282051282</v>
       </c>
-      <c r="BY33" s="20">
+      <c r="BY33" s="18">
         <v>0.17486338797814208</v>
       </c>
-      <c r="BZ33" s="20">
+      <c r="BZ33" s="18">
         <v>0.19602272727272727</v>
       </c>
-      <c r="CA33" s="20">
+      <c r="CA33" s="18">
         <v>0.19582850521436851</v>
       </c>
-      <c r="CB33" s="20">
+      <c r="CB33" s="18">
         <v>0.4683026584867076</v>
       </c>
-      <c r="CC33" s="20">
+      <c r="CC33" s="18">
         <v>0.38628762541806017</v>
       </c>
-      <c r="CD33" s="1"/>
-      <c r="CE33" s="1">
+      <c r="CE33" s="18">
         <v>0.93525179856115104</v>
       </c>
-      <c r="CF33" s="1">
+      <c r="CF33" s="18">
         <v>0.6449864498644986</v>
       </c>
-      <c r="CG33" s="1">
+      <c r="CG33" s="18">
         <v>1.0934579439252334</v>
       </c>
-      <c r="CH33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI33" s="1"/>
-      <c r="CJ33" s="1">
+      <c r="CH33" s="18">
+        <v>0</v>
+      </c>
+      <c r="CJ33" s="18">
         <v>0.77721088435374153</v>
       </c>
-      <c r="CK33" s="1">
+      <c r="CK33" s="18">
         <v>0.72748267898383367</v>
       </c>
-      <c r="CL33" s="1">
+      <c r="CL33" s="18">
         <v>0.92569659442724461</v>
       </c>
-      <c r="CM33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN33" s="1"/>
-      <c r="CO33" s="1">
+      <c r="CM33" s="18">
+        <v>0</v>
+      </c>
+      <c r="CO33" s="18">
         <v>5.7155172413793096</v>
       </c>
-      <c r="CP33" s="1">
+      <c r="CP33" s="18">
         <v>4.3132530120481931</v>
       </c>
-      <c r="CQ33" s="1">
+      <c r="CQ33" s="18">
         <v>2.9325153374233133</v>
       </c>
-      <c r="CR33" s="1">
+      <c r="CR33" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B34" s="18">
         <v>0</v>
@@ -23480,7 +23567,7 @@
     </row>
     <row r="35" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B35" s="18">
         <v>0</v>
@@ -23770,7 +23857,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23848,7 +23936,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>31</v>
@@ -23938,13 +24026,13 @@
         <v>24</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="CX1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="DC1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:111" x14ac:dyDescent="0.3">
@@ -24284,7 +24372,7 @@
     </row>
     <row r="3" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -24537,7 +24625,7 @@
     </row>
     <row r="4" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>57</v>
@@ -24761,7 +24849,7 @@
     </row>
     <row r="5" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H5">
         <v>116</v>
@@ -24888,7 +24976,7 @@
     </row>
     <row r="6" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R6">
         <v>69</v>
@@ -25022,7 +25110,7 @@
     </row>
     <row r="7" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -25237,7 +25325,7 @@
     </row>
     <row r="8" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <f>SUM(B3:B7)</f>
@@ -25954,7 +26042,7 @@
     </row>
     <row r="11" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>125</v>
@@ -26205,7 +26293,7 @@
     </row>
     <row r="12" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>128</v>
@@ -26407,7 +26495,7 @@
     </row>
     <row r="13" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -26592,7 +26680,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>31</v>
@@ -26682,10 +26770,10 @@
         <v>24</v>
       </c>
       <c r="CS14" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="CX14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:111" x14ac:dyDescent="0.3">
@@ -26995,7 +27083,7 @@
     </row>
     <row r="16" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AU16" s="26">
         <f>AU18-AU19+AU20+AU21+AU22</f>
@@ -27040,7 +27128,7 @@
     </row>
     <row r="17" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AU17">
         <f>+AU25</f>
@@ -27085,7 +27173,7 @@
     </row>
     <row r="18" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <f>Painel!B11</f>
@@ -27528,7 +27616,7 @@
     </row>
     <row r="19" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AU19">
         <f>936+75+32</f>
@@ -27573,7 +27661,7 @@
     </row>
     <row r="20" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <f>Painel!B12</f>
@@ -28018,7 +28106,7 @@
     </row>
     <row r="21" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AU21">
         <v>273</v>
@@ -28053,7 +28141,7 @@
     </row>
     <row r="22" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AU22">
         <v>176</v>
@@ -28093,7 +28181,7 @@
     </row>
     <row r="23" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AU23">
         <f>AU19-AU20-AU22</f>
@@ -28138,7 +28226,7 @@
     </row>
     <row r="25" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -28173,7 +28261,7 @@
     </row>
     <row r="27" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AU27" s="27">
         <f>(AU20+AU21)/AU16</f>
@@ -28218,7 +28306,7 @@
     </row>
     <row r="28" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AU28" s="27">
         <f>(AU20+AU21)/AU18</f>
@@ -28263,7 +28351,7 @@
     </row>
     <row r="29" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AU29" s="27">
         <f>AU16/AU18</f>
@@ -28308,7 +28396,7 @@
     </row>
     <row r="30" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="BY30">
         <v>32</v>
@@ -28328,7 +28416,7 @@
     </row>
     <row r="31" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AU31" s="27">
         <f>(AU20+AU22)/AU19</f>
@@ -28460,7 +28548,7 @@
     </row>
     <row r="46" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -28889,7 +28977,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B63">
         <v>18</v>
@@ -28915,12 +29003,12 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B65">
         <v>20</v>
@@ -28949,11 +29037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7EE98C-7A1B-4B90-950C-597C9091ECBE}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28991,7 +29079,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -29044,7 +29132,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -29106,7 +29194,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -29168,7 +29256,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -29230,7 +29318,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -29319,6 +29407,379 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B38C552-4B2D-45CE-9325-16478D79A6F0}">
+  <dimension ref="B1:X12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>6.5</v>
+      </c>
+      <c r="M3">
+        <v>5.5</v>
+      </c>
+      <c r="N3">
+        <v>2.5</v>
+      </c>
+      <c r="O3">
+        <v>6.5</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>6.5</v>
+      </c>
+      <c r="U3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>12.5</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>11.5</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>18.5</v>
+      </c>
+      <c r="M5">
+        <v>14.5</v>
+      </c>
+      <c r="N5">
+        <v>11.5</v>
+      </c>
+      <c r="O5">
+        <v>16.5</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>17</v>
+      </c>
+      <c r="T5">
+        <v>19.5</v>
+      </c>
+      <c r="U5">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AAF6E6-482D-4022-AD75-A97466B0DEE8}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:J6"/>
@@ -29337,16 +29798,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1">
         <v>2023</v>
@@ -29375,7 +29836,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>3.15</v>
@@ -29402,7 +29863,7 @@
         <v>1.0315000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26845A8-2115-46EC-94FB-AA7AC1DF2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F671C3-9974-43B4-9353-CA2BD5B24387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -360,6 +360,7 @@
     <author>tc={51B5325D-AC85-4ACB-9F5C-C1AC01604630}</author>
     <author>tc={6C28CC59-0FDB-4226-A7A7-0509C983BB32}</author>
     <author>tc={777D9CB8-EE90-436B-88D2-42E86DF7625A}</author>
+    <author>tc={4626DABD-B4C3-4473-9A56-7F8525D19BAF}</author>
     <author>tc={01F83B77-5A57-486F-882A-263682868CD6}</author>
     <author>tc={67ABEDCE-DAC3-4B0F-983C-A7C4EE1CF75B}</author>
     <author>tc={AA12CF89-0089-4FD3-93C4-CF197F398CD2}</author>
@@ -435,7 +436,7 @@
     Inclui publicidade</t>
       </text>
     </comment>
-    <comment ref="BA3" authorId="8" shapeId="0" xr:uid="{01F83B77-5A57-486F-882A-263682868CD6}">
+    <comment ref="AQ3" authorId="8" shapeId="0" xr:uid="{4626DABD-B4C3-4473-9A56-7F8525D19BAF}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -443,7 +444,7 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="BF3" authorId="9" shapeId="0" xr:uid="{67ABEDCE-DAC3-4B0F-983C-A7C4EE1CF75B}">
+    <comment ref="BA3" authorId="9" shapeId="0" xr:uid="{01F83B77-5A57-486F-882A-263682868CD6}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -451,7 +452,7 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="BG3" authorId="10" shapeId="0" xr:uid="{AA12CF89-0089-4FD3-93C4-CF197F398CD2}">
+    <comment ref="BF3" authorId="10" shapeId="0" xr:uid="{67ABEDCE-DAC3-4B0F-983C-A7C4EE1CF75B}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -459,7 +460,15 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="BP3" authorId="11" shapeId="0" xr:uid="{82A2EE1F-2628-45F2-B7A9-84B1A70DB3D9}">
+    <comment ref="BG3" authorId="11" shapeId="0" xr:uid="{AA12CF89-0089-4FD3-93C4-CF197F398CD2}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Inclui premiações</t>
+      </text>
+    </comment>
+    <comment ref="BP3" authorId="12" shapeId="0" xr:uid="{82A2EE1F-2628-45F2-B7A9-84B1A70DB3D9}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -467,7 +476,7 @@
     Inclui Premiação</t>
       </text>
     </comment>
-    <comment ref="BQ3" authorId="12" shapeId="0" xr:uid="{0F225B51-9FFC-4EAC-83B1-2C2E30E83DE4}">
+    <comment ref="BQ3" authorId="13" shapeId="0" xr:uid="{0F225B51-9FFC-4EAC-83B1-2C2E30E83DE4}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -475,7 +484,7 @@
     Inclui Premiação</t>
       </text>
     </comment>
-    <comment ref="AB6" authorId="13" shapeId="0" xr:uid="{448DBAAA-7BDA-411C-9F08-C7917AF09001}">
+    <comment ref="AB6" authorId="14" shapeId="0" xr:uid="{448DBAAA-7BDA-411C-9F08-C7917AF09001}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -483,7 +492,7 @@
     Contempla as 2 próximas Linhas tb.</t>
       </text>
     </comment>
-    <comment ref="AC6" authorId="14" shapeId="0" xr:uid="{8B595099-7EF3-4619-BC7C-051F60C1B607}">
+    <comment ref="AC6" authorId="15" shapeId="0" xr:uid="{8B595099-7EF3-4619-BC7C-051F60C1B607}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -491,7 +500,7 @@
     Contempla as 2 próximas Linhas tb.</t>
       </text>
     </comment>
-    <comment ref="AD6" authorId="15" shapeId="0" xr:uid="{381AA9C3-00CE-47BB-A53E-522391C9DC82}">
+    <comment ref="AD6" authorId="16" shapeId="0" xr:uid="{381AA9C3-00CE-47BB-A53E-522391C9DC82}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -499,7 +508,7 @@
     Contempla as 2 próximas Linhas tb.</t>
       </text>
     </comment>
-    <comment ref="AE6" authorId="16" shapeId="0" xr:uid="{A5852994-393A-4DFC-8D7A-149A23B646DF}">
+    <comment ref="AE6" authorId="17" shapeId="0" xr:uid="{A5852994-393A-4DFC-8D7A-149A23B646DF}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -647,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="152">
   <si>
     <t>Publicidade e patrocínio</t>
   </si>
@@ -1115,7 +1124,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1189,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1214,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1266,6 +1281,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1720,6 +1736,9 @@
   <threadedComment ref="AN3" dT="2024-04-13T10:57:00.49" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{777D9CB8-EE90-436B-88D2-42E86DF7625A}">
     <text>Inclui publicidade</text>
   </threadedComment>
+  <threadedComment ref="AQ3" dT="2024-04-13T11:54:30.68" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{4626DABD-B4C3-4473-9A56-7F8525D19BAF}">
+    <text>Inclui premiações</text>
+  </threadedComment>
   <threadedComment ref="BA3" dT="2024-04-13T11:54:30.68" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{01F83B77-5A57-486F-882A-263682868CD6}">
     <text>Inclui premiações</text>
   </threadedComment>
@@ -1805,10 +1824,10 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1945,7 +1964,8 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <f>Painel!AP3</f>
+        <v>75</v>
       </c>
       <c r="K2" s="1">
         <v>326</v>
@@ -1972,14 +1992,14 @@
         <v>97</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
       </c>
       <c r="U2" s="1">
         <f>SUM(B2:T2)/COUNTIF(B2:T2,"&gt;0")</f>
-        <v>170</v>
+        <v>169.14285714285714</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2012,7 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <f>Painel!AP4</f>
+        <v>6.3</v>
       </c>
       <c r="K3" s="1">
         <v>183</v>
@@ -2039,14 +2060,14 @@
         <v>78</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U26" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
-        <v>94.039999999999992</v>
+        <v>74.642857142857139</v>
       </c>
       <c r="V3"/>
     </row>
@@ -2080,7 +2101,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <f>Painel!AP5</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="K4" s="1">
         <v>169</v>
@@ -2107,14 +2129,14 @@
         <v>26</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>54.42</v>
+        <v>56.957142857142863</v>
       </c>
       <c r="V4"/>
     </row>
@@ -2148,6 +2170,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
+        <f>Painel!AP6</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -2175,14 +2198,14 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>65.474999999999994</v>
+        <v>56.58</v>
       </c>
       <c r="V5"/>
     </row>
@@ -2215,6 +2238,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
+        <f>Painel!AP7</f>
         <v>0</v>
       </c>
       <c r="K6">
@@ -2282,6 +2306,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
+        <f>Painel!AP8</f>
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -2310,14 +2335,14 @@
         <v>1.4</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="0"/>
-        <v>31.85</v>
+        <v>29.080000000000002</v>
       </c>
       <c r="V7"/>
     </row>
@@ -2351,7 +2376,8 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <f>SUM(J2:J7)</f>
+        <v>97.9</v>
       </c>
       <c r="K8" s="1">
         <f>SUM(K2:K7)</f>
@@ -2382,14 +2408,15 @@
         <v>202.4</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <f>SUM(S2:S7)</f>
+        <v>454</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>439.71999999999997</v>
+        <v>392.92857142857144</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2422,6 +2449,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
+        <f>Painel!AP10</f>
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -2449,14 +2477,14 @@
         <v>174</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="0"/>
-        <v>145.84</v>
+        <v>141.70000000000002</v>
       </c>
       <c r="V9"/>
     </row>
@@ -2490,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1">
         <v>18</v>
@@ -2520,14 +2548,15 @@
         <v>47.599999999999994</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <f>S11-S8-S9</f>
+        <v>94</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>45.8</v>
+        <v>50.571428571428569</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2560,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K11" s="1">
         <v>1316</v>
@@ -2587,14 +2616,14 @@
         <v>424</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
-        <v>632.62</v>
+        <v>570.01428571428573</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2627,7 +2656,8 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <f>Painel!AP12</f>
+        <v>99</v>
       </c>
       <c r="K12" s="1">
         <v>339</v>
@@ -2655,14 +2685,15 @@
         <v>147</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <f>161+20+6</f>
+        <v>187</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>203.62</v>
+        <v>186.29999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -2722,14 +2753,14 @@
         <v>33</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -2789,14 +2820,14 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43.666666666666664</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2829,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K15" s="1">
         <v>131</v>
@@ -2856,14 +2887,14 @@
         <v>59</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
-        <v>84.6</v>
+        <v>69.857142857142861</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2923,14 +2954,15 @@
         <v>49.5</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <f>14+51+4+3+6+1</f>
+        <v>79</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>72.240000000000009</v>
+        <v>73.366666666666674</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -2962,7 +2994,7 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="29">
         <v>0</v>
       </c>
       <c r="K17" s="1">
@@ -2993,14 +3025,15 @@
         <v>105.5</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <f>731-SUM(S12:S16)</f>
+        <v>284</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>85.539999999999992</v>
+        <v>118.61666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3033,7 +3066,8 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <f>SUM(J12:J17)</f>
+        <v>120</v>
       </c>
       <c r="K18" s="1">
         <v>953</v>
@@ -3062,14 +3096,14 @@
         <v>419</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>731</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>563</v>
+        <v>523.71428571428567</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3101,7 +3135,8 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <f>J11-J18</f>
+        <v>38</v>
       </c>
       <c r="K19" s="1">
         <v>292</v>
@@ -3128,15 +3163,15 @@
         <f>R11-R18</f>
         <v>5</v>
       </c>
-      <c r="S19" s="1">
-        <v>0</v>
+      <c r="S19" s="3">
+        <v>62</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="0"/>
-        <v>97.3</v>
+        <v>83.785714285714292</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -3167,8 +3202,8 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
+      <c r="J20" s="3">
+        <v>0.7</v>
       </c>
       <c r="K20" s="1">
         <v>28</v>
@@ -3194,15 +3229,15 @@
       <c r="R20" s="3">
         <v>4</v>
       </c>
-      <c r="S20" s="1">
-        <v>0</v>
+      <c r="S20" s="3">
+        <v>78</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35.528571428571425</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3235,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K21" s="1">
         <v>320</v>
@@ -3261,15 +3296,15 @@
       <c r="R21" s="1">
         <v>1</v>
       </c>
-      <c r="S21" s="1">
-        <v>0</v>
+      <c r="S21" s="3">
+        <v>62</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>84.9</v>
+        <v>74.785714285714292</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3302,7 +3337,8 @@
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <f>J12+J13</f>
+        <v>99</v>
       </c>
       <c r="K22" s="1">
         <f>SUM(K12+K13)</f>
@@ -3333,14 +3369,15 @@
         <v>180</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <f>SUM(S12+S13)</f>
+        <v>266</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="0"/>
-        <v>279.62</v>
+        <v>251.87142857142857</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3372,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K23" s="1">
         <f>K2+K6</f>
@@ -3402,14 +3439,14 @@
         <v>97</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="0"/>
-        <v>213.4</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -3442,7 +3479,8 @@
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <f>J22</f>
+        <v>99</v>
       </c>
       <c r="K24" s="1">
         <f>K12+K13</f>
@@ -3472,14 +3510,14 @@
         <v>172</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="0"/>
-        <v>278.02</v>
+        <v>237.29999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3511,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -3545,7 +3583,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>90.35</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -3692,6 +3730,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF97430D-64FD-43F9-B156-962FA2D38E67}">
+  <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -8159,11 +8198,11 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8277,6 +8316,10 @@
         <f>VLOOKUP(A2,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>51</v>
       </c>
+      <c r="J2" s="1">
+        <f>Resultado!J2</f>
+        <v>75</v>
+      </c>
       <c r="K2" s="1">
         <v>326</v>
       </c>
@@ -8288,6 +8331,10 @@
       </c>
       <c r="R2" s="1">
         <v>97</v>
+      </c>
+      <c r="S2" s="1">
+        <f>Resultado!S2</f>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -8298,6 +8345,10 @@
         <f>VLOOKUP(A3,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>14.2</v>
       </c>
+      <c r="J3" s="1">
+        <f>Resultado!J3</f>
+        <v>6.3</v>
+      </c>
       <c r="K3" s="1">
         <v>183</v>
       </c>
@@ -8309,6 +8360,10 @@
       </c>
       <c r="R3" s="1">
         <v>78</v>
+      </c>
+      <c r="S3" s="1">
+        <f>Resultado!S3</f>
+        <v>46</v>
       </c>
       <c r="V3" s="11"/>
     </row>
@@ -8320,6 +8375,10 @@
         <f>VLOOKUP(A4,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>11.7</v>
       </c>
+      <c r="J4" s="1">
+        <f>Resultado!J4</f>
+        <v>16.600000000000001</v>
+      </c>
       <c r="K4" s="1">
         <v>169</v>
       </c>
@@ -8331,6 +8390,10 @@
       </c>
       <c r="R4" s="1">
         <v>26</v>
+      </c>
+      <c r="S4" s="1">
+        <f>Resultado!S4</f>
+        <v>110</v>
       </c>
       <c r="V4" s="11"/>
     </row>
@@ -8342,6 +8405,10 @@
         <f>VLOOKUP(A5,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>26.9</v>
       </c>
+      <c r="J5" s="1">
+        <f>Resultado!J5</f>
+        <v>0</v>
+      </c>
       <c r="K5" s="1">
         <v>90</v>
       </c>
@@ -8353,6 +8420,10 @@
       </c>
       <c r="R5" s="1">
         <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <f>Resultado!S5</f>
+        <v>21</v>
       </c>
       <c r="V5" s="11"/>
     </row>
@@ -8364,6 +8435,10 @@
         <f>VLOOKUP(A6,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="J6" s="1">
+        <f>Resultado!J6</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="1">
         <v>96</v>
       </c>
@@ -8374,6 +8449,10 @@
         <v>80</v>
       </c>
       <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <f>Resultado!S6</f>
         <v>0</v>
       </c>
       <c r="V6" s="11"/>
@@ -8386,6 +8465,10 @@
         <f>VLOOKUP(A7,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="J7" s="1">
+        <f>Resultado!J7</f>
+        <v>0</v>
+      </c>
       <c r="K7" s="1">
         <v>59</v>
       </c>
@@ -8397,6 +8480,10 @@
       </c>
       <c r="R7" s="1">
         <v>1.4</v>
+      </c>
+      <c r="S7" s="1">
+        <f>Resultado!S7</f>
+        <v>18</v>
       </c>
       <c r="V7" s="11"/>
     </row>
@@ -8408,6 +8495,10 @@
         <f>VLOOKUP(A8,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>15.2</v>
       </c>
+      <c r="J8" s="1">
+        <f>Resultado!J9</f>
+        <v>0</v>
+      </c>
       <c r="K8" s="1">
         <v>303</v>
       </c>
@@ -8419,6 +8510,10 @@
       </c>
       <c r="R8" s="1">
         <v>174</v>
+      </c>
+      <c r="S8" s="1">
+        <f>Resultado!S9</f>
+        <v>121</v>
       </c>
       <c r="V8" s="11"/>
     </row>
@@ -8430,6 +8525,10 @@
         <f>SUM(H2:H8)</f>
         <v>119.00000000000001</v>
       </c>
+      <c r="J9" s="2">
+        <f>SUM(J2:J8)+J24</f>
+        <v>126.9</v>
+      </c>
       <c r="K9" s="2">
         <f>SUM(K2:K8)</f>
         <v>1226</v>
@@ -8445,6 +8544,10 @@
       <c r="R9" s="2">
         <f>SUM(R2:R8)</f>
         <v>376.4</v>
+      </c>
+      <c r="S9" s="2">
+        <f>SUM(S2:S8)</f>
+        <v>575</v>
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
@@ -8458,6 +8561,10 @@
         <f>SUM(H11:H16)</f>
         <v>234.8</v>
       </c>
+      <c r="J10" s="2">
+        <f>SUM(J11:J15)</f>
+        <v>120</v>
+      </c>
       <c r="K10" s="2">
         <f>SUM(K11:K16)</f>
         <v>808</v>
@@ -8473,6 +8580,10 @@
       <c r="R10" s="2">
         <f>SUM(R11:R15)-R16</f>
         <v>255.5</v>
+      </c>
+      <c r="S10" s="2">
+        <f>SUM(S11:S15)-S16</f>
+        <v>481</v>
       </c>
       <c r="U10" s="30"/>
       <c r="V10" s="30"/>
@@ -8486,6 +8597,10 @@
         <f>VLOOKUP(A11,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>85.1</v>
       </c>
+      <c r="J11" s="1">
+        <f>Resultado!J12</f>
+        <v>99</v>
+      </c>
       <c r="K11" s="3">
         <v>339</v>
       </c>
@@ -8499,6 +8614,10 @@
       </c>
       <c r="R11" s="1">
         <v>147</v>
+      </c>
+      <c r="S11" s="1">
+        <f>Resultado!S12</f>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -8509,6 +8628,9 @@
         <f>VLOOKUP(A12,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>34</v>
       </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
       <c r="K12" s="3">
         <v>124</v>
       </c>
@@ -8521,6 +8643,10 @@
       </c>
       <c r="R12" s="1">
         <v>33</v>
+      </c>
+      <c r="S12" s="1">
+        <f>Resultado!S13</f>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -8531,6 +8657,9 @@
         <f>VLOOKUP(A13,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>6</v>
       </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
       <c r="K13" s="3">
         <v>125</v>
       </c>
@@ -8543,6 +8672,10 @@
       </c>
       <c r="R13" s="1">
         <v>25</v>
+      </c>
+      <c r="S13" s="1">
+        <f>Resultado!S14</f>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -8553,6 +8686,10 @@
         <f>VLOOKUP(A14,Resultado!$A$2:$H$23,8,FALSE)-4-0.8</f>
         <v>53.2</v>
       </c>
+      <c r="J14" s="1">
+        <f>Resultado!J15</f>
+        <v>21</v>
+      </c>
       <c r="K14" s="1">
         <v>75</v>
       </c>
@@ -8564,6 +8701,10 @@
       </c>
       <c r="R14" s="1">
         <v>59</v>
+      </c>
+      <c r="S14" s="1">
+        <f>Resultado!S15</f>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -8574,6 +8715,10 @@
         <f>VLOOKUP(A15,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>24.5</v>
       </c>
+      <c r="J15" s="1">
+        <f>Resultado!J17</f>
+        <v>0</v>
+      </c>
       <c r="K15" s="1">
         <v>141</v>
       </c>
@@ -8585,6 +8730,10 @@
       </c>
       <c r="R15" s="1">
         <v>105.5</v>
+      </c>
+      <c r="S15" s="1">
+        <f>Resultado!S17</f>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -8595,6 +8744,9 @@
         <f>ABS(-32)</f>
         <v>32</v>
       </c>
+      <c r="J16" s="3">
+        <v>36</v>
+      </c>
       <c r="K16" s="1">
         <v>4</v>
       </c>
@@ -8606,6 +8758,10 @@
       </c>
       <c r="R16" s="3">
         <v>114</v>
+      </c>
+      <c r="S16" s="1">
+        <f>77+94</f>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8615,6 +8771,9 @@
       <c r="H17" s="2">
         <v>44</v>
       </c>
+      <c r="J17" s="2">
+        <v>43</v>
+      </c>
       <c r="K17" s="2">
         <v>418</v>
       </c>
@@ -8626,6 +8785,9 @@
       </c>
       <c r="R17" s="2">
         <v>120</v>
+      </c>
+      <c r="S17" s="2">
+        <v>94</v>
       </c>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
@@ -8638,6 +8800,9 @@
       <c r="H18" s="4">
         <v>73</v>
       </c>
+      <c r="J18" s="4">
+        <v>33</v>
+      </c>
       <c r="K18" s="2">
         <v>380</v>
       </c>
@@ -8649,6 +8814,9 @@
       </c>
       <c r="R18" s="4">
         <v>113</v>
+      </c>
+      <c r="S18" s="4">
+        <v>122</v>
       </c>
       <c r="U18" s="30"/>
       <c r="V18" s="30"/>
@@ -8661,6 +8829,9 @@
       <c r="H19" s="1">
         <v>23</v>
       </c>
+      <c r="J19" s="1">
+        <v>27</v>
+      </c>
       <c r="K19" s="1">
         <f>273+87-20</f>
         <v>340</v>
@@ -8673,6 +8844,9 @@
       </c>
       <c r="R19" s="1">
         <v>111</v>
+      </c>
+      <c r="S19" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -8682,6 +8856,9 @@
       <c r="H20" s="1">
         <v>50</v>
       </c>
+      <c r="J20" s="1">
+        <v>6</v>
+      </c>
       <c r="K20" s="1">
         <v>39</v>
       </c>
@@ -8693,6 +8870,9 @@
       </c>
       <c r="R20" s="1">
         <v>2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -8702,6 +8882,9 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
       <c r="K21" s="1">
         <f>K18-SUM(K19:K20)</f>
         <v>1</v>
@@ -8715,6 +8898,10 @@
       </c>
       <c r="R21" s="1">
         <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <f>34</f>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8724,6 +8911,9 @@
       <c r="H22" s="2">
         <v>41</v>
       </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
       <c r="K22" s="2">
         <v>41</v>
       </c>
@@ -8735,6 +8925,9 @@
       </c>
       <c r="R22" s="4">
         <v>27</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
       </c>
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
@@ -8747,6 +8940,9 @@
       <c r="H23" s="2">
         <v>12</v>
       </c>
+      <c r="J23" s="2">
+        <v>9</v>
+      </c>
       <c r="K23" s="4">
         <v>2</v>
       </c>
@@ -8758,6 +8954,9 @@
       </c>
       <c r="R23" s="4">
         <v>20</v>
+      </c>
+      <c r="S23" s="4">
+        <v>27</v>
       </c>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
@@ -8769,6 +8968,24 @@
       </c>
       <c r="H24" s="1">
         <v>95.5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8788,10 +9005,10 @@
   <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8919,8 +9136,9 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
+      <c r="J2" s="1">
+        <f>Resultado!J2</f>
+        <v>75</v>
       </c>
       <c r="K2" s="1">
         <f>Resultado!K2+Resultado!K6</f>
@@ -8951,7 +9169,8 @@
         <v>97</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <f>Resultado!S2+Resultado!S6</f>
+        <v>259</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
@@ -8999,8 +9218,9 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="J3" s="1">
+        <f>Resultado!J3</f>
+        <v>6.3</v>
       </c>
       <c r="K3" s="1">
         <v>183</v>
@@ -9030,7 +9250,8 @@
         <v>78</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <f>Resultado!S3</f>
+        <v>46</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
@@ -9078,8 +9299,9 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="J4" s="1">
+        <f>Resultado!J4</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="K4" s="1">
         <v>169</v>
@@ -9109,7 +9331,8 @@
         <v>26</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <f>Resultado!S4</f>
+        <v>110</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -9157,7 +9380,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
+        <f>Resultado!J5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -9188,7 +9412,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <f>Resultado!S5</f>
+        <v>21</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -9222,7 +9447,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
+        <f>Resultado!J6</f>
         <v>0</v>
       </c>
       <c r="K6" s="1">
@@ -9253,6 +9479,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
+        <f>Resultado!S6</f>
         <v>0</v>
       </c>
       <c r="T6" s="1">
@@ -9301,7 +9528,8 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
+        <f>Resultado!J7</f>
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -9332,7 +9560,8 @@
         <v>1.4</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <f>Resultado!S7</f>
+        <v>18</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -9380,8 +9609,9 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="J8" s="1">
+        <f>Resultado!J8</f>
+        <v>97.9</v>
       </c>
       <c r="K8" s="1">
         <v>923</v>
@@ -9411,7 +9641,8 @@
         <v>202.4</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <f>Resultado!S8</f>
+        <v>454</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -9459,7 +9690,8 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
+        <f>Resultado!J9</f>
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -9490,7 +9722,8 @@
         <v>174</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <f>Resultado!S9</f>
+        <v>121</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -9538,8 +9771,9 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="J10" s="1">
+        <f>Resultado!J10</f>
+        <v>31</v>
       </c>
       <c r="K10" s="1">
         <v>18</v>
@@ -9569,7 +9803,8 @@
         <v>47.599999999999994</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <f>Resultado!S10</f>
+        <v>94</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -9617,8 +9852,9 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="J11" s="1">
+        <f>Resultado!J11</f>
+        <v>158</v>
       </c>
       <c r="K11" s="1">
         <v>1316</v>
@@ -9648,7 +9884,8 @@
         <v>424</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <f>Resultado!S11</f>
+        <v>669</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -9696,8 +9933,9 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="J12" s="1">
+        <f>Resultado!J12</f>
+        <v>99</v>
       </c>
       <c r="K12" s="1">
         <v>339</v>
@@ -9727,7 +9965,8 @@
         <v>147</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <f>Resultado!S12</f>
+        <v>187</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -9775,7 +10014,8 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
+        <f>Resultado!J13</f>
         <v>0</v>
       </c>
       <c r="K13" s="1">
@@ -9806,7 +10046,8 @@
         <v>33</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <f>Resultado!S13</f>
+        <v>79</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -9854,7 +10095,8 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
+        <f>Resultado!J14</f>
         <v>0</v>
       </c>
       <c r="K14" s="1">
@@ -9885,7 +10127,8 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <f>Resultado!S14</f>
+        <v>57</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -9933,8 +10176,9 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
+      <c r="J15" s="1">
+        <f>Resultado!J15</f>
+        <v>21</v>
       </c>
       <c r="K15" s="1">
         <v>131</v>
@@ -9964,7 +10208,8 @@
         <v>59</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <f>Resultado!S15</f>
+        <v>45</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -10012,7 +10257,8 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
+        <f>Resultado!J16</f>
         <v>0</v>
       </c>
       <c r="K16" s="1">
@@ -10043,7 +10289,8 @@
         <v>49.5</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <f>Resultado!S16</f>
+        <v>79</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -10091,7 +10338,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
+        <f>Resultado!J17</f>
         <v>0</v>
       </c>
       <c r="K17" s="1">
@@ -10122,7 +10370,8 @@
         <v>105.5</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <f>Resultado!S17</f>
+        <v>284</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -10170,8 +10419,9 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
+      <c r="J18" s="1">
+        <f>Resultado!J18</f>
+        <v>120</v>
       </c>
       <c r="K18" s="1">
         <v>936</v>
@@ -10201,7 +10451,8 @@
         <v>419</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <f>Resultado!S18</f>
+        <v>731</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -10249,8 +10500,9 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
+      <c r="J19" s="1">
+        <f>Resultado!J21</f>
+        <v>37</v>
       </c>
       <c r="K19" s="1">
         <v>309</v>
@@ -10280,7 +10532,8 @@
         <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <f>Resultado!S21</f>
+        <v>62</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -10328,8 +10581,9 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="J20" s="1">
+        <f>Caixa!J17</f>
+        <v>43</v>
       </c>
       <c r="K20" s="1">
         <v>319</v>
@@ -10357,7 +10611,8 @@
         <v>120</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <f>Caixa!S17</f>
+        <v>94</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -10405,7 +10660,8 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <f>Painel!AP14</f>
+        <v>37</v>
       </c>
       <c r="K21" s="1">
         <v>485</v>
@@ -10432,7 +10688,7 @@
         <v>192</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -10657,7 +10913,7 @@
         <v>98</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -10732,7 +10988,7 @@
         <v>12</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -10856,7 +11112,7 @@
         <v>49</v>
       </c>
       <c r="S27" s="1">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="T27" s="1">
         <v>0</v>
@@ -10900,7 +11156,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K28">
         <v>463</v>
@@ -10930,7 +11186,7 @@
       </c>
       <c r="S28">
         <f>S12+S13</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="T28">
         <f>T12+T13</f>
@@ -11676,7 +11932,7 @@
       </c>
       <c r="J40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="K40" s="6">
         <f>K11/K30</f>
@@ -11712,7 +11968,7 @@
       </c>
       <c r="S40" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30.688073394495412</v>
       </c>
       <c r="T40" s="6">
         <f t="shared" si="3"/>
@@ -11757,7 +12013,7 @@
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="K41" s="14">
         <f>(K11/K36)*1000</f>
@@ -11793,7 +12049,7 @@
       </c>
       <c r="S41" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.093712715571785</v>
       </c>
       <c r="T41" s="14">
         <f t="shared" si="6"/>
@@ -11860,8 +12116,9 @@
         <f>R9/R47</f>
         <v>14.5</v>
       </c>
-      <c r="S42">
-        <v>0</v>
+      <c r="S42" s="14">
+        <f>S9/S47</f>
+        <v>3.5588235294117645</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -11925,8 +12182,9 @@
         <f>R9/R31</f>
         <v>4.0465116279069768</v>
       </c>
-      <c r="S43">
-        <v>0</v>
+      <c r="S43" s="18">
+        <f>S9/S31</f>
+        <v>2.2830188679245285</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -11989,7 +12247,8 @@
         <f>R6/R28</f>
         <v>0</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="18">
+        <f>S6/S28</f>
         <v>0</v>
       </c>
       <c r="T44">
@@ -12025,8 +12284,9 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45">
-        <v>0</v>
+      <c r="J45" s="18">
+        <f>Painel!AP28</f>
+        <v>1.9411764705882353</v>
       </c>
       <c r="K45">
         <v>7.02</v>
@@ -12055,8 +12315,9 @@
         <f>R28/R31</f>
         <v>4</v>
       </c>
-      <c r="S45">
-        <v>0</v>
+      <c r="S45" s="18">
+        <f>S28/S31</f>
+        <v>5.0188679245283021</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -12091,8 +12352,9 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
+      <c r="J46" s="18">
+        <f>Painel!AP29</f>
+        <v>3.0980392156862746</v>
       </c>
       <c r="K46">
         <v>18.86</v>
@@ -12121,8 +12383,9 @@
         <f>R11/R31</f>
         <v>9.8604651162790695</v>
       </c>
-      <c r="S46">
-        <v>0</v>
+      <c r="S46" s="18">
+        <f>S11/S31</f>
+        <v>12.622641509433961</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -12200,8 +12463,8 @@
         <v>12</v>
       </c>
       <c r="S47">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="S47" si="9">SUM(S26+S25)</f>
+        <v>34</v>
       </c>
       <c r="T47">
         <f t="shared" si="7"/>
@@ -12236,8 +12499,9 @@
       <c r="I48" s="26">
         <v>0</v>
       </c>
-      <c r="J48" s="26">
-        <v>0</v>
+      <c r="J48" s="3">
+        <f>J2</f>
+        <v>75</v>
       </c>
       <c r="K48" s="3">
         <f>K2</f>
@@ -12266,8 +12530,9 @@
         <f>R2</f>
         <v>97</v>
       </c>
-      <c r="S48" s="26">
-        <v>0</v>
+      <c r="S48" s="3">
+        <f>S2</f>
+        <v>259</v>
       </c>
       <c r="T48" s="26">
         <v>0</v>
@@ -12365,8 +12630,9 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>0</v>
+      <c r="J50" s="18">
+        <f>Painel!AP31</f>
+        <v>0.8</v>
       </c>
       <c r="K50">
         <v>255</v>
@@ -12428,8 +12694,9 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51">
-        <v>0</v>
+      <c r="J51" s="18">
+        <f>Painel!AP32</f>
+        <v>2.1621621621621623E-2</v>
       </c>
       <c r="K51" s="18">
         <f>K50/K21</f>
@@ -12495,8 +12762,9 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52">
-        <v>0</v>
+      <c r="J52" s="18">
+        <f>Painel!AP33</f>
+        <v>5.0632911392405064E-3</v>
       </c>
       <c r="K52" s="18">
         <f>K50/K11</f>
@@ -12562,8 +12830,9 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53">
-        <v>0</v>
+      <c r="J53" s="18">
+        <f>Painel!AP34</f>
+        <v>0.62658227848101267</v>
       </c>
       <c r="K53" s="25">
         <f>K28/K11</f>
@@ -12593,8 +12862,9 @@
         <f>R28/R11</f>
         <v>0.40566037735849059</v>
       </c>
-      <c r="S53">
-        <v>0</v>
+      <c r="S53" s="25">
+        <f>S28/S11</f>
+        <v>0.39760837070254113</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -12629,8 +12899,9 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54">
-        <v>0</v>
+      <c r="J54" s="18">
+        <f>Painel!AP35</f>
+        <v>0.62658227848101267</v>
       </c>
       <c r="K54" s="25">
         <f>(K28+K24)/K11</f>
@@ -12660,8 +12931,9 @@
         <f>(R28+R24)/R11</f>
         <v>0.6367924528301887</v>
       </c>
-      <c r="S54">
-        <v>0</v>
+      <c r="S54" s="25">
+        <f>(S28+S24)/S11</f>
+        <v>0.51270553064275037</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -12671,26 +12943,188 @@
       <c r="A55" t="s">
         <v>144</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
       <c r="Q55">
         <v>22</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>142</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
       <c r="Q56">
         <f>Q55+Q47</f>
         <v>51</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
       <c r="Q57" s="14">
         <f>Q9/Q56</f>
         <v>3.6666666666666665</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -12789,10 +13223,10 @@
   <dimension ref="A1:DG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AP11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF32" sqref="AF32:AF35"/>
+      <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12825,7 +13259,7 @@
     <col min="37" max="37" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="5" bestFit="1" customWidth="1"/>
     <col min="41" max="44" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="48" max="51" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="10.109375" bestFit="1" customWidth="1"/>
@@ -13411,6 +13845,21 @@
       <c r="AO3">
         <v>102</v>
       </c>
+      <c r="AP3">
+        <v>75</v>
+      </c>
+      <c r="AQ3">
+        <v>88</v>
+      </c>
+      <c r="AR3">
+        <v>40</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
       <c r="AU3" s="1">
         <f>Índices!K2</f>
         <v>463</v>
@@ -13532,6 +13981,10 @@
       <c r="CH3">
         <v>110</v>
       </c>
+      <c r="CI3" s="1">
+        <f>Índices!S2</f>
+        <v>259</v>
+      </c>
       <c r="CJ3" s="1">
         <f t="shared" ref="CJ3:CM3" si="1">CJ30+CJ7</f>
         <v>205</v>
@@ -13704,6 +14157,21 @@
       <c r="AO4">
         <v>26</v>
       </c>
+      <c r="AP4">
+        <v>6.3</v>
+      </c>
+      <c r="AQ4">
+        <v>5.5</v>
+      </c>
+      <c r="AR4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AS4">
+        <v>8</v>
+      </c>
+      <c r="AT4">
+        <v>24</v>
+      </c>
       <c r="AU4" s="1">
         <f>Resultado!K3</f>
         <v>183</v>
@@ -13814,6 +14282,10 @@
       </c>
       <c r="CH4">
         <v>23</v>
+      </c>
+      <c r="CI4" s="1">
+        <f>Índices!S3</f>
+        <v>46</v>
       </c>
       <c r="CJ4">
         <v>54</v>
@@ -13982,6 +14454,21 @@
       <c r="AO5">
         <v>18</v>
       </c>
+      <c r="AP5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>13.3</v>
+      </c>
+      <c r="AR5">
+        <v>3.9</v>
+      </c>
+      <c r="AS5">
+        <v>0.04</v>
+      </c>
+      <c r="AT5">
+        <v>1.3</v>
+      </c>
       <c r="AU5" s="1">
         <f>Resultado!K4</f>
         <v>169</v>
@@ -14092,6 +14579,10 @@
       </c>
       <c r="CH5">
         <v>24</v>
+      </c>
+      <c r="CI5" s="1">
+        <f>Índices!S4</f>
+        <v>110</v>
       </c>
       <c r="CJ5">
         <v>64</v>
@@ -14235,6 +14726,21 @@
       <c r="AO6">
         <v>14</v>
       </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
       <c r="AU6" s="1">
         <f>Resultado!K5</f>
         <v>90</v>
@@ -14318,6 +14824,10 @@
       </c>
       <c r="CC6">
         <v>46</v>
+      </c>
+      <c r="CI6" s="1">
+        <f>Índices!S5</f>
+        <v>21</v>
       </c>
       <c r="CJ6">
         <v>18</v>
@@ -14410,6 +14920,21 @@
       <c r="Z7">
         <v>12</v>
       </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
       <c r="AU7">
         <v>137</v>
       </c>
@@ -14492,6 +15017,10 @@
       </c>
       <c r="CC7" s="6">
         <v>20</v>
+      </c>
+      <c r="CI7" s="1">
+        <f>Índices!S6</f>
+        <v>0</v>
       </c>
       <c r="CJ7">
         <v>29</v>
@@ -14563,6 +15092,21 @@
       <c r="AL8">
         <v>14</v>
       </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
       <c r="AU8" s="1">
         <f>Resultado!K7</f>
         <v>59</v>
@@ -14637,6 +15181,10 @@
       </c>
       <c r="CH8" s="11">
         <v>2.5</v>
+      </c>
+      <c r="CI8" s="1">
+        <f>Índices!S7</f>
+        <v>18</v>
       </c>
       <c r="CJ8">
         <v>16</v>
@@ -14822,25 +15370,45 @@
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="AU9" s="1">
-        <f>Resultado!K8</f>
+      <c r="AP9">
+        <f>SUM(AP3:AP6,AP8)</f>
+        <v>97.9</v>
+      </c>
+      <c r="AQ9">
+        <f>SUM(AQ3:AQ6,AQ8)</f>
+        <v>106.8</v>
+      </c>
+      <c r="AR9">
+        <f>SUM(AR3:AR6,AR8)</f>
+        <v>52.699999999999996</v>
+      </c>
+      <c r="AS9">
+        <f>SUM(AS3:AS6,AS8)</f>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AT9">
+        <f>SUM(AT3:AT6,AT8)</f>
+        <v>25.3</v>
+      </c>
+      <c r="AU9">
+        <f>SUM(AU3:AU6,AU8)</f>
         <v>964</v>
       </c>
       <c r="AV9">
-        <f>SUM(AV3:AV8)</f>
-        <v>1205</v>
+        <f>SUM(AV3:AV6,AV8)</f>
+        <v>955</v>
       </c>
       <c r="AW9">
-        <f>SUM(AW3:AW8)</f>
-        <v>820</v>
+        <f>SUM(AW3:AW6,AW8)</f>
+        <v>675</v>
       </c>
       <c r="AX9">
-        <f>SUM(AX3:AX8)</f>
-        <v>615</v>
+        <f>SUM(AX3:AX6,AX8)</f>
+        <v>524</v>
       </c>
       <c r="AY9">
-        <f>SUM(AY3:AY8)</f>
-        <v>864</v>
+        <f>SUM(AY3:AY6,AY8)</f>
+        <v>689</v>
       </c>
       <c r="BA9">
         <f>SUM(BA3:BA6,BA8)</f>
@@ -14965,6 +15533,10 @@
       <c r="CH9">
         <f t="shared" ref="CH9" si="34">SUM(CH3:CH6,CH8)</f>
         <v>159.5</v>
+      </c>
+      <c r="CI9">
+        <f>SUM(CI3:CI6,CI8)</f>
+        <v>454</v>
       </c>
       <c r="CJ9">
         <f>SUM(CJ3:CJ6,CJ8)</f>
@@ -15152,6 +15724,21 @@
       <c r="AO10">
         <v>108</v>
       </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
       <c r="AU10" s="1">
         <f>Resultado!K9</f>
         <v>303</v>
@@ -15263,6 +15850,10 @@
       </c>
       <c r="CH10">
         <v>216</v>
+      </c>
+      <c r="CI10" s="1">
+        <f>Índices!S9</f>
+        <v>121</v>
       </c>
       <c r="CJ10">
         <v>229</v>
@@ -15434,6 +16025,21 @@
       <c r="AO11">
         <v>281</v>
       </c>
+      <c r="AP11">
+        <v>158</v>
+      </c>
+      <c r="AQ11">
+        <v>124</v>
+      </c>
+      <c r="AR11">
+        <v>64</v>
+      </c>
+      <c r="AS11">
+        <v>21</v>
+      </c>
+      <c r="AT11">
+        <v>21</v>
+      </c>
       <c r="AU11" s="1">
         <f>Resultado!K11</f>
         <v>1316</v>
@@ -15544,6 +16150,10 @@
       </c>
       <c r="CH11" s="11">
         <v>400</v>
+      </c>
+      <c r="CI11" s="1">
+        <f>Índices!S11</f>
+        <v>669</v>
       </c>
       <c r="CJ11">
         <v>588</v>
@@ -15726,6 +16336,21 @@
         <f>192+19</f>
         <v>211</v>
       </c>
+      <c r="AP12">
+        <v>99</v>
+      </c>
+      <c r="AQ12">
+        <v>84</v>
+      </c>
+      <c r="AR12">
+        <v>66</v>
+      </c>
+      <c r="AS12">
+        <v>20</v>
+      </c>
+      <c r="AT12">
+        <v>18</v>
+      </c>
       <c r="AU12">
         <f>Índices!K28</f>
         <v>463</v>
@@ -15853,6 +16478,10 @@
       <c r="CH12">
         <f>141-7+32</f>
         <v>166</v>
+      </c>
+      <c r="CI12" s="1">
+        <f>Índices!S12+Índices!S13</f>
+        <v>266</v>
       </c>
       <c r="CJ12">
         <f>147+51</f>
@@ -16027,6 +16656,21 @@
       <c r="AO13">
         <v>-394</v>
       </c>
+      <c r="AP13">
+        <v>37</v>
+      </c>
+      <c r="AQ13">
+        <v>26</v>
+      </c>
+      <c r="AR13">
+        <v>-5</v>
+      </c>
+      <c r="AS13">
+        <v>-0.2</v>
+      </c>
+      <c r="AT13">
+        <v>1.7</v>
+      </c>
       <c r="AU13" s="1">
         <f>Resultado!K21</f>
         <v>320</v>
@@ -16137,6 +16781,10 @@
       </c>
       <c r="CH13" s="11">
         <v>24</v>
+      </c>
+      <c r="CI13" s="1">
+        <f>Índices!S19</f>
+        <v>62</v>
       </c>
       <c r="CJ13">
         <v>37</v>
@@ -16303,6 +16951,21 @@
       <c r="AO14">
         <v>147</v>
       </c>
+      <c r="AP14">
+        <v>37</v>
+      </c>
+      <c r="AQ14">
+        <v>26</v>
+      </c>
+      <c r="AR14">
+        <v>4.5</v>
+      </c>
+      <c r="AS14">
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AT14">
+        <v>6</v>
+      </c>
       <c r="AU14">
         <v>485</v>
       </c>
@@ -16412,6 +17075,9 @@
       </c>
       <c r="CH14">
         <v>204</v>
+      </c>
+      <c r="CI14">
+        <v>116</v>
       </c>
       <c r="CJ14">
         <v>228</v>
@@ -16575,6 +17241,21 @@
       <c r="AO15">
         <v>56</v>
       </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
       <c r="AU15" s="1">
         <v>273</v>
       </c>
@@ -16684,6 +17365,10 @@
       </c>
       <c r="CH15">
         <v>53</v>
+      </c>
+      <c r="CI15" s="1">
+        <f>Índices!S24</f>
+        <v>77</v>
       </c>
       <c r="CJ15">
         <v>76</v>
@@ -16845,6 +17530,21 @@
       <c r="AO16">
         <v>19</v>
       </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
       <c r="AU16" s="11">
         <v>16</v>
       </c>
@@ -16953,6 +17653,10 @@
       </c>
       <c r="CH16">
         <v>9</v>
+      </c>
+      <c r="CI16" s="1">
+        <f>Índices!S25</f>
+        <v>34</v>
       </c>
       <c r="CJ16">
         <v>16</v>
@@ -19435,24 +20139,25 @@
         <f t="shared" si="60"/>
         <v>20.970149253731343</v>
       </c>
-      <c r="AP24">
-        <v>0</v>
+      <c r="AP24" s="14">
+        <f t="shared" ref="AP24:AT24" si="61">AP11/AP18</f>
+        <v>790</v>
       </c>
       <c r="AQ24" s="14">
-        <f t="shared" ref="AQ24:AT24" si="61">AQ11/AQ18</f>
-        <v>0</v>
+        <f t="shared" si="61"/>
+        <v>620</v>
       </c>
       <c r="AR24" s="14">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AS24" s="14">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AT24" s="14">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AU24">
         <v>25.8</v>
@@ -19611,7 +20316,7 @@
       </c>
       <c r="CI24" s="14">
         <f>CI11/CI18</f>
-        <v>0</v>
+        <v>30.688073394495412</v>
       </c>
       <c r="CJ24" s="14">
         <f t="shared" ref="CJ24:CM24" si="70">CJ11/CJ18</f>
@@ -20147,11 +20852,12 @@
         <f t="shared" ref="AO26" si="95">AO10/AO19</f>
         <v>3</v>
       </c>
-      <c r="AP26">
+      <c r="AP26" s="14">
+        <f t="shared" ref="AP26:AR26" si="96">AP10/AP19</f>
         <v>0</v>
       </c>
       <c r="AQ26" s="14">
-        <f t="shared" ref="AQ26:AR26" si="96">AQ10/AQ19</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AR26" s="14">
@@ -20319,7 +21025,7 @@
       </c>
       <c r="CI26" s="14">
         <f>CI10/CI19</f>
-        <v>0</v>
+        <v>2.2830188679245285</v>
       </c>
       <c r="CJ26" s="14">
         <f t="shared" ref="CJ26:CM26" si="105">CJ10/CJ19</f>
@@ -20504,7 +21210,7 @@
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AP27">
+      <c r="AP27" s="14">
         <v>0</v>
       </c>
       <c r="AQ27" s="14">
@@ -20853,16 +21559,17 @@
         <f t="shared" ref="AO28" si="130">AO12/AO19</f>
         <v>5.8611111111111107</v>
       </c>
-      <c r="AP28">
-        <v>0</v>
+      <c r="AP28" s="14">
+        <f t="shared" ref="AP28:AR28" si="131">AP12/AP19</f>
+        <v>1.9411764705882353</v>
       </c>
       <c r="AQ28" s="14">
-        <f t="shared" ref="AQ28:AR28" si="131">AQ12/AQ19</f>
-        <v>0</v>
+        <f t="shared" si="131"/>
+        <v>2.0487804878048781</v>
       </c>
       <c r="AR28" s="14">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1.4042553191489362</v>
       </c>
       <c r="AS28" s="14">
         <v>0</v>
@@ -21025,7 +21732,7 @@
       </c>
       <c r="CI28" s="14">
         <f>CI12/CI19</f>
-        <v>0</v>
+        <v>5.0188679245283021</v>
       </c>
       <c r="CJ28" s="14">
         <f t="shared" ref="CJ28:CM28" si="140">CJ12/CJ19</f>
@@ -21206,16 +21913,17 @@
         <f t="shared" ref="AO29" si="149">AO11/AO19</f>
         <v>7.8055555555555554</v>
       </c>
-      <c r="AP29">
-        <v>0</v>
+      <c r="AP29" s="14">
+        <f t="shared" ref="AP29:AR29" si="150">AP11/AP19</f>
+        <v>3.0980392156862746</v>
       </c>
       <c r="AQ29" s="14">
-        <f t="shared" ref="AQ29:AR29" si="150">AQ11/AQ19</f>
-        <v>0</v>
+        <f t="shared" si="150"/>
+        <v>3.024390243902439</v>
       </c>
       <c r="AR29" s="14">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1.3617021276595744</v>
       </c>
       <c r="AS29" s="14">
         <v>0</v>
@@ -21378,7 +22086,7 @@
       </c>
       <c r="CI29" s="14">
         <f>CI11/CI19</f>
-        <v>0</v>
+        <v>12.622641509433961</v>
       </c>
       <c r="CJ29" s="14">
         <f t="shared" ref="CJ29:CM29" si="159">CJ11/CJ19</f>
@@ -21532,6 +22240,21 @@
       <c r="AO30">
         <v>0</v>
       </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="14">
+        <v>0</v>
+      </c>
       <c r="AU30" s="1">
         <f>AU3-AU7</f>
         <v>326</v>
@@ -21656,6 +22379,9 @@
         <v>0</v>
       </c>
       <c r="CH30">
+        <v>0</v>
+      </c>
+      <c r="CI30">
         <v>0</v>
       </c>
       <c r="CJ30">
@@ -21841,6 +22567,21 @@
       <c r="AO31">
         <v>463</v>
       </c>
+      <c r="AP31">
+        <v>0.8</v>
+      </c>
+      <c r="AQ31">
+        <v>0.9</v>
+      </c>
+      <c r="AR31">
+        <v>9.1</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
       <c r="AU31">
         <v>255</v>
       </c>
@@ -21962,7 +22703,7 @@
         <v>338</v>
       </c>
       <c r="CI31">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="CJ31">
         <v>517</v>
@@ -22127,15 +22868,19 @@
         <v>0.3</v>
       </c>
       <c r="AG32" s="14">
+        <f t="shared" ref="AG32:AJ32" si="172">AG31/AG14</f>
         <v>3.078125</v>
       </c>
       <c r="AH32" s="14">
+        <f t="shared" si="172"/>
         <v>10.772727272727273</v>
       </c>
       <c r="AI32" s="14">
+        <f t="shared" si="172"/>
         <v>10.958333333333334</v>
       </c>
       <c r="AJ32" s="14">
+        <f t="shared" si="172"/>
         <v>-19.363636363636363</v>
       </c>
       <c r="AK32" s="14">
@@ -22154,18 +22899,23 @@
         <v>3.1496598639455784</v>
       </c>
       <c r="AP32" s="14">
-        <v>0</v>
+        <f>AP31/AP14</f>
+        <v>2.1621621621621623E-2</v>
       </c>
       <c r="AQ32" s="14">
-        <v>0</v>
+        <f t="shared" ref="AQ32:AT32" si="173">AQ31/AQ14</f>
+        <v>3.4615384615384617E-2</v>
       </c>
       <c r="AR32" s="14">
-        <v>0</v>
+        <f t="shared" si="173"/>
+        <v>2.0222222222222221</v>
       </c>
       <c r="AS32" s="14">
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AT32" s="14">
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AU32" s="14">
@@ -22264,19 +23014,19 @@
         <v>0.81182795698924726</v>
       </c>
       <c r="BZ32" s="14">
-        <f t="shared" ref="BZ32:CC32" si="172">BZ31/BZ14</f>
+        <f t="shared" ref="BZ32:CC32" si="174">BZ31/BZ14</f>
         <v>0.87431693989071035</v>
       </c>
       <c r="CA32" s="14">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0.55521472392638038</v>
       </c>
       <c r="CB32" s="14">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>1.8013245033112584</v>
       </c>
       <c r="CC32" s="14">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>1.2804232804232805</v>
       </c>
       <c r="CD32" s="14">
@@ -22300,22 +23050,23 @@
         <v>1.6568627450980393</v>
       </c>
       <c r="CI32" s="14">
-        <v>0</v>
+        <f>CI31/CI14</f>
+        <v>4.2327586206896548</v>
       </c>
       <c r="CJ32" s="14">
         <f>CJ31/CJ14</f>
         <v>2.2675438596491229</v>
       </c>
       <c r="CK32" s="14">
-        <f t="shared" ref="CK32:CM32" si="173">CK31/CK14</f>
+        <f t="shared" ref="CK32:CM32" si="175">CK31/CK14</f>
         <v>19.16</v>
       </c>
       <c r="CL32" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.83371824480369516</v>
       </c>
       <c r="CM32" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>1.0990712074303406</v>
       </c>
       <c r="CN32" s="14">
@@ -22505,18 +23256,23 @@
         <v>1.6476868327402134</v>
       </c>
       <c r="AP33" s="14">
-        <v>0</v>
+        <f>AP31/AP11</f>
+        <v>5.0632911392405064E-3</v>
       </c>
       <c r="AQ33" s="14">
-        <v>0</v>
+        <f t="shared" ref="AQ33:AT33" si="176">AQ31/AQ11</f>
+        <v>7.2580645161290326E-3</v>
       </c>
       <c r="AR33" s="14">
-        <v>0</v>
+        <f t="shared" si="176"/>
+        <v>0.14218749999999999</v>
       </c>
       <c r="AS33" s="14">
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AT33" s="14">
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AU33" s="14">
@@ -22615,19 +23371,19 @@
         <v>0.1799761620977354</v>
       </c>
       <c r="BZ33" s="14">
-        <f t="shared" ref="BZ33:CC33" si="174">BZ31/BZ11</f>
+        <f t="shared" ref="BZ33:CC33" si="177">BZ31/BZ11</f>
         <v>0.20227560050568899</v>
       </c>
       <c r="CA33" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>0.19483315392895587</v>
       </c>
       <c r="CB33" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>0.51127819548872178</v>
       </c>
       <c r="CC33" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>0.40468227424749165</v>
       </c>
       <c r="CD33" s="14">
@@ -22651,22 +23407,23 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="CI33" s="14">
-        <v>0</v>
+        <f>CI31/CI11</f>
+        <v>0.7339312406576981</v>
       </c>
       <c r="CJ33" s="14">
         <f>CJ31/CJ11</f>
         <v>0.87925170068027214</v>
       </c>
       <c r="CK33" s="14">
-        <f t="shared" ref="CK33:CM33" si="175">CK31/CK11</f>
+        <f t="shared" ref="CK33:CM33" si="178">CK31/CK11</f>
         <v>1.1062355658198615</v>
       </c>
       <c r="CL33" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="CM33" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>1.0889570552147239</v>
       </c>
       <c r="CN33" s="14">
@@ -22856,19 +23613,24 @@
         <v>0.75088967971530252</v>
       </c>
       <c r="AP34" s="14">
-        <v>0</v>
+        <f>AP12/AP11</f>
+        <v>0.62658227848101267</v>
       </c>
       <c r="AQ34" s="14">
-        <v>0</v>
+        <f t="shared" ref="AQ34:AT34" si="179">AQ12/AQ11</f>
+        <v>0.67741935483870963</v>
       </c>
       <c r="AR34" s="14">
-        <v>0</v>
+        <f t="shared" si="179"/>
+        <v>1.03125</v>
       </c>
       <c r="AS34" s="14">
-        <v>0</v>
+        <f t="shared" si="179"/>
+        <v>0.95238095238095233</v>
       </c>
       <c r="AT34" s="14">
-        <v>0</v>
+        <f t="shared" si="179"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AU34" s="14">
         <v>0.3518237082066869</v>
@@ -22966,19 +23728,19 @@
         <v>0.48271752085816449</v>
       </c>
       <c r="BZ34" s="14">
-        <f t="shared" ref="BZ34:CC34" si="176">BZ12/BZ11</f>
+        <f t="shared" ref="BZ34:CC34" si="180">BZ12/BZ11</f>
         <v>0.46144121365360302</v>
       </c>
       <c r="CA34" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.38213132400430572</v>
       </c>
       <c r="CB34" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.38721804511278196</v>
       </c>
       <c r="CC34" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.41638795986622074</v>
       </c>
       <c r="CD34" s="14">
@@ -23002,22 +23764,23 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="CI34" s="14">
-        <v>0</v>
+        <f>CI12/CI11</f>
+        <v>0.39760837070254113</v>
       </c>
       <c r="CJ34" s="14">
         <f>CJ12/CJ11</f>
         <v>0.33673469387755101</v>
       </c>
       <c r="CK34" s="14">
-        <f t="shared" ref="CK34:CM34" si="177">CK12/CK11</f>
+        <f t="shared" ref="CK34:CM34" si="181">CK12/CK11</f>
         <v>0.50577367205542723</v>
       </c>
       <c r="CL34" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>0.51702786377708976</v>
       </c>
       <c r="CM34" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>0.50613496932515334</v>
       </c>
       <c r="CN34" s="14">
@@ -23086,87 +23849,87 @@
         <v>133</v>
       </c>
       <c r="B35" s="18" t="e">
-        <f t="shared" ref="B35:AO35" si="178">(B12+B15)/B11</f>
+        <f t="shared" ref="B35:AO35" si="182">(B12+B15)/B11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.46464646464646464</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.52826086956521745</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.83225806451612905</v>
       </c>
       <c r="G35" s="18" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>1.0337662337662337</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.75452716297786715</v>
       </c>
       <c r="J35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>3.4503816793893129</v>
       </c>
       <c r="K35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.73498233215547704</v>
       </c>
       <c r="L35" s="18" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.7822349570200573</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.77734375</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.39209726443769</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.44327176781002636</v>
       </c>
       <c r="Q35" s="18" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.72</v>
       </c>
       <c r="S35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.54639175257731953</v>
       </c>
       <c r="T35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.84166666666666667</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="V35" s="18" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="18">
@@ -23182,194 +23945,199 @@
         <v>0</v>
       </c>
       <c r="AA35" s="18" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.48466257668711654</v>
       </c>
       <c r="AC35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.46651785714285715</v>
       </c>
       <c r="AD35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.59058823529411764</v>
       </c>
       <c r="AE35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.63513513513513509</v>
       </c>
       <c r="AF35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.78201124297314173</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.51282051282051277</v>
       </c>
       <c r="AH35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.64</v>
       </c>
       <c r="AI35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.505</v>
       </c>
       <c r="AJ35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.99736842105263157</v>
       </c>
       <c r="AK35" s="18">
         <v>0</v>
       </c>
       <c r="AL35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.3904109589041096</v>
       </c>
       <c r="AM35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.5083333333333333</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.98305084745762716</v>
       </c>
       <c r="AO35" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.95017793594306055</v>
       </c>
       <c r="AP35" s="18">
-        <v>0</v>
+        <f>AP12/AP11</f>
+        <v>0.62658227848101267</v>
       </c>
       <c r="AQ35" s="18">
-        <v>0</v>
+        <f t="shared" ref="AQ35:AT35" si="183">AQ12/AQ11</f>
+        <v>0.67741935483870963</v>
       </c>
       <c r="AR35" s="18">
-        <v>0</v>
+        <f t="shared" si="183"/>
+        <v>1.03125</v>
       </c>
       <c r="AS35" s="18">
-        <v>0</v>
+        <f t="shared" si="183"/>
+        <v>0.95238095238095233</v>
       </c>
       <c r="AT35" s="18">
-        <v>0</v>
+        <f t="shared" si="183"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AU35" s="18">
         <f>(AU12+AU15)/AU11</f>
         <v>0.55927051671732519</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" ref="AV35:CR35" si="179">(AV12+AV15)/AV11</f>
+        <f t="shared" ref="AV35:CR35" si="184">(AV12+AV15)/AV11</f>
         <v>0.60251798561151082</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.46243902439024392</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.79192546583850931</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.63019693654266962</v>
       </c>
       <c r="AZ35" s="18">
         <v>0</v>
       </c>
       <c r="BA35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.47720364741641336</v>
       </c>
       <c r="BB35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.41719745222929938</v>
       </c>
       <c r="BC35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.45027322404371589</v>
       </c>
       <c r="BD35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.28799999999999998</v>
       </c>
       <c r="BE35" s="18">
         <v>0</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.53909465020576131</v>
       </c>
       <c r="BG35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.59872611464968151</v>
       </c>
       <c r="BH35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.66233766233766234</v>
       </c>
       <c r="BI35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.68440366972477062</v>
       </c>
       <c r="BJ35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.60141509433962259</v>
       </c>
       <c r="BK35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.63194444444444442</v>
       </c>
       <c r="BL35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.42398286937901497</v>
       </c>
       <c r="BM35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.41038961038961042</v>
       </c>
       <c r="BN35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.38725490196078433</v>
       </c>
       <c r="BO35" s="18">
         <v>0</v>
       </c>
       <c r="BP35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.35876288659793809</v>
       </c>
       <c r="BQ35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.51063829787234039</v>
       </c>
       <c r="BR35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.62093023255813951</v>
       </c>
       <c r="BS35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.51098901098901095</v>
       </c>
       <c r="BT35" s="18" t="e">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.79005524861878451</v>
       </c>
       <c r="BV35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.6191860465116279</v>
       </c>
       <c r="BW35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="BX35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.62051282051282053</v>
       </c>
       <c r="BY35" s="18">
@@ -23377,19 +24145,19 @@
         <v>0.66150178784266989</v>
       </c>
       <c r="BZ35" s="18">
-        <f t="shared" ref="BZ35:CC35" si="180">(BZ12+BZ15)/BZ11</f>
+        <f t="shared" ref="BZ35:CC35" si="185">(BZ12+BZ15)/BZ11</f>
         <v>0.59418457648546141</v>
       </c>
       <c r="CA35" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="185"/>
         <v>0.46932185145317545</v>
       </c>
       <c r="CB35" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="185"/>
         <v>0.61654135338345861</v>
       </c>
       <c r="CC35" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="185"/>
         <v>0.59866220735785958</v>
       </c>
       <c r="CD35" s="18">
@@ -23413,41 +24181,42 @@
         <v>0.54749999999999999</v>
       </c>
       <c r="CI35" s="18">
-        <v>0</v>
+        <f>(CI12+CI15)/CI11</f>
+        <v>0.51270553064275037</v>
       </c>
       <c r="CJ35" s="18">
         <f>(CJ12+CJ15)/CJ11</f>
         <v>0.46598639455782315</v>
       </c>
       <c r="CK35" s="18">
-        <f t="shared" ref="CK35:CM35" si="181">(CK12+CK15)/CK11</f>
+        <f t="shared" ref="CK35:CM35" si="186">(CK12+CK15)/CK11</f>
         <v>0.69976905311778292</v>
       </c>
       <c r="CL35" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>0.84210526315789469</v>
       </c>
       <c r="CM35" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="186"/>
         <v>0.94785276073619629</v>
       </c>
       <c r="CN35" s="18">
         <v>0</v>
       </c>
       <c r="CO35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.80172413793103448</v>
       </c>
       <c r="CP35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.40602409638554221</v>
       </c>
       <c r="CQ35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.48159509202453987</v>
       </c>
       <c r="CR35" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="184"/>
         <v>0.38500000000000001</v>
       </c>
     </row>
@@ -23524,7 +24293,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="G9 BT9 CN9 AP9:AZ9 AK9 V9:X9 Q9 L9 BE9 BO9 CI9 AA9" formulaRange="1"/>
+    <ignoredError sqref="G9 BT9 CN9 AK9 V9:X9 Q9 L9 BE9 BO9 AA9 AZ9" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -23536,10 +24305,10 @@
   <dimension ref="A1:DG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AF10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AO17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF29" sqref="AF29"/>
+      <selection pane="bottomRight" activeCell="AQ31" sqref="AQ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24221,11 +24990,26 @@
         <f>Painel!AO3*IPC!J$3</f>
         <v>128.49827346296391</v>
       </c>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
+      <c r="AP3" s="14">
+        <f>Painel!AP3</f>
+        <v>75</v>
+      </c>
+      <c r="AQ3" s="14">
+        <f>Painel!AQ3*IPC!G$3</f>
+        <v>90.772000000000006</v>
+      </c>
+      <c r="AR3" s="14">
+        <f>Painel!AR3*IPC!H$3</f>
+        <v>43.467410000000008</v>
+      </c>
+      <c r="AS3" s="14">
+        <f>Painel!AS3*IPC!I$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="14">
+        <f>Painel!AT3*IPC!J$3</f>
+        <v>0</v>
+      </c>
       <c r="AU3" s="1">
         <v>425</v>
       </c>
@@ -24369,7 +25153,10 @@
         <f>Painel!CH3*IPC!J$3</f>
         <v>138.57656942084344</v>
       </c>
-      <c r="CI3" s="14"/>
+      <c r="CI3" s="14">
+        <f>Painel!CI3+Painel!CI7</f>
+        <v>259</v>
+      </c>
       <c r="CJ3" s="14">
         <f>Painel!CJ3*IPC!G$3</f>
         <v>211.45750000000001</v>
@@ -24595,11 +25382,26 @@
         <f>Painel!AO4*IPC!J$3</f>
         <v>32.754461863108446</v>
       </c>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
+      <c r="AP4" s="14">
+        <f>Painel!AP4</f>
+        <v>6.3</v>
+      </c>
+      <c r="AQ4" s="14">
+        <f>Painel!AQ4*IPC!G$3</f>
+        <v>5.6732500000000003</v>
+      </c>
+      <c r="AR4" s="14">
+        <f>Painel!AR4*IPC!H$3</f>
+        <v>9.5628302000000023</v>
+      </c>
+      <c r="AS4" s="14">
+        <f>Painel!AS4*IPC!I$3</f>
+        <v>9.5402271468000013</v>
+      </c>
+      <c r="AT4" s="14">
+        <f>Painel!AT4*IPC!J$3</f>
+        <v>30.234887873638566</v>
+      </c>
       <c r="AU4" s="14">
         <f>Resultado!K3</f>
         <v>183</v>
@@ -24748,7 +25550,10 @@
         <f>Painel!CH4*IPC!J$3</f>
         <v>28.975100878903625</v>
       </c>
-      <c r="CI4" s="14"/>
+      <c r="CI4" s="14">
+        <f>Painel!CI4</f>
+        <v>46</v>
+      </c>
       <c r="CJ4" s="14">
         <f>Painel!CJ4*IPC!G$3</f>
         <v>55.701000000000008</v>
@@ -24974,11 +25779,26 @@
         <f>Painel!AO5*IPC!J$3</f>
         <v>22.676165905228924</v>
       </c>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
+      <c r="AP5" s="14">
+        <f>Painel!AP5</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AQ5" s="14">
+        <f>Painel!AQ5*IPC!G$3</f>
+        <v>13.718950000000001</v>
+      </c>
+      <c r="AR5" s="14">
+        <f>Painel!AR5*IPC!H$3</f>
+        <v>4.2380724750000009</v>
+      </c>
+      <c r="AS5" s="14">
+        <f>Painel!AS5*IPC!I$3</f>
+        <v>4.7701135734000005E-2</v>
+      </c>
+      <c r="AT5" s="14">
+        <f>Painel!AT5*IPC!J$3</f>
+        <v>1.6377230931554223</v>
+      </c>
       <c r="AU5" s="14">
         <f>Resultado!K4</f>
         <v>169</v>
@@ -25127,7 +25947,10 @@
         <f>Painel!CH5*IPC!J$3</f>
         <v>30.234887873638566</v>
       </c>
-      <c r="CI5" s="14"/>
+      <c r="CI5" s="14">
+        <f>Painel!CI5</f>
+        <v>110</v>
+      </c>
       <c r="CJ5" s="14">
         <f>Painel!CJ5*IPC!G$3</f>
         <v>66.016000000000005</v>
@@ -25329,11 +26152,26 @@
         <f>Painel!AO6*IPC!J$3</f>
         <v>17.637017926289165</v>
       </c>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
+      <c r="AP6" s="14">
+        <f>Painel!AP6</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="14">
+        <f>Painel!AQ6*IPC!G$3</f>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="14">
+        <f>Painel!AR6*IPC!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="14">
+        <f>Painel!AS6*IPC!I$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="14">
+        <f>Painel!AT6*IPC!J$3</f>
+        <v>0</v>
+      </c>
       <c r="AU6" s="14">
         <f>Resultado!K5</f>
         <v>90</v>
@@ -25455,7 +26293,10 @@
       <c r="CF6" s="14"/>
       <c r="CG6" s="14"/>
       <c r="CH6" s="14"/>
-      <c r="CI6" s="14"/>
+      <c r="CI6" s="14">
+        <f>Painel!CI6</f>
+        <v>21</v>
+      </c>
       <c r="CJ6" s="14">
         <f>Painel!CJ6*IPC!G$3</f>
         <v>18.567</v>
@@ -25594,11 +26435,26 @@
       <c r="AM7" s="14"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
+      <c r="AP7" s="14">
+        <f>Painel!AP7</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="14">
+        <f>Painel!AQ7*IPC!G$3</f>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="14">
+        <f>Painel!AR7*IPC!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="14">
+        <f>Painel!AS7*IPC!I$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="14">
+        <f>Painel!AT7*IPC!J$3</f>
+        <v>0</v>
+      </c>
       <c r="AU7" s="14">
         <f>Resultado!K6</f>
         <v>137</v>
@@ -25720,7 +26576,10 @@
       <c r="CF7" s="14"/>
       <c r="CG7" s="14"/>
       <c r="CH7" s="14"/>
-      <c r="CI7" s="14"/>
+      <c r="CI7" s="14">
+        <f>Painel!CI7</f>
+        <v>0</v>
+      </c>
       <c r="CJ7" s="14">
         <f>Painel!CJ7*IPC!G$3</f>
         <v>29.913500000000003</v>
@@ -25874,11 +26733,26 @@
       <c r="AM8" s="14"/>
       <c r="AN8" s="14"/>
       <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
+      <c r="AP8" s="14">
+        <f>Painel!AP8</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="14">
+        <f>Painel!AQ8*IPC!G$3</f>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="14">
+        <f>Painel!AR8*IPC!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="14">
+        <f>Painel!AS8*IPC!I$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="14">
+        <f>Painel!AT8*IPC!J$3</f>
+        <v>0</v>
+      </c>
       <c r="AU8" s="14">
         <f>Resultado!K7</f>
         <v>59</v>
@@ -25991,7 +26865,10 @@
         <f>Painel!CH8*IPC!J$3</f>
         <v>3.1494674868373504</v>
       </c>
-      <c r="CI8" s="14"/>
+      <c r="CI8" s="14">
+        <f>Painel!CI8</f>
+        <v>18</v>
+      </c>
       <c r="CJ8" s="14">
         <f>Painel!CJ8*IPC!G$3</f>
         <v>16.504000000000001</v>
@@ -26217,11 +27094,26 @@
         <f t="shared" ref="AO9" si="18">SUM(AO3:AO8)-AO7</f>
         <v>201.56591915759043</v>
       </c>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
+      <c r="AP9" s="14">
+        <f>Painel!AP9</f>
+        <v>97.9</v>
+      </c>
+      <c r="AQ9" s="14">
+        <f>Painel!AQ9*IPC!G$3</f>
+        <v>110.16420000000001</v>
+      </c>
+      <c r="AR9" s="14">
+        <f>Painel!AR9*IPC!H$3</f>
+        <v>57.268312675000004</v>
+      </c>
+      <c r="AS9" s="14">
+        <f>Painel!AS9*IPC!I$3</f>
+        <v>9.5879282825339995</v>
+      </c>
+      <c r="AT9" s="14">
+        <f>Painel!AT9*IPC!J$3</f>
+        <v>31.872610966793989</v>
+      </c>
       <c r="AU9" s="14">
         <f>SUM(AU3:AU8)-AU7</f>
         <v>926</v>
@@ -26370,7 +27262,10 @@
         <f t="shared" ref="CH9" si="41">SUM(CH3:CH8)-CH7</f>
         <v>200.93602566022298</v>
       </c>
-      <c r="CI9" s="14"/>
+      <c r="CI9" s="14">
+        <f>Painel!CI9</f>
+        <v>454</v>
+      </c>
       <c r="CJ9" s="14">
         <f t="shared" ref="CJ9" si="42">SUM(CJ3:CJ8)-CJ7</f>
         <v>368.24550000000005</v>
@@ -26596,11 +27491,26 @@
         <f>Painel!AO10*IPC!J$3</f>
         <v>136.05699543137354</v>
       </c>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
+      <c r="AP10" s="14">
+        <f>Painel!AP10</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="14">
+        <f>Painel!AQ10*IPC!G$3</f>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="14">
+        <f>Painel!AR10*IPC!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="14">
+        <f>Painel!AS10*IPC!I$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="14">
+        <f>Painel!AT10*IPC!J$3</f>
+        <v>0</v>
+      </c>
       <c r="AU10" s="14">
         <f>Resultado!K9</f>
         <v>303</v>
@@ -26749,7 +27659,10 @@
         <f>Painel!CH10*IPC!J$3</f>
         <v>272.11399086274707</v>
       </c>
-      <c r="CI10" s="14"/>
+      <c r="CI10" s="14">
+        <f>Painel!CI10</f>
+        <v>121</v>
+      </c>
       <c r="CJ10" s="14">
         <f>Painel!CJ10*IPC!G$3</f>
         <v>236.21350000000001</v>
@@ -26975,11 +27888,26 @@
         <f>Painel!AO11*IPC!J$3</f>
         <v>354.00014552051823</v>
       </c>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
+      <c r="AP11" s="14">
+        <f>Painel!AP11</f>
+        <v>158</v>
+      </c>
+      <c r="AQ11" s="14">
+        <f>Painel!AQ11*IPC!G$3</f>
+        <v>127.90600000000001</v>
+      </c>
+      <c r="AR11" s="14">
+        <f>Painel!AR11*IPC!H$3</f>
+        <v>69.54785600000001</v>
+      </c>
+      <c r="AS11" s="14">
+        <f>Painel!AS11*IPC!I$3</f>
+        <v>25.043096260350005</v>
+      </c>
+      <c r="AT11" s="14">
+        <f>Painel!AT11*IPC!J$3</f>
+        <v>26.455526889433745</v>
+      </c>
       <c r="AU11" s="14">
         <f>Resultado!K11</f>
         <v>1316</v>
@@ -27128,7 +28056,10 @@
         <f>Painel!CH11*IPC!J$3</f>
         <v>503.91479789397613</v>
       </c>
-      <c r="CI11" s="14"/>
+      <c r="CI11" s="14">
+        <f>Painel!CI11</f>
+        <v>669</v>
+      </c>
       <c r="CJ11" s="14">
         <f>Painel!CJ11*IPC!G$3</f>
         <v>606.52200000000005</v>
@@ -27354,11 +28285,26 @@
         <f>Painel!AO12*IPC!J$3</f>
         <v>265.81505588907237</v>
       </c>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
+      <c r="AP12" s="14">
+        <f>Painel!AP12</f>
+        <v>99</v>
+      </c>
+      <c r="AQ12" s="14">
+        <f>Painel!AQ12*IPC!G$3</f>
+        <v>86.646000000000001</v>
+      </c>
+      <c r="AR12" s="14">
+        <f>Painel!AR12*IPC!H$3</f>
+        <v>71.721226500000014</v>
+      </c>
+      <c r="AS12" s="14">
+        <f>Painel!AS12*IPC!I$3</f>
+        <v>23.850567867000002</v>
+      </c>
+      <c r="AT12" s="14">
+        <f>Painel!AT12*IPC!J$3</f>
+        <v>22.676165905228924</v>
+      </c>
       <c r="AU12" s="14">
         <f>Índices!K28</f>
         <v>463</v>
@@ -27507,7 +28453,10 @@
         <f>Painel!CH12*IPC!J$3</f>
         <v>209.12464112600009</v>
       </c>
-      <c r="CI12" s="14"/>
+      <c r="CI12" s="14">
+        <f>Painel!CI12</f>
+        <v>266</v>
+      </c>
       <c r="CJ12" s="14">
         <f>Painel!CJ12*IPC!G$3</f>
         <v>204.23700000000002</v>
@@ -27733,11 +28682,26 @@
         <f>Painel!AO13*IPC!J$3</f>
         <v>-496.35607592556647</v>
       </c>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
+      <c r="AP13" s="14">
+        <f>Painel!AP13</f>
+        <v>37</v>
+      </c>
+      <c r="AQ13" s="14">
+        <f>Painel!AQ13*IPC!G$3</f>
+        <v>26.819000000000003</v>
+      </c>
+      <c r="AR13" s="14">
+        <f>Painel!AR13*IPC!H$3</f>
+        <v>-5.433426250000001</v>
+      </c>
+      <c r="AS13" s="14">
+        <f>Painel!AS13*IPC!I$3</f>
+        <v>-0.23850567867000005</v>
+      </c>
+      <c r="AT13" s="14">
+        <f>Painel!AT13*IPC!J$3</f>
+        <v>2.1416378910493985</v>
+      </c>
       <c r="AU13" s="14">
         <f>Resultado!K21</f>
         <v>320</v>
@@ -27886,7 +28850,10 @@
         <f>Painel!CH13*IPC!J$3</f>
         <v>30.234887873638566</v>
       </c>
-      <c r="CI13" s="14"/>
+      <c r="CI13" s="14">
+        <f>Painel!CI13</f>
+        <v>62</v>
+      </c>
       <c r="CJ13" s="14">
         <f>Painel!CJ13*IPC!G$3</f>
         <v>38.165500000000002</v>
@@ -28112,11 +29079,26 @@
         <f>Painel!AO14*IPC!J$3</f>
         <v>185.18868822603622</v>
       </c>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
+      <c r="AP14" s="14">
+        <f>Painel!AP14</f>
+        <v>37</v>
+      </c>
+      <c r="AQ14" s="14">
+        <f>Painel!AQ14*IPC!G$3</f>
+        <v>26.819000000000003</v>
+      </c>
+      <c r="AR14" s="14">
+        <f>Painel!AR14*IPC!H$3</f>
+        <v>4.8900836250000008</v>
+      </c>
+      <c r="AS14" s="14">
+        <f>Painel!AS14*IPC!I$3</f>
+        <v>2.146551108030001</v>
+      </c>
+      <c r="AT14" s="14">
+        <f>Painel!AT14*IPC!J$3</f>
+        <v>7.5587219684096416</v>
+      </c>
       <c r="AU14" s="14">
         <v>485</v>
       </c>
@@ -28260,7 +29242,10 @@
         <f>Painel!CH14*IPC!J$3</f>
         <v>256.99654692592782</v>
       </c>
-      <c r="CI14" s="14"/>
+      <c r="CI14" s="14">
+        <f>Painel!CI14</f>
+        <v>116</v>
+      </c>
       <c r="CJ14" s="14">
         <f>Painel!CJ14*IPC!G$3</f>
         <v>235.18200000000002</v>
@@ -28486,11 +29471,26 @@
         <f>Painel!AO15*IPC!J$3</f>
         <v>70.548071705156659</v>
       </c>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
+      <c r="AP15" s="14">
+        <f>Painel!AP15</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="14">
+        <f>Painel!AQ15*IPC!G$3</f>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="14">
+        <f>Painel!AR15*IPC!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="14">
+        <f>Painel!AS15*IPC!I$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="14">
+        <f>Painel!AT15*IPC!J$3</f>
+        <v>0</v>
+      </c>
       <c r="AU15" s="14">
         <v>273</v>
       </c>
@@ -28637,7 +29637,10 @@
         <f>Painel!CH15*IPC!J$3</f>
         <v>66.76871072095183</v>
       </c>
-      <c r="CI15" s="14"/>
+      <c r="CI15" s="14">
+        <f>Painel!CI15</f>
+        <v>77</v>
+      </c>
       <c r="CJ15" s="14">
         <f>Painel!CJ15*IPC!G$3</f>
         <v>78.394000000000005</v>
@@ -28863,11 +29866,26 @@
         <f>Painel!AO16*IPC!J$3</f>
         <v>23.935952899963866</v>
       </c>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
+      <c r="AP16" s="14">
+        <f>Painel!AP16</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="14">
+        <f>Painel!AQ16*IPC!G$3</f>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="14">
+        <f>Painel!AR16*IPC!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="14">
+        <f>Painel!AS16*IPC!I$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="14">
+        <f>Painel!AT16*IPC!J$3</f>
+        <v>0</v>
+      </c>
       <c r="AU16" s="22">
         <v>16</v>
       </c>
@@ -29014,7 +30032,10 @@
         <f>Painel!CH16*IPC!J$3</f>
         <v>11.338082952614462</v>
       </c>
-      <c r="CI16" s="14"/>
+      <c r="CI16" s="14">
+        <f>Painel!CI16</f>
+        <v>34</v>
+      </c>
       <c r="CJ16" s="14">
         <f>Painel!CJ16*IPC!G$3</f>
         <v>16.504000000000001</v>
@@ -29224,10 +30245,18 @@
       <c r="AP17" s="14">
         <v>0.1</v>
       </c>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
+      <c r="AQ17" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AR17" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AS17" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AT17" s="14">
+        <v>0.1</v>
+      </c>
       <c r="AU17" s="14">
         <v>21.9</v>
       </c>
@@ -29551,10 +30580,18 @@
       <c r="AP18" s="14">
         <v>0.2</v>
       </c>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
+      <c r="AQ18" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="AR18" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="AS18" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="AT18" s="14">
+        <v>0.2</v>
+      </c>
       <c r="AU18" s="14">
         <v>48.1</v>
       </c>
@@ -29881,6 +30918,12 @@
       <c r="AR19">
         <v>47</v>
       </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
       <c r="AU19">
         <v>66</v>
       </c>
@@ -30178,8 +31221,12 @@
       <c r="AR20" s="6">
         <v>0.11051724646602176</v>
       </c>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
+      <c r="AS20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="6">
+        <v>0</v>
+      </c>
       <c r="AU20" s="6">
         <v>0.93059368160701894</v>
       </c>
@@ -30512,10 +31559,19 @@
       <c r="AP21" s="6">
         <v>14.9</v>
       </c>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
+      <c r="AQ21" s="14">
+        <f>Painel!AQ21*IPC!G$3</f>
+        <v>12.378</v>
+      </c>
+      <c r="AR21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="14">
+        <v>0</v>
+      </c>
       <c r="AU21" s="6">
         <v>69.599999999999994</v>
       </c>
@@ -30866,10 +31922,19 @@
       <c r="AP22" s="6">
         <v>782</v>
       </c>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
+      <c r="AQ22" s="14">
+        <f>Painel!AQ22*IPC!G$3</f>
+        <v>651.47368421052636</v>
+      </c>
+      <c r="AR22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="14">
+        <v>0</v>
+      </c>
       <c r="AU22" s="6">
         <v>3661</v>
       </c>
@@ -31432,7 +32497,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="14">
-        <f t="shared" ref="B24:AP24" si="62">B11/B18</f>
+        <f t="shared" ref="B24:AT24" si="62">B11/B18</f>
         <v>0</v>
       </c>
       <c r="C24" s="14">
@@ -31593,12 +32658,24 @@
       </c>
       <c r="AP24" s="14">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
+        <v>790</v>
+      </c>
+      <c r="AQ24" s="14">
+        <f t="shared" si="62"/>
+        <v>639.53</v>
+      </c>
+      <c r="AR24" s="14">
+        <f t="shared" si="62"/>
+        <v>347.73928000000001</v>
+      </c>
+      <c r="AS24" s="14">
+        <f t="shared" si="62"/>
+        <v>125.21548130175002</v>
+      </c>
+      <c r="AT24" s="14">
+        <f t="shared" si="62"/>
+        <v>132.27763444716871</v>
+      </c>
       <c r="AU24" s="14">
         <f>AU11/AU18</f>
         <v>27.359667359667359</v>
@@ -31761,7 +32838,7 @@
       </c>
       <c r="CI24" s="14">
         <f>CI11/CI18</f>
-        <v>0</v>
+        <v>30.688073394495412</v>
       </c>
       <c r="CJ24" s="14">
         <f t="shared" ref="CJ24:CM24" si="68">CJ11/CJ18</f>
@@ -31933,11 +33010,21 @@
         <f t="shared" si="74"/>
         <v>5.6842105263157885</v>
       </c>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="14"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
+      <c r="AP25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="14">
+        <v>0</v>
+      </c>
       <c r="AU25" s="14">
         <f>AU10/AU16</f>
         <v>18.9375</v>
@@ -32085,9 +33172,12 @@
         <f t="shared" si="82"/>
         <v>24</v>
       </c>
-      <c r="CI25" s="14"/>
+      <c r="CI25" s="14">
+        <f t="shared" ref="CI25:CM25" si="83">CI10/CI16</f>
+        <v>3.5588235294117645</v>
+      </c>
       <c r="CJ25" s="14">
-        <f t="shared" ref="CJ25:CM25" si="83">CJ10/CJ16</f>
+        <f t="shared" si="83"/>
         <v>14.3125</v>
       </c>
       <c r="CK25" s="14">
@@ -32277,8 +33367,12 @@
       <c r="AR26" s="14">
         <v>0</v>
       </c>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
+      <c r="AS26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="14">
+        <v>0</v>
+      </c>
       <c r="AU26" s="14">
         <f>AU10/AU19</f>
         <v>4.5909090909090908</v>
@@ -32435,7 +33529,7 @@
       </c>
       <c r="CI26" s="14">
         <f>CI10/CI19</f>
-        <v>0</v>
+        <v>2.2830188679245285</v>
       </c>
       <c r="CJ26" s="14">
         <f t="shared" ref="CJ26:CM26" si="101">CJ10/CJ19</f>
@@ -32610,11 +33704,21 @@
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
+      <c r="AP27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="35">
+        <v>0</v>
+      </c>
       <c r="AU27" s="14">
         <f>AU7/AU12</f>
         <v>0.29589632829373652</v>
@@ -32762,9 +33866,12 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="CI27" s="14"/>
+      <c r="CI27" s="14">
+        <f t="shared" ref="CI27:CM27" si="118">CI7/CI12</f>
+        <v>0</v>
+      </c>
       <c r="CJ27" s="14">
-        <f t="shared" ref="CJ27:CM27" si="118">CJ7/CJ12</f>
+        <f t="shared" si="118"/>
         <v>0.14646464646464646</v>
       </c>
       <c r="CK27" s="14">
@@ -32946,72 +34053,79 @@
         <v>7.3837515524742328</v>
       </c>
       <c r="AP28" s="14">
-        <v>0</v>
+        <f>AP12/AP19</f>
+        <v>1.9411764705882353</v>
       </c>
       <c r="AQ28" s="14">
-        <v>0</v>
+        <f t="shared" ref="AQ28:AT28" si="128">AQ12/AQ19</f>
+        <v>2.1133170731707316</v>
       </c>
       <c r="AR28" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="14"/>
-      <c r="AT28" s="14"/>
+        <f t="shared" si="128"/>
+        <v>1.5259835425531918</v>
+      </c>
+      <c r="AS28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="14">
+        <v>0</v>
+      </c>
       <c r="AU28" s="14">
         <f>AU12/AU19</f>
         <v>7.0151515151515156</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" ref="AV28:AY28" si="128">AV12/AV19</f>
+        <f t="shared" ref="AV28:AY28" si="129">AV12/AV19</f>
         <v>7.3036854838709679</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>5.4181208239436627</v>
       </c>
       <c r="AX28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>5.5763299520028182</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>4.5632284475954501</v>
       </c>
       <c r="AZ28" s="14">
         <v>0</v>
       </c>
       <c r="BA28" s="14">
-        <f t="shared" ref="BA28:BD28" si="129">BA12/BA19</f>
+        <f t="shared" ref="BA28:BD28" si="130">BA12/BA19</f>
         <v>1.9156428571428572</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>2.3746085092592599</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1.3788609548109376</v>
       </c>
       <c r="BD28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1.6705871017137253</v>
       </c>
       <c r="BE28" s="14">
         <v>0</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" ref="BF28:BI28" si="130">BF12/BF19</f>
+        <f t="shared" ref="BF28:BI28" si="131">BF12/BF19</f>
         <v>1.5941363636363639</v>
       </c>
       <c r="BG28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>1.4239323965517243</v>
       </c>
       <c r="BH28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>1.2797865684731708</v>
       </c>
       <c r="BI28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>1.6401000497492619</v>
       </c>
       <c r="BJ28" s="14">
@@ -33022,52 +34136,52 @@
         <v>0</v>
       </c>
       <c r="BL28" s="14">
-        <f t="shared" ref="BL28:BN28" si="131">BL12/BL19</f>
+        <f t="shared" ref="BL28:BN28" si="132">BL12/BL19</f>
         <v>3.4116862500000007</v>
       </c>
       <c r="BM28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>2.2233580215000006</v>
       </c>
       <c r="BN28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>2.1125658834785921</v>
       </c>
       <c r="BO28" s="14">
         <v>0</v>
       </c>
       <c r="BP28" s="14">
-        <f t="shared" ref="BP28:BS28" si="132">BP12/BP19</f>
+        <f t="shared" ref="BP28:BS28" si="133">BP12/BP19</f>
         <v>0.73998913043478265</v>
       </c>
       <c r="BQ28" s="14">
         <v>0</v>
       </c>
       <c r="BR28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.514833364525676</v>
       </c>
       <c r="BS28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.99329359200254908</v>
       </c>
       <c r="BT28" s="14">
         <v>0</v>
       </c>
       <c r="BU28" s="14">
-        <f t="shared" ref="BU28:BX28" si="133">BU12/BU19</f>
+        <f t="shared" ref="BU28:BX28" si="134">BU12/BU19</f>
         <v>2.7977671232876715</v>
       </c>
       <c r="BV28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>4.0977089635416677</v>
       </c>
       <c r="BW28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>3.1346460625200003</v>
       </c>
       <c r="BX28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>4.1992899824498009</v>
       </c>
       <c r="BY28" s="14">
@@ -33075,19 +34189,19 @@
         <v>5.7857142857142856</v>
       </c>
       <c r="BZ28" s="14">
-        <f t="shared" ref="BZ28:CC28" si="134">BZ12/BZ19</f>
+        <f t="shared" ref="BZ28:CC28" si="135">BZ12/BZ19</f>
         <v>4.6481172839506177</v>
       </c>
       <c r="CA28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>5.8450494507575765</v>
       </c>
       <c r="CB28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4.2355318798293107</v>
       </c>
       <c r="CC28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4.2390129957972986</v>
       </c>
       <c r="CD28" s="14">
@@ -33095,39 +34209,39 @@
         <v>3.9883720930232558</v>
       </c>
       <c r="CE28" s="14">
-        <f t="shared" ref="CE28:CH28" si="135">CE12/CE19</f>
+        <f t="shared" ref="CE28:CH28" si="136">CE12/CE19</f>
         <v>2.9847659574468088</v>
       </c>
       <c r="CF28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>2.8905827650000004</v>
       </c>
       <c r="CG28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>3.0254887016472227</v>
       </c>
       <c r="CH28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>2.826008663864866</v>
       </c>
       <c r="CI28" s="14">
         <f>CI12/CI19</f>
-        <v>0</v>
+        <v>5.0188679245283021</v>
       </c>
       <c r="CJ28" s="14">
-        <f t="shared" ref="CJ28:CM28" si="136">CJ12/CJ19</f>
+        <f t="shared" ref="CJ28:CM28" si="137">CJ12/CJ19</f>
         <v>3.7821666666666669</v>
       </c>
       <c r="CK28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>4.958001453125001</v>
       </c>
       <c r="CL28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>3.0174582074159093</v>
       </c>
       <c r="CM28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>3.2994421290677005</v>
       </c>
       <c r="CN28" s="14">
@@ -33140,11 +34254,11 @@
         <v>0</v>
       </c>
       <c r="CQ28" s="14">
-        <f t="shared" ref="CQ28:CR28" si="137">CQ12/CQ19</f>
+        <f t="shared" ref="CQ28:CR28" si="138">CQ12/CQ19</f>
         <v>2.2396264948280491</v>
       </c>
       <c r="CR28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>2.2881845414573405</v>
       </c>
     </row>
@@ -33156,11 +34270,11 @@
         <v>0</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29:D29" si="138">C11/C19</f>
+        <f t="shared" ref="C29:D29" si="139">C11/C19</f>
         <v>2.8025660377358492</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>2.0298460330188681</v>
       </c>
       <c r="E29" s="14">
@@ -33173,38 +34287,38 @@
         <v>0</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29:K29" si="139">H11/H19</f>
+        <f t="shared" ref="H29:K29" si="140">H11/H19</f>
         <v>6.8470258620689668</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>6.4295543958333345</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>2.297370875424265</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>7.427494156458085</v>
       </c>
       <c r="L29" s="14">
         <v>0</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" ref="M29:P29" si="140">M11/M19</f>
+        <f t="shared" ref="M29:P29" si="141">M11/M19</f>
         <v>6.2067844827586214</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>5.9189664680851068</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>7.4026762530594352</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>7.4603011094459744</v>
       </c>
       <c r="Q29" s="14">
@@ -33214,67 +34328,67 @@
         <v>0</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" ref="S29:U29" si="141">S11/S19</f>
+        <f t="shared" ref="S29:U29" si="142">S11/S19</f>
         <v>4.9027195000000008</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>3.2523501636818186</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>4.4735293282424413</v>
       </c>
       <c r="V29" s="14">
         <v>0</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" ref="W29:Z29" si="142">W11/W19</f>
+        <f t="shared" ref="W29:Z29" si="143">W11/W19</f>
         <v>2.7636415094339624</v>
       </c>
       <c r="X29" s="14">
         <v>0</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>6.6693254591055569</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5.5957980463807813</v>
       </c>
       <c r="AA29" s="14">
         <v>0</v>
       </c>
       <c r="AB29" s="14">
-        <f t="shared" ref="AB29:AE29" si="143">AB11/AB19</f>
+        <f t="shared" ref="AB29:AE29" si="144">AB11/AB19</f>
         <v>10.346738461538461</v>
       </c>
       <c r="AC29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>8.5409647719298256</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>9.937736611250001</v>
       </c>
       <c r="AE29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>8.3235926437844263</v>
       </c>
       <c r="AF29" s="14">
-        <f t="shared" ref="AF29:AI29" si="144">AF11/AF19</f>
+        <f t="shared" ref="AF29:AI29" si="145">AF11/AF19</f>
         <v>5.3366666666666669</v>
       </c>
       <c r="AG29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>3.8312857142857148</v>
       </c>
       <c r="AH29" s="14">
         <v>0</v>
       </c>
       <c r="AI29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>3.8468657850000008</v>
       </c>
       <c r="AJ29" s="14">
@@ -33293,76 +34407,83 @@
         <v>0</v>
       </c>
       <c r="AO29" s="14">
-        <f t="shared" ref="AO29" si="145">AO11/AO19</f>
+        <f t="shared" ref="AO29" si="146">AO11/AO19</f>
         <v>9.8333373755699505</v>
       </c>
       <c r="AP29" s="14">
-        <v>0</v>
+        <f>AP11/AP19</f>
+        <v>3.0980392156862746</v>
       </c>
       <c r="AQ29" s="14">
-        <v>0</v>
+        <f t="shared" ref="AQ29:AT29" si="147">AQ11/AQ19</f>
+        <v>3.1196585365853662</v>
       </c>
       <c r="AR29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="14"/>
+        <f t="shared" si="147"/>
+        <v>1.4797416170212767</v>
+      </c>
+      <c r="AS29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="14">
+        <v>0</v>
+      </c>
       <c r="AU29" s="14">
         <f>AU11/AU19</f>
         <v>19.939393939393938</v>
       </c>
       <c r="AV29" s="14">
-        <f t="shared" ref="AV29:AY29" si="146">AV11/AV19</f>
+        <f t="shared" ref="AV29:AY29" si="148">AV11/AV19</f>
         <v>18.500451612903227</v>
       </c>
       <c r="AW29" s="14">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>15.688061707746483</v>
       </c>
       <c r="AX29" s="14">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>10.816736412921129</v>
       </c>
       <c r="AY29" s="14">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>12.793836813197059</v>
       </c>
       <c r="AZ29" s="14">
         <v>0</v>
       </c>
       <c r="BA29" s="14">
-        <f t="shared" ref="BA29:BD29" si="147">BA11/BA19</f>
+        <f t="shared" ref="BA29:BD29" si="149">BA11/BA19</f>
         <v>4.8480500000000006</v>
       </c>
       <c r="BB29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>6.3188734907407413</v>
       </c>
       <c r="BC29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>3.4098858747351568</v>
       </c>
       <c r="BD29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>6.8466684496464145</v>
       </c>
       <c r="BE29" s="14">
         <v>0</v>
       </c>
       <c r="BF29" s="14">
-        <f t="shared" ref="BF29:BI29" si="148">BF11/BF19</f>
+        <f t="shared" ref="BF29:BI29" si="150">BF11/BF19</f>
         <v>4.5573545454545457</v>
       </c>
       <c r="BG29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>2.9415445560344828</v>
       </c>
       <c r="BH29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>2.2396264948280491</v>
       </c>
       <c r="BI29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>2.5908826872850659</v>
       </c>
       <c r="BJ29" s="14">
@@ -33373,52 +34494,52 @@
         <v>0</v>
       </c>
       <c r="BL29" s="14">
-        <f t="shared" ref="BL29:BN29" si="149">BL11/BL19</f>
+        <f t="shared" ref="BL29:BN29" si="151">BL11/BL19</f>
         <v>11.801907250000001</v>
       </c>
       <c r="BM29" s="14">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>7.781753075250001</v>
       </c>
       <c r="BN29" s="14">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>7.9075860592593177</v>
       </c>
       <c r="BO29" s="14">
         <v>0</v>
       </c>
       <c r="BP29" s="14">
-        <f t="shared" ref="BP29:BS29" si="150">BP11/BP19</f>
+        <f t="shared" ref="BP29:BS29" si="152">BP11/BP19</f>
         <v>2.1751195652173916</v>
       </c>
       <c r="BQ29" s="14">
         <v>0</v>
       </c>
       <c r="BR29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>2.7718227521108112</v>
       </c>
       <c r="BS29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>2.2046272407861456</v>
       </c>
       <c r="BT29" s="14">
         <v>0</v>
       </c>
       <c r="BU29" s="14">
-        <f t="shared" ref="BU29:BX29" si="151">BU11/BU19</f>
+        <f t="shared" ref="BU29:BX29" si="153">BU11/BU19</f>
         <v>5.1151095890410962</v>
       </c>
       <c r="BV29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>7.7879109583333346</v>
       </c>
       <c r="BW29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>4.429391175300001</v>
       </c>
       <c r="BX29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>8.6195952271338019</v>
       </c>
       <c r="BY29" s="14">
@@ -33426,19 +34547,19 @@
         <v>11.985714285714286</v>
       </c>
       <c r="BZ29" s="14">
-        <f t="shared" ref="BZ29:CC29" si="152">BZ11/BZ19</f>
+        <f t="shared" ref="BZ29:CC29" si="154">BZ11/BZ19</f>
         <v>10.073043209876543</v>
       </c>
       <c r="CA29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>15.295918140151517</v>
       </c>
       <c r="CB29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>10.938363883831036</v>
       </c>
       <c r="CC29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>10.180440849344517</v>
       </c>
       <c r="CD29" s="14">
@@ -33446,39 +34567,39 @@
         <v>9.8604651162790695</v>
       </c>
       <c r="CE29" s="14">
-        <f t="shared" ref="CE29:CH29" si="153">CE11/CE19</f>
+        <f t="shared" ref="CE29:CH29" si="155">CE11/CE19</f>
         <v>7.5058085106382988</v>
       </c>
       <c r="CF29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>8.8456179350000017</v>
       </c>
       <c r="CG29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>5.3001261926666681</v>
       </c>
       <c r="CH29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>6.8096594309996776</v>
       </c>
       <c r="CI29" s="14">
         <f>CI11/CI19</f>
-        <v>0</v>
+        <v>12.622641509433961</v>
       </c>
       <c r="CJ29" s="14">
-        <f t="shared" ref="CJ29:CM29" si="154">CJ11/CJ19</f>
+        <f t="shared" ref="CJ29:CM29" si="156">CJ11/CJ19</f>
         <v>11.231888888888889</v>
       </c>
       <c r="CK29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>9.8028065260416692</v>
       </c>
       <c r="CL29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>5.8361616826068188</v>
       </c>
       <c r="CM29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>6.5188977822792147</v>
       </c>
       <c r="CN29" s="14">
@@ -33491,11 +34612,11 @@
         <v>0</v>
       </c>
       <c r="CQ29" s="14">
-        <f t="shared" ref="CQ29:CR29" si="155">CQ11/CQ19</f>
+        <f t="shared" ref="CQ29:CR29" si="157">CQ11/CQ19</f>
         <v>4.7410275150256105</v>
       </c>
       <c r="CR29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>6.1703852803344006</v>
       </c>
     </row>
@@ -33765,8 +34886,9 @@
         <f>Painel!CH30*IPC!J$3</f>
         <v>0</v>
       </c>
-      <c r="CI30" s="14" t="s">
-        <v>107</v>
+      <c r="CI30" s="14">
+        <f>Painel!CI30</f>
+        <v>0</v>
       </c>
       <c r="CJ30" s="14">
         <f>Painel!CJ30*IPC!G$3</f>
@@ -33914,11 +35036,26 @@
       <c r="AO31" s="14">
         <v>525.33117680447015</v>
       </c>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
+      <c r="AP31" s="14">
+        <f>Painel!AP31</f>
+        <v>0.8</v>
+      </c>
+      <c r="AQ31" s="14">
+        <f>Painel!AQ31*IPC!G$3</f>
+        <v>0.92835000000000012</v>
+      </c>
+      <c r="AR31" s="14">
+        <f>Painel!AR31*IPC!H$3</f>
+        <v>9.8888357750000004</v>
+      </c>
+      <c r="AS31" s="14">
+        <f>Painel!AS31*IPC!I$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT31" s="14">
+        <f>Painel!AT31*IPC!J$3</f>
+        <v>0</v>
+      </c>
       <c r="AU31" s="14">
         <f>Painel!AU31</f>
         <v>255</v>
@@ -34066,7 +35203,10 @@
         <f>Painel!CH31*IPC!J$3</f>
         <v>425.80800422040983</v>
       </c>
-      <c r="CI31" s="14"/>
+      <c r="CI31" s="14">
+        <f>Painel!CI31</f>
+        <v>491</v>
+      </c>
       <c r="CJ31" s="14">
         <f>Painel!CJ31*IPC!G$3</f>
         <v>533.28550000000007</v>
@@ -34107,70 +35247,70 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="20">
-        <f t="shared" ref="C32" si="156">C31/C14</f>
+        <f t="shared" ref="C32" si="158">C31/C14</f>
         <v>32.333333333333336</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" ref="D32" si="157">D31/D14</f>
+        <f t="shared" ref="D32" si="159">D31/D14</f>
         <v>3.9954545454545456</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" ref="E32" si="158">E31/E14</f>
+        <f t="shared" ref="E32" si="160">E31/E14</f>
         <v>22.166666666666664</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" ref="F32" si="159">F31/F14</f>
+        <f t="shared" ref="F32" si="161">F31/F14</f>
         <v>-7.0777777777777784</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="20">
-        <f t="shared" ref="H32" si="160">H31/H14</f>
+        <f t="shared" ref="H32" si="162">H31/H14</f>
         <v>29.794871794871792</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" ref="I32" si="161">I31/I14</f>
+        <f t="shared" ref="I32" si="163">I31/I14</f>
         <v>8.137614678899082</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" ref="J32" si="162">J31/J14</f>
+        <f t="shared" ref="J32" si="164">J31/J14</f>
         <v>-5.0580645161290327</v>
       </c>
       <c r="K32" s="20">
-        <f t="shared" ref="K32" si="163">K31/K14</f>
+        <f t="shared" ref="K32" si="165">K31/K14</f>
         <v>4.5600000000000005</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="20">
-        <f t="shared" ref="M32" si="164">M31/M14</f>
+        <f t="shared" ref="M32" si="166">M31/M14</f>
         <v>4.563380281690141</v>
       </c>
       <c r="N32" s="20">
-        <f t="shared" ref="N32" si="165">N31/N14</f>
+        <f t="shared" ref="N32" si="167">N31/N14</f>
         <v>4.6769230769230763</v>
       </c>
       <c r="O32" s="20">
-        <f t="shared" ref="O32" si="166">O31/O14</f>
+        <f t="shared" ref="O32" si="168">O31/O14</f>
         <v>2.2686567164179108</v>
       </c>
       <c r="P32" s="20">
-        <f t="shared" ref="P32" si="167">P31/P14</f>
+        <f t="shared" ref="P32" si="169">P31/P14</f>
         <v>2.5765765765765769</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="20">
-        <f t="shared" ref="R32" si="168">R31/R14</f>
+        <f t="shared" ref="R32" si="170">R31/R14</f>
         <v>200</v>
       </c>
       <c r="S32" s="20">
-        <f t="shared" ref="S32" si="169">S31/S14</f>
+        <f t="shared" ref="S32" si="171">S31/S14</f>
         <v>3.486486486486486</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" ref="T32" si="170">T31/T14</f>
+        <f t="shared" ref="T32" si="172">T31/T14</f>
         <v>-12.076923076923077</v>
       </c>
       <c r="U32" s="20">
-        <f t="shared" ref="U32" si="171">U31/U14</f>
+        <f t="shared" ref="U32" si="173">U31/U14</f>
         <v>3.641025641025641</v>
       </c>
       <c r="V32" s="14"/>
@@ -34180,115 +35320,130 @@
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="20">
-        <f t="shared" ref="AB32" si="172">AB31/AB14</f>
+        <f t="shared" ref="AB32" si="174">AB31/AB14</f>
         <v>3.6707317073170729</v>
       </c>
       <c r="AC32" s="20">
-        <f t="shared" ref="AC32" si="173">AC31/AC14</f>
+        <f t="shared" ref="AC32" si="175">AC31/AC14</f>
         <v>2.915730337078652</v>
       </c>
       <c r="AD32" s="20">
-        <f t="shared" ref="AD32" si="174">AD31/AD14</f>
+        <f t="shared" ref="AD32" si="176">AD31/AD14</f>
         <v>10.75</v>
       </c>
       <c r="AE32" s="20">
-        <f t="shared" ref="AE32" si="175">AE31/AE14</f>
+        <f t="shared" ref="AE32" si="177">AE31/AE14</f>
         <v>-17.777777777777779</v>
       </c>
       <c r="AF32" s="20">
-        <f t="shared" ref="AF32:AG32" si="176">AF31/AF14</f>
+        <f t="shared" ref="AF32:AG32" si="178">AF31/AF14</f>
         <v>0.3</v>
       </c>
       <c r="AG32" s="20">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>3.078125</v>
       </c>
       <c r="AH32" s="20">
-        <f t="shared" ref="AH32" si="177">AH31/AH14</f>
+        <f t="shared" ref="AH32" si="179">AH31/AH14</f>
         <v>10.772727272727272</v>
       </c>
       <c r="AI32" s="20">
-        <f t="shared" ref="AI32" si="178">AI31/AI14</f>
+        <f t="shared" ref="AI32" si="180">AI31/AI14</f>
         <v>10.958333333333332</v>
       </c>
       <c r="AJ32" s="20">
-        <f t="shared" ref="AJ32" si="179">AJ31/AJ14</f>
+        <f t="shared" ref="AJ32" si="181">AJ31/AJ14</f>
         <v>-19.363636363636363</v>
       </c>
       <c r="AK32" s="14"/>
       <c r="AL32" s="20">
-        <f t="shared" ref="AL32" si="180">AL31/AL14</f>
+        <f t="shared" ref="AL32" si="182">AL31/AL14</f>
         <v>4.5273972602739718</v>
       </c>
       <c r="AM32" s="20">
-        <f t="shared" ref="AM32" si="181">AM31/AM14</f>
+        <f t="shared" ref="AM32" si="183">AM31/AM14</f>
         <v>-8.4938271604938276</v>
       </c>
       <c r="AN32" s="20">
-        <f t="shared" ref="AN32" si="182">AN31/AN14</f>
+        <f t="shared" ref="AN32" si="184">AN31/AN14</f>
         <v>-2.7277777777777774</v>
       </c>
       <c r="AO32" s="20">
-        <f t="shared" ref="AO32" si="183">AO31/AO14</f>
+        <f t="shared" ref="AO32:AT32" si="185">AO31/AO14</f>
         <v>2.8367346938775513</v>
       </c>
-      <c r="AP32" s="14"/>
-      <c r="AQ32" s="14"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="14"/>
-      <c r="AT32" s="14"/>
+      <c r="AP32" s="20">
+        <f t="shared" si="185"/>
+        <v>2.1621621621621623E-2</v>
+      </c>
+      <c r="AQ32" s="20">
+        <f t="shared" si="185"/>
+        <v>3.4615384615384617E-2</v>
+      </c>
+      <c r="AR32" s="20">
+        <f>AR31/AR14</f>
+        <v>2.0222222222222221</v>
+      </c>
+      <c r="AS32" s="20">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+      <c r="AT32" s="20">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
       <c r="AU32" s="20">
         <f>AU31/AU14</f>
         <v>0.52577319587628868</v>
       </c>
       <c r="AV32" s="20">
-        <f t="shared" ref="AV32" si="184">AV31/AV14</f>
+        <f t="shared" ref="AV32" si="186">AV31/AV14</f>
         <v>1.0526125730994154</v>
       </c>
       <c r="AW32" s="20">
-        <f t="shared" ref="AW32" si="185">AW31/AW14</f>
+        <f t="shared" ref="AW32" si="187">AW31/AW14</f>
         <v>1.364207944615385</v>
       </c>
       <c r="AX32" s="20">
-        <f t="shared" ref="AX32" si="186">AX31/AX14</f>
+        <f t="shared" ref="AX32" si="188">AX31/AX14</f>
         <v>3.0725143311017651</v>
       </c>
       <c r="AY32" s="20">
-        <f t="shared" ref="AY32" si="187">AY31/AY14</f>
+        <f t="shared" ref="AY32" si="189">AY31/AY14</f>
         <v>2.1690687369024979</v>
       </c>
       <c r="AZ32" s="14"/>
       <c r="BA32" s="20">
-        <f t="shared" ref="BA32" si="188">BA31/BA14</f>
+        <f t="shared" ref="BA32" si="190">BA31/BA14</f>
         <v>9.109375</v>
       </c>
       <c r="BB32" s="20">
-        <f t="shared" ref="BB32" si="189">BB31/BB14</f>
+        <f t="shared" ref="BB32" si="191">BB31/BB14</f>
         <v>-6.814814814814814</v>
       </c>
       <c r="BC32" s="20">
-        <f t="shared" ref="BC32" si="190">BC31/BC14</f>
+        <f t="shared" ref="BC32" si="192">BC31/BC14</f>
         <v>-3.3166666666666669</v>
       </c>
       <c r="BD32" s="20">
-        <f t="shared" ref="BD32" si="191">BD31/BD14</f>
+        <f t="shared" ref="BD32" si="193">BD31/BD14</f>
         <v>7.628571428571429</v>
       </c>
       <c r="BE32" s="14"/>
       <c r="BF32" s="20">
-        <f t="shared" ref="BF32" si="192">BF31/BF14</f>
+        <f t="shared" ref="BF32" si="194">BF31/BF14</f>
         <v>0.17719298245614037</v>
       </c>
       <c r="BG32" s="20">
-        <f t="shared" ref="BG32" si="193">BG31/BG14</f>
+        <f t="shared" ref="BG32" si="195">BG31/BG14</f>
         <v>-0.15185185185185185</v>
       </c>
       <c r="BH32" s="20">
-        <f t="shared" ref="BH32" si="194">BH31/BH14</f>
+        <f t="shared" ref="BH32" si="196">BH31/BH14</f>
         <v>-9.6666666666666651E-2</v>
       </c>
       <c r="BI32" s="20">
-        <f t="shared" ref="BI32" si="195">BI31/BI14</f>
+        <f t="shared" ref="BI32" si="197">BI31/BI14</f>
         <v>1.711111111111111</v>
       </c>
       <c r="BJ32" s="20">
@@ -34296,53 +35451,53 @@
         <v>2.9225806451612901</v>
       </c>
       <c r="BK32" s="20">
-        <f t="shared" ref="BK32" si="196">BK31/BK14</f>
+        <f t="shared" ref="BK32" si="198">BK31/BK14</f>
         <v>13.818181818181818</v>
       </c>
       <c r="BL32" s="20">
-        <f t="shared" ref="BL32" si="197">BL31/BL14</f>
+        <f t="shared" ref="BL32" si="199">BL31/BL14</f>
         <v>2.0057803468208095</v>
       </c>
       <c r="BM32" s="20">
-        <f t="shared" ref="BM32" si="198">BM31/BM14</f>
+        <f t="shared" ref="BM32" si="200">BM31/BM14</f>
         <v>2.5538461538461537</v>
       </c>
       <c r="BN32" s="20">
-        <f t="shared" ref="BN32" si="199">BN31/BN14</f>
+        <f t="shared" ref="BN32" si="201">BN31/BN14</f>
         <v>2.2088607594936707</v>
       </c>
       <c r="BO32" s="14"/>
       <c r="BP32" s="20">
-        <f t="shared" ref="BP32" si="200">BP31/BP14</f>
+        <f t="shared" ref="BP32" si="202">BP31/BP14</f>
         <v>1.3225152129817446</v>
       </c>
       <c r="BQ32" s="20">
-        <f t="shared" ref="BQ32" si="201">BQ31/BQ14</f>
+        <f t="shared" ref="BQ32" si="203">BQ31/BQ14</f>
         <v>3.6200000000000006</v>
       </c>
       <c r="BR32" s="20">
-        <f t="shared" ref="BR32" si="202">BR31/BR14</f>
+        <f t="shared" ref="BR32" si="204">BR31/BR14</f>
         <v>2.0137931034482759</v>
       </c>
       <c r="BS32" s="20">
-        <f t="shared" ref="BS32" si="203">BS31/BS14</f>
+        <f t="shared" ref="BS32" si="205">BS31/BS14</f>
         <v>1.0894736842105266</v>
       </c>
       <c r="BT32" s="14"/>
       <c r="BU32" s="20">
-        <f t="shared" ref="BU32" si="204">BU31/BU14</f>
+        <f t="shared" ref="BU32" si="206">BU31/BU14</f>
         <v>2.8596491228070176</v>
       </c>
       <c r="BV32" s="20">
-        <f t="shared" ref="BV32" si="205">BV31/BV14</f>
+        <f t="shared" ref="BV32" si="207">BV31/BV14</f>
         <v>3.4949494949494948</v>
       </c>
       <c r="BW32" s="20">
-        <f t="shared" ref="BW32" si="206">BW31/BW14</f>
+        <f t="shared" ref="BW32" si="208">BW31/BW14</f>
         <v>166</v>
       </c>
       <c r="BX32" s="20">
-        <f t="shared" ref="BX32" si="207">BX31/BX14</f>
+        <f t="shared" ref="BX32" si="209">BX31/BX14</f>
         <v>2.202247191011236</v>
       </c>
       <c r="BY32" s="20">
@@ -34350,19 +35505,19 @@
         <v>0.68817204301075274</v>
       </c>
       <c r="BZ32" s="20">
-        <f t="shared" ref="BZ32:CC32" si="208">BZ31/BZ14</f>
+        <f t="shared" ref="BZ32:CC32" si="210">BZ31/BZ14</f>
         <v>0.87431693989071035</v>
       </c>
       <c r="CA32" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>0.55521472392638038</v>
       </c>
       <c r="CB32" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>1.8013245033112582</v>
       </c>
       <c r="CC32" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>1.2804232804232805</v>
       </c>
       <c r="CD32" s="14">
@@ -34370,52 +35525,55 @@
         <v>2.1770833333333335</v>
       </c>
       <c r="CE32" s="20">
-        <f t="shared" ref="CE32" si="209">CE31/CE14</f>
+        <f t="shared" ref="CE32" si="211">CE31/CE14</f>
         <v>2.268041237113402</v>
       </c>
       <c r="CF32" s="20">
-        <f t="shared" ref="CF32" si="210">CF31/CF14</f>
+        <f t="shared" ref="CF32" si="212">CF31/CF14</f>
         <v>1.6495327102803738</v>
       </c>
       <c r="CG32" s="20">
         <v>0</v>
       </c>
       <c r="CH32" s="20">
-        <f t="shared" ref="CH32" si="211">CH31/CH14</f>
+        <f t="shared" ref="CH32" si="213">CH31/CH14</f>
         <v>1.6568627450980393</v>
       </c>
-      <c r="CI32" s="20"/>
+      <c r="CI32" s="20">
+        <f t="shared" ref="CI32:CJ32" si="214">CI31/CI14</f>
+        <v>4.2327586206896548</v>
+      </c>
       <c r="CJ32" s="20">
-        <f t="shared" ref="CJ32" si="212">CJ31/CJ14</f>
+        <f t="shared" si="214"/>
         <v>2.2675438596491229</v>
       </c>
       <c r="CK32" s="20">
-        <f t="shared" ref="CK32" si="213">CK31/CK14</f>
+        <f t="shared" ref="CK32" si="215">CK31/CK14</f>
         <v>19.16</v>
       </c>
       <c r="CL32" s="20">
-        <f t="shared" ref="CL32" si="214">CL31/CL14</f>
+        <f t="shared" ref="CL32" si="216">CL31/CL14</f>
         <v>0.83371824480369505</v>
       </c>
       <c r="CM32" s="20">
-        <f t="shared" ref="CM32" si="215">CM31/CM14</f>
+        <f t="shared" ref="CM32" si="217">CM31/CM14</f>
         <v>1.0990712074303406</v>
       </c>
       <c r="CN32" s="14"/>
       <c r="CO32" s="20">
-        <f t="shared" ref="CO32" si="216">CO31/CO14</f>
+        <f t="shared" ref="CO32" si="218">CO31/CO14</f>
         <v>26.125000000000004</v>
       </c>
       <c r="CP32" s="20">
-        <f t="shared" ref="CP32" si="217">CP31/CP14</f>
+        <f t="shared" ref="CP32" si="219">CP31/CP14</f>
         <v>8.1071428571428577</v>
       </c>
       <c r="CQ32" s="20">
-        <f t="shared" ref="CQ32" si="218">CQ31/CQ14</f>
+        <f t="shared" ref="CQ32" si="220">CQ31/CQ14</f>
         <v>11.6056338028169</v>
       </c>
       <c r="CR32" s="20">
-        <f t="shared" ref="CR32" si="219">CR31/CR14</f>
+        <f t="shared" ref="CR32" si="221">CR31/CR14</f>
         <v>4.6806722689075633</v>
       </c>
     </row>
@@ -34424,171 +35582,191 @@
         <v>110</v>
       </c>
       <c r="C33" s="18">
-        <f t="shared" ref="C33:F33" si="220">C31/C11</f>
+        <f t="shared" ref="C33:F33" si="222">C31/C11</f>
         <v>0.67361111111111116</v>
       </c>
       <c r="D33" s="18">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>0.88787878787878793</v>
       </c>
       <c r="E33" s="18">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>1.4456521739130435</v>
       </c>
       <c r="F33" s="18">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>2.0548387096774192</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" ref="H33:K33" si="221">H31/H11</f>
+        <f t="shared" ref="H33:K33" si="223">H31/H11</f>
         <v>3.0181818181818181</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>1.7847082494969817</v>
       </c>
       <c r="J33" s="18">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>5.9847328244274811</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>2.0141342756183747</v>
       </c>
       <c r="M33" s="18">
-        <f t="shared" ref="M33:P33" si="222">M31/M11</f>
+        <f t="shared" ref="M33:P33" si="224">M31/M11</f>
         <v>0.92836676217765035</v>
       </c>
       <c r="N33" s="18">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>1.1875</v>
       </c>
       <c r="O33" s="18">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>0.92401215805471115</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>0.7546174142480212</v>
       </c>
       <c r="R33" s="18">
-        <f t="shared" ref="R33:U33" si="223">R31/R11</f>
+        <f t="shared" ref="R33:U33" si="225">R31/R11</f>
         <v>2</v>
       </c>
       <c r="S33" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>0.66494845360824739</v>
       </c>
       <c r="T33" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>1.3083333333333333</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>0.8160919540229884</v>
       </c>
       <c r="AB33" s="18">
-        <f t="shared" ref="AB33:AE33" si="224">AB31/AB11</f>
+        <f t="shared" ref="AB33:AE33" si="226">AB31/AB11</f>
         <v>0.92331288343558293</v>
       </c>
       <c r="AC33" s="18">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1.158482142857143</v>
       </c>
       <c r="AD33" s="18">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1.0117647058823529</v>
       </c>
       <c r="AE33" s="18">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>0.8648648648648648</v>
       </c>
       <c r="AF33" s="18">
-        <f t="shared" ref="AF33:AJ33" si="225">AF31/AF11</f>
+        <f t="shared" ref="AF33:AJ33" si="227">AF31/AF11</f>
         <v>0.11242973141786385</v>
       </c>
       <c r="AG33" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>1.2628205128205128</v>
       </c>
       <c r="AH33" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>2.9624999999999995</v>
       </c>
       <c r="AI33" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>2.63</v>
       </c>
       <c r="AJ33" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>5.6052631578947363</v>
       </c>
       <c r="AL33" s="18">
-        <f t="shared" ref="AL33:AO33" si="226">AL31/AL11</f>
+        <f t="shared" ref="AL33:AT33" si="228">AL31/AL11</f>
         <v>4.5273972602739718</v>
       </c>
       <c r="AM33" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>5.7333333333333325</v>
       </c>
       <c r="AN33" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>4.1610169491525424</v>
       </c>
       <c r="AO33" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>1.4839857651245552</v>
+      </c>
+      <c r="AP33" s="18">
+        <f t="shared" si="228"/>
+        <v>5.0632911392405064E-3</v>
+      </c>
+      <c r="AQ33" s="18">
+        <f t="shared" si="228"/>
+        <v>7.2580645161290326E-3</v>
+      </c>
+      <c r="AR33" s="18">
+        <f t="shared" si="228"/>
+        <v>0.14218749999999999</v>
+      </c>
+      <c r="AS33" s="18">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="18">
+        <f t="shared" si="228"/>
+        <v>0</v>
       </c>
       <c r="AU33" s="18">
         <f>AU31/AU11</f>
         <v>0.19376899696048633</v>
       </c>
       <c r="AV33" s="18">
-        <f t="shared" ref="AV33:AY33" si="227">AV31/AV11</f>
+        <f t="shared" ref="AV33:AY33" si="229">AV31/AV11</f>
         <v>0.3138489208633094</v>
       </c>
       <c r="AW33" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>0.39804878048780484</v>
       </c>
       <c r="AX33" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>0.68012422360248448</v>
       </c>
       <c r="AY33" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>0.46717724288840262</v>
       </c>
       <c r="BA33" s="18">
-        <f t="shared" ref="BA33:BD33" si="228">BA31/BA11</f>
+        <f t="shared" ref="BA33:BD33" si="230">BA31/BA11</f>
         <v>1.7720364741641335</v>
       </c>
       <c r="BB33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>1.7579617834394905</v>
       </c>
       <c r="BC33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>3.2622950819672134</v>
       </c>
       <c r="BD33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>2.1360000000000001</v>
       </c>
       <c r="BF33" s="18">
-        <f t="shared" ref="BF33:BI33" si="229">BF31/BF11</f>
+        <f t="shared" ref="BF33:BI33" si="231">BF31/BF11</f>
         <v>4.1563786008230463E-2</v>
       </c>
       <c r="BG33" s="18">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>7.8343949044585998E-2</v>
       </c>
       <c r="BH33" s="18">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>0.22597402597402597</v>
       </c>
       <c r="BI33" s="18">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>0.14128440366972478</v>
       </c>
       <c r="BJ33" s="18">
@@ -34596,51 +35774,51 @@
         <v>1.0683962264150944</v>
       </c>
       <c r="BK33" s="18">
-        <f t="shared" ref="BK33:BN33" si="230">BK31/BK11</f>
+        <f t="shared" ref="BK33:BN33" si="232">BK31/BK11</f>
         <v>1.5833333333333335</v>
       </c>
       <c r="BL33" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>0.74304068522483935</v>
       </c>
       <c r="BM33" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>0.8623376623376624</v>
       </c>
       <c r="BN33" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>0.85539215686274506</v>
       </c>
       <c r="BP33" s="18">
-        <f t="shared" ref="BP33:BS33" si="231">BP31/BP11</f>
+        <f t="shared" ref="BP33:BS33" si="233">BP31/BP11</f>
         <v>0.6721649484536083</v>
       </c>
       <c r="BQ33" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>1.5404255319148938</v>
       </c>
       <c r="BR33" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>0.67906976744186054</v>
       </c>
       <c r="BS33" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>0.45494505494505505</v>
       </c>
       <c r="BU33" s="18">
-        <f t="shared" ref="BU33:BX33" si="232">BU31/BU11</f>
+        <f t="shared" ref="BU33:BX33" si="234">BU31/BU11</f>
         <v>0.90055248618784522</v>
       </c>
       <c r="BV33" s="18">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>1.0058139534883721</v>
       </c>
       <c r="BW33" s="18">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>1.2769230769230768</v>
       </c>
       <c r="BX33" s="18">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>0.50256410256410255</v>
       </c>
       <c r="BY33" s="18">
@@ -34648,19 +35826,19 @@
         <v>0.15256257449344457</v>
       </c>
       <c r="BZ33" s="18">
-        <f t="shared" ref="BZ33:CC33" si="233">BZ31/BZ11</f>
+        <f t="shared" ref="BZ33:CC33" si="235">BZ31/BZ11</f>
         <v>0.20227560050568902</v>
       </c>
       <c r="CA33" s="18">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>0.19483315392895587</v>
       </c>
       <c r="CB33" s="18">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>0.51127819548872178</v>
       </c>
       <c r="CC33" s="18">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>0.40468227424749165</v>
       </c>
       <c r="CD33" s="14">
@@ -34668,51 +35846,55 @@
         <v>0.98584905660377353</v>
       </c>
       <c r="CE33" s="18">
-        <f t="shared" ref="CE33:CH33" si="234">CE31/CE11</f>
+        <f t="shared" ref="CE33:CH33" si="236">CE31/CE11</f>
         <v>1.2865497076023391</v>
       </c>
       <c r="CF33" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>0.86732186732186722</v>
       </c>
       <c r="CG33" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>1.4874999999999998</v>
       </c>
       <c r="CH33" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>0.84499999999999997</v>
       </c>
+      <c r="CI33" s="18">
+        <f t="shared" ref="CI33:CM33" si="237">CI31/CI11</f>
+        <v>0.7339312406576981</v>
+      </c>
       <c r="CJ33" s="18">
-        <f t="shared" ref="CJ33:CM33" si="235">CJ31/CJ11</f>
+        <f t="shared" si="237"/>
         <v>0.87925170068027214</v>
       </c>
       <c r="CK33" s="18">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>1.1062355658198613</v>
       </c>
       <c r="CL33" s="18">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="CM33" s="18">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>1.0889570552147239</v>
       </c>
       <c r="CO33" s="18">
-        <f t="shared" ref="CO33:CR33" si="236">CO31/CO11</f>
+        <f t="shared" ref="CO33:CR33" si="238">CO31/CO11</f>
         <v>5.4051724137931041</v>
       </c>
       <c r="CP33" s="18">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>4.1024096385542173</v>
       </c>
       <c r="CQ33" s="18">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>5.0552147239263805</v>
       </c>
       <c r="CR33" s="18">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>2.3208333333333337</v>
       </c>
     </row>
@@ -34724,76 +35906,76 @@
         <v>0</v>
       </c>
       <c r="C34" s="18">
-        <f t="shared" ref="C34:F34" si="237">C12/C11</f>
+        <f t="shared" ref="C34:F34" si="239">C12/C11</f>
         <v>0.41666666666666674</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.46464646464646464</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.52173913043478271</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.80645161290322576</v>
       </c>
       <c r="G34" s="18">
         <v>0</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" ref="H34:K34" si="238">H12/H11</f>
+        <f t="shared" ref="H34:K34" si="240">H12/H11</f>
         <v>0.64935064935064923</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>0.52917505030181078</v>
       </c>
       <c r="J34" s="18">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>1.5267175572519085</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>0.5512367491166078</v>
       </c>
       <c r="L34" s="18">
         <v>0</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" ref="M34:P34" si="239">M12/M11</f>
+        <f t="shared" ref="M34:P34" si="241">M12/M11</f>
         <v>0.51002865329512892</v>
       </c>
       <c r="N34" s="18">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>0.56640625</v>
       </c>
       <c r="O34" s="18">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>0.27659574468085102</v>
       </c>
       <c r="P34" s="18">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>0.36411609498680741</v>
       </c>
       <c r="Q34" s="18">
         <v>0</v>
       </c>
       <c r="R34" s="18">
-        <f t="shared" ref="R34:U34" si="240">R12/R11</f>
+        <f t="shared" ref="R34:U34" si="242">R12/R11</f>
         <v>0.72</v>
       </c>
       <c r="S34" s="18">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>0.54639175257731964</v>
       </c>
       <c r="T34" s="18">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="U34" s="18">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>0.53448275862068961</v>
       </c>
       <c r="V34" s="18">
@@ -34815,130 +35997,135 @@
         <v>0</v>
       </c>
       <c r="AB34" s="18">
-        <f t="shared" ref="AB34:AE34" si="241">AB12/AB11</f>
+        <f t="shared" ref="AB34:AE34" si="243">AB12/AB11</f>
         <v>0.42024539877300615</v>
       </c>
       <c r="AC34" s="18">
-        <f t="shared" si="241"/>
+        <f t="shared" si="243"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="AD34" s="18">
-        <f t="shared" si="241"/>
+        <f t="shared" si="243"/>
         <v>0.44235294117647062</v>
       </c>
       <c r="AE34" s="18">
-        <f t="shared" si="241"/>
+        <f t="shared" si="243"/>
         <v>0.60540540540540544</v>
       </c>
       <c r="AF34" s="18">
         <v>0</v>
       </c>
       <c r="AG34" s="18">
-        <f t="shared" ref="AG34:AJ34" si="242">AG12/AG11</f>
+        <f t="shared" ref="AG34:AJ34" si="244">AG12/AG11</f>
         <v>0.46794871794871795</v>
       </c>
       <c r="AH34" s="18">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>0.61249999999999993</v>
       </c>
       <c r="AI34" s="18">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>0.49</v>
       </c>
       <c r="AJ34" s="18">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>0.97368421052631582</v>
       </c>
       <c r="AK34" s="18">
         <v>0</v>
       </c>
       <c r="AL34" s="18">
-        <f t="shared" ref="AL34:AO34" si="243">AL12/AL11</f>
+        <f t="shared" ref="AL34:AP34" si="245">AL12/AL11</f>
         <v>0.3904109589041096</v>
       </c>
       <c r="AM34" s="18">
-        <f t="shared" si="243"/>
+        <f t="shared" si="245"/>
         <v>0.5</v>
       </c>
       <c r="AN34" s="18">
-        <f t="shared" si="243"/>
+        <f t="shared" si="245"/>
         <v>0.83050847457627119</v>
       </c>
       <c r="AO34" s="18">
-        <f t="shared" si="243"/>
+        <f t="shared" si="245"/>
         <v>0.7508896797153024</v>
       </c>
       <c r="AP34" s="18">
-        <v>0</v>
+        <f t="shared" si="245"/>
+        <v>0.62658227848101267</v>
       </c>
       <c r="AQ34" s="18">
-        <v>0</v>
+        <f t="shared" ref="AQ34:AT34" si="246">AQ12/AQ11</f>
+        <v>0.67741935483870963</v>
       </c>
       <c r="AR34" s="18">
-        <v>0</v>
+        <f t="shared" si="246"/>
+        <v>1.03125</v>
       </c>
       <c r="AS34" s="18">
-        <v>0</v>
+        <f t="shared" si="246"/>
+        <v>0.95238095238095233</v>
       </c>
       <c r="AT34" s="18">
-        <v>0</v>
+        <f t="shared" si="246"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AU34" s="18">
         <f>AU12/AU11</f>
         <v>0.3518237082066869</v>
       </c>
       <c r="AV34" s="18">
-        <f t="shared" ref="AV34:AY34" si="244">AV12/AV11</f>
+        <f t="shared" ref="AV34:AY34" si="247">AV12/AV11</f>
         <v>0.39478417266187049</v>
       </c>
       <c r="AW34" s="18">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>0.34536585365853656</v>
       </c>
       <c r="AX34" s="18">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>0.51552795031055898</v>
       </c>
       <c r="AY34" s="18">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>0.35667396061269147</v>
       </c>
       <c r="AZ34" s="18">
         <v>0</v>
       </c>
       <c r="BA34" s="18">
-        <f t="shared" ref="BA34:BD34" si="245">BA12/BA11</f>
+        <f t="shared" ref="BA34:BD34" si="248">BA12/BA11</f>
         <v>0.39513677811550146</v>
       </c>
       <c r="BB34" s="18">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>0.37579617834394907</v>
       </c>
       <c r="BC34" s="18">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>0.4043715846994535</v>
       </c>
       <c r="BD34" s="18">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>0.24400000000000002</v>
       </c>
       <c r="BE34" s="18">
         <v>0</v>
       </c>
       <c r="BF34" s="18">
-        <f t="shared" ref="BF34:BI34" si="246">BF12/BF11</f>
+        <f t="shared" ref="BF34:BI34" si="249">BF12/BF11</f>
         <v>0.34979423868312759</v>
       </c>
       <c r="BG34" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>0.48407643312101911</v>
       </c>
       <c r="BH34" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="BI34" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>0.6330275229357798</v>
       </c>
       <c r="BJ34" s="18">
@@ -34946,57 +36133,57 @@
         <v>0.54481132075471694</v>
       </c>
       <c r="BK34" s="18">
-        <f t="shared" ref="BK34:BN34" si="247">BK12/BK11</f>
+        <f t="shared" ref="BK34:BN34" si="250">BK12/BK11</f>
         <v>0.40277777777777779</v>
       </c>
       <c r="BL34" s="18">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>0.28907922912205569</v>
       </c>
       <c r="BM34" s="18">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>0.28571428571428575</v>
       </c>
       <c r="BN34" s="18">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>0.26715686274509803</v>
       </c>
       <c r="BO34" s="18">
         <v>0</v>
       </c>
       <c r="BP34" s="18">
-        <f t="shared" ref="BP34:BS34" si="248">BP12/BP11</f>
+        <f t="shared" ref="BP34:BS34" si="251">BP12/BP11</f>
         <v>0.34020618556701032</v>
       </c>
       <c r="BQ34" s="18">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>0.51063829787234039</v>
       </c>
       <c r="BR34" s="18">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>0.54651162790697683</v>
       </c>
       <c r="BS34" s="18">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>0.45054945054945056</v>
       </c>
       <c r="BT34" s="18">
         <v>0</v>
       </c>
       <c r="BU34" s="18">
-        <f t="shared" ref="BU34:BX34" si="249">BU12/BU11</f>
+        <f t="shared" ref="BU34:BX34" si="252">BU12/BU11</f>
         <v>0.54696132596685088</v>
       </c>
       <c r="BV34" s="18">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.52616279069767447</v>
       </c>
       <c r="BW34" s="18">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.70769230769230762</v>
       </c>
       <c r="BX34" s="18">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.48717948717948717</v>
       </c>
       <c r="BY34" s="18">
@@ -35004,19 +36191,19 @@
         <v>0.48271752085816449</v>
       </c>
       <c r="BZ34" s="18">
-        <f t="shared" ref="BZ34:CC34" si="250">BZ12/BZ11</f>
+        <f t="shared" ref="BZ34:CC34" si="253">BZ12/BZ11</f>
         <v>0.46144121365360302</v>
       </c>
       <c r="CA34" s="18">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>0.38213132400430572</v>
       </c>
       <c r="CB34" s="18">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>0.38721804511278196</v>
       </c>
       <c r="CC34" s="18">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>0.41638795986622068</v>
       </c>
       <c r="CD34" s="14">
@@ -35024,55 +36211,58 @@
         <v>0.40448113207547171</v>
       </c>
       <c r="CE34" s="18">
-        <f t="shared" ref="CE34:CH34" si="251">CE12/CE11</f>
+        <f t="shared" ref="CE34:CH34" si="254">CE12/CE11</f>
         <v>0.39766081871345033</v>
       </c>
       <c r="CF34" s="18">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>0.32678132678132676</v>
       </c>
       <c r="CG34" s="18">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>0.5708333333333333</v>
       </c>
       <c r="CH34" s="18">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>0.41499999999999998</v>
       </c>
-      <c r="CI34" s="18"/>
+      <c r="CI34" s="18">
+        <f t="shared" ref="CI34:CM34" si="255">CI12/CI11</f>
+        <v>0.39760837070254113</v>
+      </c>
       <c r="CJ34" s="18">
-        <f t="shared" ref="CJ34:CM34" si="252">CJ12/CJ11</f>
+        <f t="shared" si="255"/>
         <v>0.33673469387755101</v>
       </c>
       <c r="CK34" s="18">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>0.50577367205542723</v>
       </c>
       <c r="CL34" s="18">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>0.51702786377708976</v>
       </c>
       <c r="CM34" s="18">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>0.50613496932515334</v>
       </c>
       <c r="CN34" s="18">
         <v>0</v>
       </c>
       <c r="CO34" s="18">
-        <f t="shared" ref="CO34:CR34" si="253">CO12/CO11</f>
+        <f t="shared" ref="CO34:CR34" si="256">CO12/CO11</f>
         <v>0.57758620689655171</v>
       </c>
       <c r="CP34" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0.391566265060241</v>
       </c>
       <c r="CQ34" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0.47239263803680986</v>
       </c>
       <c r="CR34" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0.37083333333333335</v>
       </c>
     </row>
@@ -35084,76 +36274,76 @@
         <v>0</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" ref="C35:F35" si="254">(C12+C15)/C11</f>
+        <f t="shared" ref="C35:F35" si="257">(C12+C15)/C11</f>
         <v>0.52777777777777779</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.46464646464646464</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.52826086956521745</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.83225806451612905</v>
       </c>
       <c r="G35" s="18">
         <v>0</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" ref="H35:K35" si="255">(H12+H15)/H11</f>
+        <f t="shared" ref="H35:K35" si="258">(H12+H15)/H11</f>
         <v>1.0337662337662337</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.75452716297786715</v>
       </c>
       <c r="J35" s="18">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>3.4503816793893134</v>
       </c>
       <c r="K35" s="18">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.73498233215547704</v>
       </c>
       <c r="L35" s="18">
         <v>0</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" ref="M35:P35" si="256">(M12+M15)/M11</f>
+        <f t="shared" ref="M35:P35" si="259">(M12+M15)/M11</f>
         <v>0.7822349570200573</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.77734375</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.39209726443768994</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.44327176781002636</v>
       </c>
       <c r="Q35" s="18">
         <v>0</v>
       </c>
       <c r="R35" s="18">
-        <f t="shared" ref="R35:U35" si="257">(R12+R15)/R11</f>
+        <f t="shared" ref="R35:U35" si="260">(R12+R15)/R11</f>
         <v>0.72</v>
       </c>
       <c r="S35" s="18">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.54639175257731964</v>
       </c>
       <c r="T35" s="18">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.84166666666666656</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="V35" s="18">
@@ -35175,130 +36365,135 @@
         <v>0</v>
       </c>
       <c r="AB35" s="18">
-        <f t="shared" ref="AB35:AE35" si="258">(AB12+AB15)/AB11</f>
+        <f t="shared" ref="AB35:AE35" si="261">(AB12+AB15)/AB11</f>
         <v>0.48466257668711654</v>
       </c>
       <c r="AC35" s="18">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.4665178571428571</v>
       </c>
       <c r="AD35" s="18">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.59058823529411764</v>
       </c>
       <c r="AE35" s="18">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.6351351351351352</v>
       </c>
       <c r="AF35" s="18">
         <v>0</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" ref="AG35:AJ35" si="259">(AG12+AG15)/AG11</f>
+        <f t="shared" ref="AG35:AJ35" si="262">(AG12+AG15)/AG11</f>
         <v>0.51282051282051289</v>
       </c>
       <c r="AH35" s="18">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.64</v>
       </c>
       <c r="AI35" s="18">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.505</v>
       </c>
       <c r="AJ35" s="18">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.99736842105263157</v>
       </c>
       <c r="AK35" s="18">
         <v>0</v>
       </c>
       <c r="AL35" s="18">
-        <f t="shared" ref="AL35:AO35" si="260">(AL12+AL15)/AL11</f>
+        <f t="shared" ref="AL35:AP35" si="263">(AL12+AL15)/AL11</f>
         <v>0.3904109589041096</v>
       </c>
       <c r="AM35" s="18">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>0.5083333333333333</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>0.98305084745762705</v>
       </c>
       <c r="AO35" s="18">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>0.95017793594306033</v>
       </c>
       <c r="AP35" s="18">
-        <v>0</v>
+        <f t="shared" si="263"/>
+        <v>0.62658227848101267</v>
       </c>
       <c r="AQ35" s="18">
-        <v>0</v>
+        <f t="shared" ref="AQ35:AT35" si="264">(AQ12+AQ15)/AQ11</f>
+        <v>0.67741935483870963</v>
       </c>
       <c r="AR35" s="18">
-        <v>0</v>
+        <f t="shared" si="264"/>
+        <v>1.03125</v>
       </c>
       <c r="AS35" s="18">
-        <v>0</v>
+        <f t="shared" si="264"/>
+        <v>0.95238095238095233</v>
       </c>
       <c r="AT35" s="18">
-        <v>0</v>
+        <f t="shared" si="264"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AU35" s="18">
         <f>(AU12+AU15)/AU11</f>
         <v>0.55927051671732519</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" ref="AV35:AY35" si="261">(AV12+AV15)/AV11</f>
+        <f t="shared" ref="AV35:AY35" si="265">(AV12+AV15)/AV11</f>
         <v>0.60251798561151082</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="261"/>
+        <f t="shared" si="265"/>
         <v>0.46243902439024392</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="261"/>
+        <f t="shared" si="265"/>
         <v>0.79192546583850942</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" si="261"/>
+        <f t="shared" si="265"/>
         <v>0.63019693654266962</v>
       </c>
       <c r="AZ35" s="18">
         <v>0</v>
       </c>
       <c r="BA35" s="18">
-        <f t="shared" ref="BA35:BD35" si="262">(BA12+BA15)/BA11</f>
+        <f t="shared" ref="BA35:BD35" si="266">(BA12+BA15)/BA11</f>
         <v>0.47720364741641336</v>
       </c>
       <c r="BB35" s="18">
-        <f t="shared" si="262"/>
+        <f t="shared" si="266"/>
         <v>0.41719745222929944</v>
       </c>
       <c r="BC35" s="18">
-        <f t="shared" si="262"/>
+        <f t="shared" si="266"/>
         <v>0.45027322404371578</v>
       </c>
       <c r="BD35" s="18">
-        <f t="shared" si="262"/>
+        <f t="shared" si="266"/>
         <v>0.28800000000000003</v>
       </c>
       <c r="BE35" s="18">
         <v>0</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" ref="BF35:BI35" si="263">(BF12+BF15)/BF11</f>
+        <f t="shared" ref="BF35:BI35" si="267">(BF12+BF15)/BF11</f>
         <v>0.53909465020576142</v>
       </c>
       <c r="BG35" s="18">
-        <f t="shared" si="263"/>
+        <f t="shared" si="267"/>
         <v>0.59872611464968151</v>
       </c>
       <c r="BH35" s="18">
-        <f t="shared" si="263"/>
+        <f t="shared" si="267"/>
         <v>0.66233766233766223</v>
       </c>
       <c r="BI35" s="18">
-        <f t="shared" si="263"/>
+        <f t="shared" si="267"/>
         <v>0.68440366972477062</v>
       </c>
       <c r="BJ35" s="18">
@@ -35306,57 +36501,57 @@
         <v>0.60141509433962259</v>
       </c>
       <c r="BK35" s="18">
-        <f t="shared" ref="BK35:BN35" si="264">(BK12+BK15)/BK11</f>
+        <f t="shared" ref="BK35:BN35" si="268">(BK12+BK15)/BK11</f>
         <v>0.63194444444444442</v>
       </c>
       <c r="BL35" s="18">
-        <f t="shared" si="264"/>
+        <f t="shared" si="268"/>
         <v>0.42398286937901497</v>
       </c>
       <c r="BM35" s="18">
-        <f t="shared" si="264"/>
+        <f t="shared" si="268"/>
         <v>0.41038961038961042</v>
       </c>
       <c r="BN35" s="18">
-        <f t="shared" si="264"/>
+        <f t="shared" si="268"/>
         <v>0.38725490196078427</v>
       </c>
       <c r="BO35" s="18">
         <v>0</v>
       </c>
       <c r="BP35" s="18">
-        <f t="shared" ref="BP35:BS35" si="265">(BP12+BP15)/BP11</f>
+        <f t="shared" ref="BP35:BS35" si="269">(BP12+BP15)/BP11</f>
         <v>0.3587628865979382</v>
       </c>
       <c r="BQ35" s="18">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>0.51063829787234039</v>
       </c>
       <c r="BR35" s="18">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>0.62093023255813962</v>
       </c>
       <c r="BS35" s="18">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>0.51098901098901106</v>
       </c>
       <c r="BT35" s="18">
         <v>0</v>
       </c>
       <c r="BU35" s="18">
-        <f t="shared" ref="BU35:BX35" si="266">(BU12+BU15)/BU11</f>
+        <f t="shared" ref="BU35:BX35" si="270">(BU12+BU15)/BU11</f>
         <v>0.79005524861878451</v>
       </c>
       <c r="BV35" s="18">
-        <f t="shared" si="266"/>
+        <f t="shared" si="270"/>
         <v>0.6191860465116279</v>
       </c>
       <c r="BW35" s="18">
-        <f t="shared" si="266"/>
+        <f t="shared" si="270"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="BX35" s="18">
-        <f t="shared" si="266"/>
+        <f t="shared" si="270"/>
         <v>0.62051282051282053</v>
       </c>
       <c r="BY35" s="18">
@@ -35364,19 +36559,19 @@
         <v>0.66150178784266989</v>
       </c>
       <c r="BZ35" s="18">
-        <f t="shared" ref="BZ35:CC35" si="267">(BZ12+BZ15)/BZ11</f>
+        <f t="shared" ref="BZ35:CC35" si="271">(BZ12+BZ15)/BZ11</f>
         <v>0.59418457648546141</v>
       </c>
       <c r="CA35" s="18">
-        <f t="shared" si="267"/>
+        <f t="shared" si="271"/>
         <v>0.46932185145317545</v>
       </c>
       <c r="CB35" s="18">
-        <f t="shared" si="267"/>
+        <f t="shared" si="271"/>
         <v>0.61654135338345861</v>
       </c>
       <c r="CC35" s="18">
-        <f t="shared" si="267"/>
+        <f t="shared" si="271"/>
         <v>0.59866220735785947</v>
       </c>
       <c r="CD35" s="14">
@@ -35384,55 +36579,58 @@
         <v>0.63561320754716977</v>
       </c>
       <c r="CE35" s="18">
-        <f t="shared" ref="CE35:CH35" si="268">(CE12+CE15)/CE11</f>
+        <f t="shared" ref="CE35:CH35" si="272">(CE12+CE15)/CE11</f>
         <v>0.57894736842105265</v>
       </c>
       <c r="CF35" s="18">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>0.37100737100737102</v>
       </c>
       <c r="CG35" s="18">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>0.7416666666666667</v>
       </c>
       <c r="CH35" s="18">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>0.54749999999999999</v>
       </c>
-      <c r="CI35" s="18"/>
+      <c r="CI35" s="18">
+        <f t="shared" ref="CI35:CM35" si="273">(CI12+CI15)/CI11</f>
+        <v>0.51270553064275037</v>
+      </c>
       <c r="CJ35" s="18">
-        <f t="shared" ref="CJ35:CM35" si="269">(CJ12+CJ15)/CJ11</f>
+        <f t="shared" si="273"/>
         <v>0.46598639455782315</v>
       </c>
       <c r="CK35" s="18">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.69976905311778281</v>
       </c>
       <c r="CL35" s="18">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.84210526315789469</v>
       </c>
       <c r="CM35" s="18">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.9478527607361964</v>
       </c>
       <c r="CN35" s="18">
         <v>0</v>
       </c>
       <c r="CO35" s="18">
-        <f t="shared" ref="CO35:CR35" si="270">(CO12+CO15)/CO11</f>
+        <f t="shared" ref="CO35:CR35" si="274">(CO12+CO15)/CO11</f>
         <v>0.80172413793103448</v>
       </c>
       <c r="CP35" s="18">
-        <f t="shared" si="270"/>
+        <f t="shared" si="274"/>
         <v>0.40602409638554221</v>
       </c>
       <c r="CQ35" s="18">
-        <f t="shared" si="270"/>
+        <f t="shared" si="274"/>
         <v>0.48159509202453993</v>
       </c>
       <c r="CR35" s="18">
-        <f t="shared" si="270"/>
+        <f t="shared" si="274"/>
         <v>0.38500000000000001</v>
       </c>
     </row>
@@ -35497,19 +36695,19 @@
         <v>2.4605263157894739</v>
       </c>
       <c r="BZ38" s="14">
-        <f t="shared" ref="BZ38:CC38" si="271">BZ10/BZ37</f>
+        <f t="shared" ref="BZ38:CC38" si="275">BZ10/BZ37</f>
         <v>2.71875</v>
       </c>
       <c r="CA38" s="14">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>2.6226415094339623</v>
       </c>
       <c r="CB38" s="14">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>2.8653846153846154</v>
       </c>
       <c r="CC38" s="14">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>2.0377358490566038</v>
       </c>
       <c r="CD38" s="14"/>
@@ -35531,13 +36729,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D6FB5D-EA92-4165-B3F7-5826A0789D8F}">
+  <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:BU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Y35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomRight" activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35938,9 +37137,18 @@
         <f>Painel!AO3*IPC!J$3</f>
         <v>128.49827346296391</v>
       </c>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
+      <c r="Z3" s="14">
+        <f>Painel_Cte!AP3</f>
+        <v>75</v>
+      </c>
+      <c r="AA3" s="14">
+        <f>Painel_Cte!AQ3</f>
+        <v>90.772000000000006</v>
+      </c>
+      <c r="AB3" s="14">
+        <f>Painel_Cte!AT3</f>
+        <v>0</v>
+      </c>
       <c r="AC3" s="1">
         <v>425</v>
       </c>
@@ -36019,7 +37227,10 @@
         <f>Painel!CH3*IPC!J$3</f>
         <v>138.57656942084344</v>
       </c>
-      <c r="BA3" s="14"/>
+      <c r="BA3" s="14">
+        <f>Painel!CI3</f>
+        <v>259</v>
+      </c>
       <c r="BB3" s="14">
         <f>Painel!CJ3*IPC!G$3</f>
         <v>211.45750000000001</v>
@@ -36123,9 +37334,18 @@
         <f>Painel!AO4*IPC!J$3</f>
         <v>32.754461863108446</v>
       </c>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
+      <c r="Z4" s="14">
+        <f>Painel_Cte!AP4</f>
+        <v>6.3</v>
+      </c>
+      <c r="AA4" s="14">
+        <f>Painel_Cte!AQ4</f>
+        <v>5.6732500000000003</v>
+      </c>
+      <c r="AB4" s="14">
+        <f>Painel_Cte!AT4</f>
+        <v>30.234887873638566</v>
+      </c>
       <c r="AC4" s="14">
         <f>Resultado!K3</f>
         <v>183</v>
@@ -36207,7 +37427,10 @@
         <f>Painel!CH4*IPC!J$3</f>
         <v>28.975100878903625</v>
       </c>
-      <c r="BA4" s="14"/>
+      <c r="BA4" s="14">
+        <f>Painel!CI4</f>
+        <v>46</v>
+      </c>
       <c r="BB4" s="14">
         <f>Painel!CJ4*IPC!G$3</f>
         <v>55.701000000000008</v>
@@ -36311,9 +37534,18 @@
         <f>Painel!AO5*IPC!J$3</f>
         <v>22.676165905228924</v>
       </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
+      <c r="Z5" s="14">
+        <f>Painel_Cte!AP5</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AA5" s="14">
+        <f>Painel_Cte!AQ5</f>
+        <v>13.718950000000001</v>
+      </c>
+      <c r="AB5" s="14">
+        <f>Painel_Cte!AT5</f>
+        <v>1.6377230931554223</v>
+      </c>
       <c r="AC5" s="14">
         <f>Resultado!K4</f>
         <v>169</v>
@@ -36395,7 +37627,10 @@
         <f>Painel!CH5*IPC!J$3</f>
         <v>30.234887873638566</v>
       </c>
-      <c r="BA5" s="14"/>
+      <c r="BA5" s="14">
+        <f>Painel!CI5</f>
+        <v>110</v>
+      </c>
       <c r="BB5" s="14">
         <f>Painel!CJ5*IPC!G$3</f>
         <v>66.016000000000005</v>
@@ -36487,9 +37722,18 @@
         <f>Painel!AO6*IPC!J$3</f>
         <v>17.637017926289165</v>
       </c>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
+      <c r="Z6" s="14">
+        <f>Painel_Cte!AP6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="14">
+        <f>Painel_Cte!AQ6</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="14">
+        <f>Painel_Cte!AT6</f>
+        <v>0</v>
+      </c>
       <c r="AC6" s="14">
         <f>Resultado!K5</f>
         <v>90</v>
@@ -36559,7 +37803,10 @@
       <c r="AX6" s="14"/>
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
+      <c r="BA6" s="14">
+        <f>Painel!CI6</f>
+        <v>21</v>
+      </c>
       <c r="BB6" s="14">
         <f>Painel!CJ6*IPC!G$3</f>
         <v>18.567</v>
@@ -36618,9 +37865,18 @@
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
+      <c r="Z7" s="14">
+        <f>Painel_Cte!AP7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
+        <f>Painel_Cte!AQ7</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <f>Painel_Cte!AT7</f>
+        <v>0</v>
+      </c>
       <c r="AC7" s="14">
         <f>Resultado!K6</f>
         <v>137</v>
@@ -36690,7 +37946,10 @@
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
+      <c r="BA7" s="14">
+        <f>Painel!CI7</f>
+        <v>0</v>
+      </c>
       <c r="BB7" s="14">
         <f>Painel!CJ7*IPC!G$3</f>
         <v>29.913500000000003</v>
@@ -36758,9 +38017,18 @@
         <v>14.441000000000001</v>
       </c>
       <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
+      <c r="Z8" s="14">
+        <f>Painel_Cte!AP8</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14">
+        <f>Painel_Cte!AQ8</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <f>Painel_Cte!AT8</f>
+        <v>0</v>
+      </c>
       <c r="AC8" s="14">
         <f>Resultado!K7</f>
         <v>59</v>
@@ -36818,7 +38086,10 @@
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
+      <c r="BA8" s="14">
+        <f>Painel!CI8</f>
+        <v>18</v>
+      </c>
       <c r="BB8" s="14">
         <f>Painel!CJ8*IPC!G$3</f>
         <v>16.504000000000001</v>
@@ -36922,9 +38193,18 @@
         <f t="shared" ref="Y9" si="6">SUM(Y3:Y8)-Y7</f>
         <v>201.56591915759043</v>
       </c>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
+      <c r="Z9" s="14">
+        <f>Painel_Cte!AP9</f>
+        <v>97.9</v>
+      </c>
+      <c r="AA9" s="14">
+        <f>Painel_Cte!AQ9</f>
+        <v>110.16420000000001</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>Painel_Cte!AT9</f>
+        <v>31.872610966793989</v>
+      </c>
       <c r="AC9" s="14">
         <f>SUM(AC3:AC8)-AC7</f>
         <v>926</v>
@@ -37006,7 +38286,10 @@
         <f t="shared" si="13"/>
         <v>197.78655817338563</v>
       </c>
-      <c r="BA9" s="14"/>
+      <c r="BA9" s="14">
+        <f>Painel!CI9</f>
+        <v>454</v>
+      </c>
       <c r="BB9" s="14">
         <f t="shared" ref="BB9:BC9" si="14">SUM(BB3:BB8)-BB7</f>
         <v>368.24550000000005</v>
@@ -37110,9 +38393,18 @@
         <f>Painel!AO10*IPC!J$3</f>
         <v>136.05699543137354</v>
       </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
+      <c r="Z10" s="14">
+        <f>Painel_Cte!AP10</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
+        <f>Painel_Cte!AQ10</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <f>Painel_Cte!AT10</f>
+        <v>0</v>
+      </c>
       <c r="AC10" s="14">
         <f>Resultado!K9</f>
         <v>303</v>
@@ -37194,7 +38486,10 @@
         <f>Painel!CH10*IPC!J$3</f>
         <v>272.11399086274707</v>
       </c>
-      <c r="BA10" s="14"/>
+      <c r="BA10" s="14">
+        <f>Painel!CI10</f>
+        <v>121</v>
+      </c>
       <c r="BB10" s="14">
         <f>Painel!CJ10*IPC!G$3</f>
         <v>236.21350000000001</v>
@@ -37298,9 +38593,18 @@
         <f>Painel!AO11*IPC!J$3</f>
         <v>354.00014552051823</v>
       </c>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
+      <c r="Z11" s="14">
+        <f>Painel_Cte!AP11</f>
+        <v>158</v>
+      </c>
+      <c r="AA11" s="14">
+        <f>Painel_Cte!AQ11</f>
+        <v>127.90600000000001</v>
+      </c>
+      <c r="AB11" s="14">
+        <f>Painel_Cte!AT11</f>
+        <v>26.455526889433745</v>
+      </c>
       <c r="AC11" s="14">
         <f>Resultado!K11</f>
         <v>1316</v>
@@ -37382,7 +38686,10 @@
         <f>Painel!CH11*IPC!J$3</f>
         <v>503.91479789397613</v>
       </c>
-      <c r="BA11" s="14"/>
+      <c r="BA11" s="14">
+        <f>Painel!CI11</f>
+        <v>669</v>
+      </c>
       <c r="BB11" s="14">
         <f>Painel!CJ11*IPC!G$3</f>
         <v>606.52200000000005</v>
@@ -37486,9 +38793,18 @@
         <f>Painel!AO12*IPC!J$3</f>
         <v>265.81505588907237</v>
       </c>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
+      <c r="Z12" s="14">
+        <f>Painel_Cte!AP12</f>
+        <v>99</v>
+      </c>
+      <c r="AA12" s="14">
+        <f>Painel_Cte!AQ12</f>
+        <v>86.646000000000001</v>
+      </c>
+      <c r="AB12" s="14">
+        <f>Painel_Cte!AT12</f>
+        <v>22.676165905228924</v>
+      </c>
       <c r="AC12" s="14">
         <f>Índices!K28</f>
         <v>463</v>
@@ -37570,7 +38886,10 @@
         <f>Painel!CH12*IPC!J$3</f>
         <v>209.12464112600009</v>
       </c>
-      <c r="BA12" s="14"/>
+      <c r="BA12" s="14">
+        <f>Painel!CI12</f>
+        <v>266</v>
+      </c>
       <c r="BB12" s="14">
         <f>Painel!CJ12*IPC!G$3</f>
         <v>204.23700000000002</v>
@@ -37674,9 +38993,18 @@
         <f>Painel!AO13*IPC!J$3</f>
         <v>-496.35607592556647</v>
       </c>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
+      <c r="Z13" s="14">
+        <f>Painel_Cte!AP13</f>
+        <v>37</v>
+      </c>
+      <c r="AA13" s="14">
+        <f>Painel_Cte!AQ13</f>
+        <v>26.819000000000003</v>
+      </c>
+      <c r="AB13" s="14">
+        <f>Painel_Cte!AT13</f>
+        <v>2.1416378910493985</v>
+      </c>
       <c r="AC13" s="14">
         <f>Resultado!K21</f>
         <v>320</v>
@@ -37758,7 +39086,10 @@
         <f>Painel!CH13*IPC!J$3</f>
         <v>30.234887873638566</v>
       </c>
-      <c r="BA13" s="14"/>
+      <c r="BA13" s="14">
+        <f>Painel!CI13</f>
+        <v>62</v>
+      </c>
       <c r="BB13" s="14">
         <f>Painel!CJ13*IPC!G$3</f>
         <v>38.165500000000002</v>
@@ -37862,9 +39193,18 @@
         <f>Painel!AO14*IPC!J$3</f>
         <v>185.18868822603622</v>
       </c>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
+      <c r="Z14" s="14">
+        <f>Painel_Cte!AP14</f>
+        <v>37</v>
+      </c>
+      <c r="AA14" s="14">
+        <f>Painel_Cte!AQ14</f>
+        <v>26.819000000000003</v>
+      </c>
+      <c r="AB14" s="14">
+        <f>Painel_Cte!AT14</f>
+        <v>7.5587219684096416</v>
+      </c>
       <c r="AC14" s="14">
         <v>485</v>
       </c>
@@ -37943,7 +39283,10 @@
         <f>Painel!CH14*IPC!J$3</f>
         <v>256.99654692592782</v>
       </c>
-      <c r="BA14" s="14"/>
+      <c r="BA14" s="14">
+        <f>Painel!CI14</f>
+        <v>116</v>
+      </c>
       <c r="BB14" s="14">
         <f>Painel!CJ14*IPC!G$3</f>
         <v>235.18200000000002</v>
@@ -38047,9 +39390,18 @@
         <f>Painel!AO15*IPC!J$3</f>
         <v>70.548071705156659</v>
       </c>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
+      <c r="Z15" s="14">
+        <f>Painel_Cte!AP15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <f>Painel_Cte!AQ15</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <f>Painel_Cte!AT15</f>
+        <v>0</v>
+      </c>
       <c r="AC15" s="14">
         <v>273</v>
       </c>
@@ -38129,7 +39481,10 @@
         <f>Painel!CH15*IPC!J$3</f>
         <v>66.76871072095183</v>
       </c>
-      <c r="BA15" s="14"/>
+      <c r="BA15" s="14">
+        <f>Painel!CI15</f>
+        <v>77</v>
+      </c>
       <c r="BB15" s="14">
         <f>Painel!CJ15*IPC!G$3</f>
         <v>78.394000000000005</v>
@@ -38233,9 +39588,18 @@
         <f>Painel!AO16*IPC!J$3</f>
         <v>23.935952899963866</v>
       </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
+      <c r="Z16" s="14">
+        <f>Painel_Cte!AP16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <f>Painel_Cte!AQ16</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <f>Painel_Cte!AT16</f>
+        <v>0</v>
+      </c>
       <c r="AC16" s="22">
         <v>16</v>
       </c>
@@ -38315,7 +39679,10 @@
         <f>Painel!CH16*IPC!J$3</f>
         <v>11.338082952614462</v>
       </c>
-      <c r="BA16" s="14"/>
+      <c r="BA16" s="14">
+        <f>Painel!CI16</f>
+        <v>34</v>
+      </c>
       <c r="BB16" s="14">
         <f>Painel!CJ16*IPC!G$3</f>
         <v>16.504000000000001</v>
@@ -39706,7 +41073,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="14">
-        <f t="shared" ref="B24:AA24" si="16">B11/B18</f>
+        <f t="shared" ref="B24:AB24" si="16">B11/B18</f>
         <v>0</v>
       </c>
       <c r="C24" s="14">
@@ -39803,13 +41170,16 @@
       </c>
       <c r="Z24" s="14">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="AA24" s="14">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="14"/>
+        <v>639.53</v>
+      </c>
+      <c r="AB24" s="14">
+        <f t="shared" si="16"/>
+        <v>132.27763444716871</v>
+      </c>
       <c r="AC24" s="14">
         <f>AC11/AC18</f>
         <v>27.359667359667359</v>
@@ -39908,7 +41278,7 @@
       </c>
       <c r="BA24" s="14">
         <f>BA11/BA18</f>
-        <v>0</v>
+        <v>30.688073394495412</v>
       </c>
       <c r="BB24" s="14">
         <f t="shared" ref="BB24:BC24" si="21">BB11/BB18</f>
@@ -40011,7 +41381,9 @@
       <c r="AA25" s="14">
         <v>0</v>
       </c>
-      <c r="AB25" s="14"/>
+      <c r="AB25" s="14">
+        <v>0</v>
+      </c>
       <c r="AC25" s="14">
         <f>AC10/AC16</f>
         <v>18.9375</v>
@@ -40095,9 +41467,12 @@
         <f t="shared" si="35"/>
         <v>24</v>
       </c>
-      <c r="BA25" s="14"/>
+      <c r="BA25" s="14">
+        <f t="shared" ref="BA25:BC25" si="36">BA10/BA16</f>
+        <v>3.5588235294117645</v>
+      </c>
       <c r="BB25" s="14">
-        <f t="shared" ref="BB25:BC25" si="36">BB10/BB16</f>
+        <f t="shared" si="36"/>
         <v>14.3125</v>
       </c>
       <c r="BC25" s="14">
@@ -40183,7 +41558,7 @@
         <v>0.76487067537478526</v>
       </c>
       <c r="T26" s="14">
-        <f t="shared" ref="T26:V26" si="44">T10/T19</f>
+        <f t="shared" ref="T26:U26" si="44">T10/T19</f>
         <v>0.5066666666666666</v>
       </c>
       <c r="U26" s="14">
@@ -40204,12 +41579,15 @@
         <v>3.7793609842048204</v>
       </c>
       <c r="Z26" s="14">
+        <f>Z10/Z19</f>
         <v>0</v>
       </c>
       <c r="AA26" s="14">
         <v>0</v>
       </c>
-      <c r="AB26" s="14"/>
+      <c r="AB26" s="14">
+        <v>0</v>
+      </c>
       <c r="AC26" s="14">
         <f>AC10/AC19</f>
         <v>4.5909090909090908</v>
@@ -40303,7 +41681,7 @@
       </c>
       <c r="BA26" s="14">
         <f>BA10/BA19</f>
-        <v>0</v>
+        <v>2.2830188679245285</v>
       </c>
       <c r="BB26" s="14">
         <f t="shared" ref="BB26:BC26" si="54">BB10/BB19</f>
@@ -40404,8 +41782,12 @@
       <c r="Z27" s="14">
         <v>0</v>
       </c>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
+      <c r="AA27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>0</v>
+      </c>
       <c r="AC27" s="14">
         <f>AC7/AC12</f>
         <v>0.29589632829373652</v>
@@ -40489,9 +41871,12 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="BA27" s="14"/>
+      <c r="BA27" s="14">
+        <f t="shared" ref="BA27:BC27" si="71">BA7/BA12</f>
+        <v>0</v>
+      </c>
       <c r="BB27" s="14">
-        <f t="shared" ref="BB27:BC27" si="71">BB7/BB12</f>
+        <f t="shared" si="71"/>
         <v>0.14646464646464646</v>
       </c>
       <c r="BC27" s="14">
@@ -40598,44 +41983,48 @@
         <v>7.3837515524742328</v>
       </c>
       <c r="Z28" s="14">
-        <v>0</v>
+        <f>Z12/Z19</f>
+        <v>1.9411764705882353</v>
       </c>
       <c r="AA28" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="14"/>
+        <f t="shared" ref="AA28:AB28" si="81">AA12/AA19</f>
+        <v>2.1133170731707316</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>0</v>
+      </c>
       <c r="AC28" s="14">
         <f>AC12/AC19</f>
         <v>7.0151515151515156</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" ref="AD28:AE28" si="81">AD12/AD19</f>
+        <f t="shared" ref="AD28:AE28" si="82">AD12/AD19</f>
         <v>7.3036854838709679</v>
       </c>
       <c r="AE28" s="14">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>4.5632284475954501</v>
       </c>
       <c r="AF28" s="14">
         <v>0</v>
       </c>
       <c r="AG28" s="14">
-        <f t="shared" ref="AG28:AH28" si="82">AG12/AG19</f>
+        <f t="shared" ref="AG28:AH28" si="83">AG12/AG19</f>
         <v>1.9156428571428572</v>
       </c>
       <c r="AH28" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.6705871017137253</v>
       </c>
       <c r="AI28" s="14">
         <v>0</v>
       </c>
       <c r="AJ28" s="14">
-        <f t="shared" ref="AJ28:AK28" si="83">AJ12/AJ19</f>
+        <f t="shared" ref="AJ28:AK28" si="84">AJ12/AJ19</f>
         <v>1.5941363636363639</v>
       </c>
       <c r="AK28" s="14">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.6401000497492619</v>
       </c>
       <c r="AL28" s="14">
@@ -40646,29 +42035,29 @@
         <v>0</v>
       </c>
       <c r="AN28" s="14">
-        <f t="shared" ref="AN28" si="84">AN12/AN19</f>
+        <f t="shared" ref="AN28" si="85">AN12/AN19</f>
         <v>2.1125658834785921</v>
       </c>
       <c r="AO28" s="14">
         <v>0</v>
       </c>
       <c r="AP28" s="14">
-        <f t="shared" ref="AP28:AQ28" si="85">AP12/AP19</f>
+        <f t="shared" ref="AP28:AQ28" si="86">AP12/AP19</f>
         <v>0.73998913043478265</v>
       </c>
       <c r="AQ28" s="14">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.99329359200254908</v>
       </c>
       <c r="AR28" s="14">
         <v>0</v>
       </c>
       <c r="AS28" s="14">
-        <f t="shared" ref="AS28:AT28" si="86">AS12/AS19</f>
+        <f t="shared" ref="AS28:AT28" si="87">AS12/AS19</f>
         <v>2.7977671232876715</v>
       </c>
       <c r="AT28" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4.1992899824498009</v>
       </c>
       <c r="AU28" s="14">
@@ -40676,11 +42065,11 @@
         <v>5.7857142857142856</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" ref="AV28:AW28" si="87">AV12/AV19</f>
+        <f t="shared" ref="AV28:AW28" si="88">AV12/AV19</f>
         <v>4.6481172839506177</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>4.2390129957972986</v>
       </c>
       <c r="AX28" s="14">
@@ -40688,23 +42077,23 @@
         <v>0</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" ref="AY28:AZ28" si="88">AY12/AY19</f>
+        <f t="shared" ref="AY28:AZ28" si="89">AY12/AY19</f>
         <v>2.9847659574468088</v>
       </c>
       <c r="AZ28" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2.826008663864866</v>
       </c>
       <c r="BA28" s="14">
         <f>BA12/BA19</f>
-        <v>0</v>
+        <v>5.0188679245283021</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" ref="BB28:BC28" si="89">BB12/BB19</f>
+        <f t="shared" ref="BB28:BC28" si="90">BB12/BB19</f>
         <v>3.7821666666666669</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>3.2994421290677005</v>
       </c>
       <c r="BD28" s="14">
@@ -40714,7 +42103,7 @@
         <v>0</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" ref="BF28" si="90">BF12/BF19</f>
+        <f t="shared" ref="BF28" si="91">BF12/BF19</f>
         <v>2.2881845414573405</v>
       </c>
     </row>
@@ -40726,7 +42115,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29" si="91">C11/C19</f>
+        <f t="shared" ref="C29" si="92">C11/C19</f>
         <v>2.8025660377358492</v>
       </c>
       <c r="D29" s="14">
@@ -40736,22 +42125,22 @@
         <v>0</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" ref="F29:G29" si="92">F11/F19</f>
+        <f t="shared" ref="F29:G29" si="93">F11/F19</f>
         <v>6.8470258620689668</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7.427494156458085</v>
       </c>
       <c r="H29" s="14">
         <v>0</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" ref="I29:J29" si="93">I11/I19</f>
+        <f t="shared" ref="I29:J29" si="94">I11/I19</f>
         <v>6.2067844827586214</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>7.4603011094459744</v>
       </c>
       <c r="K29" s="14">
@@ -40761,37 +42150,37 @@
         <v>0</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" ref="M29" si="94">M11/M19</f>
+        <f t="shared" ref="M29" si="95">M11/M19</f>
         <v>4.4735293282424413</v>
       </c>
       <c r="N29" s="14">
         <v>0</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" ref="O29:P29" si="95">O11/O19</f>
+        <f t="shared" ref="O29:P29" si="96">O11/O19</f>
         <v>0</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q29" s="14">
         <v>0</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" ref="R29:S29" si="96">R11/R19</f>
+        <f t="shared" ref="R29:S29" si="97">R11/R19</f>
         <v>10.346738461538461</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>8.3235926437844263</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" ref="T29:U29" si="97">T11/T19</f>
+        <f t="shared" ref="T29:U29" si="98">T11/T19</f>
         <v>5.3366666666666669</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3.8312857142857148</v>
       </c>
       <c r="V29" s="14">
@@ -40804,48 +42193,52 @@
         <v>0</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" ref="Y29" si="98">Y11/Y19</f>
+        <f t="shared" ref="Y29" si="99">Y11/Y19</f>
         <v>9.8333373755699505</v>
       </c>
       <c r="Z29" s="14">
-        <v>0</v>
+        <f>Z11/Z19</f>
+        <v>3.0980392156862746</v>
       </c>
       <c r="AA29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="14"/>
+        <f t="shared" ref="AA29:AB29" si="100">AA11/AA19</f>
+        <v>3.1196585365853662</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>0</v>
+      </c>
       <c r="AC29" s="14">
         <f>AC11/AC19</f>
         <v>19.939393939393938</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" ref="AD29:AE29" si="99">AD11/AD19</f>
+        <f t="shared" ref="AD29:AE29" si="101">AD11/AD19</f>
         <v>18.500451612903227</v>
       </c>
       <c r="AE29" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>12.793836813197059</v>
       </c>
       <c r="AF29" s="14">
         <v>0</v>
       </c>
       <c r="AG29" s="14">
-        <f t="shared" ref="AG29:AH29" si="100">AG11/AG19</f>
+        <f t="shared" ref="AG29:AH29" si="102">AG11/AG19</f>
         <v>4.8480500000000006</v>
       </c>
       <c r="AH29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>6.8466684496464145</v>
       </c>
       <c r="AI29" s="14">
         <v>0</v>
       </c>
       <c r="AJ29" s="14">
-        <f t="shared" ref="AJ29:AK29" si="101">AJ11/AJ19</f>
+        <f t="shared" ref="AJ29:AK29" si="103">AJ11/AJ19</f>
         <v>4.5573545454545457</v>
       </c>
       <c r="AK29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>2.5908826872850659</v>
       </c>
       <c r="AL29" s="14">
@@ -40856,29 +42249,29 @@
         <v>0</v>
       </c>
       <c r="AN29" s="14">
-        <f t="shared" ref="AN29" si="102">AN11/AN19</f>
+        <f t="shared" ref="AN29" si="104">AN11/AN19</f>
         <v>7.9075860592593177</v>
       </c>
       <c r="AO29" s="14">
         <v>0</v>
       </c>
       <c r="AP29" s="14">
-        <f t="shared" ref="AP29:AQ29" si="103">AP11/AP19</f>
+        <f t="shared" ref="AP29:AQ29" si="105">AP11/AP19</f>
         <v>2.1751195652173916</v>
       </c>
       <c r="AQ29" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>2.2046272407861456</v>
       </c>
       <c r="AR29" s="14">
         <v>0</v>
       </c>
       <c r="AS29" s="14">
-        <f t="shared" ref="AS29:AT29" si="104">AS11/AS19</f>
+        <f t="shared" ref="AS29:AT29" si="106">AS11/AS19</f>
         <v>5.1151095890410962</v>
       </c>
       <c r="AT29" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>8.6195952271338019</v>
       </c>
       <c r="AU29" s="14">
@@ -40886,11 +42279,11 @@
         <v>11.985714285714286</v>
       </c>
       <c r="AV29" s="14">
-        <f t="shared" ref="AV29:AW29" si="105">AV11/AV19</f>
+        <f t="shared" ref="AV29:AW29" si="107">AV11/AV19</f>
         <v>10.073043209876543</v>
       </c>
       <c r="AW29" s="14">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>10.180440849344517</v>
       </c>
       <c r="AX29" s="14">
@@ -40898,23 +42291,23 @@
         <v>0</v>
       </c>
       <c r="AY29" s="14">
-        <f t="shared" ref="AY29:AZ29" si="106">AY11/AY19</f>
+        <f t="shared" ref="AY29:AZ29" si="108">AY11/AY19</f>
         <v>7.5058085106382988</v>
       </c>
       <c r="AZ29" s="14">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>6.8096594309996776</v>
       </c>
       <c r="BA29" s="14">
         <f>BA11/BA19</f>
-        <v>0</v>
+        <v>12.622641509433961</v>
       </c>
       <c r="BB29" s="14">
-        <f t="shared" ref="BB29:BC29" si="107">BB11/BB19</f>
+        <f t="shared" ref="BB29:BC29" si="109">BB11/BB19</f>
         <v>11.231888888888889</v>
       </c>
       <c r="BC29" s="14">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>6.5188977822792147</v>
       </c>
       <c r="BD29" s="14">
@@ -40924,7 +42317,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="14">
-        <f t="shared" ref="BF29" si="108">BF11/BF19</f>
+        <f t="shared" ref="BF29" si="110">BF11/BF19</f>
         <v>6.1703852803344006</v>
       </c>
     </row>
@@ -41001,14 +42394,17 @@
       <c r="Y30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="Z30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB30" s="14" t="s">
-        <v>107</v>
+      <c r="Z30" s="14">
+        <f>Painel!AR30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="14">
+        <f>Painel!AS30</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14">
+        <f>Painel!AT30</f>
+        <v>0</v>
       </c>
       <c r="AC30" s="14">
         <f>Painel!AU30</f>
@@ -41086,8 +42482,9 @@
         <f>Painel!CH30*IPC!J$3</f>
         <v>0</v>
       </c>
-      <c r="BA30" s="14" t="s">
-        <v>107</v>
+      <c r="BA30" s="14">
+        <f>Painel_Cte!CI30</f>
+        <v>0</v>
       </c>
       <c r="BB30" s="14">
         <f>Painel!CJ30*IPC!G$3</f>
@@ -41171,9 +42568,18 @@
       <c r="Y31" s="14">
         <v>525.33117680447015</v>
       </c>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
+      <c r="Z31" s="14">
+        <f>Painel_Cte!AP31</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA31" s="14">
+        <f>Painel_Cte!AQ31</f>
+        <v>0.92835000000000012</v>
+      </c>
+      <c r="AB31" s="14">
+        <f>Painel_Cte!AT31</f>
+        <v>0</v>
+      </c>
       <c r="AC31" s="14">
         <f>Painel!AU31</f>
         <v>255</v>
@@ -41245,7 +42651,10 @@
         <f>Painel!CC31*IPC!J$3</f>
         <v>304.86845272585555</v>
       </c>
-      <c r="AX31" s="14"/>
+      <c r="AX31" s="14">
+        <f>Painel_Cte!CD31</f>
+        <v>418</v>
+      </c>
       <c r="AY31" s="14">
         <f>Painel!CE31*IPC!G$3</f>
         <v>453.86</v>
@@ -41254,7 +42663,10 @@
         <f>Painel!CH31*IPC!J$3</f>
         <v>425.80800422040983</v>
       </c>
-      <c r="BA31" s="14"/>
+      <c r="BA31" s="14">
+        <f>Painel_Cte!CI31</f>
+        <v>491</v>
+      </c>
       <c r="BB31" s="14">
         <f>Painel!CJ31*IPC!G$3</f>
         <v>533.28550000000007</v>
@@ -41279,38 +42691,38 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="20">
-        <f t="shared" ref="C32:D32" si="109">C31/C14</f>
+        <f t="shared" ref="C32:D32" si="111">C31/C14</f>
         <v>32.333333333333336</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-7.0777777777777784</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="20">
-        <f t="shared" ref="F32:G32" si="110">F31/F14</f>
+        <f t="shared" ref="F32:G32" si="112">F31/F14</f>
         <v>29.794871794871792</v>
       </c>
       <c r="G32" s="20">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>4.5600000000000005</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="20">
-        <f t="shared" ref="I32:J32" si="111">I31/I14</f>
+        <f t="shared" ref="I32:J32" si="113">I31/I14</f>
         <v>4.563380281690141</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2.5765765765765769</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="20">
-        <f t="shared" ref="L32:M32" si="112">L31/L14</f>
+        <f t="shared" ref="L32:M32" si="114">L31/L14</f>
         <v>200</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>3.641025641025641</v>
       </c>
       <c r="N32" s="14"/>
@@ -41318,65 +42730,74 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="20">
-        <f t="shared" ref="R32:S32" si="113">R31/R14</f>
+        <f t="shared" ref="R32:S32" si="115">R31/R14</f>
         <v>3.6707317073170729</v>
       </c>
       <c r="S32" s="20">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>-17.777777777777779</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" ref="T32:V32" si="114">T31/T14</f>
+        <f t="shared" ref="T32:V32" si="116">T31/T14</f>
         <v>0.3</v>
       </c>
       <c r="U32" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>3.078125</v>
       </c>
       <c r="V32" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>-19.363636363636363</v>
       </c>
       <c r="W32" s="14"/>
       <c r="X32" s="20">
-        <f t="shared" ref="X32:Y32" si="115">X31/X14</f>
+        <f t="shared" ref="X32:Y32" si="117">X31/X14</f>
         <v>4.5273972602739718</v>
       </c>
       <c r="Y32" s="20">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>2.8367346938775513</v>
       </c>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
+      <c r="Z32" s="20">
+        <f>Z31/Z14</f>
+        <v>2.1621621621621623E-2</v>
+      </c>
+      <c r="AA32" s="20">
+        <f t="shared" ref="AA32:AB32" si="118">AA31/AA14</f>
+        <v>3.4615384615384617E-2</v>
+      </c>
+      <c r="AB32" s="20">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="AC32" s="20">
         <f>AC31/AC14</f>
         <v>0.52577319587628868</v>
       </c>
       <c r="AD32" s="20">
-        <f t="shared" ref="AD32:AE32" si="116">AD31/AD14</f>
+        <f t="shared" ref="AD32:AE32" si="119">AD31/AD14</f>
         <v>1.0526125730994154</v>
       </c>
       <c r="AE32" s="20">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>2.1690687369024979</v>
       </c>
       <c r="AF32" s="14"/>
       <c r="AG32" s="20">
-        <f t="shared" ref="AG32:AH32" si="117">AG31/AG14</f>
+        <f t="shared" ref="AG32:AH32" si="120">AG31/AG14</f>
         <v>9.109375</v>
       </c>
       <c r="AH32" s="20">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>7.628571428571429</v>
       </c>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="20">
-        <f t="shared" ref="AJ32:AK32" si="118">AJ31/AJ14</f>
+        <f t="shared" ref="AJ32:AK32" si="121">AJ31/AJ14</f>
         <v>0.17719298245614037</v>
       </c>
       <c r="AK32" s="20">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>1.711111111111111</v>
       </c>
       <c r="AL32" s="20">
@@ -41384,29 +42805,29 @@
         <v>2.9225806451612901</v>
       </c>
       <c r="AM32" s="20">
-        <f t="shared" ref="AM32:AN32" si="119">AM31/AM14</f>
+        <f t="shared" ref="AM32:AN32" si="122">AM31/AM14</f>
         <v>13.818181818181818</v>
       </c>
       <c r="AN32" s="20">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>2.2088607594936707</v>
       </c>
       <c r="AO32" s="14"/>
       <c r="AP32" s="20">
-        <f t="shared" ref="AP32:AQ32" si="120">AP31/AP14</f>
+        <f t="shared" ref="AP32:AQ32" si="123">AP31/AP14</f>
         <v>1.3225152129817446</v>
       </c>
       <c r="AQ32" s="20">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>1.0894736842105266</v>
       </c>
       <c r="AR32" s="14"/>
       <c r="AS32" s="20">
-        <f t="shared" ref="AS32:AT32" si="121">AS31/AS14</f>
+        <f t="shared" ref="AS32:AT32" si="124">AS31/AS14</f>
         <v>2.8596491228070176</v>
       </c>
       <c r="AT32" s="20">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>2.202247191011236</v>
       </c>
       <c r="AU32" s="20">
@@ -41414,40 +42835,43 @@
         <v>0.68817204301075274</v>
       </c>
       <c r="AV32" s="20">
-        <f t="shared" ref="AV32:AW32" si="122">AV31/AV14</f>
+        <f t="shared" ref="AV32:AW32" si="125">AV31/AV14</f>
         <v>0.87431693989071035</v>
       </c>
       <c r="AW32" s="20">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>1.2804232804232805</v>
       </c>
       <c r="AX32" s="20">
         <v>0</v>
       </c>
       <c r="AY32" s="20">
-        <f t="shared" ref="AY32" si="123">AY31/AY14</f>
+        <f t="shared" ref="AX32:AY32" si="126">AY31/AY14</f>
         <v>2.268041237113402</v>
       </c>
       <c r="AZ32" s="20">
-        <f t="shared" ref="AZ32" si="124">AZ31/AZ14</f>
+        <f t="shared" ref="AZ32:BA32" si="127">AZ31/AZ14</f>
         <v>1.6568627450980393</v>
       </c>
-      <c r="BA32" s="20"/>
+      <c r="BA32" s="20">
+        <f t="shared" ref="BA32:BC32" si="128">BA31/BA14</f>
+        <v>4.2327586206896548</v>
+      </c>
       <c r="BB32" s="20">
-        <f t="shared" ref="BB32:BC32" si="125">BB31/BB14</f>
+        <f t="shared" si="128"/>
         <v>2.2675438596491229</v>
       </c>
       <c r="BC32" s="20">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.0990712074303406</v>
       </c>
       <c r="BD32" s="14"/>
       <c r="BE32" s="20">
-        <f t="shared" ref="BE32:BF32" si="126">BE31/BE14</f>
+        <f t="shared" ref="BE32:BF32" si="129">BE31/BE14</f>
         <v>26.125000000000004</v>
       </c>
       <c r="BF32" s="20">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>4.6806722689075633</v>
       </c>
     </row>
@@ -41456,91 +42880,103 @@
         <v>110</v>
       </c>
       <c r="C33" s="18">
-        <f t="shared" ref="C33:D33" si="127">C31/C11</f>
+        <f t="shared" ref="C33:D33" si="130">C31/C11</f>
         <v>0.67361111111111116</v>
       </c>
       <c r="D33" s="18">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2.0548387096774192</v>
       </c>
       <c r="F33" s="18">
-        <f t="shared" ref="F33:G33" si="128">F31/F11</f>
+        <f t="shared" ref="F33:G33" si="131">F31/F11</f>
         <v>3.0181818181818181</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>2.0141342756183747</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" ref="I33:J33" si="129">I31/I11</f>
+        <f t="shared" ref="I33:J33" si="132">I31/I11</f>
         <v>0.92836676217765035</v>
       </c>
       <c r="J33" s="18">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>0.7546174142480212</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" ref="L33:M33" si="130">L31/L11</f>
+        <f t="shared" ref="L33:M33" si="133">L31/L11</f>
         <v>2</v>
       </c>
       <c r="M33" s="18">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>0.8160919540229884</v>
       </c>
       <c r="R33" s="18">
-        <f t="shared" ref="R33:S33" si="131">R31/R11</f>
+        <f t="shared" ref="R33:S33" si="134">R31/R11</f>
         <v>0.92331288343558293</v>
       </c>
       <c r="S33" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>0.8648648648648648</v>
       </c>
       <c r="T33" s="18">
-        <f t="shared" ref="T33:V33" si="132">T31/T11</f>
+        <f t="shared" ref="T33:V33" si="135">T31/T11</f>
         <v>0.11242973141786385</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>1.2628205128205128</v>
       </c>
       <c r="V33" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>5.6052631578947363</v>
       </c>
       <c r="X33" s="18">
-        <f t="shared" ref="X33:Y33" si="133">X31/X11</f>
+        <f t="shared" ref="X33:Y33" si="136">X31/X11</f>
         <v>4.5273972602739718</v>
       </c>
       <c r="Y33" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>1.4839857651245552</v>
+      </c>
+      <c r="Z33" s="18">
+        <f>Z31/Z11</f>
+        <v>5.0632911392405064E-3</v>
+      </c>
+      <c r="AA33" s="18">
+        <f t="shared" ref="AA33:AB33" si="137">AA31/AA11</f>
+        <v>7.2580645161290326E-3</v>
+      </c>
+      <c r="AB33" s="18">
+        <f t="shared" si="137"/>
+        <v>0</v>
       </c>
       <c r="AC33" s="18">
         <f>AC31/AC11</f>
         <v>0.19376899696048633</v>
       </c>
       <c r="AD33" s="18">
-        <f t="shared" ref="AD33:AE33" si="134">AD31/AD11</f>
+        <f t="shared" ref="AD33:AE33" si="138">AD31/AD11</f>
         <v>0.3138489208633094</v>
       </c>
       <c r="AE33" s="18">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0.46717724288840262</v>
       </c>
       <c r="AG33" s="18">
-        <f t="shared" ref="AG33:AH33" si="135">AG31/AG11</f>
+        <f t="shared" ref="AG33:AH33" si="139">AG31/AG11</f>
         <v>1.7720364741641335</v>
       </c>
       <c r="AH33" s="18">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>2.1360000000000001</v>
       </c>
       <c r="AJ33" s="18">
-        <f t="shared" ref="AJ33:AK33" si="136">AJ31/AJ11</f>
+        <f t="shared" ref="AJ33:AK33" si="140">AJ31/AJ11</f>
         <v>4.1563786008230463E-2</v>
       </c>
       <c r="AK33" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>0.14128440366972478</v>
       </c>
       <c r="AL33" s="18">
@@ -41548,27 +42984,27 @@
         <v>1.0683962264150944</v>
       </c>
       <c r="AM33" s="18">
-        <f t="shared" ref="AM33:AN33" si="137">AM31/AM11</f>
+        <f t="shared" ref="AM33:AN33" si="141">AM31/AM11</f>
         <v>1.5833333333333335</v>
       </c>
       <c r="AN33" s="18">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>0.85539215686274506</v>
       </c>
       <c r="AP33" s="18">
-        <f t="shared" ref="AP33:AQ33" si="138">AP31/AP11</f>
+        <f t="shared" ref="AP33:AQ33" si="142">AP31/AP11</f>
         <v>0.6721649484536083</v>
       </c>
       <c r="AQ33" s="18">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0.45494505494505505</v>
       </c>
       <c r="AS33" s="18">
-        <f t="shared" ref="AS33:AT33" si="139">AS31/AS11</f>
+        <f t="shared" ref="AS33:AT33" si="143">AS31/AS11</f>
         <v>0.90055248618784522</v>
       </c>
       <c r="AT33" s="18">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0.50256410256410255</v>
       </c>
       <c r="AU33" s="18">
@@ -41576,38 +43012,42 @@
         <v>0.15256257449344457</v>
       </c>
       <c r="AV33" s="18">
-        <f t="shared" ref="AV33:AW33" si="140">AV31/AV11</f>
+        <f t="shared" ref="AV33:AX33" si="144">AV31/AV11</f>
         <v>0.20227560050568902</v>
       </c>
       <c r="AW33" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>0.40468227424749165</v>
       </c>
       <c r="AX33" s="18">
         <v>0</v>
       </c>
       <c r="AY33" s="18">
-        <f t="shared" ref="AY33:AZ33" si="141">AY31/AY11</f>
+        <f t="shared" ref="AY33:BA33" si="145">AY31/AY11</f>
         <v>1.2865497076023391</v>
       </c>
       <c r="AZ33" s="18">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.84499999999999997</v>
       </c>
+      <c r="BA33" s="18">
+        <f t="shared" si="145"/>
+        <v>0.7339312406576981</v>
+      </c>
       <c r="BB33" s="18">
-        <f t="shared" ref="BB33:BC33" si="142">BB31/BB11</f>
+        <f t="shared" ref="BB33:BC33" si="146">BB31/BB11</f>
         <v>0.87925170068027214</v>
       </c>
       <c r="BC33" s="18">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>1.0889570552147239</v>
       </c>
       <c r="BE33" s="18">
-        <f t="shared" ref="BE33:BF33" si="143">BE31/BE11</f>
+        <f t="shared" ref="BE33:BF33" si="147">BE31/BE11</f>
         <v>5.4051724137931041</v>
       </c>
       <c r="BF33" s="18">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2.3208333333333337</v>
       </c>
     </row>
@@ -41619,44 +43059,44 @@
         <v>0</v>
       </c>
       <c r="C34" s="18">
-        <f t="shared" ref="C34:D34" si="144">C12/C11</f>
+        <f t="shared" ref="C34:D34" si="148">C12/C11</f>
         <v>0.41666666666666674</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>0.80645161290322576</v>
       </c>
       <c r="E34" s="18">
         <v>0</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" ref="F34:G34" si="145">F12/F11</f>
+        <f t="shared" ref="F34:G34" si="149">F12/F11</f>
         <v>0.64935064935064923</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0.5512367491166078</v>
       </c>
       <c r="H34" s="18">
         <v>0</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" ref="I34:J34" si="146">I12/I11</f>
+        <f t="shared" ref="I34:J34" si="150">I12/I11</f>
         <v>0.51002865329512892</v>
       </c>
       <c r="J34" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>0.36411609498680741</v>
       </c>
       <c r="K34" s="18">
         <v>0</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" ref="L34:M34" si="147">L12/L11</f>
+        <f t="shared" ref="L34:M34" si="151">L12/L11</f>
         <v>0.72</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>0.53448275862068961</v>
       </c>
       <c r="N34" s="18">
@@ -41672,34 +43112,34 @@
         <v>0</v>
       </c>
       <c r="R34" s="18">
-        <f t="shared" ref="R34:S34" si="148">R12/R11</f>
+        <f t="shared" ref="R34:S34" si="152">R12/R11</f>
         <v>0.42024539877300615</v>
       </c>
       <c r="S34" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.60540540540540544</v>
       </c>
       <c r="T34" s="18">
-        <f t="shared" ref="T34:V34" si="149">T12/T11</f>
+        <f t="shared" ref="T34:V34" si="153">T12/T11</f>
         <v>0.74391005621486572</v>
       </c>
       <c r="U34" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.46794871794871795</v>
       </c>
       <c r="V34" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.97368421052631582</v>
       </c>
       <c r="W34" s="18">
         <v>0</v>
       </c>
       <c r="X34" s="18">
-        <f t="shared" ref="X34:Y34" si="150">X12/X11</f>
+        <f t="shared" ref="X34:Y34" si="154">X12/X11</f>
         <v>0.3904109589041096</v>
       </c>
       <c r="Y34" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.7508896797153024</v>
       </c>
       <c r="Z34" s="18">
@@ -41716,33 +43156,33 @@
         <v>0.3518237082066869</v>
       </c>
       <c r="AD34" s="18">
-        <f t="shared" ref="AD34:AE34" si="151">AD12/AD11</f>
+        <f t="shared" ref="AD34:AE34" si="155">AD12/AD11</f>
         <v>0.39478417266187049</v>
       </c>
       <c r="AE34" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0.35667396061269147</v>
       </c>
       <c r="AF34" s="18">
         <v>0</v>
       </c>
       <c r="AG34" s="18">
-        <f t="shared" ref="AG34:AH34" si="152">AG12/AG11</f>
+        <f t="shared" ref="AG34:AH34" si="156">AG12/AG11</f>
         <v>0.39513677811550146</v>
       </c>
       <c r="AH34" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.24400000000000002</v>
       </c>
       <c r="AI34" s="18">
         <v>0</v>
       </c>
       <c r="AJ34" s="18">
-        <f t="shared" ref="AJ34:AK34" si="153">AJ12/AJ11</f>
+        <f t="shared" ref="AJ34:AK34" si="157">AJ12/AJ11</f>
         <v>0.34979423868312759</v>
       </c>
       <c r="AK34" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.6330275229357798</v>
       </c>
       <c r="AL34" s="18">
@@ -41750,33 +43190,33 @@
         <v>0.54481132075471694</v>
       </c>
       <c r="AM34" s="18">
-        <f t="shared" ref="AM34:AN34" si="154">AM12/AM11</f>
+        <f t="shared" ref="AM34:AN34" si="158">AM12/AM11</f>
         <v>0.40277777777777779</v>
       </c>
       <c r="AN34" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.26715686274509803</v>
       </c>
       <c r="AO34" s="18">
         <v>0</v>
       </c>
       <c r="AP34" s="18">
-        <f t="shared" ref="AP34:AQ34" si="155">AP12/AP11</f>
+        <f t="shared" ref="AP34:AQ34" si="159">AP12/AP11</f>
         <v>0.34020618556701032</v>
       </c>
       <c r="AQ34" s="18">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.45054945054945056</v>
       </c>
       <c r="AR34" s="18">
         <v>0</v>
       </c>
       <c r="AS34" s="18">
-        <f t="shared" ref="AS34:AT34" si="156">AS12/AS11</f>
+        <f t="shared" ref="AS34:AT34" si="160">AS12/AS11</f>
         <v>0.54696132596685088</v>
       </c>
       <c r="AT34" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>0.48717948717948717</v>
       </c>
       <c r="AU34" s="18">
@@ -41784,42 +43224,45 @@
         <v>0.48271752085816449</v>
       </c>
       <c r="AV34" s="18">
-        <f t="shared" ref="AV34:AW34" si="157">AV12/AV11</f>
+        <f t="shared" ref="AV34:AX34" si="161">AV12/AV11</f>
         <v>0.46144121365360302</v>
       </c>
       <c r="AW34" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.41638795986622068</v>
       </c>
       <c r="AX34" s="18">
         <v>0</v>
       </c>
       <c r="AY34" s="18">
-        <f t="shared" ref="AY34:AZ34" si="158">AY12/AY11</f>
+        <f t="shared" ref="AY34:BA34" si="162">AY12/AY11</f>
         <v>0.39766081871345033</v>
       </c>
       <c r="AZ34" s="18">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.41499999999999998</v>
       </c>
-      <c r="BA34" s="18"/>
+      <c r="BA34" s="18">
+        <f t="shared" si="162"/>
+        <v>0.39760837070254113</v>
+      </c>
       <c r="BB34" s="18">
-        <f t="shared" ref="BB34:BC34" si="159">BB12/BB11</f>
+        <f t="shared" ref="BB34:BC34" si="163">BB12/BB11</f>
         <v>0.33673469387755101</v>
       </c>
       <c r="BC34" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.50613496932515334</v>
       </c>
       <c r="BD34" s="18">
         <v>0</v>
       </c>
       <c r="BE34" s="18">
-        <f t="shared" ref="BE34:BF34" si="160">BE12/BE11</f>
+        <f t="shared" ref="BE34:BF34" si="164">BE12/BE11</f>
         <v>0.57758620689655171</v>
       </c>
       <c r="BF34" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0.37083333333333335</v>
       </c>
     </row>
@@ -41831,44 +43274,44 @@
         <v>0</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" ref="C35:D35" si="161">(C12+C15)/C11</f>
+        <f t="shared" ref="C35:D35" si="165">(C12+C15)/C11</f>
         <v>0.52777777777777779</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>0.83225806451612905</v>
       </c>
       <c r="E35" s="18">
         <v>0</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" ref="F35:G35" si="162">(F12+F15)/F11</f>
+        <f t="shared" ref="F35:G35" si="166">(F12+F15)/F11</f>
         <v>1.0337662337662337</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0.73498233215547704</v>
       </c>
       <c r="H35" s="18">
         <v>0</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" ref="I35:J35" si="163">(I12+I15)/I11</f>
+        <f t="shared" ref="I35:J35" si="167">(I12+I15)/I11</f>
         <v>0.7822349570200573</v>
       </c>
       <c r="J35" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.44327176781002636</v>
       </c>
       <c r="K35" s="18">
         <v>0</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" ref="L35:M35" si="164">(L12+L15)/L11</f>
+        <f t="shared" ref="L35:M35" si="168">(L12+L15)/L11</f>
         <v>0.72</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="N35" s="18">
@@ -41884,34 +43327,34 @@
         <v>0</v>
       </c>
       <c r="R35" s="18">
-        <f t="shared" ref="R35:S35" si="165">(R12+R15)/R11</f>
+        <f t="shared" ref="R35:S35" si="169">(R12+R15)/R11</f>
         <v>0.48466257668711654</v>
       </c>
       <c r="S35" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.6351351351351352</v>
       </c>
       <c r="T35" s="18">
-        <f t="shared" ref="T35:V35" si="166">(T12+T15)/T11</f>
+        <f t="shared" ref="T35:V35" si="170">(T12+T15)/T11</f>
         <v>0.78201124297314173</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.51282051282051289</v>
       </c>
       <c r="V35" s="18">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.99736842105263157</v>
       </c>
       <c r="W35" s="18">
         <v>0</v>
       </c>
       <c r="X35" s="18">
-        <f t="shared" ref="X35:Y35" si="167">(X12+X15)/X11</f>
+        <f t="shared" ref="X35:Y35" si="171">(X12+X15)/X11</f>
         <v>0.3904109589041096</v>
       </c>
       <c r="Y35" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>0.95017793594306033</v>
       </c>
       <c r="Z35" s="18">
@@ -41928,33 +43371,33 @@
         <v>0.55927051671732519</v>
       </c>
       <c r="AD35" s="18">
-        <f t="shared" ref="AD35:AE35" si="168">(AD12+AD15)/AD11</f>
+        <f t="shared" ref="AD35:AE35" si="172">(AD12+AD15)/AD11</f>
         <v>0.60251798561151082</v>
       </c>
       <c r="AE35" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>0.63019693654266962</v>
       </c>
       <c r="AF35" s="18">
         <v>0</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" ref="AG35:AH35" si="169">(AG12+AG15)/AG11</f>
+        <f t="shared" ref="AG35:AH35" si="173">(AG12+AG15)/AG11</f>
         <v>0.47720364741641336</v>
       </c>
       <c r="AH35" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.28800000000000003</v>
       </c>
       <c r="AI35" s="18">
         <v>0</v>
       </c>
       <c r="AJ35" s="18">
-        <f t="shared" ref="AJ35:AK35" si="170">(AJ12+AJ15)/AJ11</f>
+        <f t="shared" ref="AJ35:AK35" si="174">(AJ12+AJ15)/AJ11</f>
         <v>0.53909465020576142</v>
       </c>
       <c r="AK35" s="18">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.68440366972477062</v>
       </c>
       <c r="AL35" s="18">
@@ -41962,33 +43405,33 @@
         <v>0.60141509433962259</v>
       </c>
       <c r="AM35" s="18">
-        <f t="shared" ref="AM35:AN35" si="171">(AM12+AM15)/AM11</f>
+        <f t="shared" ref="AM35:AN35" si="175">(AM12+AM15)/AM11</f>
         <v>0.63194444444444442</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.38725490196078427</v>
       </c>
       <c r="AO35" s="18">
         <v>0</v>
       </c>
       <c r="AP35" s="18">
-        <f t="shared" ref="AP35:AQ35" si="172">(AP12+AP15)/AP11</f>
+        <f t="shared" ref="AP35:AQ35" si="176">(AP12+AP15)/AP11</f>
         <v>0.3587628865979382</v>
       </c>
       <c r="AQ35" s="18">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0.51098901098901106</v>
       </c>
       <c r="AR35" s="18">
         <v>0</v>
       </c>
       <c r="AS35" s="18">
-        <f t="shared" ref="AS35:AT35" si="173">(AS12+AS15)/AS11</f>
+        <f t="shared" ref="AS35:AT35" si="177">(AS12+AS15)/AS11</f>
         <v>0.79005524861878451</v>
       </c>
       <c r="AT35" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.62051282051282053</v>
       </c>
       <c r="AU35" s="18">
@@ -41996,42 +43439,45 @@
         <v>0.66150178784266989</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" ref="AV35:AW35" si="174">(AV12+AV15)/AV11</f>
+        <f t="shared" ref="AV35:AX35" si="178">(AV12+AV15)/AV11</f>
         <v>0.59418457648546141</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.59866220735785947</v>
       </c>
       <c r="AX35" s="18">
         <v>0</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" ref="AY35:AZ35" si="175">(AY12+AY15)/AY11</f>
+        <f t="shared" ref="AY35:BA35" si="179">(AY12+AY15)/AY11</f>
         <v>0.57894736842105265</v>
       </c>
       <c r="AZ35" s="18">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>0.54749999999999999</v>
       </c>
-      <c r="BA35" s="18"/>
+      <c r="BA35" s="18">
+        <f t="shared" si="179"/>
+        <v>0.51270553064275037</v>
+      </c>
       <c r="BB35" s="18">
-        <f t="shared" ref="BB35:BC35" si="176">(BB12+BB15)/BB11</f>
+        <f t="shared" ref="BB35:BC35" si="180">(BB12+BB15)/BB11</f>
         <v>0.46598639455782315</v>
       </c>
       <c r="BC35" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.9478527607361964</v>
       </c>
       <c r="BD35" s="18">
         <v>0</v>
       </c>
       <c r="BE35" s="18">
-        <f t="shared" ref="BE35:BF35" si="177">(BE12+BE15)/BE11</f>
+        <f t="shared" ref="BE35:BF35" si="181">(BE12+BE15)/BE11</f>
         <v>0.80172413793103448</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>0.38500000000000001</v>
       </c>
     </row>
@@ -42078,11 +43524,11 @@
         <v>2.4605263157894739</v>
       </c>
       <c r="AV38" s="14">
-        <f t="shared" ref="AV38:AW38" si="178">AV10/AV37</f>
+        <f t="shared" ref="AV38:AW38" si="182">AV10/AV37</f>
         <v>2.71875</v>
       </c>
       <c r="AW38" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>2.0377358490566038</v>
       </c>
     </row>
@@ -42099,6 +43545,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7EE98C-7A1B-4B90-950C-597C9091ECBE}">
+  <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -42476,10 +43923,10 @@
   <dimension ref="A1:DG65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
+      <selection pane="bottomRight" activeCell="AP10" sqref="AP10:AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43080,6 +44527,21 @@
       <c r="AO3">
         <v>128</v>
       </c>
+      <c r="AP3">
+        <v>0.8</v>
+      </c>
+      <c r="AQ3">
+        <v>0.9</v>
+      </c>
+      <c r="AR3">
+        <v>9.1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
       <c r="AU3">
         <v>0</v>
       </c>
@@ -43187,6 +44649,9 @@
       </c>
       <c r="CH3" s="11">
         <v>49</v>
+      </c>
+      <c r="CI3" s="11">
+        <v>218</v>
       </c>
       <c r="CJ3">
         <v>205</v>
@@ -43334,6 +44799,21 @@
       <c r="AO4">
         <v>72</v>
       </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
       <c r="AU4">
         <v>167</v>
       </c>
@@ -43441,6 +44921,9 @@
       </c>
       <c r="CH4" s="11">
         <v>20</v>
+      </c>
+      <c r="CI4" s="11">
+        <v>187</v>
       </c>
       <c r="CJ4">
         <v>181</v>
@@ -43575,6 +45058,21 @@
         <f>202+15</f>
         <v>217</v>
       </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
       <c r="BU5">
         <v>10</v>
       </c>
@@ -43601,6 +45099,9 @@
       </c>
       <c r="CH5" s="11">
         <v>165</v>
+      </c>
+      <c r="CI5">
+        <v>72</v>
       </c>
       <c r="CJ5">
         <v>98</v>
@@ -43670,6 +45171,21 @@
       <c r="AL6">
         <v>33</v>
       </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
       <c r="BA6">
         <v>80</v>
       </c>
@@ -43891,6 +45407,21 @@
       <c r="AO7">
         <v>46</v>
       </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
       <c r="AU7">
         <v>88</v>
       </c>
@@ -43998,6 +45529,9 @@
       </c>
       <c r="CH7" s="11">
         <v>104</v>
+      </c>
+      <c r="CI7" s="11">
+        <v>14</v>
       </c>
       <c r="CJ7">
         <v>14</v>
@@ -44186,24 +45720,44 @@
         <f t="shared" ref="AO8" si="24">SUM(AO3:AO7)</f>
         <v>463</v>
       </c>
+      <c r="AP8">
+        <f>SUM(AP3:AP7)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" ref="AQ8:AT8" si="25">SUM(AQ3:AQ7)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="25"/>
+        <v>9.1</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AU8">
         <f>SUM(AU3:AU7)</f>
         <v>255</v>
       </c>
       <c r="AV8">
-        <f t="shared" ref="AV8" si="25">SUM(AV3:AV7)</f>
+        <f t="shared" ref="AV8" si="26">SUM(AV3:AV7)</f>
         <v>349</v>
       </c>
       <c r="AW8">
-        <f t="shared" ref="AW8" si="26">SUM(AW3:AW7)</f>
+        <f t="shared" ref="AW8" si="27">SUM(AW3:AW7)</f>
         <v>408</v>
       </c>
       <c r="AX8">
-        <f t="shared" ref="AX8" si="27">SUM(AX3:AX7)</f>
+        <f t="shared" ref="AX8" si="28">SUM(AX3:AX7)</f>
         <v>438</v>
       </c>
       <c r="AY8">
-        <f t="shared" ref="AY8" si="28">SUM(AY3:AY7)</f>
+        <f t="shared" ref="AY8" si="29">SUM(AY3:AY7)</f>
         <v>427</v>
       </c>
       <c r="AZ8">
@@ -44211,19 +45765,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <f t="shared" ref="BA8" si="29">SUM(BA3:BA7)</f>
+        <f t="shared" ref="BA8" si="30">SUM(BA3:BA7)</f>
         <v>583</v>
       </c>
       <c r="BB8">
-        <f t="shared" ref="BB8" si="30">SUM(BB3:BB7)</f>
+        <f t="shared" ref="BB8" si="31">SUM(BB3:BB7)</f>
         <v>552</v>
       </c>
       <c r="BC8">
-        <f t="shared" ref="BC8" si="31">SUM(BC3:BC7)</f>
+        <f t="shared" ref="BC8" si="32">SUM(BC3:BC7)</f>
         <v>597</v>
       </c>
       <c r="BD8">
-        <f t="shared" ref="BD8" si="32">SUM(BD3:BD7)</f>
+        <f t="shared" ref="BD8" si="33">SUM(BD3:BD7)</f>
         <v>534</v>
       </c>
       <c r="BE8">
@@ -44231,19 +45785,19 @@
         <v>0</v>
       </c>
       <c r="BF8">
-        <f t="shared" ref="BF8" si="33">SUM(BF3:BF7)</f>
+        <f t="shared" ref="BF8" si="34">SUM(BF3:BF7)</f>
         <v>10.100000000000001</v>
       </c>
       <c r="BG8">
-        <f t="shared" ref="BG8" si="34">SUM(BG3:BG7)</f>
+        <f t="shared" ref="BG8" si="35">SUM(BG3:BG7)</f>
         <v>12.3</v>
       </c>
       <c r="BH8">
-        <f t="shared" ref="BH8" si="35">SUM(BH3:BH7)</f>
+        <f t="shared" ref="BH8" si="36">SUM(BH3:BH7)</f>
         <v>17.399999999999999</v>
       </c>
       <c r="BI8">
-        <f t="shared" ref="BI8" si="36">SUM(BI3:BI7)</f>
+        <f t="shared" ref="BI8" si="37">SUM(BI3:BI7)</f>
         <v>15.4</v>
       </c>
       <c r="BJ8">
@@ -44251,19 +45805,19 @@
         <v>453</v>
       </c>
       <c r="BK8">
-        <f t="shared" ref="BK8" si="37">SUM(BK3:BK7)</f>
+        <f t="shared" ref="BK8" si="38">SUM(BK3:BK7)</f>
         <v>456</v>
       </c>
       <c r="BL8">
-        <f t="shared" ref="BL8" si="38">SUM(BL3:BL7)</f>
+        <f t="shared" ref="BL8" si="39">SUM(BL3:BL7)</f>
         <v>347</v>
       </c>
       <c r="BM8">
-        <f t="shared" ref="BM8" si="39">SUM(BM3:BM7)</f>
+        <f t="shared" ref="BM8" si="40">SUM(BM3:BM7)</f>
         <v>332</v>
       </c>
       <c r="BN8">
-        <f t="shared" ref="BN8" si="40">SUM(BN3:BN7)</f>
+        <f t="shared" ref="BN8" si="41">SUM(BN3:BN7)</f>
         <v>349</v>
       </c>
       <c r="BO8">
@@ -44271,19 +45825,19 @@
         <v>0</v>
       </c>
       <c r="BP8">
-        <f t="shared" ref="BP8" si="41">SUM(BP3:BP7)</f>
+        <f t="shared" ref="BP8" si="42">SUM(BP3:BP7)</f>
         <v>65.2</v>
       </c>
       <c r="BQ8">
-        <f t="shared" ref="BQ8" si="42">SUM(BQ3:BQ7)</f>
+        <f t="shared" ref="BQ8" si="43">SUM(BQ3:BQ7)</f>
         <v>72.400000000000006</v>
       </c>
       <c r="BR8">
-        <f t="shared" ref="BR8" si="43">SUM(BR3:BR7)</f>
+        <f t="shared" ref="BR8" si="44">SUM(BR3:BR7)</f>
         <v>58.4</v>
       </c>
       <c r="BS8">
-        <f t="shared" ref="BS8" si="44">SUM(BS3:BS7)</f>
+        <f t="shared" ref="BS8" si="45">SUM(BS3:BS7)</f>
         <v>41.400000000000006</v>
       </c>
       <c r="BT8">
@@ -44291,19 +45845,19 @@
         <v>0</v>
       </c>
       <c r="BU8">
-        <f t="shared" ref="BU8" si="45">SUM(BU3:BU7)</f>
+        <f t="shared" ref="BU8" si="46">SUM(BU3:BU7)</f>
         <v>326</v>
       </c>
       <c r="BV8">
-        <f t="shared" ref="BV8" si="46">SUM(BV3:BV7)</f>
+        <f t="shared" ref="BV8" si="47">SUM(BV3:BV7)</f>
         <v>346</v>
       </c>
       <c r="BW8">
-        <f t="shared" ref="BW8" si="47">SUM(BW3:BW7)</f>
+        <f t="shared" ref="BW8" si="48">SUM(BW3:BW7)</f>
         <v>332</v>
       </c>
       <c r="BX8">
-        <f t="shared" ref="BX8" si="48">SUM(BX3:BX7)</f>
+        <f t="shared" ref="BX8" si="49">SUM(BX3:BX7)</f>
         <v>196</v>
       </c>
       <c r="BY8">
@@ -44311,19 +45865,19 @@
         <v>151</v>
       </c>
       <c r="BZ8">
-        <f t="shared" ref="BZ8" si="49">SUM(BZ3:BZ7)</f>
+        <f t="shared" ref="BZ8" si="50">SUM(BZ3:BZ7)</f>
         <v>160</v>
       </c>
       <c r="CA8">
-        <f t="shared" ref="CA8" si="50">SUM(CA3:CA7)</f>
+        <f t="shared" ref="CA8" si="51">SUM(CA3:CA7)</f>
         <v>181</v>
       </c>
       <c r="CB8">
-        <f t="shared" ref="CB8" si="51">SUM(CB3:CB7)</f>
+        <f t="shared" ref="CB8" si="52">SUM(CB3:CB7)</f>
         <v>272</v>
       </c>
       <c r="CC8">
-        <f t="shared" ref="CC8" si="52">SUM(CC3:CC7)</f>
+        <f t="shared" ref="CC8" si="53">SUM(CC3:CC7)</f>
         <v>242</v>
       </c>
       <c r="CD8">
@@ -44331,39 +45885,39 @@
         <v>418</v>
       </c>
       <c r="CE8">
-        <f t="shared" ref="CE8" si="53">SUM(CE3:CE7)</f>
+        <f t="shared" ref="CE8" si="54">SUM(CE3:CE7)</f>
         <v>440</v>
       </c>
       <c r="CF8">
-        <f t="shared" ref="CF8" si="54">SUM(CF3:CF7)</f>
+        <f t="shared" ref="CF8" si="55">SUM(CF3:CF7)</f>
         <v>353</v>
       </c>
       <c r="CG8">
-        <f t="shared" ref="CG8" si="55">SUM(CG3:CG7)</f>
+        <f t="shared" ref="CG8" si="56">SUM(CG3:CG7)</f>
         <v>357</v>
       </c>
       <c r="CH8">
-        <f t="shared" ref="CH8" si="56">SUM(CH3:CH7)</f>
+        <f t="shared" ref="CH8" si="57">SUM(CH3:CH7)</f>
         <v>338</v>
       </c>
       <c r="CI8">
         <f>SUM(CI3:CI7)</f>
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="CJ8">
-        <f t="shared" ref="CJ8" si="57">SUM(CJ3:CJ7)</f>
+        <f t="shared" ref="CJ8" si="58">SUM(CJ3:CJ7)</f>
         <v>517</v>
       </c>
       <c r="CK8">
-        <f t="shared" ref="CK8" si="58">SUM(CK3:CK7)</f>
+        <f t="shared" ref="CK8" si="59">SUM(CK3:CK7)</f>
         <v>479</v>
       </c>
       <c r="CL8">
-        <f t="shared" ref="CL8" si="59">SUM(CL3:CL7)</f>
+        <f t="shared" ref="CL8" si="60">SUM(CL3:CL7)</f>
         <v>361</v>
       </c>
       <c r="CM8">
-        <f t="shared" ref="CM8" si="60">SUM(CM3:CM7)</f>
+        <f t="shared" ref="CM8" si="61">SUM(CM3:CM7)</f>
         <v>355</v>
       </c>
       <c r="CN8">
@@ -44371,19 +45925,19 @@
         <v>0</v>
       </c>
       <c r="CO8">
-        <f t="shared" ref="CO8" si="61">SUM(CO3:CO7)</f>
+        <f t="shared" ref="CO8" si="62">SUM(CO3:CO7)</f>
         <v>627</v>
       </c>
       <c r="CP8">
-        <f t="shared" ref="CP8" si="62">SUM(CP3:CP7)</f>
+        <f t="shared" ref="CP8" si="63">SUM(CP3:CP7)</f>
         <v>681</v>
       </c>
       <c r="CQ8">
-        <f t="shared" ref="CQ8" si="63">SUM(CQ3:CQ7)</f>
+        <f t="shared" ref="CQ8" si="64">SUM(CQ3:CQ7)</f>
         <v>824</v>
       </c>
       <c r="CR8">
-        <f t="shared" ref="CR8" si="64">SUM(CR3:CR7)</f>
+        <f t="shared" ref="CR8" si="65">SUM(CR3:CR7)</f>
         <v>557</v>
       </c>
       <c r="CS8">
@@ -44391,19 +45945,19 @@
         <v>0</v>
       </c>
       <c r="CT8">
-        <f t="shared" ref="CT8" si="65">SUM(CT3:CT7)</f>
+        <f t="shared" ref="CT8" si="66">SUM(CT3:CT7)</f>
         <v>16.3</v>
       </c>
       <c r="CU8">
-        <f t="shared" ref="CU8" si="66">SUM(CU3:CU7)</f>
+        <f t="shared" ref="CU8" si="67">SUM(CU3:CU7)</f>
         <v>18.5</v>
       </c>
       <c r="CV8">
-        <f t="shared" ref="CV8" si="67">SUM(CV3:CV7)</f>
+        <f t="shared" ref="CV8" si="68">SUM(CV3:CV7)</f>
         <v>18.399999999999999</v>
       </c>
       <c r="CW8">
-        <f t="shared" ref="CW8" si="68">SUM(CW3:CW7)</f>
+        <f t="shared" ref="CW8" si="69">SUM(CW3:CW7)</f>
         <v>12.7</v>
       </c>
       <c r="CX8">
@@ -44411,19 +45965,19 @@
         <v>20.3</v>
       </c>
       <c r="CY8">
-        <f t="shared" ref="CY8" si="69">SUM(CY3:CY7)</f>
+        <f t="shared" ref="CY8" si="70">SUM(CY3:CY7)</f>
         <v>3.3</v>
       </c>
       <c r="CZ8">
-        <f t="shared" ref="CZ8" si="70">SUM(CZ3:CZ7)</f>
+        <f t="shared" ref="CZ8" si="71">SUM(CZ3:CZ7)</f>
         <v>12.3</v>
       </c>
       <c r="DA8">
-        <f t="shared" ref="DA8" si="71">SUM(DA3:DA7)</f>
+        <f t="shared" ref="DA8" si="72">SUM(DA3:DA7)</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="DB8">
-        <f t="shared" ref="DB8" si="72">SUM(DB3:DB7)</f>
+        <f t="shared" ref="DB8" si="73">SUM(DB3:DB7)</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="DC8">
@@ -44431,19 +45985,19 @@
         <v>0</v>
       </c>
       <c r="DD8">
-        <f t="shared" ref="DD8" si="73">SUM(DD3:DD7)</f>
+        <f t="shared" ref="DD8" si="74">SUM(DD3:DD7)</f>
         <v>17.799999999999997</v>
       </c>
       <c r="DE8">
-        <f t="shared" ref="DE8" si="74">SUM(DE3:DE7)</f>
+        <f t="shared" ref="DE8" si="75">SUM(DE3:DE7)</f>
         <v>20.6</v>
       </c>
       <c r="DF8">
-        <f t="shared" ref="DF8" si="75">SUM(DF3:DF7)</f>
+        <f t="shared" ref="DF8" si="76">SUM(DF3:DF7)</f>
         <v>21.7</v>
       </c>
       <c r="DG8">
-        <f t="shared" ref="DG8" si="76">SUM(DG3:DG7)</f>
+        <f t="shared" ref="DG8" si="77">SUM(DG3:DG7)</f>
         <v>21.7</v>
       </c>
     </row>
@@ -44459,15 +46013,15 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:F10" si="77">D11-D12+D13</f>
+        <f t="shared" ref="D10:F10" si="78">D11-D12+D13</f>
         <v>22</v>
       </c>
       <c r="E10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3</v>
       </c>
       <c r="F10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-9</v>
       </c>
       <c r="H10">
@@ -44489,15 +46043,15 @@
         <v>71</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:P10" si="78">N11-N12+N13</f>
+        <f t="shared" ref="N10:P10" si="79">N11-N12+N13</f>
         <v>65</v>
       </c>
       <c r="O10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>134</v>
       </c>
       <c r="P10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>111</v>
       </c>
       <c r="R10">
@@ -44505,27 +46059,27 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <f t="shared" ref="S10" si="79">S11-S12+S13</f>
+        <f t="shared" ref="S10" si="80">S11-S12+S13</f>
         <v>37</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10" si="80">T11-T12+T13</f>
+        <f t="shared" ref="T10" si="81">T11-T12+T13</f>
         <v>-13</v>
       </c>
       <c r="U10">
-        <f t="shared" ref="U10" si="81">U11-U12+U13</f>
+        <f t="shared" ref="U10" si="82">U11-U12+U13</f>
         <v>39</v>
       </c>
       <c r="X10">
-        <f t="shared" ref="X10:Z10" si="82">X11-X12+X13</f>
+        <f t="shared" ref="X10:Z10" si="83">X11-X12+X13</f>
         <v>-20</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>13</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>51</v>
       </c>
       <c r="AB10">
@@ -44533,15 +46087,15 @@
         <v>164</v>
       </c>
       <c r="AC10">
-        <f t="shared" ref="AC10" si="83">AC11-AC12+AC13</f>
+        <f t="shared" ref="AC10" si="84">AC11-AC12+AC13</f>
         <v>178</v>
       </c>
       <c r="AD10">
-        <f t="shared" ref="AD10" si="84">AD11-AD12+AD13</f>
+        <f t="shared" ref="AD10" si="85">AD11-AD12+AD13</f>
         <v>40</v>
       </c>
       <c r="AE10">
-        <f t="shared" ref="AE10" si="85">AE11-AE12+AE13</f>
+        <f t="shared" ref="AE10" si="86">AE11-AE12+AE13</f>
         <v>-18</v>
       </c>
       <c r="AF10">
@@ -44553,15 +46107,15 @@
         <v>64</v>
       </c>
       <c r="AH10">
-        <f t="shared" ref="AH10" si="86">AH11-AH12+AH13</f>
+        <f t="shared" ref="AH10" si="87">AH11-AH12+AH13</f>
         <v>22</v>
       </c>
       <c r="AI10">
-        <f t="shared" ref="AI10" si="87">AI11-AI12+AI13</f>
+        <f t="shared" ref="AI10" si="88">AI11-AI12+AI13</f>
         <v>24</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ref="AJ10" si="88">AJ11-AJ12+AJ13</f>
+        <f t="shared" ref="AJ10" si="89">AJ11-AJ12+AJ13</f>
         <v>-11</v>
       </c>
       <c r="AL10">
@@ -44578,6 +46132,26 @@
         <f>AO11-AO12+AO13</f>
         <v>147</v>
       </c>
+      <c r="AP10">
+        <f>AP11-AP12+AP13</f>
+        <v>37</v>
+      </c>
+      <c r="AQ10">
+        <f>AQ11-AQ12+AQ13</f>
+        <v>26</v>
+      </c>
+      <c r="AR10">
+        <f>AR11-AR12+AR13</f>
+        <v>4.5</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" ref="AS10:AT10" si="90">AS11-AS12+AS13</f>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="90"/>
+        <v>6</v>
+      </c>
       <c r="AU10">
         <v>485</v>
       </c>
@@ -44618,27 +46192,27 @@
         <v>-180</v>
       </c>
       <c r="BI10">
-        <f t="shared" ref="BI10:BN10" si="89">BI11-BI12+BI13</f>
+        <f t="shared" ref="BI10:BN10" si="91">BI11-BI12+BI13</f>
         <v>9</v>
       </c>
       <c r="BJ10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>155</v>
       </c>
       <c r="BK10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>33</v>
       </c>
       <c r="BL10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>173</v>
       </c>
       <c r="BM10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>130</v>
       </c>
       <c r="BN10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>158</v>
       </c>
       <c r="BP10">
@@ -44646,15 +46220,15 @@
         <v>49.3</v>
       </c>
       <c r="BQ10">
-        <f t="shared" ref="BQ10:BS10" si="90">BQ11-BQ12+BQ13</f>
+        <f t="shared" ref="BQ10:BS10" si="92">BQ11-BQ12+BQ13</f>
         <v>20</v>
       </c>
       <c r="BR10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>29</v>
       </c>
       <c r="BS10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>38</v>
       </c>
       <c r="BU10">
@@ -44693,15 +46267,15 @@
         <v>194</v>
       </c>
       <c r="CF10" s="11">
-        <f t="shared" ref="CF10" si="91">CF11-CF12+CF13</f>
+        <f t="shared" ref="CF10" si="93">CF11-CF12+CF13</f>
         <v>214</v>
       </c>
       <c r="CG10" s="11">
-        <f t="shared" ref="CG10" si="92">CG11-CG12+CG13</f>
+        <f t="shared" ref="CG10" si="94">CG11-CG12+CG13</f>
         <v>9</v>
       </c>
       <c r="CH10" s="11">
-        <f t="shared" ref="CH10" si="93">CH11-CH12+CH13</f>
+        <f t="shared" ref="CH10" si="95">CH11-CH12+CH13</f>
         <v>204</v>
       </c>
       <c r="CJ10">
@@ -44723,67 +46297,67 @@
         <v>24</v>
       </c>
       <c r="CP10">
-        <f t="shared" ref="CP10" si="94">CP11-CP12+CP13</f>
+        <f t="shared" ref="CP10" si="96">CP11-CP12+CP13</f>
         <v>84</v>
       </c>
       <c r="CQ10">
-        <f t="shared" ref="CQ10" si="95">CQ11-CQ12+CQ13</f>
+        <f t="shared" ref="CQ10" si="97">CQ11-CQ12+CQ13</f>
         <v>71</v>
       </c>
       <c r="CR10">
-        <f t="shared" ref="CR10" si="96">CR11-CR12+CR13</f>
+        <f t="shared" ref="CR10" si="98">CR11-CR12+CR13</f>
         <v>119</v>
       </c>
       <c r="CT10">
-        <f t="shared" ref="CT10:CY10" si="97">CT11-CT12+CT13</f>
+        <f t="shared" ref="CT10:CY10" si="99">CT11-CT12+CT13</f>
         <v>14.000000000000005</v>
       </c>
       <c r="CU10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>32.6</v>
       </c>
       <c r="CV10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>4.26</v>
       </c>
       <c r="CW10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>3.5</v>
       </c>
       <c r="CX10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>59.8</v>
       </c>
       <c r="CY10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>3.3000000000000007</v>
       </c>
       <c r="CZ10">
-        <f t="shared" ref="CZ10:DD10" si="98">CZ11-CZ12+CZ13</f>
+        <f t="shared" ref="CZ10:DD10" si="100">CZ11-CZ12+CZ13</f>
         <v>-2.6999999999999993</v>
       </c>
       <c r="DA10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1.2000000000000011</v>
       </c>
       <c r="DB10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="DD10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>14</v>
       </c>
       <c r="DE10">
-        <f t="shared" ref="DE10" si="99">DE11-DE12+DE13</f>
+        <f t="shared" ref="DE10" si="101">DE11-DE12+DE13</f>
         <v>17</v>
       </c>
       <c r="DF10">
-        <f t="shared" ref="DF10" si="100">DF11-DF12+DF13</f>
+        <f t="shared" ref="DF10" si="102">DF11-DF12+DF13</f>
         <v>5</v>
       </c>
       <c r="DG10">
-        <f t="shared" ref="DG10" si="101">DG11-DG12+DG13</f>
+        <f t="shared" ref="DG10" si="103">DG11-DG12+DG13</f>
         <v>4</v>
       </c>
     </row>
@@ -44888,6 +46462,21 @@
       <c r="AO11">
         <v>281</v>
       </c>
+      <c r="AP11">
+        <v>158</v>
+      </c>
+      <c r="AQ11">
+        <v>124</v>
+      </c>
+      <c r="AR11">
+        <v>64</v>
+      </c>
+      <c r="AS11">
+        <v>22.8</v>
+      </c>
+      <c r="AT11">
+        <v>25</v>
+      </c>
       <c r="AU11" s="1">
         <v>1245</v>
       </c>
@@ -45165,6 +46754,23 @@
       <c r="AO12">
         <v>134</v>
       </c>
+      <c r="AP12">
+        <f>99+22</f>
+        <v>121</v>
+      </c>
+      <c r="AQ12">
+        <f>84+14</f>
+        <v>98</v>
+      </c>
+      <c r="AR12">
+        <v>66</v>
+      </c>
+      <c r="AS12">
+        <v>21</v>
+      </c>
+      <c r="AT12">
+        <v>19</v>
+      </c>
       <c r="BA12">
         <v>292</v>
       </c>
@@ -45373,6 +46979,21 @@
         <v>0</v>
       </c>
       <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>6.5</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
         <v>0</v>
       </c>
       <c r="BA13">
@@ -45947,19 +47568,19 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <f t="shared" ref="AV17:AY17" si="102">+AV25</f>
+        <f t="shared" ref="AV17:AY17" si="104">+AV25</f>
         <v>0</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="BY17">
@@ -45971,15 +47592,15 @@
         <v>0</v>
       </c>
       <c r="CA17">
-        <f t="shared" ref="CA17:CB17" si="103">+CA25</f>
+        <f t="shared" ref="CA17:CB17" si="105">+CA25</f>
         <v>0</v>
       </c>
       <c r="CB17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="CC17">
-        <f t="shared" ref="CC17" si="104">+CC25</f>
+        <f t="shared" ref="CC17" si="106">+CC25</f>
         <v>0</v>
       </c>
     </row>
@@ -46149,23 +47770,23 @@
       </c>
       <c r="AP18">
         <f>Painel!AP11</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="AQ18">
         <f>Painel!AQ11</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AR18">
         <f>Painel!AR11</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AS18">
         <f>Painel!AS11</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT18">
         <f>Painel!AT11</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AU18">
         <v>1316</v>
@@ -46327,7 +47948,7 @@
       </c>
       <c r="CI18">
         <f>Painel!CI11</f>
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="CJ18">
         <f>Painel!CJ11</f>
@@ -46637,23 +48258,23 @@
       </c>
       <c r="AP20">
         <f>Painel!AP12</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ20">
         <f>Painel!AQ12</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AR20">
         <f>Painel!AR12</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AS20">
         <f>Painel!AS12</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AT20">
         <f>Painel!AT12</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU20">
         <f>Painel!AU12</f>
@@ -46817,7 +48438,7 @@
       </c>
       <c r="CI20">
         <f>Painel!CI12</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="CJ20">
         <f>Painel!CJ12</f>
@@ -47319,7 +48940,7 @@
         <v>0.24369580448359887</v>
       </c>
       <c r="H44" s="19">
-        <f t="shared" ref="H44:H45" si="105">(LN(21)-LN(C44))/LN(21)</f>
+        <f t="shared" ref="H44:H45" si="107">(LN(21)-LN(C44))/LN(21)</f>
         <v>0.31698925390914107</v>
       </c>
       <c r="I44" s="19"/>
@@ -47342,19 +48963,19 @@
         <v>13</v>
       </c>
       <c r="G45" s="19">
-        <f t="shared" ref="G45" si="106">(LN(21)-LN(B45))/LN(21)</f>
+        <f t="shared" ref="G45" si="108">(LN(21)-LN(B45))/LN(21)</f>
         <v>0.36084880671453018</v>
       </c>
       <c r="H45" s="19">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="I45" s="19">
-        <f t="shared" ref="I45" si="107">(LN(21)-LN(D45))/LN(21)</f>
+        <f t="shared" ref="I45" si="109">(LN(21)-LN(D45))/LN(21)</f>
         <v>0.63915119328546977</v>
       </c>
       <c r="J45" s="19">
-        <f t="shared" ref="J45" si="108">(LN(21)-LN(E45))/LN(21)</f>
+        <f t="shared" ref="J45" si="110">(LN(21)-LN(E45))/LN(21)</f>
         <v>0.15751996908273488</v>
       </c>
     </row>
@@ -47805,11 +49426,11 @@
         <v>5.0632137873986717E-2</v>
       </c>
       <c r="H63">
-        <f t="shared" ref="H63:I63" si="109">(LN(21)-LN(C63))/LN(21)</f>
+        <f t="shared" ref="H63:I63" si="111">(LN(21)-LN(C63))/LN(21)</f>
         <v>0.27830238657093959</v>
       </c>
       <c r="I63">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.15751996908273488</v>
       </c>
     </row>
@@ -47840,13 +49461,14 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="B8:W8 AA8:DG8" formulaRange="1"/>
+    <ignoredError sqref="B8:W8 AA8:AO8 AU8:DG8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B38C552-4B2D-45CE-9325-16478D79A6F0}">
+  <sheetPr codeName="Planilha10"/>
   <dimension ref="B1:X12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F671C3-9974-43B4-9353-CA2BD5B24387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99D652-6F3C-450D-BFE2-57D9600380CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="-72" yWindow="12" windowWidth="6792" windowHeight="12312" firstSheet="1" activeTab="1" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="155">
   <si>
     <t>Publicidade e patrocínio</t>
   </si>
@@ -1113,6 +1113,15 @@
   <si>
     <t>Ajuste - LFF</t>
   </si>
+  <si>
+    <t>Transmissão Pura</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>Ajuste 2</t>
+  </si>
 </sst>
 </file>
 
@@ -1190,13 +1199,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,6 +1227,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1229,7 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1282,6 +1300,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1821,13 +1843,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898DA42B-AAD5-4C2A-9EEC-41614388A592}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,7 +1979,6 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <f>17.5+33.5</f>
         <v>51</v>
       </c>
       <c r="I2" s="1">
@@ -2025,8 +2046,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>6.9+7.3</f>
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -2067,7 +2087,7 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U26" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
-        <v>74.642857142857139</v>
+        <v>74.614285714285714</v>
       </c>
       <c r="V3"/>
     </row>
@@ -2094,8 +2114,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>7.9+3.8</f>
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -2136,7 +2155,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>56.957142857142863</v>
+        <v>57</v>
       </c>
       <c r="V4"/>
     </row>
@@ -2163,8 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>14+12.9</f>
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -2205,7 +2223,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>56.58</v>
+        <v>56.6</v>
       </c>
       <c r="V5"/>
     </row>
@@ -2370,7 +2388,7 @@
       </c>
       <c r="H8" s="1">
         <f>SUM(H23,H3:H7)</f>
-        <v>103.80000000000001</v>
+        <v>104</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -2416,7 +2434,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>392.92857142857144</v>
+        <v>392.95714285714291</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2512,7 +2530,7 @@
       </c>
       <c r="H10" s="1">
         <f>160-H9-H8</f>
-        <v>41</v>
+        <v>40.800000000000011</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -2521,7 +2539,7 @@
         <v>31</v>
       </c>
       <c r="K10" s="1">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -2556,7 +2574,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>50.571428571428569</v>
+        <v>54.971428571428568</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2998,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -3007,8 +3025,8 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <f>458-SUM(N12:N16)</f>
-        <v>109.69999999999999</v>
+        <f>414-SUM(N12:N16)</f>
+        <v>65.699999999999989</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -3025,15 +3043,15 @@
         <v>105.5</v>
       </c>
       <c r="S17" s="1">
-        <f>731-SUM(S12:S16)</f>
-        <v>284</v>
+        <f>653-SUM(S12:S16)</f>
+        <v>206</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>118.61666666666667</v>
+        <v>110.11666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3070,7 +3088,8 @@
         <v>120</v>
       </c>
       <c r="K18" s="1">
-        <v>953</v>
+        <f>936+74+32-18</f>
+        <v>1024</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -3078,9 +3097,9 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1">
-        <f>364+94</f>
-        <v>458</v>
+      <c r="N18" s="39">
+        <f>364+50</f>
+        <v>414</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -3096,14 +3115,15 @@
         <v>419</v>
       </c>
       <c r="S18" s="1">
-        <v>731</v>
+        <f>731-78</f>
+        <v>653</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>523.71428571428567</v>
+        <v>516.42857142857144</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3129,7 +3149,8 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>118</v>
+        <f>45+35</f>
+        <v>80</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -3163,15 +3184,15 @@
         <f>R11-R18</f>
         <v>5</v>
       </c>
-      <c r="S19" s="3">
-        <v>62</v>
+      <c r="S19" s="29">
+        <v>16</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="0"/>
-        <v>83.785714285714292</v>
+        <v>71.785714285714292</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -3202,8 +3223,8 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="3">
-        <v>0.7</v>
+      <c r="J20" s="38">
+        <v>1</v>
       </c>
       <c r="K20" s="1">
         <v>28</v>
@@ -3237,7 +3258,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>35.528571428571425</v>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3542,7 +3563,7 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="36">
         <v>152</v>
       </c>
       <c r="I25" s="1">
@@ -3608,8 +3629,8 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="1">
-        <v>69</v>
+      <c r="H26" s="36">
+        <v>24</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3649,7 +3670,7 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -3714,16 +3735,79 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" ref="U27" si="1">SUM(B27:T27)/COUNTIF(B27:T27,"&gt;0")</f>
+        <f t="shared" ref="U27:U28" si="1">SUM(B27:T27)/COUNTIF(B27:T27,"&gt;0")</f>
         <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="36">
+        <v>0</v>
+      </c>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+      <c r="D28" s="36">
+        <v>0</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>326</v>
+      </c>
+      <c r="L28" s="36">
+        <v>0</v>
+      </c>
+      <c r="M28" s="36">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="36">
+        <v>0</v>
+      </c>
+      <c r="P28" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>183</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="36">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="1"/>
+        <v>254.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="N17" formulaRange="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5183,7 +5267,7 @@
       </c>
       <c r="N17" s="1">
         <f>Resultado!N17</f>
-        <v>109.69999999999999</v>
+        <v>65.699999999999989</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -5270,7 +5354,7 @@
       </c>
       <c r="N18" s="1">
         <f>Resultado!N18</f>
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -8196,13 +8280,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D36FD-E37A-42F5-9E50-DEC8A36C4DAA}">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8343,7 +8427,7 @@
       </c>
       <c r="H3" s="1">
         <f>VLOOKUP(A3,Resultado!$A$2:$H$23,8,FALSE)</f>
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1">
         <f>Resultado!J3</f>
@@ -8373,7 +8457,7 @@
       </c>
       <c r="H4" s="1">
         <f>VLOOKUP(A4,Resultado!$A$2:$H$23,8,FALSE)</f>
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1">
         <f>Resultado!J4</f>
@@ -8403,7 +8487,7 @@
       </c>
       <c r="H5" s="1">
         <f>VLOOKUP(A5,Resultado!$A$2:$H$23,8,FALSE)</f>
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1">
         <f>Resultado!J5</f>
@@ -8523,11 +8607,11 @@
       </c>
       <c r="H9" s="2">
         <f>SUM(H2:H8)</f>
-        <v>119.00000000000001</v>
+        <v>119.2</v>
       </c>
       <c r="J9" s="2">
-        <f>SUM(J2:J8)+J24</f>
-        <v>126.9</v>
+        <f>SUM(J2:J8)+J24+J16</f>
+        <v>162.9</v>
       </c>
       <c r="K9" s="2">
         <f>SUM(K2:K8)</f>
@@ -8558,8 +8642,8 @@
         <v>47</v>
       </c>
       <c r="H10" s="2">
-        <f>SUM(H11:H16)</f>
-        <v>234.8</v>
+        <f>SUM(H11:H15)-H16</f>
+        <v>170.8</v>
       </c>
       <c r="J10" s="2">
         <f>SUM(J11:J15)</f>
@@ -8574,8 +8658,8 @@
         <v>373</v>
       </c>
       <c r="Q10" s="2">
-        <f>SUM(Q11:Q16)</f>
-        <v>552</v>
+        <f>SUM(Q11:Q15)-Q16</f>
+        <v>492</v>
       </c>
       <c r="R10" s="2">
         <f>SUM(R11:R15)-R16</f>
@@ -8585,6 +8669,7 @@
         <f>SUM(S11:S15)-S16</f>
         <v>481</v>
       </c>
+      <c r="T10" s="37"/>
       <c r="U10" s="30"/>
       <c r="V10" s="30"/>
       <c r="W10" s="30"/>
@@ -8608,7 +8693,7 @@
       <c r="N11" s="1">
         <v>28</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="39">
         <f>343-24</f>
         <v>319</v>
       </c>
@@ -8733,7 +8818,7 @@
       </c>
       <c r="S15" s="1">
         <f>Resultado!S17</f>
-        <v>284</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -8744,7 +8829,7 @@
         <f>ABS(-32)</f>
         <v>32</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="29">
         <v>36</v>
       </c>
       <c r="K16" s="1">
@@ -8754,14 +8839,14 @@
         <v>20</v>
       </c>
       <c r="Q16" s="3">
+        <f>ABS(-30)</f>
         <v>30</v>
       </c>
       <c r="R16" s="3">
         <v>114</v>
       </c>
       <c r="S16" s="1">
-        <f>77+94</f>
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8985,6 +9070,60 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="1">
+        <f>H10-H9</f>
+        <v>51.600000000000009</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>38</v>
+      </c>
+      <c r="N25" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>7</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="H26" s="39">
+        <v>29</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9005,10 +9144,10 @@
   <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W56" sqref="W56"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9033,7 +9172,7 @@
     <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
@@ -9106,6 +9245,9 @@
       <c r="T1" t="s">
         <v>46</v>
       </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -9175,7 +9317,10 @@
       <c r="T2" s="1">
         <v>0</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="U2" s="1">
+        <f>SUM(B2:T2)/COUNTIF(B2:T2,"&gt;0")</f>
+        <v>200.14285714285714</v>
+      </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -9213,7 +9358,7 @@
       </c>
       <c r="H3" s="1">
         <f>Resultado!H3</f>
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -9256,7 +9401,10 @@
       <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U58" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
+        <v>74.614285714285714</v>
+      </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -9294,7 +9442,7 @@
       </c>
       <c r="H4" s="1">
         <f>Resultado!H4</f>
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -9337,7 +9485,10 @@
       <c r="T4" s="1">
         <v>0</v>
       </c>
-      <c r="U4" s="1"/>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -9375,7 +9526,7 @@
       </c>
       <c r="H5" s="1">
         <f>Resultado!H5</f>
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -9417,6 +9568,10 @@
       </c>
       <c r="T5" s="1">
         <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="0"/>
+        <v>56.6</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -9485,7 +9640,10 @@
       <c r="T6" s="1">
         <v>0</v>
       </c>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1">
+        <f t="shared" si="0"/>
+        <v>108.5</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -9566,7 +9724,10 @@
       <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>29.080000000000002</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -9604,7 +9765,7 @@
       </c>
       <c r="H8" s="1">
         <f>Resultado!H8</f>
-        <v>103.80000000000001</v>
+        <v>104</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -9647,7 +9808,10 @@
       <c r="T8" s="1">
         <v>0</v>
       </c>
-      <c r="U8" s="1"/>
+      <c r="U8" s="1">
+        <f t="shared" si="0"/>
+        <v>387.1</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -9728,7 +9892,10 @@
       <c r="T9" s="1">
         <v>0</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1">
+        <f t="shared" si="0"/>
+        <v>141.86666666666667</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -9766,7 +9933,7 @@
       </c>
       <c r="H10" s="1">
         <f>Resultado!H10</f>
-        <v>41</v>
+        <v>40.800000000000011</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -9809,7 +9976,10 @@
       <c r="T10" s="1">
         <v>0</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1">
+        <f t="shared" si="0"/>
+        <v>50.542857142857137</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -9890,7 +10060,10 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1">
+        <f t="shared" si="0"/>
+        <v>570.01428571428573</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -9971,7 +10144,10 @@
       <c r="T12" s="1">
         <v>0</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1">
+        <f t="shared" si="0"/>
+        <v>186.29999999999998</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -10052,7 +10228,10 @@
       <c r="T13" s="1">
         <v>0</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -10133,7 +10312,10 @@
       <c r="T14" s="1">
         <v>0</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1">
+        <f t="shared" si="0"/>
+        <v>43.666666666666664</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -10214,7 +10396,10 @@
       <c r="T15" s="1">
         <v>0</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1">
+        <f t="shared" si="0"/>
+        <v>69.857142857142861</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -10295,7 +10480,10 @@
       <c r="T16" s="1">
         <v>0</v>
       </c>
-      <c r="U16" s="1"/>
+      <c r="U16" s="1">
+        <f t="shared" si="0"/>
+        <v>73.366666666666674</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -10353,7 +10541,7 @@
       </c>
       <c r="N17" s="1">
         <f>Resultado!N17</f>
-        <v>109.69999999999999</v>
+        <v>65.699999999999989</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -10371,12 +10559,15 @@
       </c>
       <c r="S17" s="1">
         <f>Resultado!S17</f>
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1">
+        <f t="shared" si="0"/>
+        <v>95.45</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -10434,7 +10625,7 @@
       </c>
       <c r="N18" s="1">
         <f>Resultado!N18</f>
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -10452,12 +10643,15 @@
       </c>
       <c r="S18" s="1">
         <f>Resultado!S18</f>
-        <v>731</v>
+        <v>653</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="1">
+        <f t="shared" si="0"/>
+        <v>503.85714285714283</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -10538,7 +10732,10 @@
       <c r="T19" s="1">
         <v>0</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1">
+        <f t="shared" si="0"/>
+        <v>73.214285714285708</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -10617,7 +10814,10 @@
       <c r="T20" s="1">
         <v>0</v>
       </c>
-      <c r="U20" s="1"/>
+      <c r="U20" s="1">
+        <f t="shared" si="0"/>
+        <v>131.42857142857142</v>
+      </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -10693,7 +10893,10 @@
       <c r="T21" s="1">
         <v>0</v>
       </c>
-      <c r="U21" s="1"/>
+      <c r="U21" s="1">
+        <f t="shared" si="0"/>
+        <v>175.85714285714286</v>
+      </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -10768,7 +10971,9 @@
       <c r="T22" s="1">
         <v>0</v>
       </c>
-      <c r="U22" s="1"/>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
@@ -10843,7 +11048,10 @@
       <c r="T23" s="1">
         <v>0</v>
       </c>
-      <c r="U23" s="1"/>
+      <c r="U23" s="1">
+        <f t="shared" si="0"/>
+        <v>39.666666666666664</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -10918,7 +11126,10 @@
       <c r="T24" s="1">
         <v>0</v>
       </c>
-      <c r="U24" s="1"/>
+      <c r="U24" s="1">
+        <f t="shared" si="0"/>
+        <v>104.68333333333334</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -10993,6 +11204,10 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
+      <c r="U25" s="1">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -11055,6 +11270,10 @@
       <c r="T26" s="1">
         <v>0</v>
       </c>
+      <c r="U26" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -11117,13 +11336,17 @@
       <c r="T27" s="1">
         <v>0</v>
       </c>
+      <c r="U27" s="1">
+        <f t="shared" si="0"/>
+        <v>276.8</v>
+      </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:J28" si="0">B12+B13</f>
+        <f t="shared" ref="B28:J28" si="1">B12+B13</f>
         <v>0</v>
       </c>
       <c r="C28">
@@ -11131,19 +11354,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
@@ -11151,11 +11374,11 @@
         <v>119.1</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="K28">
@@ -11191,6 +11414,10 @@
       <c r="T28">
         <f>T12+T13</f>
         <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="0"/>
+        <v>250.72857142857143</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
@@ -11254,6 +11481,10 @@
       <c r="T29">
         <v>6.2</v>
       </c>
+      <c r="U29" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9526315789473694</v>
+      </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -11316,6 +11547,10 @@
       <c r="T30">
         <v>13.6</v>
       </c>
+      <c r="U30" s="1">
+        <f t="shared" si="0"/>
+        <v>11.036842105263158</v>
+      </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -11378,6 +11613,10 @@
       <c r="T31">
         <v>45</v>
       </c>
+      <c r="U31" s="1">
+        <f t="shared" si="0"/>
+        <v>51.578947368421055</v>
+      </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -11440,8 +11679,12 @@
       <c r="T32" s="6">
         <v>0.58851905541148319</v>
       </c>
+      <c r="U32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72311224630544535</v>
+      </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -11502,8 +11745,12 @@
       <c r="T33">
         <v>21.5</v>
       </c>
+      <c r="U33" s="1">
+        <f t="shared" si="0"/>
+        <v>26.068421052631578</v>
+      </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -11564,8 +11811,12 @@
       <c r="T34" s="1">
         <v>1435</v>
       </c>
+      <c r="U34" s="1">
+        <f t="shared" si="0"/>
+        <v>1409.421052631579</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -11626,8 +11877,12 @@
       <c r="T35" s="1">
         <v>26347</v>
       </c>
+      <c r="U35" s="1">
+        <f t="shared" si="0"/>
+        <v>27429.42105263158</v>
+      </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -11688,8 +11943,12 @@
       <c r="T36" s="1">
         <v>45000</v>
       </c>
+      <c r="U36" s="1">
+        <f t="shared" si="0"/>
+        <v>60742.947368421053</v>
+      </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -11702,75 +11961,79 @@
         <v>0.55707499999999999</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ref="D37:T37" si="1">D35/D36</f>
+        <f t="shared" ref="D37:T37" si="2">D35/D36</f>
         <v>0.35992695755050602</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54016296296296296</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45252021768984285</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75358823529411767</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6133142857142857</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64960656101075032</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8803999999999998</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64116470588235297</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48950577716417665</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88848842881144652</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.279833446271265</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76444885799404172</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19203064057064548</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18435021371440641</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25434482180995854</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79142412957807584</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58548888888888884</v>
       </c>
+      <c r="U37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0414565332056698</v>
+      </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -11831,8 +12094,12 @@
       <c r="T38">
         <v>949</v>
       </c>
+      <c r="U38" s="1">
+        <f t="shared" si="0"/>
+        <v>1077.421052631579</v>
+      </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -11893,13 +12160,17 @@
       <c r="T39" s="1">
         <v>70</v>
       </c>
+      <c r="U39" s="1">
+        <f t="shared" si="0"/>
+        <v>76.89473684210526</v>
+      </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="6">
-        <f t="shared" ref="B40:J40" si="2">B11/B30</f>
+        <f t="shared" ref="B40:J40" si="3">B11/B30</f>
         <v>0</v>
       </c>
       <c r="C40" s="6">
@@ -11907,31 +12178,31 @@
         <v>0</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.515151515151516</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>790</v>
       </c>
       <c r="K40" s="6">
@@ -11939,48 +12210,52 @@
         <v>27.359667359667359</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" ref="L40:T40" si="3">L11/L30</f>
+        <f t="shared" ref="L40:T40" si="4">L11/L30</f>
         <v>0</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.980198019801982</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.64497041420119</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.352941176470587</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.688073394495412</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="0"/>
+        <v>150.07728598282688</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="14">
-        <f t="shared" ref="B41:J41" si="4">(B11/B36)*1000</f>
+        <f t="shared" ref="B41:J41" si="5">(B11/B36)*1000</f>
         <v>0</v>
       </c>
       <c r="C41" s="14">
@@ -11988,31 +12263,31 @@
         <v>0</v>
       </c>
       <c r="D41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5742857142857138</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.2</v>
       </c>
       <c r="K41" s="14">
@@ -12032,11 +12307,11 @@
         <v>3.7804486607938941</v>
       </c>
       <c r="O41" s="14">
-        <f t="shared" ref="O41:P41" si="5">(O11/O36)*1000</f>
+        <f t="shared" ref="O41:P41" si="6">(O11/O36)*1000</f>
         <v>0</v>
       </c>
       <c r="P41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q41" s="14">
@@ -12044,19 +12319,23 @@
         <v>4.6633650708953773</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" ref="R41:T41" si="6">(R11/R36)*1000</f>
+        <f t="shared" ref="R41:T41" si="7">(R11/R36)*1000</f>
         <v>8.8780937225176935</v>
       </c>
       <c r="S41" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.093712715571785</v>
       </c>
       <c r="T41" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="0"/>
+        <v>16.096036975034419</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -12123,8 +12402,12 @@
       <c r="T42">
         <v>0</v>
       </c>
+      <c r="U42" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0994738302040545</v>
+      </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -12189,8 +12472,12 @@
       <c r="T43">
         <v>0</v>
       </c>
+      <c r="U43" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1560421974845223</v>
+      </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -12254,8 +12541,12 @@
       <c r="T44">
         <v>0</v>
       </c>
+      <c r="U44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20376543209876541</v>
+      </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -12322,8 +12613,12 @@
       <c r="T45">
         <v>0</v>
       </c>
+      <c r="U45" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4475453577657476</v>
+      </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -12390,13 +12685,17 @@
       <c r="T46">
         <v>0</v>
       </c>
+      <c r="U46" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7141172730610457</v>
+      </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:T47" si="7">SUM(B26+B25)</f>
+        <f t="shared" ref="B47:T47" si="8">SUM(B26+B25)</f>
         <v>0</v>
       </c>
       <c r="C47">
@@ -12404,74 +12703,78 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47" si="8">SUM(H26+H25)</f>
+        <f t="shared" ref="H47" si="9">SUM(H26+H25)</f>
         <v>4.8</v>
       </c>
       <c r="I47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="O47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
         <v>29</v>
       </c>
       <c r="R47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47" si="9">SUM(S26+S25)</f>
+        <f t="shared" ref="S47" si="10">SUM(S26+S25)</f>
         <v>34</v>
       </c>
       <c r="T47">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -12537,8 +12840,12 @@
       <c r="T48" s="26">
         <v>0</v>
       </c>
+      <c r="U48" s="1">
+        <f t="shared" si="0"/>
+        <v>200.14285714285714</v>
+      </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -12601,8 +12908,12 @@
       <c r="T49">
         <v>0</v>
       </c>
+      <c r="U49" s="1">
+        <f t="shared" si="0"/>
+        <v>254.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -12664,8 +12975,12 @@
       <c r="T50">
         <v>0</v>
       </c>
+      <c r="U50" s="1">
+        <f t="shared" si="0"/>
+        <v>215.96666666666667</v>
+      </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -12732,8 +13047,12 @@
       <c r="T51">
         <v>0</v>
       </c>
+      <c r="U51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1264811254969633</v>
+      </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -12800,8 +13119,12 @@
       <c r="T52">
         <v>0</v>
       </c>
+      <c r="U52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42424724410569897</v>
+      </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -12869,8 +13192,12 @@
       <c r="T53">
         <v>0</v>
       </c>
+      <c r="U53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50758766179663983</v>
+      </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>133</v>
       </c>
@@ -12938,8 +13265,12 @@
       <c r="T54">
         <v>0</v>
       </c>
+      <c r="U54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62575412911810158</v>
+      </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -13000,8 +13331,12 @@
       <c r="T55">
         <v>0</v>
       </c>
+      <c r="U55" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -13063,8 +13398,12 @@
       <c r="T56">
         <v>0</v>
       </c>
+      <c r="U56" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -13126,8 +13465,12 @@
       <c r="T57">
         <v>0</v>
       </c>
+      <c r="U57" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6666666666666665</v>
+      </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -13188,8 +13531,12 @@
       <c r="T58" s="34">
         <v>20.5</v>
       </c>
+      <c r="U58" s="1">
+        <f t="shared" si="0"/>
+        <v>30.07961111111111</v>
+      </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
@@ -13223,10 +13570,10 @@
   <dimension ref="A1:DG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AP11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>
+      <selection pane="bottomRight" activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14131,7 +14478,7 @@
       </c>
       <c r="AF4" s="1">
         <f>Índices!H3</f>
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="AG4">
         <v>16</v>
@@ -14428,7 +14775,7 @@
       </c>
       <c r="AF5" s="1">
         <f>Índices!H4</f>
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="AG5">
         <v>27</v>
@@ -14700,7 +15047,7 @@
       </c>
       <c r="AF6" s="1">
         <f>Índices!H5</f>
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="AG6">
         <v>22</v>
@@ -15336,7 +15683,7 @@
       </c>
       <c r="AF9">
         <f>SUM(AF3:AF6,AF8)</f>
-        <v>103.80000000000001</v>
+        <v>104</v>
       </c>
       <c r="AG9">
         <f>SUM(AG3:AG6,AG8)</f>
@@ -15371,43 +15718,43 @@
         <v>160</v>
       </c>
       <c r="AP9">
-        <f>SUM(AP3:AP6,AP8)</f>
+        <f t="shared" ref="AP9:AY9" si="16">SUM(AP3:AP6,AP8)</f>
         <v>97.9</v>
       </c>
       <c r="AQ9">
-        <f>SUM(AQ3:AQ6,AQ8)</f>
+        <f t="shared" si="16"/>
         <v>106.8</v>
       </c>
       <c r="AR9">
-        <f>SUM(AR3:AR6,AR8)</f>
+        <f t="shared" si="16"/>
         <v>52.699999999999996</v>
       </c>
       <c r="AS9">
-        <f>SUM(AS3:AS6,AS8)</f>
+        <f t="shared" si="16"/>
         <v>8.0399999999999991</v>
       </c>
       <c r="AT9">
-        <f>SUM(AT3:AT6,AT8)</f>
+        <f t="shared" si="16"/>
         <v>25.3</v>
       </c>
       <c r="AU9">
-        <f>SUM(AU3:AU6,AU8)</f>
+        <f t="shared" si="16"/>
         <v>964</v>
       </c>
       <c r="AV9">
-        <f>SUM(AV3:AV6,AV8)</f>
+        <f t="shared" si="16"/>
         <v>955</v>
       </c>
       <c r="AW9">
-        <f>SUM(AW3:AW6,AW8)</f>
+        <f t="shared" si="16"/>
         <v>675</v>
       </c>
       <c r="AX9">
-        <f>SUM(AX3:AX6,AX8)</f>
+        <f t="shared" si="16"/>
         <v>524</v>
       </c>
       <c r="AY9">
-        <f>SUM(AY3:AY6,AY8)</f>
+        <f t="shared" si="16"/>
         <v>689</v>
       </c>
       <c r="BA9">
@@ -15415,15 +15762,15 @@
         <v>230</v>
       </c>
       <c r="BB9">
-        <f t="shared" ref="BB9" si="16">SUM(BB3:BB6,BB8)</f>
+        <f t="shared" ref="BB9" si="17">SUM(BB3:BB6,BB8)</f>
         <v>208</v>
       </c>
       <c r="BC9">
-        <f t="shared" ref="BC9" si="17">SUM(BC3:BC6,BC8)</f>
+        <f t="shared" ref="BC9" si="18">SUM(BC3:BC6,BC8)</f>
         <v>111.8</v>
       </c>
       <c r="BD9">
-        <f t="shared" ref="BD9" si="18">SUM(BD3:BD6,BD8)</f>
+        <f t="shared" ref="BD9" si="19">SUM(BD3:BD6,BD8)</f>
         <v>138</v>
       </c>
       <c r="BF9">
@@ -15431,15 +15778,15 @@
         <v>194</v>
       </c>
       <c r="BG9">
-        <f t="shared" ref="BG9" si="19">SUM(BG3:BG6,BG8)</f>
+        <f t="shared" ref="BG9" si="20">SUM(BG3:BG6,BG8)</f>
         <v>138</v>
       </c>
       <c r="BH9">
-        <f t="shared" ref="BH9" si="20">SUM(BH3:BH6,BH8)</f>
+        <f t="shared" ref="BH9" si="21">SUM(BH3:BH6,BH8)</f>
         <v>50</v>
       </c>
       <c r="BI9">
-        <f t="shared" ref="BI9" si="21">SUM(BI3:BI6,BI8)</f>
+        <f t="shared" ref="BI9" si="22">SUM(BI3:BI6,BI8)</f>
         <v>84.5</v>
       </c>
       <c r="BJ9" s="6">
@@ -15451,15 +15798,15 @@
         <v>178</v>
       </c>
       <c r="BL9">
-        <f t="shared" ref="BL9" si="22">SUM(BL3:BL6,BL8)</f>
+        <f t="shared" ref="BL9" si="23">SUM(BL3:BL6,BL8)</f>
         <v>306.2</v>
       </c>
       <c r="BM9">
-        <f t="shared" ref="BM9" si="23">SUM(BM3:BM6,BM8)</f>
+        <f t="shared" ref="BM9" si="24">SUM(BM3:BM6,BM8)</f>
         <v>272.10000000000002</v>
       </c>
       <c r="BN9">
-        <f t="shared" ref="BN9" si="24">SUM(BN3:BN6,BN8)</f>
+        <f t="shared" ref="BN9" si="25">SUM(BN3:BN6,BN8)</f>
         <v>304.2</v>
       </c>
       <c r="BP9">
@@ -15467,15 +15814,15 @@
         <v>94.1</v>
       </c>
       <c r="BQ9">
-        <f t="shared" ref="BQ9" si="25">SUM(BQ3:BQ6,BQ8)</f>
+        <f t="shared" ref="BQ9" si="26">SUM(BQ3:BQ6,BQ8)</f>
         <v>36.299999999999997</v>
       </c>
       <c r="BR9">
-        <f t="shared" ref="BR9" si="26">SUM(BR3:BR6,BR8)</f>
+        <f t="shared" ref="BR9" si="27">SUM(BR3:BR6,BR8)</f>
         <v>39.6</v>
       </c>
       <c r="BS9">
-        <f t="shared" ref="BS9" si="27">SUM(BS3:BS6,BS8)</f>
+        <f t="shared" ref="BS9" si="28">SUM(BS3:BS6,BS8)</f>
         <v>84.5</v>
       </c>
       <c r="BU9">
@@ -15483,15 +15830,15 @@
         <v>230</v>
       </c>
       <c r="BV9">
-        <f t="shared" ref="BV9" si="28">SUM(BV3:BV6,BV8)</f>
+        <f t="shared" ref="BV9" si="29">SUM(BV3:BV6,BV8)</f>
         <v>230.8</v>
       </c>
       <c r="BW9">
-        <f t="shared" ref="BW9" si="29">SUM(BW3:BW6,BW8)</f>
+        <f t="shared" ref="BW9" si="30">SUM(BW3:BW6,BW8)</f>
         <v>143.6</v>
       </c>
       <c r="BX9">
-        <f t="shared" ref="BX9" si="30">SUM(BX3:BX6,BX8)</f>
+        <f t="shared" ref="BX9" si="31">SUM(BX3:BX6,BX8)</f>
         <v>225</v>
       </c>
       <c r="BY9" s="1">
@@ -15499,19 +15846,19 @@
         <v>542</v>
       </c>
       <c r="BZ9" s="1">
-        <f t="shared" ref="BZ9:CC9" si="31">SUM(BZ3:BZ8)-BZ7</f>
+        <f t="shared" ref="BZ9:CC9" si="32">SUM(BZ3:BZ8)-BZ7</f>
         <v>527</v>
       </c>
       <c r="CA9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>722</v>
       </c>
       <c r="CB9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>338</v>
       </c>
       <c r="CC9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>437</v>
       </c>
       <c r="CD9">
@@ -15523,15 +15870,15 @@
         <v>217.8</v>
       </c>
       <c r="CF9">
-        <f t="shared" ref="CF9" si="32">SUM(CF3:CF6,CF8)</f>
+        <f t="shared" ref="CF9" si="33">SUM(CF3:CF6,CF8)</f>
         <v>271.60000000000002</v>
       </c>
       <c r="CG9">
-        <f t="shared" ref="CG9" si="33">SUM(CG3:CG6,CG8)</f>
+        <f t="shared" ref="CG9" si="34">SUM(CG3:CG6,CG8)</f>
         <v>128.80000000000001</v>
       </c>
       <c r="CH9">
-        <f t="shared" ref="CH9" si="34">SUM(CH3:CH6,CH8)</f>
+        <f t="shared" ref="CH9" si="35">SUM(CH3:CH6,CH8)</f>
         <v>159.5</v>
       </c>
       <c r="CI9">
@@ -15543,15 +15890,15 @@
         <v>357</v>
       </c>
       <c r="CK9">
-        <f t="shared" ref="CK9" si="35">SUM(CK3:CK6,CK8)</f>
+        <f t="shared" ref="CK9" si="36">SUM(CK3:CK6,CK8)</f>
         <v>310</v>
       </c>
       <c r="CL9">
-        <f t="shared" ref="CL9" si="36">SUM(CL3:CL6,CL8)</f>
+        <f t="shared" ref="CL9" si="37">SUM(CL3:CL6,CL8)</f>
         <v>170.5</v>
       </c>
       <c r="CM9">
-        <f t="shared" ref="CM9" si="37">SUM(CM3:CM6,CM8)</f>
+        <f t="shared" ref="CM9" si="38">SUM(CM3:CM6,CM8)</f>
         <v>220</v>
       </c>
       <c r="CO9">
@@ -15559,15 +15906,15 @@
         <v>97.7</v>
       </c>
       <c r="CP9">
-        <f t="shared" ref="CP9" si="38">SUM(CP3:CP6,CP8)</f>
+        <f t="shared" ref="CP9" si="39">SUM(CP3:CP6,CP8)</f>
         <v>115.6</v>
       </c>
       <c r="CQ9">
-        <f t="shared" ref="CQ9" si="39">SUM(CQ3:CQ6,CQ8)</f>
+        <f t="shared" ref="CQ9" si="40">SUM(CQ3:CQ6,CQ8)</f>
         <v>149.69999999999999</v>
       </c>
       <c r="CR9">
-        <f t="shared" ref="CR9" si="40">SUM(CR3:CR6,CR8)</f>
+        <f t="shared" ref="CR9" si="41">SUM(CR3:CR6,CR8)</f>
         <v>190</v>
       </c>
       <c r="CT9">
@@ -15575,15 +15922,15 @@
         <v>83.7</v>
       </c>
       <c r="CU9">
-        <f t="shared" ref="CU9" si="41">SUM(CU3:CU6,CU8)</f>
+        <f t="shared" ref="CU9" si="42">SUM(CU3:CU6,CU8)</f>
         <v>104.10000000000001</v>
       </c>
       <c r="CV9">
-        <f t="shared" ref="CV9" si="42">SUM(CV3:CV6,CV8)</f>
+        <f t="shared" ref="CV9" si="43">SUM(CV3:CV6,CV8)</f>
         <v>43.100000000000009</v>
       </c>
       <c r="CW9">
-        <f t="shared" ref="CW9" si="43">SUM(CW3:CW6,CW8)</f>
+        <f t="shared" ref="CW9" si="44">SUM(CW3:CW6,CW8)</f>
         <v>14.5</v>
       </c>
       <c r="CX9">
@@ -15595,15 +15942,15 @@
         <v>24.1</v>
       </c>
       <c r="CZ9">
-        <f t="shared" ref="CZ9" si="44">SUM(CZ3:CZ6,CZ8)</f>
+        <f t="shared" ref="CZ9" si="45">SUM(CZ3:CZ6,CZ8)</f>
         <v>11.899999999999999</v>
       </c>
       <c r="DA9">
-        <f t="shared" ref="DA9" si="45">SUM(DA3:DA6,DA8)</f>
+        <f t="shared" ref="DA9" si="46">SUM(DA3:DA6,DA8)</f>
         <v>4.8</v>
       </c>
       <c r="DB9">
-        <f t="shared" ref="DB9" si="46">SUM(DB3:DB6,DB8)</f>
+        <f t="shared" ref="DB9" si="47">SUM(DB3:DB6,DB8)</f>
         <v>15.8</v>
       </c>
       <c r="DD9">
@@ -15611,7 +15958,7 @@
         <v>69.600000000000009</v>
       </c>
       <c r="DE9">
-        <f t="shared" ref="DE9" si="47">SUM(DE3:DE6,DE8)</f>
+        <f t="shared" ref="DE9" si="48">SUM(DE3:DE6,DE8)</f>
         <v>64.7</v>
       </c>
       <c r="DF9">
@@ -18352,15 +18699,15 @@
         <v>0.88</v>
       </c>
       <c r="CU18">
-        <f t="shared" ref="CU18:CW18" si="48">(220*CU17)/100</f>
+        <f t="shared" ref="CU18:CW18" si="49">(220*CU17)/100</f>
         <v>0.88</v>
       </c>
       <c r="CV18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.88</v>
       </c>
       <c r="CW18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.88</v>
       </c>
       <c r="CX18">
@@ -18372,15 +18719,15 @@
         <v>0.22</v>
       </c>
       <c r="CZ18">
-        <f t="shared" ref="CZ18:DB18" si="49">(220*CZ17)/100</f>
+        <f t="shared" ref="CZ18:DB18" si="50">(220*CZ17)/100</f>
         <v>0.22</v>
       </c>
       <c r="DA18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.22</v>
       </c>
       <c r="DB18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.22</v>
       </c>
       <c r="DC18">
@@ -18392,15 +18739,15 @@
         <v>0.22</v>
       </c>
       <c r="DE18">
-        <f t="shared" ref="DE18" si="50">(220*DE17)/100</f>
+        <f t="shared" ref="DE18" si="51">(220*DE17)/100</f>
         <v>0.22</v>
       </c>
       <c r="DF18">
-        <f t="shared" ref="DF18" si="51">(220*DF17)/100</f>
+        <f t="shared" ref="DF18" si="52">(220*DF17)/100</f>
         <v>0.22</v>
       </c>
       <c r="DG18">
-        <f t="shared" ref="DG18" si="52">(220*DG17)/100</f>
+        <f t="shared" ref="DG18" si="53">(220*DG17)/100</f>
         <v>0.22</v>
       </c>
     </row>
@@ -19993,111 +20340,111 @@
         <v>0</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" ref="C24:F24" si="53">C11/C18</f>
+        <f t="shared" ref="C24:F24" si="54">C11/C18</f>
         <v>144</v>
       </c>
       <c r="D24" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>99</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>46</v>
       </c>
       <c r="F24" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>31</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" ref="H24:K24" si="54">H11/H18</f>
+        <f t="shared" ref="H24:K24" si="55">H11/H18</f>
         <v>40.526315789473685</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>52.315789473684212</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>13.789473684210526</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>29.789473684210527</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" ref="M24:P24" si="55">M11/M18</f>
+        <f t="shared" ref="M24:P24" si="56">M11/M18</f>
         <v>105.75757575757576</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>77.575757575757578</v>
       </c>
       <c r="O24" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>99.696969696969703</v>
       </c>
       <c r="P24" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>114.84848484848486</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" s="14">
-        <f t="shared" ref="R24:U24" si="56">R11/R18</f>
+        <f t="shared" ref="R24:U24" si="57">R11/R18</f>
         <v>12.658227848101266</v>
       </c>
       <c r="S24" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>24.556962025316455</v>
       </c>
       <c r="T24" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>15.189873417721518</v>
       </c>
       <c r="U24" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>22.025316455696203</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24" s="14">
-        <f t="shared" ref="W24:Z24" si="57">W11/W18</f>
+        <f t="shared" ref="W24:Z24" si="58">W11/W18</f>
         <v>32.272727272727273</v>
       </c>
       <c r="X24" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>26.818181818181817</v>
       </c>
       <c r="Y24" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>34.318181818181813</v>
       </c>
       <c r="Z24" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>43.409090909090907</v>
       </c>
       <c r="AB24" s="14">
-        <f t="shared" ref="AB24:AE24" si="58">AB11/AB18</f>
+        <f t="shared" ref="AB24:AE24" si="59">AB11/AB18</f>
         <v>20.897435897435898</v>
       </c>
       <c r="AC24" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>14.358974358974359</v>
       </c>
       <c r="AD24" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>13.621794871794872</v>
       </c>
       <c r="AE24" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>11.858974358974359</v>
       </c>
       <c r="AF24" s="14">
@@ -20105,115 +20452,115 @@
         <v>48.515151515151516</v>
       </c>
       <c r="AG24" s="14">
-        <f t="shared" ref="AG24:AJ24" si="59">AG11/AG18</f>
+        <f t="shared" ref="AG24:AJ24" si="60">AG11/AG18</f>
         <v>47.272727272727273</v>
       </c>
       <c r="AH24" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>24.242424242424242</v>
       </c>
       <c r="AI24" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>30.303030303030305</v>
       </c>
       <c r="AJ24" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>11.515151515151516</v>
       </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24" s="14">
-        <f t="shared" ref="AL24:AO24" si="60">AL11/AL18</f>
+        <f t="shared" ref="AL24:AO24" si="61">AL11/AL18</f>
         <v>10.895522388059701</v>
       </c>
       <c r="AM24" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>8.9552238805970141</v>
       </c>
       <c r="AN24" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>8.8059701492537314</v>
       </c>
       <c r="AO24" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>20.970149253731343</v>
       </c>
       <c r="AP24" s="14">
-        <f t="shared" ref="AP24:AT24" si="61">AP11/AP18</f>
+        <f t="shared" ref="AP24:AT24" si="62">AP11/AP18</f>
         <v>790</v>
       </c>
       <c r="AQ24" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>620</v>
       </c>
       <c r="AR24" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>320</v>
       </c>
       <c r="AS24" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>105</v>
       </c>
       <c r="AT24" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>105</v>
       </c>
       <c r="AU24">
         <v>25.8</v>
       </c>
       <c r="AV24" s="14">
-        <f t="shared" ref="AV24:AY24" si="62">AV11/AV18</f>
+        <f t="shared" ref="AV24:AY24" si="63">AV11/AV18</f>
         <v>23.118503118503117</v>
       </c>
       <c r="AW24" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>21.30977130977131</v>
       </c>
       <c r="AX24" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>13.388773388773389</v>
       </c>
       <c r="AY24" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>19.002079002079</v>
       </c>
       <c r="AZ24">
         <v>0</v>
       </c>
       <c r="BA24" s="14">
-        <f t="shared" ref="BA24:BD24" si="63">BA11/BA18</f>
+        <f t="shared" ref="BA24:BD24" si="64">BA11/BA18</f>
         <v>43.866666666666667</v>
       </c>
       <c r="BB24" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>41.866666666666667</v>
       </c>
       <c r="BC24" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>24.4</v>
       </c>
       <c r="BD24" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>33.333333333333336</v>
       </c>
       <c r="BE24">
         <v>0</v>
       </c>
       <c r="BF24" s="14">
-        <f t="shared" ref="BF24:BI24" si="64">BF11/BF18</f>
+        <f t="shared" ref="BF24:BI24" si="65">BF11/BF18</f>
         <v>93.461538461538453</v>
       </c>
       <c r="BG24" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>60.38461538461538</v>
       </c>
       <c r="BH24" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>29.615384615384613</v>
       </c>
       <c r="BI24" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>41.92307692307692</v>
       </c>
       <c r="BJ24" s="14">
@@ -20221,19 +20568,19 @@
         <v>41.980198019801982</v>
       </c>
       <c r="BK24" s="14">
-        <f t="shared" ref="BK24:BN24" si="65">BK11/BK18</f>
+        <f t="shared" ref="BK24:BN24" si="66">BK11/BK18</f>
         <v>28.514851485148515</v>
       </c>
       <c r="BL24" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>46.237623762376238</v>
       </c>
       <c r="BM24" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>38.118811881188122</v>
       </c>
       <c r="BN24" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>40.396039603960396</v>
       </c>
       <c r="BO24">
@@ -20244,34 +20591,34 @@
         <v>242.5</v>
       </c>
       <c r="BQ24" s="14">
-        <f t="shared" ref="BQ24:BS24" si="66">BQ11/BQ18</f>
+        <f t="shared" ref="BQ24:BS24" si="67">BQ11/BQ18</f>
         <v>117.5</v>
       </c>
       <c r="BR24" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>215</v>
       </c>
       <c r="BS24" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>227.5</v>
       </c>
       <c r="BT24">
         <v>0</v>
       </c>
       <c r="BU24" s="14">
-        <f t="shared" ref="BU24:BX24" si="67">BU11/BU18</f>
+        <f t="shared" ref="BU24:BX24" si="68">BU11/BU18</f>
         <v>47.012987012987011</v>
       </c>
       <c r="BV24" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>44.675324675324674</v>
       </c>
       <c r="BW24" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>33.766233766233768</v>
       </c>
       <c r="BX24" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>50.649350649350652</v>
       </c>
       <c r="BY24" s="14">
@@ -20279,39 +20626,39 @@
         <v>49.64497041420119</v>
       </c>
       <c r="BZ24" s="14">
-        <f t="shared" ref="BZ24:CD24" si="68">BZ11/BZ18</f>
+        <f t="shared" ref="BZ24:CD24" si="69">BZ11/BZ18</f>
         <v>46.804733727810657</v>
       </c>
       <c r="CA24" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>54.970414201183438</v>
       </c>
       <c r="CB24" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>31.479289940828405</v>
       </c>
       <c r="CC24" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>35.384615384615387</v>
       </c>
       <c r="CD24" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>62.352941176470587</v>
       </c>
       <c r="CE24" s="14">
-        <f t="shared" ref="CE24:CH24" si="69">CE11/CE18</f>
+        <f t="shared" ref="CE24:CH24" si="70">CE11/CE18</f>
         <v>50.294117647058826</v>
       </c>
       <c r="CF24" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>59.852941176470587</v>
       </c>
       <c r="CG24" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>35.294117647058826</v>
       </c>
       <c r="CH24" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>58.82352941176471</v>
       </c>
       <c r="CI24" s="14">
@@ -20319,38 +20666,38 @@
         <v>30.688073394495412</v>
       </c>
       <c r="CJ24" s="14">
-        <f t="shared" ref="CJ24:CM24" si="70">CJ11/CJ18</f>
+        <f t="shared" ref="CJ24:CM24" si="71">CJ11/CJ18</f>
         <v>26.972477064220183</v>
       </c>
       <c r="CK24" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>19.862385321100916</v>
       </c>
       <c r="CL24" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>14.81651376146789</v>
       </c>
       <c r="CM24" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>14.954128440366972</v>
       </c>
       <c r="CN24">
         <v>0</v>
       </c>
       <c r="CO24" s="14">
-        <f t="shared" ref="CO24:CR24" si="71">CO11/CO18</f>
+        <f t="shared" ref="CO24:CR24" si="72">CO11/CO18</f>
         <v>8.5294117647058822</v>
       </c>
       <c r="CP24" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>12.205882352941178</v>
       </c>
       <c r="CQ24" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>11.98529411764706</v>
       </c>
       <c r="CR24" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>17.647058823529413</v>
       </c>
     </row>
@@ -20362,75 +20709,75 @@
         <v>0</v>
       </c>
       <c r="C25" s="14">
-        <f t="shared" ref="C25:F25" si="72">C10/C16</f>
+        <f t="shared" ref="C25:F25" si="73">C10/C16</f>
         <v>2</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.2702702702702702</v>
       </c>
       <c r="F25" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.8181818181818179</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" s="14">
-        <f t="shared" ref="H25:K25" si="73">H10/H16</f>
+        <f t="shared" ref="H25:K25" si="74">H10/H16</f>
         <v>4.8888888888888893</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5.5</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="K25" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.5714285714285712</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" ref="M25:P25" si="74">M10/M16</f>
+        <f t="shared" ref="M25:P25" si="75">M10/M16</f>
         <v>7.2142857142857144</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.3684210526315788</v>
       </c>
       <c r="O25" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>26.447368421052634</v>
       </c>
       <c r="P25" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>6.0454545454545459</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" s="14">
-        <f t="shared" ref="R25:U25" si="75">R10/R16</f>
+        <f t="shared" ref="R25:U25" si="76">R10/R16</f>
         <v>1.6153846153846154</v>
       </c>
       <c r="S25" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.6923076923076925</v>
       </c>
       <c r="T25" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.75</v>
       </c>
       <c r="U25" s="14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.2142857142857144</v>
       </c>
       <c r="V25">
@@ -20465,19 +20812,19 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="AG25" s="14">
-        <f t="shared" ref="AG25:AJ25" si="76">AG10/AG16</f>
+        <f t="shared" ref="AG25:AJ25" si="77">AG10/AG16</f>
         <v>3.3009708737864076</v>
       </c>
       <c r="AH25" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.449438202247191</v>
       </c>
       <c r="AI25" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3.9449541284403669</v>
       </c>
       <c r="AJ25" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.18354430379746833</v>
       </c>
       <c r="AK25">
@@ -20487,15 +20834,15 @@
         <v>0</v>
       </c>
       <c r="AM25" s="14">
-        <f t="shared" ref="AM25:AO25" si="77">AM10/AM16</f>
+        <f t="shared" ref="AM25:AO25" si="78">AM10/AM16</f>
         <v>4.7619047619047619</v>
       </c>
       <c r="AN25" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>2.875</v>
       </c>
       <c r="AO25" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5.6842105263157894</v>
       </c>
       <c r="AP25">
@@ -20517,57 +20864,57 @@
         <v>12.7</v>
       </c>
       <c r="AV25" s="14">
-        <f t="shared" ref="AV25:AY25" si="78">AV10/AV16</f>
+        <f t="shared" ref="AV25:AY25" si="79">AV10/AV16</f>
         <v>4.75</v>
       </c>
       <c r="AW25" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5.6734693877551017</v>
       </c>
       <c r="AX25" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>8.5384615384615383</v>
       </c>
       <c r="AY25" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9.375</v>
       </c>
       <c r="AZ25">
         <v>0</v>
       </c>
       <c r="BA25" s="14">
-        <f t="shared" ref="BA25:BD25" si="79">BA10/BA16</f>
+        <f t="shared" ref="BA25:BD25" si="80">BA10/BA16</f>
         <v>4.7</v>
       </c>
       <c r="BB25" s="14">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>5.7894736842105265</v>
       </c>
       <c r="BC25" s="14">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4.5454545454545459</v>
       </c>
       <c r="BD25" s="14">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>6.5625</v>
       </c>
       <c r="BE25">
         <v>0</v>
       </c>
       <c r="BF25" s="14">
-        <f t="shared" ref="BF25:BI25" si="80">BF10/BF16</f>
+        <f t="shared" ref="BF25:BI25" si="81">BF10/BF16</f>
         <v>5</v>
       </c>
       <c r="BG25" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1.263157894736842</v>
       </c>
       <c r="BH25" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5.5</v>
       </c>
       <c r="BI25" s="14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4.0625</v>
       </c>
       <c r="BJ25" s="18">
@@ -20575,57 +20922,57 @@
         <v>1.9230769230769231</v>
       </c>
       <c r="BK25" s="18">
-        <f t="shared" ref="BK25:BN25" si="81">BK10/BK16</f>
+        <f t="shared" ref="BK25:BN25" si="82">BK10/BK16</f>
         <v>4.08</v>
       </c>
       <c r="BL25" s="18">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.4827586206896548</v>
       </c>
       <c r="BM25" s="18">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>6</v>
       </c>
       <c r="BN25" s="18">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>4.6956521739130439</v>
       </c>
       <c r="BO25">
         <v>0</v>
       </c>
       <c r="BP25" s="14">
-        <f t="shared" ref="BP25:BS25" si="82">BP10/BP16</f>
+        <f t="shared" ref="BP25:BS25" si="83">BP10/BP16</f>
         <v>0.65217391304347827</v>
       </c>
       <c r="BQ25" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2.5</v>
       </c>
       <c r="BR25" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>9.375</v>
       </c>
       <c r="BS25" s="14">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.17460317460317462</v>
       </c>
       <c r="BT25">
         <v>0</v>
       </c>
       <c r="BU25" s="14">
-        <f t="shared" ref="BU25:BX25" si="83">BU10/BU16</f>
+        <f t="shared" ref="BU25:BX25" si="84">BU10/BU16</f>
         <v>7.8636363636363633</v>
       </c>
       <c r="BV25" s="14">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>4</v>
       </c>
       <c r="BW25" s="14">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>4.5333333333333332</v>
       </c>
       <c r="BX25" s="14">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>6.2962962962962958</v>
       </c>
       <c r="BY25" s="14">
@@ -20633,77 +20980,77 @@
         <v>6.4482758620689653</v>
       </c>
       <c r="BZ25" s="14">
-        <f t="shared" ref="BZ25:CD25" si="84">BZ10/BZ16</f>
+        <f t="shared" ref="BZ25:CD25" si="85">BZ10/BZ16</f>
         <v>5.8</v>
       </c>
       <c r="CA25" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.7931034482758621</v>
       </c>
       <c r="CB25" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>7.8421052631578947</v>
       </c>
       <c r="CC25" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.1538461538461542</v>
       </c>
       <c r="CD25" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>14.5</v>
       </c>
       <c r="CE25" s="14">
-        <f t="shared" ref="CE25:CH25" si="85">CE10/CE16</f>
+        <f t="shared" ref="CE25:CH25" si="86">CE10/CE16</f>
         <v>14.7</v>
       </c>
       <c r="CF25" s="14">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>11.382978723404255</v>
       </c>
       <c r="CG25" s="14">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>10.76923076923077</v>
       </c>
       <c r="CH25" s="14">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>24</v>
       </c>
       <c r="CI25" s="14">
         <v>0</v>
       </c>
       <c r="CJ25" s="14">
-        <f t="shared" ref="CJ25:CM25" si="86">CJ10/CJ16</f>
+        <f t="shared" ref="CJ25:CM25" si="87">CJ10/CJ16</f>
         <v>14.3125</v>
       </c>
       <c r="CK25" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4.3214285714285712</v>
       </c>
       <c r="CL25" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4.1944444444444446</v>
       </c>
       <c r="CM25" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2.625</v>
       </c>
       <c r="CN25">
         <v>0</v>
       </c>
       <c r="CO25" s="14">
-        <f t="shared" ref="CO25:CR25" si="87">CO10/CO16</f>
+        <f t="shared" ref="CO25:CR25" si="88">CO10/CO16</f>
         <v>3.0459770114942533</v>
       </c>
       <c r="CP25" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>16.944444444444443</v>
       </c>
       <c r="CQ25" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="CR25" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1.0769230769230769</v>
       </c>
     </row>
@@ -20715,11 +21062,11 @@
         <v>0</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" ref="C26:D26" si="88">C10/C19</f>
+        <f t="shared" ref="C26:D26" si="89">C10/C19</f>
         <v>0.18867924528301888</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4.5283018867924525E-2</v>
       </c>
       <c r="E26" s="14">
@@ -20732,38 +21079,38 @@
         <v>0</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" ref="H26:K26" si="89">H10/H19</f>
+        <f t="shared" ref="H26:K26" si="90">H10/H19</f>
         <v>1.5172413793103448</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2.2083333333333335</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:P26" si="90">M10/M19</f>
+        <f t="shared" ref="M26:P26" si="91">M10/M19</f>
         <v>1.7413793103448276</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.68085106382978722</v>
       </c>
       <c r="O26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>3.7924528301886791</v>
       </c>
       <c r="P26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2.078125</v>
       </c>
       <c r="Q26">
@@ -20773,49 +21120,49 @@
         <v>0</v>
       </c>
       <c r="S26" s="14">
-        <f t="shared" ref="S26:U26" si="91">S10/S19</f>
+        <f t="shared" ref="S26:U26" si="92">S10/S19</f>
         <v>0.81395348837209303</v>
       </c>
       <c r="T26" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.5</v>
       </c>
       <c r="U26" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.91836734693877553</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26" s="14">
-        <f t="shared" ref="W26:Z26" si="92">W10/W19</f>
+        <f t="shared" ref="W26:Z26" si="93">W10/W19</f>
         <v>0</v>
       </c>
       <c r="X26" s="14">
         <v>0</v>
       </c>
       <c r="Y26" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="Z26" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.90697674418604646</v>
       </c>
       <c r="AB26" s="14">
-        <f t="shared" ref="AB26:AE26" si="93">AB10/AB19</f>
+        <f t="shared" ref="AB26:AE26" si="94">AB10/AB19</f>
         <v>2.2461538461538462</v>
       </c>
       <c r="AC26" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.49122807017543857</v>
       </c>
       <c r="AD26" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>3.7058823529411766</v>
       </c>
       <c r="AE26" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.6071428571428571</v>
       </c>
       <c r="AF26" s="18">
@@ -20823,14 +21170,14 @@
         <v>0.5066666666666666</v>
       </c>
       <c r="AG26" s="14">
-        <f t="shared" ref="AG26:AI26" si="94">AG10/AG19</f>
+        <f t="shared" ref="AG26:AI26" si="95">AG10/AG19</f>
         <v>0.80952380952380953</v>
       </c>
       <c r="AH26" s="14">
         <v>0</v>
       </c>
       <c r="AI26" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1.3870967741935485</v>
       </c>
       <c r="AJ26" s="14">
@@ -20849,19 +21196,19 @@
         <v>0</v>
       </c>
       <c r="AO26" s="14">
-        <f t="shared" ref="AO26" si="95">AO10/AO19</f>
+        <f t="shared" ref="AO26" si="96">AO10/AO19</f>
         <v>3</v>
       </c>
       <c r="AP26" s="14">
-        <f t="shared" ref="AP26:AR26" si="96">AP10/AP19</f>
+        <f t="shared" ref="AP26:AR26" si="97">AP10/AP19</f>
         <v>0</v>
       </c>
       <c r="AQ26" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AR26" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AS26" s="14">
@@ -20874,57 +21221,57 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AV26" s="14">
-        <f t="shared" ref="AV26:AY26" si="97">AV10/AV19</f>
+        <f t="shared" ref="AV26:AY26" si="98">AV10/AV19</f>
         <v>2.1451612903225805</v>
       </c>
       <c r="AW26" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3.915492957746479</v>
       </c>
       <c r="AX26" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3.1267605633802815</v>
       </c>
       <c r="AY26" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AZ26">
         <v>0</v>
       </c>
       <c r="BA26" s="14">
-        <f t="shared" ref="BA26:BD26" si="98">BA10/BA19</f>
+        <f t="shared" ref="BA26:BD26" si="99">BA10/BA19</f>
         <v>1.3428571428571427</v>
       </c>
       <c r="BB26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.0370370370370372</v>
       </c>
       <c r="BC26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.78125</v>
       </c>
       <c r="BD26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.2826086956521738</v>
       </c>
       <c r="BE26">
         <v>0</v>
       </c>
       <c r="BF26" s="14">
-        <f t="shared" ref="BF26:BI26" si="99">BF10/BF19</f>
+        <f t="shared" ref="BF26:BI26" si="100">BF10/BF19</f>
         <v>0.36363636363636365</v>
       </c>
       <c r="BG26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>4.1379310344827586E-2</v>
       </c>
       <c r="BH26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.26829268292682928</v>
       </c>
       <c r="BI26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.12264150943396226</v>
       </c>
       <c r="BJ26" s="18">
@@ -20939,48 +21286,48 @@
         <v>3.6976744186046511</v>
       </c>
       <c r="BM26" s="18">
-        <f t="shared" ref="BM26:BN26" si="100">BM10/BM19</f>
+        <f t="shared" ref="BM26:BN26" si="101">BM10/BM19</f>
         <v>2.0338983050847457</v>
       </c>
       <c r="BN26" s="18">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>1.6615384615384616</v>
       </c>
       <c r="BO26">
         <v>0</v>
       </c>
       <c r="BP26" s="14">
-        <f t="shared" ref="BP26:BS26" si="101">BP10/BP19</f>
+        <f t="shared" ref="BP26:BS26" si="102">BP10/BP19</f>
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="BQ26" s="14">
         <v>0</v>
       </c>
       <c r="BR26" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1.2162162162162162</v>
       </c>
       <c r="BS26" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2.1153846153846155E-2</v>
       </c>
       <c r="BT26">
         <v>0</v>
       </c>
       <c r="BU26" s="14">
-        <f t="shared" ref="BU26:BX26" si="102">BU10/BU19</f>
+        <f t="shared" ref="BU26:BX26" si="103">BU10/BU19</f>
         <v>2.3698630136986303</v>
       </c>
       <c r="BV26" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="BW26" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.97142857142857142</v>
       </c>
       <c r="BX26" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2.3859649122807016</v>
       </c>
       <c r="BY26" s="14">
@@ -20988,39 +21335,39 @@
         <v>2.6714285714285713</v>
       </c>
       <c r="BZ26" s="14">
-        <f t="shared" ref="BZ26:CD26" si="103">BZ10/BZ19</f>
+        <f t="shared" ref="BZ26:CD26" si="104">BZ10/BZ19</f>
         <v>2.1481481481481484</v>
       </c>
       <c r="CA26" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2.106060606060606</v>
       </c>
       <c r="CB26" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2.5689655172413794</v>
       </c>
       <c r="CC26" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1.4594594594594594</v>
       </c>
       <c r="CD26" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>4.0465116279069768</v>
       </c>
       <c r="CE26" s="14">
-        <f t="shared" ref="CE26:CH26" si="104">CE10/CE19</f>
+        <f t="shared" ref="CE26:CH26" si="105">CE10/CE19</f>
         <v>3.1276595744680851</v>
       </c>
       <c r="CF26" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2.14</v>
       </c>
       <c r="CG26" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="CH26" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2.9189189189189189</v>
       </c>
       <c r="CI26" s="14">
@@ -21028,19 +21375,19 @@
         <v>2.2830188679245285</v>
       </c>
       <c r="CJ26" s="14">
-        <f t="shared" ref="CJ26:CM26" si="105">CJ10/CJ19</f>
+        <f t="shared" ref="CJ26:CM26" si="106">CJ10/CJ19</f>
         <v>4.2407407407407405</v>
       </c>
       <c r="CK26" s="14">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>2.5208333333333335</v>
       </c>
       <c r="CL26" s="14">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>2.2878787878787881</v>
       </c>
       <c r="CM26" s="14">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="CN26">
@@ -21053,11 +21400,11 @@
         <v>0</v>
       </c>
       <c r="CQ26" s="14">
-        <f t="shared" ref="CQ26:CR26" si="106">CQ10/CQ19</f>
+        <f t="shared" ref="CQ26:CR26" si="107">CQ10/CQ19</f>
         <v>0.80487804878048785</v>
       </c>
       <c r="CR26" s="14">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -21069,76 +21416,76 @@
         <v>0</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" ref="C27:F27" si="107">C7/C12</f>
+        <f t="shared" ref="C27:F27" si="108">C7/C12</f>
         <v>0</v>
       </c>
       <c r="D27" s="14">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" ref="H27:K27" si="108">H7/H12</f>
+        <f t="shared" ref="H27:K27" si="109">H7/H12</f>
         <v>0</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" ref="M27:P27" si="109">M7/M12</f>
+        <f t="shared" ref="M27:P27" si="110">M7/M12</f>
         <v>0.4550561797752809</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.51724137931034486</v>
       </c>
       <c r="O27" s="14">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.31868131868131866</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.61594202898550721</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" s="14">
-        <f t="shared" ref="R27:U27" si="110">R7/R12</f>
+        <f t="shared" ref="R27:U27" si="111">R7/R12</f>
         <v>0</v>
       </c>
       <c r="S27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="U27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="V27">
@@ -21157,57 +21504,57 @@
         <v>0</v>
       </c>
       <c r="AB27" s="14">
-        <f t="shared" ref="AB27:AE27" si="111">AB7/AB12</f>
+        <f t="shared" ref="AB27:AE27" si="112">AB7/AB12</f>
         <v>0</v>
       </c>
       <c r="AC27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AD27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AE27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
       </c>
       <c r="AG27" s="14">
-        <f t="shared" ref="AG27:AJ27" si="112">AG7/AG12</f>
+        <f t="shared" ref="AG27:AJ27" si="113">AG7/AG12</f>
         <v>0</v>
       </c>
       <c r="AH27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AI27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27" s="14">
-        <f t="shared" ref="AL27:AO27" si="113">AL7/AL12</f>
+        <f t="shared" ref="AL27:AO27" si="114">AL7/AL12</f>
         <v>0</v>
       </c>
       <c r="AM27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AN27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AO27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AP27" s="14">
@@ -21229,57 +21576,57 @@
         <v>0.21</v>
       </c>
       <c r="AV27" s="14">
-        <f t="shared" ref="AV27:AY27" si="114">AV7/AV12</f>
+        <f t="shared" ref="AV27:AY27" si="115">AV7/AV12</f>
         <v>0.56947608200455579</v>
       </c>
       <c r="AW27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.4096045197740113</v>
       </c>
       <c r="AX27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.2740963855421687</v>
       </c>
       <c r="AY27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.53680981595092025</v>
       </c>
       <c r="AZ27">
         <v>0</v>
       </c>
       <c r="BA27" s="14">
-        <f t="shared" ref="BA27:BD27" si="115">BA7/BA12</f>
+        <f t="shared" ref="BA27:BD27" si="116">BA7/BA12</f>
         <v>0</v>
       </c>
       <c r="BB27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="BC27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="BD27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="BE27">
         <v>0</v>
       </c>
       <c r="BF27" s="14">
-        <f t="shared" ref="BF27:BI27" si="116">BF7/BF12</f>
+        <f t="shared" ref="BF27:BI27" si="117">BF7/BF12</f>
         <v>0.42352941176470588</v>
       </c>
       <c r="BG27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.46052631578947367</v>
       </c>
       <c r="BH27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="BI27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="BJ27">
@@ -21301,38 +21648,38 @@
         <v>0</v>
       </c>
       <c r="BP27" s="14">
-        <f t="shared" ref="BP27:BS27" si="117">BP7/BP12</f>
+        <f t="shared" ref="BP27:BS27" si="118">BP7/BP12</f>
         <v>0.2181818181818182</v>
       </c>
       <c r="BQ27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="BR27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="BS27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4.878048780487805E-2</v>
       </c>
       <c r="BT27">
         <v>0</v>
       </c>
       <c r="BU27" s="14">
-        <f t="shared" ref="BU27:BX27" si="118">BU7/BU12</f>
+        <f t="shared" ref="BU27:BX27" si="119">BU7/BU12</f>
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="BV27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.32596685082872928</v>
       </c>
       <c r="BW27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.17934782608695651</v>
       </c>
       <c r="BX27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.37894736842105264</v>
       </c>
       <c r="BY27" s="14">
@@ -21340,77 +21687,77 @@
         <v>0.19753086419753085</v>
       </c>
       <c r="BZ27" s="14">
-        <f t="shared" ref="BZ27:CD27" si="119">BZ7/BZ12</f>
+        <f t="shared" ref="BZ27:CD27" si="120">BZ7/BZ12</f>
         <v>0.26027397260273971</v>
       </c>
       <c r="CA27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.72676056338028172</v>
       </c>
       <c r="CB27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.14077669902912621</v>
       </c>
       <c r="CC27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8.0321285140562249E-2</v>
       </c>
       <c r="CD27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="CE27" s="14">
-        <f t="shared" ref="CE27:CH27" si="120">CE7/CE12</f>
+        <f t="shared" ref="CE27:CH27" si="121">CE7/CE12</f>
         <v>0</v>
       </c>
       <c r="CF27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="CG27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="CH27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="CI27" s="14">
         <v>0</v>
       </c>
       <c r="CJ27" s="14">
-        <f t="shared" ref="CJ27:CM27" si="121">CJ7/CJ12</f>
+        <f t="shared" ref="CJ27:CM27" si="122">CJ7/CJ12</f>
         <v>0.14646464646464646</v>
       </c>
       <c r="CK27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="CL27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>2.9940119760479044E-3</v>
       </c>
       <c r="CM27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="CN27">
         <v>0</v>
       </c>
       <c r="CO27" s="14">
-        <f t="shared" ref="CO27:CR27" si="122">CO7/CO12</f>
+        <f t="shared" ref="CO27:CR27" si="123">CO7/CO12</f>
         <v>2.9850746268656716E-2</v>
       </c>
       <c r="CP27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.1076923076923077</v>
       </c>
       <c r="CQ27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.15584415584415584</v>
       </c>
       <c r="CR27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.24719101123595505</v>
       </c>
     </row>
@@ -21422,11 +21769,11 @@
         <v>0</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:D28" si="123">C12/C19</f>
+        <f t="shared" ref="C28:D28" si="124">C12/C19</f>
         <v>1.1320754716981132</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.86792452830188682</v>
       </c>
       <c r="E28" s="14">
@@ -21439,38 +21786,38 @@
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" ref="H28:K28" si="124">H12/H19</f>
+        <f t="shared" ref="H28:K28" si="125">H12/H19</f>
         <v>4.3103448275862073</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>3.1309523809523809</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>3.25</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" ref="M28:P28" si="125">M12/M19</f>
+        <f t="shared" ref="M28:P28" si="126">M12/M19</f>
         <v>3.0689655172413794</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>3.0851063829787235</v>
       </c>
       <c r="O28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>1.7169811320754718</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>2.15625</v>
       </c>
       <c r="Q28">
@@ -21480,49 +21827,49 @@
         <v>0</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28:U28" si="126">S12/S19</f>
+        <f t="shared" ref="S28:U28" si="127">S12/S19</f>
         <v>2.4651162790697674</v>
       </c>
       <c r="T28" s="14">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>2.0681818181818183</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>1.8979591836734695</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28" s="14">
-        <f t="shared" ref="W28:Z28" si="127">W12/W19</f>
+        <f t="shared" ref="W28:Z28" si="128">W12/W19</f>
         <v>0</v>
       </c>
       <c r="X28" s="14">
         <v>0</v>
       </c>
       <c r="Y28" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>2.6518518518518515</v>
       </c>
       <c r="Z28" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1.7209302325581395</v>
       </c>
       <c r="AB28" s="14">
-        <f t="shared" ref="AB28:AE28" si="128">AB12/AB19</f>
+        <f t="shared" ref="AB28:AE28" si="129">AB12/AB19</f>
         <v>4.2153846153846155</v>
       </c>
       <c r="AC28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>3.6491228070175437</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>3.6862745098039214</v>
       </c>
       <c r="AE28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>4</v>
       </c>
       <c r="AF28" s="18">
@@ -21530,14 +21877,14 @@
         <v>3.9699999999999998</v>
       </c>
       <c r="AG28" s="14">
-        <f t="shared" ref="AG28:AI28" si="129">AG12/AG19</f>
+        <f t="shared" ref="AG28:AI28" si="130">AG12/AG19</f>
         <v>1.7380952380952381</v>
       </c>
       <c r="AH28" s="14">
         <v>0</v>
       </c>
       <c r="AI28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1.5806451612903225</v>
       </c>
       <c r="AJ28" s="14">
@@ -21556,19 +21903,19 @@
         <v>0</v>
       </c>
       <c r="AO28" s="14">
-        <f t="shared" ref="AO28" si="130">AO12/AO19</f>
+        <f t="shared" ref="AO28" si="131">AO12/AO19</f>
         <v>5.8611111111111107</v>
       </c>
       <c r="AP28" s="14">
-        <f t="shared" ref="AP28:AR28" si="131">AP12/AP19</f>
+        <f t="shared" ref="AP28:AR28" si="132">AP12/AP19</f>
         <v>1.9411764705882353</v>
       </c>
       <c r="AQ28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>2.0487804878048781</v>
       </c>
       <c r="AR28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1.4042553191489362</v>
       </c>
       <c r="AS28" s="14">
@@ -21581,57 +21928,57 @@
         <v>7.02</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" ref="AV28:AY28" si="132">AV12/AV19</f>
+        <f t="shared" ref="AV28:AY28" si="133">AV12/AV19</f>
         <v>7.080645161290323</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>4.9859154929577461</v>
       </c>
       <c r="AX28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>4.676056338028169</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>3.6222222222222222</v>
       </c>
       <c r="AZ28">
         <v>0</v>
       </c>
       <c r="BA28" s="14">
-        <f t="shared" ref="BA28:BD28" si="133">BA12/BA19</f>
+        <f t="shared" ref="BA28:BD28" si="134">BA12/BA19</f>
         <v>1.8571428571428572</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>2.1851851851851851</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1.15625</v>
       </c>
       <c r="BD28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1.326086956521739</v>
       </c>
       <c r="BE28">
         <v>0</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" ref="BF28:BI28" si="134">BF12/BF19</f>
+        <f t="shared" ref="BF28:BI28" si="135">BF12/BF19</f>
         <v>1.5454545454545454</v>
       </c>
       <c r="BG28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.3103448275862069</v>
       </c>
       <c r="BH28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.0731707317073171</v>
       </c>
       <c r="BI28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.3018867924528301</v>
       </c>
       <c r="BJ28" s="18">
@@ -21642,52 +21989,52 @@
         <v>0</v>
       </c>
       <c r="BL28" s="18">
-        <f t="shared" ref="BL28:BN28" si="135">BL12/BL19</f>
+        <f t="shared" ref="BL28:BN28" si="136">BL12/BL19</f>
         <v>3.13953488372093</v>
       </c>
       <c r="BM28" s="18">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>1.8644067796610169</v>
       </c>
       <c r="BN28" s="18">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>1.676923076923077</v>
       </c>
       <c r="BO28">
         <v>0</v>
       </c>
       <c r="BP28" s="14">
-        <f t="shared" ref="BP28:BS28" si="136">BP12/BP19</f>
+        <f t="shared" ref="BP28:BS28" si="137">BP12/BP19</f>
         <v>0.71739130434782605</v>
       </c>
       <c r="BQ28" s="14">
         <v>0</v>
       </c>
       <c r="BR28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1.2702702702702702</v>
       </c>
       <c r="BS28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.78846153846153844</v>
       </c>
       <c r="BT28">
         <v>0</v>
       </c>
       <c r="BU28" s="14">
-        <f t="shared" ref="BU28:BX28" si="137">BU12/BU19</f>
+        <f t="shared" ref="BU28:BX28" si="138">BU12/BU19</f>
         <v>2.7123287671232879</v>
       </c>
       <c r="BV28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>3.7708333333333335</v>
       </c>
       <c r="BW28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>2.6285714285714286</v>
       </c>
       <c r="BX28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BY28" s="14">
@@ -21695,39 +22042,39 @@
         <v>5.7857142857142856</v>
       </c>
       <c r="BZ28" s="14">
-        <f t="shared" ref="BZ28:CD28" si="138">BZ12/BZ19</f>
+        <f t="shared" ref="BZ28:CD28" si="139">BZ12/BZ19</f>
         <v>4.5061728395061724</v>
       </c>
       <c r="CA28" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>5.3787878787878789</v>
       </c>
       <c r="CB28" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>3.5517241379310347</v>
       </c>
       <c r="CC28" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>3.3648648648648649</v>
       </c>
       <c r="CD28" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>3.9883720930232558</v>
       </c>
       <c r="CE28" s="14">
-        <f t="shared" ref="CE28:CH28" si="139">CE12/CE19</f>
+        <f t="shared" ref="CE28:CH28" si="140">CE12/CE19</f>
         <v>2.8936170212765959</v>
       </c>
       <c r="CF28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>2.66</v>
       </c>
       <c r="CG28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>2.5370370370370372</v>
       </c>
       <c r="CH28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>2.2432432432432434</v>
       </c>
       <c r="CI28" s="14">
@@ -21735,19 +22082,19 @@
         <v>5.0188679245283021</v>
       </c>
       <c r="CJ28" s="14">
-        <f t="shared" ref="CJ28:CM28" si="140">CJ12/CJ19</f>
+        <f t="shared" ref="CJ28:CM28" si="141">CJ12/CJ19</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="CK28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>4.5625</v>
       </c>
       <c r="CL28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2.5303030303030303</v>
       </c>
       <c r="CM28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2.6190476190476191</v>
       </c>
       <c r="CN28">
@@ -21760,11 +22107,11 @@
         <v>0</v>
       </c>
       <c r="CQ28" s="14">
-        <f t="shared" ref="CQ28:CR28" si="141">CQ12/CQ19</f>
+        <f t="shared" ref="CQ28:CR28" si="142">CQ12/CQ19</f>
         <v>1.8780487804878048</v>
       </c>
       <c r="CR28" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1.8163265306122449</v>
       </c>
     </row>
@@ -21776,11 +22123,11 @@
         <v>0</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29:D29" si="142">C11/C19</f>
+        <f t="shared" ref="C29:D29" si="143">C11/C19</f>
         <v>2.7169811320754715</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>1.8679245283018868</v>
       </c>
       <c r="E29" s="14">
@@ -21793,38 +22140,38 @@
         <v>0</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29:K29" si="143">H11/H19</f>
+        <f t="shared" ref="H29:K29" si="144">H11/H19</f>
         <v>6.6379310344827589</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>5.916666666666667</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1.9264705882352942</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>5.895833333333333</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" ref="M29:P29" si="144">M11/M19</f>
+        <f t="shared" ref="M29:P29" si="145">M11/M19</f>
         <v>6.0172413793103452</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>5.4468085106382977</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>6.2075471698113205</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>5.921875</v>
       </c>
       <c r="Q29">
@@ -21834,49 +22181,49 @@
         <v>0</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" ref="S29:U29" si="145">S11/S19</f>
+        <f t="shared" ref="S29:U29" si="146">S11/S19</f>
         <v>4.5116279069767442</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>3.5510204081632653</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" ref="W29:Z29" si="146">W11/W19</f>
+        <f t="shared" ref="W29:Z29" si="147">W11/W19</f>
         <v>2.6792452830188678</v>
       </c>
       <c r="X29" s="14">
         <v>0</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>5.5925925925925926</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>4.441860465116279</v>
       </c>
       <c r="AB29" s="14">
-        <f t="shared" ref="AB29:AE29" si="147">AB11/AB19</f>
+        <f t="shared" ref="AB29:AE29" si="148">AB11/AB19</f>
         <v>10.030769230769231</v>
       </c>
       <c r="AC29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>7.8596491228070171</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="AE29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>6.6071428571428568</v>
       </c>
       <c r="AF29" s="18">
@@ -21884,14 +22231,14 @@
         <v>5.3366666666666669</v>
       </c>
       <c r="AG29" s="14">
-        <f t="shared" ref="AG29:AI29" si="148">AG11/AG19</f>
+        <f t="shared" ref="AG29:AI29" si="149">AG11/AG19</f>
         <v>3.7142857142857144</v>
       </c>
       <c r="AH29" s="14">
         <v>0</v>
       </c>
       <c r="AI29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>3.225806451612903</v>
       </c>
       <c r="AJ29" s="14">
@@ -21910,19 +22257,19 @@
         <v>0</v>
       </c>
       <c r="AO29" s="14">
-        <f t="shared" ref="AO29" si="149">AO11/AO19</f>
+        <f t="shared" ref="AO29" si="150">AO11/AO19</f>
         <v>7.8055555555555554</v>
       </c>
       <c r="AP29" s="14">
-        <f t="shared" ref="AP29:AR29" si="150">AP11/AP19</f>
+        <f t="shared" ref="AP29:AR29" si="151">AP11/AP19</f>
         <v>3.0980392156862746</v>
       </c>
       <c r="AQ29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.024390243902439</v>
       </c>
       <c r="AR29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1.3617021276595744</v>
       </c>
       <c r="AS29" s="14">
@@ -21935,57 +22282,57 @@
         <v>18.86</v>
       </c>
       <c r="AV29" s="14">
-        <f t="shared" ref="AV29:AY29" si="151">AV11/AV19</f>
+        <f t="shared" ref="AV29:AY29" si="152">AV11/AV19</f>
         <v>17.93548387096774</v>
       </c>
       <c r="AW29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>14.43661971830986</v>
       </c>
       <c r="AX29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>9.070422535211268</v>
       </c>
       <c r="AY29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>10.155555555555555</v>
       </c>
       <c r="AZ29">
         <v>0</v>
       </c>
       <c r="BA29" s="14">
-        <f t="shared" ref="BA29:BD29" si="152">BA11/BA19</f>
+        <f t="shared" ref="BA29:BD29" si="153">BA11/BA19</f>
         <v>4.7</v>
       </c>
       <c r="BB29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>5.8148148148148149</v>
       </c>
       <c r="BC29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2.859375</v>
       </c>
       <c r="BD29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>5.4347826086956523</v>
       </c>
       <c r="BE29">
         <v>0</v>
       </c>
       <c r="BF29" s="14">
-        <f t="shared" ref="BF29:BI29" si="153">BF11/BF19</f>
+        <f t="shared" ref="BF29:BI29" si="154">BF11/BF19</f>
         <v>4.418181818181818</v>
       </c>
       <c r="BG29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>2.7068965517241379</v>
       </c>
       <c r="BH29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1.8780487804878048</v>
       </c>
       <c r="BI29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>2.0566037735849059</v>
       </c>
       <c r="BJ29" s="18">
@@ -21996,52 +22343,52 @@
         <v>0</v>
       </c>
       <c r="BL29" s="18">
-        <f t="shared" ref="BL29:BN29" si="154">BL11/BL19</f>
+        <f t="shared" ref="BL29:BN29" si="155">BL11/BL19</f>
         <v>10.86046511627907</v>
       </c>
       <c r="BM29" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>6.5254237288135597</v>
       </c>
       <c r="BN29" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>6.2769230769230768</v>
       </c>
       <c r="BO29">
         <v>0</v>
       </c>
       <c r="BP29" s="14">
-        <f t="shared" ref="BP29:BS29" si="155">BP11/BP19</f>
+        <f t="shared" ref="BP29:BS29" si="156">BP11/BP19</f>
         <v>2.1086956521739131</v>
       </c>
       <c r="BQ29" s="14">
         <v>0</v>
       </c>
       <c r="BR29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2.3243243243243241</v>
       </c>
       <c r="BS29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.75</v>
       </c>
       <c r="BT29">
         <v>0</v>
       </c>
       <c r="BU29" s="14">
-        <f t="shared" ref="BU29:BX29" si="156">BU11/BU19</f>
+        <f t="shared" ref="BU29:BX29" si="157">BU11/BU19</f>
         <v>4.9589041095890414</v>
       </c>
       <c r="BV29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>7.166666666666667</v>
       </c>
       <c r="BW29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.7142857142857144</v>
       </c>
       <c r="BX29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>6.8421052631578947</v>
       </c>
       <c r="BY29" s="14">
@@ -22049,39 +22396,39 @@
         <v>11.985714285714286</v>
       </c>
       <c r="BZ29" s="14">
-        <f t="shared" ref="BZ29:CD29" si="157">BZ11/BZ19</f>
+        <f t="shared" ref="BZ29:CD29" si="158">BZ11/BZ19</f>
         <v>9.7654320987654319</v>
       </c>
       <c r="CA29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>14.075757575757576</v>
       </c>
       <c r="CB29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>9.1724137931034484</v>
       </c>
       <c r="CC29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>8.0810810810810807</v>
       </c>
       <c r="CD29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>9.8604651162790695</v>
       </c>
       <c r="CE29" s="14">
-        <f t="shared" ref="CE29:CH29" si="158">CE11/CE19</f>
+        <f t="shared" ref="CE29:CH29" si="159">CE11/CE19</f>
         <v>7.2765957446808507</v>
       </c>
       <c r="CF29" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>8.14</v>
       </c>
       <c r="CG29" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="CH29" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>5.4054054054054053</v>
       </c>
       <c r="CI29" s="14">
@@ -22089,19 +22436,19 @@
         <v>12.622641509433961</v>
       </c>
       <c r="CJ29" s="14">
-        <f t="shared" ref="CJ29:CM29" si="159">CJ11/CJ19</f>
+        <f t="shared" ref="CJ29:CM29" si="160">CJ11/CJ19</f>
         <v>10.888888888888889</v>
       </c>
       <c r="CK29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>9.0208333333333339</v>
       </c>
       <c r="CL29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>4.8939393939393936</v>
       </c>
       <c r="CM29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>5.1746031746031749</v>
       </c>
       <c r="CN29">
@@ -22114,11 +22461,11 @@
         <v>0</v>
       </c>
       <c r="CQ29" s="14">
-        <f t="shared" ref="CQ29:CR29" si="160">CQ11/CQ19</f>
+        <f t="shared" ref="CQ29:CR29" si="161">CQ11/CQ19</f>
         <v>3.975609756097561</v>
       </c>
       <c r="CR29" s="14">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>4.8979591836734695</v>
       </c>
     </row>
@@ -22131,15 +22478,15 @@
         <v>102</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:F30" si="161">D3-D7</f>
+        <f t="shared" ref="D30:F30" si="162">D3-D7</f>
         <v>72</v>
       </c>
       <c r="E30">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>26</v>
       </c>
       <c r="F30">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>10.4</v>
       </c>
       <c r="H30">
@@ -22147,15 +22494,15 @@
         <v>155</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:K30" si="162">I3-I7</f>
+        <f t="shared" ref="I30:K30" si="163">I3-I7</f>
         <v>279</v>
       </c>
       <c r="J30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>64</v>
       </c>
       <c r="K30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>121</v>
       </c>
       <c r="M30">
@@ -22163,15 +22510,15 @@
         <v>48</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:P30" si="163">N3-N7</f>
+        <f t="shared" ref="N30:P30" si="164">N3-N7</f>
         <v>114</v>
       </c>
       <c r="O30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>46</v>
       </c>
       <c r="P30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>75</v>
       </c>
       <c r="R30" s="14">
@@ -22190,15 +22537,15 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" ref="X30:Z30" si="164">X3-X7</f>
+        <f t="shared" ref="X30:Z30" si="165">X3-X7</f>
         <v>47</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>66</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>89</v>
       </c>
       <c r="AB30">
@@ -22260,19 +22607,19 @@
         <v>326</v>
       </c>
       <c r="AV30" s="1">
-        <f t="shared" ref="AV30:AY30" si="165">AV3-AV7</f>
+        <f t="shared" ref="AV30:AY30" si="166">AV3-AV7</f>
         <v>268</v>
       </c>
       <c r="AW30" s="1">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>258</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>234</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>245</v>
       </c>
       <c r="BA30">
@@ -22292,15 +22639,15 @@
         <v>82</v>
       </c>
       <c r="BG30">
-        <f t="shared" ref="BG30:BI30" si="166">BG3-BG7</f>
+        <f t="shared" ref="BG30:BI30" si="167">BG3-BG7</f>
         <v>74</v>
       </c>
       <c r="BH30">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>31</v>
       </c>
       <c r="BI30">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>34</v>
       </c>
       <c r="BJ30">
@@ -22323,15 +22670,15 @@
         <v>67</v>
       </c>
       <c r="BQ30">
-        <f t="shared" ref="BQ30:BS30" si="167">BQ3-BQ7</f>
+        <f t="shared" ref="BQ30:BS30" si="168">BQ3-BQ7</f>
         <v>29</v>
       </c>
       <c r="BR30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>30</v>
       </c>
       <c r="BS30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>67</v>
       </c>
       <c r="BU30">
@@ -22339,15 +22686,15 @@
         <v>141</v>
       </c>
       <c r="BV30">
-        <f t="shared" ref="BV30:BX30" si="168">BV3-BV7</f>
+        <f t="shared" ref="BV30:BX30" si="169">BV3-BV7</f>
         <v>114</v>
       </c>
       <c r="BW30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>68</v>
       </c>
       <c r="BX30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>83</v>
       </c>
       <c r="BY30" s="1">
@@ -22401,15 +22748,15 @@
         <v>30</v>
       </c>
       <c r="CP30">
-        <f t="shared" ref="CP30:CR30" si="169">CP3-CP7</f>
+        <f t="shared" ref="CP30:CR30" si="170">CP3-CP7</f>
         <v>62</v>
       </c>
       <c r="CQ30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>86</v>
       </c>
       <c r="CR30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>97</v>
       </c>
       <c r="CT30">
@@ -22417,15 +22764,15 @@
         <v>70</v>
       </c>
       <c r="CU30">
-        <f t="shared" ref="CU30:CW30" si="170">CU3-CU7</f>
+        <f t="shared" ref="CU30:CW30" si="171">CU3-CU7</f>
         <v>100</v>
       </c>
       <c r="CV30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>39</v>
       </c>
       <c r="CW30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>10</v>
       </c>
       <c r="CY30">
@@ -22433,15 +22780,15 @@
         <v>11</v>
       </c>
       <c r="CZ30">
-        <f t="shared" ref="CZ30:DB30" si="171">CZ3-CZ7</f>
+        <f t="shared" ref="CZ30:DB30" si="172">CZ3-CZ7</f>
         <v>7.7</v>
       </c>
       <c r="DA30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2.4</v>
       </c>
       <c r="DB30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>10.8</v>
       </c>
     </row>
@@ -22868,19 +23215,19 @@
         <v>0.3</v>
       </c>
       <c r="AG32" s="14">
-        <f t="shared" ref="AG32:AJ32" si="172">AG31/AG14</f>
+        <f t="shared" ref="AG32:AJ32" si="173">AG31/AG14</f>
         <v>3.078125</v>
       </c>
       <c r="AH32" s="14">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>10.772727272727273</v>
       </c>
       <c r="AI32" s="14">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>10.958333333333334</v>
       </c>
       <c r="AJ32" s="14">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>-19.363636363636363</v>
       </c>
       <c r="AK32" s="14">
@@ -22903,19 +23250,19 @@
         <v>2.1621621621621623E-2</v>
       </c>
       <c r="AQ32" s="14">
-        <f t="shared" ref="AQ32:AT32" si="173">AQ31/AQ14</f>
+        <f t="shared" ref="AQ32:AT32" si="174">AQ31/AQ14</f>
         <v>3.4615384615384617E-2</v>
       </c>
       <c r="AR32" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>2.0222222222222221</v>
       </c>
       <c r="AS32" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AT32" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AU32" s="14">
@@ -23014,59 +23361,59 @@
         <v>0.81182795698924726</v>
       </c>
       <c r="BZ32" s="14">
-        <f t="shared" ref="BZ32:CC32" si="174">BZ31/BZ14</f>
+        <f t="shared" ref="BZ32:CC32" si="175">BZ31/BZ14</f>
         <v>0.87431693989071035</v>
       </c>
       <c r="CA32" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.55521472392638038</v>
       </c>
       <c r="CB32" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1.8013245033112584</v>
       </c>
       <c r="CC32" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1.2804232804232805</v>
       </c>
       <c r="CD32" s="14">
-        <f>CD31/CD14</f>
+        <f t="shared" ref="CD32:CJ32" si="176">CD31/CD14</f>
         <v>2.1770833333333335</v>
       </c>
       <c r="CE32" s="14">
-        <f>CE31/CE14</f>
+        <f t="shared" si="176"/>
         <v>2.268041237113402</v>
       </c>
       <c r="CF32" s="14">
-        <f>CF31/CF14</f>
+        <f t="shared" si="176"/>
         <v>1.6495327102803738</v>
       </c>
       <c r="CG32" s="14">
-        <f>CG31/CG14</f>
+        <f t="shared" si="176"/>
         <v>39.666666666666664</v>
       </c>
       <c r="CH32" s="14">
-        <f>CH31/CH14</f>
+        <f t="shared" si="176"/>
         <v>1.6568627450980393</v>
       </c>
       <c r="CI32" s="14">
-        <f>CI31/CI14</f>
+        <f t="shared" si="176"/>
         <v>4.2327586206896548</v>
       </c>
       <c r="CJ32" s="14">
-        <f>CJ31/CJ14</f>
+        <f t="shared" si="176"/>
         <v>2.2675438596491229</v>
       </c>
       <c r="CK32" s="14">
-        <f t="shared" ref="CK32:CM32" si="175">CK31/CK14</f>
+        <f t="shared" ref="CK32:CM32" si="177">CK31/CK14</f>
         <v>19.16</v>
       </c>
       <c r="CL32" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.83371824480369516</v>
       </c>
       <c r="CM32" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>1.0990712074303406</v>
       </c>
       <c r="CN32" s="14">
@@ -23260,19 +23607,19 @@
         <v>5.0632911392405064E-3</v>
       </c>
       <c r="AQ33" s="14">
-        <f t="shared" ref="AQ33:AT33" si="176">AQ31/AQ11</f>
+        <f t="shared" ref="AQ33:AT33" si="178">AQ31/AQ11</f>
         <v>7.2580645161290326E-3</v>
       </c>
       <c r="AR33" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.14218749999999999</v>
       </c>
       <c r="AS33" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="AT33" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="AU33" s="14">
@@ -23371,59 +23718,59 @@
         <v>0.1799761620977354</v>
       </c>
       <c r="BZ33" s="14">
-        <f t="shared" ref="BZ33:CC33" si="177">BZ31/BZ11</f>
+        <f t="shared" ref="BZ33:CC33" si="179">BZ31/BZ11</f>
         <v>0.20227560050568899</v>
       </c>
       <c r="CA33" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.19483315392895587</v>
       </c>
       <c r="CB33" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.51127819548872178</v>
       </c>
       <c r="CC33" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.40468227424749165</v>
       </c>
       <c r="CD33" s="14">
-        <f>CD31/CD11</f>
+        <f t="shared" ref="CD33:CJ33" si="180">CD31/CD11</f>
         <v>0.98584905660377353</v>
       </c>
       <c r="CE33" s="14">
-        <f>CE31/CE11</f>
+        <f t="shared" si="180"/>
         <v>1.2865497076023391</v>
       </c>
       <c r="CF33" s="14">
-        <f>CF31/CF11</f>
+        <f t="shared" si="180"/>
         <v>0.86732186732186733</v>
       </c>
       <c r="CG33" s="14">
-        <f>CG31/CG11</f>
+        <f t="shared" si="180"/>
         <v>1.4875</v>
       </c>
       <c r="CH33" s="14">
-        <f>CH31/CH11</f>
+        <f t="shared" si="180"/>
         <v>0.84499999999999997</v>
       </c>
       <c r="CI33" s="14">
-        <f>CI31/CI11</f>
+        <f t="shared" si="180"/>
         <v>0.7339312406576981</v>
       </c>
       <c r="CJ33" s="14">
-        <f>CJ31/CJ11</f>
+        <f t="shared" si="180"/>
         <v>0.87925170068027214</v>
       </c>
       <c r="CK33" s="14">
-        <f t="shared" ref="CK33:CM33" si="178">CK31/CK11</f>
+        <f t="shared" ref="CK33:CM33" si="181">CK31/CK11</f>
         <v>1.1062355658198615</v>
       </c>
       <c r="CL33" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="CM33" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>1.0889570552147239</v>
       </c>
       <c r="CN33" s="14">
@@ -23617,19 +23964,19 @@
         <v>0.62658227848101267</v>
       </c>
       <c r="AQ34" s="14">
-        <f t="shared" ref="AQ34:AT34" si="179">AQ12/AQ11</f>
+        <f t="shared" ref="AQ34:AT34" si="182">AQ12/AQ11</f>
         <v>0.67741935483870963</v>
       </c>
       <c r="AR34" s="14">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>1.03125</v>
       </c>
       <c r="AS34" s="14">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AT34" s="14">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AU34" s="14">
@@ -23728,59 +24075,59 @@
         <v>0.48271752085816449</v>
       </c>
       <c r="BZ34" s="14">
-        <f t="shared" ref="BZ34:CC34" si="180">BZ12/BZ11</f>
+        <f t="shared" ref="BZ34:CC34" si="183">BZ12/BZ11</f>
         <v>0.46144121365360302</v>
       </c>
       <c r="CA34" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.38213132400430572</v>
       </c>
       <c r="CB34" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.38721804511278196</v>
       </c>
       <c r="CC34" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.41638795986622074</v>
       </c>
       <c r="CD34" s="14">
-        <f>CD12/CD11</f>
+        <f t="shared" ref="CD34:CJ34" si="184">CD12/CD11</f>
         <v>0.40448113207547171</v>
       </c>
       <c r="CE34" s="14">
-        <f>CE12/CE11</f>
+        <f t="shared" si="184"/>
         <v>0.39766081871345027</v>
       </c>
       <c r="CF34" s="14">
-        <f>CF12/CF11</f>
+        <f t="shared" si="184"/>
         <v>0.32678132678132676</v>
       </c>
       <c r="CG34" s="14">
-        <f>CG12/CG11</f>
+        <f t="shared" si="184"/>
         <v>0.5708333333333333</v>
       </c>
       <c r="CH34" s="14">
-        <f>CH12/CH11</f>
+        <f t="shared" si="184"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="CI34" s="14">
-        <f>CI12/CI11</f>
+        <f t="shared" si="184"/>
         <v>0.39760837070254113</v>
       </c>
       <c r="CJ34" s="14">
-        <f>CJ12/CJ11</f>
+        <f t="shared" si="184"/>
         <v>0.33673469387755101</v>
       </c>
       <c r="CK34" s="14">
-        <f t="shared" ref="CK34:CM34" si="181">CK12/CK11</f>
+        <f t="shared" ref="CK34:CM34" si="185">CK12/CK11</f>
         <v>0.50577367205542723</v>
       </c>
       <c r="CL34" s="14">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.51702786377708976</v>
       </c>
       <c r="CM34" s="14">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.50613496932515334</v>
       </c>
       <c r="CN34" s="14">
@@ -23849,87 +24196,87 @@
         <v>133</v>
       </c>
       <c r="B35" s="18" t="e">
-        <f t="shared" ref="B35:AO35" si="182">(B12+B15)/B11</f>
+        <f t="shared" ref="B35:AO35" si="186">(B12+B15)/B11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.46464646464646464</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.52826086956521745</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.83225806451612905</v>
       </c>
       <c r="G35" s="18" t="e">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>1.0337662337662337</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.75452716297786715</v>
       </c>
       <c r="J35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>3.4503816793893129</v>
       </c>
       <c r="K35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.73498233215547704</v>
       </c>
       <c r="L35" s="18" t="e">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.7822349570200573</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.77734375</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.39209726443769</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.44327176781002636</v>
       </c>
       <c r="Q35" s="18" t="e">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.72</v>
       </c>
       <c r="S35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.54639175257731953</v>
       </c>
       <c r="T35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.84166666666666667</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="V35" s="18" t="e">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="18">
@@ -23945,62 +24292,62 @@
         <v>0</v>
       </c>
       <c r="AA35" s="18" t="e">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.48466257668711654</v>
       </c>
       <c r="AC35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.46651785714285715</v>
       </c>
       <c r="AD35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.59058823529411764</v>
       </c>
       <c r="AE35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.63513513513513509</v>
       </c>
       <c r="AF35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.78201124297314173</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.51282051282051277</v>
       </c>
       <c r="AH35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.64</v>
       </c>
       <c r="AI35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.505</v>
       </c>
       <c r="AJ35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.99736842105263157</v>
       </c>
       <c r="AK35" s="18">
         <v>0</v>
       </c>
       <c r="AL35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.3904109589041096</v>
       </c>
       <c r="AM35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.5083333333333333</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.98305084745762716</v>
       </c>
       <c r="AO35" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.95017793594306055</v>
       </c>
       <c r="AP35" s="18">
@@ -24008,19 +24355,19 @@
         <v>0.62658227848101267</v>
       </c>
       <c r="AQ35" s="18">
-        <f t="shared" ref="AQ35:AT35" si="183">AQ12/AQ11</f>
+        <f t="shared" ref="AQ35:AT35" si="187">AQ12/AQ11</f>
         <v>0.67741935483870963</v>
       </c>
       <c r="AR35" s="18">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>1.03125</v>
       </c>
       <c r="AS35" s="18">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AT35" s="18">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AU35" s="18">
@@ -24028,116 +24375,116 @@
         <v>0.55927051671732519</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" ref="AV35:CR35" si="184">(AV12+AV15)/AV11</f>
+        <f t="shared" ref="AV35:CR35" si="188">(AV12+AV15)/AV11</f>
         <v>0.60251798561151082</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.46243902439024392</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.79192546583850931</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.63019693654266962</v>
       </c>
       <c r="AZ35" s="18">
         <v>0</v>
       </c>
       <c r="BA35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.47720364741641336</v>
       </c>
       <c r="BB35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.41719745222929938</v>
       </c>
       <c r="BC35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.45027322404371589</v>
       </c>
       <c r="BD35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.28799999999999998</v>
       </c>
       <c r="BE35" s="18">
         <v>0</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.53909465020576131</v>
       </c>
       <c r="BG35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.59872611464968151</v>
       </c>
       <c r="BH35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.66233766233766234</v>
       </c>
       <c r="BI35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.68440366972477062</v>
       </c>
       <c r="BJ35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.60141509433962259</v>
       </c>
       <c r="BK35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.63194444444444442</v>
       </c>
       <c r="BL35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.42398286937901497</v>
       </c>
       <c r="BM35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.41038961038961042</v>
       </c>
       <c r="BN35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.38725490196078433</v>
       </c>
       <c r="BO35" s="18">
         <v>0</v>
       </c>
       <c r="BP35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.35876288659793809</v>
       </c>
       <c r="BQ35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.51063829787234039</v>
       </c>
       <c r="BR35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.62093023255813951</v>
       </c>
       <c r="BS35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.51098901098901095</v>
       </c>
       <c r="BT35" s="18" t="e">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.79005524861878451</v>
       </c>
       <c r="BV35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.6191860465116279</v>
       </c>
       <c r="BW35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="BX35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.62051282051282053</v>
       </c>
       <c r="BY35" s="18">
@@ -24145,78 +24492,78 @@
         <v>0.66150178784266989</v>
       </c>
       <c r="BZ35" s="18">
-        <f t="shared" ref="BZ35:CC35" si="185">(BZ12+BZ15)/BZ11</f>
+        <f t="shared" ref="BZ35:CC35" si="189">(BZ12+BZ15)/BZ11</f>
         <v>0.59418457648546141</v>
       </c>
       <c r="CA35" s="18">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.46932185145317545</v>
       </c>
       <c r="CB35" s="18">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.61654135338345861</v>
       </c>
       <c r="CC35" s="18">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.59866220735785958</v>
       </c>
       <c r="CD35" s="18">
-        <f>(CD12+CD15)/CD11</f>
+        <f t="shared" ref="CD35:CJ35" si="190">(CD12+CD15)/CD11</f>
         <v>0.63561320754716977</v>
       </c>
       <c r="CE35" s="18">
-        <f>(CE12+CE15)/CE11</f>
+        <f t="shared" si="190"/>
         <v>0.57894736842105265</v>
       </c>
       <c r="CF35" s="18">
-        <f>(CF12+CF15)/CF11</f>
+        <f t="shared" si="190"/>
         <v>0.37100737100737102</v>
       </c>
       <c r="CG35" s="18">
-        <f>(CG12+CG15)/CG11</f>
+        <f t="shared" si="190"/>
         <v>0.7416666666666667</v>
       </c>
       <c r="CH35" s="18">
-        <f>(CH12+CH15)/CH11</f>
+        <f t="shared" si="190"/>
         <v>0.54749999999999999</v>
       </c>
       <c r="CI35" s="18">
-        <f>(CI12+CI15)/CI11</f>
+        <f t="shared" si="190"/>
         <v>0.51270553064275037</v>
       </c>
       <c r="CJ35" s="18">
-        <f>(CJ12+CJ15)/CJ11</f>
+        <f t="shared" si="190"/>
         <v>0.46598639455782315</v>
       </c>
       <c r="CK35" s="18">
-        <f t="shared" ref="CK35:CM35" si="186">(CK12+CK15)/CK11</f>
+        <f t="shared" ref="CK35:CM35" si="191">(CK12+CK15)/CK11</f>
         <v>0.69976905311778292</v>
       </c>
       <c r="CL35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.84210526315789469</v>
       </c>
       <c r="CM35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.94785276073619629</v>
       </c>
       <c r="CN35" s="18">
         <v>0</v>
       </c>
       <c r="CO35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.80172413793103448</v>
       </c>
       <c r="CP35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.40602409638554221</v>
       </c>
       <c r="CQ35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.48159509202453987</v>
       </c>
       <c r="CR35" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.38500000000000001</v>
       </c>
     </row>
@@ -24305,10 +24652,10 @@
   <dimension ref="A1:DG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AO17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ31" sqref="AQ31"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25347,7 +25694,7 @@
       </c>
       <c r="AF4" s="14">
         <f>Painel!AF4</f>
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="AG4" s="14">
         <f>Painel!AG4*IPC!G$3</f>
@@ -25744,7 +26091,7 @@
       </c>
       <c r="AF5" s="14">
         <f>Painel!AF5</f>
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="AG5" s="14">
         <f>Painel!AG5*IPC!G$3</f>
@@ -26117,7 +26464,7 @@
       </c>
       <c r="AF6" s="14">
         <f>Painel!AF6</f>
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="AG6" s="14">
         <f>Painel!AG6*IPC!G$3</f>
@@ -27059,7 +27406,7 @@
       </c>
       <c r="AF9" s="14">
         <f>Painel!AF9</f>
-        <v>103.80000000000001</v>
+        <v>104</v>
       </c>
       <c r="AG9" s="14">
         <f>SUM(AG3:AG8)-AG7</f>
@@ -34057,7 +34404,7 @@
         <v>1.9411764705882353</v>
       </c>
       <c r="AQ28" s="14">
-        <f t="shared" ref="AQ28:AT28" si="128">AQ12/AQ19</f>
+        <f t="shared" ref="AQ28:AR28" si="128">AQ12/AQ19</f>
         <v>2.1133170731707316</v>
       </c>
       <c r="AR28" s="14">
@@ -34415,7 +34762,7 @@
         <v>3.0980392156862746</v>
       </c>
       <c r="AQ29" s="14">
-        <f t="shared" ref="AQ29:AT29" si="147">AQ11/AQ19</f>
+        <f t="shared" ref="AQ29:AR29" si="147">AQ11/AQ19</f>
         <v>3.1196585365853662</v>
       </c>
       <c r="AR29" s="14">
@@ -37315,7 +37662,7 @@
       </c>
       <c r="T4" s="14">
         <f>Painel!AF4</f>
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="U4" s="14">
         <f>Painel!AG4*IPC!G$3</f>
@@ -37515,7 +37862,7 @@
       </c>
       <c r="T5" s="14">
         <f>Painel!AF5</f>
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="U5" s="14">
         <f>Painel!AG5*IPC!G$3</f>
@@ -37703,7 +38050,7 @@
       </c>
       <c r="T6" s="14">
         <f>Painel!AF6</f>
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="U6" s="14">
         <f>Painel!AG6*IPC!G$3</f>
@@ -38174,7 +38521,7 @@
       </c>
       <c r="T9" s="14">
         <f>Painel!AF9</f>
-        <v>103.80000000000001</v>
+        <v>104</v>
       </c>
       <c r="U9" s="14">
         <f>SUM(U3:U8)-U7</f>
@@ -41987,7 +42334,7 @@
         <v>1.9411764705882353</v>
       </c>
       <c r="AA28" s="14">
-        <f t="shared" ref="AA28:AB28" si="81">AA12/AA19</f>
+        <f t="shared" ref="AA28" si="81">AA12/AA19</f>
         <v>2.1133170731707316</v>
       </c>
       <c r="AB28" s="14">
@@ -42201,7 +42548,7 @@
         <v>3.0980392156862746</v>
       </c>
       <c r="AA29" s="14">
-        <f t="shared" ref="AA29:AB29" si="100">AA11/AA19</f>
+        <f t="shared" ref="AA29" si="100">AA11/AA19</f>
         <v>3.1196585365853662</v>
       </c>
       <c r="AB29" s="14">
@@ -42846,11 +43193,11 @@
         <v>0</v>
       </c>
       <c r="AY32" s="20">
-        <f t="shared" ref="AX32:AY32" si="126">AY31/AY14</f>
+        <f t="shared" ref="AY32" si="126">AY31/AY14</f>
         <v>2.268041237113402</v>
       </c>
       <c r="AZ32" s="20">
-        <f t="shared" ref="AZ32:BA32" si="127">AZ31/AZ14</f>
+        <f t="shared" ref="AZ32" si="127">AZ31/AZ14</f>
         <v>1.6568627450980393</v>
       </c>
       <c r="BA32" s="20">
@@ -43012,7 +43359,7 @@
         <v>0.15256257449344457</v>
       </c>
       <c r="AV33" s="18">
-        <f t="shared" ref="AV33:AX33" si="144">AV31/AV11</f>
+        <f t="shared" ref="AV33:AW33" si="144">AV31/AV11</f>
         <v>0.20227560050568902</v>
       </c>
       <c r="AW33" s="18">
@@ -43224,7 +43571,7 @@
         <v>0.48271752085816449</v>
       </c>
       <c r="AV34" s="18">
-        <f t="shared" ref="AV34:AX34" si="161">AV12/AV11</f>
+        <f t="shared" ref="AV34:AW34" si="161">AV12/AV11</f>
         <v>0.46144121365360302</v>
       </c>
       <c r="AW34" s="18">
@@ -43439,7 +43786,7 @@
         <v>0.66150178784266989</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" ref="AV35:AX35" si="178">(AV12+AV15)/AV11</f>
+        <f t="shared" ref="AV35:AW35" si="178">(AV12+AV15)/AV11</f>
         <v>0.59418457648546141</v>
       </c>
       <c r="AW35" s="18">

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99D652-6F3C-450D-BFE2-57D9600380CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21D5435-3693-45D7-8007-2132A3BA2A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72" yWindow="12" windowWidth="6792" windowHeight="12312" firstSheet="1" activeTab="1" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1302,8 +1302,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1846,10 +1844,10 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12:Q17"/>
+      <selection pane="bottomRight" activeCell="S12" sqref="S12:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3097,7 +3095,7 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="39">
+      <c r="N18" s="1">
         <f>364+50</f>
         <v>414</v>
       </c>
@@ -3223,7 +3221,7 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="3">
         <v>1</v>
       </c>
       <c r="K20" s="1">
@@ -8282,11 +8280,11 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8610,8 +8608,8 @@
         <v>119.2</v>
       </c>
       <c r="J9" s="2">
-        <f>SUM(J2:J8)+J24+J16</f>
-        <v>162.9</v>
+        <f>J2+J3+J4+J16</f>
+        <v>133.9</v>
       </c>
       <c r="K9" s="2">
         <f>SUM(K2:K8)</f>
@@ -8693,7 +8691,7 @@
       <c r="N11" s="1">
         <v>28</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="1">
         <f>343-24</f>
         <v>319</v>
       </c>
@@ -9082,7 +9080,7 @@
         <v>51.600000000000009</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K25" s="1">
         <v>38</v>
@@ -9097,7 +9095,7 @@
         <v>7</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -9105,10 +9103,10 @@
         <v>154</v>
       </c>
       <c r="F26" s="24"/>
-      <c r="H26" s="39">
+      <c r="H26" s="1">
         <v>29</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="24">
         <v>0</v>
       </c>
       <c r="K26" s="1">
@@ -9143,11 +9141,11 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24652,10 +24650,10 @@
   <dimension ref="A1:DG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:AU2"/>
+      <selection pane="bottomRight" activeCell="CO12" sqref="CO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35234,8 +35232,7 @@
         <v>0</v>
       </c>
       <c r="CI30" s="14">
-        <f>Painel!CI30</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="CJ30" s="14">
         <f>Painel!CJ30*IPC!G$3</f>
@@ -42831,7 +42828,7 @@
       </c>
       <c r="BA30" s="14">
         <f>Painel_Cte!CI30</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="BB30" s="14">
         <f>Painel!CJ30*IPC!G$3</f>

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21D5435-3693-45D7-8007-2132A3BA2A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E33F3F4-F9B0-45B9-9ADB-B0FBF939E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="17016" yWindow="60" windowWidth="6096" windowHeight="12312" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={089C8636-CE6C-4FF5-99D7-498C66FF2755}</author>
+    <author>tc={898E3CD2-42F5-4C6D-BAA2-72D80763C04F}</author>
     <author>tc={7F254369-2AA9-445C-A011-13B07DA93976}</author>
+    <author>tc={3D7D0043-62EE-4EF6-B4BF-B01267D26C9C}</author>
     <author>tc={58A32E58-0A35-4246-A6D8-0ADEE18F8C37}</author>
     <author>tc={08A3597C-4A85-4A2F-9AAF-96EC8E3A3C2E}</author>
     <author>tc={6EFF820E-1B02-48BA-BEEE-7EDFF510B5AD}</author>
@@ -542,7 +544,7 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{7F254369-2AA9-445C-A011-13B07DA93976}">
+    <comment ref="E3" authorId="1" shapeId="0" xr:uid="{898E3CD2-42F5-4C6D-BAA2-72D80763C04F}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -550,7 +552,7 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="I3" authorId="2" shapeId="0" xr:uid="{58A32E58-0A35-4246-A6D8-0ADEE18F8C37}">
+    <comment ref="F3" authorId="2" shapeId="0" xr:uid="{7F254369-2AA9-445C-A011-13B07DA93976}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -558,7 +560,7 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="L3" authorId="3" shapeId="0" xr:uid="{08A3597C-4A85-4A2F-9AAF-96EC8E3A3C2E}">
+    <comment ref="H3" authorId="3" shapeId="0" xr:uid="{3D7D0043-62EE-4EF6-B4BF-B01267D26C9C}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -566,7 +568,7 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="AG3" authorId="4" shapeId="0" xr:uid="{6EFF820E-1B02-48BA-BEEE-7EDFF510B5AD}">
+    <comment ref="I3" authorId="4" shapeId="0" xr:uid="{58A32E58-0A35-4246-A6D8-0ADEE18F8C37}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -574,7 +576,7 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="AJ3" authorId="5" shapeId="0" xr:uid="{15BB4290-53A1-4245-9659-5FC8055F59C8}">
+    <comment ref="L3" authorId="5" shapeId="0" xr:uid="{08A3597C-4A85-4A2F-9AAF-96EC8E3A3C2E}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -582,7 +584,23 @@
     Inclui premiações</t>
       </text>
     </comment>
-    <comment ref="AP3" authorId="6" shapeId="0" xr:uid="{53CAAFAF-6DD4-4602-9294-1C233E31298B}">
+    <comment ref="AG3" authorId="6" shapeId="0" xr:uid="{6EFF820E-1B02-48BA-BEEE-7EDFF510B5AD}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Inclui premiações</t>
+      </text>
+    </comment>
+    <comment ref="AJ3" authorId="7" shapeId="0" xr:uid="{15BB4290-53A1-4245-9659-5FC8055F59C8}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Inclui premiações</t>
+      </text>
+    </comment>
+    <comment ref="AP3" authorId="8" shapeId="0" xr:uid="{53CAAFAF-6DD4-4602-9294-1C233E31298B}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -590,7 +608,7 @@
     Inclui Premiação</t>
       </text>
     </comment>
-    <comment ref="R6" authorId="7" shapeId="0" xr:uid="{29A572BA-4AA6-4D51-9FD3-B355EF3A880E}">
+    <comment ref="R6" authorId="9" shapeId="0" xr:uid="{29A572BA-4AA6-4D51-9FD3-B355EF3A880E}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -598,7 +616,7 @@
     Contempla as 2 próximas Linhas tb.</t>
       </text>
     </comment>
-    <comment ref="S6" authorId="8" shapeId="0" xr:uid="{21464C2C-7EE2-43B8-9491-6463A2B13213}">
+    <comment ref="S6" authorId="10" shapeId="0" xr:uid="{21464C2C-7EE2-43B8-9491-6463A2B13213}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -656,7 +674,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="155">
   <si>
     <t>Publicidade e patrocínio</t>
   </si>
@@ -1133,7 +1151,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,6 +1225,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1247,7 +1271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1302,6 +1326,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1794,7 +1819,13 @@
   <threadedComment ref="C3" dT="2024-04-12T23:50:06.34" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{089C8636-CE6C-4FF5-99D7-498C66FF2755}">
     <text>Inclui premiações</text>
   </threadedComment>
+  <threadedComment ref="E3" dT="2024-04-12T23:50:06.34" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{898E3CD2-42F5-4C6D-BAA2-72D80763C04F}">
+    <text>Inclui premiações</text>
+  </threadedComment>
   <threadedComment ref="F3" dT="2024-04-12T23:50:06.34" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{7F254369-2AA9-445C-A011-13B07DA93976}">
+    <text>Inclui premiações</text>
+  </threadedComment>
+  <threadedComment ref="H3" dT="2024-04-12T23:50:06.34" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{3D7D0043-62EE-4EF6-B4BF-B01267D26C9C}">
     <text>Inclui premiações</text>
   </threadedComment>
   <threadedComment ref="I3" dT="2024-04-12T23:50:06.34" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{58A32E58-0A35-4246-A6D8-0ADEE18F8C37}">
@@ -1843,11 +1874,11 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12:S17"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1962,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2018,7 +2049,7 @@
       </c>
       <c r="U2" s="1">
         <f>SUM(B2:T2)/COUNTIF(B2:T2,"&gt;0")</f>
-        <v>169.14285714285714</v>
+        <v>147.22222222222223</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2029,10 +2060,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <f>11+28</f>
+        <v>39</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2085,7 +2117,7 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U26" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
-        <v>74.614285714285714</v>
+        <v>67.588888888888889</v>
       </c>
       <c r="V3"/>
     </row>
@@ -2097,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2153,7 +2185,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>53.222222222222221</v>
       </c>
       <c r="V4"/>
     </row>
@@ -2165,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2221,7 +2253,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>56.6</v>
+        <v>50.714285714285715</v>
       </c>
       <c r="V5"/>
     </row>
@@ -2236,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2289,7 +2321,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="0"/>
-        <v>108.5</v>
+        <v>84.666666666666671</v>
       </c>
       <c r="V6"/>
     </row>
@@ -2304,7 +2336,8 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <f>0.4+11+2+1+13</f>
+        <v>27.4</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2358,7 +2391,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="0"/>
-        <v>29.080000000000002</v>
+        <v>28.8</v>
       </c>
       <c r="V7"/>
     </row>
@@ -2370,10 +2403,12 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <f>SUM(C2:C7)</f>
+        <v>219</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <f>SUM(D2:D7)</f>
+        <v>224.4</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2432,7 +2467,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>392.95714285714291</v>
+        <v>354.9</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2443,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2500,7 +2535,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="0"/>
-        <v>141.70000000000002</v>
+        <v>150.27500000000001</v>
       </c>
       <c r="V9"/>
     </row>
@@ -2512,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2572,7 +2607,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>54.971428571428568</v>
+        <v>48.755555555555553</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2583,10 +2618,11 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <f>SUM(D8:D10)</f>
+        <v>513.4</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2639,7 +2675,7 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
-        <v>570.01428571428573</v>
+        <v>537.72222222222217</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2650,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2709,7 +2745,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>186.29999999999998</v>
+        <v>174.45555555555555</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -2720,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2776,7 +2812,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
-        <v>76.5</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -2787,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2843,7 +2879,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>43.666666666666664</v>
+        <v>40.375</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2854,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2910,7 +2946,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
-        <v>69.857142857142861</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2921,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2978,7 +3014,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>73.366666666666674</v>
+        <v>70.275000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -2988,11 +3024,12 @@
       <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
+      <c r="C17" s="29">
+        <v>255</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <f>428-SUM(D12:D16)</f>
+        <v>154</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -3049,7 +3086,7 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>110.11666666666667</v>
+        <v>133.71250000000001</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3060,10 +3097,11 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <f>SUM(C12:C17)</f>
+        <v>627</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3121,7 +3159,7 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>516.42857142857144</v>
+        <v>518.88888888888891</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3132,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3190,7 +3228,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="0"/>
-        <v>71.785714285714292</v>
+        <v>120.72222222222223</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -3204,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3256,7 +3294,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>35.571428571428569</v>
+        <v>45.375</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3270,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3323,7 +3361,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>74.785714285714292</v>
+        <v>113.3125</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3337,7 +3375,8 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <f>D12+D13</f>
+        <v>133</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3396,7 +3435,7 @@
       </c>
       <c r="U22" s="1">
         <f t="shared" si="0"/>
-        <v>251.87142857142857</v>
+        <v>237.01249999999999</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3410,7 +3449,8 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <f>D2+D6</f>
+        <v>80</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3465,7 +3505,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>164.875</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -3479,7 +3519,8 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <f>D12+D13</f>
+        <v>133</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -3536,7 +3577,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="0"/>
-        <v>237.29999999999998</v>
+        <v>224.26249999999999</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3550,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3602,7 +3643,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="0"/>
-        <v>90.35</v>
+        <v>123.56666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -3613,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -3668,7 +3709,7 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -3678,11 +3719,13 @@
       <c r="B27" s="1">
         <v>0</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
+      <c r="C27" s="38">
+        <f>C18-C11</f>
+        <v>291</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <f>D11-D18</f>
+        <v>85.399999999999977</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3734,7 +3777,7 @@
       </c>
       <c r="U27" s="1">
         <f t="shared" ref="U27:U28" si="1">SUM(B27:T27)/COUNTIF(B27:T27,"&gt;0")</f>
-        <v>48</v>
+        <v>141.46666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -3748,7 +3791,8 @@
         <v>0</v>
       </c>
       <c r="D28" s="36">
-        <v>0</v>
+        <f>D2</f>
+        <v>43</v>
       </c>
       <c r="E28" s="36">
         <v>0</v>
@@ -3800,12 +3844,15 @@
       </c>
       <c r="U28" s="1">
         <f t="shared" si="1"/>
-        <v>254.5</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D17" formulaRange="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8281,10 +8328,10 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8394,6 +8441,14 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1">
+        <f>Resultado!C2</f>
+        <v>98</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Resultado!D2</f>
+        <v>43</v>
+      </c>
       <c r="H2" s="1">
         <f>VLOOKUP(A2,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>51</v>
@@ -8422,6 +8477,14 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Resultado!C3</f>
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Resultado!D3</f>
+        <v>39</v>
       </c>
       <c r="H3" s="1">
         <f>VLOOKUP(A3,Resultado!$A$2:$H$23,8,FALSE)</f>
@@ -8453,6 +8516,14 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="1">
+        <f>Resultado!C4</f>
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <f>Resultado!D4</f>
+        <v>33</v>
+      </c>
       <c r="H4" s="1">
         <f>VLOOKUP(A4,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>12</v>
@@ -8483,6 +8554,14 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="1">
+        <f>Resultado!C5</f>
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Resultado!D5</f>
+        <v>45</v>
+      </c>
       <c r="H5" s="1">
         <f>VLOOKUP(A5,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>27</v>
@@ -8513,6 +8592,14 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="1">
+        <f>Resultado!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Resultado!D6</f>
+        <v>37</v>
+      </c>
       <c r="H6" s="1">
         <f>VLOOKUP(A6,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>0</v>
@@ -8543,6 +8630,14 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="1">
+        <f>Resultado!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Resultado!D7</f>
+        <v>27.4</v>
+      </c>
       <c r="H7" s="1">
         <f>VLOOKUP(A7,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>0</v>
@@ -8573,6 +8668,13 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C8" s="1">
+        <f>Resultado!C9</f>
+        <v>111</v>
+      </c>
+      <c r="D8" s="1">
+        <v>119</v>
+      </c>
       <c r="H8" s="1">
         <f>VLOOKUP(A8,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>15.2</v>
@@ -8602,6 +8704,14 @@
     <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(C2:C8)</f>
+        <v>330</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(D2:D8)+D16</f>
+        <v>393.4</v>
       </c>
       <c r="H9" s="2">
         <f>SUM(H2:H8)</f>
@@ -8638,6 +8748,14 @@
     <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(C11:C16)</f>
+        <v>760</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(D11:D15)</f>
+        <v>385</v>
       </c>
       <c r="H10" s="2">
         <f>SUM(H11:H15)-H16</f>
@@ -8676,6 +8794,14 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="1">
+        <f>Resultado!C12</f>
+        <v>163</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Resultado!D12</f>
+        <v>103</v>
+      </c>
       <c r="H11" s="1">
         <f>VLOOKUP(A11,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>85.1</v>
@@ -8707,6 +8833,14 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="1">
+        <f>Resultado!C13</f>
+        <v>53</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Resultado!D13</f>
+        <v>30</v>
+      </c>
       <c r="H12" s="1">
         <f>VLOOKUP(A12,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>34</v>
@@ -8736,6 +8870,14 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="1">
+        <f>Resultado!C14</f>
+        <v>43</v>
+      </c>
+      <c r="D13" s="1">
+        <f>Resultado!D14</f>
+        <v>18</v>
+      </c>
       <c r="H13" s="1">
         <f>VLOOKUP(A13,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>6</v>
@@ -8765,6 +8907,14 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="1">
+        <f>Resultado!C15</f>
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Resultado!D15</f>
+        <v>80</v>
+      </c>
       <c r="H14" s="1">
         <f>VLOOKUP(A14,Resultado!$A$2:$H$23,8,FALSE)-4-0.8</f>
         <v>53.2</v>
@@ -8794,6 +8944,14 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="1">
+        <f>Resultado!C17</f>
+        <v>255</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Resultado!D17</f>
+        <v>154</v>
+      </c>
       <c r="H15" s="1">
         <f>VLOOKUP(A15,Resultado!$A$2:$H$23,8,FALSE)</f>
         <v>24.5</v>
@@ -8823,6 +8981,12 @@
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C16" s="3">
+        <v>212</v>
+      </c>
+      <c r="D16" s="1">
+        <v>50</v>
+      </c>
       <c r="H16" s="3">
         <f>ABS(-32)</f>
         <v>32</v>
@@ -8850,6 +9014,12 @@
     <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="C17" s="4">
+        <v>430</v>
+      </c>
+      <c r="D17" s="2">
+        <v>130</v>
       </c>
       <c r="H17" s="2">
         <v>44</v>
@@ -8880,6 +9050,12 @@
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C18" s="2">
+        <v>306</v>
+      </c>
+      <c r="D18" s="2">
+        <v>67</v>
+      </c>
       <c r="H18" s="4">
         <v>73</v>
       </c>
@@ -8909,6 +9085,12 @@
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C19" s="3">
+        <v>127</v>
+      </c>
+      <c r="D19" s="1">
+        <v>53</v>
+      </c>
       <c r="H19" s="1">
         <v>23</v>
       </c>
@@ -8936,6 +9118,12 @@
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13</v>
+      </c>
       <c r="H20" s="1">
         <v>50</v>
       </c>
@@ -8962,6 +9150,12 @@
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C21" s="1">
+        <v>433</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
@@ -8990,6 +9184,12 @@
     <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="C22" s="2">
+        <v>116</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
       </c>
       <c r="H22" s="2">
         <v>41</v>
@@ -9020,6 +9220,12 @@
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>63</v>
+      </c>
       <c r="H23" s="2">
         <v>12</v>
       </c>
@@ -9049,6 +9255,12 @@
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>122</v>
+      </c>
       <c r="H24" s="1">
         <v>95.5</v>
       </c>
@@ -9075,6 +9287,12 @@
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
       <c r="H25" s="1">
         <f>H10-H9</f>
         <v>51.600000000000009</v>
@@ -9102,11 +9320,17 @@
       <c r="A26" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="H26" s="1">
         <v>29</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="38">
         <v>0</v>
       </c>
       <c r="K26" s="1">
@@ -9141,11 +9365,11 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9254,11 +9478,13 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="C2" s="1">
+        <f>Resultado!D2+Resultado!D6</f>
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Resultado!C2</f>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9317,7 +9543,7 @@
       </c>
       <c r="U2" s="1">
         <f>SUM(B2:T2)/COUNTIF(B2:T2,"&gt;0")</f>
-        <v>200.14285714285714</v>
+        <v>175.44444444444446</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -9339,11 +9565,13 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="C3" s="1">
+        <f>Resultado!D3</f>
+        <v>39</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Resultado!C3</f>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9401,7 +9629,7 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U58" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
-        <v>74.614285714285714</v>
+        <v>67.588888888888889</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -9423,11 +9651,13 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="C4" s="1">
+        <f>Resultado!D4</f>
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
+        <f>Resultado!C4</f>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9485,7 +9715,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>53.222222222222221</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -9507,11 +9737,13 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C5" s="1">
+        <f>Resultado!D5</f>
+        <v>45</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Resultado!C5</f>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9569,7 +9801,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>56.6</v>
+        <v>50.714285714285715</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -9579,10 +9811,12 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <f>Resultado!D6</f>
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Resultado!C6</f>
         <v>0</v>
       </c>
       <c r="E6">
@@ -9640,7 +9874,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="0"/>
-        <v>108.5</v>
+        <v>84.666666666666671</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -9662,10 +9896,12 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <f>Resultado!D7</f>
+        <v>27.4</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Resultado!C7</f>
         <v>0</v>
       </c>
       <c r="E7">
@@ -9724,7 +9960,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="0"/>
-        <v>29.080000000000002</v>
+        <v>28.8</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -9746,11 +9982,13 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="C8" s="1">
+        <f>Resultado!D8</f>
+        <v>224.4</v>
+      </c>
+      <c r="D8" s="1">
+        <f>Resultado!C8</f>
+        <v>219</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9808,7 +10046,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>387.1</v>
+        <v>350.34444444444443</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -9830,11 +10068,13 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="C9" s="1">
+        <f>Resultado!D9</f>
+        <v>241</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Resultado!C9</f>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -9892,7 +10132,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="0"/>
-        <v>141.86666666666667</v>
+        <v>150.4</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -9914,11 +10154,13 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="C10" s="1">
+        <f>Resultado!D10</f>
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <f>Resultado!C10</f>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -9976,7 +10218,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>50.542857142857137</v>
+        <v>45.311111111111103</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -9998,11 +10240,13 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="C11" s="1">
+        <f>Resultado!D11</f>
+        <v>513.4</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Resultado!C11</f>
+        <v>336</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -10060,7 +10304,7 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
-        <v>570.01428571428573</v>
+        <v>537.72222222222217</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -10082,11 +10326,13 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="C12" s="1">
+        <f>Resultado!D12</f>
+        <v>103</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Resultado!C12</f>
+        <v>163</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -10144,7 +10390,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>186.29999999999998</v>
+        <v>174.45555555555555</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -10166,11 +10412,13 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="C13" s="1">
+        <f>Resultado!D13</f>
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <f>Resultado!C13</f>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -10228,7 +10476,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
-        <v>76.5</v>
+        <v>67.75</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -10250,11 +10498,13 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="C14" s="1">
+        <f>Resultado!D14</f>
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Resultado!C14</f>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -10312,7 +10562,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>43.666666666666664</v>
+        <v>40.375</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -10334,11 +10584,13 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="C15" s="1">
+        <f>Resultado!D15</f>
+        <v>80</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Resultado!C15</f>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -10396,7 +10648,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
-        <v>69.857142857142861</v>
+        <v>67</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -10418,11 +10670,13 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="C16" s="1">
+        <f>Resultado!D16</f>
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <f>Resultado!C16</f>
+        <v>79</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -10480,7 +10734,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>73.366666666666674</v>
+        <v>70.275000000000006</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -10502,11 +10756,13 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="C17" s="1">
+        <f>Resultado!D17</f>
+        <v>154</v>
+      </c>
+      <c r="D17" s="1">
+        <f>Resultado!C17</f>
+        <v>255</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -10564,7 +10820,7 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>95.45</v>
+        <v>122.71250000000001</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -10586,11 +10842,13 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="C18" s="1">
+        <f>Resultado!D18</f>
+        <v>428</v>
+      </c>
+      <c r="D18" s="1">
+        <f>Resultado!C18</f>
+        <v>627</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -10648,7 +10906,7 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>503.85714285714283</v>
+        <v>509.11111111111109</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -10670,11 +10928,13 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="C19" s="1">
+        <f>Resultado!D21</f>
+        <v>383</v>
+      </c>
+      <c r="D19" s="1">
+        <f>Resultado!C19</f>
+        <v>309</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -10732,7 +10992,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="0"/>
-        <v>73.214285714285708</v>
+        <v>133.83333333333334</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -10754,11 +11014,13 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="C20" s="1">
+        <f>Caixa!D17</f>
+        <v>130</v>
+      </c>
+      <c r="D20" s="1">
+        <f>Caixa!C17</f>
+        <v>430</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -10814,7 +11076,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>131.42857142857142</v>
+        <v>164.44444444444446</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -10837,10 +11099,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-212</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -10893,7 +11155,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>175.85714285714286</v>
+        <v>189.625</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -11071,10 +11333,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -11126,7 +11388,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="0"/>
-        <v>104.68333333333334</v>
+        <v>101.8875</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -11149,10 +11411,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -11204,7 +11466,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="0"/>
-        <v>20.3</v>
+        <v>19.975000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
@@ -11349,11 +11611,11 @@
       </c>
       <c r="C28">
         <f>C12+C13</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -11415,7 +11677,7 @@
       </c>
       <c r="U28" s="1">
         <f t="shared" si="0"/>
-        <v>250.72857142857143</v>
+        <v>233.78888888888889</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
@@ -12173,11 +12435,11 @@
       </c>
       <c r="C40" s="6">
         <f>C11/C30</f>
-        <v>0</v>
+        <v>155.57575757575756</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="D40" si="4">D11/D30</f>
+        <v>35.368421052631582</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="3"/>
@@ -12208,44 +12470,44 @@
         <v>27.359667359667359</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" ref="L40:T40" si="4">L11/L30</f>
+        <f t="shared" ref="L40:T40" si="5">L11/L30</f>
         <v>0</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.980198019801982</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.64497041420119</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.352941176470587</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.688073394495412</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U40" s="1">
         <f t="shared" si="0"/>
-        <v>150.07728598282688</v>
+        <v>137.9427978342419</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -12253,39 +12515,39 @@
         <v>83</v>
       </c>
       <c r="B41" s="14">
-        <f t="shared" ref="B41:J41" si="5">(B11/B36)*1000</f>
+        <f t="shared" ref="B41:J41" si="6">(B11/B36)*1000</f>
         <v>0</v>
       </c>
       <c r="C41" s="14">
         <f>(C11/C36)*1000</f>
-        <v>0</v>
+        <v>12.834999999999999</v>
       </c>
       <c r="D41" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="D41" si="7">(D11/D36)*1000</f>
+        <v>4.3208209559816364</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5742857142857138</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.2</v>
       </c>
       <c r="K41" s="14">
@@ -12305,11 +12567,11 @@
         <v>3.7804486607938941</v>
       </c>
       <c r="O41" s="14">
-        <f t="shared" ref="O41:P41" si="6">(O11/O36)*1000</f>
+        <f t="shared" ref="O41:P41" si="8">(O11/O36)*1000</f>
         <v>0</v>
       </c>
       <c r="P41" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q41" s="14">
@@ -12317,20 +12579,20 @@
         <v>4.6633650708953773</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" ref="R41:T41" si="7">(R11/R36)*1000</f>
+        <f t="shared" ref="R41:T41" si="9">(R11/R36)*1000</f>
         <v>8.8780937225176935</v>
       </c>
       <c r="S41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.093712715571785</v>
       </c>
       <c r="T41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U41" s="1">
         <f t="shared" si="0"/>
-        <v>16.096036975034419</v>
+        <v>14.42534219791362</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -12341,10 +12603,12 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <f>C9/C47</f>
+        <v>17.214285714285715</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <f>D9/D47</f>
+        <v>4.625</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -12402,7 +12666,7 @@
       </c>
       <c r="U42" s="1">
         <f t="shared" si="0"/>
-        <v>8.0994738302040545</v>
+        <v>8.8045160869387544</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -12413,10 +12677,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -12472,7 +12736,7 @@
       </c>
       <c r="U43" s="1">
         <f t="shared" si="0"/>
-        <v>3.1560421974845223</v>
+        <v>3.5170316481133916</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -12551,11 +12815,13 @@
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
+      <c r="C45" s="18">
+        <f>C28/C31</f>
+        <v>2.375</v>
+      </c>
+      <c r="D45" s="18">
+        <f>D28/D31</f>
+        <v>3.2727272727272729</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -12613,7 +12879,7 @@
       </c>
       <c r="U45" s="1">
         <f t="shared" si="0"/>
-        <v>4.4475453577657476</v>
+        <v>4.0867271974541675</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -12623,11 +12889,13 @@
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
+      <c r="C46" s="18">
+        <f>C11/C31</f>
+        <v>9.1678571428571427</v>
+      </c>
+      <c r="D46" s="18">
+        <f>D11/D31</f>
+        <v>5.0909090909090908</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -12685,7 +12953,7 @@
       </c>
       <c r="U46" s="1">
         <f t="shared" si="0"/>
-        <v>9.7141172730610457</v>
+        <v>9.139731905021506</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -12693,83 +12961,83 @@
         <v>85</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:T47" si="8">SUM(B26+B25)</f>
+        <f t="shared" ref="B47:T47" si="10">SUM(B26+B25)</f>
         <v>0</v>
       </c>
       <c r="C47">
-        <f>SUM(C26+C25)</f>
-        <v>0</v>
+        <f t="shared" ref="C47:D47" si="11">SUM(C26+C25)</f>
+        <v>14</v>
       </c>
       <c r="D47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
       <c r="E47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47" si="9">SUM(H26+H25)</f>
+        <f t="shared" ref="H47" si="12">SUM(H26+H25)</f>
         <v>4.8</v>
       </c>
       <c r="I47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="O47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
         <v>29</v>
       </c>
       <c r="R47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47" si="10">SUM(S26+S25)</f>
+        <f t="shared" ref="S47" si="13">SUM(S26+S25)</f>
         <v>34</v>
       </c>
       <c r="T47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U47" s="1">
         <f t="shared" si="0"/>
-        <v>20.3</v>
+        <v>19.975000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -12779,11 +13047,13 @@
       <c r="B48" s="26">
         <v>0</v>
       </c>
-      <c r="C48" s="26">
-        <v>0</v>
-      </c>
-      <c r="D48" s="26">
-        <v>0</v>
+      <c r="C48" s="3">
+        <f>C2</f>
+        <v>80</v>
+      </c>
+      <c r="D48" s="3">
+        <f>D2</f>
+        <v>98</v>
       </c>
       <c r="E48" s="26">
         <v>0</v>
@@ -12840,7 +13110,7 @@
       </c>
       <c r="U48" s="1">
         <f t="shared" si="0"/>
-        <v>200.14285714285714</v>
+        <v>175.44444444444446</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -12850,8 +13120,9 @@
       <c r="B49">
         <v>0</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" s="6">
+        <f>C2-C6</f>
+        <v>43</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -12908,7 +13179,7 @@
       </c>
       <c r="U49" s="1">
         <f t="shared" si="0"/>
-        <v>254.5</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -12919,10 +13190,10 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -12975,7 +13246,7 @@
       </c>
       <c r="U50" s="1">
         <f t="shared" si="0"/>
-        <v>215.96666666666667</v>
+        <v>350.22500000000002</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -12985,10 +13256,11 @@
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="18">
+        <f>C50/C21</f>
+        <v>0.50401606425702816</v>
+      </c>
+      <c r="D51" s="18">
         <v>0</v>
       </c>
       <c r="E51">
@@ -13047,7 +13319,7 @@
       </c>
       <c r="U51" s="1">
         <f t="shared" si="0"/>
-        <v>1.1264811254969633</v>
+        <v>1.0375575453198298</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -13057,11 +13329,13 @@
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
+      <c r="C52" s="18">
+        <f>C50/C11</f>
+        <v>0.48889754577327621</v>
+      </c>
+      <c r="D52" s="18">
+        <f>D50/D11</f>
+        <v>3.7351190476190474</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -13119,7 +13393,7 @@
       </c>
       <c r="U52" s="1">
         <f t="shared" si="0"/>
-        <v>0.42424724410569897</v>
+        <v>0.8461875072533146</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -13129,11 +13403,13 @@
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
+      <c r="C53" s="25">
+        <f>C28/C11</f>
+        <v>0.25905726529022205</v>
+      </c>
+      <c r="D53" s="25">
+        <f>D28/D11</f>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -13192,7 +13468,7 @@
       </c>
       <c r="U53" s="1">
         <f t="shared" si="0"/>
-        <v>0.50758766179663983</v>
+        <v>0.49500311563598259</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -13202,11 +13478,13 @@
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
+      <c r="C54" s="25">
+        <f>(C28+C24)/C11</f>
+        <v>0.33502142578885863</v>
+      </c>
+      <c r="D54" s="25">
+        <f>(D28+D24)/D11</f>
+        <v>1.0833333333333333</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -13265,7 +13543,7 @@
       </c>
       <c r="U54" s="1">
         <f t="shared" si="0"/>
-        <v>0.62575412911810158</v>
+        <v>0.64429262921654473</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
@@ -13568,10 +13846,10 @@
   <dimension ref="A1:DG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU3" sqref="AU3"/>
+      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14102,6 +14380,10 @@
       <c r="F3">
         <v>10.4</v>
       </c>
+      <c r="G3" s="1">
+        <f>Índices!D2</f>
+        <v>98</v>
+      </c>
       <c r="H3">
         <v>155</v>
       </c>
@@ -14113,6 +14395,10 @@
       </c>
       <c r="K3">
         <v>121</v>
+      </c>
+      <c r="L3" s="1">
+        <f>Resultado!D23+Resultado!D6</f>
+        <v>117</v>
       </c>
       <c r="M3">
         <v>129</v>
@@ -14417,6 +14703,10 @@
       <c r="F4">
         <v>5.7</v>
       </c>
+      <c r="G4" s="1">
+        <f>Índices!D3</f>
+        <v>47</v>
+      </c>
       <c r="H4">
         <v>69</v>
       </c>
@@ -14428,6 +14718,10 @@
       </c>
       <c r="K4">
         <v>22</v>
+      </c>
+      <c r="L4" s="1">
+        <f>Resultado!D3</f>
+        <v>39</v>
       </c>
       <c r="M4">
         <v>70</v>
@@ -14713,6 +15007,10 @@
       <c r="F5">
         <v>0.3</v>
       </c>
+      <c r="G5" s="1">
+        <f>Índices!D4</f>
+        <v>47</v>
+      </c>
       <c r="H5">
         <v>39</v>
       </c>
@@ -14724,6 +15022,10 @@
       </c>
       <c r="K5">
         <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <f>Resultado!D4</f>
+        <v>33</v>
       </c>
       <c r="M5">
         <v>24</v>
@@ -14998,6 +15300,10 @@
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="G6" s="1">
+        <f>Índices!D5</f>
+        <v>27</v>
+      </c>
       <c r="H6">
         <v>29</v>
       </c>
@@ -15009,6 +15315,10 @@
       </c>
       <c r="K6">
         <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <f>Resultado!D5</f>
+        <v>45</v>
       </c>
       <c r="M6">
         <v>38</v>
@@ -15243,6 +15553,26 @@
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="G7" s="1">
+        <f>Índices!D6</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>Resultado!D6</f>
+        <v>37</v>
+      </c>
       <c r="M7">
         <v>81</v>
       </c>
@@ -15411,6 +15741,26 @@
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="1">
+        <f>Índices!D7</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>Resultado!D7</f>
+        <v>27.4</v>
+      </c>
       <c r="M8">
         <v>78</v>
       </c>
@@ -15603,6 +15953,10 @@
         <f t="shared" ref="F9" si="3">SUM(F3:F6,F8)</f>
         <v>16.400000000000002</v>
       </c>
+      <c r="G9" s="1">
+        <f>Índices!D8</f>
+        <v>219</v>
+      </c>
       <c r="H9">
         <f>SUM(H3:H6,H8)</f>
         <v>292</v>
@@ -15618,6 +15972,10 @@
       <c r="K9">
         <f t="shared" ref="K9" si="5">SUM(K3:K6,K8)</f>
         <v>170</v>
+      </c>
+      <c r="L9" s="1">
+        <f>Resultado!D8</f>
+        <v>224.4</v>
       </c>
       <c r="M9">
         <f>SUM(M3:M6,M8)</f>
@@ -15984,6 +16342,10 @@
       <c r="F10">
         <v>4.2</v>
       </c>
+      <c r="G10" s="1">
+        <f>Índices!D9</f>
+        <v>111</v>
+      </c>
       <c r="H10">
         <v>88</v>
       </c>
@@ -15995,6 +16357,10 @@
       </c>
       <c r="K10">
         <v>106</v>
+      </c>
+      <c r="L10" s="1">
+        <f>Resultado!D9</f>
+        <v>241</v>
       </c>
       <c r="M10">
         <v>101</v>
@@ -16282,6 +16648,10 @@
       <c r="F11">
         <v>31</v>
       </c>
+      <c r="G11" s="1">
+        <f>Índices!D11</f>
+        <v>336</v>
+      </c>
       <c r="H11">
         <v>385</v>
       </c>
@@ -16293,6 +16663,10 @@
       </c>
       <c r="K11">
         <v>283</v>
+      </c>
+      <c r="L11" s="1">
+        <f>Resultado!D11</f>
+        <v>513.4</v>
       </c>
       <c r="M11">
         <v>349</v>
@@ -16585,6 +16959,10 @@
       <c r="F12">
         <v>25</v>
       </c>
+      <c r="G12">
+        <f>Índices!D28</f>
+        <v>216</v>
+      </c>
       <c r="H12">
         <v>250</v>
       </c>
@@ -16596,6 +16974,10 @@
       </c>
       <c r="K12">
         <v>156</v>
+      </c>
+      <c r="L12" s="1">
+        <f>Resultado!D24</f>
+        <v>133</v>
       </c>
       <c r="M12">
         <f>140.7+51.3-14</f>
@@ -16913,6 +17295,10 @@
       <c r="F13">
         <v>-17</v>
       </c>
+      <c r="G13" s="1">
+        <f>Índices!D19</f>
+        <v>309</v>
+      </c>
       <c r="H13">
         <v>71</v>
       </c>
@@ -16924,6 +17310,10 @@
       </c>
       <c r="K13">
         <v>-47</v>
+      </c>
+      <c r="L13" s="1">
+        <f>Resultado!D21</f>
+        <v>383</v>
       </c>
       <c r="M13">
         <v>48</v>
@@ -17211,6 +17601,10 @@
       <c r="F14">
         <v>-9</v>
       </c>
+      <c r="G14">
+        <f>Índices!D21</f>
+        <v>-212</v>
+      </c>
       <c r="H14">
         <v>39</v>
       </c>
@@ -17223,8 +17617,11 @@
       <c r="K14">
         <v>125</v>
       </c>
+      <c r="L14">
+        <v>498</v>
+      </c>
       <c r="M14">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>65</v>
@@ -17501,6 +17898,10 @@
       <c r="F15">
         <v>0.8</v>
       </c>
+      <c r="G15">
+        <f>Índices!D24</f>
+        <v>148</v>
+      </c>
       <c r="H15">
         <v>148</v>
       </c>
@@ -17512,6 +17913,10 @@
       </c>
       <c r="K15">
         <v>52</v>
+      </c>
+      <c r="L15">
+        <f>Índices!C24</f>
+        <v>39</v>
       </c>
       <c r="M15">
         <v>95</v>
@@ -17790,6 +18195,10 @@
       <c r="F16">
         <v>1.1000000000000001</v>
       </c>
+      <c r="G16">
+        <f>Índices!D25</f>
+        <v>24</v>
+      </c>
       <c r="H16">
         <v>18</v>
       </c>
@@ -17800,6 +18209,10 @@
         <v>12</v>
       </c>
       <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <f>Índices!C25</f>
         <v>14</v>
       </c>
       <c r="M16">
@@ -20338,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" ref="C24:F24" si="54">C11/C18</f>
+        <f t="shared" ref="C24:G24" si="54">C11/C18</f>
         <v>144</v>
       </c>
       <c r="D24" s="14">
@@ -20353,11 +20766,12 @@
         <f t="shared" si="54"/>
         <v>31</v>
       </c>
-      <c r="G24">
-        <v>0</v>
+      <c r="G24" s="14">
+        <f t="shared" si="54"/>
+        <v>35.368421052631582</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" ref="H24:K24" si="55">H11/H18</f>
+        <f t="shared" ref="H24:L24" si="55">H11/H18</f>
         <v>40.526315789473685</v>
       </c>
       <c r="I24" s="14">
@@ -20372,8 +20786,9 @@
         <f t="shared" si="55"/>
         <v>29.789473684210527</v>
       </c>
-      <c r="L24">
-        <v>0</v>
+      <c r="L24" s="14">
+        <f t="shared" si="55"/>
+        <v>155.57575757575756</v>
       </c>
       <c r="M24" s="14">
         <f t="shared" ref="M24:P24" si="56">M11/M18</f>
@@ -20707,7 +21122,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="14">
-        <f t="shared" ref="C25:F25" si="73">C10/C16</f>
+        <f t="shared" ref="C25:G25" si="73">C10/C16</f>
         <v>2</v>
       </c>
       <c r="D25" s="14">
@@ -20721,11 +21136,12 @@
         <f t="shared" si="73"/>
         <v>3.8181818181818179</v>
       </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="G25" s="14">
+        <f t="shared" si="73"/>
+        <v>4.625</v>
       </c>
       <c r="H25" s="14">
-        <f t="shared" ref="H25:K25" si="74">H10/H16</f>
+        <f t="shared" ref="H25:L25" si="74">H10/H16</f>
         <v>4.8888888888888893</v>
       </c>
       <c r="I25" s="14">
@@ -20740,8 +21156,9 @@
         <f t="shared" si="74"/>
         <v>7.5714285714285712</v>
       </c>
-      <c r="L25">
-        <v>0</v>
+      <c r="L25" s="14">
+        <f t="shared" si="74"/>
+        <v>17.214285714285715</v>
       </c>
       <c r="M25" s="14">
         <f t="shared" ref="M25:P25" si="75">M10/M16</f>
@@ -21073,42 +21490,44 @@
       <c r="F26" s="14">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="G26" s="14">
+        <f t="shared" ref="G26" si="90">G10/G19</f>
+        <v>1.6818181818181819</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" ref="H26:K26" si="90">H10/H19</f>
+        <f t="shared" ref="H26:L26" si="91">H10/H19</f>
         <v>1.5172413793103448</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2.2083333333333335</v>
       </c>
-      <c r="L26">
-        <v>0</v>
+      <c r="L26" s="14">
+        <f t="shared" si="91"/>
+        <v>4.3035714285714288</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:P26" si="91">M10/M19</f>
+        <f t="shared" ref="M26:P26" si="92">M10/M19</f>
         <v>1.7413793103448276</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.68085106382978722</v>
       </c>
       <c r="O26" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.7924528301886791</v>
       </c>
       <c r="P26" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2.078125</v>
       </c>
       <c r="Q26">
@@ -21118,49 +21537,49 @@
         <v>0</v>
       </c>
       <c r="S26" s="14">
-        <f t="shared" ref="S26:U26" si="92">S10/S19</f>
+        <f t="shared" ref="S26:U26" si="93">S10/S19</f>
         <v>0.81395348837209303</v>
       </c>
       <c r="T26" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.5</v>
       </c>
       <c r="U26" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.91836734693877553</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26" s="14">
-        <f t="shared" ref="W26:Z26" si="93">W10/W19</f>
+        <f t="shared" ref="W26:Z26" si="94">W10/W19</f>
         <v>0</v>
       </c>
       <c r="X26" s="14">
         <v>0</v>
       </c>
       <c r="Y26" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="Z26" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.90697674418604646</v>
       </c>
       <c r="AB26" s="14">
-        <f t="shared" ref="AB26:AE26" si="94">AB10/AB19</f>
+        <f t="shared" ref="AB26:AE26" si="95">AB10/AB19</f>
         <v>2.2461538461538462</v>
       </c>
       <c r="AC26" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.49122807017543857</v>
       </c>
       <c r="AD26" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3.7058823529411766</v>
       </c>
       <c r="AE26" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.6071428571428571</v>
       </c>
       <c r="AF26" s="18">
@@ -21168,14 +21587,14 @@
         <v>0.5066666666666666</v>
       </c>
       <c r="AG26" s="14">
-        <f t="shared" ref="AG26:AI26" si="95">AG10/AG19</f>
+        <f t="shared" ref="AG26:AI26" si="96">AG10/AG19</f>
         <v>0.80952380952380953</v>
       </c>
       <c r="AH26" s="14">
         <v>0</v>
       </c>
       <c r="AI26" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1.3870967741935485</v>
       </c>
       <c r="AJ26" s="14">
@@ -21194,19 +21613,19 @@
         <v>0</v>
       </c>
       <c r="AO26" s="14">
-        <f t="shared" ref="AO26" si="96">AO10/AO19</f>
+        <f t="shared" ref="AO26" si="97">AO10/AO19</f>
         <v>3</v>
       </c>
       <c r="AP26" s="14">
-        <f t="shared" ref="AP26:AR26" si="97">AP10/AP19</f>
+        <f t="shared" ref="AP26:AR26" si="98">AP10/AP19</f>
         <v>0</v>
       </c>
       <c r="AQ26" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AR26" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AS26" s="14">
@@ -21219,57 +21638,57 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AV26" s="14">
-        <f t="shared" ref="AV26:AY26" si="98">AV10/AV19</f>
+        <f t="shared" ref="AV26:AY26" si="99">AV10/AV19</f>
         <v>2.1451612903225805</v>
       </c>
       <c r="AW26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.915492957746479</v>
       </c>
       <c r="AX26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.1267605633802815</v>
       </c>
       <c r="AY26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AZ26">
         <v>0</v>
       </c>
       <c r="BA26" s="14">
-        <f t="shared" ref="BA26:BD26" si="99">BA10/BA19</f>
+        <f t="shared" ref="BA26:BD26" si="100">BA10/BA19</f>
         <v>1.3428571428571427</v>
       </c>
       <c r="BB26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.0370370370370372</v>
       </c>
       <c r="BC26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.78125</v>
       </c>
       <c r="BD26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.2826086956521738</v>
       </c>
       <c r="BE26">
         <v>0</v>
       </c>
       <c r="BF26" s="14">
-        <f t="shared" ref="BF26:BI26" si="100">BF10/BF19</f>
+        <f t="shared" ref="BF26:BI26" si="101">BF10/BF19</f>
         <v>0.36363636363636365</v>
       </c>
       <c r="BG26" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>4.1379310344827586E-2</v>
       </c>
       <c r="BH26" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.26829268292682928</v>
       </c>
       <c r="BI26" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.12264150943396226</v>
       </c>
       <c r="BJ26" s="18">
@@ -21284,48 +21703,48 @@
         <v>3.6976744186046511</v>
       </c>
       <c r="BM26" s="18">
-        <f t="shared" ref="BM26:BN26" si="101">BM10/BM19</f>
+        <f t="shared" ref="BM26:BN26" si="102">BM10/BM19</f>
         <v>2.0338983050847457</v>
       </c>
       <c r="BN26" s="18">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1.6615384615384616</v>
       </c>
       <c r="BO26">
         <v>0</v>
       </c>
       <c r="BP26" s="14">
-        <f t="shared" ref="BP26:BS26" si="102">BP10/BP19</f>
+        <f t="shared" ref="BP26:BS26" si="103">BP10/BP19</f>
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="BQ26" s="14">
         <v>0</v>
       </c>
       <c r="BR26" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.2162162162162162</v>
       </c>
       <c r="BS26" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2.1153846153846155E-2</v>
       </c>
       <c r="BT26">
         <v>0</v>
       </c>
       <c r="BU26" s="14">
-        <f t="shared" ref="BU26:BX26" si="103">BU10/BU19</f>
+        <f t="shared" ref="BU26:BX26" si="104">BU10/BU19</f>
         <v>2.3698630136986303</v>
       </c>
       <c r="BV26" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="BW26" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.97142857142857142</v>
       </c>
       <c r="BX26" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2.3859649122807016</v>
       </c>
       <c r="BY26" s="14">
@@ -21333,39 +21752,39 @@
         <v>2.6714285714285713</v>
       </c>
       <c r="BZ26" s="14">
-        <f t="shared" ref="BZ26:CD26" si="104">BZ10/BZ19</f>
+        <f t="shared" ref="BZ26:CD26" si="105">BZ10/BZ19</f>
         <v>2.1481481481481484</v>
       </c>
       <c r="CA26" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2.106060606060606</v>
       </c>
       <c r="CB26" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2.5689655172413794</v>
       </c>
       <c r="CC26" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1.4594594594594594</v>
       </c>
       <c r="CD26" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.0465116279069768</v>
       </c>
       <c r="CE26" s="14">
-        <f t="shared" ref="CE26:CH26" si="105">CE10/CE19</f>
+        <f t="shared" ref="CE26:CH26" si="106">CE10/CE19</f>
         <v>3.1276595744680851</v>
       </c>
       <c r="CF26" s="14">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>2.14</v>
       </c>
       <c r="CG26" s="14">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="CH26" s="14">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>2.9189189189189189</v>
       </c>
       <c r="CI26" s="14">
@@ -21373,19 +21792,19 @@
         <v>2.2830188679245285</v>
       </c>
       <c r="CJ26" s="14">
-        <f t="shared" ref="CJ26:CM26" si="106">CJ10/CJ19</f>
+        <f t="shared" ref="CJ26:CM26" si="107">CJ10/CJ19</f>
         <v>4.2407407407407405</v>
       </c>
       <c r="CK26" s="14">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>2.5208333333333335</v>
       </c>
       <c r="CL26" s="14">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>2.2878787878787881</v>
       </c>
       <c r="CM26" s="14">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="CN26">
@@ -21398,11 +21817,11 @@
         <v>0</v>
       </c>
       <c r="CQ26" s="14">
-        <f t="shared" ref="CQ26:CR26" si="107">CQ10/CQ19</f>
+        <f t="shared" ref="CQ26:CR26" si="108">CQ10/CQ19</f>
         <v>0.80487804878048785</v>
       </c>
       <c r="CR26" s="14">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -21414,76 +21833,78 @@
         <v>0</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" ref="C27:F27" si="108">C7/C12</f>
+        <f t="shared" ref="C27:G27" si="109">C7/C12</f>
         <v>0</v>
       </c>
       <c r="D27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" ref="H27:K27" si="109">H7/H12</f>
+        <f t="shared" ref="H27:L27" si="110">H7/H12</f>
         <v>0</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="110"/>
+        <v>0.2781954887218045</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" ref="M27:P27" si="110">M7/M12</f>
+        <f t="shared" ref="M27:P27" si="111">M7/M12</f>
         <v>0.4550561797752809</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.51724137931034486</v>
       </c>
       <c r="O27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.31868131868131866</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.61594202898550721</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" s="14">
-        <f t="shared" ref="R27:U27" si="111">R7/R12</f>
+        <f t="shared" ref="R27:U27" si="112">R7/R12</f>
         <v>0</v>
       </c>
       <c r="S27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="T27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="U27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="V27">
@@ -21502,57 +21923,57 @@
         <v>0</v>
       </c>
       <c r="AB27" s="14">
-        <f t="shared" ref="AB27:AE27" si="112">AB7/AB12</f>
+        <f t="shared" ref="AB27:AE27" si="113">AB7/AB12</f>
         <v>0</v>
       </c>
       <c r="AC27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AD27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AE27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
       </c>
       <c r="AG27" s="14">
-        <f t="shared" ref="AG27:AJ27" si="113">AG7/AG12</f>
+        <f t="shared" ref="AG27:AJ27" si="114">AG7/AG12</f>
         <v>0</v>
       </c>
       <c r="AH27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AI27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27" s="14">
-        <f t="shared" ref="AL27:AO27" si="114">AL7/AL12</f>
+        <f t="shared" ref="AL27:AO27" si="115">AL7/AL12</f>
         <v>0</v>
       </c>
       <c r="AM27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AN27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AO27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AP27" s="14">
@@ -21574,57 +21995,57 @@
         <v>0.21</v>
       </c>
       <c r="AV27" s="14">
-        <f t="shared" ref="AV27:AY27" si="115">AV7/AV12</f>
+        <f t="shared" ref="AV27:AY27" si="116">AV7/AV12</f>
         <v>0.56947608200455579</v>
       </c>
       <c r="AW27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.4096045197740113</v>
       </c>
       <c r="AX27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.2740963855421687</v>
       </c>
       <c r="AY27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.53680981595092025</v>
       </c>
       <c r="AZ27">
         <v>0</v>
       </c>
       <c r="BA27" s="14">
-        <f t="shared" ref="BA27:BD27" si="116">BA7/BA12</f>
+        <f t="shared" ref="BA27:BD27" si="117">BA7/BA12</f>
         <v>0</v>
       </c>
       <c r="BB27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="BC27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="BD27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="BE27">
         <v>0</v>
       </c>
       <c r="BF27" s="14">
-        <f t="shared" ref="BF27:BI27" si="117">BF7/BF12</f>
+        <f t="shared" ref="BF27:BI27" si="118">BF7/BF12</f>
         <v>0.42352941176470588</v>
       </c>
       <c r="BG27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0.46052631578947367</v>
       </c>
       <c r="BH27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="BI27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="BJ27">
@@ -21646,38 +22067,38 @@
         <v>0</v>
       </c>
       <c r="BP27" s="14">
-        <f t="shared" ref="BP27:BS27" si="118">BP7/BP12</f>
+        <f t="shared" ref="BP27:BS27" si="119">BP7/BP12</f>
         <v>0.2181818181818182</v>
       </c>
       <c r="BQ27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="BR27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="BS27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>4.878048780487805E-2</v>
       </c>
       <c r="BT27">
         <v>0</v>
       </c>
       <c r="BU27" s="14">
-        <f t="shared" ref="BU27:BX27" si="119">BU7/BU12</f>
+        <f t="shared" ref="BU27:BX27" si="120">BU7/BU12</f>
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="BV27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.32596685082872928</v>
       </c>
       <c r="BW27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.17934782608695651</v>
       </c>
       <c r="BX27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.37894736842105264</v>
       </c>
       <c r="BY27" s="14">
@@ -21685,77 +22106,77 @@
         <v>0.19753086419753085</v>
       </c>
       <c r="BZ27" s="14">
-        <f t="shared" ref="BZ27:CD27" si="120">BZ7/BZ12</f>
+        <f t="shared" ref="BZ27:CD27" si="121">BZ7/BZ12</f>
         <v>0.26027397260273971</v>
       </c>
       <c r="CA27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.72676056338028172</v>
       </c>
       <c r="CB27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.14077669902912621</v>
       </c>
       <c r="CC27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>8.0321285140562249E-2</v>
       </c>
       <c r="CD27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="CE27" s="14">
-        <f t="shared" ref="CE27:CH27" si="121">CE7/CE12</f>
+        <f t="shared" ref="CE27:CH27" si="122">CE7/CE12</f>
         <v>0</v>
       </c>
       <c r="CF27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="CG27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="CH27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="CI27" s="14">
         <v>0</v>
       </c>
       <c r="CJ27" s="14">
-        <f t="shared" ref="CJ27:CM27" si="122">CJ7/CJ12</f>
+        <f t="shared" ref="CJ27:CM27" si="123">CJ7/CJ12</f>
         <v>0.14646464646464646</v>
       </c>
       <c r="CK27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="CL27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2.9940119760479044E-3</v>
       </c>
       <c r="CM27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="CN27">
         <v>0</v>
       </c>
       <c r="CO27" s="14">
-        <f t="shared" ref="CO27:CR27" si="123">CO7/CO12</f>
+        <f t="shared" ref="CO27:CR27" si="124">CO7/CO12</f>
         <v>2.9850746268656716E-2</v>
       </c>
       <c r="CP27" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.1076923076923077</v>
       </c>
       <c r="CQ27" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.15584415584415584</v>
       </c>
       <c r="CR27" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.24719101123595505</v>
       </c>
     </row>
@@ -21767,11 +22188,11 @@
         <v>0</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:D28" si="124">C12/C19</f>
+        <f t="shared" ref="C28:D28" si="125">C12/C19</f>
         <v>1.1320754716981132</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.86792452830188682</v>
       </c>
       <c r="E28" s="14">
@@ -21780,42 +22201,44 @@
       <c r="F28" s="14">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>0</v>
+      <c r="G28" s="14">
+        <f t="shared" ref="G28" si="126">G12/G19</f>
+        <v>3.2727272727272729</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" ref="H28:K28" si="125">H12/H19</f>
+        <f t="shared" ref="H28:L28" si="127">H12/H19</f>
         <v>4.3103448275862073</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3.1309523809523809</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3.25</v>
       </c>
-      <c r="L28">
-        <v>0</v>
+      <c r="L28" s="14">
+        <f t="shared" si="127"/>
+        <v>2.375</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" ref="M28:P28" si="126">M12/M19</f>
+        <f t="shared" ref="M28:P28" si="128">M12/M19</f>
         <v>3.0689655172413794</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>3.0851063829787235</v>
       </c>
       <c r="O28" s="14">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1.7169811320754718</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>2.15625</v>
       </c>
       <c r="Q28">
@@ -21825,49 +22248,49 @@
         <v>0</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28:U28" si="127">S12/S19</f>
+        <f t="shared" ref="S28:U28" si="129">S12/S19</f>
         <v>2.4651162790697674</v>
       </c>
       <c r="T28" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>2.0681818181818183</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>1.8979591836734695</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28" s="14">
-        <f t="shared" ref="W28:Z28" si="128">W12/W19</f>
+        <f t="shared" ref="W28:Z28" si="130">W12/W19</f>
         <v>0</v>
       </c>
       <c r="X28" s="14">
         <v>0</v>
       </c>
       <c r="Y28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2.6518518518518515</v>
       </c>
       <c r="Z28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>1.7209302325581395</v>
       </c>
       <c r="AB28" s="14">
-        <f t="shared" ref="AB28:AE28" si="129">AB12/AB19</f>
+        <f t="shared" ref="AB28:AE28" si="131">AB12/AB19</f>
         <v>4.2153846153846155</v>
       </c>
       <c r="AC28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>3.6491228070175437</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>3.6862745098039214</v>
       </c>
       <c r="AE28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>4</v>
       </c>
       <c r="AF28" s="18">
@@ -21875,14 +22298,14 @@
         <v>3.9699999999999998</v>
       </c>
       <c r="AG28" s="14">
-        <f t="shared" ref="AG28:AI28" si="130">AG12/AG19</f>
+        <f t="shared" ref="AG28:AI28" si="132">AG12/AG19</f>
         <v>1.7380952380952381</v>
       </c>
       <c r="AH28" s="14">
         <v>0</v>
       </c>
       <c r="AI28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>1.5806451612903225</v>
       </c>
       <c r="AJ28" s="14">
@@ -21901,19 +22324,19 @@
         <v>0</v>
       </c>
       <c r="AO28" s="14">
-        <f t="shared" ref="AO28" si="131">AO12/AO19</f>
+        <f t="shared" ref="AO28" si="133">AO12/AO19</f>
         <v>5.8611111111111107</v>
       </c>
       <c r="AP28" s="14">
-        <f t="shared" ref="AP28:AR28" si="132">AP12/AP19</f>
+        <f t="shared" ref="AP28:AR28" si="134">AP12/AP19</f>
         <v>1.9411764705882353</v>
       </c>
       <c r="AQ28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>2.0487804878048781</v>
       </c>
       <c r="AR28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>1.4042553191489362</v>
       </c>
       <c r="AS28" s="14">
@@ -21926,57 +22349,57 @@
         <v>7.02</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" ref="AV28:AY28" si="133">AV12/AV19</f>
+        <f t="shared" ref="AV28:AY28" si="135">AV12/AV19</f>
         <v>7.080645161290323</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>4.9859154929577461</v>
       </c>
       <c r="AX28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>4.676056338028169</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>3.6222222222222222</v>
       </c>
       <c r="AZ28">
         <v>0</v>
       </c>
       <c r="BA28" s="14">
-        <f t="shared" ref="BA28:BD28" si="134">BA12/BA19</f>
+        <f t="shared" ref="BA28:BD28" si="136">BA12/BA19</f>
         <v>1.8571428571428572</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>2.1851851851851851</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>1.15625</v>
       </c>
       <c r="BD28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>1.326086956521739</v>
       </c>
       <c r="BE28">
         <v>0</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" ref="BF28:BI28" si="135">BF12/BF19</f>
+        <f t="shared" ref="BF28:BI28" si="137">BF12/BF19</f>
         <v>1.5454545454545454</v>
       </c>
       <c r="BG28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>1.3103448275862069</v>
       </c>
       <c r="BH28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>1.0731707317073171</v>
       </c>
       <c r="BI28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>1.3018867924528301</v>
       </c>
       <c r="BJ28" s="18">
@@ -21987,52 +22410,52 @@
         <v>0</v>
       </c>
       <c r="BL28" s="18">
-        <f t="shared" ref="BL28:BN28" si="136">BL12/BL19</f>
+        <f t="shared" ref="BL28:BN28" si="138">BL12/BL19</f>
         <v>3.13953488372093</v>
       </c>
       <c r="BM28" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>1.8644067796610169</v>
       </c>
       <c r="BN28" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>1.676923076923077</v>
       </c>
       <c r="BO28">
         <v>0</v>
       </c>
       <c r="BP28" s="14">
-        <f t="shared" ref="BP28:BS28" si="137">BP12/BP19</f>
+        <f t="shared" ref="BP28:BS28" si="139">BP12/BP19</f>
         <v>0.71739130434782605</v>
       </c>
       <c r="BQ28" s="14">
         <v>0</v>
       </c>
       <c r="BR28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1.2702702702702702</v>
       </c>
       <c r="BS28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.78846153846153844</v>
       </c>
       <c r="BT28">
         <v>0</v>
       </c>
       <c r="BU28" s="14">
-        <f t="shared" ref="BU28:BX28" si="138">BU12/BU19</f>
+        <f t="shared" ref="BU28:BX28" si="140">BU12/BU19</f>
         <v>2.7123287671232879</v>
       </c>
       <c r="BV28" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>3.7708333333333335</v>
       </c>
       <c r="BW28" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>2.6285714285714286</v>
       </c>
       <c r="BX28" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BY28" s="14">
@@ -22040,39 +22463,39 @@
         <v>5.7857142857142856</v>
       </c>
       <c r="BZ28" s="14">
-        <f t="shared" ref="BZ28:CD28" si="139">BZ12/BZ19</f>
+        <f t="shared" ref="BZ28:CD28" si="141">BZ12/BZ19</f>
         <v>4.5061728395061724</v>
       </c>
       <c r="CA28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>5.3787878787878789</v>
       </c>
       <c r="CB28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>3.5517241379310347</v>
       </c>
       <c r="CC28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>3.3648648648648649</v>
       </c>
       <c r="CD28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>3.9883720930232558</v>
       </c>
       <c r="CE28" s="14">
-        <f t="shared" ref="CE28:CH28" si="140">CE12/CE19</f>
+        <f t="shared" ref="CE28:CH28" si="142">CE12/CE19</f>
         <v>2.8936170212765959</v>
       </c>
       <c r="CF28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2.66</v>
       </c>
       <c r="CG28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2.5370370370370372</v>
       </c>
       <c r="CH28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2.2432432432432434</v>
       </c>
       <c r="CI28" s="14">
@@ -22080,19 +22503,19 @@
         <v>5.0188679245283021</v>
       </c>
       <c r="CJ28" s="14">
-        <f t="shared" ref="CJ28:CM28" si="141">CJ12/CJ19</f>
+        <f t="shared" ref="CJ28:CM28" si="143">CJ12/CJ19</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="CK28" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>4.5625</v>
       </c>
       <c r="CL28" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>2.5303030303030303</v>
       </c>
       <c r="CM28" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>2.6190476190476191</v>
       </c>
       <c r="CN28">
@@ -22105,11 +22528,11 @@
         <v>0</v>
       </c>
       <c r="CQ28" s="14">
-        <f t="shared" ref="CQ28:CR28" si="142">CQ12/CQ19</f>
+        <f t="shared" ref="CQ28:CR28" si="144">CQ12/CQ19</f>
         <v>1.8780487804878048</v>
       </c>
       <c r="CR28" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>1.8163265306122449</v>
       </c>
     </row>
@@ -22121,11 +22544,11 @@
         <v>0</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29:D29" si="143">C11/C19</f>
+        <f t="shared" ref="C29:D29" si="145">C11/C19</f>
         <v>2.7169811320754715</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>1.8679245283018868</v>
       </c>
       <c r="E29" s="14">
@@ -22134,42 +22557,44 @@
       <c r="F29" s="14">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>0</v>
+      <c r="G29" s="14">
+        <f t="shared" ref="G29" si="146">G11/G19</f>
+        <v>5.0909090909090908</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29:K29" si="144">H11/H19</f>
+        <f t="shared" ref="H29:L29" si="147">H11/H19</f>
         <v>6.6379310344827589</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>5.916666666666667</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>1.9264705882352942</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>5.895833333333333</v>
       </c>
-      <c r="L29">
-        <v>0</v>
+      <c r="L29" s="14">
+        <f t="shared" si="147"/>
+        <v>9.1678571428571427</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" ref="M29:P29" si="145">M11/M19</f>
+        <f t="shared" ref="M29:P29" si="148">M11/M19</f>
         <v>6.0172413793103452</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>5.4468085106382977</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>6.2075471698113205</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>5.921875</v>
       </c>
       <c r="Q29">
@@ -22179,49 +22604,49 @@
         <v>0</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" ref="S29:U29" si="146">S11/S19</f>
+        <f t="shared" ref="S29:U29" si="149">S11/S19</f>
         <v>4.5116279069767442</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>3.5510204081632653</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" ref="W29:Z29" si="147">W11/W19</f>
+        <f t="shared" ref="W29:Z29" si="150">W11/W19</f>
         <v>2.6792452830188678</v>
       </c>
       <c r="X29" s="14">
         <v>0</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>5.5925925925925926</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>4.441860465116279</v>
       </c>
       <c r="AB29" s="14">
-        <f t="shared" ref="AB29:AE29" si="148">AB11/AB19</f>
+        <f t="shared" ref="AB29:AE29" si="151">AB11/AB19</f>
         <v>10.030769230769231</v>
       </c>
       <c r="AC29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>7.8596491228070171</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="AE29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>6.6071428571428568</v>
       </c>
       <c r="AF29" s="18">
@@ -22229,14 +22654,14 @@
         <v>5.3366666666666669</v>
       </c>
       <c r="AG29" s="14">
-        <f t="shared" ref="AG29:AI29" si="149">AG11/AG19</f>
+        <f t="shared" ref="AG29:AI29" si="152">AG11/AG19</f>
         <v>3.7142857142857144</v>
       </c>
       <c r="AH29" s="14">
         <v>0</v>
       </c>
       <c r="AI29" s="14">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>3.225806451612903</v>
       </c>
       <c r="AJ29" s="14">
@@ -22255,19 +22680,19 @@
         <v>0</v>
       </c>
       <c r="AO29" s="14">
-        <f t="shared" ref="AO29" si="150">AO11/AO19</f>
+        <f t="shared" ref="AO29" si="153">AO11/AO19</f>
         <v>7.8055555555555554</v>
       </c>
       <c r="AP29" s="14">
-        <f t="shared" ref="AP29:AR29" si="151">AP11/AP19</f>
+        <f t="shared" ref="AP29:AR29" si="154">AP11/AP19</f>
         <v>3.0980392156862746</v>
       </c>
       <c r="AQ29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>3.024390243902439</v>
       </c>
       <c r="AR29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>1.3617021276595744</v>
       </c>
       <c r="AS29" s="14">
@@ -22280,57 +22705,57 @@
         <v>18.86</v>
       </c>
       <c r="AV29" s="14">
-        <f t="shared" ref="AV29:AY29" si="152">AV11/AV19</f>
+        <f t="shared" ref="AV29:AY29" si="155">AV11/AV19</f>
         <v>17.93548387096774</v>
       </c>
       <c r="AW29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>14.43661971830986</v>
       </c>
       <c r="AX29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>9.070422535211268</v>
       </c>
       <c r="AY29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>10.155555555555555</v>
       </c>
       <c r="AZ29">
         <v>0</v>
       </c>
       <c r="BA29" s="14">
-        <f t="shared" ref="BA29:BD29" si="153">BA11/BA19</f>
+        <f t="shared" ref="BA29:BD29" si="156">BA11/BA19</f>
         <v>4.7</v>
       </c>
       <c r="BB29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>5.8148148148148149</v>
       </c>
       <c r="BC29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>2.859375</v>
       </c>
       <c r="BD29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>5.4347826086956523</v>
       </c>
       <c r="BE29">
         <v>0</v>
       </c>
       <c r="BF29" s="14">
-        <f t="shared" ref="BF29:BI29" si="154">BF11/BF19</f>
+        <f t="shared" ref="BF29:BI29" si="157">BF11/BF19</f>
         <v>4.418181818181818</v>
       </c>
       <c r="BG29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>2.7068965517241379</v>
       </c>
       <c r="BH29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>1.8780487804878048</v>
       </c>
       <c r="BI29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>2.0566037735849059</v>
       </c>
       <c r="BJ29" s="18">
@@ -22341,52 +22766,52 @@
         <v>0</v>
       </c>
       <c r="BL29" s="18">
-        <f t="shared" ref="BL29:BN29" si="155">BL11/BL19</f>
+        <f t="shared" ref="BL29:BN29" si="158">BL11/BL19</f>
         <v>10.86046511627907</v>
       </c>
       <c r="BM29" s="18">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>6.5254237288135597</v>
       </c>
       <c r="BN29" s="18">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>6.2769230769230768</v>
       </c>
       <c r="BO29">
         <v>0</v>
       </c>
       <c r="BP29" s="14">
-        <f t="shared" ref="BP29:BS29" si="156">BP11/BP19</f>
+        <f t="shared" ref="BP29:BS29" si="159">BP11/BP19</f>
         <v>2.1086956521739131</v>
       </c>
       <c r="BQ29" s="14">
         <v>0</v>
       </c>
       <c r="BR29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>2.3243243243243241</v>
       </c>
       <c r="BS29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>1.75</v>
       </c>
       <c r="BT29">
         <v>0</v>
       </c>
       <c r="BU29" s="14">
-        <f t="shared" ref="BU29:BX29" si="157">BU11/BU19</f>
+        <f t="shared" ref="BU29:BX29" si="160">BU11/BU19</f>
         <v>4.9589041095890414</v>
       </c>
       <c r="BV29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>7.166666666666667</v>
       </c>
       <c r="BW29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>3.7142857142857144</v>
       </c>
       <c r="BX29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>6.8421052631578947</v>
       </c>
       <c r="BY29" s="14">
@@ -22394,39 +22819,39 @@
         <v>11.985714285714286</v>
       </c>
       <c r="BZ29" s="14">
-        <f t="shared" ref="BZ29:CD29" si="158">BZ11/BZ19</f>
+        <f t="shared" ref="BZ29:CD29" si="161">BZ11/BZ19</f>
         <v>9.7654320987654319</v>
       </c>
       <c r="CA29" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>14.075757575757576</v>
       </c>
       <c r="CB29" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>9.1724137931034484</v>
       </c>
       <c r="CC29" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>8.0810810810810807</v>
       </c>
       <c r="CD29" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>9.8604651162790695</v>
       </c>
       <c r="CE29" s="14">
-        <f t="shared" ref="CE29:CH29" si="159">CE11/CE19</f>
+        <f t="shared" ref="CE29:CH29" si="162">CE11/CE19</f>
         <v>7.2765957446808507</v>
       </c>
       <c r="CF29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>8.14</v>
       </c>
       <c r="CG29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="CH29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>5.4054054054054053</v>
       </c>
       <c r="CI29" s="14">
@@ -22434,19 +22859,19 @@
         <v>12.622641509433961</v>
       </c>
       <c r="CJ29" s="14">
-        <f t="shared" ref="CJ29:CM29" si="160">CJ11/CJ19</f>
+        <f t="shared" ref="CJ29:CM29" si="163">CJ11/CJ19</f>
         <v>10.888888888888889</v>
       </c>
       <c r="CK29" s="14">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>9.0208333333333339</v>
       </c>
       <c r="CL29" s="14">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>4.8939393939393936</v>
       </c>
       <c r="CM29" s="14">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>5.1746031746031749</v>
       </c>
       <c r="CN29">
@@ -22459,11 +22884,11 @@
         <v>0</v>
       </c>
       <c r="CQ29" s="14">
-        <f t="shared" ref="CQ29:CR29" si="161">CQ11/CQ19</f>
+        <f t="shared" ref="CQ29:CR29" si="164">CQ11/CQ19</f>
         <v>3.975609756097561</v>
       </c>
       <c r="CR29" s="14">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>4.8979591836734695</v>
       </c>
     </row>
@@ -22476,47 +22901,50 @@
         <v>102</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:F30" si="162">D3-D7</f>
+        <f t="shared" ref="D30:F30" si="165">D3-D7</f>
         <v>72</v>
       </c>
       <c r="E30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>26</v>
       </c>
       <c r="F30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>10.4</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
       <c r="H30">
-        <f>H3-H7</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:K30" si="163">I3-I7</f>
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="163"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="163"/>
-        <v>121</v>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>L3-L7</f>
+        <v>80</v>
       </c>
       <c r="M30">
         <f>M3-M7</f>
         <v>48</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:P30" si="164">N3-N7</f>
+        <f t="shared" ref="N30:P30" si="166">N3-N7</f>
         <v>114</v>
       </c>
       <c r="O30">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>46</v>
       </c>
       <c r="P30">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>75</v>
       </c>
       <c r="R30" s="14">
@@ -22535,15 +22963,15 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" ref="X30:Z30" si="165">X3-X7</f>
+        <f t="shared" ref="X30:Z30" si="167">X3-X7</f>
         <v>47</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>66</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>89</v>
       </c>
       <c r="AB30">
@@ -22605,19 +23033,19 @@
         <v>326</v>
       </c>
       <c r="AV30" s="1">
-        <f t="shared" ref="AV30:AY30" si="166">AV3-AV7</f>
+        <f t="shared" ref="AV30:AY30" si="168">AV3-AV7</f>
         <v>268</v>
       </c>
       <c r="AW30" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>258</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>234</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>245</v>
       </c>
       <c r="BA30">
@@ -22637,15 +23065,15 @@
         <v>82</v>
       </c>
       <c r="BG30">
-        <f t="shared" ref="BG30:BI30" si="167">BG3-BG7</f>
+        <f t="shared" ref="BG30:BI30" si="169">BG3-BG7</f>
         <v>74</v>
       </c>
       <c r="BH30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>31</v>
       </c>
       <c r="BI30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>34</v>
       </c>
       <c r="BJ30">
@@ -22668,15 +23096,15 @@
         <v>67</v>
       </c>
       <c r="BQ30">
-        <f t="shared" ref="BQ30:BS30" si="168">BQ3-BQ7</f>
+        <f t="shared" ref="BQ30:BS30" si="170">BQ3-BQ7</f>
         <v>29</v>
       </c>
       <c r="BR30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>30</v>
       </c>
       <c r="BS30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>67</v>
       </c>
       <c r="BU30">
@@ -22684,15 +23112,15 @@
         <v>141</v>
       </c>
       <c r="BV30">
-        <f t="shared" ref="BV30:BX30" si="169">BV3-BV7</f>
+        <f t="shared" ref="BV30:BX30" si="171">BV3-BV7</f>
         <v>114</v>
       </c>
       <c r="BW30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>68</v>
       </c>
       <c r="BX30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>83</v>
       </c>
       <c r="BY30" s="1">
@@ -22746,15 +23174,15 @@
         <v>30</v>
       </c>
       <c r="CP30">
-        <f t="shared" ref="CP30:CR30" si="170">CP3-CP7</f>
+        <f t="shared" ref="CP30:CR30" si="172">CP3-CP7</f>
         <v>62</v>
       </c>
       <c r="CQ30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>86</v>
       </c>
       <c r="CR30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>97</v>
       </c>
       <c r="CT30">
@@ -22762,15 +23190,15 @@
         <v>70</v>
       </c>
       <c r="CU30">
-        <f t="shared" ref="CU30:CW30" si="171">CU3-CU7</f>
+        <f t="shared" ref="CU30:CW30" si="173">CU3-CU7</f>
         <v>100</v>
       </c>
       <c r="CV30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>39</v>
       </c>
       <c r="CW30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>10</v>
       </c>
       <c r="CY30">
@@ -22778,15 +23206,15 @@
         <v>11</v>
       </c>
       <c r="CZ30">
-        <f t="shared" ref="CZ30:DB30" si="172">CZ3-CZ7</f>
+        <f t="shared" ref="CZ30:DB30" si="174">CZ3-CZ7</f>
         <v>7.7</v>
       </c>
       <c r="DA30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>2.4</v>
       </c>
       <c r="DB30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10.8</v>
       </c>
     </row>
@@ -22810,7 +23238,8 @@
         <v>63.7</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <f>Índices!D50</f>
+        <v>1255</v>
       </c>
       <c r="H31">
         <v>1162</v>
@@ -22825,7 +23254,8 @@
         <v>570</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <f>Índices!C50</f>
+        <v>251</v>
       </c>
       <c r="M31">
         <v>330</v>
@@ -23133,8 +23563,9 @@
       <c r="F32" s="14">
         <v>-7.0777777777777784</v>
       </c>
-      <c r="G32">
-        <v>0</v>
+      <c r="G32" s="14">
+        <f>G31/G14</f>
+        <v>-5.9198113207547172</v>
       </c>
       <c r="H32" s="14">
         <v>29.794871794871796</v>
@@ -23149,7 +23580,8 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="L32" s="14">
-        <v>0</v>
+        <f>L31/L14</f>
+        <v>0.50401606425702816</v>
       </c>
       <c r="M32" s="14">
         <v>4.647887323943662</v>
@@ -23213,19 +23645,19 @@
         <v>0.3</v>
       </c>
       <c r="AG32" s="14">
-        <f t="shared" ref="AG32:AJ32" si="173">AG31/AG14</f>
+        <f t="shared" ref="AG32:AJ32" si="175">AG31/AG14</f>
         <v>3.078125</v>
       </c>
       <c r="AH32" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>10.772727272727273</v>
       </c>
       <c r="AI32" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>10.958333333333334</v>
       </c>
       <c r="AJ32" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>-19.363636363636363</v>
       </c>
       <c r="AK32" s="14">
@@ -23248,19 +23680,19 @@
         <v>2.1621621621621623E-2</v>
       </c>
       <c r="AQ32" s="14">
-        <f t="shared" ref="AQ32:AT32" si="174">AQ31/AQ14</f>
+        <f t="shared" ref="AQ32:AT32" si="176">AQ31/AQ14</f>
         <v>3.4615384615384617E-2</v>
       </c>
       <c r="AR32" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>2.0222222222222221</v>
       </c>
       <c r="AS32" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AT32" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AU32" s="14">
@@ -23359,59 +23791,59 @@
         <v>0.81182795698924726</v>
       </c>
       <c r="BZ32" s="14">
-        <f t="shared" ref="BZ32:CC32" si="175">BZ31/BZ14</f>
+        <f t="shared" ref="BZ32:CC32" si="177">BZ31/BZ14</f>
         <v>0.87431693989071035</v>
       </c>
       <c r="CA32" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.55521472392638038</v>
       </c>
       <c r="CB32" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>1.8013245033112584</v>
       </c>
       <c r="CC32" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>1.2804232804232805</v>
       </c>
       <c r="CD32" s="14">
-        <f t="shared" ref="CD32:CJ32" si="176">CD31/CD14</f>
+        <f t="shared" ref="CD32:CJ32" si="178">CD31/CD14</f>
         <v>2.1770833333333335</v>
       </c>
       <c r="CE32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>2.268041237113402</v>
       </c>
       <c r="CF32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1.6495327102803738</v>
       </c>
       <c r="CG32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>39.666666666666664</v>
       </c>
       <c r="CH32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1.6568627450980393</v>
       </c>
       <c r="CI32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>4.2327586206896548</v>
       </c>
       <c r="CJ32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>2.2675438596491229</v>
       </c>
       <c r="CK32" s="14">
-        <f t="shared" ref="CK32:CM32" si="177">CK31/CK14</f>
+        <f t="shared" ref="CK32:CM32" si="179">CK31/CK14</f>
         <v>19.16</v>
       </c>
       <c r="CL32" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.83371824480369516</v>
       </c>
       <c r="CM32" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1.0990712074303406</v>
       </c>
       <c r="CN32" s="14">
@@ -23494,8 +23926,9 @@
       <c r="F33" s="14">
         <v>2.0548387096774197</v>
       </c>
-      <c r="G33">
-        <v>0</v>
+      <c r="G33" s="14">
+        <f>G31/G11</f>
+        <v>3.7351190476190474</v>
       </c>
       <c r="H33" s="14">
         <v>3.0181818181818181</v>
@@ -23510,7 +23943,8 @@
         <v>2.0141342756183747</v>
       </c>
       <c r="L33" s="14">
-        <v>0</v>
+        <f>L31/L11</f>
+        <v>0.48889754577327621</v>
       </c>
       <c r="M33" s="14">
         <v>0.94555873925501432</v>
@@ -23605,19 +24039,19 @@
         <v>5.0632911392405064E-3</v>
       </c>
       <c r="AQ33" s="14">
-        <f t="shared" ref="AQ33:AT33" si="178">AQ31/AQ11</f>
+        <f t="shared" ref="AQ33:AT33" si="180">AQ31/AQ11</f>
         <v>7.2580645161290326E-3</v>
       </c>
       <c r="AR33" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.14218749999999999</v>
       </c>
       <c r="AS33" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="AT33" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="AU33" s="14">
@@ -23716,59 +24150,59 @@
         <v>0.1799761620977354</v>
       </c>
       <c r="BZ33" s="14">
-        <f t="shared" ref="BZ33:CC33" si="179">BZ31/BZ11</f>
+        <f t="shared" ref="BZ33:CC33" si="181">BZ31/BZ11</f>
         <v>0.20227560050568899</v>
       </c>
       <c r="CA33" s="14">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.19483315392895587</v>
       </c>
       <c r="CB33" s="14">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.51127819548872178</v>
       </c>
       <c r="CC33" s="14">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.40468227424749165</v>
       </c>
       <c r="CD33" s="14">
-        <f t="shared" ref="CD33:CJ33" si="180">CD31/CD11</f>
+        <f t="shared" ref="CD33:CJ33" si="182">CD31/CD11</f>
         <v>0.98584905660377353</v>
       </c>
       <c r="CE33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>1.2865497076023391</v>
       </c>
       <c r="CF33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.86732186732186733</v>
       </c>
       <c r="CG33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>1.4875</v>
       </c>
       <c r="CH33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.84499999999999997</v>
       </c>
       <c r="CI33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.7339312406576981</v>
       </c>
       <c r="CJ33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.87925170068027214</v>
       </c>
       <c r="CK33" s="14">
-        <f t="shared" ref="CK33:CM33" si="181">CK31/CK11</f>
+        <f t="shared" ref="CK33:CM33" si="183">CK31/CK11</f>
         <v>1.1062355658198615</v>
       </c>
       <c r="CL33" s="14">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="CM33" s="14">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1.0889570552147239</v>
       </c>
       <c r="CN33" s="14">
@@ -23851,8 +24285,9 @@
       <c r="F34" s="14">
         <v>0.80645161290322576</v>
       </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="G34" s="14">
+        <f>G12/G11</f>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H34" s="14">
         <v>0.64935064935064934</v>
@@ -23867,7 +24302,8 @@
         <v>0.5512367491166078</v>
       </c>
       <c r="L34" s="14">
-        <v>0</v>
+        <f>L12/L11</f>
+        <v>0.25905726529022205</v>
       </c>
       <c r="M34" s="14">
         <v>0.51002865329512892</v>
@@ -23962,19 +24398,19 @@
         <v>0.62658227848101267</v>
       </c>
       <c r="AQ34" s="14">
-        <f t="shared" ref="AQ34:AT34" si="182">AQ12/AQ11</f>
+        <f t="shared" ref="AQ34:AT34" si="184">AQ12/AQ11</f>
         <v>0.67741935483870963</v>
       </c>
       <c r="AR34" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>1.03125</v>
       </c>
       <c r="AS34" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AT34" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AU34" s="14">
@@ -24073,59 +24509,59 @@
         <v>0.48271752085816449</v>
       </c>
       <c r="BZ34" s="14">
-        <f t="shared" ref="BZ34:CC34" si="183">BZ12/BZ11</f>
+        <f t="shared" ref="BZ34:CC34" si="185">BZ12/BZ11</f>
         <v>0.46144121365360302</v>
       </c>
       <c r="CA34" s="14">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>0.38213132400430572</v>
       </c>
       <c r="CB34" s="14">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>0.38721804511278196</v>
       </c>
       <c r="CC34" s="14">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>0.41638795986622074</v>
       </c>
       <c r="CD34" s="14">
-        <f t="shared" ref="CD34:CJ34" si="184">CD12/CD11</f>
+        <f t="shared" ref="CD34:CJ34" si="186">CD12/CD11</f>
         <v>0.40448113207547171</v>
       </c>
       <c r="CE34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.39766081871345027</v>
       </c>
       <c r="CF34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.32678132678132676</v>
       </c>
       <c r="CG34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.5708333333333333</v>
       </c>
       <c r="CH34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="CI34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.39760837070254113</v>
       </c>
       <c r="CJ34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.33673469387755101</v>
       </c>
       <c r="CK34" s="14">
-        <f t="shared" ref="CK34:CM34" si="185">CK12/CK11</f>
+        <f t="shared" ref="CK34:CM34" si="187">CK12/CK11</f>
         <v>0.50577367205542723</v>
       </c>
       <c r="CL34" s="14">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>0.51702786377708976</v>
       </c>
       <c r="CM34" s="14">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>0.50613496932515334</v>
       </c>
       <c r="CN34" s="14">
@@ -24194,158 +24630,158 @@
         <v>133</v>
       </c>
       <c r="B35" s="18" t="e">
-        <f t="shared" ref="B35:AO35" si="186">(B12+B15)/B11</f>
+        <f t="shared" ref="B35:AO35" si="188">(B12+B15)/B11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.46464646464646464</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.52826086956521745</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.83225806451612905</v>
       </c>
-      <c r="G35" s="18" t="e">
-        <f t="shared" si="186"/>
+      <c r="G35" s="18">
+        <f t="shared" si="188"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="188"/>
+        <v>1.0337662337662337</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.75452716297786715</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="188"/>
+        <v>3.4503816793893129</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.73498233215547704</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.33502142578885863</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.7822349570200573</v>
+      </c>
+      <c r="N35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.77734375</v>
+      </c>
+      <c r="O35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.39209726443769</v>
+      </c>
+      <c r="P35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.44327176781002636</v>
+      </c>
+      <c r="Q35" s="18" t="e">
+        <f t="shared" si="188"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="18">
-        <f t="shared" si="186"/>
-        <v>1.0337662337662337</v>
-      </c>
-      <c r="I35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.75452716297786715</v>
-      </c>
-      <c r="J35" s="18">
-        <f t="shared" si="186"/>
-        <v>3.4503816793893129</v>
-      </c>
-      <c r="K35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.73498233215547704</v>
-      </c>
-      <c r="L35" s="18" t="e">
-        <f t="shared" si="186"/>
+      <c r="R35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.72</v>
+      </c>
+      <c r="S35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.54639175257731953</v>
+      </c>
+      <c r="T35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="U35" s="18">
+        <f t="shared" si="188"/>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="V35" s="18" t="e">
+        <f t="shared" si="188"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.7822349570200573</v>
-      </c>
-      <c r="N35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.77734375</v>
-      </c>
-      <c r="O35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.39209726443769</v>
-      </c>
-      <c r="P35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.44327176781002636</v>
-      </c>
-      <c r="Q35" s="18" t="e">
-        <f t="shared" si="186"/>
+      <c r="W35" s="18">
+        <v>0</v>
+      </c>
+      <c r="X35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="18" t="e">
+        <f t="shared" si="188"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.72</v>
-      </c>
-      <c r="S35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.54639175257731953</v>
-      </c>
-      <c r="T35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.84166666666666667</v>
-      </c>
-      <c r="U35" s="18">
-        <f t="shared" si="186"/>
-        <v>0.72413793103448276</v>
-      </c>
-      <c r="V35" s="18" t="e">
-        <f t="shared" si="186"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" s="18">
-        <v>0</v>
-      </c>
-      <c r="X35" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="18" t="e">
-        <f t="shared" si="186"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AB35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.48466257668711654</v>
       </c>
       <c r="AC35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.46651785714285715</v>
       </c>
       <c r="AD35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.59058823529411764</v>
       </c>
       <c r="AE35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.63513513513513509</v>
       </c>
       <c r="AF35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.78201124297314173</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.51282051282051277</v>
       </c>
       <c r="AH35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.64</v>
       </c>
       <c r="AI35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.505</v>
       </c>
       <c r="AJ35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.99736842105263157</v>
       </c>
       <c r="AK35" s="18">
         <v>0</v>
       </c>
       <c r="AL35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.3904109589041096</v>
       </c>
       <c r="AM35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.5083333333333333</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.98305084745762716</v>
       </c>
       <c r="AO35" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.95017793594306055</v>
       </c>
       <c r="AP35" s="18">
@@ -24353,19 +24789,19 @@
         <v>0.62658227848101267</v>
       </c>
       <c r="AQ35" s="18">
-        <f t="shared" ref="AQ35:AT35" si="187">AQ12/AQ11</f>
+        <f t="shared" ref="AQ35:AT35" si="189">AQ12/AQ11</f>
         <v>0.67741935483870963</v>
       </c>
       <c r="AR35" s="18">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>1.03125</v>
       </c>
       <c r="AS35" s="18">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AT35" s="18">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AU35" s="18">
@@ -24373,116 +24809,116 @@
         <v>0.55927051671732519</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" ref="AV35:CR35" si="188">(AV12+AV15)/AV11</f>
+        <f t="shared" ref="AV35:CR35" si="190">(AV12+AV15)/AV11</f>
         <v>0.60251798561151082</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.46243902439024392</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.79192546583850931</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.63019693654266962</v>
       </c>
       <c r="AZ35" s="18">
         <v>0</v>
       </c>
       <c r="BA35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.47720364741641336</v>
       </c>
       <c r="BB35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.41719745222929938</v>
       </c>
       <c r="BC35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.45027322404371589</v>
       </c>
       <c r="BD35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.28799999999999998</v>
       </c>
       <c r="BE35" s="18">
         <v>0</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.53909465020576131</v>
       </c>
       <c r="BG35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.59872611464968151</v>
       </c>
       <c r="BH35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.66233766233766234</v>
       </c>
       <c r="BI35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.68440366972477062</v>
       </c>
       <c r="BJ35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.60141509433962259</v>
       </c>
       <c r="BK35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.63194444444444442</v>
       </c>
       <c r="BL35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.42398286937901497</v>
       </c>
       <c r="BM35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.41038961038961042</v>
       </c>
       <c r="BN35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.38725490196078433</v>
       </c>
       <c r="BO35" s="18">
         <v>0</v>
       </c>
       <c r="BP35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.35876288659793809</v>
       </c>
       <c r="BQ35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.51063829787234039</v>
       </c>
       <c r="BR35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.62093023255813951</v>
       </c>
       <c r="BS35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.51098901098901095</v>
       </c>
       <c r="BT35" s="18" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.79005524861878451</v>
       </c>
       <c r="BV35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.6191860465116279</v>
       </c>
       <c r="BW35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="BX35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.62051282051282053</v>
       </c>
       <c r="BY35" s="18">
@@ -24490,78 +24926,78 @@
         <v>0.66150178784266989</v>
       </c>
       <c r="BZ35" s="18">
-        <f t="shared" ref="BZ35:CC35" si="189">(BZ12+BZ15)/BZ11</f>
+        <f t="shared" ref="BZ35:CC35" si="191">(BZ12+BZ15)/BZ11</f>
         <v>0.59418457648546141</v>
       </c>
       <c r="CA35" s="18">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.46932185145317545</v>
       </c>
       <c r="CB35" s="18">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.61654135338345861</v>
       </c>
       <c r="CC35" s="18">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.59866220735785958</v>
       </c>
       <c r="CD35" s="18">
-        <f t="shared" ref="CD35:CJ35" si="190">(CD12+CD15)/CD11</f>
+        <f t="shared" ref="CD35:CJ35" si="192">(CD12+CD15)/CD11</f>
         <v>0.63561320754716977</v>
       </c>
       <c r="CE35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="CF35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.37100737100737102</v>
+      </c>
+      <c r="CG35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="CH35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="CI35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.51270553064275037</v>
+      </c>
+      <c r="CJ35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.46598639455782315</v>
+      </c>
+      <c r="CK35" s="18">
+        <f t="shared" ref="CK35:CM35" si="193">(CK12+CK15)/CK11</f>
+        <v>0.69976905311778292</v>
+      </c>
+      <c r="CL35" s="18">
+        <f t="shared" si="193"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="CM35" s="18">
+        <f t="shared" si="193"/>
+        <v>0.94785276073619629</v>
+      </c>
+      <c r="CN35" s="18">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="18">
         <f t="shared" si="190"/>
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="CF35" s="18">
+        <v>0.80172413793103448</v>
+      </c>
+      <c r="CP35" s="18">
         <f t="shared" si="190"/>
-        <v>0.37100737100737102</v>
-      </c>
-      <c r="CG35" s="18">
+        <v>0.40602409638554221</v>
+      </c>
+      <c r="CQ35" s="18">
         <f t="shared" si="190"/>
-        <v>0.7416666666666667</v>
-      </c>
-      <c r="CH35" s="18">
+        <v>0.48159509202453987</v>
+      </c>
+      <c r="CR35" s="18">
         <f t="shared" si="190"/>
-        <v>0.54749999999999999</v>
-      </c>
-      <c r="CI35" s="18">
-        <f t="shared" si="190"/>
-        <v>0.51270553064275037</v>
-      </c>
-      <c r="CJ35" s="18">
-        <f t="shared" si="190"/>
-        <v>0.46598639455782315</v>
-      </c>
-      <c r="CK35" s="18">
-        <f t="shared" ref="CK35:CM35" si="191">(CK12+CK15)/CK11</f>
-        <v>0.69976905311778292</v>
-      </c>
-      <c r="CL35" s="18">
-        <f t="shared" si="191"/>
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="CM35" s="18">
-        <f t="shared" si="191"/>
-        <v>0.94785276073619629</v>
-      </c>
-      <c r="CN35" s="18">
-        <v>0</v>
-      </c>
-      <c r="CO35" s="18">
-        <f t="shared" si="188"/>
-        <v>0.80172413793103448</v>
-      </c>
-      <c r="CP35" s="18">
-        <f t="shared" si="188"/>
-        <v>0.40602409638554221</v>
-      </c>
-      <c r="CQ35" s="18">
-        <f t="shared" si="188"/>
-        <v>0.48159509202453987</v>
-      </c>
-      <c r="CR35" s="18">
-        <f t="shared" si="188"/>
         <v>0.38500000000000001</v>
       </c>
     </row>
@@ -24638,7 +25074,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="G9 BT9 CN9 AK9 V9:X9 Q9 L9 BE9 BO9 AA9 AZ9" formulaRange="1"/>
+    <ignoredError sqref="BT9 CN9 AK9 V9:X9 Q9 BE9 BO9 AA9 AZ9" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -24650,10 +25086,10 @@
   <dimension ref="A1:DG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CO12" sqref="CO12"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25213,7 +25649,10 @@
         <f>Painel!F3*IPC!J$3</f>
         <v>13.101784745243378</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="14">
+        <f>Painel!G3</f>
+        <v>98</v>
+      </c>
       <c r="H3" s="14">
         <f>Painel!H3*IPC!G$3</f>
         <v>159.88250000000002</v>
@@ -25230,7 +25669,10 @@
         <f>Painel!K3*IPC!J$3</f>
         <v>152.43422636292777</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="6">
+        <f>Painel!L3</f>
+        <v>117</v>
+      </c>
       <c r="M3" s="14">
         <f>Painel!M3*IPC!G$3</f>
         <v>133.0635</v>
@@ -25605,7 +26047,10 @@
         <f>Painel!F4*IPC!J$3</f>
         <v>7.18078586998916</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14">
+        <f>Painel!G4</f>
+        <v>47</v>
+      </c>
       <c r="H4" s="14">
         <f>Painel!H4*IPC!G$3</f>
         <v>71.173500000000004</v>
@@ -25622,7 +26067,10 @@
         <f>Painel!K4*IPC!J$3</f>
         <v>27.715313884168687</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="6">
+        <f>Painel!L4</f>
+        <v>39</v>
+      </c>
       <c r="M4" s="14">
         <f>Painel!M4*IPC!G$3</f>
         <v>72.205000000000013</v>
@@ -26002,7 +26450,10 @@
         <f>Painel!F5*IPC!J$3</f>
         <v>0.37793609842048209</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14">
+        <f>Painel!G5</f>
+        <v>47</v>
+      </c>
       <c r="H5" s="14">
         <f>Painel!H5*IPC!G$3</f>
         <v>40.228500000000004</v>
@@ -26019,7 +26470,10 @@
         <f>Painel!K5*IPC!J$3</f>
         <v>21.416378910493986</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="6">
+        <f>Painel!L5</f>
+        <v>33</v>
+      </c>
       <c r="M5" s="14">
         <f>Painel!M5*IPC!G$3</f>
         <v>24.756</v>
@@ -26387,7 +26841,10 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14">
+        <f>Painel!G6</f>
+        <v>27</v>
+      </c>
       <c r="H6" s="14">
         <f>Painel!H6*IPC!G$3</f>
         <v>29.913500000000003</v>
@@ -26404,7 +26861,10 @@
         <f>Painel!K6*IPC!J$3</f>
         <v>12.597869947349402</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="6">
+        <f>Painel!L6</f>
+        <v>45</v>
+      </c>
       <c r="M6" s="14">
         <f>Painel!M6*IPC!G$3</f>
         <v>39.197000000000003</v>
@@ -26733,16 +27193,46 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="G7" s="14">
+        <f>Painel!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <f>Painel!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f>Painel!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f>Painel!J7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <f>Painel!K7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f>Painel!L7</f>
+        <v>37</v>
+      </c>
+      <c r="M7" s="14">
+        <f>Painel!M7*IPC!G$3</f>
+        <v>83.551500000000004</v>
+      </c>
+      <c r="N7" s="14">
+        <f>Painel!N7*IPC!H$3</f>
+        <v>81.501393750000005</v>
+      </c>
+      <c r="O7" s="14">
+        <f>Painel!O7*IPC!I$3</f>
+        <v>34.583323407150004</v>
+      </c>
+      <c r="P7" s="14">
+        <f>Painel!P7*IPC!J$3</f>
+        <v>107.08189455246992</v>
+      </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
@@ -27016,12 +27506,30 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="14">
+        <f>Painel!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <f>Painel!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <f>Painel!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f>Painel!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <f>Painel!K8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f>Painel!L8</f>
+        <v>27.4</v>
+      </c>
       <c r="M8" s="14">
         <f>Painel!M8*IPC!G$3</f>
         <v>80.457000000000008</v>
@@ -27317,7 +27825,10 @@
         <f t="shared" si="0"/>
         <v>20.660506713653017</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14">
+        <f>Painel!G9</f>
+        <v>219</v>
+      </c>
       <c r="H9" s="14">
         <f>SUM(H3:H8)-H7</f>
         <v>301.19800000000004</v>
@@ -27334,7 +27845,10 @@
         <f t="shared" ref="K9" si="3">SUM(K3:K8)-K7</f>
         <v>214.16378910493987</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="6">
+        <f>Painel!L9</f>
+        <v>224.4</v>
+      </c>
       <c r="M9" s="14">
         <f>SUM(M3:M8)-M7</f>
         <v>349.67849999999999</v>
@@ -27714,7 +28228,10 @@
         <f>Painel!F10*IPC!J$3</f>
         <v>5.2911053778867494</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14">
+        <f>Painel!G10</f>
+        <v>111</v>
+      </c>
       <c r="H10" s="14">
         <f>Painel!H10*IPC!G$3</f>
         <v>90.772000000000006</v>
@@ -27731,7 +28248,10 @@
         <f>Painel!K10*IPC!J$3</f>
         <v>133.53742144190366</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="6">
+        <f>Painel!L10</f>
+        <v>241</v>
+      </c>
       <c r="M10" s="14">
         <f>Painel!M10*IPC!G$3</f>
         <v>104.18150000000001</v>
@@ -28111,7 +28631,10 @@
         <f>Painel!F11*IPC!J$3</f>
         <v>39.053396836783151</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14">
+        <f>Painel!G11</f>
+        <v>336</v>
+      </c>
       <c r="H11" s="14">
         <f>Painel!H11*IPC!G$3</f>
         <v>397.12750000000005</v>
@@ -28128,7 +28651,10 @@
         <f>Painel!K11*IPC!J$3</f>
         <v>356.51971950998808</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="6">
+        <f>Painel!L11</f>
+        <v>513.4</v>
+      </c>
       <c r="M11" s="14">
         <f>Painel!M11*IPC!G$3</f>
         <v>359.99350000000004</v>
@@ -28508,7 +29034,10 @@
         <f>Painel!F12*IPC!J$3</f>
         <v>31.494674868373508</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14">
+        <f>Painel!G12</f>
+        <v>216</v>
+      </c>
       <c r="H12" s="14">
         <f>Painel!H12*IPC!G$3</f>
         <v>257.875</v>
@@ -28525,7 +29054,10 @@
         <f>Painel!K12*IPC!J$3</f>
         <v>196.52677117865068</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="6">
+        <f>Painel!L12</f>
+        <v>133</v>
+      </c>
       <c r="M12" s="14">
         <f>Painel!M12*IPC!G$3</f>
         <v>183.60700000000003</v>
@@ -28905,7 +29437,10 @@
         <f>Painel!F13*IPC!J$3</f>
         <v>-21.416378910493986</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14">
+        <f>Painel!G13</f>
+        <v>309</v>
+      </c>
       <c r="H13" s="14">
         <f>Painel!H13*IPC!G$3</f>
         <v>73.236500000000007</v>
@@ -28922,7 +29457,10 @@
         <f>Painel!K13*IPC!J$3</f>
         <v>-59.209988752542195</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="6">
+        <f>Painel!L13</f>
+        <v>383</v>
+      </c>
       <c r="M13" s="14">
         <f>Painel!M13*IPC!G$3</f>
         <v>49.512</v>
@@ -29302,7 +29840,10 @@
         <f>Painel!F14*IPC!J$3</f>
         <v>-11.338082952614462</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14">
+        <f>Painel!G14</f>
+        <v>-212</v>
+      </c>
       <c r="H14" s="14">
         <f>Painel!H14*IPC!G$3</f>
         <v>40.228500000000004</v>
@@ -29319,10 +29860,13 @@
         <f>Painel!K14*IPC!J$3</f>
         <v>157.47337434186753</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="6">
+        <f>Painel!L14</f>
+        <v>498</v>
+      </c>
       <c r="M14" s="14">
         <f>Painel!M14*IPC!G$3</f>
-        <v>73.236500000000007</v>
+        <v>89.740500000000011</v>
       </c>
       <c r="N14" s="14">
         <f>Painel!N14*IPC!H$3</f>
@@ -29694,7 +30238,10 @@
         <f>Painel!F15*IPC!J$3</f>
         <v>1.0078295957879522</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14">
+        <f>Painel!G15</f>
+        <v>148</v>
+      </c>
       <c r="H15" s="14">
         <f>Painel!H15*IPC!G$3</f>
         <v>152.66200000000001</v>
@@ -29711,7 +30258,10 @@
         <f>Painel!K15*IPC!J$3</f>
         <v>65.508923726216892</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="6">
+        <f>Painel!L15</f>
+        <v>39</v>
+      </c>
       <c r="M15" s="14">
         <f>Painel!M15*IPC!G$3</f>
         <v>97.992500000000007</v>
@@ -30089,7 +30639,10 @@
         <f>Painel!F16*IPC!J$3</f>
         <v>1.3857656942084344</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14">
+        <f>Painel!G16</f>
+        <v>24</v>
+      </c>
       <c r="H16" s="14">
         <f>Painel!H16*IPC!G$3</f>
         <v>18.567</v>
@@ -30106,7 +30659,10 @@
         <f>Painel!K16*IPC!J$3</f>
         <v>17.637017926289165</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="6">
+        <f>Painel!L16</f>
+        <v>14</v>
+      </c>
       <c r="M16" s="14">
         <f>Painel!M16*IPC!G$3</f>
         <v>14.441000000000001</v>
@@ -32863,7 +33419,7 @@
       </c>
       <c r="G24" s="14">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>35.368421052631582</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="62"/>
@@ -32883,7 +33439,7 @@
       </c>
       <c r="L24" s="14">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>155.57575757575756</v>
       </c>
       <c r="M24" s="14">
         <f t="shared" si="62"/>
@@ -33242,9 +33798,12 @@
         <f t="shared" si="69"/>
         <v>3.8181818181818179</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14">
+        <f t="shared" ref="G25:L25" si="70">G10/G16</f>
+        <v>4.625</v>
+      </c>
       <c r="H25" s="14">
-        <f t="shared" ref="H25:K25" si="70">H10/H16</f>
+        <f t="shared" si="70"/>
         <v>4.8888888888888893</v>
       </c>
       <c r="I25" s="14">
@@ -33259,7 +33818,10 @@
         <f t="shared" si="70"/>
         <v>7.5714285714285703</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="14">
+        <f t="shared" si="70"/>
+        <v>17.214285714285715</v>
+      </c>
       <c r="M25" s="14">
         <f t="shared" ref="M25:P25" si="71">M10/M16</f>
         <v>7.2142857142857153</v>
@@ -33577,10 +34139,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="14">
-        <v>0</v>
+        <f t="shared" ref="G26:K26" si="86">G10/G19</f>
+        <v>1.6818181818181819</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" ref="H26:K26" si="86">H10/H19</f>
+        <f t="shared" si="86"/>
         <v>1.5650344827586209</v>
       </c>
       <c r="I26" s="14">
@@ -33596,22 +34159,23 @@
         <v>2.7820296133729929</v>
       </c>
       <c r="L26" s="14">
-        <v>0</v>
+        <f t="shared" ref="L26" si="87">L10/L19</f>
+        <v>4.3035714285714288</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:P26" si="87">M10/M19</f>
+        <f t="shared" ref="M26:P26" si="88">M10/M19</f>
         <v>1.7962327586206899</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.73987080851063836</v>
       </c>
       <c r="O26" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>4.5226076804405668</v>
       </c>
       <c r="P26" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>2.6179948484335478</v>
       </c>
       <c r="Q26" s="14">
@@ -33621,67 +34185,67 @@
         <v>0</v>
       </c>
       <c r="S26" s="14">
-        <f t="shared" ref="S26:U26" si="88">S10/S19</f>
+        <f t="shared" ref="S26:U26" si="89">S10/S19</f>
         <v>0.88451125000000008</v>
       </c>
       <c r="T26" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.59626419667500008</v>
       </c>
       <c r="U26" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1.1569472400627003</v>
       </c>
       <c r="V26" s="14">
         <v>0</v>
       </c>
       <c r="W26" s="14">
-        <f t="shared" ref="W26:Z26" si="89">W10/W19</f>
+        <f t="shared" ref="W26:Z26" si="90">W10/W19</f>
         <v>0</v>
       </c>
       <c r="X26" s="14">
         <v>0</v>
       </c>
       <c r="Y26" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1.8550441674333338</v>
       </c>
       <c r="Z26" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1.1425975068526202</v>
       </c>
       <c r="AA26" s="14">
         <v>0</v>
       </c>
       <c r="AB26" s="14">
-        <f t="shared" ref="AB26:AE26" si="90">AB10/AB19</f>
+        <f t="shared" ref="AB26:AE26" si="91">AB10/AB19</f>
         <v>2.3169076923076926</v>
       </c>
       <c r="AC26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.5338102982456141</v>
       </c>
       <c r="AD26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4.4193699282970593</v>
       </c>
       <c r="AE26" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.76487067537478526</v>
       </c>
       <c r="AF26" s="14">
-        <f t="shared" ref="AF26:AI26" si="91">AF10/AF19</f>
+        <f t="shared" ref="AF26:AI26" si="92">AF10/AF19</f>
         <v>0.5066666666666666</v>
       </c>
       <c r="AG26" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.83502380952380961</v>
       </c>
       <c r="AH26" s="14">
         <v>0</v>
       </c>
       <c r="AI26" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.6541522875500001</v>
       </c>
       <c r="AJ26" s="14">
@@ -33700,7 +34264,7 @@
         <v>0</v>
       </c>
       <c r="AO26" s="14">
-        <f t="shared" ref="AO26" si="92">AO10/AO19</f>
+        <f t="shared" ref="AO26" si="93">AO10/AO19</f>
         <v>3.7793609842048204</v>
       </c>
       <c r="AP26" s="14">
@@ -33723,57 +34287,57 @@
         <v>4.5909090909090908</v>
       </c>
       <c r="AV26" s="14">
-        <f t="shared" ref="AV26:AY26" si="93">AV10/AV19</f>
+        <f t="shared" ref="AV26:AY26" si="94">AV10/AV19</f>
         <v>2.212733870967742</v>
       </c>
       <c r="AW26" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>4.2549084436619724</v>
       </c>
       <c r="AX26" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>3.7287507510380289</v>
       </c>
       <c r="AY26" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>4.1992899824498009</v>
       </c>
       <c r="AZ26" s="14">
         <v>0</v>
       </c>
       <c r="BA26" s="14">
-        <f t="shared" ref="BA26:BD26" si="94">BA10/BA19</f>
+        <f t="shared" ref="BA26:BD26" si="95">BA10/BA19</f>
         <v>1.385157142857143</v>
       </c>
       <c r="BB26" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2.2136181018518521</v>
       </c>
       <c r="BC26" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.93166280730468765</v>
       </c>
       <c r="BD26" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2.8756007488514941</v>
       </c>
       <c r="BE26" s="14">
         <v>0</v>
       </c>
       <c r="BF26" s="14">
-        <f t="shared" ref="BF26:BI26" si="95">BF10/BF19</f>
+        <f t="shared" ref="BF26:BI26" si="96">BF10/BF19</f>
         <v>0.37509090909090914</v>
       </c>
       <c r="BG26" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>4.4966286206896557E-2</v>
       </c>
       <c r="BH26" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.31994664211829271</v>
       </c>
       <c r="BI26" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.15450217859956814</v>
       </c>
       <c r="BJ26" s="14">
@@ -33784,52 +34348,52 @@
         <v>0</v>
       </c>
       <c r="BL26" s="14">
-        <f t="shared" ref="BL26:BN26" si="96">BL10/BL19</f>
+        <f t="shared" ref="BL26:BN26" si="97">BL10/BL19</f>
         <v>4.0182082500000007</v>
       </c>
       <c r="BM26" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2.4254814780000005</v>
       </c>
       <c r="BN26" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2.0931845450980546</v>
       </c>
       <c r="BO26" s="14">
         <v>0</v>
       </c>
       <c r="BP26" s="14">
-        <f t="shared" ref="BP26:BS26" si="97">BP10/BP19</f>
+        <f t="shared" ref="BP26:BS26" si="98">BP10/BP19</f>
         <v>6.7271739130434785E-2</v>
       </c>
       <c r="BQ26" s="14">
         <v>0</v>
       </c>
       <c r="BR26" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.4503723702905409</v>
       </c>
       <c r="BS26" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2.6649340273239123E-2</v>
       </c>
       <c r="BT26" s="14">
         <v>0</v>
       </c>
       <c r="BU26" s="14">
-        <f t="shared" ref="BU26:BX26" si="98">BU10/BU19</f>
+        <f t="shared" ref="BU26:BX26" si="99">BU10/BU19</f>
         <v>2.444513698630137</v>
       </c>
       <c r="BV26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.9922562916666671</v>
       </c>
       <c r="BW26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.1584561535400002</v>
       </c>
       <c r="BX26" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.0058075663851209</v>
       </c>
       <c r="BY26" s="14">
@@ -33837,19 +34401,19 @@
         <v>2.6714285714285713</v>
       </c>
       <c r="BZ26" s="14">
-        <f t="shared" ref="BZ26:CC26" si="99">BZ10/BZ19</f>
+        <f t="shared" ref="BZ26:CC26" si="100">BZ10/BZ19</f>
         <v>2.2158148148148151</v>
       </c>
       <c r="CA26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.2886249962121217</v>
       </c>
       <c r="CB26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>3.0635643208474144</v>
       </c>
       <c r="CC26" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1.8386080463699126</v>
       </c>
       <c r="CD26" s="14">
@@ -33857,19 +34421,19 @@
         <v>4.0465116279069768</v>
       </c>
       <c r="CE26" s="14">
-        <f t="shared" ref="CE26:CH26" si="100">CE10/CE19</f>
+        <f t="shared" ref="CE26:CH26" si="101">CE10/CE19</f>
         <v>3.2261808510638299</v>
       </c>
       <c r="CF26" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2.3255064350000003</v>
       </c>
       <c r="CG26" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>1.8550441674333338</v>
       </c>
       <c r="CH26" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>3.6772160927398252</v>
       </c>
       <c r="CI26" s="14">
@@ -33877,19 +34441,19 @@
         <v>2.2830188679245285</v>
       </c>
       <c r="CJ26" s="14">
-        <f t="shared" ref="CJ26:CM26" si="101">CJ10/CJ19</f>
+        <f t="shared" ref="CJ26:CM26" si="102">CJ10/CJ19</f>
         <v>4.3743240740740745</v>
       </c>
       <c r="CK26" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2.7393524010416672</v>
       </c>
       <c r="CL26" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2.7283604150886371</v>
       </c>
       <c r="CM26" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2.0996449912249004</v>
       </c>
       <c r="CN26" s="14">
@@ -33902,11 +34466,11 @@
         <v>0</v>
       </c>
       <c r="CQ26" s="14">
-        <f t="shared" ref="CQ26:CR26" si="102">CQ10/CQ19</f>
+        <f t="shared" ref="CQ26:CR26" si="103">CQ10/CQ19</f>
         <v>0.95983992635487825</v>
       </c>
       <c r="CR26" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.35993914135284011</v>
       </c>
     </row>
@@ -33916,70 +34480,76 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="14">
-        <f t="shared" ref="C27:F27" si="103">C7/C12</f>
+        <f t="shared" ref="C27:F27" si="104">C7/C12</f>
         <v>0</v>
       </c>
       <c r="D27" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="5"/>
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" ref="G27:K27" si="105">G7/G12</f>
+        <v>0</v>
+      </c>
       <c r="H27" s="14">
-        <f t="shared" ref="H27:K27" si="104">H7/H12</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="5"/>
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" ref="L27:P27" si="106">L7/L12</f>
+        <v>0.2781954887218045</v>
+      </c>
       <c r="M27" s="14">
-        <f t="shared" ref="M27:P27" si="105">M7/M12</f>
-        <v>0</v>
+        <f t="shared" si="106"/>
+        <v>0.45505617977528084</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" si="106"/>
+        <v>0.51724137931034486</v>
       </c>
       <c r="O27" s="14">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" si="106"/>
+        <v>0.31868131868131871</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" si="106"/>
+        <v>0.61594202898550721</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="14">
-        <f t="shared" ref="R27:U27" si="106">R7/R12</f>
+        <f t="shared" ref="R27:U27" si="107">R7/R12</f>
         <v>0</v>
       </c>
       <c r="S27" s="14">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T27" s="14">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="U27" s="14">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="V27" s="5"/>
@@ -33997,56 +34567,56 @@
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="14">
-        <f t="shared" ref="AB27:AE27" si="107">AB7/AB12</f>
+        <f t="shared" ref="AB27:AE27" si="108">AB7/AB12</f>
         <v>0</v>
       </c>
       <c r="AC27" s="14">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AD27" s="14">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AE27" s="14">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AF27" s="14">
-        <f t="shared" ref="AF27:AJ27" si="108">AF7/AF12</f>
+        <f t="shared" ref="AF27:AJ27" si="109">AF7/AF12</f>
         <v>0</v>
       </c>
       <c r="AG27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AH27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AI27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AK27" s="5"/>
       <c r="AL27" s="14">
-        <f t="shared" ref="AL27:AO27" si="109">AL7/AL12</f>
+        <f t="shared" ref="AL27:AO27" si="110">AL7/AL12</f>
         <v>0</v>
       </c>
       <c r="AM27" s="14">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AN27" s="14">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AO27" s="14">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AP27" s="35">
@@ -34069,53 +34639,53 @@
         <v>0.29589632829373652</v>
       </c>
       <c r="AV27" s="14">
-        <f t="shared" ref="AV27:AY27" si="110">AV7/AV12</f>
+        <f t="shared" ref="AV27:AY27" si="111">AV7/AV12</f>
         <v>0.56947608200455579</v>
       </c>
       <c r="AW27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.4096045197740113</v>
       </c>
       <c r="AX27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.27409638554216864</v>
       </c>
       <c r="AY27" s="14">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.53680981595092025</v>
       </c>
       <c r="AZ27" s="5"/>
       <c r="BA27" s="14">
-        <f t="shared" ref="BA27:BD27" si="111">BA7/BA12</f>
+        <f t="shared" ref="BA27:BD27" si="112">BA7/BA12</f>
         <v>0</v>
       </c>
       <c r="BB27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="BC27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="BD27" s="14">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="BE27" s="5"/>
       <c r="BF27" s="14">
-        <f t="shared" ref="BF27:BI27" si="112">BF7/BF12</f>
+        <f t="shared" ref="BF27:BI27" si="113">BF7/BF12</f>
         <v>0.42352941176470582</v>
       </c>
       <c r="BG27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.46052631578947367</v>
       </c>
       <c r="BH27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="BI27" s="14">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="BJ27" s="14">
@@ -34123,53 +34693,53 @@
         <v>0</v>
       </c>
       <c r="BK27" s="14">
-        <f t="shared" ref="BK27:BN27" si="113">BK7/BK12</f>
+        <f t="shared" ref="BK27:BN27" si="114">BK7/BK12</f>
         <v>0</v>
       </c>
       <c r="BL27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="BM27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="BN27" s="14">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="BO27" s="5"/>
       <c r="BP27" s="14">
-        <f t="shared" ref="BP27:BS27" si="114">BP7/BP12</f>
+        <f t="shared" ref="BP27:BS27" si="115">BP7/BP12</f>
         <v>0.2181818181818182</v>
       </c>
       <c r="BQ27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="BR27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="BS27" s="14">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>4.878048780487805E-2</v>
       </c>
       <c r="BT27" s="5"/>
       <c r="BU27" s="14">
-        <f t="shared" ref="BU27:BX27" si="115">BU7/BU12</f>
+        <f t="shared" ref="BU27:BX27" si="116">BU7/BU12</f>
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="BV27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.32596685082872928</v>
       </c>
       <c r="BW27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.17934782608695654</v>
       </c>
       <c r="BX27" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.37894736842105259</v>
       </c>
       <c r="BY27" s="14">
@@ -34177,75 +34747,75 @@
         <v>0.19753086419753085</v>
       </c>
       <c r="BZ27" s="14">
-        <f t="shared" ref="BZ27:CC27" si="116">BZ7/BZ12</f>
+        <f t="shared" ref="BZ27:CC27" si="117">BZ7/BZ12</f>
         <v>0.26027397260273977</v>
       </c>
       <c r="CA27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.72676056338028161</v>
       </c>
       <c r="CB27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.14077669902912621</v>
       </c>
       <c r="CC27" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>8.0321285140562249E-2</v>
       </c>
       <c r="CD27" s="14">
         <v>0</v>
       </c>
       <c r="CE27" s="14">
-        <f t="shared" ref="CE27:CH27" si="117">CE7/CE12</f>
+        <f t="shared" ref="CE27:CH27" si="118">CE7/CE12</f>
         <v>0</v>
       </c>
       <c r="CF27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="CG27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="CH27" s="14">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="CI27" s="14">
-        <f t="shared" ref="CI27:CM27" si="118">CI7/CI12</f>
+        <f t="shared" ref="CI27:CM27" si="119">CI7/CI12</f>
         <v>0</v>
       </c>
       <c r="CJ27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.14646464646464646</v>
       </c>
       <c r="CK27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="CL27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>2.9940119760479044E-3</v>
       </c>
       <c r="CM27" s="14">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="CN27" s="5"/>
       <c r="CO27" s="18">
-        <f t="shared" ref="CO27:CR27" si="119">CO7/CO12</f>
+        <f t="shared" ref="CO27:CR27" si="120">CO7/CO12</f>
         <v>2.9850746268656719E-2</v>
       </c>
       <c r="CP27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.10769230769230768</v>
       </c>
       <c r="CQ27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.15584415584415584</v>
       </c>
       <c r="CR27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.24719101123595505</v>
       </c>
     </row>
@@ -34257,11 +34827,11 @@
         <v>0</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:D28" si="120">C12/C19</f>
+        <f t="shared" ref="C28:D28" si="121">C12/C19</f>
         <v>1.1677358490566039</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.94316078301886808</v>
       </c>
       <c r="E28" s="14">
@@ -34274,38 +34844,39 @@
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" ref="H28:K28" si="121">H12/H19</f>
+        <f t="shared" ref="H28:K28" si="122">H12/H19</f>
         <v>4.4461206896551726</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>3.4023597708333337</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>3.5074364510294123</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>4.0943077328885558</v>
       </c>
       <c r="L28" s="14">
-        <v>0</v>
+        <f t="shared" ref="L28:P28" si="123">L12/L19</f>
+        <v>2.375</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" ref="M28:P28" si="122">M12/M19</f>
+        <f t="shared" si="123"/>
         <v>3.1656379310344831</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>3.35253960106383</v>
       </c>
       <c r="O28" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2.0475487508462265</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2.7164157073972151</v>
       </c>
       <c r="Q28" s="14">
@@ -34315,67 +34886,67 @@
         <v>0</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28:U28" si="123">S12/S19</f>
+        <f t="shared" ref="S28:U28" si="124">S12/S19</f>
         <v>2.6788055000000002</v>
       </c>
       <c r="T28" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>2.4663655407920455</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>2.3910242961295807</v>
       </c>
       <c r="V28" s="14">
         <v>0</v>
       </c>
       <c r="W28" s="14">
-        <f t="shared" ref="W28:Z28" si="124">W12/W19</f>
+        <f t="shared" ref="W28:Z28" si="125">W12/W19</f>
         <v>0</v>
       </c>
       <c r="X28" s="14">
         <v>0</v>
       </c>
       <c r="Y28" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>3.1624086282911112</v>
       </c>
       <c r="Z28" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>2.1680055258229207</v>
       </c>
       <c r="AA28" s="14">
         <v>0</v>
       </c>
       <c r="AB28" s="14">
-        <f t="shared" ref="AB28:AE28" si="125">AB12/AB19</f>
+        <f t="shared" ref="AB28:AE28" si="126">AB12/AB19</f>
         <v>4.3481692307692308</v>
       </c>
       <c r="AC28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>3.965447929824562</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>4.3959870186235301</v>
       </c>
       <c r="AE28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>5.0391479789397611</v>
       </c>
       <c r="AF28" s="14">
-        <f t="shared" ref="AF28:AI28" si="126">AF12/AF19</f>
+        <f t="shared" ref="AF28:AI28" si="127">AF12/AF19</f>
         <v>3.9699999999999998</v>
       </c>
       <c r="AG28" s="14">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>1.7928452380952382</v>
       </c>
       <c r="AH28" s="14">
         <v>0</v>
       </c>
       <c r="AI28" s="14">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>1.8849642346500002</v>
       </c>
       <c r="AJ28" s="14">
@@ -34394,7 +34965,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="14">
-        <f t="shared" ref="AO28" si="127">AO12/AO19</f>
+        <f t="shared" ref="AO28" si="128">AO12/AO19</f>
         <v>7.3837515524742328</v>
       </c>
       <c r="AP28" s="14">
@@ -34402,11 +34973,11 @@
         <v>1.9411764705882353</v>
       </c>
       <c r="AQ28" s="14">
-        <f t="shared" ref="AQ28:AR28" si="128">AQ12/AQ19</f>
+        <f t="shared" ref="AQ28:AR28" si="129">AQ12/AQ19</f>
         <v>2.1133170731707316</v>
       </c>
       <c r="AR28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5259835425531918</v>
       </c>
       <c r="AS28" s="14">
@@ -34420,57 +34991,57 @@
         <v>7.0151515151515156</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" ref="AV28:AY28" si="129">AV12/AV19</f>
+        <f t="shared" ref="AV28:AY28" si="130">AV12/AV19</f>
         <v>7.3036854838709679</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5.4181208239436627</v>
       </c>
       <c r="AX28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5.5763299520028182</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>4.5632284475954501</v>
       </c>
       <c r="AZ28" s="14">
         <v>0</v>
       </c>
       <c r="BA28" s="14">
-        <f t="shared" ref="BA28:BD28" si="130">BA12/BA19</f>
+        <f t="shared" ref="BA28:BD28" si="131">BA12/BA19</f>
         <v>1.9156428571428572</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>2.3746085092592599</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>1.3788609548109376</v>
       </c>
       <c r="BD28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>1.6705871017137253</v>
       </c>
       <c r="BE28" s="14">
         <v>0</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" ref="BF28:BI28" si="131">BF12/BF19</f>
+        <f t="shared" ref="BF28:BI28" si="132">BF12/BF19</f>
         <v>1.5941363636363639</v>
       </c>
       <c r="BG28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1.4239323965517243</v>
       </c>
       <c r="BH28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1.2797865684731708</v>
       </c>
       <c r="BI28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1.6401000497492619</v>
       </c>
       <c r="BJ28" s="14">
@@ -34481,52 +35052,52 @@
         <v>0</v>
       </c>
       <c r="BL28" s="14">
-        <f t="shared" ref="BL28:BN28" si="132">BL12/BL19</f>
+        <f t="shared" ref="BL28:BN28" si="133">BL12/BL19</f>
         <v>3.4116862500000007</v>
       </c>
       <c r="BM28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>2.2233580215000006</v>
       </c>
       <c r="BN28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>2.1125658834785921</v>
       </c>
       <c r="BO28" s="14">
         <v>0</v>
       </c>
       <c r="BP28" s="14">
-        <f t="shared" ref="BP28:BS28" si="133">BP12/BP19</f>
+        <f t="shared" ref="BP28:BS28" si="134">BP12/BP19</f>
         <v>0.73998913043478265</v>
       </c>
       <c r="BQ28" s="14">
         <v>0</v>
       </c>
       <c r="BR28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1.514833364525676</v>
       </c>
       <c r="BS28" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0.99329359200254908</v>
       </c>
       <c r="BT28" s="14">
         <v>0</v>
       </c>
       <c r="BU28" s="14">
-        <f t="shared" ref="BU28:BX28" si="134">BU12/BU19</f>
+        <f t="shared" ref="BU28:BX28" si="135">BU12/BU19</f>
         <v>2.7977671232876715</v>
       </c>
       <c r="BV28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4.0977089635416677</v>
       </c>
       <c r="BW28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>3.1346460625200003</v>
       </c>
       <c r="BX28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4.1992899824498009</v>
       </c>
       <c r="BY28" s="14">
@@ -34534,19 +35105,19 @@
         <v>5.7857142857142856</v>
       </c>
       <c r="BZ28" s="14">
-        <f t="shared" ref="BZ28:CC28" si="135">BZ12/BZ19</f>
+        <f t="shared" ref="BZ28:CC28" si="136">BZ12/BZ19</f>
         <v>4.6481172839506177</v>
       </c>
       <c r="CA28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>5.8450494507575765</v>
       </c>
       <c r="CB28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>4.2355318798293107</v>
       </c>
       <c r="CC28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>4.2390129957972986</v>
       </c>
       <c r="CD28" s="14">
@@ -34554,19 +35125,19 @@
         <v>3.9883720930232558</v>
       </c>
       <c r="CE28" s="14">
-        <f t="shared" ref="CE28:CH28" si="136">CE12/CE19</f>
+        <f t="shared" ref="CE28:CH28" si="137">CE12/CE19</f>
         <v>2.9847659574468088</v>
       </c>
       <c r="CF28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>2.8905827650000004</v>
       </c>
       <c r="CG28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>3.0254887016472227</v>
       </c>
       <c r="CH28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>2.826008663864866</v>
       </c>
       <c r="CI28" s="14">
@@ -34574,19 +35145,19 @@
         <v>5.0188679245283021</v>
       </c>
       <c r="CJ28" s="14">
-        <f t="shared" ref="CJ28:CM28" si="137">CJ12/CJ19</f>
+        <f t="shared" ref="CJ28:CM28" si="138">CJ12/CJ19</f>
         <v>3.7821666666666669</v>
       </c>
       <c r="CK28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>4.958001453125001</v>
       </c>
       <c r="CL28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>3.0174582074159093</v>
       </c>
       <c r="CM28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>3.2994421290677005</v>
       </c>
       <c r="CN28" s="14">
@@ -34599,11 +35170,11 @@
         <v>0</v>
       </c>
       <c r="CQ28" s="14">
-        <f t="shared" ref="CQ28:CR28" si="138">CQ12/CQ19</f>
+        <f t="shared" ref="CQ28:CR28" si="139">CQ12/CQ19</f>
         <v>2.2396264948280491</v>
       </c>
       <c r="CR28" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>2.2881845414573405</v>
       </c>
     </row>
@@ -34615,11 +35186,11 @@
         <v>0</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29:D29" si="139">C11/C19</f>
+        <f t="shared" ref="C29:D29" si="140">C11/C19</f>
         <v>2.8025660377358492</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>2.0298460330188681</v>
       </c>
       <c r="E29" s="14">
@@ -34632,38 +35203,39 @@
         <v>0</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29:K29" si="140">H11/H19</f>
+        <f t="shared" ref="H29:K29" si="141">H11/H19</f>
         <v>6.8470258620689668</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>6.4295543958333345</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2.297370875424265</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>7.427494156458085</v>
       </c>
       <c r="L29" s="14">
-        <v>0</v>
+        <f t="shared" ref="L29:P29" si="142">L11/L19</f>
+        <v>9.1678571428571427</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" ref="M29:P29" si="141">M11/M19</f>
+        <f t="shared" si="142"/>
         <v>6.2067844827586214</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>5.9189664680851068</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7.4026762530594352</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7.4603011094459744</v>
       </c>
       <c r="Q29" s="14">
@@ -34673,67 +35245,67 @@
         <v>0</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" ref="S29:U29" si="142">S11/S19</f>
+        <f t="shared" ref="S29:U29" si="143">S11/S19</f>
         <v>4.9027195000000008</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>3.2523501636818186</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>4.4735293282424413</v>
       </c>
       <c r="V29" s="14">
         <v>0</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" ref="W29:Z29" si="143">W11/W19</f>
+        <f t="shared" ref="W29:Z29" si="144">W11/W19</f>
         <v>2.7636415094339624</v>
       </c>
       <c r="X29" s="14">
         <v>0</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>6.6693254591055569</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>5.5957980463807813</v>
       </c>
       <c r="AA29" s="14">
         <v>0</v>
       </c>
       <c r="AB29" s="14">
-        <f t="shared" ref="AB29:AE29" si="144">AB11/AB19</f>
+        <f t="shared" ref="AB29:AE29" si="145">AB11/AB19</f>
         <v>10.346738461538461</v>
       </c>
       <c r="AC29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>8.5409647719298256</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>9.937736611250001</v>
       </c>
       <c r="AE29" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>8.3235926437844263</v>
       </c>
       <c r="AF29" s="14">
-        <f t="shared" ref="AF29:AI29" si="145">AF11/AF19</f>
+        <f t="shared" ref="AF29:AI29" si="146">AF11/AF19</f>
         <v>5.3366666666666669</v>
       </c>
       <c r="AG29" s="14">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>3.8312857142857148</v>
       </c>
       <c r="AH29" s="14">
         <v>0</v>
       </c>
       <c r="AI29" s="14">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>3.8468657850000008</v>
       </c>
       <c r="AJ29" s="14">
@@ -34752,7 +35324,7 @@
         <v>0</v>
       </c>
       <c r="AO29" s="14">
-        <f t="shared" ref="AO29" si="146">AO11/AO19</f>
+        <f t="shared" ref="AO29" si="147">AO11/AO19</f>
         <v>9.8333373755699505</v>
       </c>
       <c r="AP29" s="14">
@@ -34760,11 +35332,11 @@
         <v>3.0980392156862746</v>
       </c>
       <c r="AQ29" s="14">
-        <f t="shared" ref="AQ29:AR29" si="147">AQ11/AQ19</f>
+        <f t="shared" ref="AQ29:AR29" si="148">AQ11/AQ19</f>
         <v>3.1196585365853662</v>
       </c>
       <c r="AR29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.4797416170212767</v>
       </c>
       <c r="AS29" s="14">
@@ -34778,57 +35350,57 @@
         <v>19.939393939393938</v>
       </c>
       <c r="AV29" s="14">
-        <f t="shared" ref="AV29:AY29" si="148">AV11/AV19</f>
+        <f t="shared" ref="AV29:AY29" si="149">AV11/AV19</f>
         <v>18.500451612903227</v>
       </c>
       <c r="AW29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>15.688061707746483</v>
       </c>
       <c r="AX29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>10.816736412921129</v>
       </c>
       <c r="AY29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>12.793836813197059</v>
       </c>
       <c r="AZ29" s="14">
         <v>0</v>
       </c>
       <c r="BA29" s="14">
-        <f t="shared" ref="BA29:BD29" si="149">BA11/BA19</f>
+        <f t="shared" ref="BA29:BD29" si="150">BA11/BA19</f>
         <v>4.8480500000000006</v>
       </c>
       <c r="BB29" s="14">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>6.3188734907407413</v>
       </c>
       <c r="BC29" s="14">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>3.4098858747351568</v>
       </c>
       <c r="BD29" s="14">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>6.8466684496464145</v>
       </c>
       <c r="BE29" s="14">
         <v>0</v>
       </c>
       <c r="BF29" s="14">
-        <f t="shared" ref="BF29:BI29" si="150">BF11/BF19</f>
+        <f t="shared" ref="BF29:BI29" si="151">BF11/BF19</f>
         <v>4.5573545454545457</v>
       </c>
       <c r="BG29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.9415445560344828</v>
       </c>
       <c r="BH29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.2396264948280491</v>
       </c>
       <c r="BI29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.5908826872850659</v>
       </c>
       <c r="BJ29" s="14">
@@ -34839,52 +35411,52 @@
         <v>0</v>
       </c>
       <c r="BL29" s="14">
-        <f t="shared" ref="BL29:BN29" si="151">BL11/BL19</f>
+        <f t="shared" ref="BL29:BN29" si="152">BL11/BL19</f>
         <v>11.801907250000001</v>
       </c>
       <c r="BM29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>7.781753075250001</v>
       </c>
       <c r="BN29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>7.9075860592593177</v>
       </c>
       <c r="BO29" s="14">
         <v>0</v>
       </c>
       <c r="BP29" s="14">
-        <f t="shared" ref="BP29:BS29" si="152">BP11/BP19</f>
+        <f t="shared" ref="BP29:BS29" si="153">BP11/BP19</f>
         <v>2.1751195652173916</v>
       </c>
       <c r="BQ29" s="14">
         <v>0</v>
       </c>
       <c r="BR29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2.7718227521108112</v>
       </c>
       <c r="BS29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2.2046272407861456</v>
       </c>
       <c r="BT29" s="14">
         <v>0</v>
       </c>
       <c r="BU29" s="14">
-        <f t="shared" ref="BU29:BX29" si="153">BU11/BU19</f>
+        <f t="shared" ref="BU29:BX29" si="154">BU11/BU19</f>
         <v>5.1151095890410962</v>
       </c>
       <c r="BV29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>7.7879109583333346</v>
       </c>
       <c r="BW29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>4.429391175300001</v>
       </c>
       <c r="BX29" s="14">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>8.6195952271338019</v>
       </c>
       <c r="BY29" s="14">
@@ -34892,19 +35464,19 @@
         <v>11.985714285714286</v>
       </c>
       <c r="BZ29" s="14">
-        <f t="shared" ref="BZ29:CC29" si="154">BZ11/BZ19</f>
+        <f t="shared" ref="BZ29:CC29" si="155">BZ11/BZ19</f>
         <v>10.073043209876543</v>
       </c>
       <c r="CA29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>15.295918140151517</v>
       </c>
       <c r="CB29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>10.938363883831036</v>
       </c>
       <c r="CC29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>10.180440849344517</v>
       </c>
       <c r="CD29" s="14">
@@ -34912,19 +35484,19 @@
         <v>9.8604651162790695</v>
       </c>
       <c r="CE29" s="14">
-        <f t="shared" ref="CE29:CH29" si="155">CE11/CE19</f>
+        <f t="shared" ref="CE29:CH29" si="156">CE11/CE19</f>
         <v>7.5058085106382988</v>
       </c>
       <c r="CF29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>8.8456179350000017</v>
       </c>
       <c r="CG29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>5.3001261926666681</v>
       </c>
       <c r="CH29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>6.8096594309996776</v>
       </c>
       <c r="CI29" s="14">
@@ -34932,19 +35504,19 @@
         <v>12.622641509433961</v>
       </c>
       <c r="CJ29" s="14">
-        <f t="shared" ref="CJ29:CM29" si="156">CJ11/CJ19</f>
+        <f t="shared" ref="CJ29:CM29" si="157">CJ11/CJ19</f>
         <v>11.231888888888889</v>
       </c>
       <c r="CK29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>9.8028065260416692</v>
       </c>
       <c r="CL29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.8361616826068188</v>
       </c>
       <c r="CM29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>6.5188977822792147</v>
       </c>
       <c r="CN29" s="14">
@@ -34957,11 +35529,11 @@
         <v>0</v>
       </c>
       <c r="CQ29" s="14">
-        <f t="shared" ref="CQ29:CR29" si="157">CQ11/CQ19</f>
+        <f t="shared" ref="CQ29:CR29" si="158">CQ11/CQ19</f>
         <v>4.7410275150256105</v>
       </c>
       <c r="CR29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>6.1703852803344006</v>
       </c>
     </row>
@@ -34981,35 +35553,40 @@
       <c r="F30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>107</v>
+      <c r="G30" s="14">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <f>Painel!L30</f>
+        <v>80</v>
+      </c>
+      <c r="M30" s="6">
+        <f>Painel!M30</f>
+        <v>48</v>
+      </c>
+      <c r="N30" s="6">
+        <f>Painel!N30</f>
+        <v>114</v>
+      </c>
+      <c r="O30" s="6">
+        <f>Painel!O30</f>
+        <v>46</v>
+      </c>
+      <c r="P30" s="6">
+        <f>Painel!P30</f>
+        <v>75</v>
       </c>
       <c r="Q30" s="14" t="s">
         <v>107</v>
@@ -35286,7 +35863,10 @@
         <f>Painel!F31*IPC!J$3</f>
         <v>80.2484315646157</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="14">
+        <f>Painel!G31</f>
+        <v>1255</v>
+      </c>
       <c r="H31" s="14">
         <f>Painel!H31*IPC!G$3</f>
         <v>1198.6030000000001</v>
@@ -35303,7 +35883,10 @@
         <f>Painel!K31*IPC!J$3</f>
         <v>718.07858699891597</v>
       </c>
-      <c r="L31" s="14"/>
+      <c r="L31" s="6">
+        <f>Painel!L31</f>
+        <v>251</v>
+      </c>
       <c r="M31" s="14">
         <v>334.20600000000002</v>
       </c>
@@ -35591,70 +36174,76 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="20">
-        <f t="shared" ref="C32" si="158">C31/C14</f>
+        <f t="shared" ref="C32" si="159">C31/C14</f>
         <v>32.333333333333336</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" ref="D32" si="159">D31/D14</f>
+        <f t="shared" ref="D32" si="160">D31/D14</f>
         <v>3.9954545454545456</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" ref="E32" si="160">E31/E14</f>
+        <f t="shared" ref="E32" si="161">E31/E14</f>
         <v>22.166666666666664</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" ref="F32" si="161">F31/F14</f>
+        <f t="shared" ref="F32" si="162">F31/F14</f>
         <v>-7.0777777777777784</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="14">
+        <f>Painel!G32</f>
+        <v>-5.9198113207547172</v>
+      </c>
       <c r="H32" s="20">
-        <f t="shared" ref="H32" si="162">H31/H14</f>
+        <f t="shared" ref="H32" si="163">H31/H14</f>
         <v>29.794871794871792</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" ref="I32" si="163">I31/I14</f>
+        <f t="shared" ref="I32" si="164">I31/I14</f>
         <v>8.137614678899082</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" ref="J32" si="164">J31/J14</f>
+        <f t="shared" ref="J32" si="165">J31/J14</f>
         <v>-5.0580645161290327</v>
       </c>
       <c r="K32" s="20">
-        <f t="shared" ref="K32" si="165">K31/K14</f>
+        <f t="shared" ref="K32" si="166">K31/K14</f>
         <v>4.5600000000000005</v>
       </c>
-      <c r="L32" s="14"/>
+      <c r="L32" s="20">
+        <f t="shared" ref="L32:M32" si="167">L31/L14</f>
+        <v>0.50401606425702816</v>
+      </c>
       <c r="M32" s="20">
-        <f t="shared" ref="M32" si="166">M31/M14</f>
-        <v>4.563380281690141</v>
+        <f t="shared" si="167"/>
+        <v>3.7241379310344827</v>
       </c>
       <c r="N32" s="20">
-        <f t="shared" ref="N32" si="167">N31/N14</f>
+        <f t="shared" ref="N32" si="168">N31/N14</f>
         <v>4.6769230769230763</v>
       </c>
       <c r="O32" s="20">
-        <f t="shared" ref="O32" si="168">O31/O14</f>
+        <f t="shared" ref="O32" si="169">O31/O14</f>
         <v>2.2686567164179108</v>
       </c>
       <c r="P32" s="20">
-        <f t="shared" ref="P32" si="169">P31/P14</f>
+        <f t="shared" ref="P32" si="170">P31/P14</f>
         <v>2.5765765765765769</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="20">
-        <f t="shared" ref="R32" si="170">R31/R14</f>
+        <f t="shared" ref="R32" si="171">R31/R14</f>
         <v>200</v>
       </c>
       <c r="S32" s="20">
-        <f t="shared" ref="S32" si="171">S31/S14</f>
+        <f t="shared" ref="S32" si="172">S31/S14</f>
         <v>3.486486486486486</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" ref="T32" si="172">T31/T14</f>
+        <f t="shared" ref="T32" si="173">T31/T14</f>
         <v>-12.076923076923077</v>
       </c>
       <c r="U32" s="20">
-        <f t="shared" ref="U32" si="173">U31/U14</f>
+        <f t="shared" ref="U32" si="174">U31/U14</f>
         <v>3.641025641025641</v>
       </c>
       <c r="V32" s="14"/>
@@ -35664,64 +36253,64 @@
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="20">
-        <f t="shared" ref="AB32" si="174">AB31/AB14</f>
+        <f t="shared" ref="AB32" si="175">AB31/AB14</f>
         <v>3.6707317073170729</v>
       </c>
       <c r="AC32" s="20">
-        <f t="shared" ref="AC32" si="175">AC31/AC14</f>
+        <f t="shared" ref="AC32" si="176">AC31/AC14</f>
         <v>2.915730337078652</v>
       </c>
       <c r="AD32" s="20">
-        <f t="shared" ref="AD32" si="176">AD31/AD14</f>
+        <f t="shared" ref="AD32" si="177">AD31/AD14</f>
         <v>10.75</v>
       </c>
       <c r="AE32" s="20">
-        <f t="shared" ref="AE32" si="177">AE31/AE14</f>
+        <f t="shared" ref="AE32" si="178">AE31/AE14</f>
         <v>-17.777777777777779</v>
       </c>
       <c r="AF32" s="20">
-        <f t="shared" ref="AF32:AG32" si="178">AF31/AF14</f>
+        <f t="shared" ref="AF32:AG32" si="179">AF31/AF14</f>
         <v>0.3</v>
       </c>
       <c r="AG32" s="20">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>3.078125</v>
       </c>
       <c r="AH32" s="20">
-        <f t="shared" ref="AH32" si="179">AH31/AH14</f>
+        <f t="shared" ref="AH32" si="180">AH31/AH14</f>
         <v>10.772727272727272</v>
       </c>
       <c r="AI32" s="20">
-        <f t="shared" ref="AI32" si="180">AI31/AI14</f>
+        <f t="shared" ref="AI32" si="181">AI31/AI14</f>
         <v>10.958333333333332</v>
       </c>
       <c r="AJ32" s="20">
-        <f t="shared" ref="AJ32" si="181">AJ31/AJ14</f>
+        <f t="shared" ref="AJ32" si="182">AJ31/AJ14</f>
         <v>-19.363636363636363</v>
       </c>
       <c r="AK32" s="14"/>
       <c r="AL32" s="20">
-        <f t="shared" ref="AL32" si="182">AL31/AL14</f>
+        <f t="shared" ref="AL32" si="183">AL31/AL14</f>
         <v>4.5273972602739718</v>
       </c>
       <c r="AM32" s="20">
-        <f t="shared" ref="AM32" si="183">AM31/AM14</f>
+        <f t="shared" ref="AM32" si="184">AM31/AM14</f>
         <v>-8.4938271604938276</v>
       </c>
       <c r="AN32" s="20">
-        <f t="shared" ref="AN32" si="184">AN31/AN14</f>
+        <f t="shared" ref="AN32" si="185">AN31/AN14</f>
         <v>-2.7277777777777774</v>
       </c>
       <c r="AO32" s="20">
-        <f t="shared" ref="AO32:AT32" si="185">AO31/AO14</f>
+        <f t="shared" ref="AO32:AT32" si="186">AO31/AO14</f>
         <v>2.8367346938775513</v>
       </c>
       <c r="AP32" s="20">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>2.1621621621621623E-2</v>
       </c>
       <c r="AQ32" s="20">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>3.4615384615384617E-2</v>
       </c>
       <c r="AR32" s="20">
@@ -35729,11 +36318,11 @@
         <v>2.0222222222222221</v>
       </c>
       <c r="AS32" s="20">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="AT32" s="20">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="AU32" s="20">
@@ -35741,53 +36330,53 @@
         <v>0.52577319587628868</v>
       </c>
       <c r="AV32" s="20">
-        <f t="shared" ref="AV32" si="186">AV31/AV14</f>
+        <f t="shared" ref="AV32" si="187">AV31/AV14</f>
         <v>1.0526125730994154</v>
       </c>
       <c r="AW32" s="20">
-        <f t="shared" ref="AW32" si="187">AW31/AW14</f>
+        <f t="shared" ref="AW32" si="188">AW31/AW14</f>
         <v>1.364207944615385</v>
       </c>
       <c r="AX32" s="20">
-        <f t="shared" ref="AX32" si="188">AX31/AX14</f>
+        <f t="shared" ref="AX32" si="189">AX31/AX14</f>
         <v>3.0725143311017651</v>
       </c>
       <c r="AY32" s="20">
-        <f t="shared" ref="AY32" si="189">AY31/AY14</f>
+        <f t="shared" ref="AY32" si="190">AY31/AY14</f>
         <v>2.1690687369024979</v>
       </c>
       <c r="AZ32" s="14"/>
       <c r="BA32" s="20">
-        <f t="shared" ref="BA32" si="190">BA31/BA14</f>
+        <f t="shared" ref="BA32" si="191">BA31/BA14</f>
         <v>9.109375</v>
       </c>
       <c r="BB32" s="20">
-        <f t="shared" ref="BB32" si="191">BB31/BB14</f>
+        <f t="shared" ref="BB32" si="192">BB31/BB14</f>
         <v>-6.814814814814814</v>
       </c>
       <c r="BC32" s="20">
-        <f t="shared" ref="BC32" si="192">BC31/BC14</f>
+        <f t="shared" ref="BC32" si="193">BC31/BC14</f>
         <v>-3.3166666666666669</v>
       </c>
       <c r="BD32" s="20">
-        <f t="shared" ref="BD32" si="193">BD31/BD14</f>
+        <f t="shared" ref="BD32" si="194">BD31/BD14</f>
         <v>7.628571428571429</v>
       </c>
       <c r="BE32" s="14"/>
       <c r="BF32" s="20">
-        <f t="shared" ref="BF32" si="194">BF31/BF14</f>
+        <f t="shared" ref="BF32" si="195">BF31/BF14</f>
         <v>0.17719298245614037</v>
       </c>
       <c r="BG32" s="20">
-        <f t="shared" ref="BG32" si="195">BG31/BG14</f>
+        <f t="shared" ref="BG32" si="196">BG31/BG14</f>
         <v>-0.15185185185185185</v>
       </c>
       <c r="BH32" s="20">
-        <f t="shared" ref="BH32" si="196">BH31/BH14</f>
+        <f t="shared" ref="BH32" si="197">BH31/BH14</f>
         <v>-9.6666666666666651E-2</v>
       </c>
       <c r="BI32" s="20">
-        <f t="shared" ref="BI32" si="197">BI31/BI14</f>
+        <f t="shared" ref="BI32" si="198">BI31/BI14</f>
         <v>1.711111111111111</v>
       </c>
       <c r="BJ32" s="20">
@@ -35795,53 +36384,53 @@
         <v>2.9225806451612901</v>
       </c>
       <c r="BK32" s="20">
-        <f t="shared" ref="BK32" si="198">BK31/BK14</f>
+        <f t="shared" ref="BK32" si="199">BK31/BK14</f>
         <v>13.818181818181818</v>
       </c>
       <c r="BL32" s="20">
-        <f t="shared" ref="BL32" si="199">BL31/BL14</f>
+        <f t="shared" ref="BL32" si="200">BL31/BL14</f>
         <v>2.0057803468208095</v>
       </c>
       <c r="BM32" s="20">
-        <f t="shared" ref="BM32" si="200">BM31/BM14</f>
+        <f t="shared" ref="BM32" si="201">BM31/BM14</f>
         <v>2.5538461538461537</v>
       </c>
       <c r="BN32" s="20">
-        <f t="shared" ref="BN32" si="201">BN31/BN14</f>
+        <f t="shared" ref="BN32" si="202">BN31/BN14</f>
         <v>2.2088607594936707</v>
       </c>
       <c r="BO32" s="14"/>
       <c r="BP32" s="20">
-        <f t="shared" ref="BP32" si="202">BP31/BP14</f>
+        <f t="shared" ref="BP32" si="203">BP31/BP14</f>
         <v>1.3225152129817446</v>
       </c>
       <c r="BQ32" s="20">
-        <f t="shared" ref="BQ32" si="203">BQ31/BQ14</f>
+        <f t="shared" ref="BQ32" si="204">BQ31/BQ14</f>
         <v>3.6200000000000006</v>
       </c>
       <c r="BR32" s="20">
-        <f t="shared" ref="BR32" si="204">BR31/BR14</f>
+        <f t="shared" ref="BR32" si="205">BR31/BR14</f>
         <v>2.0137931034482759</v>
       </c>
       <c r="BS32" s="20">
-        <f t="shared" ref="BS32" si="205">BS31/BS14</f>
+        <f t="shared" ref="BS32" si="206">BS31/BS14</f>
         <v>1.0894736842105266</v>
       </c>
       <c r="BT32" s="14"/>
       <c r="BU32" s="20">
-        <f t="shared" ref="BU32" si="206">BU31/BU14</f>
+        <f t="shared" ref="BU32" si="207">BU31/BU14</f>
         <v>2.8596491228070176</v>
       </c>
       <c r="BV32" s="20">
-        <f t="shared" ref="BV32" si="207">BV31/BV14</f>
+        <f t="shared" ref="BV32" si="208">BV31/BV14</f>
         <v>3.4949494949494948</v>
       </c>
       <c r="BW32" s="20">
-        <f t="shared" ref="BW32" si="208">BW31/BW14</f>
+        <f t="shared" ref="BW32" si="209">BW31/BW14</f>
         <v>166</v>
       </c>
       <c r="BX32" s="20">
-        <f t="shared" ref="BX32" si="209">BX31/BX14</f>
+        <f t="shared" ref="BX32" si="210">BX31/BX14</f>
         <v>2.202247191011236</v>
       </c>
       <c r="BY32" s="20">
@@ -35849,19 +36438,19 @@
         <v>0.68817204301075274</v>
       </c>
       <c r="BZ32" s="20">
-        <f t="shared" ref="BZ32:CC32" si="210">BZ31/BZ14</f>
+        <f t="shared" ref="BZ32:CC32" si="211">BZ31/BZ14</f>
         <v>0.87431693989071035</v>
       </c>
       <c r="CA32" s="20">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.55521472392638038</v>
       </c>
       <c r="CB32" s="20">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>1.8013245033112582</v>
       </c>
       <c r="CC32" s="20">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>1.2804232804232805</v>
       </c>
       <c r="CD32" s="14">
@@ -35869,55 +36458,55 @@
         <v>2.1770833333333335</v>
       </c>
       <c r="CE32" s="20">
-        <f t="shared" ref="CE32" si="211">CE31/CE14</f>
+        <f t="shared" ref="CE32" si="212">CE31/CE14</f>
         <v>2.268041237113402</v>
       </c>
       <c r="CF32" s="20">
-        <f t="shared" ref="CF32" si="212">CF31/CF14</f>
+        <f t="shared" ref="CF32" si="213">CF31/CF14</f>
         <v>1.6495327102803738</v>
       </c>
       <c r="CG32" s="20">
         <v>0</v>
       </c>
       <c r="CH32" s="20">
-        <f t="shared" ref="CH32" si="213">CH31/CH14</f>
+        <f t="shared" ref="CH32" si="214">CH31/CH14</f>
         <v>1.6568627450980393</v>
       </c>
       <c r="CI32" s="20">
-        <f t="shared" ref="CI32:CJ32" si="214">CI31/CI14</f>
+        <f t="shared" ref="CI32:CJ32" si="215">CI31/CI14</f>
         <v>4.2327586206896548</v>
       </c>
       <c r="CJ32" s="20">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>2.2675438596491229</v>
       </c>
       <c r="CK32" s="20">
-        <f t="shared" ref="CK32" si="215">CK31/CK14</f>
+        <f t="shared" ref="CK32" si="216">CK31/CK14</f>
         <v>19.16</v>
       </c>
       <c r="CL32" s="20">
-        <f t="shared" ref="CL32" si="216">CL31/CL14</f>
+        <f t="shared" ref="CL32" si="217">CL31/CL14</f>
         <v>0.83371824480369505</v>
       </c>
       <c r="CM32" s="20">
-        <f t="shared" ref="CM32" si="217">CM31/CM14</f>
+        <f t="shared" ref="CM32" si="218">CM31/CM14</f>
         <v>1.0990712074303406</v>
       </c>
       <c r="CN32" s="14"/>
       <c r="CO32" s="20">
-        <f t="shared" ref="CO32" si="218">CO31/CO14</f>
+        <f t="shared" ref="CO32" si="219">CO31/CO14</f>
         <v>26.125000000000004</v>
       </c>
       <c r="CP32" s="20">
-        <f t="shared" ref="CP32" si="219">CP31/CP14</f>
+        <f t="shared" ref="CP32" si="220">CP31/CP14</f>
         <v>8.1071428571428577</v>
       </c>
       <c r="CQ32" s="20">
-        <f t="shared" ref="CQ32" si="220">CQ31/CQ14</f>
+        <f t="shared" ref="CQ32" si="221">CQ31/CQ14</f>
         <v>11.6056338028169</v>
       </c>
       <c r="CR32" s="20">
-        <f t="shared" ref="CR32" si="221">CR31/CR14</f>
+        <f t="shared" ref="CR32" si="222">CR31/CR14</f>
         <v>4.6806722689075633</v>
       </c>
     </row>
@@ -35926,139 +36515,147 @@
         <v>110</v>
       </c>
       <c r="C33" s="18">
-        <f t="shared" ref="C33:F33" si="222">C31/C11</f>
+        <f t="shared" ref="C33:F33" si="223">C31/C11</f>
         <v>0.67361111111111116</v>
       </c>
       <c r="D33" s="18">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>0.88787878787878793</v>
       </c>
       <c r="E33" s="18">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>1.4456521739130435</v>
       </c>
       <c r="F33" s="18">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>2.0548387096774192</v>
       </c>
+      <c r="G33" s="14">
+        <f>Painel!G33</f>
+        <v>3.7351190476190474</v>
+      </c>
       <c r="H33" s="18">
-        <f t="shared" ref="H33:K33" si="223">H31/H11</f>
+        <f t="shared" ref="H33:K33" si="224">H31/H11</f>
         <v>3.0181818181818181</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>1.7847082494969817</v>
       </c>
       <c r="J33" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>5.9847328244274811</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>2.0141342756183747</v>
       </c>
+      <c r="L33" s="18">
+        <f t="shared" ref="L33:P33" si="225">L31/L11</f>
+        <v>0.48889754577327621</v>
+      </c>
       <c r="M33" s="18">
-        <f t="shared" ref="M33:P33" si="224">M31/M11</f>
+        <f t="shared" si="225"/>
         <v>0.92836676217765035</v>
       </c>
       <c r="N33" s="18">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>1.1875</v>
       </c>
       <c r="O33" s="18">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>0.92401215805471115</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>0.7546174142480212</v>
       </c>
       <c r="R33" s="18">
-        <f t="shared" ref="R33:U33" si="225">R31/R11</f>
+        <f t="shared" ref="R33:U33" si="226">R31/R11</f>
         <v>2</v>
       </c>
       <c r="S33" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0.66494845360824739</v>
       </c>
       <c r="T33" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>1.3083333333333333</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0.8160919540229884</v>
       </c>
       <c r="AB33" s="18">
-        <f t="shared" ref="AB33:AE33" si="226">AB31/AB11</f>
+        <f t="shared" ref="AB33:AE33" si="227">AB31/AB11</f>
         <v>0.92331288343558293</v>
       </c>
       <c r="AC33" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>1.158482142857143</v>
       </c>
       <c r="AD33" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>1.0117647058823529</v>
       </c>
       <c r="AE33" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>0.8648648648648648</v>
       </c>
       <c r="AF33" s="18">
-        <f t="shared" ref="AF33:AJ33" si="227">AF31/AF11</f>
+        <f t="shared" ref="AF33:AJ33" si="228">AF31/AF11</f>
         <v>0.11242973141786385</v>
       </c>
       <c r="AG33" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>1.2628205128205128</v>
       </c>
       <c r="AH33" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>2.9624999999999995</v>
       </c>
       <c r="AI33" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>2.63</v>
       </c>
       <c r="AJ33" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>5.6052631578947363</v>
       </c>
       <c r="AL33" s="18">
-        <f t="shared" ref="AL33:AT33" si="228">AL31/AL11</f>
+        <f t="shared" ref="AL33:AT33" si="229">AL31/AL11</f>
         <v>4.5273972602739718</v>
       </c>
       <c r="AM33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>5.7333333333333325</v>
       </c>
       <c r="AN33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>4.1610169491525424</v>
       </c>
       <c r="AO33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>1.4839857651245552</v>
       </c>
       <c r="AP33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>5.0632911392405064E-3</v>
       </c>
       <c r="AQ33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>7.2580645161290326E-3</v>
       </c>
       <c r="AR33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.14218749999999999</v>
       </c>
       <c r="AS33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="AT33" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="AU33" s="18">
@@ -36066,51 +36663,51 @@
         <v>0.19376899696048633</v>
       </c>
       <c r="AV33" s="18">
-        <f t="shared" ref="AV33:AY33" si="229">AV31/AV11</f>
+        <f t="shared" ref="AV33:AY33" si="230">AV31/AV11</f>
         <v>0.3138489208633094</v>
       </c>
       <c r="AW33" s="18">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>0.39804878048780484</v>
       </c>
       <c r="AX33" s="18">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>0.68012422360248448</v>
       </c>
       <c r="AY33" s="18">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>0.46717724288840262</v>
       </c>
       <c r="BA33" s="18">
-        <f t="shared" ref="BA33:BD33" si="230">BA31/BA11</f>
+        <f t="shared" ref="BA33:BD33" si="231">BA31/BA11</f>
         <v>1.7720364741641335</v>
       </c>
       <c r="BB33" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>1.7579617834394905</v>
       </c>
       <c r="BC33" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>3.2622950819672134</v>
       </c>
       <c r="BD33" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>2.1360000000000001</v>
       </c>
       <c r="BF33" s="18">
-        <f t="shared" ref="BF33:BI33" si="231">BF31/BF11</f>
+        <f t="shared" ref="BF33:BI33" si="232">BF31/BF11</f>
         <v>4.1563786008230463E-2</v>
       </c>
       <c r="BG33" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>7.8343949044585998E-2</v>
       </c>
       <c r="BH33" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>0.22597402597402597</v>
       </c>
       <c r="BI33" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>0.14128440366972478</v>
       </c>
       <c r="BJ33" s="18">
@@ -36118,51 +36715,51 @@
         <v>1.0683962264150944</v>
       </c>
       <c r="BK33" s="18">
-        <f t="shared" ref="BK33:BN33" si="232">BK31/BK11</f>
+        <f t="shared" ref="BK33:BN33" si="233">BK31/BK11</f>
         <v>1.5833333333333335</v>
       </c>
       <c r="BL33" s="18">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.74304068522483935</v>
       </c>
       <c r="BM33" s="18">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.8623376623376624</v>
       </c>
       <c r="BN33" s="18">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.85539215686274506</v>
       </c>
       <c r="BP33" s="18">
-        <f t="shared" ref="BP33:BS33" si="233">BP31/BP11</f>
+        <f t="shared" ref="BP33:BS33" si="234">BP31/BP11</f>
         <v>0.6721649484536083</v>
       </c>
       <c r="BQ33" s="18">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>1.5404255319148938</v>
       </c>
       <c r="BR33" s="18">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0.67906976744186054</v>
       </c>
       <c r="BS33" s="18">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0.45494505494505505</v>
       </c>
       <c r="BU33" s="18">
-        <f t="shared" ref="BU33:BX33" si="234">BU31/BU11</f>
+        <f t="shared" ref="BU33:BX33" si="235">BU31/BU11</f>
         <v>0.90055248618784522</v>
       </c>
       <c r="BV33" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>1.0058139534883721</v>
       </c>
       <c r="BW33" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>1.2769230769230768</v>
       </c>
       <c r="BX33" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>0.50256410256410255</v>
       </c>
       <c r="BY33" s="18">
@@ -36170,19 +36767,19 @@
         <v>0.15256257449344457</v>
       </c>
       <c r="BZ33" s="18">
-        <f t="shared" ref="BZ33:CC33" si="235">BZ31/BZ11</f>
+        <f t="shared" ref="BZ33:CC33" si="236">BZ31/BZ11</f>
         <v>0.20227560050568902</v>
       </c>
       <c r="CA33" s="18">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.19483315392895587</v>
       </c>
       <c r="CB33" s="18">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.51127819548872178</v>
       </c>
       <c r="CC33" s="18">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.40468227424749165</v>
       </c>
       <c r="CD33" s="14">
@@ -36190,55 +36787,55 @@
         <v>0.98584905660377353</v>
       </c>
       <c r="CE33" s="18">
-        <f t="shared" ref="CE33:CH33" si="236">CE31/CE11</f>
+        <f t="shared" ref="CE33:CH33" si="237">CE31/CE11</f>
         <v>1.2865497076023391</v>
       </c>
       <c r="CF33" s="18">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>0.86732186732186722</v>
       </c>
       <c r="CG33" s="18">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>1.4874999999999998</v>
       </c>
       <c r="CH33" s="18">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>0.84499999999999997</v>
       </c>
       <c r="CI33" s="18">
-        <f t="shared" ref="CI33:CM33" si="237">CI31/CI11</f>
+        <f t="shared" ref="CI33:CM33" si="238">CI31/CI11</f>
         <v>0.7339312406576981</v>
       </c>
       <c r="CJ33" s="18">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>0.87925170068027214</v>
       </c>
       <c r="CK33" s="18">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>1.1062355658198613</v>
       </c>
       <c r="CL33" s="18">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="CM33" s="18">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>1.0889570552147239</v>
       </c>
       <c r="CO33" s="18">
-        <f t="shared" ref="CO33:CR33" si="238">CO31/CO11</f>
+        <f t="shared" ref="CO33:CR33" si="239">CO31/CO11</f>
         <v>5.4051724137931041</v>
       </c>
       <c r="CP33" s="18">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>4.1024096385542173</v>
       </c>
       <c r="CQ33" s="18">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>5.0552147239263805</v>
       </c>
       <c r="CR33" s="18">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>2.3208333333333337</v>
       </c>
     </row>
@@ -36250,76 +36847,77 @@
         <v>0</v>
       </c>
       <c r="C34" s="18">
-        <f t="shared" ref="C34:F34" si="239">C12/C11</f>
+        <f t="shared" ref="C34:F34" si="240">C12/C11</f>
         <v>0.41666666666666674</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.46464646464646464</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.52173913043478271</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.80645161290322576</v>
       </c>
-      <c r="G34" s="18">
-        <v>0</v>
+      <c r="G34" s="14">
+        <f>Painel!G34</f>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" ref="H34:K34" si="240">H12/H11</f>
+        <f t="shared" ref="H34:K34" si="241">H12/H11</f>
         <v>0.64935064935064923</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.52917505030181078</v>
       </c>
       <c r="J34" s="18">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>1.5267175572519085</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.5512367491166078</v>
       </c>
       <c r="L34" s="18">
         <v>0</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" ref="M34:P34" si="241">M12/M11</f>
+        <f t="shared" ref="M34:P34" si="242">M12/M11</f>
         <v>0.51002865329512892</v>
       </c>
       <c r="N34" s="18">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>0.56640625</v>
       </c>
       <c r="O34" s="18">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>0.27659574468085102</v>
       </c>
       <c r="P34" s="18">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>0.36411609498680741</v>
       </c>
       <c r="Q34" s="18">
         <v>0</v>
       </c>
       <c r="R34" s="18">
-        <f t="shared" ref="R34:U34" si="242">R12/R11</f>
+        <f t="shared" ref="R34:U34" si="243">R12/R11</f>
         <v>0.72</v>
       </c>
       <c r="S34" s="18">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0.54639175257731964</v>
       </c>
       <c r="T34" s="18">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="U34" s="18">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0.53448275862068961</v>
       </c>
       <c r="V34" s="18">
@@ -36341,77 +36939,77 @@
         <v>0</v>
       </c>
       <c r="AB34" s="18">
-        <f t="shared" ref="AB34:AE34" si="243">AB12/AB11</f>
+        <f t="shared" ref="AB34:AE34" si="244">AB12/AB11</f>
         <v>0.42024539877300615</v>
       </c>
       <c r="AC34" s="18">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="AD34" s="18">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0.44235294117647062</v>
       </c>
       <c r="AE34" s="18">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0.60540540540540544</v>
       </c>
       <c r="AF34" s="18">
         <v>0</v>
       </c>
       <c r="AG34" s="18">
-        <f t="shared" ref="AG34:AJ34" si="244">AG12/AG11</f>
+        <f t="shared" ref="AG34:AJ34" si="245">AG12/AG11</f>
         <v>0.46794871794871795</v>
       </c>
       <c r="AH34" s="18">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>0.61249999999999993</v>
       </c>
       <c r="AI34" s="18">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>0.49</v>
       </c>
       <c r="AJ34" s="18">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>0.97368421052631582</v>
       </c>
       <c r="AK34" s="18">
         <v>0</v>
       </c>
       <c r="AL34" s="18">
-        <f t="shared" ref="AL34:AP34" si="245">AL12/AL11</f>
+        <f t="shared" ref="AL34:AP34" si="246">AL12/AL11</f>
         <v>0.3904109589041096</v>
       </c>
       <c r="AM34" s="18">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>0.5</v>
       </c>
       <c r="AN34" s="18">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>0.83050847457627119</v>
       </c>
       <c r="AO34" s="18">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>0.7508896797153024</v>
       </c>
       <c r="AP34" s="18">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>0.62658227848101267</v>
       </c>
       <c r="AQ34" s="18">
-        <f t="shared" ref="AQ34:AT34" si="246">AQ12/AQ11</f>
+        <f t="shared" ref="AQ34:AT34" si="247">AQ12/AQ11</f>
         <v>0.67741935483870963</v>
       </c>
       <c r="AR34" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>1.03125</v>
       </c>
       <c r="AS34" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AT34" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AU34" s="18">
@@ -36419,57 +37017,57 @@
         <v>0.3518237082066869</v>
       </c>
       <c r="AV34" s="18">
-        <f t="shared" ref="AV34:AY34" si="247">AV12/AV11</f>
+        <f t="shared" ref="AV34:AY34" si="248">AV12/AV11</f>
         <v>0.39478417266187049</v>
       </c>
       <c r="AW34" s="18">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>0.34536585365853656</v>
       </c>
       <c r="AX34" s="18">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>0.51552795031055898</v>
       </c>
       <c r="AY34" s="18">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>0.35667396061269147</v>
       </c>
       <c r="AZ34" s="18">
         <v>0</v>
       </c>
       <c r="BA34" s="18">
-        <f t="shared" ref="BA34:BD34" si="248">BA12/BA11</f>
+        <f t="shared" ref="BA34:BD34" si="249">BA12/BA11</f>
         <v>0.39513677811550146</v>
       </c>
       <c r="BB34" s="18">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>0.37579617834394907</v>
       </c>
       <c r="BC34" s="18">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>0.4043715846994535</v>
       </c>
       <c r="BD34" s="18">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>0.24400000000000002</v>
       </c>
       <c r="BE34" s="18">
         <v>0</v>
       </c>
       <c r="BF34" s="18">
-        <f t="shared" ref="BF34:BI34" si="249">BF12/BF11</f>
+        <f t="shared" ref="BF34:BI34" si="250">BF12/BF11</f>
         <v>0.34979423868312759</v>
       </c>
       <c r="BG34" s="18">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.48407643312101911</v>
       </c>
       <c r="BH34" s="18">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="BI34" s="18">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.6330275229357798</v>
       </c>
       <c r="BJ34" s="18">
@@ -36477,57 +37075,57 @@
         <v>0.54481132075471694</v>
       </c>
       <c r="BK34" s="18">
-        <f t="shared" ref="BK34:BN34" si="250">BK12/BK11</f>
+        <f t="shared" ref="BK34:BN34" si="251">BK12/BK11</f>
         <v>0.40277777777777779</v>
       </c>
       <c r="BL34" s="18">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>0.28907922912205569</v>
       </c>
       <c r="BM34" s="18">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>0.28571428571428575</v>
       </c>
       <c r="BN34" s="18">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>0.26715686274509803</v>
       </c>
       <c r="BO34" s="18">
         <v>0</v>
       </c>
       <c r="BP34" s="18">
-        <f t="shared" ref="BP34:BS34" si="251">BP12/BP11</f>
+        <f t="shared" ref="BP34:BS34" si="252">BP12/BP11</f>
         <v>0.34020618556701032</v>
       </c>
       <c r="BQ34" s="18">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.51063829787234039</v>
       </c>
       <c r="BR34" s="18">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.54651162790697683</v>
       </c>
       <c r="BS34" s="18">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.45054945054945056</v>
       </c>
       <c r="BT34" s="18">
         <v>0</v>
       </c>
       <c r="BU34" s="18">
-        <f t="shared" ref="BU34:BX34" si="252">BU12/BU11</f>
+        <f t="shared" ref="BU34:BX34" si="253">BU12/BU11</f>
         <v>0.54696132596685088</v>
       </c>
       <c r="BV34" s="18">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.52616279069767447</v>
       </c>
       <c r="BW34" s="18">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.70769230769230762</v>
       </c>
       <c r="BX34" s="18">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.48717948717948717</v>
       </c>
       <c r="BY34" s="18">
@@ -36535,19 +37133,19 @@
         <v>0.48271752085816449</v>
       </c>
       <c r="BZ34" s="18">
-        <f t="shared" ref="BZ34:CC34" si="253">BZ12/BZ11</f>
+        <f t="shared" ref="BZ34:CC34" si="254">BZ12/BZ11</f>
         <v>0.46144121365360302</v>
       </c>
       <c r="CA34" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>0.38213132400430572</v>
       </c>
       <c r="CB34" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>0.38721804511278196</v>
       </c>
       <c r="CC34" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>0.41638795986622068</v>
       </c>
       <c r="CD34" s="14">
@@ -36555,58 +37153,58 @@
         <v>0.40448113207547171</v>
       </c>
       <c r="CE34" s="18">
-        <f t="shared" ref="CE34:CH34" si="254">CE12/CE11</f>
+        <f t="shared" ref="CE34:CH34" si="255">CE12/CE11</f>
         <v>0.39766081871345033</v>
       </c>
       <c r="CF34" s="18">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.32678132678132676</v>
       </c>
       <c r="CG34" s="18">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.5708333333333333</v>
       </c>
       <c r="CH34" s="18">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="CI34" s="18">
-        <f t="shared" ref="CI34:CM34" si="255">CI12/CI11</f>
+        <f t="shared" ref="CI34:CM34" si="256">CI12/CI11</f>
         <v>0.39760837070254113</v>
       </c>
       <c r="CJ34" s="18">
-        <f t="shared" si="255"/>
+        <f t="shared" si="256"/>
         <v>0.33673469387755101</v>
       </c>
       <c r="CK34" s="18">
-        <f t="shared" si="255"/>
+        <f t="shared" si="256"/>
         <v>0.50577367205542723</v>
       </c>
       <c r="CL34" s="18">
-        <f t="shared" si="255"/>
+        <f t="shared" si="256"/>
         <v>0.51702786377708976</v>
       </c>
       <c r="CM34" s="18">
-        <f t="shared" si="255"/>
+        <f t="shared" si="256"/>
         <v>0.50613496932515334</v>
       </c>
       <c r="CN34" s="18">
         <v>0</v>
       </c>
       <c r="CO34" s="18">
-        <f t="shared" ref="CO34:CR34" si="256">CO12/CO11</f>
+        <f t="shared" ref="CO34:CR34" si="257">CO12/CO11</f>
         <v>0.57758620689655171</v>
       </c>
       <c r="CP34" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.391566265060241</v>
       </c>
       <c r="CQ34" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.47239263803680986</v>
       </c>
       <c r="CR34" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.37083333333333335</v>
       </c>
     </row>
@@ -36618,76 +37216,77 @@
         <v>0</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" ref="C35:F35" si="257">(C12+C15)/C11</f>
+        <f t="shared" ref="C35:F35" si="258">(C12+C15)/C11</f>
         <v>0.52777777777777779</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.46464646464646464</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.52826086956521745</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.83225806451612905</v>
       </c>
-      <c r="G35" s="18">
-        <v>0</v>
+      <c r="G35" s="14">
+        <f>Painel!G35</f>
+        <v>1.0833333333333333</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" ref="H35:K35" si="258">(H12+H15)/H11</f>
+        <f t="shared" ref="H35:K35" si="259">(H12+H15)/H11</f>
         <v>1.0337662337662337</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.75452716297786715</v>
       </c>
       <c r="J35" s="18">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>3.4503816793893134</v>
       </c>
       <c r="K35" s="18">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.73498233215547704</v>
       </c>
       <c r="L35" s="18">
         <v>0</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" ref="M35:P35" si="259">(M12+M15)/M11</f>
+        <f t="shared" ref="M35:P35" si="260">(M12+M15)/M11</f>
         <v>0.7822349570200573</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.77734375</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.39209726443768994</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.44327176781002636</v>
       </c>
       <c r="Q35" s="18">
         <v>0</v>
       </c>
       <c r="R35" s="18">
-        <f t="shared" ref="R35:U35" si="260">(R12+R15)/R11</f>
+        <f t="shared" ref="R35:U35" si="261">(R12+R15)/R11</f>
         <v>0.72</v>
       </c>
       <c r="S35" s="18">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.54639175257731964</v>
       </c>
       <c r="T35" s="18">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.84166666666666656</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="V35" s="18">
@@ -36709,77 +37308,77 @@
         <v>0</v>
       </c>
       <c r="AB35" s="18">
-        <f t="shared" ref="AB35:AE35" si="261">(AB12+AB15)/AB11</f>
+        <f t="shared" ref="AB35:AE35" si="262">(AB12+AB15)/AB11</f>
         <v>0.48466257668711654</v>
       </c>
       <c r="AC35" s="18">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.4665178571428571</v>
       </c>
       <c r="AD35" s="18">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.59058823529411764</v>
       </c>
       <c r="AE35" s="18">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.6351351351351352</v>
       </c>
       <c r="AF35" s="18">
         <v>0</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" ref="AG35:AJ35" si="262">(AG12+AG15)/AG11</f>
+        <f t="shared" ref="AG35:AJ35" si="263">(AG12+AG15)/AG11</f>
         <v>0.51282051282051289</v>
       </c>
       <c r="AH35" s="18">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.64</v>
       </c>
       <c r="AI35" s="18">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.505</v>
       </c>
       <c r="AJ35" s="18">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.99736842105263157</v>
       </c>
       <c r="AK35" s="18">
         <v>0</v>
       </c>
       <c r="AL35" s="18">
-        <f t="shared" ref="AL35:AP35" si="263">(AL12+AL15)/AL11</f>
+        <f t="shared" ref="AL35:AP35" si="264">(AL12+AL15)/AL11</f>
         <v>0.3904109589041096</v>
       </c>
       <c r="AM35" s="18">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0.5083333333333333</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0.98305084745762705</v>
       </c>
       <c r="AO35" s="18">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0.95017793594306033</v>
       </c>
       <c r="AP35" s="18">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0.62658227848101267</v>
       </c>
       <c r="AQ35" s="18">
-        <f t="shared" ref="AQ35:AT35" si="264">(AQ12+AQ15)/AQ11</f>
+        <f t="shared" ref="AQ35:AT35" si="265">(AQ12+AQ15)/AQ11</f>
         <v>0.67741935483870963</v>
       </c>
       <c r="AR35" s="18">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>1.03125</v>
       </c>
       <c r="AS35" s="18">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AT35" s="18">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AU35" s="18">
@@ -36787,57 +37386,57 @@
         <v>0.55927051671732519</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" ref="AV35:AY35" si="265">(AV12+AV15)/AV11</f>
+        <f t="shared" ref="AV35:AY35" si="266">(AV12+AV15)/AV11</f>
         <v>0.60251798561151082</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>0.46243902439024392</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>0.79192546583850942</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>0.63019693654266962</v>
       </c>
       <c r="AZ35" s="18">
         <v>0</v>
       </c>
       <c r="BA35" s="18">
-        <f t="shared" ref="BA35:BD35" si="266">(BA12+BA15)/BA11</f>
+        <f t="shared" ref="BA35:BD35" si="267">(BA12+BA15)/BA11</f>
         <v>0.47720364741641336</v>
       </c>
       <c r="BB35" s="18">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0.41719745222929944</v>
       </c>
       <c r="BC35" s="18">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0.45027322404371578</v>
       </c>
       <c r="BD35" s="18">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0.28800000000000003</v>
       </c>
       <c r="BE35" s="18">
         <v>0</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" ref="BF35:BI35" si="267">(BF12+BF15)/BF11</f>
+        <f t="shared" ref="BF35:BI35" si="268">(BF12+BF15)/BF11</f>
         <v>0.53909465020576142</v>
       </c>
       <c r="BG35" s="18">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0.59872611464968151</v>
       </c>
       <c r="BH35" s="18">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0.66233766233766223</v>
       </c>
       <c r="BI35" s="18">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0.68440366972477062</v>
       </c>
       <c r="BJ35" s="18">
@@ -36845,57 +37444,57 @@
         <v>0.60141509433962259</v>
       </c>
       <c r="BK35" s="18">
-        <f t="shared" ref="BK35:BN35" si="268">(BK12+BK15)/BK11</f>
+        <f t="shared" ref="BK35:BN35" si="269">(BK12+BK15)/BK11</f>
         <v>0.63194444444444442</v>
       </c>
       <c r="BL35" s="18">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.42398286937901497</v>
       </c>
       <c r="BM35" s="18">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.41038961038961042</v>
       </c>
       <c r="BN35" s="18">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.38725490196078427</v>
       </c>
       <c r="BO35" s="18">
         <v>0</v>
       </c>
       <c r="BP35" s="18">
-        <f t="shared" ref="BP35:BS35" si="269">(BP12+BP15)/BP11</f>
+        <f t="shared" ref="BP35:BS35" si="270">(BP12+BP15)/BP11</f>
         <v>0.3587628865979382</v>
       </c>
       <c r="BQ35" s="18">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>0.51063829787234039</v>
       </c>
       <c r="BR35" s="18">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>0.62093023255813962</v>
       </c>
       <c r="BS35" s="18">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>0.51098901098901106</v>
       </c>
       <c r="BT35" s="18">
         <v>0</v>
       </c>
       <c r="BU35" s="18">
-        <f t="shared" ref="BU35:BX35" si="270">(BU12+BU15)/BU11</f>
+        <f t="shared" ref="BU35:BX35" si="271">(BU12+BU15)/BU11</f>
         <v>0.79005524861878451</v>
       </c>
       <c r="BV35" s="18">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>0.6191860465116279</v>
       </c>
       <c r="BW35" s="18">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="BX35" s="18">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>0.62051282051282053</v>
       </c>
       <c r="BY35" s="18">
@@ -36903,19 +37502,19 @@
         <v>0.66150178784266989</v>
       </c>
       <c r="BZ35" s="18">
-        <f t="shared" ref="BZ35:CC35" si="271">(BZ12+BZ15)/BZ11</f>
+        <f t="shared" ref="BZ35:CC35" si="272">(BZ12+BZ15)/BZ11</f>
         <v>0.59418457648546141</v>
       </c>
       <c r="CA35" s="18">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>0.46932185145317545</v>
       </c>
       <c r="CB35" s="18">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>0.61654135338345861</v>
       </c>
       <c r="CC35" s="18">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>0.59866220735785947</v>
       </c>
       <c r="CD35" s="14">
@@ -36923,58 +37522,58 @@
         <v>0.63561320754716977</v>
       </c>
       <c r="CE35" s="18">
-        <f t="shared" ref="CE35:CH35" si="272">(CE12+CE15)/CE11</f>
+        <f t="shared" ref="CE35:CH35" si="273">(CE12+CE15)/CE11</f>
         <v>0.57894736842105265</v>
       </c>
       <c r="CF35" s="18">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.37100737100737102</v>
       </c>
       <c r="CG35" s="18">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.7416666666666667</v>
       </c>
       <c r="CH35" s="18">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.54749999999999999</v>
       </c>
       <c r="CI35" s="18">
-        <f t="shared" ref="CI35:CM35" si="273">(CI12+CI15)/CI11</f>
+        <f t="shared" ref="CI35:CM35" si="274">(CI12+CI15)/CI11</f>
         <v>0.51270553064275037</v>
       </c>
       <c r="CJ35" s="18">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>0.46598639455782315</v>
       </c>
       <c r="CK35" s="18">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>0.69976905311778281</v>
       </c>
       <c r="CL35" s="18">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>0.84210526315789469</v>
       </c>
       <c r="CM35" s="18">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>0.9478527607361964</v>
       </c>
       <c r="CN35" s="18">
         <v>0</v>
       </c>
       <c r="CO35" s="18">
-        <f t="shared" ref="CO35:CR35" si="274">(CO12+CO15)/CO11</f>
+        <f t="shared" ref="CO35:CR35" si="275">(CO12+CO15)/CO11</f>
         <v>0.80172413793103448</v>
       </c>
       <c r="CP35" s="18">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>0.40602409638554221</v>
       </c>
       <c r="CQ35" s="18">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>0.48159509202453993</v>
       </c>
       <c r="CR35" s="18">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>0.38500000000000001</v>
       </c>
     </row>
@@ -37039,19 +37638,19 @@
         <v>2.4605263157894739</v>
       </c>
       <c r="BZ38" s="14">
-        <f t="shared" ref="BZ38:CC38" si="275">BZ10/BZ37</f>
+        <f t="shared" ref="BZ38:CC38" si="276">BZ10/BZ37</f>
         <v>2.71875</v>
       </c>
       <c r="CA38" s="14">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.6226415094339623</v>
       </c>
       <c r="CB38" s="14">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.8653846153846154</v>
       </c>
       <c r="CC38" s="14">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.0377358490566038</v>
       </c>
       <c r="CD38" s="14"/>
@@ -37077,10 +37676,10 @@
   <dimension ref="A1:BU39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Y35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA33" sqref="AA33"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37421,7 +38020,10 @@
         <f>Painel!F3*IPC!J$3</f>
         <v>13.101784745243378</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14">
+        <f>Painel!G3</f>
+        <v>98</v>
+      </c>
       <c r="F3" s="14">
         <f>Painel!H3*IPC!G$3</f>
         <v>159.88250000000002</v>
@@ -37430,7 +38032,10 @@
         <f>Painel!K3*IPC!J$3</f>
         <v>152.43422636292777</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="14">
+        <f>Painel!L3</f>
+        <v>117</v>
+      </c>
       <c r="I3" s="14">
         <f>Painel!M3*IPC!G$3</f>
         <v>133.0635</v>
@@ -37618,7 +38223,10 @@
         <f>Painel!F4*IPC!J$3</f>
         <v>7.18078586998916</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14">
+        <f>Painel!G4</f>
+        <v>47</v>
+      </c>
       <c r="F4" s="14">
         <f>Painel!H4*IPC!G$3</f>
         <v>71.173500000000004</v>
@@ -37627,7 +38235,10 @@
         <f>Painel!K4*IPC!J$3</f>
         <v>27.715313884168687</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14">
+        <f>Painel!L4</f>
+        <v>39</v>
+      </c>
       <c r="I4" s="14">
         <f>Painel!M4*IPC!G$3</f>
         <v>72.205000000000013</v>
@@ -37818,7 +38429,10 @@
         <f>Painel!F5*IPC!J$3</f>
         <v>0.37793609842048209</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14">
+        <f>Painel!G5</f>
+        <v>47</v>
+      </c>
       <c r="F5" s="14">
         <f>Painel!H5*IPC!G$3</f>
         <v>40.228500000000004</v>
@@ -37827,7 +38441,10 @@
         <f>Painel!K5*IPC!J$3</f>
         <v>21.416378910493986</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14">
+        <f>Painel!L5</f>
+        <v>33</v>
+      </c>
       <c r="I5" s="14">
         <f>Painel!M5*IPC!G$3</f>
         <v>24.756</v>
@@ -38012,7 +38629,10 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14">
+        <f>Painel!G6</f>
+        <v>27</v>
+      </c>
       <c r="F6" s="14">
         <f>Painel!H6*IPC!G$3</f>
         <v>29.913500000000003</v>
@@ -38021,7 +38641,10 @@
         <f>Painel!K6*IPC!J$3</f>
         <v>12.597869947349402</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14">
+        <f>Painel!L6</f>
+        <v>45</v>
+      </c>
       <c r="I6" s="14">
         <f>Painel!M6*IPC!G$3</f>
         <v>39.197000000000003</v>
@@ -38191,9 +38814,18 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="14">
+        <f>Painel!L7</f>
+        <v>37</v>
+      </c>
+      <c r="I7" s="14">
+        <f>Painel!M7*IPC!G$3</f>
+        <v>83.551500000000004</v>
+      </c>
+      <c r="J7" s="14">
+        <f>Painel!P7*IPC!J$3</f>
+        <v>107.08189455246992</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -38334,7 +38966,10 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14">
+        <f>Painel!L8</f>
+        <v>27.4</v>
+      </c>
       <c r="I8" s="14">
         <f>Painel!M8*IPC!G$3</f>
         <v>80.457000000000008</v>
@@ -38477,7 +39112,10 @@
         <f t="shared" ref="D9" si="0">SUM(D3:D8)-D7</f>
         <v>20.660506713653017</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14">
+        <f>Painel!G9</f>
+        <v>219</v>
+      </c>
       <c r="F9" s="14">
         <f>SUM(F3:F8)-F7</f>
         <v>301.19800000000004</v>
@@ -38486,7 +39124,10 @@
         <f t="shared" ref="G9" si="1">SUM(G3:G8)-G7</f>
         <v>214.16378910493987</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14">
+        <f>Painel!L9</f>
+        <v>224.4</v>
+      </c>
       <c r="I9" s="14">
         <f>SUM(I3:I8)-I7</f>
         <v>349.67849999999999</v>
@@ -38677,7 +39318,10 @@
         <f>Painel!F10*IPC!J$3</f>
         <v>5.2911053778867494</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14">
+        <f>Painel!G10</f>
+        <v>111</v>
+      </c>
       <c r="F10" s="14">
         <f>Painel!H10*IPC!G$3</f>
         <v>90.772000000000006</v>
@@ -38686,7 +39330,10 @@
         <f>Painel!K10*IPC!J$3</f>
         <v>133.53742144190366</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14">
+        <f>Painel!L10</f>
+        <v>241</v>
+      </c>
       <c r="I10" s="14">
         <f>Painel!M10*IPC!G$3</f>
         <v>104.18150000000001</v>
@@ -38877,7 +39524,10 @@
         <f>Painel!F11*IPC!J$3</f>
         <v>39.053396836783151</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14">
+        <f>Painel!G11</f>
+        <v>336</v>
+      </c>
       <c r="F11" s="14">
         <f>Painel!H11*IPC!G$3</f>
         <v>397.12750000000005</v>
@@ -38886,7 +39536,10 @@
         <f>Painel!K11*IPC!J$3</f>
         <v>356.51971950998808</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14">
+        <f>Painel!L11</f>
+        <v>513.4</v>
+      </c>
       <c r="I11" s="14">
         <f>Painel!M11*IPC!G$3</f>
         <v>359.99350000000004</v>
@@ -39077,7 +39730,10 @@
         <f>Painel!F12*IPC!J$3</f>
         <v>31.494674868373508</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14">
+        <f>Painel!G12</f>
+        <v>216</v>
+      </c>
       <c r="F12" s="14">
         <f>Painel!H12*IPC!G$3</f>
         <v>257.875</v>
@@ -39086,7 +39742,10 @@
         <f>Painel!K12*IPC!J$3</f>
         <v>196.52677117865068</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="14">
+        <f>Painel!L12</f>
+        <v>133</v>
+      </c>
       <c r="I12" s="14">
         <f>Painel!M12*IPC!G$3</f>
         <v>183.60700000000003</v>
@@ -39277,7 +39936,10 @@
         <f>Painel!F13*IPC!J$3</f>
         <v>-21.416378910493986</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14">
+        <f>Painel!G13</f>
+        <v>309</v>
+      </c>
       <c r="F13" s="14">
         <f>Painel!H13*IPC!G$3</f>
         <v>73.236500000000007</v>
@@ -39286,7 +39948,10 @@
         <f>Painel!K13*IPC!J$3</f>
         <v>-59.209988752542195</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14">
+        <f>Painel!L13</f>
+        <v>383</v>
+      </c>
       <c r="I13" s="14">
         <f>Painel!M13*IPC!G$3</f>
         <v>49.512</v>
@@ -39477,7 +40142,10 @@
         <f>Painel!F14*IPC!J$3</f>
         <v>-11.338082952614462</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14">
+        <f>Painel!G14</f>
+        <v>-212</v>
+      </c>
       <c r="F14" s="14">
         <f>Painel!H14*IPC!G$3</f>
         <v>40.228500000000004</v>
@@ -39486,10 +40154,13 @@
         <f>Painel!K14*IPC!J$3</f>
         <v>157.47337434186753</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14">
+        <f>Painel!L14</f>
+        <v>498</v>
+      </c>
       <c r="I14" s="14">
         <f>Painel!M14*IPC!G$3</f>
-        <v>73.236500000000007</v>
+        <v>89.740500000000011</v>
       </c>
       <c r="J14" s="14">
         <f>Painel!P14*IPC!J$3</f>
@@ -39674,7 +40345,10 @@
         <f>Painel!F15*IPC!J$3</f>
         <v>1.0078295957879522</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14">
+        <f>Painel!G15</f>
+        <v>148</v>
+      </c>
       <c r="F15" s="14">
         <f>Painel!H15*IPC!G$3</f>
         <v>152.66200000000001</v>
@@ -39683,7 +40357,10 @@
         <f>Painel!K15*IPC!J$3</f>
         <v>65.508923726216892</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14">
+        <f>Painel!L15</f>
+        <v>39</v>
+      </c>
       <c r="I15" s="14">
         <f>Painel!M15*IPC!G$3</f>
         <v>97.992500000000007</v>
@@ -39872,7 +40549,10 @@
         <f>Painel!F16*IPC!J$3</f>
         <v>1.3857656942084344</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14">
+        <f>Painel!G16</f>
+        <v>24</v>
+      </c>
       <c r="F16" s="14">
         <f>Painel!H16*IPC!G$3</f>
         <v>18.567</v>
@@ -39881,7 +40561,10 @@
         <f>Painel!K16*IPC!J$3</f>
         <v>17.637017926289165</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14">
+        <f>Painel!L16</f>
+        <v>14</v>
+      </c>
       <c r="I16" s="14">
         <f>Painel!M16*IPC!G$3</f>
         <v>14.441000000000001</v>
@@ -41430,7 +42113,7 @@
       </c>
       <c r="E24" s="14">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>35.368421052631582</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="16"/>
@@ -41442,7 +42125,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>155.57575757575756</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="16"/>
@@ -41658,18 +42341,24 @@
         <f t="shared" si="22"/>
         <v>3.8181818181818179</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="14">
+        <f t="shared" ref="E25:G25" si="23">E10/E16</f>
+        <v>4.625</v>
+      </c>
       <c r="F25" s="14">
-        <f t="shared" ref="F25:G25" si="23">F10/F16</f>
+        <f t="shared" si="23"/>
         <v>4.8888888888888893</v>
       </c>
       <c r="G25" s="14">
         <f t="shared" si="23"/>
         <v>7.5714285714285703</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="14">
+        <f t="shared" ref="H25:J25" si="24">H10/H16</f>
+        <v>17.214285714285715</v>
+      </c>
       <c r="I25" s="14">
-        <f t="shared" ref="I25:J25" si="24">I10/I16</f>
+        <f t="shared" si="24"/>
         <v>7.2142857142857153</v>
       </c>
       <c r="J25" s="14">
@@ -41848,10 +42537,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="14">
-        <v>0</v>
+        <f t="shared" ref="E26:G26" si="39">E10/E19</f>
+        <v>1.6818181818181819</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" ref="F26:G26" si="39">F10/F19</f>
+        <f t="shared" si="39"/>
         <v>1.5650344827586209</v>
       </c>
       <c r="G26" s="14">
@@ -42059,23 +42749,29 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="14">
+        <f t="shared" ref="E27:G27" si="57">E7/E12</f>
+        <v>0</v>
+      </c>
       <c r="F27" s="14">
-        <f t="shared" ref="F27:G27" si="57">F7/F12</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="14">
+        <f t="shared" ref="H27:J27" si="58">H7/H12</f>
+        <v>0.2781954887218045</v>
+      </c>
       <c r="I27" s="14">
-        <f t="shared" ref="I27:J27" si="58">I7/I12</f>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>0.45505617977528084</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.61594202898550721</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="14">
@@ -42675,14 +43371,14 @@
       <c r="D30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>107</v>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>107</v>
@@ -42860,7 +43556,10 @@
         <f>Painel!F31*IPC!J$3</f>
         <v>80.2484315646157</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="14">
+        <f>Painel!G31</f>
+        <v>1255</v>
+      </c>
       <c r="F31" s="14">
         <f>Painel!H31*IPC!G$3</f>
         <v>1198.6030000000001</v>
@@ -43035,14 +43734,17 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="20">
-        <f t="shared" ref="C32:D32" si="111">C31/C14</f>
+        <f t="shared" ref="C32:E32" si="111">C31/C14</f>
         <v>32.333333333333336</v>
       </c>
       <c r="D32" s="20">
         <f t="shared" si="111"/>
         <v>-7.0777777777777784</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="20">
+        <f t="shared" si="111"/>
+        <v>-5.9198113207547172</v>
+      </c>
       <c r="F32" s="20">
         <f t="shared" ref="F32:G32" si="112">F31/F14</f>
         <v>29.794871794871792</v>
@@ -43054,7 +43756,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="20">
         <f t="shared" ref="I32:J32" si="113">I31/I14</f>
-        <v>4.563380281690141</v>
+        <v>3.7241379310344827</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" si="113"/>
@@ -43224,12 +43926,16 @@
         <v>110</v>
       </c>
       <c r="C33" s="18">
-        <f t="shared" ref="C33:D33" si="130">C31/C11</f>
+        <f t="shared" ref="C33:E33" si="130">C31/C11</f>
         <v>0.67361111111111116</v>
       </c>
       <c r="D33" s="18">
         <f t="shared" si="130"/>
         <v>2.0548387096774192</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="130"/>
+        <v>3.7351190476190474</v>
       </c>
       <c r="F33" s="18">
         <f t="shared" ref="F33:G33" si="131">F31/F11</f>
@@ -43893,10 +44599,10 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44267,10 +44973,10 @@
   <dimension ref="A1:DG65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP10" sqref="AP10:AT10"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44785,6 +45491,9 @@
       <c r="F3">
         <v>22</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>843</v>
       </c>
@@ -44796,6 +45505,9 @@
       </c>
       <c r="K3">
         <v>312</v>
+      </c>
+      <c r="L3">
+        <v>231</v>
       </c>
       <c r="M3">
         <v>312</v>
@@ -45077,6 +45789,9 @@
       <c r="F4">
         <v>37</v>
       </c>
+      <c r="G4">
+        <v>323</v>
+      </c>
       <c r="H4">
         <v>147</v>
       </c>
@@ -45343,6 +46058,9 @@
       <c r="K5">
         <v>216</v>
       </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
       <c r="M5">
         <v>12</v>
       </c>
@@ -45682,6 +46400,9 @@
       <c r="K7">
         <v>12</v>
       </c>
+      <c r="L7">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="M7">
         <v>6</v>
       </c>
@@ -45933,8 +46654,7 @@
         <v>63.7</v>
       </c>
       <c r="G8">
-        <f>SUM(G3:G7)</f>
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8" si="1">SUM(H3:H7)</f>
@@ -45954,7 +46674,7 @@
       </c>
       <c r="L8">
         <f>SUM(L3:L7)</f>
-        <v>0</v>
+        <v>251.3</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8" si="5">SUM(M3:M7)</f>
@@ -46368,6 +47088,10 @@
         <f t="shared" si="78"/>
         <v>-9</v>
       </c>
+      <c r="G10">
+        <f>G11-G12+G13</f>
+        <v>-212</v>
+      </c>
       <c r="H10">
         <f>H11-H12+H13</f>
         <v>39</v>
@@ -46721,6 +47445,10 @@
       <c r="F11">
         <v>32</v>
       </c>
+      <c r="G11">
+        <f>336</f>
+        <v>336</v>
+      </c>
       <c r="H11">
         <v>398</v>
       </c>
@@ -47009,6 +47737,10 @@
       <c r="F12">
         <v>43</v>
       </c>
+      <c r="G12">
+        <f>627</f>
+        <v>627</v>
+      </c>
       <c r="H12">
         <f>250+198+25</f>
         <v>473</v>
@@ -47252,6 +47984,9 @@
       </c>
       <c r="F13">
         <v>2</v>
+      </c>
+      <c r="G13">
+        <v>79</v>
       </c>
       <c r="H13">
         <v>114</v>
@@ -47974,7 +48709,7 @@
       </c>
       <c r="G18">
         <f>Painel!G11</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="H18">
         <f>Painel!H11</f>
@@ -47994,7 +48729,7 @@
       </c>
       <c r="L18">
         <f>Painel!L11</f>
-        <v>0</v>
+        <v>513.4</v>
       </c>
       <c r="M18">
         <f>Painel!M11</f>
@@ -48462,7 +49197,7 @@
       </c>
       <c r="G20">
         <f>Painel!G12</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="H20">
         <f>Painel!H12</f>
@@ -48482,7 +49217,7 @@
       </c>
       <c r="L20">
         <f>Painel!L12</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="M20">
         <f>Painel!M12</f>
@@ -49805,7 +50540,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="B8:W8 AA8:AO8 AU8:DG8" formulaRange="1"/>
+    <ignoredError sqref="B8:F8 AA8:AO8 AU8:DG8 H8:W8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E33F3F4-F9B0-45B9-9ADB-B0FBF939E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64D7EB6-ADF2-42FE-B686-1A7FDC476B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17016" yWindow="60" windowWidth="6096" windowHeight="12312" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="1056" yWindow="168" windowWidth="8256" windowHeight="12312" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
     <author>tc={9272CECC-2A50-4DED-9042-72A014722638}</author>
     <author>tc={D525CC61-DCA0-43C1-827D-F90EBA27382C}</author>
     <author>tc={340BF997-7090-4304-A520-86FCB9DD2376}</author>
+    <author>tc={73EF60E8-5A12-4820-89DA-3C3CACEC04A5}</author>
   </authors>
   <commentList>
     <comment ref="N5" authorId="0" shapeId="0" xr:uid="{9272CECC-2A50-4DED-9042-72A014722638}">
@@ -82,6 +83,14 @@
     Assumi que "
 Despesas Federações, Imagens, Prémios, Mat. Esportivo e outras" são despesas de IMAGEM.
 </t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="3" shapeId="0" xr:uid="{73EF60E8-5A12-4820-89DA-3C3CACEC04A5}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Adição de Outras Receitas Operacionais</t>
       </text>
     </comment>
   </commentList>
@@ -1659,6 +1668,9 @@
 Despesas Federações, Imagens, Prémios, Mat. Esportivo e outras" são despesas de IMAGEM.
 </text>
   </threadedComment>
+  <threadedComment ref="D17" dT="2024-04-30T09:42:00.19" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{73EF60E8-5A12-4820-89DA-3C3CACEC04A5}">
+    <text>Adição de Outras Receitas Operacionais</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1872,13 +1884,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898DA42B-AAD5-4C2A-9EEC-41614388A592}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3027,8 +3039,7 @@
       <c r="C17" s="29">
         <v>255</v>
       </c>
-      <c r="D17" s="1">
-        <f>428-SUM(D12:D16)</f>
+      <c r="D17" s="29">
         <v>154</v>
       </c>
       <c r="E17" s="1">
@@ -3238,11 +3249,11 @@
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
+      <c r="C20" s="3">
+        <v>167</v>
       </c>
       <c r="D20" s="1">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3294,7 +3305,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>45.375</v>
+        <v>58.222222222222221</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3305,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D21" s="1">
         <v>383</v>
@@ -3361,7 +3372,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>113.3125</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3847,12 +3858,15 @@
         <v>184</v>
       </c>
     </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D29" s="1">
+        <f>D11-D18+D25+D20</f>
+        <v>383.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D17" formulaRange="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8328,10 +8342,10 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8981,7 +8995,7 @@
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="29">
         <v>212</v>
       </c>
       <c r="D16" s="1">

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64D7EB6-ADF2-42FE-B686-1A7FDC476B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F221E-7AB9-431C-92F8-7A50E252ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="168" windowWidth="8256" windowHeight="12312" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="13848" yWindow="36" windowWidth="9132" windowHeight="12312" firstSheet="2" activeTab="3" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -172,13 +172,15 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={95395A1A-1307-49E5-8022-EABBC7738952}</author>
     <author>tc={348C4438-9DB0-4365-A552-40024EBAD5CE}</author>
     <author>tc={2BFD802F-C27D-491C-B026-820657052F32}</author>
     <author>tc={4DED4C1A-18DC-4E39-972D-8DB5E1366E32}</author>
+    <author>tc={6598B5CA-3B15-4A4E-BE8E-C5874CFAAC97}</author>
     <author>tc={A6F387F9-E889-49BF-A167-6D684CBFA79D}</author>
   </authors>
   <commentList>
-    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{348C4438-9DB0-4365-A552-40024EBAD5CE}">
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{95395A1A-1307-49E5-8022-EABBC7738952}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -186,7 +188,15 @@
     Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</t>
       </text>
     </comment>
-    <comment ref="Q22" authorId="1" shapeId="0" xr:uid="{2BFD802F-C27D-491C-B026-820657052F32}">
+    <comment ref="Q12" authorId="1" shapeId="0" xr:uid="{348C4438-9DB0-4365-A552-40024EBAD5CE}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</t>
+      </text>
+    </comment>
+    <comment ref="Q22" authorId="2" shapeId="0" xr:uid="{2BFD802F-C27D-491C-B026-820657052F32}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -194,7 +204,7 @@
     Bancária + Entidades + Fiscais + Partes Relacionadas</t>
       </text>
     </comment>
-    <comment ref="N26" authorId="2" shapeId="0" xr:uid="{4DED4C1A-18DC-4E39-972D-8DB5E1366E32}">
+    <comment ref="N26" authorId="3" shapeId="0" xr:uid="{4DED4C1A-18DC-4E39-972D-8DB5E1366E32}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -202,7 +212,15 @@
     Não informa.</t>
       </text>
     </comment>
-    <comment ref="Q28" authorId="3" shapeId="0" xr:uid="{A6F387F9-E889-49BF-A167-6D684CBFA79D}">
+    <comment ref="P28" authorId="4" shapeId="0" xr:uid="{6598B5CA-3B15-4A4E-BE8E-C5874CFAAC97}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Exclui os excessos apontados em "Pessoal e encargos sociais"</t>
+      </text>
+    </comment>
+    <comment ref="Q28" authorId="5" shapeId="0" xr:uid="{A6F387F9-E889-49BF-A167-6D684CBFA79D}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -683,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="155">
   <si>
     <t>Publicidade e patrocínio</t>
   </si>
@@ -1135,9 +1153,6 @@
     <t>Venda de Direitos - Liga Forte</t>
   </si>
   <si>
-    <t>Outras Despesas Operacionais</t>
-  </si>
-  <si>
     <t>Ajuste - LFF</t>
   </si>
   <si>
@@ -1148,6 +1163,9 @@
   </si>
   <si>
     <t>Ajuste 2</t>
+  </si>
+  <si>
+    <t>Outras Rec/Desp Operacionais</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1178,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,6 +1258,12 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1280,7 +1304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1336,6 +1360,7 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,6 +1727,9 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P12" dT="2024-04-06T11:10:04.91" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{95395A1A-1307-49E5-8022-EABBC7738952}">
+    <text>Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</text>
+  </threadedComment>
   <threadedComment ref="Q12" dT="2024-04-06T11:10:04.91" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{348C4438-9DB0-4365-A552-40024EBAD5CE}">
     <text>Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</text>
   </threadedComment>
@@ -1710,6 +1738,9 @@
   </threadedComment>
   <threadedComment ref="N26" dT="2024-04-20T18:07:29.87" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{4DED4C1A-18DC-4E39-972D-8DB5E1366E32}">
     <text>Não informa.</text>
+  </threadedComment>
+  <threadedComment ref="P28" dT="2024-04-20T18:09:11.84" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{6598B5CA-3B15-4A4E-BE8E-C5874CFAAC97}">
+    <text>Exclui os excessos apontados em "Pessoal e encargos sociais"</text>
   </threadedComment>
   <threadedComment ref="Q28" dT="2024-04-20T18:09:11.84" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{A6F387F9-E889-49BF-A167-6D684CBFA79D}">
     <text>Exclui os excessos apontados em "Pessoal e encargos sociais"</text>
@@ -1884,18 +1915,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898DA42B-AAD5-4C2A-9EEC-41614388A592}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -2011,7 +2042,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -2045,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="1">
         <v>183</v>
@@ -2061,7 +2092,7 @@
       </c>
       <c r="U2" s="1">
         <f>SUM(B2:T2)/COUNTIF(B2:T2,"&gt;0")</f>
-        <v>147.22222222222223</v>
+        <v>128.36363636363637</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2079,7 +2110,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2113,7 +2144,8 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <f>56+9</f>
+        <v>65</v>
       </c>
       <c r="Q3" s="1">
         <v>121</v>
@@ -2129,7 +2161,7 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U26" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
-        <v>67.588888888888889</v>
+        <v>63.481818181818177</v>
       </c>
       <c r="V3"/>
     </row>
@@ -2147,7 +2179,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2181,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="1">
         <v>63</v>
@@ -2197,7 +2229,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>53.222222222222221</v>
+        <v>45.990909090909092</v>
       </c>
       <c r="V4"/>
     </row>
@@ -2215,7 +2247,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2249,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="1">
         <v>59</v>
@@ -2265,7 +2297,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>50.714285714285715</v>
+        <v>49</v>
       </c>
       <c r="V5"/>
     </row>
@@ -2317,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="1">
         <v>80</v>
@@ -2333,7 +2365,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="0"/>
-        <v>84.666666666666671</v>
+        <v>82.25</v>
       </c>
       <c r="V6"/>
     </row>
@@ -2352,7 +2384,8 @@
         <v>27.4</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <f>0.6+3.2</f>
+        <v>3.8000000000000003</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2387,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="1">
         <v>36</v>
@@ -2403,7 +2436,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="0"/>
-        <v>28.8</v>
+        <v>23.824999999999999</v>
       </c>
       <c r="V7"/>
     </row>
@@ -2423,7 +2456,8 @@
         <v>224.4</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <f>SUM(E2:E7)</f>
+        <v>60.699999999999996</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2460,7 +2494,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <f>SUM(P2:P7)</f>
+        <v>322</v>
       </c>
       <c r="Q8" s="1">
         <f>SUM(Q2:Q7)</f>
@@ -2479,7 +2514,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>354.9</v>
+        <v>325.16363636363639</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2531,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="1">
         <v>187</v>
@@ -2547,7 +2582,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="0"/>
-        <v>150.27500000000001</v>
+        <v>142.13333333333333</v>
       </c>
       <c r="V9"/>
     </row>
@@ -2564,8 +2599,8 @@
       <c r="D10" s="1">
         <v>48</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2599,8 +2634,8 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
+      <c r="P10" s="3">
+        <v>25</v>
       </c>
       <c r="Q10" s="1">
         <f>839-SUM(Q8,Q9)</f>
@@ -2619,7 +2654,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>48.755555555555553</v>
+        <v>42.345454545454544</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2637,7 +2672,7 @@
         <v>513.4</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2671,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="1">
         <v>839</v>
@@ -2687,7 +2722,7 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
-        <v>537.72222222222217</v>
+        <v>479.31818181818181</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2739,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="1">
         <f>343-24</f>
@@ -2757,7 +2792,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>174.45555555555555</v>
+        <v>173.41</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -2808,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="1">
         <v>86</v>
@@ -2824,7 +2859,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
-        <v>67.75</v>
+        <v>63.777777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -2875,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="1">
         <v>26</v>
@@ -2891,7 +2926,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>40.375</v>
+        <v>36.888888888888886</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2942,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="1">
         <v>86</v>
@@ -2958,7 +2993,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -3008,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="1">
         <v>106</v>
@@ -3026,7 +3061,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>70.275000000000006</v>
+        <v>67.911111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -3078,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="1">
         <f>Q18-SUM(Q12:Q16)</f>
@@ -3097,7 +3132,7 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>133.71250000000001</v>
+        <v>123.63333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3152,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="Q18" s="1">
         <v>777</v>
@@ -3170,7 +3205,7 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>518.88888888888891</v>
+        <v>504.3</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3222,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="1">
         <v>62</v>
@@ -3239,7 +3274,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="0"/>
-        <v>120.72222222222223</v>
+        <v>131.85</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -3288,8 +3323,8 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" s="1">
-        <v>0</v>
+      <c r="P20" s="3">
+        <v>61</v>
       </c>
       <c r="Q20" s="3">
         <v>53</v>
@@ -3305,7 +3340,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>58.222222222222221</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3356,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="1">
         <v>8.5</v>
@@ -3372,7 +3407,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>116.5</v>
+        <v>121.85</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3427,7 +3462,8 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <f>SUM(P12+P13)</f>
+        <v>196</v>
       </c>
       <c r="Q22" s="1">
         <f>SUM(Q12+Q13)</f>
@@ -3446,7 +3482,7 @@
       </c>
       <c r="U22" s="1">
         <f t="shared" si="0"/>
-        <v>237.01249999999999</v>
+        <v>232.45555555555555</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3499,7 +3535,8 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <f>P2+P6</f>
+        <v>150</v>
       </c>
       <c r="Q23" s="1">
         <f>Q2+Q6</f>
@@ -3516,7 +3553,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="0"/>
-        <v>164.875</v>
+        <v>163.22222222222223</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -3571,7 +3608,8 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <f>P12+P13</f>
+        <v>196</v>
       </c>
       <c r="Q24" s="1">
         <f>Q12+Q13</f>
@@ -3588,7 +3626,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="0"/>
-        <v>224.26249999999999</v>
+        <v>221.12222222222221</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3638,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
@@ -3654,12 +3692,12 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="0"/>
-        <v>123.56666666666666</v>
+        <v>144.17500000000001</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -3704,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
@@ -3720,12 +3758,12 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>216.33333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -3772,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -3788,12 +3826,12 @@
       </c>
       <c r="U27" s="1">
         <f t="shared" ref="U27:U28" si="1">SUM(B27:T27)/COUNTIF(B27:T27,"&gt;0")</f>
-        <v>141.46666666666667</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="36">
         <v>0</v>
@@ -3856,12 +3894,6 @@
       <c r="U28" s="1">
         <f t="shared" si="1"/>
         <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D29" s="1">
-        <f>D11-D18+D25+D20</f>
-        <v>383.4</v>
       </c>
     </row>
   </sheetData>
@@ -8339,18 +8371,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D36FD-E37A-42F5-9E50-DEC8A36C4DAA}">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="P18" activeCellId="1" sqref="P22:P23 P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -8477,6 +8509,10 @@
       <c r="N2" s="1">
         <v>193</v>
       </c>
+      <c r="P2" s="1">
+        <f>Resultado!P2</f>
+        <v>75</v>
+      </c>
       <c r="Q2" s="1">
         <v>183</v>
       </c>
@@ -8513,6 +8549,10 @@
       </c>
       <c r="N3" s="1">
         <v>74</v>
+      </c>
+      <c r="P3" s="1">
+        <f>Resultado!P3</f>
+        <v>65</v>
       </c>
       <c r="Q3" s="1">
         <v>121</v>
@@ -8552,6 +8592,10 @@
       <c r="N4" s="1">
         <v>2.4</v>
       </c>
+      <c r="P4" s="1">
+        <f>Resultado!P4</f>
+        <v>20</v>
+      </c>
       <c r="Q4" s="1">
         <v>63</v>
       </c>
@@ -8590,6 +8634,10 @@
       <c r="N5" s="1">
         <v>86</v>
       </c>
+      <c r="P5" s="1">
+        <f>Resultado!P5</f>
+        <v>73</v>
+      </c>
       <c r="Q5" s="1">
         <v>59</v>
       </c>
@@ -8628,6 +8676,10 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
+      <c r="P6" s="1">
+        <f>Resultado!P6</f>
+        <v>75</v>
+      </c>
       <c r="Q6" s="1">
         <v>80</v>
       </c>
@@ -8666,6 +8718,10 @@
       <c r="N7" s="1">
         <v>31</v>
       </c>
+      <c r="P7" s="1">
+        <f>Resultado!P7</f>
+        <v>14</v>
+      </c>
       <c r="Q7" s="1">
         <v>36</v>
       </c>
@@ -8703,6 +8759,10 @@
       <c r="N8" s="1">
         <v>50</v>
       </c>
+      <c r="P8" s="1">
+        <f>Resultado!P9</f>
+        <v>77</v>
+      </c>
       <c r="Q8" s="1">
         <v>187</v>
       </c>
@@ -8742,6 +8802,10 @@
       <c r="N9" s="2">
         <f>SUM(N2:N8)</f>
         <v>436.4</v>
+      </c>
+      <c r="P9" s="2">
+        <f>SUM(P2:P8)</f>
+        <v>399</v>
       </c>
       <c r="Q9" s="2">
         <f>SUM(Q2:Q8)</f>
@@ -8786,6 +8850,10 @@
       <c r="N10" s="2">
         <f>SUM(N11:N16)</f>
         <v>373</v>
+      </c>
+      <c r="P10" s="2">
+        <f>SUM(P11:P15)-P16</f>
+        <v>256</v>
       </c>
       <c r="Q10" s="2">
         <f>SUM(Q11:Q15)-Q16</f>
@@ -8831,6 +8899,10 @@
       <c r="N11" s="1">
         <v>28</v>
       </c>
+      <c r="P11" s="1">
+        <f>Resultado!P12</f>
+        <v>164</v>
+      </c>
       <c r="Q11" s="1">
         <f>343-24</f>
         <v>319</v>
@@ -8869,6 +8941,10 @@
       <c r="N12" s="1">
         <v>103</v>
       </c>
+      <c r="P12" s="1">
+        <f>Resultado!P13</f>
+        <v>32</v>
+      </c>
       <c r="Q12" s="1">
         <v>86</v>
       </c>
@@ -8906,6 +8982,10 @@
       <c r="N13" s="1">
         <v>23</v>
       </c>
+      <c r="P13" s="1">
+        <f>Resultado!P14</f>
+        <v>9</v>
+      </c>
       <c r="Q13" s="1">
         <v>26</v>
       </c>
@@ -8943,6 +9023,10 @@
       <c r="N14" s="1">
         <v>89</v>
       </c>
+      <c r="P14" s="1">
+        <f>Resultado!P15</f>
+        <v>76</v>
+      </c>
       <c r="Q14" s="1">
         <v>86</v>
       </c>
@@ -8980,6 +9064,10 @@
       <c r="N15" s="1">
         <v>110</v>
       </c>
+      <c r="P15" s="1">
+        <f>Resultado!P17</f>
+        <v>43</v>
+      </c>
       <c r="Q15" s="1">
         <v>5</v>
       </c>
@@ -9014,6 +9102,9 @@
       <c r="N16" s="1">
         <v>20</v>
       </c>
+      <c r="P16" s="3">
+        <v>68</v>
+      </c>
       <c r="Q16" s="3">
         <f>ABS(-30)</f>
         <v>30</v>
@@ -9046,6 +9137,9 @@
       </c>
       <c r="N17" s="2">
         <v>63</v>
+      </c>
+      <c r="P17" s="2">
+        <v>143</v>
       </c>
       <c r="Q17" s="2">
         <v>237</v>
@@ -9082,6 +9176,9 @@
       <c r="N18" s="4">
         <v>68</v>
       </c>
+      <c r="P18" s="4">
+        <v>110</v>
+      </c>
       <c r="Q18" s="4">
         <v>220</v>
       </c>
@@ -9118,6 +9215,9 @@
       <c r="N19" s="1">
         <v>40</v>
       </c>
+      <c r="P19" s="1">
+        <v>107</v>
+      </c>
       <c r="Q19" s="1">
         <v>176</v>
       </c>
@@ -9150,6 +9250,9 @@
       <c r="N20" s="1">
         <v>27</v>
       </c>
+      <c r="P20" s="1">
+        <v>3</v>
+      </c>
       <c r="Q20" s="1">
         <v>12</v>
       </c>
@@ -9183,6 +9286,9 @@
       <c r="N21" s="1">
         <v>1</v>
       </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
       <c r="Q21" s="1">
         <f>Q18-Q19-Q20</f>
         <v>32</v>
@@ -9216,6 +9322,9 @@
       </c>
       <c r="N22" s="4">
         <v>7</v>
+      </c>
+      <c r="P22" s="4">
+        <v>151</v>
       </c>
       <c r="Q22" s="4">
         <v>14</v>
@@ -9252,6 +9361,9 @@
       <c r="N23" s="4">
         <v>12</v>
       </c>
+      <c r="P23" s="4">
+        <v>78</v>
+      </c>
       <c r="Q23" s="2">
         <v>3</v>
       </c>
@@ -9287,6 +9399,9 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
+      <c r="P24" s="1">
+        <v>196</v>
+      </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
@@ -9299,7 +9414,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -9320,6 +9435,9 @@
       <c r="N25" s="1">
         <v>5</v>
       </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
       <c r="Q25" s="1">
         <v>0</v>
       </c>
@@ -9332,7 +9450,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -9353,6 +9471,9 @@
       <c r="N26" s="1">
         <v>0</v>
       </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
@@ -9362,6 +9483,9 @@
       <c r="S26" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P27" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9380,10 +9504,10 @@
   <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9538,7 +9662,8 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <f>Resultado!P2+Resultado!P6</f>
+        <v>150</v>
       </c>
       <c r="Q2" s="1">
         <f>Resultado!Q2+Resultado!Q6</f>
@@ -9557,7 +9682,7 @@
       </c>
       <c r="U2" s="1">
         <f>SUM(B2:T2)/COUNTIF(B2:T2,"&gt;0")</f>
-        <v>175.44444444444446</v>
+        <v>172.9</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -9624,7 +9749,8 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <f>Resultado!P3</f>
+        <v>65</v>
       </c>
       <c r="Q3" s="1">
         <f>Resultado!Q3</f>
@@ -9643,7 +9769,7 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U58" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
-        <v>67.588888888888889</v>
+        <v>67.33</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -9710,7 +9836,8 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <f>Resultado!P4</f>
+        <v>20</v>
       </c>
       <c r="Q4" s="1">
         <f>Resultado!Q4</f>
@@ -9729,7 +9856,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>53.222222222222221</v>
+        <v>49.9</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -9796,7 +9923,8 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <f>Resultado!P5</f>
+        <v>73</v>
       </c>
       <c r="Q5" s="1">
         <f>Resultado!Q5</f>
@@ -9815,7 +9943,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>50.714285714285715</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -9869,7 +9997,8 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <f>Resultado!P6</f>
+        <v>75</v>
       </c>
       <c r="Q6" s="1">
         <f>Resultado!Q6</f>
@@ -9888,7 +10017,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="0"/>
-        <v>84.666666666666671</v>
+        <v>82.25</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -9955,7 +10084,8 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <f>Resultado!P7</f>
+        <v>14</v>
       </c>
       <c r="Q7" s="1">
         <f>Resultado!Q7</f>
@@ -9974,7 +10104,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="0"/>
-        <v>28.8</v>
+        <v>26.685714285714287</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -10041,7 +10171,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <f>Resultado!P8</f>
+        <v>322</v>
       </c>
       <c r="Q8" s="1">
         <f>Resultado!Q8</f>
@@ -10060,7 +10191,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>350.34444444444443</v>
+        <v>347.51</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -10127,7 +10258,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <f>Resultado!P9</f>
+        <v>77</v>
       </c>
       <c r="Q9" s="1">
         <f>Resultado!Q9</f>
@@ -10146,7 +10278,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="0"/>
-        <v>150.4</v>
+        <v>142.24444444444444</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -10212,8 +10344,9 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
+      <c r="P10" s="3">
+        <f>Resultado!P10</f>
+        <v>25</v>
       </c>
       <c r="Q10" s="1">
         <f>Resultado!Q10</f>
@@ -10232,7 +10365,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>45.311111111111103</v>
+        <v>43.279999999999994</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -10299,7 +10432,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <f>Resultado!P11</f>
+        <v>374</v>
       </c>
       <c r="Q11" s="1">
         <f>Resultado!Q11</f>
@@ -10318,7 +10452,7 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
-        <v>537.72222222222217</v>
+        <v>521.35</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -10385,7 +10519,8 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <f>Resultado!P12</f>
+        <v>164</v>
       </c>
       <c r="Q12" s="1">
         <f>Resultado!Q12</f>
@@ -10404,7 +10539,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>174.45555555555555</v>
+        <v>173.41</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -10471,7 +10606,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <f>Resultado!P13</f>
+        <v>32</v>
       </c>
       <c r="Q13" s="1">
         <f>Resultado!Q13</f>
@@ -10490,7 +10626,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
-        <v>67.75</v>
+        <v>63.777777777777779</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -10557,7 +10693,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <f>Resultado!P14</f>
+        <v>9</v>
       </c>
       <c r="Q14" s="1">
         <f>Resultado!Q14</f>
@@ -10576,7 +10713,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>40.375</v>
+        <v>36.888888888888886</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -10643,7 +10780,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <f>Resultado!P15</f>
+        <v>76</v>
       </c>
       <c r="Q15" s="1">
         <f>Resultado!Q15</f>
@@ -10662,7 +10800,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -10729,7 +10867,8 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <f>Resultado!P16</f>
+        <v>49</v>
       </c>
       <c r="Q16" s="1">
         <f>Resultado!Q16</f>
@@ -10748,7 +10887,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>70.275000000000006</v>
+        <v>67.911111111111111</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -10815,7 +10954,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <f>Resultado!P17</f>
+        <v>43</v>
       </c>
       <c r="Q17" s="1">
         <f>Resultado!Q17</f>
@@ -10834,7 +10974,7 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>122.71250000000001</v>
+        <v>113.85555555555555</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -10901,7 +11041,8 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <f>Resultado!P18</f>
+        <v>373</v>
       </c>
       <c r="Q18" s="1">
         <f>Resultado!Q18</f>
@@ -10920,7 +11061,7 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>509.11111111111109</v>
+        <v>495.5</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -10987,7 +11128,8 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <f>Resultado!P21</f>
+        <v>170</v>
       </c>
       <c r="Q19" s="1">
         <f>Resultado!Q21</f>
@@ -11006,7 +11148,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="0"/>
-        <v>133.83333333333334</v>
+        <v>137.44999999999999</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -11073,7 +11215,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <f>Caixa!P17</f>
+        <v>143</v>
       </c>
       <c r="Q20" s="1">
         <v>237</v>
@@ -11090,7 +11233,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>164.44444444444446</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -11153,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="1">
         <v>186</v>
@@ -11169,7 +11312,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>189.625</v>
+        <v>201.66666666666666</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -11386,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="1">
         <v>150</v>
@@ -11402,7 +11545,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="0"/>
-        <v>101.8875</v>
+        <v>100.01111111111112</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -11464,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="1">
         <v>29</v>
@@ -11480,7 +11623,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="0"/>
-        <v>19.975000000000001</v>
+        <v>19.866666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
@@ -11671,8 +11814,9 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>0</v>
+      <c r="P28" s="1">
+        <f>Caixa!P11+Caixa!P12</f>
+        <v>196</v>
       </c>
       <c r="Q28" s="1">
         <f>Caixa!Q11+Caixa!Q12</f>
@@ -11691,7 +11835,7 @@
       </c>
       <c r="U28" s="1">
         <f t="shared" si="0"/>
-        <v>233.78888888888889</v>
+        <v>230.01</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
@@ -12501,7 +12645,7 @@
       </c>
       <c r="P40" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="Q40" s="6">
         <f t="shared" si="5"/>
@@ -12521,7 +12665,7 @@
       </c>
       <c r="U40" s="1">
         <f t="shared" si="0"/>
-        <v>137.9427978342419</v>
+        <v>129.00566090796059</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -12586,7 +12730,7 @@
       </c>
       <c r="P41" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.628342527847078</v>
       </c>
       <c r="Q41" s="14">
         <f>(Q11/Q36)*1000</f>
@@ -12606,7 +12750,7 @@
       </c>
       <c r="U41" s="1">
         <f t="shared" si="0"/>
-        <v>14.42534219791362</v>
+        <v>13.245642230906967</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -12660,8 +12804,9 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42">
-        <v>0</v>
+      <c r="P42" s="14">
+        <f>P9/P47</f>
+        <v>4.0526315789473681</v>
       </c>
       <c r="Q42" s="14">
         <f>Q9/Q47</f>
@@ -12680,7 +12825,7 @@
       </c>
       <c r="U42" s="1">
         <f t="shared" si="0"/>
-        <v>8.8045160869387544</v>
+        <v>8.2765289193841554</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -12730,8 +12875,9 @@
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43">
-        <v>0</v>
+      <c r="P43" s="18">
+        <f>P9/P31</f>
+        <v>1.4</v>
       </c>
       <c r="Q43" s="18">
         <f>Q9/Q31</f>
@@ -12750,7 +12896,7 @@
       </c>
       <c r="U43" s="1">
         <f t="shared" si="0"/>
-        <v>3.5170316481133916</v>
+        <v>3.2818059094341256</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -12799,8 +12945,9 @@
       <c r="O44">
         <v>0</v>
       </c>
-      <c r="P44">
-        <v>0</v>
+      <c r="P44" s="18">
+        <f>P6/P28</f>
+        <v>0.38265306122448978</v>
       </c>
       <c r="Q44" s="18">
         <f>Q6/Q28</f>
@@ -12819,7 +12966,7 @@
       </c>
       <c r="U44" s="1">
         <f t="shared" si="0"/>
-        <v>0.20376543209876541</v>
+        <v>0.26339464180734024</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -12873,8 +13020,9 @@
       <c r="O45">
         <v>0</v>
       </c>
-      <c r="P45">
-        <v>0</v>
+      <c r="P45" s="18">
+        <f>P28/P31</f>
+        <v>3.5636363636363635</v>
       </c>
       <c r="Q45" s="18">
         <f>Q28/Q31</f>
@@ -12893,7 +13041,7 @@
       </c>
       <c r="U45" s="1">
         <f t="shared" si="0"/>
-        <v>4.0867271974541675</v>
+        <v>4.0344181140723867</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -12947,8 +13095,9 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46">
-        <v>0</v>
+      <c r="P46" s="18">
+        <f>P11/P31</f>
+        <v>6.8</v>
       </c>
       <c r="Q46" s="18">
         <f>Q11/Q31</f>
@@ -12967,7 +13116,7 @@
       </c>
       <c r="U46" s="1">
         <f t="shared" si="0"/>
-        <v>9.139731905021506</v>
+        <v>8.9057587145193544</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -13032,7 +13181,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="11">
         <v>29</v>
@@ -13051,7 +13200,7 @@
       </c>
       <c r="U47" s="1">
         <f t="shared" si="0"/>
-        <v>19.975000000000001</v>
+        <v>19.866666666666667</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -13104,8 +13253,9 @@
       <c r="O48" s="26">
         <v>0</v>
       </c>
-      <c r="P48" s="26">
-        <v>0</v>
+      <c r="P48" s="3">
+        <f>P2</f>
+        <v>150</v>
       </c>
       <c r="Q48" s="3">
         <f>Q2</f>
@@ -13124,7 +13274,7 @@
       </c>
       <c r="U48" s="1">
         <f t="shared" si="0"/>
-        <v>175.44444444444446</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -13175,8 +13325,9 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49">
-        <v>0</v>
+      <c r="P49" s="39">
+        <f>P2-P6</f>
+        <v>75</v>
       </c>
       <c r="Q49" s="6">
         <f>Q2-Q6</f>
@@ -13193,7 +13344,7 @@
       </c>
       <c r="U49" s="1">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>156.75</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -13244,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="Q50">
         <v>151</v>
@@ -13260,7 +13411,7 @@
       </c>
       <c r="U50" s="1">
         <f t="shared" si="0"/>
-        <v>350.22500000000002</v>
+        <v>359.97777777777782</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -13314,8 +13465,9 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51">
-        <v>0</v>
+      <c r="P51" s="18">
+        <f>P50/P21</f>
+        <v>1.4697986577181208</v>
       </c>
       <c r="Q51" s="18">
         <f>Q50/Q21</f>
@@ -13333,7 +13485,7 @@
       </c>
       <c r="U51" s="1">
         <f t="shared" si="0"/>
-        <v>1.0375575453198298</v>
+        <v>1.0915876843696162</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -13388,8 +13540,9 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52">
-        <v>0</v>
+      <c r="P52" s="18">
+        <f>P50/P11</f>
+        <v>1.1711229946524064</v>
       </c>
       <c r="Q52" s="18">
         <f>Q50/Q11</f>
@@ -13407,7 +13560,7 @@
       </c>
       <c r="U52" s="1">
         <f t="shared" si="0"/>
-        <v>0.8461875072533146</v>
+        <v>0.8822914502976581</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -13462,8 +13615,9 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53">
-        <v>0</v>
+      <c r="P53" s="25">
+        <f>P28/P11</f>
+        <v>0.52406417112299464</v>
       </c>
       <c r="Q53" s="25">
         <f>Q28/Q11</f>
@@ -13482,7 +13636,7 @@
       </c>
       <c r="U53" s="1">
         <f t="shared" si="0"/>
-        <v>0.49500311563598259</v>
+        <v>0.49790922118468373</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -13537,8 +13691,9 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54">
-        <v>0</v>
+      <c r="P54" s="25">
+        <f>(P28+P24)/P11</f>
+        <v>0.75133689839572193</v>
       </c>
       <c r="Q54" s="25">
         <f>(Q28+Q24)/Q11</f>
@@ -13557,7 +13712,7 @@
       </c>
       <c r="U54" s="1">
         <f t="shared" si="0"/>
-        <v>0.64429262921654473</v>
+        <v>0.65499705613446246</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
@@ -13673,7 +13828,8 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <f>P55+P47</f>
+        <v>19</v>
       </c>
       <c r="Q56">
         <f>Q55+Q47</f>
@@ -13690,7 +13846,7 @@
       </c>
       <c r="U56" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -13739,8 +13895,9 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57">
-        <v>0</v>
+      <c r="P57" s="14">
+        <f>P9/P56</f>
+        <v>4.0526315789473681</v>
       </c>
       <c r="Q57" s="14">
         <f>Q9/Q56</f>
@@ -13757,7 +13914,7 @@
       </c>
       <c r="U57" s="1">
         <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
+        <v>3.8596491228070171</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
@@ -13859,11 +14016,11 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:DG38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
+      <selection pane="bottomRight" activeCell="BY6" sqref="BY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14578,6 +14735,10 @@
       <c r="BS3">
         <v>69</v>
       </c>
+      <c r="BT3" s="1">
+        <f>Índices!P2</f>
+        <v>150</v>
+      </c>
       <c r="BU3">
         <v>155</v>
       </c>
@@ -14892,6 +15053,10 @@
       </c>
       <c r="BS4">
         <v>6</v>
+      </c>
+      <c r="BT4" s="1">
+        <f>Índices!P3</f>
+        <v>65</v>
       </c>
       <c r="BU4">
         <v>47</v>
@@ -15198,6 +15363,10 @@
       <c r="BS5">
         <v>8.6</v>
       </c>
+      <c r="BT5" s="1">
+        <f>Índices!P4</f>
+        <v>20</v>
+      </c>
       <c r="BU5">
         <v>15</v>
       </c>
@@ -15478,6 +15647,22 @@
       <c r="BS6">
         <v>0.9</v>
       </c>
+      <c r="BT6" s="1">
+        <f>Índices!P5</f>
+        <v>73</v>
+      </c>
+      <c r="BU6">
+        <v>61</v>
+      </c>
+      <c r="BV6">
+        <v>61</v>
+      </c>
+      <c r="BW6">
+        <v>66</v>
+      </c>
+      <c r="BX6">
+        <v>74</v>
+      </c>
       <c r="BY6" s="1">
         <f>Resultado!Q5</f>
         <v>59</v>
@@ -15679,6 +15864,10 @@
       <c r="BS7">
         <v>2</v>
       </c>
+      <c r="BT7" s="1">
+        <f>Índices!P6</f>
+        <v>75</v>
+      </c>
       <c r="BU7">
         <v>14</v>
       </c>
@@ -15848,6 +16037,10 @@
       <c r="BN8" s="11">
         <v>19</v>
       </c>
+      <c r="BT8" s="1">
+        <f>Índices!P7</f>
+        <v>14</v>
+      </c>
       <c r="BU8">
         <v>13</v>
       </c>
@@ -16195,21 +16388,25 @@
         <f t="shared" ref="BS9" si="28">SUM(BS3:BS6,BS8)</f>
         <v>84.5</v>
       </c>
+      <c r="BT9" s="1">
+        <f>Índices!P8</f>
+        <v>322</v>
+      </c>
       <c r="BU9">
         <f>SUM(BU3:BU6,BU8)</f>
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="BV9">
         <f t="shared" ref="BV9" si="29">SUM(BV3:BV6,BV8)</f>
-        <v>230.8</v>
+        <v>291.8</v>
       </c>
       <c r="BW9">
         <f t="shared" ref="BW9" si="30">SUM(BW3:BW6,BW8)</f>
-        <v>143.6</v>
+        <v>209.6</v>
       </c>
       <c r="BX9">
         <f t="shared" ref="BX9" si="31">SUM(BX3:BX6,BX8)</f>
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="BY9" s="1">
         <f>Resultado!Q8</f>
@@ -16532,6 +16729,10 @@
       <c r="BS10">
         <v>1.1000000000000001</v>
       </c>
+      <c r="BT10" s="1">
+        <f>Índices!P9</f>
+        <v>77</v>
+      </c>
       <c r="BU10">
         <v>173</v>
       </c>
@@ -16841,6 +17042,10 @@
       <c r="BS11">
         <v>91</v>
       </c>
+      <c r="BT11" s="1">
+        <f>Índices!P11</f>
+        <v>374</v>
+      </c>
       <c r="BU11">
         <v>362</v>
       </c>
@@ -17169,6 +17374,10 @@
       <c r="BS12">
         <v>41</v>
       </c>
+      <c r="BT12" s="1">
+        <f>Índices!P28</f>
+        <v>196</v>
+      </c>
       <c r="BU12">
         <v>198</v>
       </c>
@@ -17488,6 +17697,10 @@
       <c r="BS13">
         <v>2.8</v>
       </c>
+      <c r="BT13" s="1">
+        <f>Índices!P19</f>
+        <v>170</v>
+      </c>
       <c r="BU13">
         <v>1</v>
       </c>
@@ -17789,6 +18002,9 @@
       <c r="BS14">
         <v>38</v>
       </c>
+      <c r="BT14">
+        <v>298</v>
+      </c>
       <c r="BU14">
         <v>114</v>
       </c>
@@ -18087,6 +18303,10 @@
       <c r="BS15">
         <v>5.5</v>
       </c>
+      <c r="BT15" s="1">
+        <f>Índices!P24</f>
+        <v>85</v>
+      </c>
       <c r="BU15">
         <v>88</v>
       </c>
@@ -18383,6 +18603,10 @@
       </c>
       <c r="BS16">
         <v>6.3</v>
+      </c>
+      <c r="BT16" s="1">
+        <f>Índices!P25</f>
+        <v>19</v>
       </c>
       <c r="BU16">
         <v>22</v>
@@ -21018,7 +21242,7 @@
         <v>242.5</v>
       </c>
       <c r="BQ24" s="14">
-        <f t="shared" ref="BQ24:BS24" si="67">BQ11/BQ18</f>
+        <f t="shared" ref="BQ24:BT24" si="67">BQ11/BQ18</f>
         <v>117.5</v>
       </c>
       <c r="BR24" s="14">
@@ -21029,8 +21253,9 @@
         <f t="shared" si="67"/>
         <v>227.5</v>
       </c>
-      <c r="BT24">
-        <v>0</v>
+      <c r="BT24" s="14">
+        <f t="shared" si="67"/>
+        <v>48.571428571428569</v>
       </c>
       <c r="BU24" s="14">
         <f t="shared" ref="BU24:BX24" si="68">BU11/BU18</f>
@@ -21370,7 +21595,7 @@
         <v>0</v>
       </c>
       <c r="BP25" s="14">
-        <f t="shared" ref="BP25:BS25" si="83">BP10/BP16</f>
+        <f t="shared" ref="BP25:BT25" si="83">BP10/BP16</f>
         <v>0.65217391304347827</v>
       </c>
       <c r="BQ25" s="14">
@@ -21385,8 +21610,9 @@
         <f t="shared" si="83"/>
         <v>0.17460317460317462</v>
       </c>
-      <c r="BT25">
-        <v>0</v>
+      <c r="BT25" s="14">
+        <f t="shared" si="83"/>
+        <v>4.0526315789473681</v>
       </c>
       <c r="BU25" s="14">
         <f t="shared" ref="BU25:BX25" si="84">BU10/BU16</f>
@@ -21728,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="14">
-        <f t="shared" ref="BP26:BS26" si="103">BP10/BP19</f>
+        <f t="shared" ref="BP26:BT26" si="103">BP10/BP19</f>
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="BQ26" s="14">
@@ -21742,8 +21968,9 @@
         <f t="shared" si="103"/>
         <v>2.1153846153846155E-2</v>
       </c>
-      <c r="BT26">
-        <v>0</v>
+      <c r="BT26" s="14">
+        <f t="shared" si="103"/>
+        <v>1.4</v>
       </c>
       <c r="BU26" s="14">
         <f t="shared" ref="BU26:BX26" si="104">BU10/BU19</f>
@@ -22081,7 +22308,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="14">
-        <f t="shared" ref="BP27:BS27" si="119">BP7/BP12</f>
+        <f t="shared" ref="BP27:BT27" si="119">BP7/BP12</f>
         <v>0.2181818181818182</v>
       </c>
       <c r="BQ27" s="14">
@@ -22096,8 +22323,9 @@
         <f t="shared" si="119"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="BT27">
-        <v>0</v>
+      <c r="BT27" s="14">
+        <f t="shared" si="119"/>
+        <v>0.38265306122448978</v>
       </c>
       <c r="BU27" s="14">
         <f t="shared" ref="BU27:BX27" si="120">BU7/BU12</f>
@@ -22439,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="14">
-        <f t="shared" ref="BP28:BS28" si="139">BP12/BP19</f>
+        <f t="shared" ref="BP28:BT28" si="139">BP12/BP19</f>
         <v>0.71739130434782605</v>
       </c>
       <c r="BQ28" s="14">
@@ -22453,8 +22681,9 @@
         <f t="shared" si="139"/>
         <v>0.78846153846153844</v>
       </c>
-      <c r="BT28">
-        <v>0</v>
+      <c r="BT28" s="14">
+        <f t="shared" si="139"/>
+        <v>3.5636363636363635</v>
       </c>
       <c r="BU28" s="14">
         <f t="shared" ref="BU28:BX28" si="140">BU12/BU19</f>
@@ -22795,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="14">
-        <f t="shared" ref="BP29:BS29" si="159">BP11/BP19</f>
+        <f t="shared" ref="BP29:BT29" si="159">BP11/BP19</f>
         <v>2.1086956521739131</v>
       </c>
       <c r="BQ29" s="14">
@@ -22809,8 +23038,9 @@
         <f t="shared" si="159"/>
         <v>1.75</v>
       </c>
-      <c r="BT29">
-        <v>0</v>
+      <c r="BT29" s="14">
+        <f t="shared" si="159"/>
+        <v>6.8</v>
       </c>
       <c r="BU29" s="14">
         <f t="shared" ref="BU29:BX29" si="160">BU11/BU19</f>
@@ -23121,6 +23351,10 @@
         <f t="shared" si="170"/>
         <v>67</v>
       </c>
+      <c r="BT30">
+        <f>BT3-BT7</f>
+        <v>75</v>
+      </c>
       <c r="BU30">
         <f>BU3-BU7</f>
         <v>141</v>
@@ -23447,7 +23681,8 @@
         <v>41.400000000000006</v>
       </c>
       <c r="BT31">
-        <v>0</v>
+        <f>Índices!P50</f>
+        <v>438</v>
       </c>
       <c r="BU31">
         <v>326</v>
@@ -23786,7 +24021,8 @@
         <v>1.0894736842105264</v>
       </c>
       <c r="BT32" s="14">
-        <v>0</v>
+        <f>BT31/BT14</f>
+        <v>1.4697986577181208</v>
       </c>
       <c r="BU32" s="14">
         <v>2.8596491228070176</v>
@@ -24145,7 +24381,8 @@
         <v>0.45494505494505499</v>
       </c>
       <c r="BT33" s="14">
-        <v>0</v>
+        <f>BT31/BT11</f>
+        <v>1.1711229946524064</v>
       </c>
       <c r="BU33" s="14">
         <v>0.90055248618784534</v>
@@ -24504,7 +24741,8 @@
         <v>0.45054945054945056</v>
       </c>
       <c r="BT34" s="14">
-        <v>0</v>
+        <f>BT12/BT11</f>
+        <v>0.52406417112299464</v>
       </c>
       <c r="BU34" s="14">
         <v>0.54696132596685088</v>
@@ -24915,9 +25153,9 @@
         <f t="shared" si="190"/>
         <v>0.51098901098901095</v>
       </c>
-      <c r="BT35" s="18" t="e">
+      <c r="BT35" s="18">
         <f t="shared" si="190"/>
-        <v>#DIV/0!</v>
+        <v>0.75133689839572193</v>
       </c>
       <c r="BU35" s="18">
         <f t="shared" si="190"/>
@@ -25088,7 +25326,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="BT9 CN9 AK9 V9:X9 Q9 BE9 BO9 AA9 AZ9" formulaRange="1"/>
+    <ignoredError sqref="CN9 AK9 V9:X9 Q9 BE9 BO9 AA9 AZ9" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -25100,10 +25338,10 @@
   <dimension ref="A1:DG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BT20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="BT35" sqref="BT35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25897,7 +26135,10 @@
         <f>Painel!BS3*IPC!J$3</f>
         <v>86.925302636710882</v>
       </c>
-      <c r="BT3" s="14"/>
+      <c r="BT3" s="14">
+        <f>Painel!BT3</f>
+        <v>150</v>
+      </c>
       <c r="BU3" s="14">
         <f>Painel!BU3*IPC!G$3</f>
         <v>159.88250000000002</v>
@@ -26300,7 +26541,10 @@
         <f>Painel!BS4*IPC!J$3</f>
         <v>7.5587219684096416</v>
       </c>
-      <c r="BT4" s="14"/>
+      <c r="BT4" s="14">
+        <f>Painel!BT4</f>
+        <v>65</v>
+      </c>
       <c r="BU4" s="14">
         <f>Painel!BU4*IPC!G$3</f>
         <v>48.480500000000006</v>
@@ -26703,7 +26947,10 @@
         <f>Painel!BS5*IPC!J$3</f>
         <v>10.834168154720485</v>
       </c>
-      <c r="BT5" s="14"/>
+      <c r="BT5" s="14">
+        <f>Painel!BT5</f>
+        <v>20</v>
+      </c>
       <c r="BU5" s="14">
         <f>Painel!BU5*IPC!G$3</f>
         <v>15.472500000000002</v>
@@ -27082,7 +27329,10 @@
         <f>Painel!BS6*IPC!J$3</f>
         <v>1.1338082952614463</v>
       </c>
-      <c r="BT6" s="14"/>
+      <c r="BT6" s="14">
+        <f>Painel!BT6</f>
+        <v>73</v>
+      </c>
       <c r="BU6" s="14"/>
       <c r="BV6" s="14"/>
       <c r="BW6" s="14"/>
@@ -27383,7 +27633,10 @@
         <f>Painel!BS7*IPC!J$3</f>
         <v>2.5195739894698805</v>
       </c>
-      <c r="BT7" s="14"/>
+      <c r="BT7" s="14">
+        <f>Painel!BT7</f>
+        <v>75</v>
+      </c>
       <c r="BU7" s="14">
         <f>Painel!BU7*IPC!G$3</f>
         <v>14.441000000000001</v>
@@ -27675,7 +27928,10 @@
       <c r="BQ8" s="14"/>
       <c r="BR8" s="14"/>
       <c r="BS8" s="14"/>
-      <c r="BT8" s="14"/>
+      <c r="BT8" s="14">
+        <f>Painel!BT8</f>
+        <v>14</v>
+      </c>
       <c r="BU8" s="14">
         <f>Painel!BU8*IPC!G$3</f>
         <v>13.409500000000001</v>
@@ -28078,7 +28334,10 @@
         <f t="shared" ref="BS9" si="31">SUM(BS3:BS8)-BS7</f>
         <v>106.45200105510246</v>
       </c>
-      <c r="BT9" s="14"/>
+      <c r="BT9" s="14">
+        <f>Painel!BT9</f>
+        <v>322</v>
+      </c>
       <c r="BU9" s="14">
         <f>SUM(BU3:BU8)-BU7</f>
         <v>237.24500000000003</v>
@@ -28481,7 +28740,10 @@
         <f>Painel!BS10*IPC!J$3</f>
         <v>1.3857656942084344</v>
       </c>
-      <c r="BT10" s="14"/>
+      <c r="BT10" s="14">
+        <f>Painel!BT10</f>
+        <v>77</v>
+      </c>
       <c r="BU10" s="14">
         <f>Painel!BU10*IPC!G$3</f>
         <v>178.4495</v>
@@ -28884,7 +29146,10 @@
         <f>Painel!BS11*IPC!J$3</f>
         <v>114.64061652087956</v>
       </c>
-      <c r="BT11" s="14"/>
+      <c r="BT11" s="14">
+        <f>Painel!BT11</f>
+        <v>374</v>
+      </c>
       <c r="BU11" s="14">
         <f>Painel!BU11*IPC!G$3</f>
         <v>373.40300000000002</v>
@@ -29287,7 +29552,10 @@
         <f>Painel!BS12*IPC!J$3</f>
         <v>51.651266784132552</v>
       </c>
-      <c r="BT12" s="14"/>
+      <c r="BT12" s="14">
+        <f>Painel!BT12</f>
+        <v>196</v>
+      </c>
       <c r="BU12" s="14">
         <f>Painel!BU12*IPC!G$3</f>
         <v>204.23700000000002</v>
@@ -29690,7 +29958,10 @@
         <f>Painel!BS13*IPC!J$3</f>
         <v>3.5274035852578325</v>
       </c>
-      <c r="BT13" s="14"/>
+      <c r="BT13" s="14">
+        <f>Painel!BT13</f>
+        <v>170</v>
+      </c>
       <c r="BU13" s="14">
         <f>Painel!BU13*IPC!G$3</f>
         <v>1.0315000000000001</v>
@@ -30088,7 +30359,10 @@
         <f>Painel!BS14*IPC!J$3</f>
         <v>47.871905799927731</v>
       </c>
-      <c r="BT14" s="14"/>
+      <c r="BT14" s="14">
+        <f>Painel!BT14</f>
+        <v>298</v>
+      </c>
       <c r="BU14" s="14">
         <f>Painel!BU14*IPC!G$3</f>
         <v>117.59100000000001</v>
@@ -30490,7 +30764,10 @@
         <f>Painel!BS15*IPC!J$3</f>
         <v>6.9288284710421717</v>
       </c>
-      <c r="BT15" s="14"/>
+      <c r="BT15" s="14">
+        <f>Painel!BT15</f>
+        <v>85</v>
+      </c>
       <c r="BU15" s="14">
         <f>Painel!BU15*IPC!G$3</f>
         <v>90.772000000000006</v>
@@ -30891,7 +31168,10 @@
         <f>Painel!BS16*IPC!J$3</f>
         <v>7.9366580668301232</v>
       </c>
-      <c r="BT16" s="14"/>
+      <c r="BT16" s="14">
+        <f>Painel!BT16</f>
+        <v>19</v>
+      </c>
       <c r="BU16" s="14">
         <f>Painel!BU16*IPC!G$3</f>
         <v>22.693000000000001</v>
@@ -33693,7 +33973,7 @@
       </c>
       <c r="BT24" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="BU24" s="14">
         <f t="shared" si="64"/>
@@ -34037,9 +34317,12 @@
         <f t="shared" si="79"/>
         <v>0.17460317460317462</v>
       </c>
-      <c r="BT25" s="14"/>
+      <c r="BT25" s="14">
+        <f t="shared" ref="BT25:BX25" si="80">BT10/BT16</f>
+        <v>4.0526315789473681</v>
+      </c>
       <c r="BU25" s="14">
-        <f t="shared" ref="BU25:BX25" si="80">BU10/BU16</f>
+        <f t="shared" si="80"/>
         <v>7.8636363636363633</v>
       </c>
       <c r="BV25" s="14">
@@ -34377,7 +34660,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="14">
-        <f t="shared" ref="BP26:BS26" si="98">BP10/BP19</f>
+        <f t="shared" ref="BP26:BT26" si="98">BP10/BP19</f>
         <v>6.7271739130434785E-2</v>
       </c>
       <c r="BQ26" s="14">
@@ -34392,7 +34675,8 @@
         <v>2.6649340273239123E-2</v>
       </c>
       <c r="BT26" s="14">
-        <v>0</v>
+        <f t="shared" si="98"/>
+        <v>1.4</v>
       </c>
       <c r="BU26" s="14">
         <f t="shared" ref="BU26:BX26" si="99">BU10/BU19</f>
@@ -34724,7 +35008,7 @@
       </c>
       <c r="BO27" s="5"/>
       <c r="BP27" s="14">
-        <f t="shared" ref="BP27:BS27" si="115">BP7/BP12</f>
+        <f t="shared" ref="BP27:BT27" si="115">BP7/BP12</f>
         <v>0.2181818181818182</v>
       </c>
       <c r="BQ27" s="14">
@@ -34739,7 +35023,10 @@
         <f t="shared" si="115"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="BT27" s="5"/>
+      <c r="BT27" s="14">
+        <f t="shared" si="115"/>
+        <v>0.38265306122448978</v>
+      </c>
       <c r="BU27" s="14">
         <f t="shared" ref="BU27:BX27" si="116">BU7/BU12</f>
         <v>7.0707070707070704E-2</v>
@@ -35081,7 +35368,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="14">
-        <f t="shared" ref="BP28:BS28" si="134">BP12/BP19</f>
+        <f t="shared" ref="BP28:BT28" si="134">BP12/BP19</f>
         <v>0.73998913043478265</v>
       </c>
       <c r="BQ28" s="14">
@@ -35096,7 +35383,8 @@
         <v>0.99329359200254908</v>
       </c>
       <c r="BT28" s="14">
-        <v>0</v>
+        <f t="shared" si="134"/>
+        <v>3.5636363636363635</v>
       </c>
       <c r="BU28" s="14">
         <f t="shared" ref="BU28:BX28" si="135">BU12/BU19</f>
@@ -35440,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="14">
-        <f t="shared" ref="BP29:BS29" si="153">BP11/BP19</f>
+        <f t="shared" ref="BP29:BT29" si="153">BP11/BP19</f>
         <v>2.1751195652173916</v>
       </c>
       <c r="BQ29" s="14">
@@ -35455,7 +35743,8 @@
         <v>2.2046272407861456</v>
       </c>
       <c r="BT29" s="14">
-        <v>0</v>
+        <f t="shared" si="153"/>
+        <v>6.8</v>
       </c>
       <c r="BU29" s="14">
         <f t="shared" ref="BU29:BX29" si="154">BU11/BU19</f>
@@ -35769,8 +36058,9 @@
       <c r="BS30" s="14">
         <v>84.405728647241006</v>
       </c>
-      <c r="BT30" s="14" t="s">
-        <v>107</v>
+      <c r="BT30" s="14">
+        <f>Painel!BT30</f>
+        <v>75</v>
       </c>
       <c r="BU30" s="14">
         <v>145.44150000000002</v>
@@ -36088,7 +36378,10 @@
         <f>Painel!BS31*IPC!J$3</f>
         <v>52.155181582026536</v>
       </c>
-      <c r="BT31" s="14"/>
+      <c r="BT31" s="14">
+        <f>Painel!BT31</f>
+        <v>438</v>
+      </c>
       <c r="BU31" s="14">
         <f>Painel!BU31*IPC!G$3</f>
         <v>336.26900000000001</v>
@@ -36430,9 +36723,12 @@
         <f t="shared" ref="BS32" si="206">BS31/BS14</f>
         <v>1.0894736842105266</v>
       </c>
-      <c r="BT32" s="14"/>
+      <c r="BT32" s="20">
+        <f t="shared" ref="BT32:BU32" si="207">BT31/BT14</f>
+        <v>1.4697986577181208</v>
+      </c>
       <c r="BU32" s="20">
-        <f t="shared" ref="BU32" si="207">BU31/BU14</f>
+        <f t="shared" si="207"/>
         <v>2.8596491228070176</v>
       </c>
       <c r="BV32" s="20">
@@ -36745,7 +37041,7 @@
         <v>0.85539215686274506</v>
       </c>
       <c r="BP33" s="18">
-        <f t="shared" ref="BP33:BS33" si="234">BP31/BP11</f>
+        <f t="shared" ref="BP33:BT33" si="234">BP31/BP11</f>
         <v>0.6721649484536083</v>
       </c>
       <c r="BQ33" s="18">
@@ -36759,6 +37055,10 @@
       <c r="BS33" s="18">
         <f t="shared" si="234"/>
         <v>0.45494505494505505</v>
+      </c>
+      <c r="BT33" s="18">
+        <f t="shared" si="234"/>
+        <v>1.1711229946524064</v>
       </c>
       <c r="BU33" s="18">
         <f t="shared" ref="BU33:BX33" si="235">BU31/BU11</f>
@@ -37108,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="BP34" s="18">
-        <f t="shared" ref="BP34:BS34" si="252">BP12/BP11</f>
+        <f t="shared" ref="BP34:BT34" si="252">BP12/BP11</f>
         <v>0.34020618556701032</v>
       </c>
       <c r="BQ34" s="18">
@@ -37124,7 +37424,8 @@
         <v>0.45054945054945056</v>
       </c>
       <c r="BT34" s="18">
-        <v>0</v>
+        <f t="shared" si="252"/>
+        <v>0.52406417112299464</v>
       </c>
       <c r="BU34" s="18">
         <f t="shared" ref="BU34:BX34" si="253">BU12/BU11</f>
@@ -37477,7 +37778,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="18">
-        <f t="shared" ref="BP35:BS35" si="270">(BP12+BP15)/BP11</f>
+        <f t="shared" ref="BP35:BT35" si="270">(BP12+BP15)/BP11</f>
         <v>0.3587628865979382</v>
       </c>
       <c r="BQ35" s="18">
@@ -37493,7 +37794,8 @@
         <v>0.51098901098901106</v>
       </c>
       <c r="BT35" s="18">
-        <v>0</v>
+        <f t="shared" si="270"/>
+        <v>0.75133689839572193</v>
       </c>
       <c r="BU35" s="18">
         <f t="shared" ref="BU35:BX35" si="271">(BU12+BU15)/BU11</f>
@@ -37690,10 +37992,10 @@
   <dimension ref="A1:BU39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AR11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="AR36" sqref="AR36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38160,7 +38462,10 @@
         <f>Painel!BS3*IPC!J$3</f>
         <v>86.925302636710882</v>
       </c>
-      <c r="AR3" s="14"/>
+      <c r="AR3" s="14">
+        <f>Painel_Cte!BT3</f>
+        <v>150</v>
+      </c>
       <c r="AS3" s="14">
         <f>Painel!BU3*IPC!G$3</f>
         <v>159.88250000000002</v>
@@ -38366,7 +38671,10 @@
         <f>Painel!BS4*IPC!J$3</f>
         <v>7.5587219684096416</v>
       </c>
-      <c r="AR4" s="14"/>
+      <c r="AR4" s="14">
+        <f>Painel_Cte!BT4</f>
+        <v>65</v>
+      </c>
       <c r="AS4" s="14">
         <f>Painel!BU4*IPC!G$3</f>
         <v>48.480500000000006</v>
@@ -38572,7 +38880,10 @@
         <f>Painel!BS5*IPC!J$3</f>
         <v>10.834168154720485</v>
       </c>
-      <c r="AR5" s="14"/>
+      <c r="AR5" s="14">
+        <f>Painel_Cte!BT5</f>
+        <v>20</v>
+      </c>
       <c r="AS5" s="14">
         <f>Painel!BU5*IPC!G$3</f>
         <v>15.472500000000002</v>
@@ -38766,7 +39077,10 @@
         <f>Painel!BS6*IPC!J$3</f>
         <v>1.1338082952614463</v>
       </c>
-      <c r="AR6" s="14"/>
+      <c r="AR6" s="14">
+        <f>Painel_Cte!BT6</f>
+        <v>73</v>
+      </c>
       <c r="AS6" s="14"/>
       <c r="AT6" s="14"/>
       <c r="AU6" s="14">
@@ -38912,7 +39226,10 @@
         <f>Painel!BS7*IPC!J$3</f>
         <v>2.5195739894698805</v>
       </c>
-      <c r="AR7" s="14"/>
+      <c r="AR7" s="14">
+        <f>Painel_Cte!BT7</f>
+        <v>75</v>
+      </c>
       <c r="AS7" s="14">
         <f>Painel!BU7*IPC!G$3</f>
         <v>14.441000000000001</v>
@@ -39055,7 +39372,10 @@
       <c r="AO8" s="14"/>
       <c r="AP8" s="14"/>
       <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
+      <c r="AR8" s="14">
+        <f>Painel_Cte!BT8</f>
+        <v>14</v>
+      </c>
       <c r="AS8" s="14">
         <f>Painel!BU8*IPC!G$3</f>
         <v>13.409500000000001</v>
@@ -39255,7 +39575,10 @@
         <f t="shared" ref="AQ9" si="12">SUM(AQ3:AQ8)-AQ7</f>
         <v>106.45200105510246</v>
       </c>
-      <c r="AR9" s="14"/>
+      <c r="AR9" s="14">
+        <f>Painel_Cte!BT9</f>
+        <v>322</v>
+      </c>
       <c r="AS9" s="14">
         <f>SUM(AS3:AS8)-AS7</f>
         <v>237.24500000000003</v>
@@ -39461,7 +39784,10 @@
         <f>Painel!BS10*IPC!J$3</f>
         <v>1.3857656942084344</v>
       </c>
-      <c r="AR10" s="14"/>
+      <c r="AR10" s="14">
+        <f>Painel_Cte!BT10</f>
+        <v>77</v>
+      </c>
       <c r="AS10" s="14">
         <f>Painel!BU10*IPC!G$3</f>
         <v>178.4495</v>
@@ -39667,7 +39993,10 @@
         <f>Painel!BS11*IPC!J$3</f>
         <v>114.64061652087956</v>
       </c>
-      <c r="AR11" s="14"/>
+      <c r="AR11" s="14">
+        <f>Painel_Cte!BT11</f>
+        <v>374</v>
+      </c>
       <c r="AS11" s="14">
         <f>Painel!BU11*IPC!G$3</f>
         <v>373.40300000000002</v>
@@ -39873,7 +40202,10 @@
         <f>Painel!BS12*IPC!J$3</f>
         <v>51.651266784132552</v>
       </c>
-      <c r="AR12" s="14"/>
+      <c r="AR12" s="14">
+        <f>Painel_Cte!BT12</f>
+        <v>196</v>
+      </c>
       <c r="AS12" s="14">
         <f>Painel!BU12*IPC!G$3</f>
         <v>204.23700000000002</v>
@@ -40079,7 +40411,10 @@
         <f>Painel!BS13*IPC!J$3</f>
         <v>3.5274035852578325</v>
       </c>
-      <c r="AR13" s="14"/>
+      <c r="AR13" s="14">
+        <f>Painel_Cte!BT13</f>
+        <v>170</v>
+      </c>
       <c r="AS13" s="14">
         <f>Painel!BU13*IPC!G$3</f>
         <v>1.0315000000000001</v>
@@ -40282,7 +40617,10 @@
         <f>Painel!BS14*IPC!J$3</f>
         <v>47.871905799927731</v>
       </c>
-      <c r="AR14" s="14"/>
+      <c r="AR14" s="14">
+        <f>Painel_Cte!BT14</f>
+        <v>298</v>
+      </c>
       <c r="AS14" s="14">
         <f>Painel!BU14*IPC!G$3</f>
         <v>117.59100000000001</v>
@@ -40487,7 +40825,10 @@
         <f>Painel!BS15*IPC!J$3</f>
         <v>6.9288284710421717</v>
       </c>
-      <c r="AR15" s="14"/>
+      <c r="AR15" s="14">
+        <f>Painel_Cte!BT15</f>
+        <v>85</v>
+      </c>
       <c r="AS15" s="14">
         <f>Painel!BU15*IPC!G$3</f>
         <v>90.772000000000006</v>
@@ -40691,7 +41032,10 @@
         <f>Painel!BS16*IPC!J$3</f>
         <v>7.9366580668301232</v>
       </c>
-      <c r="AR16" s="14"/>
+      <c r="AR16" s="14">
+        <f>Painel_Cte!BT16</f>
+        <v>19</v>
+      </c>
       <c r="AS16" s="14">
         <f>Painel!BU16*IPC!G$3</f>
         <v>22.693000000000001</v>
@@ -42283,7 +42627,7 @@
       </c>
       <c r="AR24" s="14">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="AS24" s="14">
         <f t="shared" si="17"/>
@@ -42475,14 +42819,17 @@
       </c>
       <c r="AO25" s="14"/>
       <c r="AP25" s="14">
-        <f t="shared" ref="AP25:AQ25" si="32">AP10/AP16</f>
+        <f t="shared" ref="AP25:AR25" si="32">AP10/AP16</f>
         <v>0.65217391304347827</v>
       </c>
       <c r="AQ25" s="14">
         <f t="shared" si="32"/>
         <v>0.17460317460317462</v>
       </c>
-      <c r="AR25" s="14"/>
+      <c r="AR25" s="14">
+        <f t="shared" si="32"/>
+        <v>4.0526315789473681</v>
+      </c>
       <c r="AS25" s="14">
         <f t="shared" ref="AS25:AT25" si="33">AS10/AS16</f>
         <v>7.8636363636363633</v>
@@ -42685,7 +43032,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="14">
-        <f t="shared" ref="AP26:AQ26" si="50">AP10/AP19</f>
+        <f t="shared" ref="AP26:AR26" si="50">AP10/AP19</f>
         <v>6.7271739130434785E-2</v>
       </c>
       <c r="AQ26" s="14">
@@ -42693,7 +43040,8 @@
         <v>2.6649340273239123E-2</v>
       </c>
       <c r="AR26" s="14">
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>1.4</v>
       </c>
       <c r="AS26" s="14">
         <f t="shared" ref="AS26:AT26" si="51">AS10/AS19</f>
@@ -42886,14 +43234,17 @@
       </c>
       <c r="AO27" s="5"/>
       <c r="AP27" s="14">
-        <f t="shared" ref="AP27:AQ27" si="67">AP7/AP12</f>
+        <f t="shared" ref="AP27:AR27" si="67">AP7/AP12</f>
         <v>0.2181818181818182</v>
       </c>
       <c r="AQ27" s="14">
         <f t="shared" si="67"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="AR27" s="5"/>
+      <c r="AR27" s="14">
+        <f t="shared" si="67"/>
+        <v>0.38265306122448978</v>
+      </c>
       <c r="AS27" s="14">
         <f t="shared" ref="AS27:AT27" si="68">AS7/AS12</f>
         <v>7.0707070707070704E-2</v>
@@ -43096,7 +43447,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="14">
-        <f t="shared" ref="AP28:AQ28" si="86">AP12/AP19</f>
+        <f t="shared" ref="AP28:AR28" si="86">AP12/AP19</f>
         <v>0.73998913043478265</v>
       </c>
       <c r="AQ28" s="14">
@@ -43104,7 +43455,8 @@
         <v>0.99329359200254908</v>
       </c>
       <c r="AR28" s="14">
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>3.5636363636363635</v>
       </c>
       <c r="AS28" s="14">
         <f t="shared" ref="AS28:AT28" si="87">AS12/AS19</f>
@@ -43310,7 +43662,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="14">
-        <f t="shared" ref="AP29:AQ29" si="105">AP11/AP19</f>
+        <f t="shared" ref="AP29:AR29" si="105">AP11/AP19</f>
         <v>2.1751195652173916</v>
       </c>
       <c r="AQ29" s="14">
@@ -43318,7 +43670,8 @@
         <v>2.2046272407861456</v>
       </c>
       <c r="AR29" s="14">
-        <v>0</v>
+        <f t="shared" si="105"/>
+        <v>6.8</v>
       </c>
       <c r="AS29" s="14">
         <f t="shared" ref="AS29:AT29" si="106">AS11/AS19</f>
@@ -43507,8 +43860,9 @@
       <c r="AQ30" s="14">
         <v>84.405728647241006</v>
       </c>
-      <c r="AR30" s="14" t="s">
-        <v>107</v>
+      <c r="AR30" s="14">
+        <f>Painel_Cte!BT30</f>
+        <v>75</v>
       </c>
       <c r="AS30" s="14">
         <v>145.44150000000002</v>
@@ -43688,7 +44042,10 @@
         <f>Painel!BS31*IPC!J$3</f>
         <v>52.155181582026536</v>
       </c>
-      <c r="AR31" s="14"/>
+      <c r="AR31" s="14">
+        <f>Painel_Cte!BT31</f>
+        <v>438</v>
+      </c>
       <c r="AS31" s="14">
         <f>Painel!BU31*IPC!G$3</f>
         <v>336.26900000000001</v>
@@ -43874,14 +44231,17 @@
       </c>
       <c r="AO32" s="14"/>
       <c r="AP32" s="20">
-        <f t="shared" ref="AP32:AQ32" si="123">AP31/AP14</f>
+        <f t="shared" ref="AP32:AR32" si="123">AP31/AP14</f>
         <v>1.3225152129817446</v>
       </c>
       <c r="AQ32" s="20">
         <f t="shared" si="123"/>
         <v>1.0894736842105266</v>
       </c>
-      <c r="AR32" s="14"/>
+      <c r="AR32" s="20">
+        <f t="shared" si="123"/>
+        <v>1.4697986577181208</v>
+      </c>
       <c r="AS32" s="20">
         <f t="shared" ref="AS32:AT32" si="124">AS31/AS14</f>
         <v>2.8596491228070176</v>
@@ -44056,12 +44416,16 @@
         <v>0.85539215686274506</v>
       </c>
       <c r="AP33" s="18">
-        <f t="shared" ref="AP33:AQ33" si="142">AP31/AP11</f>
+        <f t="shared" ref="AP33:AR33" si="142">AP31/AP11</f>
         <v>0.6721649484536083</v>
       </c>
       <c r="AQ33" s="18">
         <f t="shared" si="142"/>
         <v>0.45494505494505505</v>
+      </c>
+      <c r="AR33" s="18">
+        <f t="shared" si="142"/>
+        <v>1.1711229946524064</v>
       </c>
       <c r="AS33" s="18">
         <f t="shared" ref="AS33:AT33" si="143">AS31/AS11</f>
@@ -44987,10 +45351,10 @@
   <dimension ref="A1:DG65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="BT8" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45678,6 +46042,9 @@
       <c r="BS3">
         <v>0.6</v>
       </c>
+      <c r="BT3">
+        <v>123</v>
+      </c>
       <c r="BU3">
         <v>41</v>
       </c>
@@ -46149,6 +46516,9 @@
       <c r="AT5">
         <v>0</v>
       </c>
+      <c r="BT5">
+        <v>294</v>
+      </c>
       <c r="BU5">
         <v>10</v>
       </c>
@@ -46567,6 +46937,9 @@
       <c r="BS7">
         <v>15</v>
       </c>
+      <c r="BT7">
+        <v>21</v>
+      </c>
       <c r="BU7">
         <v>26</v>
       </c>
@@ -46920,7 +47293,7 @@
       </c>
       <c r="BT8">
         <f>SUM(BT3:BT7)</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="BU8">
         <f t="shared" ref="BU8" si="46">SUM(BU3:BU7)</f>
@@ -48981,7 +49354,7 @@
       </c>
       <c r="BT18">
         <f>Painel!BT11</f>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="BU18">
         <f>Painel!BU11</f>
@@ -49471,7 +49844,7 @@
       </c>
       <c r="BT20">
         <f>Painel!BT12</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="BU20">
         <f>Painel!BU12</f>

--- a/Balanços - clubes.xlsx
+++ b/Balanços - clubes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F221E-7AB9-431C-92F8-7A50E252ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B44DE20-AF29-494A-804B-60D6A030A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13848" yWindow="36" windowWidth="9132" windowHeight="12312" firstSheet="2" activeTab="3" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{9BC0B171-694A-49A6-A38F-2F39D1AB5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -172,15 +172,17 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={2A3C0DDC-57E8-4C80-BCB9-8A08B7672B41}</author>
     <author>tc={95395A1A-1307-49E5-8022-EABBC7738952}</author>
     <author>tc={348C4438-9DB0-4365-A552-40024EBAD5CE}</author>
     <author>tc={2BFD802F-C27D-491C-B026-820657052F32}</author>
     <author>tc={4DED4C1A-18DC-4E39-972D-8DB5E1366E32}</author>
+    <author>tc={5D9D19C5-225C-478B-BD95-32A284D3402F}</author>
     <author>tc={6598B5CA-3B15-4A4E-BE8E-C5874CFAAC97}</author>
     <author>tc={A6F387F9-E889-49BF-A167-6D684CBFA79D}</author>
   </authors>
   <commentList>
-    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{95395A1A-1307-49E5-8022-EABBC7738952}">
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{2A3C0DDC-57E8-4C80-BCB9-8A08B7672B41}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -188,7 +190,7 @@
     Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</t>
       </text>
     </comment>
-    <comment ref="Q12" authorId="1" shapeId="0" xr:uid="{348C4438-9DB0-4365-A552-40024EBAD5CE}">
+    <comment ref="P12" authorId="1" shapeId="0" xr:uid="{95395A1A-1307-49E5-8022-EABBC7738952}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -196,7 +198,15 @@
     Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</t>
       </text>
     </comment>
-    <comment ref="Q22" authorId="2" shapeId="0" xr:uid="{2BFD802F-C27D-491C-B026-820657052F32}">
+    <comment ref="Q12" authorId="2" shapeId="0" xr:uid="{348C4438-9DB0-4365-A552-40024EBAD5CE}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</t>
+      </text>
+    </comment>
+    <comment ref="Q22" authorId="3" shapeId="0" xr:uid="{2BFD802F-C27D-491C-B026-820657052F32}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -204,7 +214,7 @@
     Bancária + Entidades + Fiscais + Partes Relacionadas</t>
       </text>
     </comment>
-    <comment ref="N26" authorId="3" shapeId="0" xr:uid="{4DED4C1A-18DC-4E39-972D-8DB5E1366E32}">
+    <comment ref="N26" authorId="4" shapeId="0" xr:uid="{4DED4C1A-18DC-4E39-972D-8DB5E1366E32}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -212,7 +222,7 @@
     Não informa.</t>
       </text>
     </comment>
-    <comment ref="P28" authorId="4" shapeId="0" xr:uid="{6598B5CA-3B15-4A4E-BE8E-C5874CFAAC97}">
+    <comment ref="O28" authorId="5" shapeId="0" xr:uid="{5D9D19C5-225C-478B-BD95-32A284D3402F}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,7 +230,15 @@
     Exclui os excessos apontados em "Pessoal e encargos sociais"</t>
       </text>
     </comment>
-    <comment ref="Q28" authorId="5" shapeId="0" xr:uid="{A6F387F9-E889-49BF-A167-6D684CBFA79D}">
+    <comment ref="P28" authorId="6" shapeId="0" xr:uid="{6598B5CA-3B15-4A4E-BE8E-C5874CFAAC97}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Exclui os excessos apontados em "Pessoal e encargos sociais"</t>
+      </text>
+    </comment>
+    <comment ref="Q28" authorId="7" shapeId="0" xr:uid="{A6F387F9-E889-49BF-A167-6D684CBFA79D}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -701,7 +719,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="155">
   <si>
     <t>Publicidade e patrocínio</t>
   </si>
@@ -1360,7 +1378,7 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,6 +1745,9 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O12" dT="2024-04-06T11:10:04.91" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{2A3C0DDC-57E8-4C80-BCB9-8A08B7672B41}">
+    <text>Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</text>
+  </threadedComment>
   <threadedComment ref="P12" dT="2024-04-06T11:10:04.91" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{95395A1A-1307-49E5-8022-EABBC7738952}">
     <text>Inclui a rubrica "Gastos com atletas, comissão técnica e baixa"</text>
   </threadedComment>
@@ -1738,6 +1759,9 @@
   </threadedComment>
   <threadedComment ref="N26" dT="2024-04-20T18:07:29.87" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{4DED4C1A-18DC-4E39-972D-8DB5E1366E32}">
     <text>Não informa.</text>
+  </threadedComment>
+  <threadedComment ref="O28" dT="2024-04-20T18:09:11.84" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{5D9D19C5-225C-478B-BD95-32A284D3402F}">
+    <text>Exclui os excessos apontados em "Pessoal e encargos sociais"</text>
   </threadedComment>
   <threadedComment ref="P28" dT="2024-04-20T18:09:11.84" personId="{D9C177C2-4820-4A14-BCC5-17B8B37A3BE0}" id="{6598B5CA-3B15-4A4E-BE8E-C5874CFAAC97}">
     <text>Exclui os excessos apontados em "Pessoal e encargos sociais"</text>
@@ -1918,10 +1942,10 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,7 +2097,8 @@
         <v>193</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <f>48-2.9</f>
+        <v>45.1</v>
       </c>
       <c r="P2" s="1">
         <v>75</v>
@@ -2092,7 +2117,7 @@
       </c>
       <c r="U2" s="1">
         <f>SUM(B2:T2)/COUNTIF(B2:T2,"&gt;0")</f>
-        <v>128.36363636363637</v>
+        <v>121.425</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2141,7 +2166,8 @@
         <v>74</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <f>24-0.65</f>
+        <v>23.35</v>
       </c>
       <c r="P3" s="1">
         <f>56+9</f>
@@ -2161,7 +2187,7 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U26" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
-        <v>63.481818181818177</v>
+        <v>60.13750000000001</v>
       </c>
       <c r="V3"/>
     </row>
@@ -2210,7 +2236,8 @@
         <v>2.4</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <f>7-0.25</f>
+        <v>6.75</v>
       </c>
       <c r="P4" s="1">
         <v>20</v>
@@ -2229,7 +2256,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>45.990909090909092</v>
+        <v>42.720833333333331</v>
       </c>
       <c r="V4"/>
     </row>
@@ -2278,7 +2305,7 @@
         <v>86</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P5" s="1">
         <v>73</v>
@@ -2297,7 +2324,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44.9</v>
       </c>
       <c r="V5"/>
     </row>
@@ -2346,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P6" s="1">
         <v>75</v>
@@ -2365,7 +2392,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="0"/>
-        <v>82.25</v>
+        <v>68</v>
       </c>
       <c r="V6"/>
     </row>
@@ -2417,7 +2444,8 @@
         <v>31</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <f>1+1.7-0.15</f>
+        <v>2.5500000000000003</v>
       </c>
       <c r="P7" s="1">
         <v>14</v>
@@ -2436,7 +2464,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="0"/>
-        <v>23.824999999999999</v>
+        <v>21.461111111111112</v>
       </c>
       <c r="V7"/>
     </row>
@@ -2491,7 +2519,8 @@
         <v>386.4</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <f>SUM(O2:O7)</f>
+        <v>96.75</v>
       </c>
       <c r="P8" s="1">
         <f>SUM(P2:P7)</f>
@@ -2514,7 +2543,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>325.16363636363639</v>
+        <v>306.12916666666666</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2563,7 +2592,7 @@
         <v>50</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P9" s="1">
         <v>77</v>
@@ -2582,7 +2611,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="0"/>
-        <v>142.13333333333333</v>
+        <v>128.37</v>
       </c>
       <c r="V9"/>
     </row>
@@ -2631,8 +2660,8 @@
         <f>-(N11-N8-N9)</f>
         <v>12.399999999999977</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
+      <c r="O10" s="3">
+        <v>11</v>
       </c>
       <c r="P10" s="3">
         <v>25</v>
@@ -2654,7 +2683,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>42.345454545454544</v>
+        <v>39.733333333333327</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2703,7 +2732,7 @@
         <v>424</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P11" s="1">
         <v>374</v>
@@ -2722,7 +2751,7 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
-        <v>479.31818181818181</v>
+        <v>446.875</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2771,7 +2800,7 @@
         <v>128</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="P12" s="1">
         <v>164</v>
@@ -2792,7 +2821,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>173.41</v>
+        <v>161.55454545454543</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -2840,7 +2869,7 @@
         <v>103</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P13" s="1">
         <v>32</v>
@@ -2859,7 +2888,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
-        <v>63.777777777777779</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -2907,7 +2936,7 @@
         <v>23</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P14" s="1">
         <v>9</v>
@@ -2926,7 +2955,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>36.888888888888886</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2974,7 +3003,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="P15" s="1">
         <v>76</v>
@@ -2993,7 +3022,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
-        <v>67.900000000000006</v>
+        <v>64.090909090909093</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -3040,7 +3069,7 @@
         <v>5.3</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P16" s="1">
         <v>49</v>
@@ -3061,7 +3090,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>67.911111111111111</v>
+        <v>61.370000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -3110,7 +3139,7 @@
         <v>65.699999999999989</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P17" s="1">
         <v>43</v>
@@ -3132,7 +3161,7 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>123.63333333333334</v>
+        <v>112.77000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3184,7 +3213,8 @@
         <v>414</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <f>78+26</f>
+        <v>104</v>
       </c>
       <c r="P18" s="1">
         <v>373</v>
@@ -3205,7 +3235,7 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>504.3</v>
+        <v>467.90909090909093</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3254,7 +3284,7 @@
         <v>9.5</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="P19" s="1">
         <v>232</v>
@@ -3274,7 +3304,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="0"/>
-        <v>131.85</v>
+        <v>131.31818181818181</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -3320,8 +3350,8 @@
       <c r="N20" s="3">
         <v>55</v>
       </c>
-      <c r="O20" s="1">
-        <v>0</v>
+      <c r="O20" s="3">
+        <v>1.4</v>
       </c>
       <c r="P20" s="3">
         <v>61</v>
@@ -3340,7 +3370,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>58.5</v>
+        <v>53.309090909090905</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3388,7 +3418,7 @@
         <v>45</v>
       </c>
       <c r="O21" s="1">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="P21" s="1">
         <v>170</v>
@@ -3407,7 +3437,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>121.85</v>
+        <v>122.04545454545455</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3459,7 +3489,8 @@
         <v>231</v>
       </c>
       <c r="O22" s="1">
-        <v>0</v>
+        <f>SUM(O12+O13)</f>
+        <v>50</v>
       </c>
       <c r="P22" s="1">
         <f>SUM(P12+P13)</f>
@@ -3482,7 +3513,7 @@
       </c>
       <c r="U22" s="1">
         <f t="shared" si="0"/>
-        <v>232.45555555555555</v>
+        <v>214.20999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3532,7 +3563,8 @@
         <v>193</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <f>O2+O6</f>
+        <v>56.1</v>
       </c>
       <c r="P23" s="1">
         <f>P2+P6</f>
@@ -3553,7 +3585,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="0"/>
-        <v>163.22222222222223</v>
+        <v>152.51</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -3605,7 +3637,8 @@
         <v>231</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
+        <f>O12+O13</f>
+        <v>50</v>
       </c>
       <c r="P24" s="1">
         <f>P12+P13</f>
@@ -3626,7 +3659,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="0"/>
-        <v>221.12222222222221</v>
+        <v>204.01</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3673,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="P25" s="1">
         <v>206</v>
@@ -3692,7 +3725,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="0"/>
-        <v>144.17500000000001</v>
+        <v>143.34</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -3807,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
@@ -3826,7 +3859,7 @@
       </c>
       <c r="U27" s="1">
         <f t="shared" ref="U27:U28" si="1">SUM(B27:T27)/COUNTIF(B27:T27,"&gt;0")</f>
-        <v>106.35</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -8373,11 +8406,11 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P18" activeCellId="1" sqref="P22:P23 P18"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8509,6 +8542,10 @@
       <c r="N2" s="1">
         <v>193</v>
       </c>
+      <c r="O2" s="1">
+        <f>Resultado!O2</f>
+        <v>45.1</v>
+      </c>
       <c r="P2" s="1">
         <f>Resultado!P2</f>
         <v>75</v>
@@ -8549,6 +8586,10 @@
       </c>
       <c r="N3" s="1">
         <v>74</v>
+      </c>
+      <c r="O3" s="1">
+        <f>Resultado!O3</f>
+        <v>23.35</v>
       </c>
       <c r="P3" s="1">
         <f>Resultado!P3</f>
@@ -8592,6 +8633,10 @@
       <c r="N4" s="1">
         <v>2.4</v>
       </c>
+      <c r="O4" s="1">
+        <f>Resultado!O4</f>
+        <v>6.75</v>
+      </c>
       <c r="P4" s="1">
         <f>Resultado!P4</f>
         <v>20</v>
@@ -8634,6 +8679,10 @@
       <c r="N5" s="1">
         <v>86</v>
       </c>
+      <c r="O5" s="1">
+        <f>Resultado!O5</f>
+        <v>8</v>
+      </c>
       <c r="P5" s="1">
         <f>Resultado!P5</f>
         <v>73</v>
@@ -8676,6 +8725,10 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
+      <c r="O6" s="1">
+        <f>Resultado!O6</f>
+        <v>11</v>
+      </c>
       <c r="P6" s="1">
         <f>Resultado!P6</f>
         <v>75</v>
@@ -8718,6 +8771,10 @@
       <c r="N7" s="1">
         <v>31</v>
       </c>
+      <c r="O7" s="1">
+        <f>Resultado!O7</f>
+        <v>2.5500000000000003</v>
+      </c>
       <c r="P7" s="1">
         <f>Resultado!P7</f>
         <v>14</v>
@@ -8759,6 +8816,10 @@
       <c r="N8" s="1">
         <v>50</v>
       </c>
+      <c r="O8" s="1">
+        <f>Resultado!O9</f>
+        <v>4.5</v>
+      </c>
       <c r="P8" s="1">
         <f>Resultado!P9</f>
         <v>77</v>
@@ -8802,6 +8863,10 @@
       <c r="N9" s="2">
         <f>SUM(N2:N8)</f>
         <v>436.4</v>
+      </c>
+      <c r="O9" s="2">
+        <f>SUM(O2:O8)</f>
+        <v>101.25</v>
       </c>
       <c r="P9" s="2">
         <f>SUM(P2:P8)</f>
@@ -8850,6 +8915,10 @@
       <c r="N10" s="2">
         <f>SUM(N11:N16)</f>
         <v>373</v>
+      </c>
+      <c r="O10" s="2">
+        <f>SUM(O11:O16)</f>
+        <v>111</v>
       </c>
       <c r="P10" s="2">
         <f>SUM(P11:P15)-P16</f>
@@ -8899,6 +8968,10 @@
       <c r="N11" s="1">
         <v>28</v>
       </c>
+      <c r="O11" s="1">
+        <f>Resultado!O12</f>
+        <v>43</v>
+      </c>
       <c r="P11" s="1">
         <f>Resultado!P12</f>
         <v>164</v>
@@ -8941,6 +9014,10 @@
       <c r="N12" s="1">
         <v>103</v>
       </c>
+      <c r="O12" s="1">
+        <f>Resultado!O13</f>
+        <v>7</v>
+      </c>
       <c r="P12" s="1">
         <f>Resultado!P13</f>
         <v>32</v>
@@ -8982,6 +9059,10 @@
       <c r="N13" s="1">
         <v>23</v>
       </c>
+      <c r="O13" s="1">
+        <f>Resultado!O14</f>
+        <v>10</v>
+      </c>
       <c r="P13" s="1">
         <f>Resultado!P14</f>
         <v>9</v>
@@ -9023,6 +9104,10 @@
       <c r="N14" s="1">
         <v>89</v>
       </c>
+      <c r="O14" s="1">
+        <f>Resultado!O15</f>
+        <v>26</v>
+      </c>
       <c r="P14" s="1">
         <f>Resultado!P15</f>
         <v>76</v>
@@ -9064,6 +9149,10 @@
       <c r="N15" s="1">
         <v>110</v>
       </c>
+      <c r="O15" s="1">
+        <f>Resultado!O17</f>
+        <v>15</v>
+      </c>
       <c r="P15" s="1">
         <f>Resultado!P17</f>
         <v>43</v>
@@ -9102,6 +9191,9 @@
       <c r="N16" s="1">
         <v>20</v>
       </c>
+      <c r="O16" s="29">
+        <v>10</v>
+      </c>
       <c r="P16" s="3">
         <v>68</v>
       </c>
@@ -9137,6 +9229,9 @@
       </c>
       <c r="N17" s="2">
         <v>63</v>
+      </c>
+      <c r="O17" s="2">
+        <v>79</v>
       </c>
       <c r="P17" s="2">
         <v>143</v>
@@ -9176,6 +9271,9 @@
       <c r="N18" s="4">
         <v>68</v>
       </c>
+      <c r="O18" s="4">
+        <v>5.8</v>
+      </c>
       <c r="P18" s="4">
         <v>110</v>
       </c>
@@ -9215,6 +9313,9 @@
       <c r="N19" s="1">
         <v>40</v>
       </c>
+      <c r="O19" s="1">
+        <v>2.6</v>
+      </c>
       <c r="P19" s="1">
         <v>107</v>
       </c>
@@ -9250,6 +9351,9 @@
       <c r="N20" s="1">
         <v>27</v>
       </c>
+      <c r="O20" s="1">
+        <v>3.2</v>
+      </c>
       <c r="P20" s="1">
         <v>3</v>
       </c>
@@ -9286,6 +9390,9 @@
       <c r="N21" s="1">
         <v>1</v>
       </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
       <c r="P21" s="1">
         <v>0</v>
       </c>
@@ -9322,6 +9429,9 @@
       </c>
       <c r="N22" s="4">
         <v>7</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
       </c>
       <c r="P22" s="4">
         <v>151</v>
@@ -9361,6 +9471,9 @@
       <c r="N23" s="4">
         <v>12</v>
       </c>
+      <c r="O23" s="2">
+        <v>73</v>
+      </c>
       <c r="P23" s="4">
         <v>78</v>
       </c>
@@ -9399,6 +9512,9 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
+      <c r="O24" s="1">
+        <v>89</v>
+      </c>
       <c r="P24" s="1">
         <v>196</v>
       </c>
@@ -9435,6 +9551,9 @@
       <c r="N25" s="1">
         <v>5</v>
       </c>
+      <c r="O25" s="3">
+        <v>10</v>
+      </c>
       <c r="P25" s="1">
         <v>0</v>
       </c>
@@ -9469,6 +9588,9 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="1">
@@ -9504,10 +9626,10 @@
   <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
+      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9659,7 +9781,8 @@
         <v>193</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <f>Resultado!O2+Resultado!O6</f>
+        <v>56.1</v>
       </c>
       <c r="P2" s="1">
         <f>Resultado!P2+Resultado!P6</f>
@@ -9682,7 +9805,7 @@
       </c>
       <c r="U2" s="1">
         <f>SUM(B2:T2)/COUNTIF(B2:T2,"&gt;0")</f>
-        <v>172.9</v>
+        <v>162.28181818181818</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -9746,7 +9869,8 @@
         <v>74</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <f>Resultado!O3</f>
+        <v>23.35</v>
       </c>
       <c r="P3" s="1">
         <f>Resultado!P3</f>
@@ -9769,7 +9893,7 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U58" si="0">SUM(B3:T3)/COUNTIF(B3:T3,"&gt;0")</f>
-        <v>67.33</v>
+        <v>63.331818181818193</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -9833,7 +9957,8 @@
         <v>2.4</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <f>Resultado!O4</f>
+        <v>6.75</v>
       </c>
       <c r="P4" s="1">
         <f>Resultado!P4</f>
@@ -9856,7 +9981,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>49.9</v>
+        <v>45.977272727272727</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -9920,7 +10045,8 @@
         <v>86</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <f>Resultado!O5</f>
+        <v>8</v>
       </c>
       <c r="P5" s="1">
         <f>Resultado!P5</f>
@@ -9943,7 +10069,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>53.5</v>
+        <v>48.444444444444443</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -9994,7 +10120,8 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <f>Resultado!O6</f>
+        <v>11</v>
       </c>
       <c r="P6" s="1">
         <f>Resultado!P6</f>
@@ -10017,7 +10144,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="0"/>
-        <v>82.25</v>
+        <v>68</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -10081,7 +10208,8 @@
         <v>31</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <f>Resultado!O7</f>
+        <v>2.5500000000000003</v>
       </c>
       <c r="P7" s="1">
         <f>Resultado!P7</f>
@@ -10104,7 +10232,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="0"/>
-        <v>26.685714285714287</v>
+        <v>23.668749999999999</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -10168,7 +10296,8 @@
         <v>386.4</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <f>Resultado!O8</f>
+        <v>96.75</v>
       </c>
       <c r="P8" s="1">
         <f>Resultado!P8</f>
@@ -10191,7 +10320,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>347.51</v>
+        <v>324.71363636363634</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -10255,7 +10384,8 @@
         <v>50</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <f>Resultado!O9</f>
+        <v>4.5</v>
       </c>
       <c r="P9" s="1">
         <f>Resultado!P9</f>
@@ -10278,7 +10408,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="0"/>
-        <v>142.24444444444444</v>
+        <v>128.47</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -10341,8 +10471,9 @@
         <f>Resultado!N10</f>
         <v>12.399999999999977</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
+      <c r="O10" s="3">
+        <f>Resultado!O10</f>
+        <v>11</v>
       </c>
       <c r="P10" s="3">
         <f>Resultado!P10</f>
@@ -10365,7 +10496,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>43.279999999999994</v>
+        <v>40.345454545454544</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -10429,7 +10560,8 @@
         <v>424</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <f>Resultado!O11</f>
+        <v>90</v>
       </c>
       <c r="P11" s="1">
         <f>Resultado!P11</f>
@@ -10452,7 +10584,7 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
-        <v>521.35</v>
+        <v>482.13636363636363</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -10516,7 +10648,8 @@
         <v>128</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <f>Resultado!O12</f>
+        <v>43</v>
       </c>
       <c r="P12" s="1">
         <f>Resultado!P12</f>
@@ -10539,7 +10672,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>173.41</v>
+        <v>161.55454545454543</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -10603,7 +10736,8 @@
         <v>103</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <f>Resultado!O13</f>
+        <v>7</v>
       </c>
       <c r="P13" s="1">
         <f>Resultado!P13</f>
@@ -10626,7 +10760,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
-        <v>63.777777777777779</v>
+        <v>58.1</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -10690,7 +10824,8 @@
         <v>23</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <f>Resultado!O14</f>
+        <v>10</v>
       </c>
       <c r="P14" s="1">
         <f>Resultado!P14</f>
@@ -10713,7 +10848,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>36.888888888888886</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -10777,7 +10912,8 @@
         <v>89</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <f>Resultado!O15</f>
+        <v>26</v>
       </c>
       <c r="P15" s="1">
         <f>Resultado!P15</f>
@@ -10800,7 +10936,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
-        <v>67.900000000000006</v>
+        <v>64.090909090909093</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -10864,7 +11000,8 @@
         <v>5.3</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <f>Resultado!O16</f>
+        <v>2.5</v>
       </c>
       <c r="P16" s="1">
         <f>Resultado!P16</f>
@@ -10887,7 +11024,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>67.911111111111111</v>
+        <v>61.370000000000005</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -10951,7 +11088,8 @@
         <v>65.699999999999989</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <f>Resultado!O17</f>
+        <v>15</v>
       </c>
       <c r="P17" s="1">
         <f>Resultado!P17</f>
@@ -10974,7 +11112,7 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>113.85555555555555</v>
+        <v>103.97</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -11038,7 +11176,8 @@
         <v>414</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <f>Resultado!O18</f>
+        <v>104</v>
       </c>
       <c r="P18" s="1">
         <f>Resultado!P18</f>
@@ -11061,7 +11200,7 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>495.5</v>
+        <v>459.90909090909093</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -11125,7 +11264,8 @@
         <v>45</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
+        <f>Resultado!O21</f>
+        <v>124</v>
       </c>
       <c r="P19" s="1">
         <f>Resultado!P21</f>
@@ -11148,7 +11288,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="0"/>
-        <v>137.44999999999999</v>
+        <v>136.22727272727272</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -11212,7 +11352,8 @@
         <v>63</v>
       </c>
       <c r="O20" s="1">
-        <v>0</v>
+        <f>Caixa!O17</f>
+        <v>79</v>
       </c>
       <c r="P20" s="1">
         <f>Caixa!P17</f>
@@ -11233,7 +11374,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>162.30000000000001</v>
+        <v>154.72727272727272</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -11293,7 +11434,7 @@
         <v>155</v>
       </c>
       <c r="O21" s="1">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="P21" s="1">
         <v>298</v>
@@ -11312,7 +11453,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>201.66666666666666</v>
+        <v>201.57777777777778</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -11526,7 +11667,7 @@
         <v>24</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P24" s="1">
         <v>85</v>
@@ -11545,7 +11686,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="0"/>
-        <v>100.01111111111112</v>
+        <v>90.02000000000001</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -11604,7 +11745,7 @@
         <v>26</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P25" s="1">
         <v>19</v>
@@ -11623,7 +11764,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="0"/>
-        <v>19.866666666666667</v>
+        <v>18.380000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
@@ -11811,8 +11952,9 @@
         <f>N12+N13</f>
         <v>231</v>
       </c>
-      <c r="O28">
-        <v>0</v>
+      <c r="O28" s="1">
+        <f>Caixa!O11+Caixa!O12</f>
+        <v>50</v>
       </c>
       <c r="P28" s="1">
         <f>Caixa!P11+Caixa!P12</f>
@@ -11835,7 +11977,7 @@
       </c>
       <c r="U28" s="1">
         <f t="shared" si="0"/>
-        <v>230.01</v>
+        <v>213.64545454545453</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
@@ -12641,7 +12783,7 @@
       </c>
       <c r="O40" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="P40" s="6">
         <f t="shared" si="5"/>
@@ -12665,7 +12807,7 @@
       </c>
       <c r="U40" s="1">
         <f t="shared" si="0"/>
-        <v>129.00566090796059</v>
+        <v>137.7324190072369</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -12726,7 +12868,7 @@
       </c>
       <c r="O41" s="14">
         <f t="shared" ref="O41:P41" si="8">(O11/O36)*1000</f>
-        <v>0</v>
+        <v>8.9374379344587886</v>
       </c>
       <c r="P41" s="14">
         <f t="shared" si="8"/>
@@ -12750,7 +12892,7 @@
       </c>
       <c r="U41" s="1">
         <f t="shared" si="0"/>
-        <v>13.245642230906967</v>
+        <v>12.853987294866222</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -12801,8 +12943,9 @@
         <f>N9/N47</f>
         <v>1.9230769230769231</v>
       </c>
-      <c r="O42">
-        <v>0</v>
+      <c r="O42" s="14">
+        <f>O9/O47</f>
+        <v>0.9</v>
       </c>
       <c r="P42" s="14">
         <f>P9/P47</f>
@@ -12825,7 +12968,7 @@
       </c>
       <c r="U42" s="1">
         <f t="shared" si="0"/>
-        <v>8.2765289193841554</v>
+        <v>7.5388760274457409</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -12872,8 +13015,9 @@
         <f>N9/N31</f>
         <v>0.73529411764705888</v>
       </c>
-      <c r="O43">
-        <v>0</v>
+      <c r="O43" s="18">
+        <f>O9/O31</f>
+        <v>0.11842105263157894</v>
       </c>
       <c r="P43" s="18">
         <f>P9/P31</f>
@@ -12896,7 +13040,7 @@
       </c>
       <c r="U43" s="1">
         <f t="shared" si="0"/>
-        <v>3.2818059094341256</v>
+        <v>2.965467423753871</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -12942,8 +13086,9 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44">
-        <v>0</v>
+      <c r="O44" s="18">
+        <f>O6/O28</f>
+        <v>0.22</v>
       </c>
       <c r="P44" s="18">
         <f>P6/P28</f>
@@ -12966,7 +13111,7 @@
       </c>
       <c r="U44" s="1">
         <f t="shared" si="0"/>
-        <v>0.26339464180734024</v>
+        <v>0.25254598135550516</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -13017,8 +13162,9 @@
         <f>N28/N31</f>
         <v>3.3970588235294117</v>
       </c>
-      <c r="O45">
-        <v>0</v>
+      <c r="O45" s="18">
+        <f>O28/O31</f>
+        <v>1.3157894736842106</v>
       </c>
       <c r="P45" s="18">
         <f>P28/P31</f>
@@ -13041,7 +13187,7 @@
       </c>
       <c r="U45" s="1">
         <f t="shared" si="0"/>
-        <v>4.0344181140723867</v>
+        <v>3.7872700558552803</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -13092,8 +13238,9 @@
         <f>N11/N31</f>
         <v>6.2352941176470589</v>
       </c>
-      <c r="O46">
-        <v>0</v>
+      <c r="O46" s="18">
+        <f>O11/O31</f>
+        <v>2.3684210526315788</v>
       </c>
       <c r="P46" s="18">
         <f>P11/P31</f>
@@ -13116,7 +13263,7 @@
       </c>
       <c r="U46" s="1">
         <f t="shared" si="0"/>
-        <v>8.9057587145193544</v>
+        <v>8.3114552907113755</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -13176,8 +13323,8 @@
         <v>26</v>
       </c>
       <c r="O47">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="O47" si="13">SUM(O26+O25)</f>
+        <v>5</v>
       </c>
       <c r="P47">
         <f t="shared" si="10"/>
@@ -13191,7 +13338,7 @@
         <v>12</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47" si="13">SUM(S26+S25)</f>
+        <f t="shared" ref="S47" si="14">SUM(S26+S25)</f>
         <v>34</v>
       </c>
       <c r="T47">
@@ -13200,7 +13347,7 @@
       </c>
       <c r="U47" s="1">
         <f t="shared" si="0"/>
-        <v>19.866666666666667</v>
+        <v>18.380000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -13250,8 +13397,9 @@
       <c r="N48" s="3">
         <v>193</v>
       </c>
-      <c r="O48" s="26">
-        <v>0</v>
+      <c r="O48" s="3">
+        <f>O2</f>
+        <v>56.1</v>
       </c>
       <c r="P48" s="3">
         <f>P2</f>
@@ -13274,7 +13422,7 @@
       </c>
       <c r="U48" s="1">
         <f t="shared" si="0"/>
-        <v>172.9</v>
+        <v>162.28181818181818</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -13322,8 +13470,9 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49">
-        <v>0</v>
+      <c r="O49" s="39">
+        <f>O2-O6</f>
+        <v>45.1</v>
       </c>
       <c r="P49" s="39">
         <f>P2-P6</f>
@@ -13344,7 +13493,7 @@
       </c>
       <c r="U49" s="1">
         <f t="shared" si="0"/>
-        <v>156.75</v>
+        <v>134.42000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -13392,7 +13541,7 @@
         <v>453</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>61.4</v>
       </c>
       <c r="P50">
         <v>438</v>
@@ -13411,7 +13560,7 @@
       </c>
       <c r="U50" s="1">
         <f t="shared" si="0"/>
-        <v>359.97777777777782</v>
+        <v>330.12</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -13462,8 +13611,9 @@
         <f>N50/N21</f>
         <v>2.9225806451612901</v>
       </c>
-      <c r="O51">
-        <v>0</v>
+      <c r="O51" s="18">
+        <f>O50/O21</f>
+        <v>-76.75</v>
       </c>
       <c r="P51" s="18">
         <f>P50/P21</f>
@@ -13485,7 +13635,7 @@
       </c>
       <c r="U51" s="1">
         <f t="shared" si="0"/>
-        <v>1.0915876843696162</v>
+        <v>-8.5021623156303843</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -13537,8 +13687,9 @@
         <f>N50/N11</f>
         <v>1.0683962264150944</v>
       </c>
-      <c r="O52">
-        <v>0</v>
+      <c r="O52" s="18">
+        <f>O50/O11</f>
+        <v>0.68222222222222217</v>
       </c>
       <c r="P52" s="18">
         <f>P50/P11</f>
@@ -13560,7 +13711,7 @@
       </c>
       <c r="U52" s="1">
         <f t="shared" si="0"/>
-        <v>0.8822914502976581</v>
+        <v>0.86228452749011453</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -13612,8 +13763,9 @@
         <f>N28/N11</f>
         <v>0.54481132075471694</v>
       </c>
-      <c r="O53">
-        <v>0</v>
+      <c r="O53" s="25">
+        <f>O28/O11</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P53" s="25">
         <f>P28/P11</f>
@@ -13636,7 +13788,7 @@
       </c>
       <c r="U53" s="1">
         <f t="shared" si="0"/>
-        <v>0.49790922118468373</v>
+        <v>0.50314979703658125</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -13688,8 +13840,9 @@
         <f>(N28+N24)/N11</f>
         <v>0.60141509433962259</v>
       </c>
-      <c r="O54">
-        <v>0</v>
+      <c r="O54" s="25">
+        <f>(O28+O24)/O11</f>
+        <v>0.55666666666666664</v>
       </c>
       <c r="P54" s="25">
         <f>(P28+P24)/P11</f>
@@ -13712,7 +13865,7 @@
       </c>
       <c r="U54" s="1">
         <f t="shared" si="0"/>
-        <v>0.65499705613446246</v>
+        <v>0.64605792981920829</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
@@ -13825,7 +13978,8 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <f>O55+O47</f>
+        <v>5</v>
       </c>
       <c r="P56">
         <f>P55+P47</f>
@@ -13846,7 +14000,7 @@
       </c>
       <c r="U56" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -13892,8 +14046,9 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="O57">
-        <v>0</v>
+      <c r="O57" s="14">
+        <f>O9/O56</f>
+        <v>0.9</v>
       </c>
       <c r="P57" s="14">
         <f>P9/P56</f>
@@ -13914,7 +14069,7 @@
       </c>
       <c r="U57" s="1">
         <f t="shared" si="0"/>
-        <v>3.8596491228070171</v>
+        <v>2.873099415204678</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
@@ -14016,11 +14171,11 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:DG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BO11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BY6" sqref="BY6"/>
+      <selection pane="bottomRight" activeCell="BO40" sqref="BO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14721,6 +14876,10 @@
       <c r="BN3">
         <v>165</v>
       </c>
+      <c r="BO3" s="1">
+        <f>Índices!O2</f>
+        <v>56.1</v>
+      </c>
       <c r="BP3">
         <f>67+7.2</f>
         <v>74.2</v>
@@ -15041,6 +15200,10 @@
       </c>
       <c r="BN4">
         <v>37</v>
+      </c>
+      <c r="BO4" s="1">
+        <f>Índices!O3</f>
+        <v>23.35</v>
       </c>
       <c r="BP4">
         <v>13</v>
@@ -15351,6 +15514,10 @@
       <c r="BN5" s="11">
         <v>0.2</v>
       </c>
+      <c r="BO5" s="1">
+        <f>Índices!O4</f>
+        <v>6.75</v>
+      </c>
       <c r="BP5">
         <v>5.6</v>
       </c>
@@ -15635,6 +15802,10 @@
       <c r="BN6" s="11">
         <v>83</v>
       </c>
+      <c r="BO6" s="1">
+        <f>Índices!O5</f>
+        <v>8</v>
+      </c>
       <c r="BP6">
         <v>1.3</v>
       </c>
@@ -15852,6 +16023,10 @@
       <c r="BN7" s="11">
         <v>0</v>
       </c>
+      <c r="BO7" s="1">
+        <f>Índices!O6</f>
+        <v>11</v>
+      </c>
       <c r="BP7">
         <v>7.2</v>
       </c>
@@ -16037,6 +16212,10 @@
       <c r="BN8" s="11">
         <v>19</v>
       </c>
+      <c r="BO8" s="1">
+        <f>Índices!O7</f>
+        <v>2.5500000000000003</v>
+      </c>
       <c r="BT8" s="1">
         <f>Índices!P7</f>
         <v>14</v>
@@ -16372,6 +16551,10 @@
         <f t="shared" ref="BN9" si="25">SUM(BN3:BN6,BN8)</f>
         <v>304.2</v>
       </c>
+      <c r="BO9" s="1">
+        <f>Índices!O8</f>
+        <v>96.75</v>
+      </c>
       <c r="BP9">
         <f>SUM(BP3:BP6,BP8)</f>
         <v>94.1</v>
@@ -16717,6 +16900,10 @@
       <c r="BN10">
         <v>108</v>
       </c>
+      <c r="BO10" s="1">
+        <f>Índices!O9</f>
+        <v>4.5</v>
+      </c>
       <c r="BP10">
         <v>3</v>
       </c>
@@ -17030,6 +17217,10 @@
       <c r="BN11">
         <v>408</v>
       </c>
+      <c r="BO11" s="1">
+        <f>Índices!O11</f>
+        <v>90</v>
+      </c>
       <c r="BP11">
         <v>97</v>
       </c>
@@ -17362,6 +17553,10 @@
       <c r="BN12">
         <v>109</v>
       </c>
+      <c r="BO12" s="1">
+        <f>Índices!O28</f>
+        <v>50</v>
+      </c>
       <c r="BP12">
         <v>33</v>
       </c>
@@ -17685,6 +17880,10 @@
       <c r="BN13">
         <v>22</v>
       </c>
+      <c r="BO13" s="1">
+        <f>Índices!O19</f>
+        <v>124</v>
+      </c>
       <c r="BP13">
         <v>13</v>
       </c>
@@ -17990,6 +18189,10 @@
       <c r="BN14">
         <v>158</v>
       </c>
+      <c r="BO14" s="1">
+        <f>Índices!O21</f>
+        <v>-0.8</v>
+      </c>
       <c r="BP14">
         <v>49.3</v>
       </c>
@@ -18291,6 +18494,10 @@
       <c r="BN15">
         <v>49</v>
       </c>
+      <c r="BO15" s="1">
+        <f>Índices!O24</f>
+        <v>0.1</v>
+      </c>
       <c r="BP15">
         <v>1.8</v>
       </c>
@@ -18591,6 +18798,10 @@
       </c>
       <c r="BN16">
         <v>23</v>
+      </c>
+      <c r="BO16" s="1">
+        <f>Índices!O25</f>
+        <v>5</v>
       </c>
       <c r="BP16">
         <v>4.5999999999999996</v>
@@ -21234,8 +21445,9 @@
         <f t="shared" si="66"/>
         <v>40.396039603960396</v>
       </c>
-      <c r="BO24">
-        <v>0</v>
+      <c r="BO24" s="14">
+        <f>BO11/BO18</f>
+        <v>225</v>
       </c>
       <c r="BP24" s="14">
         <f>BP11/BP18</f>
@@ -21576,7 +21788,7 @@
         <v>1.9230769230769231</v>
       </c>
       <c r="BK25" s="18">
-        <f t="shared" ref="BK25:BN25" si="82">BK10/BK16</f>
+        <f t="shared" ref="BK25:BO25" si="82">BK10/BK16</f>
         <v>4.08</v>
       </c>
       <c r="BL25" s="18">
@@ -21591,8 +21803,9 @@
         <f t="shared" si="82"/>
         <v>4.6956521739130439</v>
       </c>
-      <c r="BO25">
-        <v>0</v>
+      <c r="BO25" s="14">
+        <f t="shared" si="82"/>
+        <v>0.9</v>
       </c>
       <c r="BP25" s="14">
         <f t="shared" ref="BP25:BT25" si="83">BP10/BP16</f>
@@ -21943,15 +22156,16 @@
         <v>3.6976744186046511</v>
       </c>
       <c r="BM26" s="18">
-        <f t="shared" ref="BM26:BN26" si="102">BM10/BM19</f>
+        <f t="shared" ref="BM26:BO26" si="102">BM10/BM19</f>
         <v>2.0338983050847457</v>
       </c>
       <c r="BN26" s="18">
         <f t="shared" si="102"/>
         <v>1.6615384615384616</v>
       </c>
-      <c r="BO26">
-        <v>0</v>
+      <c r="BO26" s="14">
+        <f t="shared" si="102"/>
+        <v>0.11842105263157894</v>
       </c>
       <c r="BP26" s="14">
         <f t="shared" ref="BP26:BT26" si="103">BP10/BP19</f>
@@ -22304,43 +22518,44 @@
       <c r="BN27">
         <v>0</v>
       </c>
-      <c r="BO27">
-        <v>0</v>
+      <c r="BO27" s="14">
+        <f t="shared" ref="BO27" si="119">BO7/BO12</f>
+        <v>0.22</v>
       </c>
       <c r="BP27" s="14">
-        <f t="shared" ref="BP27:BT27" si="119">BP7/BP12</f>
+        <f t="shared" ref="BP27:BT27" si="120">BP7/BP12</f>
         <v>0.2181818181818182</v>
       </c>
       <c r="BQ27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="BR27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="BS27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>4.878048780487805E-2</v>
       </c>
       <c r="BT27" s="14">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.38265306122448978</v>
       </c>
       <c r="BU27" s="14">
-        <f t="shared" ref="BU27:BX27" si="120">BU7/BU12</f>
+        <f t="shared" ref="BU27:BX27" si="121">BU7/BU12</f>
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="BV27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.32596685082872928</v>
       </c>
       <c r="BW27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.17934782608695651</v>
       </c>
       <c r="BX27" s="14">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.37894736842105264</v>
       </c>
       <c r="BY27" s="14">
@@ -22348,77 +22563,77 @@
         <v>0.19753086419753085</v>
       </c>
       <c r="BZ27" s="14">
-        <f t="shared" ref="BZ27:CD27" si="121">BZ7/BZ12</f>
+        <f t="shared" ref="BZ27:CD27" si="122">BZ7/BZ12</f>
         <v>0.26027397260273971</v>
       </c>
       <c r="CA27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.72676056338028172</v>
       </c>
       <c r="CB27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.14077669902912621</v>
       </c>
       <c r="CC27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>8.0321285140562249E-2</v>
       </c>
       <c r="CD27" s="14">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="CE27" s="14">
-        <f t="shared" ref="CE27:CH27" si="122">CE7/CE12</f>
+        <f t="shared" ref="CE27:CH27" si="123">CE7/CE12</f>
         <v>0</v>
       </c>
       <c r="CF27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="CG27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="CH27" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="CI27" s="14">
         <v>0</v>
       </c>
       <c r="CJ27" s="14">
-        <f t="shared" ref="CJ27:CM27" si="123">CJ7/CJ12</f>
+        <f t="shared" ref="CJ27:CM27" si="124">CJ7/CJ12</f>
         <v>0.14646464646464646</v>
       </c>
       <c r="CK27" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="CL27" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>2.9940119760479044E-3</v>
       </c>
       <c r="CM27" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="CN27">
         <v>0</v>
       </c>
       <c r="CO27" s="14">
-        <f t="shared" ref="CO27:CR27" si="124">CO7/CO12</f>
+        <f t="shared" ref="CO27:CR27" si="125">CO7/CO12</f>
         <v>2.9850746268656716E-2</v>
       </c>
       <c r="CP27" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.1076923076923077</v>
       </c>
       <c r="CQ27" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.15584415584415584</v>
       </c>
       <c r="CR27" s="14">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.24719101123595505</v>
       </c>
     </row>
@@ -22430,11 +22645,11 @@
         <v>0</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:D28" si="125">C12/C19</f>
+        <f t="shared" ref="C28:D28" si="126">C12/C19</f>
         <v>1.1320754716981132</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.86792452830188682</v>
       </c>
       <c r="E28" s="14">
@@ -22444,43 +22659,43 @@
         <v>0</v>
       </c>
       <c r="G28" s="14">
-        <f t="shared" ref="G28" si="126">G12/G19</f>
+        <f t="shared" ref="G28" si="127">G12/G19</f>
         <v>3.2727272727272729</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" ref="H28:L28" si="127">H12/H19</f>
+        <f t="shared" ref="H28:L28" si="128">H12/H19</f>
         <v>4.3103448275862073</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.1309523809523809</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.25</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>2.375</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" ref="M28:P28" si="128">M12/M19</f>
+        <f t="shared" ref="M28:P28" si="129">M12/M19</f>
         <v>3.0689655172413794</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>3.0851063829787235</v>
       </c>
       <c r="O28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.7169811320754718</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>2.15625</v>
       </c>
       <c r="Q28">
@@ -22490,49 +22705,49 @@
         <v>0</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28:U28" si="129">S12/S19</f>
+        <f t="shared" ref="S28:U28" si="130">S12/S19</f>
         <v>2.4651162790697674</v>
       </c>
       <c r="T28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>2.0681818181818183</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1.8979591836734695</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28" s="14">
-        <f t="shared" ref="W28:Z28" si="130">W12/W19</f>
+        <f t="shared" ref="W28:Z28" si="131">W12/W19</f>
         <v>0</v>
       </c>
       <c r="X28" s="14">
         <v>0</v>
       </c>
       <c r="Y28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>2.6518518518518515</v>
       </c>
       <c r="Z28" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>1.7209302325581395</v>
       </c>
       <c r="AB28" s="14">
-        <f t="shared" ref="AB28:AE28" si="131">AB12/AB19</f>
+        <f t="shared" ref="AB28:AE28" si="132">AB12/AB19</f>
         <v>4.2153846153846155</v>
       </c>
       <c r="AC28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>3.6491228070175437</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>3.6862745098039214</v>
       </c>
       <c r="AE28" s="14">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>4</v>
       </c>
       <c r="AF28" s="18">
@@ -22540,14 +22755,14 @@
         <v>3.9699999999999998</v>
       </c>
       <c r="AG28" s="14">
-        <f t="shared" ref="AG28:AI28" si="132">AG12/AG19</f>
+        <f t="shared" ref="AG28:AI28" si="133">AG12/AG19</f>
         <v>1.7380952380952381</v>
       </c>
       <c r="AH28" s="14">
         <v>0</v>
       </c>
       <c r="AI28" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.5806451612903225</v>
       </c>
       <c r="AJ28" s="14">
@@ -22566,19 +22781,19 @@
         <v>0</v>
       </c>
       <c r="AO28" s="14">
-        <f t="shared" ref="AO28" si="133">AO12/AO19</f>
+        <f t="shared" ref="AO28" si="134">AO12/AO19</f>
         <v>5.8611111111111107</v>
       </c>
       <c r="AP28" s="14">
-        <f t="shared" ref="AP28:AR28" si="134">AP12/AP19</f>
+        <f t="shared" ref="AP28:AR28" si="135">AP12/AP19</f>
         <v>1.9411764705882353</v>
       </c>
       <c r="AQ28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>2.0487804878048781</v>
       </c>
       <c r="AR28" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.4042553191489362</v>
       </c>
       <c r="AS28" s="14">
@@ -22591,57 +22806,57 @@
         <v>7.02</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" ref="AV28:AY28" si="135">AV12/AV19</f>
+        <f t="shared" ref="AV28:AY28" si="136">AV12/AV19</f>
         <v>7.080645161290323</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>4.9859154929577461</v>
       </c>
       <c r="AX28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>4.676056338028169</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>3.6222222222222222</v>
       </c>
       <c r="AZ28">
         <v>0</v>
       </c>
       <c r="BA28" s="14">
-        <f t="shared" ref="BA28:BD28" si="136">BA12/BA19</f>
+        <f t="shared" ref="BA28:BD28" si="137">BA12/BA19</f>
         <v>1.8571428571428572</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>2.1851851851851851</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1.15625</v>
       </c>
       <c r="BD28" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1.326086956521739</v>
       </c>
       <c r="BE28">
         <v>0</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" ref="BF28:BI28" si="137">BF12/BF19</f>
+        <f t="shared" ref="BF28:BI28" si="138">BF12/BF19</f>
         <v>1.5454545454545454</v>
       </c>
       <c r="BG28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1.3103448275862069</v>
       </c>
       <c r="BH28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1.0731707317073171</v>
       </c>
       <c r="BI28" s="14">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1.3018867924528301</v>
       </c>
       <c r="BJ28" s="18">
@@ -22652,53 +22867,54 @@
         <v>0</v>
       </c>
       <c r="BL28" s="18">
-        <f t="shared" ref="BL28:BN28" si="138">BL12/BL19</f>
+        <f t="shared" ref="BL28:BO28" si="139">BL12/BL19</f>
         <v>3.13953488372093</v>
       </c>
       <c r="BM28" s="18">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1.8644067796610169</v>
       </c>
       <c r="BN28" s="18">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1.676923076923077</v>
       </c>
-      <c r="BO28">
-        <v>0</v>
+      <c r="BO28" s="14">
+        <f t="shared" si="139"/>
+        <v>1.3157894736842106</v>
       </c>
       <c r="BP28" s="14">
-        <f t="shared" ref="BP28:BT28" si="139">BP12/BP19</f>
+        <f t="shared" ref="BP28:BT28" si="140">BP12/BP19</f>
         <v>0.71739130434782605</v>
       </c>
       <c r="BQ28" s="14">
         <v>0</v>
       </c>
       <c r="BR28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1.2702702702702702</v>
       </c>
       <c r="BS28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.78846153846153844</v>
       </c>
       <c r="BT28" s="14">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>3.5636363636363635</v>
       </c>
       <c r="BU28" s="14">
-        <f t="shared" ref="BU28:BX28" si="140">BU12/BU19</f>
+        <f t="shared" ref="BU28:BX28" si="141">BU12/BU19</f>
         <v>2.7123287671232879</v>
       </c>
       <c r="BV28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3.7708333333333335</v>
       </c>
       <c r="BW28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2.6285714285714286</v>
       </c>
       <c r="BX28" s="14">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BY28" s="14">
@@ -22706,39 +22922,39 @@
         <v>5.7857142857142856</v>
       </c>
       <c r="BZ28" s="14">
-        <f t="shared" ref="BZ28:CD28" si="141">BZ12/BZ19</f>
+        <f t="shared" ref="BZ28:CD28" si="142">BZ12/BZ19</f>
         <v>4.5061728395061724</v>
       </c>
       <c r="CA28" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>5.3787878787878789</v>
       </c>
       <c r="CB28" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>3.5517241379310347</v>
       </c>
       <c r="CC28" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>3.3648648648648649</v>
       </c>
       <c r="CD28" s="14">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>3.9883720930232558</v>
       </c>
       <c r="CE28" s="14">
-        <f t="shared" ref="CE28:CH28" si="142">CE12/CE19</f>
+        <f t="shared" ref="CE28:CH28" si="143">CE12/CE19</f>
         <v>2.8936170212765959</v>
       </c>
       <c r="CF28" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>2.66</v>
       </c>
       <c r="CG28" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>2.5370370370370372</v>
       </c>
       <c r="CH28" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>2.2432432432432434</v>
       </c>
       <c r="CI28" s="14">
@@ -22746,19 +22962,19 @@
         <v>5.0188679245283021</v>
       </c>
       <c r="CJ28" s="14">
-        <f t="shared" ref="CJ28:CM28" si="143">CJ12/CJ19</f>
+        <f t="shared" ref="CJ28:CM28" si="144">CJ12/CJ19</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="CK28" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>4.5625</v>
       </c>
       <c r="CL28" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>2.5303030303030303</v>
       </c>
       <c r="CM28" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>2.6190476190476191</v>
       </c>
       <c r="CN28">
@@ -22771,11 +22987,11 @@
         <v>0</v>
       </c>
       <c r="CQ28" s="14">
-        <f t="shared" ref="CQ28:CR28" si="144">CQ12/CQ19</f>
+        <f t="shared" ref="CQ28:CR28" si="145">CQ12/CQ19</f>
         <v>1.8780487804878048</v>
       </c>
       <c r="CR28" s="14">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>1.8163265306122449</v>
       </c>
     </row>
@@ -22787,11 +23003,11 @@
         <v>0</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29:D29" si="145">C11/C19</f>
+        <f t="shared" ref="C29:D29" si="146">C11/C19</f>
         <v>2.7169811320754715</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1.8679245283018868</v>
       </c>
       <c r="E29" s="14">
@@ -22801,43 +23017,43 @@
         <v>0</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" ref="G29" si="146">G11/G19</f>
+        <f t="shared" ref="G29" si="147">G11/G19</f>
         <v>5.0909090909090908</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29:L29" si="147">H11/H19</f>
+        <f t="shared" ref="H29:L29" si="148">H11/H19</f>
         <v>6.6379310344827589</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>5.916666666666667</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.9264705882352942</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>5.895833333333333</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>9.1678571428571427</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" ref="M29:P29" si="148">M11/M19</f>
+        <f t="shared" ref="M29:P29" si="149">M11/M19</f>
         <v>6.0172413793103452</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5.4468085106382977</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>6.2075471698113205</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5.921875</v>
       </c>
       <c r="Q29">
@@ -22847,49 +23063,49 @@
         <v>0</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" ref="S29:U29" si="149">S11/S19</f>
+        <f t="shared" ref="S29:U29" si="150">S11/S19</f>
         <v>4.5116279069767442</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>3.5510204081632653</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" ref="W29:Z29" si="150">W11/W19</f>
+        <f t="shared" ref="W29:Z29" si="151">W11/W19</f>
         <v>2.6792452830188678</v>
       </c>
       <c r="X29" s="14">
         <v>0</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>5.5925925925925926</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>4.441860465116279</v>
       </c>
       <c r="AB29" s="14">
-        <f t="shared" ref="AB29:AE29" si="151">AB11/AB19</f>
+        <f t="shared" ref="AB29:AE29" si="152">AB11/AB19</f>
         <v>10.030769230769231</v>
       </c>
       <c r="AC29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>7.8596491228070171</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="AE29" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>6.6071428571428568</v>
       </c>
       <c r="AF29" s="18">
@@ -22897,14 +23113,14 @@
         <v>5.3366666666666669</v>
       </c>
       <c r="AG29" s="14">
-        <f t="shared" ref="AG29:AI29" si="152">AG11/AG19</f>
+        <f t="shared" ref="AG29:AI29" si="153">AG11/AG19</f>
         <v>3.7142857142857144</v>
       </c>
       <c r="AH29" s="14">
         <v>0</v>
       </c>
       <c r="AI29" s="14">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>3.225806451612903</v>
       </c>
       <c r="AJ29" s="14">
@@ -22923,19 +23139,19 @@
         <v>0</v>
       </c>
       <c r="AO29" s="14">
-        <f t="shared" ref="AO29" si="153">AO11/AO19</f>
+        <f t="shared" ref="AO29" si="154">AO11/AO19</f>
         <v>7.8055555555555554</v>
       </c>
       <c r="AP29" s="14">
-        <f t="shared" ref="AP29:AR29" si="154">AP11/AP19</f>
+        <f t="shared" ref="AP29:AR29" si="155">AP11/AP19</f>
         <v>3.0980392156862746</v>
       </c>
       <c r="AQ29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>3.024390243902439</v>
       </c>
       <c r="AR29" s="14">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1.3617021276595744</v>
       </c>
       <c r="AS29" s="14">
@@ -22948,57 +23164,57 @@
         <v>18.86</v>
       </c>
       <c r="AV29" s="14">
-        <f t="shared" ref="AV29:AY29" si="155">AV11/AV19</f>
+        <f t="shared" ref="AV29:AY29" si="156">AV11/AV19</f>
         <v>17.93548387096774</v>
       </c>
       <c r="AW29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>14.43661971830986</v>
       </c>
       <c r="AX29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>9.070422535211268</v>
       </c>
       <c r="AY29" s="14">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>10.155555555555555</v>
       </c>
       <c r="AZ29">
         <v>0</v>
       </c>
       <c r="BA29" s="14">
-        <f t="shared" ref="BA29:BD29" si="156">BA11/BA19</f>
+        <f t="shared" ref="BA29:BD29" si="157">BA11/BA19</f>
         <v>4.7</v>
       </c>
       <c r="BB29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.8148148148148149</v>
       </c>
       <c r="BC29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>2.859375</v>
       </c>
       <c r="BD29" s="14">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.4347826086956523</v>
       </c>
       <c r="BE29">
         <v>0</v>
       </c>
       <c r="BF29" s="14">
-        <f t="shared" ref="BF29:BI29" si="157">BF11/BF19</f>
+        <f t="shared" ref="BF29:BI29" si="158">BF11/BF19</f>
         <v>4.418181818181818</v>
       </c>
       <c r="BG29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.7068965517241379</v>
       </c>
       <c r="BH29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.8780487804878048</v>
       </c>
       <c r="BI29" s="14">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.0566037735849059</v>
       </c>
       <c r="BJ29" s="18">
@@ -23009,53 +23225,54 @@
         <v>0</v>
       </c>
       <c r="BL29" s="18">
-        <f t="shared" ref="BL29:BN29" si="158">BL11/BL19</f>
+        <f t="shared" ref="BL29:BO29" si="159">BL11/BL19</f>
         <v>10.86046511627907</v>
       </c>
       <c r="BM29" s="18">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>6.5254237288135597</v>
       </c>
       <c r="BN29" s="18">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>6.2769230769230768</v>
       </c>
-      <c r="BO29">
-        <v>0</v>
+      <c r="BO29" s="14">
+        <f t="shared" si="159"/>
+        <v>2.3684210526315788</v>
       </c>
       <c r="BP29" s="14">
-        <f t="shared" ref="BP29:BT29" si="159">BP11/BP19</f>
+        <f t="shared" ref="BP29:BT29" si="160">BP11/BP19</f>
         <v>2.1086956521739131</v>
       </c>
       <c r="BQ29" s="14">
         <v>0</v>
       </c>
       <c r="BR29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2.3243243243243241</v>
       </c>
       <c r="BS29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.75</v>
       </c>
       <c r="BT29" s="14">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>6.8</v>
       </c>
       <c r="BU29" s="14">
-        <f t="shared" ref="BU29:BX29" si="160">BU11/BU19</f>
+        <f t="shared" ref="BU29:BX29" si="161">BU11/BU19</f>
         <v>4.9589041095890414</v>
       </c>
       <c r="BV29" s="14">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>7.166666666666667</v>
       </c>
       <c r="BW29" s="14">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>3.7142857142857144</v>
       </c>
       <c r="BX29" s="14">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>6.8421052631578947</v>
       </c>
       <c r="BY29" s="14">
@@ -23063,39 +23280,39 @@
         <v>11.985714285714286</v>
       </c>
       <c r="BZ29" s="14">
-        <f t="shared" ref="BZ29:CD29" si="161">BZ11/BZ19</f>
+        <f t="shared" ref="BZ29:CD29" si="162">BZ11/BZ19</f>
         <v>9.7654320987654319</v>
       </c>
       <c r="CA29" s="14">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>14.075757575757576</v>
       </c>
       <c r="CB29" s="14">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>9.1724137931034484</v>
       </c>
       <c r="CC29" s="14">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>8.0810810810810807</v>
       </c>
       <c r="CD29" s="14">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>9.8604651162790695</v>
       </c>
       <c r="CE29" s="14">
-        <f t="shared" ref="CE29:CH29" si="162">CE11/CE19</f>
+        <f t="shared" ref="CE29:CH29" si="163">CE11/CE19</f>
         <v>7.2765957446808507</v>
       </c>
       <c r="CF29" s="14">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>8.14</v>
       </c>
       <c r="CG29" s="14">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="CH29" s="14">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>5.4054054054054053</v>
       </c>
       <c r="CI29" s="14">
@@ -23103,19 +23320,19 @@
         <v>12.622641509433961</v>
       </c>
       <c r="CJ29" s="14">
-        <f t="shared" ref="CJ29:CM29" si="163">CJ11/CJ19</f>
+        <f t="shared" ref="CJ29:CM29" si="164">CJ11/CJ19</f>
         <v>10.888888888888889</v>
       </c>
       <c r="CK29" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>9.0208333333333339</v>
       </c>
       <c r="CL29" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>4.8939393939393936</v>
       </c>
       <c r="CM29" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.1746031746031749</v>
       </c>
       <c r="CN29">
@@ -23128,11 +23345,11 @@
         <v>0</v>
       </c>
       <c r="CQ29" s="14">
-        <f t="shared" ref="CQ29:CR29" si="164">CQ11/CQ19</f>
+        <f t="shared" ref="CQ29:CR29" si="165">CQ11/CQ19</f>
         <v>3.975609756097561</v>
       </c>
       <c r="CR29" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>4.8979591836734695</v>
       </c>
     </row>
@@ -23145,15 +23362,15 @@
         <v>102</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:F30" si="165">D3-D7</f>
+        <f t="shared" ref="D30:F30" si="166">D3-D7</f>
         <v>72</v>
       </c>
       <c r="E30">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>26</v>
       </c>
       <c r="F30">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>10.4</v>
       </c>
       <c r="G30">
@@ -23180,15 +23397,15 @@
         <v>48</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:P30" si="166">N3-N7</f>
+        <f t="shared" ref="N30:P30" si="167">N3-N7</f>
         <v>114</v>
       </c>
       <c r="O30">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>46</v>
       </c>
       <c r="P30">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>75</v>
       </c>
       <c r="R30" s="14">
@@ -23207,15 +23424,15 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" ref="X30:Z30" si="167">X3-X7</f>
+        <f t="shared" ref="X30:Z30" si="168">X3-X7</f>
         <v>47</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>66</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>89</v>
       </c>
       <c r="AB30">
@@ -23277,19 +23494,19 @@
         <v>326</v>
       </c>
       <c r="AV30" s="1">
-        <f t="shared" ref="AV30:AY30" si="168">AV3-AV7</f>
+        <f t="shared" ref="AV30:AY30" si="169">AV3-AV7</f>
         <v>268</v>
       </c>
       <c r="AW30" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>258</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>234</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>245</v>
       </c>
       <c r="BA30">
@@ -23309,15 +23526,15 @@
         <v>82</v>
       </c>
       <c r="BG30">
-        <f t="shared" ref="BG30:BI30" si="169">BG3-BG7</f>
+        <f t="shared" ref="BG30:BI30" si="170">BG3-BG7</f>
         <v>74</v>
       </c>
       <c r="BH30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>31</v>
       </c>
       <c r="BI30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>34</v>
       </c>
       <c r="BJ30">
@@ -23334,21 +23551,25 @@
       </c>
       <c r="BN30">
         <v>0</v>
+      </c>
+      <c r="BO30">
+        <f>BO3-BO7</f>
+        <v>45.1</v>
       </c>
       <c r="BP30">
         <f>BP3-BP7</f>
         <v>67</v>
       </c>
       <c r="BQ30">
-        <f t="shared" ref="BQ30:BS30" si="170">BQ3-BQ7</f>
+        <f t="shared" ref="BQ30:BS30" si="171">BQ3-BQ7</f>
         <v>29</v>
       </c>
       <c r="BR30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>30</v>
       </c>
       <c r="BS30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>67</v>
       </c>
       <c r="BT30">
@@ -23360,15 +23581,15 @@
         <v>141</v>
       </c>
       <c r="BV30">
-        <f t="shared" ref="BV30:BX30" si="171">BV3-BV7</f>
+        <f t="shared" ref="BV30:BX30" si="172">BV3-BV7</f>
         <v>114</v>
       </c>
       <c r="BW30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>68</v>
       </c>
       <c r="BX30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>83</v>
       </c>
       <c r="BY30" s="1">
@@ -23422,15 +23643,15 @@
         <v>30</v>
       </c>
       <c r="CP30">
-        <f t="shared" ref="CP30:CR30" si="172">CP3-CP7</f>
+        <f t="shared" ref="CP30:CR30" si="173">CP3-CP7</f>
         <v>62</v>
       </c>
       <c r="CQ30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>86</v>
       </c>
       <c r="CR30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>97</v>
       </c>
       <c r="CT30">
@@ -23438,15 +23659,15 @@
         <v>70</v>
       </c>
       <c r="CU30">
-        <f t="shared" ref="CU30:CW30" si="173">CU3-CU7</f>
+        <f t="shared" ref="CU30:CW30" si="174">CU3-CU7</f>
         <v>100</v>
       </c>
       <c r="CV30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>39</v>
       </c>
       <c r="CW30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>10</v>
       </c>
       <c r="CY30">
@@ -23454,15 +23675,15 @@
         <v>11</v>
       </c>
       <c r="CZ30">
-        <f t="shared" ref="CZ30:DB30" si="174">CZ3-CZ7</f>
+        <f t="shared" ref="CZ30:DB30" si="175">CZ3-CZ7</f>
         <v>7.7</v>
       </c>
       <c r="DA30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>2.4</v>
       </c>
       <c r="DB30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>10.8</v>
       </c>
     </row>
@@ -23666,7 +23887,8 @@
         <v>349</v>
       </c>
       <c r="BO31">
-        <v>0</v>
+        <f>Índices!O50</f>
+        <v>61.4</v>
       </c>
       <c r="BP31">
         <v>65.2</v>
@@ -23894,19 +24116,19 @@
         <v>0.3</v>
       </c>
       <c r="AG32" s="14">
-        <f t="shared" ref="AG32:AJ32" si="175">AG31/AG14</f>
+        <f t="shared" ref="AG32:AJ32" si="176">AG31/AG14</f>
         <v>3.078125</v>
       </c>
       <c r="AH32" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>10.772727272727273</v>
       </c>
       <c r="AI32" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>10.958333333333334</v>
       </c>
       <c r="AJ32" s="14">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-19.363636363636363</v>
       </c>
       <c r="AK32" s="14">
@@ -23929,19 +24151,19 @@
         <v>2.1621621621621623E-2</v>
       </c>
       <c r="AQ32" s="14">
-        <f t="shared" ref="AQ32:AT32" si="176">AQ31/AQ14</f>
+        <f t="shared" ref="AQ32:AT32" si="177">AQ31/AQ14</f>
         <v>3.4615384615384617E-2</v>
       </c>
       <c r="AR32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2.0222222222222221</v>
       </c>
       <c r="AS32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="AT32" s="14">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="AU32" s="14">
@@ -24006,7 +24228,8 @@
         <v>2.2088607594936707</v>
       </c>
       <c r="BO32" s="14">
-        <v>0</v>
+        <f>BO31/BO14</f>
+        <v>-76.75</v>
       </c>
       <c r="BP32" s="14">
         <v>1.3225152129817446</v>
@@ -24041,59 +24264,59 @@
         <v>0.81182795698924726</v>
       </c>
       <c r="BZ32" s="14">
-        <f t="shared" ref="BZ32:CC32" si="177">BZ31/BZ14</f>
+        <f t="shared" ref="BZ32:CC32" si="178">BZ31/BZ14</f>
         <v>0.87431693989071035</v>
       </c>
       <c r="CA32" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.55521472392638038</v>
       </c>
       <c r="CB32" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>1.8013245033112584</v>
       </c>
       <c r="CC32" s="14">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>1.2804232804232805</v>
       </c>
       <c r="CD32" s="14">
-        <f t="shared" ref="CD32:CJ32" si="178">CD31/CD14</f>
+        <f t="shared" ref="CD32:CJ32" si="179">CD31/CD14</f>
         <v>2.1770833333333335</v>
       </c>
       <c r="CE32" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>2.268041237113402</v>
       </c>
       <c r="CF32" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>1.6495327102803738</v>
       </c>
       <c r="CG32" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>39.666666666666664</v>
       </c>
       <c r="CH32" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>1.6568627450980393</v>
       </c>
       <c r="CI32" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>4.2327586206896548</v>
       </c>
       <c r="CJ32" s="14">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>2.2675438596491229</v>
       </c>
       <c r="CK32" s="14">
-        <f t="shared" ref="CK32:CM32" si="179">CK31/CK14</f>
+        <f t="shared" ref="CK32:CM32" si="180">CK31/CK14</f>
         <v>19.16</v>
       </c>
       <c r="CL32" s="14">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.83371824480369516</v>
       </c>
       <c r="CM32" s="14">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>1.0990712074303406</v>
       </c>
       <c r="CN32" s="14">
@@ -24289,19 +24512,19 @@
         <v>5.0632911392405064E-3</v>
       </c>
       <c r="AQ33" s="14">
-        <f t="shared" ref="AQ33:AT33" si="180">AQ31/AQ11</f>
+        <f t="shared" ref="AQ33:AT33" si="181">AQ31/AQ11</f>
         <v>7.2580645161290326E-3</v>
       </c>
       <c r="AR33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.14218749999999999</v>
       </c>
       <c r="AS33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="AT33" s="14">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="AU33" s="14">
@@ -24366,7 +24589,8 @@
         <v>0.85539215686274506</v>
       </c>
       <c r="BO33" s="14">
-        <v>0</v>
+        <f>BO31/BO11</f>
+        <v>0.68222222222222217</v>
       </c>
       <c r="BP33" s="14">
         <v>0.6721649484536083</v>
@@ -24401,59 +24625,59 @@
         <v>0.1799761620977354</v>
       </c>
       <c r="BZ33" s="14">
-        <f t="shared" ref="BZ33:CC33" si="181">BZ31/BZ11</f>
+        <f t="shared" ref="BZ33:CC33" si="182">BZ31/BZ11</f>
         <v>0.20227560050568899</v>
       </c>
       <c r="CA33" s="14">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.19483315392895587</v>
       </c>
       <c r="CB33" s="14">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.51127819548872178</v>
       </c>
       <c r="CC33" s="14">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.40468227424749165</v>
       </c>
       <c r="CD33" s="14">
-        <f t="shared" ref="CD33:CJ33" si="182">CD31/CD11</f>
+        <f t="shared" ref="CD33:CJ33" si="183">CD31/CD11</f>
         <v>0.98584905660377353</v>
       </c>
       <c r="CE33" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1.2865497076023391</v>
       </c>
       <c r="CF33" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.86732186732186733</v>
       </c>
       <c r="CG33" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1.4875</v>
       </c>
       <c r="CH33" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.84499999999999997</v>
       </c>
       <c r="CI33" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.7339312406576981</v>
       </c>
       <c r="CJ33" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.87925170068027214</v>
       </c>
       <c r="CK33" s="14">
-        <f t="shared" ref="CK33:CM33" si="183">CK31/CK11</f>
+        <f t="shared" ref="CK33:CM33" si="184">CK31/CK11</f>
         <v>1.1062355658198615</v>
       </c>
       <c r="CL33" s="14">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="CM33" s="14">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>1.0889570552147239</v>
       </c>
       <c r="CN33" s="14">
@@ -24649,19 +24873,19 @@
         <v>0.62658227848101267</v>
       </c>
       <c r="AQ34" s="14">
-        <f t="shared" ref="AQ34:AT34" si="184">AQ12/AQ11</f>
+        <f t="shared" ref="AQ34:AT34" si="185">AQ12/AQ11</f>
         <v>0.67741935483870963</v>
       </c>
       <c r="AR34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>1.03125</v>
       </c>
       <c r="AS34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AT34" s="14">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AU34" s="14">
@@ -24726,7 +24950,8 @@
         <v>0.26715686274509803</v>
       </c>
       <c r="BO34" s="14">
-        <v>0</v>
+        <f>BO12/BO11</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BP34" s="14">
         <v>0.34020618556701032</v>
@@ -24761,59 +24986,59 @@
         <v>0.48271752085816449</v>
       </c>
       <c r="BZ34" s="14">
-        <f t="shared" ref="BZ34:CC34" si="185">BZ12/BZ11</f>
+        <f t="shared" ref="BZ34:CC34" si="186">BZ12/BZ11</f>
         <v>0.46144121365360302</v>
       </c>
       <c r="CA34" s="14">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.38213132400430572</v>
       </c>
       <c r="CB34" s="14">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.38721804511278196</v>
       </c>
       <c r="CC34" s="14">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.41638795986622074</v>
       </c>
       <c r="CD34" s="14">
-        <f t="shared" ref="CD34:CJ34" si="186">CD12/CD11</f>
+        <f t="shared" ref="CD34:CJ34" si="187">CD12/CD11</f>
         <v>0.40448113207547171</v>
       </c>
       <c r="CE34" s="14">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.39766081871345027</v>
       </c>
       <c r="CF34" s="14">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.32678132678132676</v>
       </c>
       <c r="CG34" s="14">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.5708333333333333</v>
       </c>
       <c r="CH34" s="14">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="CI34" s="14">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.39760837070254113</v>
       </c>
       <c r="CJ34" s="14">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.33673469387755101</v>
       </c>
       <c r="CK34" s="14">
-        <f t="shared" ref="CK34:CM34" si="187">CK12/CK11</f>
+        <f t="shared" ref="CK34:CM34" si="188">CK12/CK11</f>
         <v>0.50577367205542723</v>
       </c>
       <c r="CL34" s="14">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.51702786377708976</v>
       </c>
       <c r="CM34" s="14">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.50613496932515334</v>
       </c>
       <c r="CN34" s="14">
@@ -24882,87 +25107,87 @@
         <v>133</v>
       </c>
       <c r="B35" s="18" t="e">
-        <f t="shared" ref="B35:AO35" si="188">(B12+B15)/B11</f>
+        <f t="shared" ref="B35:AO35" si="189">(B12+B15)/B11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.46464646464646464</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.52826086956521745</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.83225806451612905</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>1.0337662337662337</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.75452716297786715</v>
       </c>
       <c r="J35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>3.4503816793893129</v>
       </c>
       <c r="K35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.73498233215547704</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.33502142578885863</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.7822349570200573</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.77734375</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.39209726443769</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.44327176781002636</v>
       </c>
       <c r="Q35" s="18" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.72</v>
       </c>
       <c r="S35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.54639175257731953</v>
       </c>
       <c r="T35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.84166666666666667</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="V35" s="18" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="18">
@@ -24978,62 +25203,62 @@
         <v>0</v>
       </c>
       <c r="AA35" s="18" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.48466257668711654</v>
       </c>
       <c r="AC35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.46651785714285715</v>
       </c>
       <c r="AD35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.59058823529411764</v>
       </c>
       <c r="AE35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.63513513513513509</v>
       </c>
       <c r="AF35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.78201124297314173</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.51282051282051277</v>
       </c>
       <c r="AH35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.64</v>
       </c>
       <c r="AI35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.505</v>
       </c>
       <c r="AJ35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.99736842105263157</v>
       </c>
       <c r="AK35" s="18">
         <v>0</v>
       </c>
       <c r="AL35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.3904109589041096</v>
       </c>
       <c r="AM35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.5083333333333333</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.98305084745762716</v>
       </c>
       <c r="AO35" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.95017793594306055</v>
       </c>
       <c r="AP35" s="18">
@@ -25041,19 +25266,19 @@
         <v>0.62658227848101267</v>
       </c>
       <c r="AQ35" s="18">
-        <f t="shared" ref="AQ35:AT35" si="189">AQ12/AQ11</f>
+        <f t="shared" ref="AQ35:AT35" si="190">AQ12/AQ11</f>
         <v>0.67741935483870963</v>
       </c>
       <c r="AR35" s="18">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>1.03125</v>
       </c>
       <c r="AS35" s="18">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AT35" s="18">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AU35" s="18">
@@ -25061,116 +25286,117 @@
         <v>0.55927051671732519</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" ref="AV35:CR35" si="190">(AV12+AV15)/AV11</f>
+        <f t="shared" ref="AV35:CR35" si="191">(AV12+AV15)/AV11</f>
         <v>0.60251798561151082</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.46243902439024392</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.79192546583850931</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.63019693654266962</v>
       </c>
       <c r="AZ35" s="18">
         <v>0</v>
       </c>
       <c r="BA35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.47720364741641336</v>
       </c>
       <c r="BB35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.41719745222929938</v>
       </c>
       <c r="BC35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.45027322404371589</v>
       </c>
       <c r="BD35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.28799999999999998</v>
       </c>
       <c r="BE35" s="18">
         <v>0</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.53909465020576131</v>
       </c>
       <c r="BG35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.59872611464968151</v>
       </c>
       <c r="BH35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.66233766233766234</v>
       </c>
       <c r="BI35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.68440366972477062</v>
       </c>
       <c r="BJ35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.60141509433962259</v>
       </c>
       <c r="BK35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.63194444444444442</v>
       </c>
       <c r="BL35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.42398286937901497</v>
       </c>
       <c r="BM35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.41038961038961042</v>
       </c>
       <c r="BN35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.38725490196078433</v>
       </c>
       <c r="BO35" s="18">
-        <v>0</v>
+        <f t="shared" si="191"/>
+        <v>0.55666666666666664</v>
       </c>
       <c r="BP35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.35876288659793809</v>
       </c>
       <c r="BQ35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.51063829787234039</v>
       </c>
       <c r="BR35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.62093023255813951</v>
       </c>
       <c r="BS35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.51098901098901095</v>
       </c>
       <c r="BT35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.75133689839572193</v>
       </c>
       <c r="BU35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.79005524861878451</v>
       </c>
       <c r="BV35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.6191860465116279</v>
       </c>
       <c r="BW35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="BX35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.62051282051282053</v>
       </c>
       <c r="BY35" s="18">
@@ -25178,78 +25404,78 @@
         <v>0.66150178784266989</v>
       </c>
       <c r="BZ35" s="18">
-        <f t="shared" ref="BZ35:CC35" si="191">(BZ12+BZ15)/BZ11</f>
+        <f t="shared" ref="BZ35:CC35" si="192">(BZ12+BZ15)/BZ11</f>
         <v>0.59418457648546141</v>
       </c>
       <c r="CA35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.46932185145317545</v>
+      </c>
+      <c r="CB35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.61654135338345861</v>
+      </c>
+      <c r="CC35" s="18">
+        <f t="shared" si="192"/>
+        <v>0.59866220735785958</v>
+      </c>
+      <c r="CD35" s="18">
+        <f t="shared" ref="CD35:CJ35" si="193">(CD12+CD15)/CD11</f>
+        <v>0.63561320754716977</v>
+      </c>
+      <c r="CE35" s="18">
+        <f t="shared" si="193"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="CF35" s="18">
+        <f t="shared" si="193"/>
+        <v>0.37100737100737102</v>
+      </c>
+      <c r="CG35" s="18">
+        <f t="shared" si="193"/>
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="CH35" s="18">
+        <f t="shared" si="193"/>
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="CI35" s="18">
+        <f t="shared" si="193"/>
+        <v>0.51270553064275037</v>
+      </c>
+      <c r="CJ35" s="18">
+        <f t="shared" si="193"/>
+        <v>0.46598639455782315</v>
+      </c>
+      <c r="CK35" s="18">
+        <f t="shared" ref="CK35:CM35" si="194">(CK12+CK15)/CK11</f>
+        <v>0.69976905311778292</v>
+      </c>
+      <c r="CL35" s="18">
+        <f t="shared" si="194"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="CM35" s="18">
+        <f t="shared" si="194"/>
+        <v>0.94785276073619629</v>
+      </c>
+      <c r="CN35" s="18">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="18">
         <f t="shared" si="191"/>
-        <v>0.46932185145317545</v>
-      </c>
-      <c r="CB35" s="18">
+        <v>0.80172413793103448</v>
+      </c>
+      <c r="CP35" s="18">
         <f t="shared" si="191"/>
-        <v>0.61654135338345861</v>
-      </c>
-      <c r="CC35" s="18">
+        <v>0.40602409638554221</v>
+      </c>
+      <c r="CQ35" s="18">
         <f t="shared" si="191"/>
-        <v>0.59866220735785958</v>
-      </c>
-      <c r="CD35" s="18">
-        <f t="shared" ref="CD35:CJ35" si="192">(CD12+CD15)/CD11</f>
-        <v>0.63561320754716977</v>
-      </c>
-      <c r="CE35" s="18">
-        <f t="shared" si="192"/>
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="CF35" s="18">
-        <f t="shared" si="192"/>
-        <v>0.37100737100737102</v>
-      </c>
-      <c r="CG35" s="18">
-        <f t="shared" si="192"/>
-        <v>0.7416666666666667</v>
-      </c>
-      <c r="CH35" s="18">
-        <f t="shared" si="192"/>
-        <v>0.54749999999999999</v>
-      </c>
-      <c r="CI35" s="18">
-        <f t="shared" si="192"/>
-        <v>0.51270553064275037</v>
-      </c>
-      <c r="CJ35" s="18">
-        <f t="shared" si="192"/>
-        <v>0.46598639455782315</v>
-      </c>
-      <c r="CK35" s="18">
-        <f t="shared" ref="CK35:CM35" si="193">(CK12+CK15)/CK11</f>
-        <v>0.69976905311778292</v>
-      </c>
-      <c r="CL35" s="18">
-        <f t="shared" si="193"/>
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="CM35" s="18">
-        <f t="shared" si="193"/>
-        <v>0.94785276073619629</v>
-      </c>
-      <c r="CN35" s="18">
-        <v>0</v>
-      </c>
-      <c r="CO35" s="18">
-        <f t="shared" si="190"/>
-        <v>0.80172413793103448</v>
-      </c>
-      <c r="CP35" s="18">
-        <f t="shared" si="190"/>
-        <v>0.40602409638554221</v>
-      </c>
-      <c r="CQ35" s="18">
-        <f t="shared" si="190"/>
         <v>0.48159509202453987</v>
       </c>
       <c r="CR35" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.38500000000000001</v>
       </c>
     </row>
@@ -25326,7 +25552,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="CN9 AK9 V9:X9 Q9 BE9 BO9 AA9 AZ9" formulaRange="1"/>
+    <ignoredError sqref="CN9 AK9 V9:X9 Q9 BE9 AA9 AZ9" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -25338,10 +25564,10 @@
   <dimension ref="A1:DG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BT20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BI9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BT35" sqref="BT35"/>
+      <selection pane="bottomRight" activeCell="BO30" sqref="BO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25397,7 +25623,7 @@
     <col min="63" max="63" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6.5546875" customWidth="1"/>
-    <col min="67" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.88671875" customWidth="1"/>
     <col min="68" max="68" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -26118,7 +26344,10 @@
         <f>Painel!BN3*IPC!J$3</f>
         <v>207.86485413126513</v>
       </c>
-      <c r="BO3" s="14"/>
+      <c r="BO3" s="14">
+        <f>Painel!BO3</f>
+        <v>56.1</v>
+      </c>
       <c r="BP3" s="14">
         <f>Painel!BP3*IPC!G$3</f>
         <v>76.537300000000016</v>
@@ -26524,7 +26753,10 @@
         <f>Painel!BN4*IPC!J$3</f>
         <v>46.612118805192793</v>
       </c>
-      <c r="BO4" s="14"/>
+      <c r="BO4" s="14">
+        <f>Painel!BO4</f>
+        <v>23.35</v>
+      </c>
       <c r="BP4" s="14">
         <f>Painel!BP4*IPC!G$3</f>
         <v>13.409500000000001</v>
@@ -26930,7 +27162,10 @@
         <f>Painel!BN5*IPC!J$3</f>
         <v>0.25195739894698804</v>
       </c>
-      <c r="BO5" s="14"/>
+      <c r="BO5" s="14">
+        <f>Painel!BO5</f>
+        <v>6.75</v>
+      </c>
       <c r="BP5" s="14">
         <f>Painel!BP5*IPC!G$3</f>
         <v>5.7763999999999998</v>
@@ -27312,7 +27547,10 @@
         <f>Painel!BN6*IPC!J$3</f>
         <v>104.56232056300004</v>
       </c>
-      <c r="BO6" s="14"/>
+      <c r="BO6" s="14">
+        <f>Painel!BO6</f>
+        <v>8</v>
+      </c>
       <c r="BP6" s="14">
         <f>Painel!BP6*IPC!G$3</f>
         <v>1.3409500000000001</v>
@@ -27616,7 +27854,10 @@
         <f>Painel!BN7*IPC!J$3</f>
         <v>0</v>
       </c>
-      <c r="BO7" s="14"/>
+      <c r="BO7" s="14">
+        <f>Painel!BO7</f>
+        <v>11</v>
+      </c>
       <c r="BP7" s="14">
         <f>Painel!BP7*IPC!G$3</f>
         <v>7.426800000000001</v>
@@ -27923,7 +28164,10 @@
         <f>Painel!BN8*IPC!J$3</f>
         <v>23.935952899963866</v>
       </c>
-      <c r="BO8" s="14"/>
+      <c r="BO8" s="14">
+        <f>Painel!BO8</f>
+        <v>2.5500000000000003</v>
+      </c>
       <c r="BP8" s="14"/>
       <c r="BQ8" s="14"/>
       <c r="BR8" s="14"/>
@@ -28317,7 +28561,10 @@
         <f t="shared" ref="BN9" si="28">SUM(BN3:BN8)-BN7</f>
         <v>383.22720379836881</v>
       </c>
-      <c r="BO9" s="14"/>
+      <c r="BO9" s="14">
+        <f>Painel!BO9</f>
+        <v>96.75</v>
+      </c>
       <c r="BP9" s="14">
         <f>SUM(BP3:BP8)-BP7</f>
         <v>97.064150000000026</v>
@@ -28723,7 +28970,10 @@
         <f>Painel!BN10*IPC!J$3</f>
         <v>136.05699543137354</v>
       </c>
-      <c r="BO10" s="14"/>
+      <c r="BO10" s="14">
+        <f>Painel!BO10</f>
+        <v>4.5</v>
+      </c>
       <c r="BP10" s="14">
         <f>Painel!BP10*IPC!G$3</f>
         <v>3.0945</v>
@@ -29129,7 +29379,10 @@
         <f>Painel!BN11*IPC!J$3</f>
         <v>513.99309385185563</v>
       </c>
-      <c r="BO11" s="14"/>
+      <c r="BO11" s="14">
+        <f>Painel!BO11</f>
+        <v>90</v>
+      </c>
       <c r="BP11" s="14">
         <f>Painel!BP11*IPC!G$3</f>
         <v>100.05550000000001</v>
@@ -29535,7 +29788,10 @@
         <f>Painel!BN12*IPC!J$3</f>
         <v>137.31678242610849</v>
       </c>
-      <c r="BO12" s="14"/>
+      <c r="BO12" s="14">
+        <f>Painel!BO12</f>
+        <v>50</v>
+      </c>
       <c r="BP12" s="14">
         <f>Painel!BP12*IPC!G$3</f>
         <v>34.039500000000004</v>
@@ -29941,7 +30197,10 @@
         <f>Painel!BN13*IPC!J$3</f>
         <v>27.715313884168687</v>
       </c>
-      <c r="BO13" s="14"/>
+      <c r="BO13" s="14">
+        <f>Painel!BO13</f>
+        <v>124</v>
+      </c>
       <c r="BP13" s="14">
         <f>Painel!BP13*IPC!G$3</f>
         <v>13.409500000000001</v>
@@ -30342,7 +30601,10 @@
         <f>Painel!BN14*IPC!J$3</f>
         <v>199.04634516812055</v>
       </c>
-      <c r="BO14" s="14"/>
+      <c r="BO14" s="14">
+        <f>Painel!BO14</f>
+        <v>-0.8</v>
+      </c>
       <c r="BP14" s="14">
         <f>Painel!BP14*IPC!G$3</f>
         <v>50.85295</v>
@@ -30747,7 +31009,10 @@
         <f>Painel!BN15*IPC!J$3</f>
         <v>61.729562742012071</v>
       </c>
-      <c r="BO15" s="14"/>
+      <c r="BO15" s="14">
+        <f>Painel!BO15</f>
+        <v>0.1</v>
+      </c>
       <c r="BP15" s="14">
         <f>Painel!BP15*IPC!G$3</f>
         <v>1.8567000000000002</v>
@@ -31151,7 +31416,10 @@
         <f>Painel!BN16*IPC!J$3</f>
         <v>28.975100878903625</v>
       </c>
-      <c r="BO16" s="14"/>
+      <c r="BO16" s="14">
+        <f>Painel!BO16</f>
+        <v>5</v>
+      </c>
       <c r="BP16" s="14">
         <f>Painel!BP16*IPC!G$3</f>
         <v>4.7449000000000003</v>
@@ -33953,7 +34221,7 @@
       </c>
       <c r="BO24" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="BP24" s="14">
         <f t="shared" si="64"/>
@@ -34300,9 +34568,12 @@
         <f t="shared" si="78"/>
         <v>4.695652173913043</v>
       </c>
-      <c r="BO25" s="14"/>
+      <c r="BO25" s="14">
+        <f t="shared" ref="BO25:BS25" si="79">BO10/BO16</f>
+        <v>0.9</v>
+      </c>
       <c r="BP25" s="14">
-        <f t="shared" ref="BP25:BS25" si="79">BP10/BP16</f>
+        <f t="shared" si="79"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="BQ25" s="14">
@@ -34645,7 +34916,7 @@
         <v>0</v>
       </c>
       <c r="BL26" s="14">
-        <f t="shared" ref="BL26:BN26" si="97">BL10/BL19</f>
+        <f t="shared" ref="BL26:BO26" si="97">BL10/BL19</f>
         <v>4.0182082500000007</v>
       </c>
       <c r="BM26" s="14">
@@ -34657,7 +34928,8 @@
         <v>2.0931845450980546</v>
       </c>
       <c r="BO26" s="14">
-        <v>0</v>
+        <f t="shared" si="97"/>
+        <v>0.11842105263157894</v>
       </c>
       <c r="BP26" s="14">
         <f t="shared" ref="BP26:BT26" si="98">BP10/BP19</f>
@@ -34991,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="14">
-        <f t="shared" ref="BK27:BN27" si="114">BK7/BK12</f>
+        <f t="shared" ref="BK27:BO27" si="114">BK7/BK12</f>
         <v>0</v>
       </c>
       <c r="BL27" s="14">
@@ -35006,7 +35278,10 @@
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="BO27" s="5"/>
+      <c r="BO27" s="14">
+        <f t="shared" si="114"/>
+        <v>0.22</v>
+      </c>
       <c r="BP27" s="14">
         <f t="shared" ref="BP27:BT27" si="115">BP7/BP12</f>
         <v>0.2181818181818182</v>
@@ -35353,7 +35628,7 @@
         <v>0</v>
       </c>
       <c r="BL28" s="14">
-        <f t="shared" ref="BL28:BN28" si="133">BL12/BL19</f>
+        <f t="shared" ref="BL28:BO28" si="133">BL12/BL19</f>
         <v>3.4116862500000007</v>
       </c>
       <c r="BM28" s="14">
@@ -35365,7 +35640,8 @@
         <v>2.1125658834785921</v>
       </c>
       <c r="BO28" s="14">
-        <v>0</v>
+        <f t="shared" si="133"/>
+        <v>1.3157894736842106</v>
       </c>
       <c r="BP28" s="14">
         <f t="shared" ref="BP28:BT28" si="134">BP12/BP19</f>
@@ -35713,7 +35989,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="14">
-        <f t="shared" ref="BL29:BN29" si="152">BL11/BL19</f>
+        <f t="shared" ref="BL29:BO29" si="152">BL11/BL19</f>
         <v>11.801907250000001</v>
       </c>
       <c r="BM29" s="14">
@@ -35725,7 +36001,8 @@
         <v>7.9075860592593177</v>
       </c>
       <c r="BO29" s="14">
-        <v>0</v>
+        <f t="shared" si="152"/>
+        <v>2.3684210526315788</v>
       </c>
       <c r="BP29" s="14">
         <f t="shared" ref="BP29:BT29" si="153">BP11/BP19</f>
@@ -36031,20 +36308,21 @@
         <f>Painel!BJ30</f>
         <v>0</v>
       </c>
-      <c r="BK30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="BO30" s="14" t="s">
-        <v>107</v>
+      <c r="BK30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="14">
+        <f>Painel!BO30</f>
+        <v>45.1</v>
       </c>
       <c r="BP30" s="14">
         <v>69.110500000000016</v>
@@ -36361,7 +36639,10 @@
         <f>Painel!BN31*IPC!J$3</f>
         <v>439.66566116249413</v>
       </c>
-      <c r="BO31" s="14"/>
+      <c r="BO31" s="14">
+        <f>Painel!BO31</f>
+        <v>61.4</v>
+      </c>
       <c r="BP31" s="14">
         <f>Painel!BP31*IPC!G$3</f>
         <v>67.253800000000012</v>
@@ -36706,9 +36987,12 @@
         <f t="shared" ref="BN32" si="202">BN31/BN14</f>
         <v>2.2088607594936707</v>
       </c>
-      <c r="BO32" s="14"/>
+      <c r="BO32" s="20">
+        <f t="shared" ref="BO32:BP32" si="203">BO31/BO14</f>
+        <v>-76.75</v>
+      </c>
       <c r="BP32" s="20">
-        <f t="shared" ref="BP32" si="203">BP31/BP14</f>
+        <f t="shared" si="203"/>
         <v>1.3225152129817446</v>
       </c>
       <c r="BQ32" s="20">
@@ -37025,7 +37309,7 @@
         <v>1.0683962264150944</v>
       </c>
       <c r="BK33" s="18">
-        <f t="shared" ref="BK33:BN33" si="233">BK31/BK11</f>
+        <f t="shared" ref="BK33:BO33" si="233">BK31/BK11</f>
         <v>1.5833333333333335</v>
       </c>
       <c r="BL33" s="18">
@@ -37039,6 +37323,10 @@
       <c r="BN33" s="18">
         <f t="shared" si="233"/>
         <v>0.85539215686274506</v>
+      </c>
+      <c r="BO33" s="18">
+        <f t="shared" si="233"/>
+        <v>0.68222222222222217</v>
       </c>
       <c r="BP33" s="18">
         <f t="shared" ref="BP33:BT33" si="234">BP31/BP11</f>
@@ -37389,7 +37677,7 @@
         <v>0.54481132075471694</v>
       </c>
       <c r="BK34" s="18">
-        <f t="shared" ref="BK34:BN34" si="251">BK12/BK11</f>
+        <f t="shared" ref="BK34:BO34" si="251">BK12/BK11</f>
         <v>0.40277777777777779</v>
       </c>
       <c r="BL34" s="18">
@@ -37405,7 +37693,8 @@
         <v>0.26715686274509803</v>
       </c>
       <c r="BO34" s="18">
-        <v>0</v>
+        <f t="shared" si="251"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BP34" s="18">
         <f t="shared" ref="BP34:BT34" si="252">BP12/BP11</f>
@@ -37759,7 +38048,7 @@
         <v>0.60141509433962259</v>
       </c>
       <c r="BK35" s="18">
-        <f t="shared" ref="BK35:BN35" si="269">(BK12+BK15)/BK11</f>
+        <f t="shared" ref="BK35:BO35" si="269">(BK12+BK15)/BK11</f>
         <v>0.63194444444444442</v>
       </c>
       <c r="BL35" s="18">
@@ -37775,7 +38064,8 @@
         <v>0.38725490196078427</v>
       </c>
       <c r="BO35" s="18">
-        <v>0</v>
+        <f t="shared" si="269"/>
+        <v>0.55666666666666664</v>
       </c>
       <c r="BP35" s="18">
         <f t="shared" ref="BP35:BT35" si="270">(BP12+BP15)/BP11</f>
@@ -37992,10 +38282,10 @@
   <dimension ref="A1:BU39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AR11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AL13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR36" sqref="AR36"/>
+      <selection pane="bottomRight" activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38036,7 +38326,7 @@
     <col min="38" max="38" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6.5546875" customWidth="1"/>
-    <col min="41" max="41" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="7" customWidth="1"/>
     <col min="44" max="44" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -38453,7 +38743,10 @@
         <f>Painel!BN3*IPC!J$3</f>
         <v>207.86485413126513</v>
       </c>
-      <c r="AO3" s="14"/>
+      <c r="AO3" s="14">
+        <f>Painel_Cte!BO3</f>
+        <v>56.1</v>
+      </c>
       <c r="AP3" s="14">
         <f>Painel!BP3*IPC!G$3</f>
         <v>76.537300000000016</v>
@@ -38662,7 +38955,10 @@
         <f>Painel!BN4*IPC!J$3</f>
         <v>46.612118805192793</v>
       </c>
-      <c r="AO4" s="14"/>
+      <c r="AO4" s="14">
+        <f>Painel_Cte!BO4</f>
+        <v>23.35</v>
+      </c>
       <c r="AP4" s="14">
         <f>Painel!BP4*IPC!G$3</f>
         <v>13.409500000000001</v>
@@ -38871,7 +39167,10 @@
         <f>Painel!BN5*IPC!J$3</f>
         <v>0.25195739894698804</v>
       </c>
-      <c r="AO5" s="14"/>
+      <c r="AO5" s="14">
+        <f>Painel_Cte!BO5</f>
+        <v>6.75</v>
+      </c>
       <c r="AP5" s="14">
         <f>Painel!BP5*IPC!G$3</f>
         <v>5.7763999999999998</v>
@@ -39068,7 +39367,10 @@
         <f>Painel!BN6*IPC!J$3</f>
         <v>104.56232056300004</v>
       </c>
-      <c r="AO6" s="14"/>
+      <c r="AO6" s="14">
+        <f>Painel_Cte!BO6</f>
+        <v>8</v>
+      </c>
       <c r="AP6" s="14">
         <f>Painel!BP6*IPC!G$3</f>
         <v>1.3409500000000001</v>
@@ -39217,7 +39519,10 @@
         <f>Painel!BN7*IPC!J$3</f>
         <v>0</v>
       </c>
-      <c r="AO7" s="14"/>
+      <c r="AO7" s="14">
+        <f>Painel_Cte!BO7</f>
+        <v>11</v>
+      </c>
       <c r="AP7" s="14">
         <f>Painel!BP7*IPC!G$3</f>
         <v>7.426800000000001</v>
@@ -39369,7 +39674,10 @@
         <f>Painel!BN8*IPC!J$3</f>
         <v>23.935952899963866</v>
       </c>
-      <c r="AO8" s="14"/>
+      <c r="AO8" s="14">
+        <f>Painel_Cte!BO8</f>
+        <v>2.5500000000000003</v>
+      </c>
       <c r="AP8" s="14"/>
       <c r="AQ8" s="14"/>
       <c r="AR8" s="14">
@@ -39566,7 +39874,10 @@
         <f t="shared" ref="AN9" si="11">SUM(AN3:AN8)-AN7</f>
         <v>383.22720379836881</v>
       </c>
-      <c r="AO9" s="14"/>
+      <c r="AO9" s="14">
+        <f>Painel_Cte!BO9</f>
+        <v>96.75</v>
+      </c>
       <c r="AP9" s="14">
         <f>SUM(AP3:AP8)-AP7</f>
         <v>97.064150000000026</v>
@@ -39775,7 +40086,10 @@
         <f>Painel!BN10*IPC!J$3</f>
         <v>136.05699543137354</v>
       </c>
-      <c r="AO10" s="14"/>
+      <c r="AO10" s="14">
+        <f>Painel_Cte!BO10</f>
+        <v>4.5</v>
+      </c>
       <c r="AP10" s="14">
         <f>Painel!BP10*IPC!G$3</f>
         <v>3.0945</v>
@@ -39984,7 +40298,10 @@
         <f>Painel!BN11*IPC!J$3</f>
         <v>513.99309385185563</v>
       </c>
-      <c r="AO11" s="14"/>
+      <c r="AO11" s="14">
+        <f>Painel_Cte!BO11</f>
+        <v>90</v>
+      </c>
       <c r="AP11" s="14">
         <f>Painel!BP11*IPC!G$3</f>
         <v>100.05550000000001</v>
@@ -40193,7 +40510,10 @@
         <f>Painel!BN12*IPC!J$3</f>
         <v>137.31678242610849</v>
       </c>
-      <c r="AO12" s="14"/>
+      <c r="AO12" s="14">
+        <f>Painel_Cte!BO12</f>
+        <v>50</v>
+      </c>
       <c r="AP12" s="14">
         <f>Painel!BP12*IPC!G$3</f>
         <v>34.039500000000004</v>
@@ -40402,7 +40722,10 @@
         <f>Painel!BN13*IPC!J$3</f>
         <v>27.715313884168687</v>
       </c>
-      <c r="AO13" s="14"/>
+      <c r="AO13" s="14">
+        <f>Painel_Cte!BO13</f>
+        <v>124</v>
+      </c>
       <c r="AP13" s="14">
         <f>Painel!BP13*IPC!G$3</f>
         <v>13.409500000000001</v>
@@ -40608,7 +40931,10 @@
         <f>Painel!BN14*IPC!J$3</f>
         <v>199.04634516812055</v>
       </c>
-      <c r="AO14" s="14"/>
+      <c r="AO14" s="14">
+        <f>Painel_Cte!BO14</f>
+        <v>-0.8</v>
+      </c>
       <c r="AP14" s="14">
         <f>Painel!BP14*IPC!G$3</f>
         <v>50.85295</v>
@@ -40816,7 +41142,10 @@
         <f>Painel!BN15*IPC!J$3</f>
         <v>61.729562742012071</v>
       </c>
-      <c r="AO15" s="14"/>
+      <c r="AO15" s="14">
+        <f>Painel_Cte!BO15</f>
+        <v>0.1</v>
+      </c>
       <c r="AP15" s="14">
         <f>Painel!BP15*IPC!G$3</f>
         <v>1.8567000000000002</v>
@@ -41023,7 +41352,10 @@
         <f>Painel!BN16*IPC!J$3</f>
         <v>28.975100878903625</v>
       </c>
-      <c r="AO16" s="14"/>
+      <c r="AO16" s="14">
+        <f>Painel_Cte!BO16</f>
+        <v>5</v>
+      </c>
       <c r="AP16" s="14">
         <f>Painel!BP16*IPC!G$3</f>
         <v>4.7449000000000003</v>
@@ -42615,7 +42947,7 @@
       </c>
       <c r="AO24" s="14">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="AP24" s="14">
         <f t="shared" si="17"/>
@@ -42810,14 +43142,17 @@
         <v>1.9230769230769231</v>
       </c>
       <c r="AM25" s="14">
-        <f t="shared" ref="AM25:AN25" si="31">AM10/AM16</f>
+        <f t="shared" ref="AM25:AO25" si="31">AM10/AM16</f>
         <v>4.08</v>
       </c>
       <c r="AN25" s="14">
         <f t="shared" si="31"/>
         <v>4.695652173913043</v>
       </c>
-      <c r="AO25" s="14"/>
+      <c r="AO25" s="14">
+        <f t="shared" si="31"/>
+        <v>0.9</v>
+      </c>
       <c r="AP25" s="14">
         <f t="shared" ref="AP25:AR25" si="32">AP10/AP16</f>
         <v>0.65217391304347827</v>
@@ -43025,11 +43360,12 @@
         <v>0</v>
       </c>
       <c r="AN26" s="14">
-        <f t="shared" ref="AN26" si="49">AN10/AN19</f>
+        <f t="shared" ref="AN26:AO26" si="49">AN10/AN19</f>
         <v>2.0931845450980546</v>
       </c>
       <c r="AO26" s="14">
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>0.11842105263157894</v>
       </c>
       <c r="AP26" s="14">
         <f t="shared" ref="AP26:AR26" si="50">AP10/AP19</f>
@@ -43225,14 +43561,17 @@
         <v>0</v>
       </c>
       <c r="AM27" s="14">
-        <f t="shared" ref="AM27:AN27" si="66">AM7/AM12</f>
+        <f t="shared" ref="AM27:AO27" si="66">AM7/AM12</f>
         <v>0</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AO27" s="5"/>
+      <c r="AO27" s="14">
+        <f t="shared" si="66"/>
+        <v>0.22</v>
+      </c>
       <c r="AP27" s="14">
         <f t="shared" ref="AP27:AR27" si="67">AP7/AP12</f>
         <v>0.2181818181818182</v>
@@ -43440,11 +43779,12 @@
         <v>0</v>
       </c>
       <c r="AN28" s="14">
-        <f t="shared" ref="AN28" si="85">AN12/AN19</f>
+        <f t="shared" ref="AN28:AO28" si="85">AN12/AN19</f>
         <v>2.1125658834785921</v>
       </c>
       <c r="AO28" s="14">
-        <v>0</v>
+        <f t="shared" si="85"/>
+        <v>1.3157894736842106</v>
       </c>
       <c r="AP28" s="14">
         <f t="shared" ref="AP28:AR28" si="86">AP12/AP19</f>
@@ -43655,11 +43995,12 @@
         <v>0</v>
       </c>
       <c r="AN29" s="14">
-        <f t="shared" ref="AN29" si="104">AN11/AN19</f>
+        <f t="shared" ref="AN29:AO29" si="104">AN11/AN19</f>
         <v>7.9075860592593177</v>
       </c>
       <c r="AO29" s="14">
-        <v>0</v>
+        <f t="shared" si="104"/>
+        <v>2.3684210526315788</v>
       </c>
       <c r="AP29" s="14">
         <f t="shared" ref="AP29:AR29" si="105">AP11/AP19</f>
@@ -43842,17 +44183,18 @@
         <v>42.832757820987965</v>
       </c>
       <c r="AL30" s="14">
-        <f>Painel!BJ30</f>
-        <v>0</v>
-      </c>
-      <c r="AM30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO30" s="14" t="s">
-        <v>107</v>
+        <f>Painel_Cte!BJ30</f>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="14">
+        <f>Painel_Cte!BO30</f>
+        <v>45.1</v>
       </c>
       <c r="AP30" s="14">
         <v>69.110500000000016</v>
@@ -44033,7 +44375,10 @@
         <f>Painel!BN31*IPC!J$3</f>
         <v>439.66566116249413</v>
       </c>
-      <c r="AO31" s="14"/>
+      <c r="AO31" s="14">
+        <f>Painel_Cte!BO31</f>
+        <v>61.4</v>
+      </c>
       <c r="AP31" s="14">
         <f>Painel!BP31*IPC!G$3</f>
         <v>67.253800000000012</v>
@@ -44222,14 +44567,17 @@
         <v>2.9225806451612901</v>
       </c>
       <c r="AM32" s="20">
-        <f t="shared" ref="AM32:AN32" si="122">AM31/AM14</f>
+        <f t="shared" ref="AM32:AO32" si="122">AM31/AM14</f>
         <v>13.818181818181818</v>
       </c>
       <c r="AN32" s="20">
         <f t="shared" si="122"/>
         <v>2.2088607594936707</v>
       </c>
-      <c r="AO32" s="14"/>
+      <c r="AO32" s="20">
+        <f t="shared" si="122"/>
+        <v>-76.75</v>
+      </c>
       <c r="AP32" s="20">
         <f t="shared" ref="AP32:AR32" si="123">AP31/AP14</f>
         <v>1.3225152129817446</v>
@@ -44408,12 +44756,16 @@
         <v>1.0683962264150944</v>
       </c>
       <c r="AM33" s="18">
-        <f t="shared" ref="AM33:AN33" si="141">AM31/AM11</f>
+        <f t="shared" ref="AM33:AO33" si="141">AM31/AM11</f>
         <v>1.5833333333333335</v>
       </c>
       <c r="AN33" s="18">
         <f t="shared" si="141"/>
         <v>0.85539215686274506</v>
+      </c>
+      <c r="AO33" s="18">
+        <f t="shared" si="141"/>
+        <v>0.68222222222222217</v>
       </c>
       <c r="AP33" s="18">
         <f t="shared" ref="AP33:AR33" si="142">AP31/AP11</f>
@@ -45351,10 +45703,10 @@
   <dimension ref="A1:DG65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BS2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BT8" sqref="BT8"/>
+      <selection pane="bottomRight" activeCell="BO13" sqref="BO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46030,6 +46382,9 @@
       <c r="BN3">
         <v>27</v>
       </c>
+      <c r="BO3">
+        <v>0.4</v>
+      </c>
       <c r="BP3">
         <v>0.4</v>
       </c>
@@ -46308,6 +46663,9 @@
       <c r="BN4">
         <v>93</v>
       </c>
+      <c r="BO4">
+        <v>30</v>
+      </c>
       <c r="BP4">
         <v>28</v>
       </c>
@@ -46925,6 +47283,9 @@
       <c r="BN7">
         <v>30</v>
       </c>
+      <c r="BO7">
+        <v>31</v>
+      </c>
       <c r="BP7">
         <v>34</v>
       </c>
@@ -47273,7 +47634,7 @@
       </c>
       <c r="BO8">
         <f>SUM(BO3:BO7)</f>
-        <v>0</v>
+        <v>61.4</v>
       </c>
       <c r="BP8">
         <f t="shared" ref="BP8" si="42">SUM(BP3:BP7)</f>
@@ -47670,6 +48031,10 @@
         <f t="shared" si="91"/>
         <v>158</v>
       </c>
+      <c r="BO10">
+        <f>BO11-BO12+BO13</f>
+        <v>-0.79999999999999982</v>
+      </c>
       <c r="BP10">
         <f>BP11-BP12+BP13</f>
         <v>49.3</v>
@@ -47990,6 +48355,9 @@
       <c r="BN11">
         <v>408</v>
       </c>
+      <c r="BO11">
+        <v>98</v>
+      </c>
       <c r="BP11">
         <v>97</v>
       </c>
@@ -48273,6 +48641,10 @@
       <c r="BN12">
         <v>311</v>
       </c>
+      <c r="BO12">
+        <f>78+26</f>
+        <v>104</v>
+      </c>
       <c r="BP12">
         <v>58</v>
       </c>
@@ -48501,6 +48873,9 @@
       </c>
       <c r="BN13">
         <v>61</v>
+      </c>
+      <c r="BO13">
+        <v>5.2</v>
       </c>
       <c r="BP13">
         <f>3.3+7</f>
@@ -49334,7 +49709,7 @@
       </c>
       <c r="BO18">
         <f>Painel!BO11</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BP18">
         <f>Painel!BP11</f>
@@ -49824,7 +50199,7 @@
       </c>
       <c r="BO20">
         <f>Painel!BO12</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BP20">
         <f>Painel!BP12</f>
